--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -235,12 +235,12 @@
     <t>Draymond Green</t>
   </si>
   <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
     <t>Ben Simmons</t>
   </si>
   <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
     <t>Marcus Smart</t>
   </si>
   <si>
@@ -286,13 +286,13 @@
     <t>Klay Thompson</t>
   </si>
   <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
     <t>Buddy Hield</t>
   </si>
   <si>
     <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
   </si>
   <si>
     <t>Al Horford</t>
@@ -2617,10 +2617,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D70" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2631,10 +2631,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D71" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2855,10 +2855,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D87" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2869,10 +2869,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D88" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2883,10 +2883,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="D89" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="1:4">

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -205,12 +205,12 @@
     <t>Tobias Harris</t>
   </si>
   <si>
+    <t>Jusuf Nurkic</t>
+  </si>
+  <si>
     <t>Michael Porter Jr.</t>
   </si>
   <si>
-    <t>Jusuf Nurkic</t>
-  </si>
-  <si>
     <t>Jakob Poeltl</t>
   </si>
   <si>
@@ -220,12 +220,12 @@
     <t>D'Angelo Russell</t>
   </si>
   <si>
+    <t>Josh Giddey</t>
+  </si>
+  <si>
     <t>John Collins</t>
   </si>
   <si>
-    <t>Josh Giddey</t>
-  </si>
-  <si>
     <t>RJ Barrett</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>Draymond Green</t>
   </si>
   <si>
+    <t>Ben Simmons</t>
+  </si>
+  <si>
     <t>Clint Capela</t>
   </si>
   <si>
-    <t>Ben Simmons</t>
-  </si>
-  <si>
     <t>Marcus Smart</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>Jordan Poole</t>
   </si>
   <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
     <t>Kyle Lowry</t>
   </si>
   <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
     <t>Saddiq Bey</t>
   </si>
   <si>
@@ -280,12 +280,12 @@
     <t>Gordon Hayward</t>
   </si>
   <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
     <t>Russell Westbrook III</t>
   </si>
   <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
     <t>Kyle Kuzma</t>
   </si>
   <si>
@@ -331,66 +331,69 @@
     <t>Kevin Porter Jr.</t>
   </si>
   <si>
+    <t>Isaiah Stewart</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
     <t>Caris LeVert</t>
   </si>
   <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
     <t>Spencer Dinwiddie</t>
   </si>
   <si>
-    <t>Isaiah Stewart</t>
-  </si>
-  <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
     <t>Bobby Portis Jr.</t>
   </si>
   <si>
+    <t>Brandon Clarke</t>
+  </si>
+  <si>
     <t>Mo Bamba</t>
   </si>
   <si>
-    <t>Brandon Clarke</t>
-  </si>
-  <si>
     <t>Ivica Zubac</t>
   </si>
   <si>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
     <t>Derrick White</t>
   </si>
   <si>
-    <t>Jordan Clarkson</t>
+    <t>Jalen Suggs</t>
   </si>
   <si>
     <t>Richaun Holmes</t>
   </si>
   <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
     <t>Kyle Anderson</t>
   </si>
   <si>
     <t>Alperen Sengun</t>
   </si>
   <si>
+    <t>Bojan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
     <t>Reggie Jackson</t>
   </si>
   <si>
-    <t>Bojan Bogdanovic</t>
-  </si>
-  <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
-    <t>Gary Trent Jr.</t>
-  </si>
-  <si>
     <t>Will Barton</t>
   </si>
   <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
     <t>Josh Hart</t>
   </si>
   <si>
@@ -400,48 +403,51 @@
     <t>Evan Fournier</t>
   </si>
   <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
     <t>Cole Anthony</t>
   </si>
   <si>
+    <t>Jae'Sean Tate</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
     <t>T.J. McConnell</t>
   </si>
   <si>
-    <t>Jae'Sean Tate</t>
-  </si>
-  <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
     <t>Chris Boucher</t>
   </si>
   <si>
+    <t>Dorian FinneySmith</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
     <t>John Wall</t>
   </si>
   <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Dorian FinneySmith</t>
+    <t>Malik Beasley</t>
   </si>
   <si>
     <t>Jonathan Isaac</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
     <t>Jaden McDaniels</t>
   </si>
   <si>
     <t>Chuma Okeke</t>
   </si>
   <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Patrick Williams</t>
+  </si>
+  <si>
     <t>Royce O'Neale</t>
   </si>
   <si>
@@ -451,15 +457,9 @@
     <t>Devonte' Graham</t>
   </si>
   <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
     <t>Luguentz Dort</t>
   </si>
   <si>
-    <t>Patrick Williams</t>
-  </si>
-  <si>
     <t>Aleksej Pokusevski</t>
   </si>
   <si>
@@ -472,28 +472,31 @@
     <t>Daniel Gafford</t>
   </si>
   <si>
+    <t>Mason Plumlee</t>
+  </si>
+  <si>
+    <t>Miles Bridges</t>
+  </si>
+  <si>
+    <t>Joe Harris</t>
+  </si>
+  <si>
+    <t>Isaiah Roby</t>
+  </si>
+  <si>
+    <t>Andre Drummond</t>
+  </si>
+  <si>
     <t>Nerlens Noel</t>
   </si>
   <si>
-    <t>Mason Plumlee</t>
-  </si>
-  <si>
-    <t>Miles Bridges</t>
-  </si>
-  <si>
-    <t>Joe Harris</t>
-  </si>
-  <si>
-    <t>Isaiah Roby</t>
+    <t>Kelly Oubre Jr.</t>
   </si>
   <si>
     <t>James Wiseman</t>
   </si>
   <si>
-    <t>Andre Drummond</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
+    <t>Donte DiVincenzo</t>
   </si>
   <si>
     <t>Joe Ingles</t>
@@ -502,21 +505,18 @@
     <t>Jaden Ivey</t>
   </si>
   <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
     <t>Tim Hardaway Jr.</t>
   </si>
   <si>
     <t>Marvin Bagley III</t>
   </si>
   <si>
+    <t>Kevin Huerter</t>
+  </si>
+  <si>
     <t>Kelly Olynyk</t>
   </si>
   <si>
-    <t>Kevin Huerter</t>
-  </si>
-  <si>
     <t>Seth Curry</t>
   </si>
   <si>
@@ -538,12 +538,12 @@
     <t>Matisse Thybulle</t>
   </si>
   <si>
+    <t>Larry Nance Jr.</t>
+  </si>
+  <si>
     <t>Duncan Robinson</t>
   </si>
   <si>
-    <t>Larry Nance Jr.</t>
-  </si>
-  <si>
     <t>Jae Crowder</t>
   </si>
   <si>
@@ -583,6 +583,9 @@
     <t>Otto Porter Jr.</t>
   </si>
   <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
     <t>Rui Hachimura</t>
   </si>
   <si>
@@ -595,21 +598,18 @@
     <t>Hassan Whiteside</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
+    <t>Terrence Ross</t>
+  </si>
+  <si>
+    <t>Killian Hayes</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
   </si>
   <si>
     <t>Obi Toppin</t>
   </si>
   <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Terrence Ross</t>
-  </si>
-  <si>
-    <t>Killian Hayes</t>
-  </si>
-  <si>
     <t>Kemba Walker</t>
   </si>
   <si>
@@ -754,10 +754,10 @@
     <t>Cameron Payne</t>
   </si>
   <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
     <t>Juan ToscanoAnderson</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
   </si>
   <si>
     <t>KJ Martin Jr.</t>
@@ -2477,10 +2477,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D60" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2491,10 +2491,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D61" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2547,10 +2547,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D65" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2561,10 +2561,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D66" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2617,10 +2617,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D70" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2631,10 +2631,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D71" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2729,10 +2729,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D78" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2743,10 +2743,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D79" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2827,10 +2827,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D85" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2841,10 +2841,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D86" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3065,10 +3065,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D102" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3093,10 +3093,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D104" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3107,10 +3107,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D105" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3149,10 +3149,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="D108" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3163,10 +3163,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="D109" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3194,7 +3194,7 @@
         <v>369</v>
       </c>
       <c r="D111" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3208,7 +3208,7 @@
         <v>369</v>
       </c>
       <c r="D112" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3219,10 +3219,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D113" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3233,10 +3233,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D114" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3275,10 +3275,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D117" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3289,10 +3289,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D118" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3303,10 +3303,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D119" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3317,10 +3317,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D120" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3345,10 +3345,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D122" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3359,10 +3359,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D123" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3373,10 +3373,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D124" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3387,10 +3387,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D125" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3415,10 +3415,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D127" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3429,10 +3429,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D128" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3443,10 +3443,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D129" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3471,10 +3471,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D131" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3513,10 +3513,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D134" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3527,10 +3527,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="D135" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3541,10 +3541,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="D136" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3586,7 +3586,7 @@
         <v>368</v>
       </c>
       <c r="D139" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3597,10 +3597,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D140" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3611,10 +3611,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D141" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3625,10 +3625,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D142" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3639,10 +3639,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D143" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3653,10 +3653,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D144" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3726,7 +3726,7 @@
         <v>367</v>
       </c>
       <c r="D149" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3737,7 +3737,7 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D150" t="s">
         <v>400</v>
@@ -3751,10 +3751,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D151" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3765,10 +3765,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D152" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3779,10 +3779,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D153" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3793,10 +3793,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D154" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3807,10 +3807,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D155" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3821,10 +3821,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D156" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3835,10 +3835,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D157" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3849,10 +3849,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D158" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3863,10 +3863,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D159" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3905,10 +3905,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D162" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3919,10 +3919,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D163" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4031,10 +4031,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D171" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4045,10 +4045,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D172" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4241,10 +4241,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D186" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4255,10 +4255,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D187" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4269,10 +4269,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D188" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4283,10 +4283,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D189" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4297,10 +4297,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D190" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4311,10 +4311,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D191" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4325,7 +4325,7 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D192" t="s">
         <v>414</v>
@@ -4339,10 +4339,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D193" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4353,10 +4353,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D194" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5039,10 +5039,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D243" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5053,10 +5053,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D244" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="245" spans="1:4">

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -85,15 +85,15 @@
     <t>Devin Booker</t>
   </si>
   <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
     <t>Domantas Sabonis</t>
   </si>
   <si>
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
@@ -106,15 +106,15 @@
     <t>Rudy Gobert</t>
   </si>
   <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
     <t>Dejounte Murray</t>
   </si>
   <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
@@ -142,12 +142,12 @@
     <t>Darius Garland</t>
   </si>
   <si>
+    <t>Robert Williams III</t>
+  </si>
+  <si>
     <t>Zach LaVine</t>
   </si>
   <si>
-    <t>Robert Williams III</t>
-  </si>
-  <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
@@ -235,18 +235,21 @@
     <t>Draymond Green</t>
   </si>
   <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
     <t>Ben Simmons</t>
   </si>
   <si>
     <t>Clint Capela</t>
   </si>
   <si>
+    <t>Tyler Herro</t>
+  </si>
+  <si>
     <t>Marcus Smart</t>
   </si>
   <si>
-    <t>Tyler Herro</t>
-  </si>
-  <si>
     <t>Malcolm Brogdon</t>
   </si>
   <si>
@@ -257,9 +260,6 @@
   </si>
   <si>
     <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
   </si>
   <si>
     <t>Kyle Lowry</t>
@@ -1917,10 +1917,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D20" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1931,10 +1931,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1945,10 +1945,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D22" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2018,7 +2018,7 @@
         <v>369</v>
       </c>
       <c r="D27" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2032,7 +2032,7 @@
         <v>369</v>
       </c>
       <c r="D28" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2046,7 +2046,7 @@
         <v>369</v>
       </c>
       <c r="D29" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2183,10 +2183,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D39" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2197,10 +2197,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D40" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2617,10 +2617,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D70" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2631,10 +2631,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D71" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2645,10 +2645,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D72" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2687,10 +2687,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D75" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2701,10 +2701,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D76" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2715,7 +2715,7 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D77" t="s">
         <v>395</v>
@@ -2729,10 +2729,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D78" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="79" spans="1:4">

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -10,14 +10,14 @@
     <sheet name="draft" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$364</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$382</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="439">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -34,21 +34,21 @@
     <t>Nikola Jokic</t>
   </si>
   <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
     <t>Jayson Tatum</t>
   </si>
   <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
     <t>Luka Doncic</t>
   </si>
   <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
     <t>Stephen Curry</t>
   </si>
   <si>
@@ -61,12 +61,12 @@
     <t>LeBron James</t>
   </si>
   <si>
+    <t>LaMelo Ball</t>
+  </si>
+  <si>
     <t>Damian Lillard</t>
   </si>
   <si>
-    <t>LaMelo Ball</t>
-  </si>
-  <si>
     <t>James Harden</t>
   </si>
   <si>
@@ -76,18 +76,18 @@
     <t>Ja Morant</t>
   </si>
   <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
     <t>Domantas Sabonis</t>
   </si>
   <si>
@@ -97,51 +97,51 @@
     <t>Donovan Mitchell</t>
   </si>
   <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
     <t>Shai GilgeousAlexander</t>
   </si>
   <si>
-    <t>Bam Adebayo</t>
+    <t>Tyrese Haliburton</t>
   </si>
   <si>
     <t>Rudy Gobert</t>
   </si>
   <si>
-    <t>Tyrese Haliburton</t>
+    <t>Dejounte Murray</t>
   </si>
   <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
     <t>Chris Paul</t>
   </si>
   <si>
     <t>Pascal Siakam</t>
   </si>
   <si>
+    <t>DeMar DeRozan</t>
+  </si>
+  <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
     <t>Anthony Edwards</t>
   </si>
   <si>
-    <t>DeMar DeRozan</t>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
   </si>
   <si>
     <t>Nikola Vucevic</t>
   </si>
   <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
     <t>Robert Williams III</t>
   </si>
   <si>
@@ -160,10 +160,13 @@
     <t>Zion Williamson</t>
   </si>
   <si>
+    <t>Cade Cunningham</t>
+  </si>
+  <si>
     <t>Brandon Ingram</t>
   </si>
   <si>
-    <t>Cade Cunningham</t>
+    <t>Jarrett Allen</t>
   </si>
   <si>
     <t>CJ McCollum</t>
@@ -172,195 +175,198 @@
     <t>De'Aaron Fox</t>
   </si>
   <si>
-    <t>Jarrett Allen</t>
+    <t>Jonas Valanciunas</t>
   </si>
   <si>
     <t>Myles Turner</t>
   </si>
   <si>
-    <t>Jonas Valanciunas</t>
+    <t>Evan Mobley</t>
   </si>
   <si>
     <t>OG Anunoby</t>
   </si>
   <si>
-    <t>Evan Mobley</t>
+    <t>Mikal Bridges</t>
+  </si>
+  <si>
+    <t>Terry Rozier</t>
   </si>
   <si>
     <t>Julius Randle</t>
   </si>
   <si>
-    <t>Mikal Bridges</t>
-  </si>
-  <si>
     <t>Christian Wood</t>
   </si>
   <si>
-    <t>Terry Rozier</t>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Scottie Barnes</t>
   </si>
   <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
-    <t>Tobias Harris</t>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>John Collins</t>
   </si>
   <si>
     <t>Jusuf Nurkic</t>
   </si>
   <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Scottie Barnes</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
   </si>
   <si>
     <t>Josh Giddey</t>
   </si>
   <si>
-    <t>John Collins</t>
+    <t>Tyler Herro</t>
+  </si>
+  <si>
+    <t>Ben Simmons</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Marcus Smart</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Saddiq Bey</t>
+  </si>
+  <si>
+    <t>Kyle Lowry</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
   </si>
   <si>
     <t>RJ Barrett</t>
   </si>
   <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Ben Simmons</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>Tyler Herro</t>
-  </si>
-  <si>
-    <t>Marcus Smart</t>
-  </si>
-  <si>
     <t>Malcolm Brogdon</t>
   </si>
   <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Kyle Lowry</t>
-  </si>
-  <si>
-    <t>Saddiq Bey</t>
-  </si>
-  <si>
     <t>Mitchell Robinson</t>
   </si>
   <si>
-    <t>Wendell Carter Jr.</t>
+    <t>Gordon Hayward</t>
+  </si>
+  <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Keldon Johnson</t>
+  </si>
+  <si>
+    <t>Al Horford</t>
+  </si>
+  <si>
+    <t>Russell Westbrook III</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
   </si>
   <si>
     <t>Jaren Jackson Jr.</t>
   </si>
   <si>
-    <t>Gordon Hayward</t>
-  </si>
-  <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>Russell Westbrook III</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>Buddy Hield</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Al Horford</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Keldon Johnson</t>
+    <t>Brook Lopez</t>
   </si>
   <si>
     <t>Mike Conley</t>
   </si>
   <si>
-    <t>Brook Lopez</t>
+    <t>Robert Covington</t>
   </si>
   <si>
     <t>Bogdan Bogdanovic</t>
   </si>
   <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Harrison Barnes</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Kevin Porter Jr.</t>
+  </si>
+  <si>
+    <t>Isaiah Stewart</t>
+  </si>
+  <si>
+    <t>Brandon Clarke</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
+    <t>Bobby Portis Jr.</t>
+  </si>
+  <si>
     <t>Collin Sexton</t>
   </si>
   <si>
-    <t>Robert Covington</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Harrison Barnes</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Kevin Porter Jr.</t>
-  </si>
-  <si>
-    <t>Isaiah Stewart</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
   </si>
   <si>
     <t>Caris LeVert</t>
   </si>
   <si>
-    <t>Spencer Dinwiddie</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Bobby Portis Jr.</t>
-  </si>
-  <si>
-    <t>Brandon Clarke</t>
-  </si>
-  <si>
     <t>Mo Bamba</t>
   </si>
   <si>
-    <t>Ivica Zubac</t>
+    <t>Alperen Sengun</t>
   </si>
   <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
     <t>Derrick White</t>
   </si>
   <si>
@@ -370,24 +376,21 @@
     <t>Richaun Holmes</t>
   </si>
   <si>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Bojan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Reggie Jackson</t>
+  </si>
+  <si>
     <t>Kyle Anderson</t>
   </si>
   <si>
-    <t>Alperen Sengun</t>
-  </si>
-  <si>
-    <t>Bojan Bogdanovic</t>
-  </si>
-  <si>
-    <t>Gary Trent Jr.</t>
-  </si>
-  <si>
-    <t>Reggie Jackson</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
     <t>Will Barton</t>
   </si>
   <si>
@@ -397,349 +400,370 @@
     <t>Josh Hart</t>
   </si>
   <si>
-    <t>Paolo Banchero</t>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>Dorian FinneySmith</t>
+  </si>
+  <si>
+    <t>Jae'Sean Tate</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
   </si>
   <si>
     <t>Evan Fournier</t>
   </si>
   <si>
-    <t>Cole Anthony</t>
-  </si>
-  <si>
-    <t>Jae'Sean Tate</t>
-  </si>
-  <si>
     <t>Dillon Brooks</t>
   </si>
   <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Chris Boucher</t>
+  </si>
+  <si>
     <t>T.J. McConnell</t>
   </si>
   <si>
-    <t>Chris Boucher</t>
-  </si>
-  <si>
-    <t>Dorian FinneySmith</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Patrick Williams</t>
+  </si>
+  <si>
+    <t>Steven Adams</t>
   </si>
   <si>
     <t>John Wall</t>
   </si>
   <si>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
     <t>Malik Beasley</t>
   </si>
   <si>
+    <t>Chuma Okeke</t>
+  </si>
+  <si>
+    <t>Nic Claxton</t>
+  </si>
+  <si>
+    <t>De'Anthony Melton</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
     <t>Jonathan Isaac</t>
   </si>
   <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Chuma Okeke</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>Patrick Williams</t>
-  </si>
-  <si>
-    <t>Royce O'Neale</t>
-  </si>
-  <si>
-    <t>Steven Adams</t>
+    <t>Luguentz Dort</t>
   </si>
   <si>
     <t>Devonte' Graham</t>
   </si>
   <si>
-    <t>Luguentz Dort</t>
-  </si>
-  <si>
     <t>Aleksej Pokusevski</t>
   </si>
   <si>
-    <t>De'Anthony Melton</t>
-  </si>
-  <si>
-    <t>Nic Claxton</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
     <t>Mason Plumlee</t>
   </si>
   <si>
     <t>Miles Bridges</t>
   </si>
   <si>
+    <t>Andre Drummond</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Tim Hardaway Jr.</t>
+  </si>
+  <si>
+    <t>James Wiseman</t>
+  </si>
+  <si>
     <t>Joe Harris</t>
   </si>
   <si>
     <t>Isaiah Roby</t>
   </si>
   <si>
-    <t>Andre Drummond</t>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
+    <t>Marvin Bagley III</t>
+  </si>
+  <si>
+    <t>Monte Morris</t>
+  </si>
+  <si>
+    <t>Kevin Huerter</t>
+  </si>
+  <si>
+    <t>Seth Curry</t>
   </si>
   <si>
     <t>Nerlens Noel</t>
   </si>
   <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>James Wiseman</t>
-  </si>
-  <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
     <t>Joe Ingles</t>
   </si>
   <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
-    <t>Tim Hardaway Jr.</t>
-  </si>
-  <si>
-    <t>Marvin Bagley III</t>
-  </si>
-  <si>
-    <t>Kevin Huerter</t>
+    <t>Matisse Thybulle</t>
   </si>
   <si>
     <t>Kelly Olynyk</t>
   </si>
   <si>
-    <t>Seth Curry</t>
-  </si>
-  <si>
-    <t>Monte Morris</t>
+    <t>Marcus Morris Sr.</t>
+  </si>
+  <si>
+    <t>T.J. Warren</t>
+  </si>
+  <si>
+    <t>Duncan Robinson</t>
+  </si>
+  <si>
+    <t>Thomas Bryant</t>
+  </si>
+  <si>
+    <t>Jae Crowder</t>
+  </si>
+  <si>
+    <t>Derrick Rose</t>
+  </si>
+  <si>
+    <t>Larry Nance Jr.</t>
+  </si>
+  <si>
+    <t>Markelle Fultz</t>
+  </si>
+  <si>
+    <t>Kevin Love</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Victor Oladipo</t>
+  </si>
+  <si>
+    <t>Nickeil AlexanderWalker</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Thaddeus Young</t>
+  </si>
+  <si>
+    <t>Josh Richardson</t>
+  </si>
+  <si>
+    <t>Otto Porter Jr.</t>
   </si>
   <si>
     <t>Dennis Schroder</t>
   </si>
   <si>
-    <t>Marcus Morris Sr.</t>
-  </si>
-  <si>
-    <t>Derrick Rose</t>
-  </si>
-  <si>
-    <t>T.J. Warren</t>
-  </si>
-  <si>
-    <t>Matisse Thybulle</t>
-  </si>
-  <si>
-    <t>Larry Nance Jr.</t>
-  </si>
-  <si>
-    <t>Duncan Robinson</t>
-  </si>
-  <si>
-    <t>Jae Crowder</t>
-  </si>
-  <si>
-    <t>Thomas Bryant</t>
-  </si>
-  <si>
-    <t>Thaddeus Young</t>
-  </si>
-  <si>
-    <t>Nickeil AlexanderWalker</t>
+    <t>Maxi Kleber</t>
+  </si>
+  <si>
+    <t>Isaac Okoro</t>
+  </si>
+  <si>
+    <t>Obi Toppin</t>
+  </si>
+  <si>
+    <t>Killian Hayes</t>
+  </si>
+  <si>
+    <t>Danilo Gallinari</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
+    <t>Darius Bazley</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Kemba Walker</t>
+  </si>
+  <si>
+    <t>Bruce Brown Jr.</t>
+  </si>
+  <si>
+    <t>Terrence Ross</t>
   </si>
   <si>
     <t>Eric Bledsoe</t>
   </si>
   <si>
-    <t>Kevin Love</t>
-  </si>
-  <si>
-    <t>Victor Oladipo</t>
-  </si>
-  <si>
-    <t>Markelle Fultz</t>
-  </si>
-  <si>
     <t>Montrezl Harrell</t>
   </si>
   <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Josh Richardson</t>
-  </si>
-  <si>
-    <t>Isaac Okoro</t>
-  </si>
-  <si>
-    <t>Otto Porter Jr.</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
-    <t>Maxi Kleber</t>
-  </si>
-  <si>
-    <t>Danilo Gallinari</t>
+    <t>Derrick Favors</t>
+  </si>
+  <si>
+    <t>Lonnie Walker IV</t>
+  </si>
+  <si>
+    <t>Justin Holiday</t>
+  </si>
+  <si>
+    <t>Patrick Beverley</t>
+  </si>
+  <si>
+    <t>Kendrick Nunn</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Alec Burks</t>
+  </si>
+  <si>
+    <t>Ricky Rubio</t>
   </si>
   <si>
     <t>Hassan Whiteside</t>
   </si>
   <si>
-    <t>Terrence Ross</t>
-  </si>
-  <si>
-    <t>Killian Hayes</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Obi Toppin</t>
-  </si>
-  <si>
-    <t>Kemba Walker</t>
-  </si>
-  <si>
-    <t>Darius Bazley</t>
-  </si>
-  <si>
-    <t>Lonnie Walker IV</t>
-  </si>
-  <si>
-    <t>Bruce Brown Jr.</t>
-  </si>
-  <si>
-    <t>Derrick Favors</t>
-  </si>
-  <si>
-    <t>Justin Holiday</t>
-  </si>
-  <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
-    <t>Ricky Rubio</t>
-  </si>
-  <si>
-    <t>Alec Burks</t>
-  </si>
-  <si>
-    <t>Patrick Beverley</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
+    <t>Nicolas Batum</t>
+  </si>
+  <si>
+    <t>Daniel Theis</t>
+  </si>
+  <si>
+    <t>Kevon Looney</t>
+  </si>
+  <si>
+    <t>Xavier Tillman</t>
+  </si>
+  <si>
+    <t>Khem Birch</t>
+  </si>
+  <si>
+    <t>Reggie Bullock</t>
+  </si>
+  <si>
+    <t>Eric Gordon</t>
+  </si>
+  <si>
+    <t>Cam Reddish</t>
+  </si>
+  <si>
+    <t>Goran Dragic</t>
+  </si>
+  <si>
+    <t>P.J. Tucker</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Danny Green</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Davis Bertans</t>
+  </si>
+  <si>
+    <t>Bennedict Mathurin</t>
   </si>
   <si>
     <t>Facundo Campazzo</t>
   </si>
   <si>
-    <t>Xavier Tillman</t>
-  </si>
-  <si>
-    <t>Nicolas Batum</t>
-  </si>
-  <si>
-    <t>Daniel Theis</t>
-  </si>
-  <si>
-    <t>Kendrick Nunn</t>
-  </si>
-  <si>
-    <t>Khem Birch</t>
-  </si>
-  <si>
-    <t>Kevon Looney</t>
-  </si>
-  <si>
-    <t>Goran Dragic</t>
-  </si>
-  <si>
-    <t>Eric Gordon</t>
-  </si>
-  <si>
-    <t>Reggie Bullock</t>
-  </si>
-  <si>
-    <t>Davis Bertans</t>
-  </si>
-  <si>
-    <t>Cam Reddish</t>
-  </si>
-  <si>
-    <t>Danny Green</t>
-  </si>
-  <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>P.J. Tucker</t>
+    <t>Terance Mann</t>
+  </si>
+  <si>
+    <t>Onyeka Okongwu</t>
+  </si>
+  <si>
+    <t>Bones Hyland</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Jalen Smith</t>
   </si>
   <si>
     <t>Blake Griffin</t>
   </si>
   <si>
-    <t>Bennedict Mathurin</t>
-  </si>
-  <si>
     <t>Carmelo Anthony</t>
   </si>
   <si>
-    <t>Jonathan Kuminga</t>
+    <t>Rudy Gay</t>
+  </si>
+  <si>
+    <t>Delon Wright</t>
+  </si>
+  <si>
+    <t>Serge Ibaka</t>
   </si>
   <si>
     <t>Dwight Howard</t>
   </si>
   <si>
+    <t>Herbert Jones</t>
+  </si>
+  <si>
+    <t>Jaxson Hayes</t>
+  </si>
+  <si>
+    <t>Precious Achiuwa</t>
+  </si>
+  <si>
+    <t>Luke Kennard</t>
+  </si>
+  <si>
+    <t>Theo Maledon</t>
+  </si>
+  <si>
     <t>Cody Zeller</t>
   </si>
   <si>
-    <t>Rudy Gay</t>
+    <t>Cameron Payne</t>
+  </si>
+  <si>
+    <t>Juan ToscanoAnderson</t>
+  </si>
+  <si>
+    <t>Tomas Satoransky</t>
+  </si>
+  <si>
+    <t>KJ Martin Jr.</t>
   </si>
   <si>
     <t>Enes Freedom</t>
   </si>
   <si>
-    <t>Terance Mann</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Tomas Satoransky</t>
-  </si>
-  <si>
-    <t>Serge Ibaka</t>
-  </si>
-  <si>
-    <t>Bones Hyland</t>
-  </si>
-  <si>
-    <t>Theo Maledon</t>
-  </si>
-  <si>
-    <t>Precious Achiuwa</t>
-  </si>
-  <si>
-    <t>Luke Kennard</t>
-  </si>
-  <si>
-    <t>Onyeka Okongwu</t>
-  </si>
-  <si>
-    <t>Jalen Smith</t>
+    <t>Moses Brown</t>
   </si>
   <si>
     <t>Paul Millsap</t>
@@ -748,36 +772,12 @@
     <t>LaMarcus Aldridge</t>
   </si>
   <si>
-    <t>Delon Wright</t>
-  </si>
-  <si>
-    <t>Cameron Payne</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Juan ToscanoAnderson</t>
-  </si>
-  <si>
-    <t>KJ Martin Jr.</t>
+    <t>Jose Alvarado</t>
   </si>
   <si>
     <t>Jeremy Lamb</t>
   </si>
   <si>
-    <t>Jaxson Hayes</t>
-  </si>
-  <si>
-    <t>Moses Brown</t>
-  </si>
-  <si>
-    <t>Herbert Jones</t>
-  </si>
-  <si>
-    <t>Jose Alvarado</t>
-  </si>
-  <si>
     <t>Dewayne Dedmon</t>
   </si>
   <si>
@@ -787,22 +787,28 @@
     <t>DeAndre Jordan</t>
   </si>
   <si>
+    <t>Malachi Flynn</t>
+  </si>
+  <si>
     <t>Damian Jones</t>
   </si>
   <si>
-    <t>Malachi Flynn</t>
-  </si>
-  <si>
     <t>Naz Reid</t>
   </si>
   <si>
+    <t>Doug McDermott</t>
+  </si>
+  <si>
+    <t>Dwight Powell</t>
+  </si>
+  <si>
     <t>Tristan Thompson</t>
   </si>
   <si>
-    <t>Doug McDermott</t>
-  </si>
-  <si>
-    <t>Dwight Powell</t>
+    <t>Alex Caruso</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
   </si>
   <si>
     <t>Josh Jackson</t>
@@ -814,10 +820,16 @@
     <t>Dario Saric</t>
   </si>
   <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Jarred Vanderbilt</t>
+  </si>
+  <si>
     <t>Lou Williams</t>
   </si>
   <si>
-    <t>Alex Caruso</t>
+    <t>Tre Jones</t>
   </si>
   <si>
     <t>Jalen McDaniels</t>
@@ -826,49 +838,82 @@
     <t>Paul Reed</t>
   </si>
   <si>
-    <t>Mark Williams</t>
+    <t>JaVale McGee</t>
+  </si>
+  <si>
+    <t>Chris Duarte</t>
+  </si>
+  <si>
+    <t>Kentavious CaldwellPope</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>Isaiah Hartenstein</t>
+  </si>
+  <si>
+    <t>Isaiah Jackson</t>
+  </si>
+  <si>
+    <t>Caleb Martin</t>
   </si>
   <si>
     <t>Jericho Sims</t>
   </si>
   <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Jarred Vanderbilt</t>
+    <t>Cody Martin</t>
+  </si>
+  <si>
+    <t>Gary Payton II</t>
   </si>
   <si>
     <t>Johnny Davis</t>
   </si>
   <si>
-    <t>Tre Jones</t>
-  </si>
-  <si>
-    <t>Isaiah Jackson</t>
-  </si>
-  <si>
-    <t>Chris Duarte</t>
-  </si>
-  <si>
-    <t>Kentavious CaldwellPope</t>
-  </si>
-  <si>
-    <t>JaVale McGee</t>
-  </si>
-  <si>
-    <t>Caleb Martin</t>
+    <t>Pat Connaughton</t>
+  </si>
+  <si>
+    <t>Grant Williams</t>
   </si>
   <si>
     <t>Jalen Williams</t>
   </si>
   <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Malik Monk</t>
+  </si>
+  <si>
+    <t>Nassir Little</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
     <t>Trevor Keels</t>
   </si>
   <si>
-    <t>Isaiah Hartenstein</t>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Max Strus</t>
+  </si>
+  <si>
+    <t>Isaiah Livers</t>
+  </si>
+  <si>
+    <t>Joshua Primo</t>
+  </si>
+  <si>
+    <t>Josh Christopher</t>
   </si>
   <si>
     <t>Jaylin Williams</t>
@@ -877,64 +922,64 @@
     <t>Nikola Jovic</t>
   </si>
   <si>
-    <t>Cody Martin</t>
-  </si>
-  <si>
-    <t>Gary Payton II</t>
-  </si>
-  <si>
-    <t>Malik Monk</t>
-  </si>
-  <si>
-    <t>Pat Connaughton</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
+    <t>Ayo Dosunmu</t>
   </si>
   <si>
     <t>Jeremy Sochan</t>
   </si>
   <si>
-    <t>Nassir Little</t>
-  </si>
-  <si>
-    <t>Max Strus</t>
-  </si>
-  <si>
-    <t>Josh Christopher</t>
-  </si>
-  <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>Grant Williams</t>
-  </si>
-  <si>
-    <t>Joshua Primo</t>
+    <t>JaMychal Green</t>
+  </si>
+  <si>
+    <t>Jake LaRavia</t>
+  </si>
+  <si>
+    <t>Davion Mitchell</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Trendon Watford</t>
   </si>
   <si>
     <t>Zach Collins</t>
   </si>
   <si>
+    <t>Jeff Green</t>
+  </si>
+  <si>
+    <t>Talen HortonTucker</t>
+  </si>
+  <si>
+    <t>Jeremiah RobinsonEarl</t>
+  </si>
+  <si>
+    <t>John Konchar</t>
+  </si>
+  <si>
+    <t>Ziaire Williams</t>
+  </si>
+  <si>
     <t>Nemanja Bjelica</t>
   </si>
   <si>
-    <t>Tyus Jones</t>
+    <t>Drew Eubanks</t>
   </si>
   <si>
     <t>Elfrid Payton</t>
   </si>
   <si>
-    <t>Quentin Grimes</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
+    <t>Gabe Vincent</t>
+  </si>
+  <si>
+    <t>Jaylen Nowell</t>
   </si>
   <si>
     <t>Trevor Ariza</t>
   </si>
   <si>
-    <t>Trey Murphy III</t>
+    <t>Corey Kispert</t>
   </si>
   <si>
     <t>Ty Jerome</t>
@@ -943,64 +988,64 @@
     <t>Shaedon Sharpe</t>
   </si>
   <si>
+    <t>Torrey Craig</t>
+  </si>
+  <si>
     <t>TyTy Washington</t>
   </si>
   <si>
+    <t>Tre Mann</t>
+  </si>
+  <si>
+    <t>Day'Ron Sharpe</t>
+  </si>
+  <si>
+    <t>Malaki Branham</t>
+  </si>
+  <si>
     <t>Ousmane Dieng</t>
   </si>
   <si>
     <t>Dyson Daniels</t>
   </si>
   <si>
-    <t>Jake LaRavia</t>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
+    <t>Terence Davis II</t>
   </si>
   <si>
     <t>AJ Griffin</t>
   </si>
   <si>
-    <t>Jeremiah RobinsonEarl</t>
-  </si>
-  <si>
-    <t>Davion Mitchell</t>
-  </si>
-  <si>
     <t>Ochai Agbaji</t>
   </si>
   <si>
-    <t>Jaylen Nowell</t>
-  </si>
-  <si>
-    <t>Malaki Branham</t>
-  </si>
-  <si>
-    <t>Talen HortonTucker</t>
+    <t>Gary Harris</t>
+  </si>
+  <si>
+    <t>Josh Green</t>
   </si>
   <si>
     <t>Christian Braun</t>
   </si>
   <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
     <t>David Roddy</t>
   </si>
   <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
     <t>MarJon Beauchamp</t>
   </si>
   <si>
-    <t>John Konchar</t>
-  </si>
-  <si>
     <t>Blake Wesley</t>
   </si>
   <si>
-    <t>Isaiah Livers</t>
-  </si>
-  <si>
     <t>Wendell Moore Jr.</t>
   </si>
   <si>
-    <t>Ziaire Williams</t>
+    <t>Landry Shamet</t>
   </si>
   <si>
     <t>Dalen Terry</t>
@@ -1012,87 +1057,96 @@
     <t>Peyton Watson</t>
   </si>
   <si>
+    <t>Jordan McLaughlin</t>
+  </si>
+  <si>
     <t>Andrew Nembhard</t>
   </si>
   <si>
-    <t>Terence Davis II</t>
-  </si>
-  <si>
     <t>Caleb Houstan</t>
   </si>
   <si>
     <t>Christian Koloko</t>
   </si>
   <si>
-    <t>Tre Mann</t>
-  </si>
-  <si>
-    <t>Day'Ron Sharpe</t>
+    <t>Garrison Mathews</t>
   </si>
   <si>
     <t>Max Christie</t>
   </si>
   <si>
+    <t>Udoka Azubuike</t>
+  </si>
+  <si>
     <t>Gabriele Procida</t>
   </si>
   <si>
-    <t>Jeff Green</t>
+    <t>Wesley Matthews</t>
   </si>
   <si>
     <t>Jaden Hardy</t>
   </si>
   <si>
+    <t>George Hill</t>
+  </si>
+  <si>
     <t>Kennedy Chandler</t>
   </si>
   <si>
-    <t>Taurean Prince</t>
-  </si>
-  <si>
     <t>Khalifa Diop</t>
   </si>
   <si>
-    <t>Drew Eubanks</t>
-  </si>
-  <si>
     <t>Bryce McGowens</t>
   </si>
   <si>
-    <t>Gabe Vincent</t>
+    <t>Georges Niang</t>
   </si>
   <si>
     <t>E.J. Liddell</t>
   </si>
   <si>
-    <t>Gary Harris</t>
+    <t>Chimezie Metu</t>
   </si>
   <si>
     <t>Moussa Diabate</t>
   </si>
   <si>
+    <t>Oshae Brissett</t>
+  </si>
+  <si>
     <t>Ryan Rollins</t>
   </si>
   <si>
-    <t>Josh Green</t>
+    <t>Patty Mills</t>
   </si>
   <si>
     <t>Josh Minott</t>
   </si>
   <si>
+    <t>Justise Winslow</t>
+  </si>
+  <si>
     <t>Ismael Kamagate</t>
   </si>
   <si>
+    <t>Zeke Nnaji</t>
+  </si>
+  <si>
     <t>Vince Williams Jr.</t>
   </si>
   <si>
+    <t>James Bouknight</t>
+  </si>
+  <si>
     <t>Kendall Brown</t>
   </si>
   <si>
+    <t>Trey Lyles</t>
+  </si>
+  <si>
     <t>Isaiah Mobley</t>
   </si>
   <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
     <t>Matteo Spagnolo</t>
   </si>
   <si>
@@ -1138,12 +1192,12 @@
     <t>PG,SG,SF,PF</t>
   </si>
   <si>
+    <t>SG,SF,PG</t>
+  </si>
+  <si>
     <t>SF,PF,SG</t>
   </si>
   <si>
-    <t>SG,SF,PG</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
@@ -1180,30 +1234,33 @@
     <t>G</t>
   </si>
   <si>
+    <t>SG,PG</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
-    <t>SG,PG</t>
+    <t>PF,PG,SF</t>
   </si>
   <si>
     <t>DEN</t>
   </si>
   <si>
+    <t>PHI</t>
+  </si>
+  <si>
     <t>MIL</t>
   </si>
   <si>
-    <t>PHI</t>
-  </si>
-  <si>
     <t>BOS</t>
   </si>
   <si>
+    <t>BKN</t>
+  </si>
+  <si>
     <t>DAL</t>
   </si>
   <si>
-    <t>BKN</t>
-  </si>
-  <si>
     <t>GSW</t>
   </si>
   <si>
@@ -1216,22 +1273,22 @@
     <t>LAL</t>
   </si>
   <si>
+    <t>CHA</t>
+  </si>
+  <si>
     <t>POR</t>
   </si>
   <si>
-    <t>CHA</t>
-  </si>
-  <si>
     <t>MEM</t>
   </si>
   <si>
+    <t>PHO</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
     <t>MIA</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>PHO</t>
   </si>
   <si>
     <t>SAC</t>
@@ -1634,7 +1691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D364"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1665,10 +1722,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D2" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1679,10 +1736,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1693,10 +1750,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D4" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1707,10 +1764,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="D5" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1721,10 +1778,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="D6" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1735,10 +1792,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="D7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1749,10 +1806,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="D8" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1763,10 +1820,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="D9" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1777,10 +1834,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="D10" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1791,10 +1848,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="D11" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1805,10 +1862,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="D12" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1819,10 +1876,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="D13" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1833,10 +1890,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="D14" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1847,10 +1904,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D15" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1861,10 +1918,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="D16" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1875,10 +1932,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="D17" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1889,10 +1946,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="D18" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1903,10 +1960,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="D19" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1917,10 +1974,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="D20" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1931,10 +1988,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D21" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1945,10 +2002,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="D22" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1959,10 +2016,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="D23" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1973,10 +2030,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="D24" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1987,10 +2044,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D25" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2001,10 +2058,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="D26" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2015,10 +2072,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="D27" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2029,10 +2086,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="D28" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2043,10 +2100,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="D29" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2057,10 +2114,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="D30" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2071,10 +2128,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="D31" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2085,10 +2142,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D32" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2099,10 +2156,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="D33" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2113,10 +2170,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="D34" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2127,10 +2184,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="D35" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2141,10 +2198,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="D36" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2155,10 +2212,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="D37" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2169,10 +2226,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="D38" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2183,10 +2240,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="D39" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2197,10 +2254,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="D40" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2211,10 +2268,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D41" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2225,10 +2282,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="D42" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2239,10 +2296,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="D43" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2253,10 +2310,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="D44" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2267,10 +2324,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="D45" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2281,10 +2338,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="D46" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2295,10 +2352,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="D47" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2309,10 +2366,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="D48" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2323,10 +2380,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="D49" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2337,10 +2394,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="D50" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2351,10 +2408,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="D51" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2365,10 +2422,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="D52" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2379,10 +2436,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="D53" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2393,10 +2450,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="D54" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2407,10 +2464,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="D55" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2421,10 +2478,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D56" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2435,10 +2492,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="D57" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2449,10 +2506,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="D58" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2463,10 +2520,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="D59" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2477,10 +2534,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="D60" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2491,10 +2548,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="D61" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2505,10 +2562,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="D62" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2519,10 +2576,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="D63" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2533,10 +2590,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="D64" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2547,10 +2604,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="D65" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2561,10 +2618,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="D66" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2575,10 +2632,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="D67" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2589,10 +2646,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="D68" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2603,10 +2660,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="D69" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2617,10 +2674,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="D70" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2631,10 +2688,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="D71" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2645,10 +2702,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="D72" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2659,10 +2716,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="D73" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2673,10 +2730,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="D74" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2687,10 +2744,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="D75" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2701,10 +2758,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="D76" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2715,10 +2772,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="D77" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2729,10 +2786,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="D78" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2743,10 +2800,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="D79" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2757,10 +2814,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="D80" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2771,10 +2828,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="D81" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2785,10 +2842,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="D82" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2799,10 +2856,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="D83" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2813,10 +2870,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="D84" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2827,10 +2884,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="D85" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2841,10 +2898,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="D86" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2855,10 +2912,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="D87" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2869,10 +2926,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D88" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2883,10 +2940,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D89" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2897,10 +2954,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="D90" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2911,10 +2968,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="D91" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2925,10 +2982,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="D92" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2939,10 +2996,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="D93" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2953,10 +3010,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="D94" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2967,10 +3024,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="D95" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2981,10 +3038,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="D96" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2995,10 +3052,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D97" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3009,10 +3066,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D98" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3023,10 +3080,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="D99" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3037,10 +3094,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="D100" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3051,10 +3108,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="D101" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3065,10 +3122,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D102" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3079,10 +3136,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="D103" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3093,10 +3150,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="D104" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3107,10 +3164,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="D105" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3121,10 +3178,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="D106" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3135,10 +3192,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="D107" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3149,10 +3206,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D108" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3163,10 +3220,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="D109" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3177,10 +3234,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="D110" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3191,10 +3248,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="D111" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3205,10 +3262,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="D112" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3219,10 +3276,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="D113" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3233,10 +3290,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="D114" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3247,10 +3304,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="D115" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3261,10 +3318,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="D116" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3275,10 +3332,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="D117" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3289,10 +3346,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="D118" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3303,10 +3360,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="D119" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3317,10 +3374,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="D120" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3331,10 +3388,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D121" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3345,10 +3402,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="D122" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3359,10 +3416,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D123" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3373,10 +3430,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="D124" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3387,10 +3444,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="D125" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3401,10 +3458,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="D126" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3415,10 +3472,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="D127" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3429,10 +3486,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="D128" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3443,10 +3500,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="D129" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3457,10 +3514,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="D130" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3471,10 +3528,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="D131" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3485,10 +3542,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="D132" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3499,10 +3556,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="D133" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3513,10 +3570,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="D134" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3527,10 +3584,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D135" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3541,10 +3598,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="D136" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3555,10 +3612,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D137" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3569,10 +3626,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="D138" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3583,10 +3640,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="D139" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3597,10 +3654,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="D140" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3611,10 +3668,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="D141" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3625,10 +3682,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="D142" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3639,10 +3696,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="D143" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3653,10 +3710,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="D144" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3667,10 +3724,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="D145" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3681,10 +3738,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="D146" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3695,10 +3752,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="D147" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3709,10 +3766,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="D148" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3723,10 +3780,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D149" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3737,10 +3794,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="D150" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3751,10 +3808,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="D151" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3765,10 +3822,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="D152" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3779,10 +3836,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="D153" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3793,7 +3850,7 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="D154" t="s">
         <v>414</v>
@@ -3807,10 +3864,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="D155" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3821,10 +3878,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="D156" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3835,10 +3892,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="D157" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3849,10 +3906,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="D158" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3863,10 +3920,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="D159" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3877,10 +3934,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="D160" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3891,10 +3948,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="D161" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3905,10 +3962,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="D162" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3919,10 +3976,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D163" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3933,10 +3990,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="D164" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3947,10 +4004,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="D165" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3961,10 +4018,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="D166" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3975,10 +4032,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="D167" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3989,10 +4046,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="D168" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4003,10 +4060,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="D169" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4017,10 +4074,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="D170" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4031,10 +4088,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="D171" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4045,10 +4102,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="D172" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4059,10 +4116,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="D173" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4073,10 +4130,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="D174" t="s">
-        <v>398</v>
+        <v>436</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4087,10 +4144,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D175" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4101,10 +4158,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="D176" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4115,10 +4172,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="D177" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4129,10 +4186,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="D178" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4143,10 +4200,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="D179" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4157,10 +4214,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="D180" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4171,10 +4228,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="D181" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4185,10 +4242,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="D182" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4199,10 +4256,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="D183" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4213,10 +4270,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D184" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4227,10 +4284,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="D185" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4241,10 +4298,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="D186" t="s">
-        <v>399</v>
+        <v>434</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4255,10 +4312,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="D187" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4269,10 +4326,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="D188" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4283,10 +4340,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="D189" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4297,10 +4354,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="D190" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4311,10 +4368,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D191" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4325,10 +4382,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="D192" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4339,10 +4396,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="D193" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4353,10 +4410,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="D194" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4367,10 +4424,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="D195" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4381,10 +4438,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="D196" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4395,10 +4452,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D197" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4409,10 +4466,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="D198" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4423,10 +4480,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="D199" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4437,10 +4494,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="D200" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4451,10 +4508,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="D201" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4465,10 +4522,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="D202" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4479,10 +4536,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="D203" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4493,10 +4550,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="D204" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4507,10 +4564,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="D205" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4521,10 +4578,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="D206" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4535,10 +4592,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="D207" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4549,10 +4606,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="D208" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4563,10 +4620,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D209" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4577,10 +4634,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="D210" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4591,10 +4648,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D211" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4605,10 +4662,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="D212" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4619,10 +4676,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="D213" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4633,10 +4690,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="D214" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4647,10 +4704,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="D215" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4661,10 +4718,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="D216" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4675,10 +4732,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="D217" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4689,10 +4746,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="D218" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4703,10 +4760,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="D219" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4717,10 +4774,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D220" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4731,10 +4788,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="D221" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4745,10 +4802,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="D222" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4759,10 +4816,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="D223" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4773,10 +4830,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="D224" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4787,10 +4844,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="D225" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4801,10 +4858,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="D226" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4815,10 +4872,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="D227" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4829,10 +4886,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="D228" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4846,7 +4903,7 @@
         <v>385</v>
       </c>
       <c r="D229" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4857,10 +4914,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D230" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4871,10 +4928,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="D231" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4885,10 +4942,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="D232" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4899,10 +4956,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="D233" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4913,10 +4970,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="D234" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4927,10 +4984,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="D235" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4941,10 +4998,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="D236" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4955,10 +5012,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="D237" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4969,10 +5026,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="D238" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4983,10 +5040,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="D239" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4997,10 +5054,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="D240" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5011,10 +5068,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="D241" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5025,10 +5082,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="D242" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5039,10 +5096,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="D243" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5053,10 +5110,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="D244" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5067,10 +5124,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="D245" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5081,10 +5138,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="D246" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5095,10 +5152,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="D247" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5109,10 +5166,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="D248" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5123,10 +5180,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="D249" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5137,10 +5194,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="D250" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5151,10 +5208,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="D251" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5165,10 +5222,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="D252" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5179,10 +5236,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="D253" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5193,10 +5250,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="D254" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5207,10 +5264,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="D255" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5221,10 +5278,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="D256" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5235,10 +5292,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="D257" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5249,10 +5306,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="D258" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5263,10 +5320,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D259" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5277,10 +5334,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="D260" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5291,10 +5348,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="D261" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5305,10 +5362,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="D262" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5319,10 +5376,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="D263" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5333,10 +5390,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="D264" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5347,10 +5404,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="D265" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5361,10 +5418,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="D266" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5375,10 +5432,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="D267" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5389,10 +5446,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="D268" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5403,10 +5460,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D269" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5417,10 +5474,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D270" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5431,10 +5488,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="D271" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5445,10 +5502,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="D272" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5459,10 +5516,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="D273" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5473,10 +5530,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="D274" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5487,10 +5544,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D275" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5501,10 +5558,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="D276" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5515,10 +5572,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="D277" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5529,10 +5586,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D278" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5543,10 +5600,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="D279" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5557,10 +5614,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="D280" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5571,10 +5628,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="D281" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5585,10 +5642,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="D282" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5599,10 +5656,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D283" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5613,10 +5670,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="D284" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5627,10 +5684,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="D285" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5641,10 +5698,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="D286" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5655,10 +5712,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="D287" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5669,10 +5726,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="D288" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5683,10 +5740,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="D289" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5697,10 +5754,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="D290" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5711,10 +5768,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="D291" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5725,10 +5782,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="D292" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5739,10 +5796,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="D293" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5753,10 +5810,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="D294" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5767,10 +5824,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="D295" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5781,10 +5838,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="D296" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5795,10 +5852,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D297" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5809,10 +5866,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="D298" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5823,10 +5880,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="D299" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5837,10 +5894,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="D300" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5851,10 +5908,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D301" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5865,10 +5922,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="D302" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5879,10 +5936,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D303" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5893,10 +5950,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="D304" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5907,10 +5964,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D305" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5921,10 +5978,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D306" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5935,7 +5992,7 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D307" t="s">
         <v>408</v>
@@ -5949,10 +6006,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D308" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -5963,10 +6020,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D309" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -5977,10 +6034,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="D310" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -5991,10 +6048,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="D311" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6005,10 +6062,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D312" t="s">
-        <v>405</v>
+        <v>438</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6019,10 +6076,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D313" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6033,10 +6090,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="D314" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6047,10 +6104,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D315" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6061,10 +6118,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="D316" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6075,10 +6132,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D317" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6089,10 +6146,10 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="D318" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6103,10 +6160,10 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="D319" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6117,10 +6174,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="D320" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6131,10 +6188,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D321" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6145,10 +6202,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="D322" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6159,10 +6216,10 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="D323" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6173,10 +6230,10 @@
         <v>326</v>
       </c>
       <c r="C324" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D324" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6187,10 +6244,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D325" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6201,10 +6258,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="D326" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6215,10 +6272,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="D327" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6229,10 +6286,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D328" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6243,10 +6300,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="D329" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6257,10 +6314,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="D330" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6271,10 +6328,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="D331" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6285,10 +6342,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="D332" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6299,10 +6356,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D333" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6313,10 +6370,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="D334" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6327,10 +6384,10 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="D335" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6341,10 +6398,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="D336" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6355,10 +6412,10 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="D337" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6369,10 +6426,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="D338" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6383,10 +6440,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="D339" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6397,10 +6454,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="D340" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6411,10 +6468,10 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="D341" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6425,10 +6482,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="D342" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6439,10 +6496,10 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="D343" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6453,10 +6510,10 @@
         <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="D344" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6467,10 +6524,10 @@
         <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="D345" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6481,10 +6538,10 @@
         <v>348</v>
       </c>
       <c r="C346" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="D346" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6495,10 +6552,10 @@
         <v>349</v>
       </c>
       <c r="C347" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="D347" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6509,10 +6566,10 @@
         <v>350</v>
       </c>
       <c r="C348" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="D348" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6523,10 +6580,10 @@
         <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="D349" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6537,10 +6594,10 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D350" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6551,10 +6608,10 @@
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="D351" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6565,10 +6622,10 @@
         <v>354</v>
       </c>
       <c r="C352" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D352" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6579,10 +6636,10 @@
         <v>355</v>
       </c>
       <c r="C353" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="D353" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6596,7 +6653,7 @@
         <v>387</v>
       </c>
       <c r="D354" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6607,10 +6664,10 @@
         <v>357</v>
       </c>
       <c r="C355" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="D355" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6621,10 +6678,10 @@
         <v>358</v>
       </c>
       <c r="C356" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="D356" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6635,10 +6692,10 @@
         <v>359</v>
       </c>
       <c r="C357" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="D357" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6649,10 +6706,10 @@
         <v>360</v>
       </c>
       <c r="C358" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D358" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6663,10 +6720,10 @@
         <v>361</v>
       </c>
       <c r="C359" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="D359" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6677,10 +6734,10 @@
         <v>362</v>
       </c>
       <c r="C360" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="D360" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6691,10 +6748,10 @@
         <v>363</v>
       </c>
       <c r="C361" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="D361" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6705,10 +6762,10 @@
         <v>364</v>
       </c>
       <c r="C362" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D362" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6719,10 +6776,10 @@
         <v>365</v>
       </c>
       <c r="C363" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="D363" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6733,14 +6790,266 @@
         <v>366</v>
       </c>
       <c r="C364" t="s">
+        <v>389</v>
+      </c>
+      <c r="D364" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>367</v>
+      </c>
+      <c r="C365" t="s">
+        <v>396</v>
+      </c>
+      <c r="D365" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>368</v>
+      </c>
+      <c r="C366" t="s">
+        <v>407</v>
+      </c>
+      <c r="D366" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>369</v>
+      </c>
+      <c r="C367" t="s">
+        <v>388</v>
+      </c>
+      <c r="D367" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>370</v>
+      </c>
+      <c r="C368" t="s">
+        <v>385</v>
+      </c>
+      <c r="D368" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
         <v>371</v>
       </c>
-      <c r="D364" t="s">
-        <v>390</v>
+      <c r="C369" t="s">
+        <v>406</v>
+      </c>
+      <c r="D369" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>372</v>
+      </c>
+      <c r="C370" t="s">
+        <v>399</v>
+      </c>
+      <c r="D370" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>373</v>
+      </c>
+      <c r="C371" t="s">
+        <v>398</v>
+      </c>
+      <c r="D371" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>374</v>
+      </c>
+      <c r="C372" t="s">
+        <v>385</v>
+      </c>
+      <c r="D372" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>375</v>
+      </c>
+      <c r="C373" t="s">
+        <v>406</v>
+      </c>
+      <c r="D373" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>376</v>
+      </c>
+      <c r="C374" t="s">
+        <v>389</v>
+      </c>
+      <c r="D374" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>377</v>
+      </c>
+      <c r="C375" t="s">
+        <v>404</v>
+      </c>
+      <c r="D375" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>378</v>
+      </c>
+      <c r="C376" t="s">
+        <v>396</v>
+      </c>
+      <c r="D376" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>379</v>
+      </c>
+      <c r="C377" t="s">
+        <v>389</v>
+      </c>
+      <c r="D377" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>380</v>
+      </c>
+      <c r="C378" t="s">
+        <v>388</v>
+      </c>
+      <c r="D378" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>381</v>
+      </c>
+      <c r="C379" t="s">
+        <v>398</v>
+      </c>
+      <c r="D379" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>382</v>
+      </c>
+      <c r="C380" t="s">
+        <v>399</v>
+      </c>
+      <c r="D380" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>383</v>
+      </c>
+      <c r="C381" t="s">
+        <v>396</v>
+      </c>
+      <c r="D381" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>384</v>
+      </c>
+      <c r="C382" t="s">
+        <v>389</v>
+      </c>
+      <c r="D382" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D364"/>
+  <autoFilter ref="A1:D382"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -10,14 +10,14 @@
     <sheet name="draft" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$382</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$381</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="438">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -364,9 +364,6 @@
     <t>Jordan Clarkson</t>
   </si>
   <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
     <t>Derrick White</t>
   </si>
   <si>
@@ -730,12 +727,12 @@
     <t>Dwight Howard</t>
   </si>
   <si>
+    <t>Jaxson Hayes</t>
+  </si>
+  <si>
     <t>Herbert Jones</t>
   </si>
   <si>
-    <t>Jaxson Hayes</t>
-  </si>
-  <si>
     <t>Precious Achiuwa</t>
   </si>
   <si>
@@ -823,21 +820,21 @@
     <t>Mark Williams</t>
   </si>
   <si>
+    <t>Lou Williams</t>
+  </si>
+  <si>
     <t>Jarred Vanderbilt</t>
   </si>
   <si>
-    <t>Lou Williams</t>
-  </si>
-  <si>
     <t>Tre Jones</t>
   </si>
   <si>
+    <t>Paul Reed</t>
+  </si>
+  <si>
     <t>Jalen McDaniels</t>
   </si>
   <si>
-    <t>Paul Reed</t>
-  </si>
-  <si>
     <t>JaVale McGee</t>
   </si>
   <si>
@@ -856,10 +853,10 @@
     <t>Isaiah Jackson</t>
   </si>
   <si>
+    <t>Jericho Sims</t>
+  </si>
+  <si>
     <t>Caleb Martin</t>
-  </si>
-  <si>
-    <t>Jericho Sims</t>
   </si>
   <si>
     <t>Cody Martin</t>
@@ -1691,7 +1688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1722,10 +1719,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1736,10 +1733,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1750,10 +1747,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1764,10 +1761,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1778,10 +1775,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1792,10 +1789,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1806,10 +1803,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1820,10 +1817,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1834,10 +1831,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1848,10 +1845,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1862,10 +1859,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1876,10 +1873,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1890,10 +1887,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1904,10 +1901,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1918,10 +1915,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1932,10 +1929,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1946,10 +1943,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1960,10 +1957,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1974,10 +1971,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1988,10 +1985,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2002,10 +1999,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2016,10 +2013,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2030,10 +2027,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2044,10 +2041,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2058,10 +2055,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2072,10 +2069,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2086,10 +2083,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2100,10 +2097,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2114,10 +2111,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2128,10 +2125,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2142,10 +2139,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2156,10 +2153,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D33" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2170,10 +2167,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D34" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2184,10 +2181,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2198,10 +2195,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2212,10 +2209,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2226,10 +2223,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D38" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2240,10 +2237,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D39" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2254,10 +2251,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2268,10 +2265,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2282,10 +2279,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2296,10 +2293,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D43" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2310,10 +2307,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D44" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2324,10 +2321,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D45" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2338,10 +2335,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D46" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2352,10 +2349,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D47" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2366,10 +2363,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D48" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2380,10 +2377,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D49" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2394,10 +2391,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D50" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2408,10 +2405,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D51" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2422,10 +2419,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D52" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2436,10 +2433,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D53" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2450,10 +2447,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2464,10 +2461,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2478,10 +2475,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D56" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2492,10 +2489,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D57" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2506,10 +2503,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2520,10 +2517,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D59" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2534,10 +2531,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D60" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2548,10 +2545,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D61" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2562,10 +2559,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D62" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2576,10 +2573,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D63" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2590,10 +2587,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D64" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2604,10 +2601,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D65" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2618,10 +2615,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D66" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2632,10 +2629,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D67" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2646,10 +2643,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D68" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2660,10 +2657,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2674,10 +2671,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D70" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2688,10 +2685,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D71" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2702,10 +2699,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D72" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2716,10 +2713,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D73" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2730,10 +2727,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D74" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2744,10 +2741,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D75" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2758,10 +2755,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D76" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2772,10 +2769,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D77" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2786,10 +2783,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D78" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2800,10 +2797,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2814,10 +2811,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D80" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2828,10 +2825,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D81" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2842,10 +2839,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D82" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2856,10 +2853,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D83" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2870,10 +2867,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D84" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2884,10 +2881,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D85" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2898,10 +2895,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D86" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2912,10 +2909,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D87" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2926,10 +2923,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D88" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2940,10 +2937,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D89" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2954,10 +2951,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D90" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2968,10 +2965,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D91" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2982,10 +2979,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D92" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2996,10 +2993,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D93" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3010,10 +3007,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D94" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3024,10 +3021,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D95" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3038,10 +3035,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D96" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3052,10 +3049,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D97" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3066,10 +3063,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D98" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3080,10 +3077,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D99" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3094,10 +3091,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D100" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3108,10 +3105,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3122,10 +3119,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D102" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3136,10 +3133,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D103" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3150,10 +3147,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D104" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3164,10 +3161,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D105" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3178,10 +3175,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D106" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3192,10 +3189,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D107" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3206,10 +3203,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D108" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3220,10 +3217,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D109" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3234,10 +3231,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D110" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3248,10 +3245,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D111" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3262,10 +3259,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D112" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3276,10 +3273,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D113" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3290,10 +3287,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D114" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3304,10 +3301,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D115" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3318,10 +3315,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D116" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3332,10 +3329,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D117" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3346,10 +3343,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D118" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3363,7 +3360,7 @@
         <v>386</v>
       </c>
       <c r="D119" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3374,10 +3371,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D120" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3388,10 +3385,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D121" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3402,10 +3399,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D122" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3416,10 +3413,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D123" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3430,10 +3427,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D124" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3444,10 +3441,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D125" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3458,10 +3455,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D126" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3472,10 +3469,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D127" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3486,10 +3483,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D128" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3500,10 +3497,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D129" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3514,10 +3511,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D130" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3528,10 +3525,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D131" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3542,10 +3539,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D132" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3556,10 +3553,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="D133" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3570,10 +3567,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="D134" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3584,10 +3581,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D135" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3598,10 +3595,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D136" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3615,7 +3612,7 @@
         <v>388</v>
       </c>
       <c r="D137" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3626,10 +3623,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D138" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3640,10 +3637,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D139" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3654,10 +3651,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D140" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3668,10 +3665,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D141" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3682,10 +3679,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D142" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3696,10 +3693,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D143" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3710,10 +3707,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D144" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3724,10 +3721,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D145" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3738,10 +3735,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D146" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3752,10 +3749,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D147" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3766,10 +3763,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D148" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3783,7 +3780,7 @@
         <v>385</v>
       </c>
       <c r="D149" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3794,10 +3791,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D150" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3808,10 +3805,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D151" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3822,10 +3819,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D152" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3836,7 +3833,7 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D153" t="s">
         <v>413</v>
@@ -3850,10 +3847,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D154" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3864,10 +3861,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D155" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3878,10 +3875,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D156" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3892,10 +3889,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D157" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3906,10 +3903,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D158" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3920,10 +3917,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D159" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3934,10 +3931,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D160" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3948,10 +3945,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D161" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3962,10 +3959,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D162" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3976,10 +3973,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="D163" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3990,10 +3987,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D164" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4004,10 +4001,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D165" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4018,10 +4015,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D166" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4032,10 +4029,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="D167" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4046,10 +4043,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D168" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4060,10 +4057,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D169" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4074,10 +4071,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D170" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4091,7 +4088,7 @@
         <v>386</v>
       </c>
       <c r="D171" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4102,10 +4099,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D172" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4116,10 +4113,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D173" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4130,10 +4127,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D174" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4144,10 +4141,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D175" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4158,10 +4155,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D176" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4172,10 +4169,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D177" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4186,10 +4183,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D178" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4200,10 +4197,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="D179" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4214,10 +4211,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D180" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4228,10 +4225,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D181" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4242,10 +4239,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D182" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4256,10 +4253,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D183" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4270,10 +4267,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D184" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4284,10 +4281,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D185" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4301,7 +4298,7 @@
         <v>386</v>
       </c>
       <c r="D186" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4312,10 +4309,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D187" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4326,10 +4323,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D188" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4340,10 +4337,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D189" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4354,10 +4351,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D190" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4368,10 +4365,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D191" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4385,7 +4382,7 @@
         <v>388</v>
       </c>
       <c r="D192" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4396,10 +4393,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D193" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4410,10 +4407,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D194" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4424,10 +4421,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D195" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4438,10 +4435,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D196" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4452,10 +4449,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="D197" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4466,10 +4463,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D198" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4480,10 +4477,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D199" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4494,7 +4491,7 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D200" t="s">
         <v>416</v>
@@ -4508,10 +4505,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D201" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4525,7 +4522,7 @@
         <v>387</v>
       </c>
       <c r="D202" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4536,10 +4533,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D203" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4550,10 +4547,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D204" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4564,10 +4561,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D205" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4578,10 +4575,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D206" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4592,10 +4589,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D207" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4606,10 +4603,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D208" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4620,10 +4617,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D209" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4634,10 +4631,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D210" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4648,10 +4645,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D211" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4662,10 +4659,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D212" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4676,10 +4673,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D213" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4690,10 +4687,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D214" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4704,10 +4701,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="D215" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4718,10 +4715,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="D216" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4732,10 +4729,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D217" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4746,10 +4743,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D218" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4760,10 +4757,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D219" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4774,10 +4771,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="D220" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4788,10 +4785,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D221" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4802,10 +4799,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="D222" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4816,10 +4813,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="D223" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4830,10 +4827,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D224" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4844,10 +4841,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D225" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4858,10 +4855,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D226" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4872,10 +4869,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="D227" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4886,10 +4883,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D228" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4903,7 +4900,7 @@
         <v>385</v>
       </c>
       <c r="D229" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4914,10 +4911,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D230" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4931,7 +4928,7 @@
         <v>386</v>
       </c>
       <c r="D231" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4942,10 +4939,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D232" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4956,10 +4953,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D233" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4970,10 +4967,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D234" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4984,10 +4981,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D235" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4998,10 +4995,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="D236" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5012,10 +5009,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D237" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5026,10 +5023,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D238" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5040,10 +5037,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D239" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5054,10 +5051,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D240" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5068,10 +5065,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D241" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5085,7 +5082,7 @@
         <v>386</v>
       </c>
       <c r="D242" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5096,10 +5093,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D243" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5110,7 +5107,7 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D244" t="s">
         <v>437</v>
@@ -5124,10 +5121,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D245" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5138,10 +5135,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D246" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5152,10 +5149,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D247" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5166,10 +5163,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D248" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5180,10 +5177,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D249" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5194,10 +5191,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D250" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5208,10 +5205,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="D251" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5222,10 +5219,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="D252" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5239,7 +5236,7 @@
         <v>388</v>
       </c>
       <c r="D253" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5250,10 +5247,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D254" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5264,10 +5261,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D255" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5278,10 +5275,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D256" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5292,10 +5289,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D257" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5306,10 +5303,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D258" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5320,10 +5317,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D259" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5334,10 +5331,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D260" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5348,10 +5345,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D261" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5362,10 +5359,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D262" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5376,10 +5373,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D263" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5390,10 +5387,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D264" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5404,10 +5401,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D265" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5418,10 +5415,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D266" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5432,10 +5429,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D267" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5446,10 +5443,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D268" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5460,10 +5457,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D269" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5474,10 +5471,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D270" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5488,10 +5485,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D271" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5502,10 +5499,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D272" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5516,10 +5513,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D273" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5530,10 +5527,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="D274" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5544,10 +5541,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D275" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5558,10 +5555,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D276" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5572,10 +5569,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D277" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5586,10 +5583,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D278" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5600,7 +5597,7 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D279" t="s">
         <v>418</v>
@@ -5614,10 +5611,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="D280" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5628,10 +5625,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D281" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5642,7 +5639,7 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D282" t="s">
         <v>410</v>
@@ -5656,10 +5653,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="D283" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5670,10 +5667,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D284" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5684,10 +5681,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D285" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5698,10 +5695,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D286" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5712,10 +5709,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D287" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5726,10 +5723,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D288" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5743,7 +5740,7 @@
         <v>398</v>
       </c>
       <c r="D289" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5754,10 +5751,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="D290" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5768,10 +5765,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="D291" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5782,10 +5779,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D292" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5796,10 +5793,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D293" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5810,10 +5807,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="D294" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5824,10 +5821,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D295" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5838,10 +5835,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="D296" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5852,10 +5849,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="D297" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5866,10 +5863,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D298" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5880,10 +5877,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="D299" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5894,10 +5891,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D300" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5908,10 +5905,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D301" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5922,10 +5919,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D302" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5936,10 +5933,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="D303" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5950,10 +5947,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D304" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5964,10 +5961,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D305" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5981,7 +5978,7 @@
         <v>385</v>
       </c>
       <c r="D306" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5992,10 +5989,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D307" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6006,10 +6003,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D308" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6020,10 +6017,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="D309" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6034,10 +6031,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D310" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6048,10 +6045,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D311" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6062,10 +6059,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D312" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6076,10 +6073,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D313" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6090,10 +6087,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D314" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6104,10 +6101,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="D315" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6118,10 +6115,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D316" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6132,10 +6129,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D317" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6146,10 +6143,10 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D318" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6160,10 +6157,10 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="D319" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6174,10 +6171,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D320" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6188,10 +6185,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="D321" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6205,7 +6202,7 @@
         <v>404</v>
       </c>
       <c r="D322" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6216,10 +6213,10 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="D323" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6230,10 +6227,10 @@
         <v>326</v>
       </c>
       <c r="C324" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="D324" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6244,10 +6241,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D325" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6258,10 +6255,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D326" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6272,10 +6269,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="D327" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6286,10 +6283,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D328" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6300,10 +6297,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D329" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6314,10 +6311,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D330" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6328,10 +6325,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D331" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6342,10 +6339,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D332" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6356,10 +6353,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D333" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6370,10 +6367,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D334" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6384,10 +6381,10 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D335" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6398,10 +6395,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="D336" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6412,10 +6409,10 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D337" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6426,10 +6423,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D338" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6440,10 +6437,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="D339" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6454,10 +6451,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D340" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6468,10 +6465,10 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="D341" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6482,10 +6479,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D342" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6496,10 +6493,10 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D343" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6510,10 +6507,10 @@
         <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D344" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6524,10 +6521,10 @@
         <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="D345" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6538,10 +6535,10 @@
         <v>348</v>
       </c>
       <c r="C346" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D346" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6552,10 +6549,10 @@
         <v>349</v>
       </c>
       <c r="C347" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D347" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6566,10 +6563,10 @@
         <v>350</v>
       </c>
       <c r="C348" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D348" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6580,10 +6577,10 @@
         <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="D349" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6594,10 +6591,10 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D350" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6608,10 +6605,10 @@
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D351" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6622,10 +6619,10 @@
         <v>354</v>
       </c>
       <c r="C352" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="D352" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6636,10 +6633,10 @@
         <v>355</v>
       </c>
       <c r="C353" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D353" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6650,10 +6647,10 @@
         <v>356</v>
       </c>
       <c r="C354" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D354" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6664,10 +6661,10 @@
         <v>357</v>
       </c>
       <c r="C355" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D355" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6678,10 +6675,10 @@
         <v>358</v>
       </c>
       <c r="C356" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D356" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6692,10 +6689,10 @@
         <v>359</v>
       </c>
       <c r="C357" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D357" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6706,10 +6703,10 @@
         <v>360</v>
       </c>
       <c r="C358" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D358" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6720,10 +6717,10 @@
         <v>361</v>
       </c>
       <c r="C359" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D359" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6734,10 +6731,10 @@
         <v>362</v>
       </c>
       <c r="C360" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D360" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6748,10 +6745,10 @@
         <v>363</v>
       </c>
       <c r="C361" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D361" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6762,10 +6759,10 @@
         <v>364</v>
       </c>
       <c r="C362" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="D362" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6776,10 +6773,10 @@
         <v>365</v>
       </c>
       <c r="C363" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="D363" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6790,10 +6787,10 @@
         <v>366</v>
       </c>
       <c r="C364" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D364" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6804,10 +6801,10 @@
         <v>367</v>
       </c>
       <c r="C365" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D365" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6818,10 +6815,10 @@
         <v>368</v>
       </c>
       <c r="C366" t="s">
+        <v>387</v>
+      </c>
+      <c r="D366" t="s">
         <v>407</v>
-      </c>
-      <c r="D366" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6832,10 +6829,10 @@
         <v>369</v>
       </c>
       <c r="C367" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D367" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6846,10 +6843,10 @@
         <v>370</v>
       </c>
       <c r="C368" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="D368" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6860,10 +6857,10 @@
         <v>371</v>
       </c>
       <c r="C369" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D369" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6874,10 +6871,10 @@
         <v>372</v>
       </c>
       <c r="C370" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D370" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6888,10 +6885,10 @@
         <v>373</v>
       </c>
       <c r="C371" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="D371" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6902,10 +6899,10 @@
         <v>374</v>
       </c>
       <c r="C372" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="D372" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -6916,10 +6913,10 @@
         <v>375</v>
       </c>
       <c r="C373" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="D373" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -6930,7 +6927,7 @@
         <v>376</v>
       </c>
       <c r="C374" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="D374" t="s">
         <v>415</v>
@@ -6944,10 +6941,10 @@
         <v>377</v>
       </c>
       <c r="C375" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D375" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6958,10 +6955,10 @@
         <v>378</v>
       </c>
       <c r="C376" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D376" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -6972,10 +6969,10 @@
         <v>379</v>
       </c>
       <c r="C377" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D377" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -6986,10 +6983,10 @@
         <v>380</v>
       </c>
       <c r="C378" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="D378" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7003,7 +7000,7 @@
         <v>398</v>
       </c>
       <c r="D379" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7014,10 +7011,10 @@
         <v>382</v>
       </c>
       <c r="C380" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D380" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7028,28 +7025,14 @@
         <v>383</v>
       </c>
       <c r="C381" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D381" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382">
-        <v>381</v>
-      </c>
-      <c r="B382" t="s">
-        <v>384</v>
-      </c>
-      <c r="C382" t="s">
-        <v>389</v>
-      </c>
-      <c r="D382" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D382"/>
+  <autoFilter ref="A1:D381"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -34,772 +34,787 @@
     <t>Nikola Jokic</t>
   </si>
   <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
     <t>Joel Embiid</t>
   </si>
   <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
     <t>Jayson Tatum</t>
   </si>
   <si>
     <t>Kevin Durant</t>
   </si>
   <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
     <t>Luka Doncic</t>
   </si>
   <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
     <t>KarlAnthony Towns</t>
   </si>
   <si>
     <t>Trae Young</t>
   </si>
   <si>
+    <t>Damian Lillard</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
     <t>LeBron James</t>
   </si>
   <si>
     <t>LaMelo Ball</t>
   </si>
   <si>
-    <t>Damian Lillard</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
     <t>Anthony Davis</t>
   </si>
   <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
     <t>Ja Morant</t>
   </si>
   <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Paul George</t>
+    <t>Shai GilgeousAlexander</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
   </si>
   <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Nikola Vucevic</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>DeMar DeRozan</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Jrue Holiday</t>
+  </si>
+  <si>
+    <t>Robert Williams III</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
   </si>
   <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Shai GilgeousAlexander</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>DeMar DeRozan</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
-    <t>Nikola Vucevic</t>
-  </si>
-  <si>
-    <t>Robert Williams III</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Jrue Holiday</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>De'Aaron Fox</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
   </si>
   <si>
     <t>Cade Cunningham</t>
   </si>
   <si>
-    <t>Brandon Ingram</t>
+    <t>Jonas Valanciunas</t>
   </si>
   <si>
     <t>Jarrett Allen</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>De'Aaron Fox</t>
-  </si>
-  <si>
-    <t>Jonas Valanciunas</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Julius Randle</t>
+  </si>
+  <si>
+    <t>Mikal Bridges</t>
+  </si>
+  <si>
+    <t>Christian Wood</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Terry Rozier</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
   </si>
   <si>
     <t>Evan Mobley</t>
   </si>
   <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Mikal Bridges</t>
-  </si>
-  <si>
-    <t>Terry Rozier</t>
-  </si>
-  <si>
-    <t>Julius Randle</t>
-  </si>
-  <si>
-    <t>Christian Wood</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
+    <t>Lonzo Ball</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Jusuf Nurkic</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Ben Simmons</t>
+  </si>
+  <si>
+    <t>Marcus Smart</t>
+  </si>
+  <si>
+    <t>Kyle Lowry</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Malcolm Brogdon</t>
+  </si>
+  <si>
+    <t>Gordon Hayward</t>
+  </si>
+  <si>
+    <t>Saddiq Bey</t>
+  </si>
+  <si>
+    <t>Mitchell Robinson</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
   </si>
   <si>
     <t>Scottie Barnes</t>
   </si>
   <si>
-    <t>Lonzo Ball</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Jusuf Nurkic</t>
+    <t>Wendell Carter Jr.</t>
   </si>
   <si>
     <t>Tyrese Maxey</t>
   </si>
   <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
     <t>Desmond Bane</t>
   </si>
   <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Tyler Herro</t>
+  </si>
+  <si>
+    <t>Russell Westbrook III</t>
+  </si>
+  <si>
     <t>Josh Giddey</t>
   </si>
   <si>
-    <t>Tyler Herro</t>
-  </si>
-  <si>
-    <t>Ben Simmons</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Marcus Smart</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Saddiq Bey</t>
-  </si>
-  <si>
-    <t>Kyle Lowry</t>
-  </si>
-  <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Malcolm Brogdon</t>
-  </si>
-  <si>
-    <t>Mitchell Robinson</t>
-  </si>
-  <si>
-    <t>Gordon Hayward</t>
-  </si>
-  <si>
-    <t>Buddy Hield</t>
+    <t>Al Horford</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Keldon Johnson</t>
+  </si>
+  <si>
+    <t>Bogdan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Brook Lopez</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>Robert Covington</t>
   </si>
   <si>
     <t>Klay Thompson</t>
   </si>
   <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Keldon Johnson</t>
-  </si>
-  <si>
-    <t>Al Horford</t>
-  </si>
-  <si>
-    <t>Russell Westbrook III</t>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Harrison Barnes</t>
+  </si>
+  <si>
+    <t>Isaiah Stewart</t>
+  </si>
+  <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
+    <t>Kevin Porter Jr.</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
+    <t>Caris LeVert</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
   </si>
   <si>
     <t>Jamal Murray</t>
   </si>
   <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Brook Lopez</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>Robert Covington</t>
-  </si>
-  <si>
-    <t>Bogdan Bogdanovic</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Harrison Barnes</t>
+    <t>Bobby Portis Jr.</t>
+  </si>
+  <si>
+    <t>Richaun Holmes</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Derrick White</t>
+  </si>
+  <si>
+    <t>Mo Bamba</t>
+  </si>
+  <si>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
+    <t>Brandon Clarke</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
   </si>
   <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Kevin Porter Jr.</t>
-  </si>
-  <si>
-    <t>Isaiah Stewart</t>
-  </si>
-  <si>
-    <t>Brandon Clarke</t>
-  </si>
-  <si>
-    <t>Spencer Dinwiddie</t>
-  </si>
-  <si>
-    <t>Bobby Portis Jr.</t>
-  </si>
-  <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Caris LeVert</t>
-  </si>
-  <si>
-    <t>Mo Bamba</t>
+    <t>Kyle Anderson</t>
+  </si>
+  <si>
+    <t>Bojan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Reggie Jackson</t>
+  </si>
+  <si>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Evan Fournier</t>
+  </si>
+  <si>
+    <t>Chris Boucher</t>
+  </si>
+  <si>
+    <t>Jae'Sean Tate</t>
+  </si>
+  <si>
+    <t>Will Barton</t>
   </si>
   <si>
     <t>Alperen Sengun</t>
   </si>
   <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
-    <t>Derrick White</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Richaun Holmes</t>
-  </si>
-  <si>
-    <t>Gary Trent Jr.</t>
+    <t>Dorian FinneySmith</t>
+  </si>
+  <si>
+    <t>T.J. McConnell</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Patrick Williams</t>
+  </si>
+  <si>
+    <t>Steven Adams</t>
+  </si>
+  <si>
+    <t>Devonte' Graham</t>
+  </si>
+  <si>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
+    <t>De'Anthony Melton</t>
+  </si>
+  <si>
+    <t>Chuma Okeke</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Miles Bridges</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Mason Plumlee</t>
+  </si>
+  <si>
+    <t>Jonathan Isaac</t>
   </si>
   <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
-    <t>Bojan Bogdanovic</t>
-  </si>
-  <si>
-    <t>Reggie Jackson</t>
-  </si>
-  <si>
-    <t>Kyle Anderson</t>
-  </si>
-  <si>
-    <t>Will Barton</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Cole Anthony</t>
-  </si>
-  <si>
-    <t>Dorian FinneySmith</t>
-  </si>
-  <si>
-    <t>Jae'Sean Tate</t>
+    <t>John Wall</t>
+  </si>
+  <si>
+    <t>Nic Claxton</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Aleksej Pokusevski</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Luguentz Dort</t>
+  </si>
+  <si>
+    <t>Andre Drummond</t>
+  </si>
+  <si>
+    <t>Joe Harris</t>
   </si>
   <si>
     <t>Keegan Murray</t>
   </si>
   <si>
-    <t>Evan Fournier</t>
-  </si>
-  <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Chris Boucher</t>
-  </si>
-  <si>
-    <t>T.J. McConnell</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>Patrick Williams</t>
-  </si>
-  <si>
-    <t>Steven Adams</t>
-  </si>
-  <si>
-    <t>John Wall</t>
-  </si>
-  <si>
-    <t>Royce O'Neale</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Chuma Okeke</t>
-  </si>
-  <si>
-    <t>Nic Claxton</t>
-  </si>
-  <si>
-    <t>De'Anthony Melton</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Jonathan Isaac</t>
-  </si>
-  <si>
-    <t>Luguentz Dort</t>
-  </si>
-  <si>
-    <t>Devonte' Graham</t>
-  </si>
-  <si>
-    <t>Aleksej Pokusevski</t>
-  </si>
-  <si>
-    <t>Mason Plumlee</t>
-  </si>
-  <si>
-    <t>Miles Bridges</t>
-  </si>
-  <si>
-    <t>Andre Drummond</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
+    <t>Nerlens Noel</t>
   </si>
   <si>
     <t>Tim Hardaway Jr.</t>
   </si>
   <si>
+    <t>Isaiah Roby</t>
+  </si>
+  <si>
+    <t>Joe Ingles</t>
+  </si>
+  <si>
+    <t>Kelly Olynyk</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
+    <t>Kevin Huerter</t>
+  </si>
+  <si>
     <t>James Wiseman</t>
   </si>
   <si>
-    <t>Joe Harris</t>
-  </si>
-  <si>
-    <t>Isaiah Roby</t>
+    <t>Monte Morris</t>
+  </si>
+  <si>
+    <t>Seth Curry</t>
+  </si>
+  <si>
+    <t>Marvin Bagley III</t>
+  </si>
+  <si>
+    <t>Duncan Robinson</t>
+  </si>
+  <si>
+    <t>Matisse Thybulle</t>
+  </si>
+  <si>
+    <t>Marcus Morris Sr.</t>
+  </si>
+  <si>
+    <t>Larry Nance Jr.</t>
+  </si>
+  <si>
+    <t>Nickeil AlexanderWalker</t>
+  </si>
+  <si>
+    <t>Derrick Rose</t>
+  </si>
+  <si>
+    <t>Jae Crowder</t>
+  </si>
+  <si>
+    <t>Thaddeus Young</t>
+  </si>
+  <si>
+    <t>T.J. Warren</t>
+  </si>
+  <si>
+    <t>Thomas Bryant</t>
+  </si>
+  <si>
+    <t>Dennis Schroder</t>
+  </si>
+  <si>
+    <t>Kemba Walker</t>
+  </si>
+  <si>
+    <t>Kevin Love</t>
   </si>
   <si>
     <t>Jaden Ivey</t>
   </si>
   <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
-    <t>Marvin Bagley III</t>
-  </si>
-  <si>
-    <t>Monte Morris</t>
-  </si>
-  <si>
-    <t>Kevin Huerter</t>
-  </si>
-  <si>
-    <t>Seth Curry</t>
-  </si>
-  <si>
-    <t>Nerlens Noel</t>
-  </si>
-  <si>
-    <t>Joe Ingles</t>
-  </si>
-  <si>
-    <t>Matisse Thybulle</t>
-  </si>
-  <si>
-    <t>Kelly Olynyk</t>
-  </si>
-  <si>
-    <t>Marcus Morris Sr.</t>
-  </si>
-  <si>
-    <t>T.J. Warren</t>
-  </si>
-  <si>
-    <t>Duncan Robinson</t>
-  </si>
-  <si>
-    <t>Thomas Bryant</t>
-  </si>
-  <si>
-    <t>Jae Crowder</t>
-  </si>
-  <si>
-    <t>Derrick Rose</t>
-  </si>
-  <si>
-    <t>Larry Nance Jr.</t>
-  </si>
-  <si>
     <t>Markelle Fultz</t>
   </si>
   <si>
-    <t>Kevin Love</t>
+    <t>Victor Oladipo</t>
   </si>
   <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
-    <t>Victor Oladipo</t>
-  </si>
-  <si>
-    <t>Nickeil AlexanderWalker</t>
+    <t>Josh Richardson</t>
+  </si>
+  <si>
+    <t>Otto Porter Jr.</t>
+  </si>
+  <si>
+    <t>Danilo Gallinari</t>
+  </si>
+  <si>
+    <t>Isaac Okoro</t>
+  </si>
+  <si>
+    <t>Derrick Favors</t>
+  </si>
+  <si>
+    <t>Killian Hayes</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Montrezl Harrell</t>
+  </si>
+  <si>
+    <t>Eric Bledsoe</t>
+  </si>
+  <si>
+    <t>Terrence Ross</t>
+  </si>
+  <si>
+    <t>Darius Bazley</t>
+  </si>
+  <si>
+    <t>Maxi Kleber</t>
+  </si>
+  <si>
+    <t>Obi Toppin</t>
+  </si>
+  <si>
+    <t>Justin Holiday</t>
   </si>
   <si>
     <t>Anfernee Simons</t>
   </si>
   <si>
-    <t>Thaddeus Young</t>
-  </si>
-  <si>
-    <t>Josh Richardson</t>
-  </si>
-  <si>
-    <t>Otto Porter Jr.</t>
-  </si>
-  <si>
-    <t>Dennis Schroder</t>
-  </si>
-  <si>
-    <t>Maxi Kleber</t>
-  </si>
-  <si>
-    <t>Isaac Okoro</t>
-  </si>
-  <si>
-    <t>Obi Toppin</t>
-  </si>
-  <si>
-    <t>Killian Hayes</t>
-  </si>
-  <si>
-    <t>Danilo Gallinari</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
+    <t>Lonnie Walker IV</t>
+  </si>
+  <si>
+    <t>Bruce Brown Jr.</t>
+  </si>
+  <si>
+    <t>Daniel Theis</t>
+  </si>
+  <si>
+    <t>Ricky Rubio</t>
+  </si>
+  <si>
+    <t>Khem Birch</t>
+  </si>
+  <si>
+    <t>Alec Burks</t>
+  </si>
+  <si>
+    <t>Kendrick Nunn</t>
+  </si>
+  <si>
+    <t>Xavier Tillman</t>
+  </si>
+  <si>
+    <t>Hassan Whiteside</t>
+  </si>
+  <si>
+    <t>Patrick Beverley</t>
+  </si>
+  <si>
+    <t>Danny Green</t>
   </si>
   <si>
     <t>Jabari Smith Jr.</t>
   </si>
   <si>
-    <t>Darius Bazley</t>
-  </si>
-  <si>
     <t>Jalen Duren</t>
   </si>
   <si>
-    <t>Kemba Walker</t>
-  </si>
-  <si>
-    <t>Bruce Brown Jr.</t>
-  </si>
-  <si>
-    <t>Terrence Ross</t>
-  </si>
-  <si>
-    <t>Eric Bledsoe</t>
-  </si>
-  <si>
-    <t>Montrezl Harrell</t>
-  </si>
-  <si>
-    <t>Derrick Favors</t>
-  </si>
-  <si>
-    <t>Lonnie Walker IV</t>
-  </si>
-  <si>
-    <t>Justin Holiday</t>
-  </si>
-  <si>
-    <t>Patrick Beverley</t>
-  </si>
-  <si>
-    <t>Kendrick Nunn</t>
+    <t>Nicolas Batum</t>
+  </si>
+  <si>
+    <t>Kevon Looney</t>
+  </si>
+  <si>
+    <t>Goran Dragic</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Facundo Campazzo</t>
+  </si>
+  <si>
+    <t>Cam Reddish</t>
+  </si>
+  <si>
+    <t>Davis Bertans</t>
+  </si>
+  <si>
+    <t>Reggie Bullock</t>
+  </si>
+  <si>
+    <t>Eric Gordon</t>
   </si>
   <si>
     <t>Walker Kessler</t>
   </si>
   <si>
-    <t>Alec Burks</t>
-  </si>
-  <si>
-    <t>Ricky Rubio</t>
-  </si>
-  <si>
-    <t>Hassan Whiteside</t>
-  </si>
-  <si>
-    <t>Nicolas Batum</t>
-  </si>
-  <si>
-    <t>Daniel Theis</t>
-  </si>
-  <si>
-    <t>Kevon Looney</t>
-  </si>
-  <si>
-    <t>Xavier Tillman</t>
-  </si>
-  <si>
-    <t>Khem Birch</t>
-  </si>
-  <si>
-    <t>Reggie Bullock</t>
-  </si>
-  <si>
-    <t>Eric Gordon</t>
-  </si>
-  <si>
-    <t>Cam Reddish</t>
-  </si>
-  <si>
-    <t>Goran Dragic</t>
-  </si>
-  <si>
     <t>P.J. Tucker</t>
   </si>
   <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Danny Green</t>
-  </si>
-  <si>
     <t>Jonathan Kuminga</t>
   </si>
   <si>
-    <t>Davis Bertans</t>
+    <t>Blake Griffin</t>
+  </si>
+  <si>
+    <t>Terance Mann</t>
+  </si>
+  <si>
+    <t>Serge Ibaka</t>
+  </si>
+  <si>
+    <t>Carmelo Anthony</t>
+  </si>
+  <si>
+    <t>Rudy Gay</t>
+  </si>
+  <si>
+    <t>Dwight Howard</t>
+  </si>
+  <si>
+    <t>Cody Zeller</t>
+  </si>
+  <si>
+    <t>Delon Wright</t>
+  </si>
+  <si>
+    <t>Juan ToscanoAnderson</t>
+  </si>
+  <si>
+    <t>Enes Freedom</t>
+  </si>
+  <si>
+    <t>Precious Achiuwa</t>
   </si>
   <si>
     <t>Bennedict Mathurin</t>
   </si>
   <si>
-    <t>Facundo Campazzo</t>
-  </si>
-  <si>
-    <t>Terance Mann</t>
+    <t>Luke Kennard</t>
+  </si>
+  <si>
+    <t>Jaxson Hayes</t>
+  </si>
+  <si>
+    <t>Cameron Payne</t>
+  </si>
+  <si>
+    <t>Theo Maledon</t>
+  </si>
+  <si>
+    <t>Tomas Satoransky</t>
+  </si>
+  <si>
+    <t>Moses Brown</t>
   </si>
   <si>
     <t>Onyeka Okongwu</t>
   </si>
   <si>
+    <t>KJ Martin Jr.</t>
+  </si>
+  <si>
     <t>Bones Hyland</t>
   </si>
   <si>
+    <t>LaMarcus Aldridge</t>
+  </si>
+  <si>
+    <t>Paul Millsap</t>
+  </si>
+  <si>
     <t>Devin Vassell</t>
   </si>
   <si>
+    <t>Jalen Smith</t>
+  </si>
+  <si>
     <t>Tari Eason</t>
   </si>
   <si>
-    <t>Jalen Smith</t>
-  </si>
-  <si>
-    <t>Blake Griffin</t>
-  </si>
-  <si>
-    <t>Carmelo Anthony</t>
-  </si>
-  <si>
-    <t>Rudy Gay</t>
-  </si>
-  <si>
-    <t>Delon Wright</t>
-  </si>
-  <si>
-    <t>Serge Ibaka</t>
-  </si>
-  <si>
-    <t>Dwight Howard</t>
-  </si>
-  <si>
-    <t>Jaxson Hayes</t>
+    <t>Jeremy Lamb</t>
   </si>
   <si>
     <t>Herbert Jones</t>
   </si>
   <si>
-    <t>Precious Achiuwa</t>
-  </si>
-  <si>
-    <t>Luke Kennard</t>
-  </si>
-  <si>
-    <t>Theo Maledon</t>
-  </si>
-  <si>
-    <t>Cody Zeller</t>
-  </si>
-  <si>
-    <t>Cameron Payne</t>
-  </si>
-  <si>
-    <t>Juan ToscanoAnderson</t>
-  </si>
-  <si>
-    <t>Tomas Satoransky</t>
-  </si>
-  <si>
-    <t>KJ Martin Jr.</t>
-  </si>
-  <si>
-    <t>Enes Freedom</t>
-  </si>
-  <si>
-    <t>Moses Brown</t>
-  </si>
-  <si>
-    <t>Paul Millsap</t>
-  </si>
-  <si>
-    <t>LaMarcus Aldridge</t>
+    <t>Dewayne Dedmon</t>
+  </si>
+  <si>
+    <t>Malachi Flynn</t>
+  </si>
+  <si>
+    <t>Moses Moody</t>
+  </si>
+  <si>
+    <t>DeAndre Jordan</t>
+  </si>
+  <si>
+    <t>Naz Reid</t>
+  </si>
+  <si>
+    <t>Tristan Thompson</t>
   </si>
   <si>
     <t>Jose Alvarado</t>
   </si>
   <si>
-    <t>Jeremy Lamb</t>
-  </si>
-  <si>
-    <t>Dewayne Dedmon</t>
-  </si>
-  <si>
-    <t>Moses Moody</t>
-  </si>
-  <si>
-    <t>DeAndre Jordan</t>
-  </si>
-  <si>
-    <t>Malachi Flynn</t>
+    <t>Dwight Powell</t>
+  </si>
+  <si>
+    <t>Doug McDermott</t>
+  </si>
+  <si>
+    <t>Josh Jackson</t>
+  </si>
+  <si>
+    <t>Dario Saric</t>
   </si>
   <si>
     <t>Damian Jones</t>
   </si>
   <si>
-    <t>Naz Reid</t>
-  </si>
-  <si>
-    <t>Doug McDermott</t>
-  </si>
-  <si>
-    <t>Dwight Powell</t>
-  </si>
-  <si>
-    <t>Tristan Thompson</t>
+    <t>Shake Milton</t>
+  </si>
+  <si>
+    <t>Lou Williams</t>
+  </si>
+  <si>
+    <t>Jalen McDaniels</t>
   </si>
   <si>
     <t>Alex Caruso</t>
@@ -808,33 +823,18 @@
     <t>Franz Wagner</t>
   </si>
   <si>
-    <t>Josh Jackson</t>
-  </si>
-  <si>
-    <t>Shake Milton</t>
-  </si>
-  <si>
-    <t>Dario Saric</t>
+    <t>Jarred Vanderbilt</t>
   </si>
   <si>
     <t>Mark Williams</t>
   </si>
   <si>
-    <t>Lou Williams</t>
-  </si>
-  <si>
-    <t>Jarred Vanderbilt</t>
-  </si>
-  <si>
     <t>Tre Jones</t>
   </si>
   <si>
     <t>Paul Reed</t>
   </si>
   <si>
-    <t>Jalen McDaniels</t>
-  </si>
-  <si>
     <t>JaVale McGee</t>
   </si>
   <si>
@@ -853,12 +853,12 @@
     <t>Isaiah Jackson</t>
   </si>
   <si>
+    <t>Caleb Martin</t>
+  </si>
+  <si>
     <t>Jericho Sims</t>
   </si>
   <si>
-    <t>Caleb Martin</t>
-  </si>
-  <si>
     <t>Cody Martin</t>
   </si>
   <si>
@@ -877,6 +877,9 @@
     <t>Jalen Williams</t>
   </si>
   <si>
+    <t>Nemanja Bjelica</t>
+  </si>
+  <si>
     <t>Deni Avdija</t>
   </si>
   <si>
@@ -886,6 +889,9 @@
     <t>Nassir Little</t>
   </si>
   <si>
+    <t>Elfrid Payton</t>
+  </si>
+  <si>
     <t>Grayson Allen</t>
   </si>
   <si>
@@ -901,6 +907,12 @@
     <t>Quentin Grimes</t>
   </si>
   <si>
+    <t>Trevor Ariza</t>
+  </si>
+  <si>
+    <t>Ty Jerome</t>
+  </si>
+  <si>
     <t>Max Strus</t>
   </si>
   <si>
@@ -913,27 +925,27 @@
     <t>Josh Christopher</t>
   </si>
   <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
     <t>Jaylin Williams</t>
   </si>
   <si>
     <t>Nikola Jovic</t>
   </si>
   <si>
-    <t>Ayo Dosunmu</t>
+    <t>JaMychal Green</t>
   </si>
   <si>
     <t>Jeremy Sochan</t>
   </si>
   <si>
-    <t>JaMychal Green</t>
+    <t>Davion Mitchell</t>
   </si>
   <si>
     <t>Jake LaRavia</t>
   </si>
   <si>
-    <t>Davion Mitchell</t>
-  </si>
-  <si>
     <t>Trey Murphy III</t>
   </si>
   <si>
@@ -958,42 +970,30 @@
     <t>Ziaire Williams</t>
   </si>
   <si>
-    <t>Nemanja Bjelica</t>
-  </si>
-  <si>
     <t>Drew Eubanks</t>
   </si>
   <si>
-    <t>Elfrid Payton</t>
-  </si>
-  <si>
     <t>Gabe Vincent</t>
   </si>
   <si>
     <t>Jaylen Nowell</t>
   </si>
   <si>
-    <t>Trevor Ariza</t>
-  </si>
-  <si>
     <t>Corey Kispert</t>
   </si>
   <si>
-    <t>Ty Jerome</t>
+    <t>Torrey Craig</t>
   </si>
   <si>
     <t>Shaedon Sharpe</t>
   </si>
   <si>
-    <t>Torrey Craig</t>
+    <t>Tre Mann</t>
   </si>
   <si>
     <t>TyTy Washington</t>
   </si>
   <si>
-    <t>Tre Mann</t>
-  </si>
-  <si>
     <t>Day'Ron Sharpe</t>
   </si>
   <si>
@@ -1003,144 +1003,144 @@
     <t>Ousmane Dieng</t>
   </si>
   <si>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
     <t>Dyson Daniels</t>
   </si>
   <si>
-    <t>Taurean Prince</t>
-  </si>
-  <si>
     <t>Terence Davis II</t>
   </si>
   <si>
     <t>AJ Griffin</t>
   </si>
   <si>
+    <t>Gary Harris</t>
+  </si>
+  <si>
     <t>Ochai Agbaji</t>
   </si>
   <si>
-    <t>Gary Harris</t>
-  </si>
-  <si>
     <t>Josh Green</t>
   </si>
   <si>
     <t>Christian Braun</t>
   </si>
   <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
     <t>David Roddy</t>
   </si>
   <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
     <t>MarJon Beauchamp</t>
   </si>
   <si>
     <t>Blake Wesley</t>
   </si>
   <si>
+    <t>Landry Shamet</t>
+  </si>
+  <si>
     <t>Wendell Moore Jr.</t>
   </si>
   <si>
-    <t>Landry Shamet</t>
-  </si>
-  <si>
     <t>Dalen Terry</t>
   </si>
   <si>
     <t>Patrick Baldwin Jr.</t>
   </si>
   <si>
+    <t>Jordan McLaughlin</t>
+  </si>
+  <si>
     <t>Peyton Watson</t>
   </si>
   <si>
-    <t>Jordan McLaughlin</t>
-  </si>
-  <si>
     <t>Andrew Nembhard</t>
   </si>
   <si>
     <t>Caleb Houstan</t>
   </si>
   <si>
+    <t>Garrison Mathews</t>
+  </si>
+  <si>
     <t>Christian Koloko</t>
   </si>
   <si>
-    <t>Garrison Mathews</t>
+    <t>Udoka Azubuike</t>
   </si>
   <si>
     <t>Max Christie</t>
   </si>
   <si>
-    <t>Udoka Azubuike</t>
+    <t>Wesley Matthews</t>
   </si>
   <si>
     <t>Gabriele Procida</t>
   </si>
   <si>
-    <t>Wesley Matthews</t>
+    <t>George Hill</t>
   </si>
   <si>
     <t>Jaden Hardy</t>
   </si>
   <si>
-    <t>George Hill</t>
-  </si>
-  <si>
     <t>Kennedy Chandler</t>
   </si>
   <si>
     <t>Khalifa Diop</t>
   </si>
   <si>
+    <t>Georges Niang</t>
+  </si>
+  <si>
     <t>Bryce McGowens</t>
   </si>
   <si>
-    <t>Georges Niang</t>
+    <t>Chimezie Metu</t>
   </si>
   <si>
     <t>E.J. Liddell</t>
   </si>
   <si>
-    <t>Chimezie Metu</t>
+    <t>Oshae Brissett</t>
   </si>
   <si>
     <t>Moussa Diabate</t>
   </si>
   <si>
-    <t>Oshae Brissett</t>
+    <t>Patty Mills</t>
   </si>
   <si>
     <t>Ryan Rollins</t>
   </si>
   <si>
-    <t>Patty Mills</t>
+    <t>Justise Winslow</t>
   </si>
   <si>
     <t>Josh Minott</t>
   </si>
   <si>
-    <t>Justise Winslow</t>
+    <t>Zeke Nnaji</t>
   </si>
   <si>
     <t>Ismael Kamagate</t>
   </si>
   <si>
-    <t>Zeke Nnaji</t>
+    <t>James Bouknight</t>
   </si>
   <si>
     <t>Vince Williams Jr.</t>
   </si>
   <si>
-    <t>James Bouknight</t>
+    <t>Trey Lyles</t>
   </si>
   <si>
     <t>Kendall Brown</t>
   </si>
   <si>
-    <t>Trey Lyles</t>
-  </si>
-  <si>
     <t>Isaiah Mobley</t>
   </si>
   <si>
@@ -1189,30 +1189,30 @@
     <t>PG,SG,SF,PF</t>
   </si>
   <si>
+    <t>SF,PF,SG</t>
+  </si>
+  <si>
     <t>SG,SF,PG</t>
   </si>
   <si>
-    <t>SF,PF,SG</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>C,PF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>C,PF</t>
-  </si>
-  <si>
-    <t>PF</t>
+    <t>SF</t>
   </si>
   <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
@@ -1243,67 +1243,67 @@
     <t>DEN</t>
   </si>
   <si>
+    <t>MIL</t>
+  </si>
+  <si>
     <t>PHI</t>
   </si>
   <si>
-    <t>MIL</t>
-  </si>
-  <si>
     <t>BOS</t>
   </si>
   <si>
     <t>BKN</t>
   </si>
   <si>
+    <t>GSW</t>
+  </si>
+  <si>
     <t>DAL</t>
   </si>
   <si>
-    <t>GSW</t>
-  </si>
-  <si>
     <t>MIN</t>
   </si>
   <si>
     <t>ATL</t>
   </si>
   <si>
+    <t>POR</t>
+  </si>
+  <si>
     <t>LAL</t>
   </si>
   <si>
     <t>CHA</t>
   </si>
   <si>
-    <t>POR</t>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>PHO</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>UTH</t>
   </si>
   <si>
     <t>MEM</t>
   </si>
   <si>
-    <t>PHO</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>WAS</t>
-  </si>
-  <si>
-    <t>UTH</t>
-  </si>
-  <si>
     <t>OKC</t>
   </si>
   <si>
+    <t>TOR</t>
+  </si>
+  <si>
     <t>IND</t>
-  </si>
-  <si>
-    <t>TOR</t>
   </si>
   <si>
     <t>CHI</t>
@@ -1845,7 +1845,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D11" t="s">
         <v>416</v>
@@ -1862,7 +1862,7 @@
         <v>386</v>
       </c>
       <c r="D12" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1873,10 +1873,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1890,7 +1890,7 @@
         <v>386</v>
       </c>
       <c r="D14" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1904,7 +1904,7 @@
         <v>384</v>
       </c>
       <c r="D15" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1915,7 +1915,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D16" t="s">
         <v>419</v>
@@ -1957,10 +1957,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D19" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1971,10 +1971,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D20" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1988,7 +1988,7 @@
         <v>384</v>
       </c>
       <c r="D21" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1999,7 +1999,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D22" t="s">
         <v>424</v>
@@ -2013,7 +2013,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D23" t="s">
         <v>425</v>
@@ -2027,10 +2027,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D24" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2041,10 +2041,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D25" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2058,7 +2058,7 @@
         <v>386</v>
       </c>
       <c r="D26" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2069,10 +2069,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D27" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2083,10 +2083,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2100,7 +2100,7 @@
         <v>386</v>
       </c>
       <c r="D29" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2114,7 +2114,7 @@
         <v>386</v>
       </c>
       <c r="D30" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2125,10 +2125,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D31" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2139,10 +2139,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D32" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2153,10 +2153,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D33" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2170,7 +2170,7 @@
         <v>392</v>
       </c>
       <c r="D34" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2195,10 +2195,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2209,10 +2209,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D37" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2223,10 +2223,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D38" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2237,7 +2237,7 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D39" t="s">
         <v>410</v>
@@ -2251,10 +2251,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D40" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2265,10 +2265,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D41" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2279,10 +2279,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D42" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2293,10 +2293,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D43" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2307,7 +2307,7 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D44" t="s">
         <v>431</v>
@@ -2321,10 +2321,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D45" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2335,7 +2335,7 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D46" t="s">
         <v>431</v>
@@ -2349,10 +2349,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D47" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2363,10 +2363,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D48" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2377,10 +2377,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D49" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2405,10 +2405,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D51" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2419,10 +2419,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D52" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2433,10 +2433,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D53" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2450,7 +2450,7 @@
         <v>392</v>
       </c>
       <c r="D54" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2461,10 +2461,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D55" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2475,10 +2475,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D56" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2489,10 +2489,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D57" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2506,7 +2506,7 @@
         <v>385</v>
       </c>
       <c r="D58" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2517,10 +2517,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="D59" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2545,10 +2545,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D61" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2559,10 +2559,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D62" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2587,10 +2587,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D64" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2604,7 +2604,7 @@
         <v>387</v>
       </c>
       <c r="D65" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2615,10 +2615,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D66" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2629,10 +2629,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D67" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2646,7 +2646,7 @@
         <v>386</v>
       </c>
       <c r="D68" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2657,10 +2657,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D69" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2671,10 +2671,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D70" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2685,10 +2685,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D71" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2699,10 +2699,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D72" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2713,10 +2713,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D73" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2727,10 +2727,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D74" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2741,10 +2741,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D75" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2755,10 +2755,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D76" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2769,10 +2769,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D77" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2797,10 +2797,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D79" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2811,10 +2811,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D80" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2825,10 +2825,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D81" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2839,10 +2839,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D82" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2856,7 +2856,7 @@
         <v>392</v>
       </c>
       <c r="D83" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2867,10 +2867,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D84" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2881,10 +2881,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D85" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2895,10 +2895,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D86" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2909,10 +2909,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="D87" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2923,10 +2923,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="D88" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2937,10 +2937,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D89" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2951,10 +2951,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D90" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2965,10 +2965,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D91" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2979,10 +2979,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D92" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2993,10 +2993,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D93" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3007,10 +3007,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="D94" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3021,10 +3021,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D95" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3035,10 +3035,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D96" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3052,7 +3052,7 @@
         <v>384</v>
       </c>
       <c r="D97" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3077,10 +3077,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D99" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3091,10 +3091,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D100" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3105,7 +3105,7 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D101" t="s">
         <v>436</v>
@@ -3119,10 +3119,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D102" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3133,10 +3133,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D103" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3147,10 +3147,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D104" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3161,10 +3161,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D105" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3175,10 +3175,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D106" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3189,10 +3189,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D107" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3217,10 +3217,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D109" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3245,10 +3245,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D111" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3259,7 +3259,7 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="D112" t="s">
         <v>425</v>
@@ -3276,7 +3276,7 @@
         <v>386</v>
       </c>
       <c r="D113" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3290,7 +3290,7 @@
         <v>386</v>
       </c>
       <c r="D114" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3301,10 +3301,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D115" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3315,10 +3315,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D116" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3329,10 +3329,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D117" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3343,10 +3343,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D118" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3357,10 +3357,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D119" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3371,10 +3371,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D120" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3385,10 +3385,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D121" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3402,7 +3402,7 @@
         <v>385</v>
       </c>
       <c r="D122" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3416,7 +3416,7 @@
         <v>392</v>
       </c>
       <c r="D123" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3427,10 +3427,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D124" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3444,7 +3444,7 @@
         <v>385</v>
       </c>
       <c r="D125" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3455,10 +3455,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D126" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3469,10 +3469,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D127" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3483,10 +3483,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D128" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3497,10 +3497,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D129" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3511,10 +3511,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="D130" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3525,10 +3525,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="D131" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3539,10 +3539,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D132" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3553,10 +3553,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="D133" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3567,10 +3567,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D134" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3584,7 +3584,7 @@
         <v>385</v>
       </c>
       <c r="D135" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3595,10 +3595,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D136" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3609,10 +3609,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D137" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3623,10 +3623,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="D138" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3637,10 +3637,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D139" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3651,10 +3651,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D140" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3665,10 +3665,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D141" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3679,10 +3679,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D142" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3696,7 +3696,7 @@
         <v>394</v>
       </c>
       <c r="D143" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3707,10 +3707,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D144" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3721,10 +3721,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D145" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3735,10 +3735,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D146" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3763,10 +3763,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D148" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3777,10 +3777,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D149" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3805,10 +3805,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D151" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3819,10 +3819,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D152" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3833,10 +3833,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D153" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3850,7 +3850,7 @@
         <v>392</v>
       </c>
       <c r="D154" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3861,7 +3861,7 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D155" t="s">
         <v>434</v>
@@ -3875,10 +3875,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D156" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3889,10 +3889,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D157" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3903,10 +3903,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D158" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3917,10 +3917,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D159" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3931,10 +3931,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D160" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3948,7 +3948,7 @@
         <v>386</v>
       </c>
       <c r="D161" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3959,10 +3959,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D162" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3973,10 +3973,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D163" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3990,7 +3990,7 @@
         <v>392</v>
       </c>
       <c r="D164" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4001,10 +4001,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D165" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4018,7 +4018,7 @@
         <v>399</v>
       </c>
       <c r="D166" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4029,10 +4029,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D167" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4043,10 +4043,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D168" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4057,10 +4057,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D169" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4074,7 +4074,7 @@
         <v>385</v>
       </c>
       <c r="D170" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4085,10 +4085,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="D171" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4099,10 +4099,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D172" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4113,10 +4113,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D173" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4127,10 +4127,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D174" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4144,7 +4144,7 @@
         <v>388</v>
       </c>
       <c r="D175" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4155,10 +4155,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D176" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4169,10 +4169,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D177" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4186,7 +4186,7 @@
         <v>386</v>
       </c>
       <c r="D178" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4197,10 +4197,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D179" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4211,10 +4211,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D180" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4225,10 +4225,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D181" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4239,10 +4239,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D182" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4253,10 +4253,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D183" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4281,10 +4281,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="D185" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4312,7 +4312,7 @@
         <v>385</v>
       </c>
       <c r="D187" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4323,10 +4323,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D188" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4337,10 +4337,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D189" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4351,10 +4351,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D190" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4365,10 +4365,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D191" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4379,10 +4379,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D192" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4393,10 +4393,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D193" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4410,7 +4410,7 @@
         <v>392</v>
       </c>
       <c r="D194" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4424,7 +4424,7 @@
         <v>386</v>
       </c>
       <c r="D195" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4435,10 +4435,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D196" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4449,10 +4449,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D197" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4463,10 +4463,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D198" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4477,10 +4477,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D199" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4491,10 +4491,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D200" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4505,10 +4505,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D201" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4519,10 +4519,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D202" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4533,10 +4533,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D203" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4547,10 +4547,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D204" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4561,10 +4561,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D205" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4575,10 +4575,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D206" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4589,10 +4589,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D207" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4603,10 +4603,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D208" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4617,7 +4617,7 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D209" t="s">
         <v>419</v>
@@ -4634,7 +4634,7 @@
         <v>384</v>
       </c>
       <c r="D210" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4645,10 +4645,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D211" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4659,10 +4659,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D212" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4673,10 +4673,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D213" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4687,10 +4687,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D214" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4701,10 +4701,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="D215" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4715,10 +4715,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D216" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4732,7 +4732,7 @@
         <v>392</v>
       </c>
       <c r="D217" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4743,10 +4743,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D218" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4757,10 +4757,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="D219" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4771,10 +4771,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D220" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4785,10 +4785,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D221" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4802,7 +4802,7 @@
         <v>402</v>
       </c>
       <c r="D222" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4816,7 +4816,7 @@
         <v>384</v>
       </c>
       <c r="D223" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4827,10 +4827,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D224" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4841,10 +4841,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D225" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4855,10 +4855,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D226" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4869,10 +4869,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D227" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4883,10 +4883,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D228" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4900,7 +4900,7 @@
         <v>385</v>
       </c>
       <c r="D229" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4911,10 +4911,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D230" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4925,10 +4925,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="D231" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4939,10 +4939,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D232" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4953,10 +4953,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D233" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4981,10 +4981,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D235" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4995,10 +4995,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5009,10 +5009,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D237" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5023,10 +5023,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D238" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5037,10 +5037,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D239" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5051,10 +5051,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D240" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5065,10 +5065,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D241" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5079,7 +5079,7 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D242" t="s">
         <v>437</v>
@@ -5093,10 +5093,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D243" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5107,10 +5107,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D244" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5121,10 +5121,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D245" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5135,10 +5135,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D246" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5149,7 +5149,7 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D247" t="s">
         <v>437</v>
@@ -5163,7 +5163,7 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D248" t="s">
         <v>431</v>
@@ -5177,10 +5177,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D249" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5191,10 +5191,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D250" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5208,7 +5208,7 @@
         <v>402</v>
       </c>
       <c r="D251" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5233,10 +5233,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D253" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5247,10 +5247,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D254" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5261,10 +5261,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D255" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5275,10 +5275,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D256" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5289,10 +5289,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D257" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5303,7 +5303,7 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D258" t="s">
         <v>437</v>
@@ -5317,10 +5317,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D259" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5331,10 +5331,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D260" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5345,10 +5345,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D261" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5362,7 +5362,7 @@
         <v>386</v>
       </c>
       <c r="D262" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5376,7 +5376,7 @@
         <v>384</v>
       </c>
       <c r="D263" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5387,10 +5387,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D264" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5401,10 +5401,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D265" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5418,7 +5418,7 @@
         <v>384</v>
       </c>
       <c r="D266" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5429,10 +5429,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D267" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5443,10 +5443,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D268" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5457,10 +5457,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D269" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5474,7 +5474,7 @@
         <v>387</v>
       </c>
       <c r="D270" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5488,7 +5488,7 @@
         <v>398</v>
       </c>
       <c r="D271" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5499,7 +5499,7 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D272" t="s">
         <v>407</v>
@@ -5541,10 +5541,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D275" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5555,10 +5555,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="D276" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5569,10 +5569,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D277" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5586,7 +5586,7 @@
         <v>392</v>
       </c>
       <c r="D278" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5600,7 +5600,7 @@
         <v>386</v>
       </c>
       <c r="D279" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5614,7 +5614,7 @@
         <v>398</v>
       </c>
       <c r="D280" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5628,7 +5628,7 @@
         <v>392</v>
       </c>
       <c r="D281" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5667,10 +5667,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D284" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5681,10 +5681,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D285" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5695,10 +5695,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D286" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5709,10 +5709,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D287" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5723,10 +5723,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D288" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5737,10 +5737,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D289" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5751,10 +5751,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D290" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5768,7 +5768,7 @@
         <v>398</v>
       </c>
       <c r="D291" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5779,10 +5779,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D292" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5793,10 +5793,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="D293" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5807,10 +5807,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D294" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5821,10 +5821,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D295" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5835,10 +5835,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D296" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5849,10 +5849,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D297" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5863,10 +5863,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="D298" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5877,10 +5877,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D299" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5891,10 +5891,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D300" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5905,10 +5905,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D301" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5919,10 +5919,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D302" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5933,10 +5933,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D303" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5947,10 +5947,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="D304" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5961,10 +5961,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="D305" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5975,10 +5975,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="D306" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5992,7 +5992,7 @@
         <v>392</v>
       </c>
       <c r="D307" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6006,7 +6006,7 @@
         <v>385</v>
       </c>
       <c r="D308" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6017,10 +6017,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="D309" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6031,10 +6031,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="D310" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6045,10 +6045,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D311" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6059,10 +6059,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D312" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6073,10 +6073,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="D313" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6087,10 +6087,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="D314" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6101,10 +6101,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="D315" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6115,10 +6115,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D316" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6129,10 +6129,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D317" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6143,10 +6143,10 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D318" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6157,10 +6157,10 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D319" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6171,10 +6171,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D320" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6185,10 +6185,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D321" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6199,10 +6199,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D322" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6255,10 +6255,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D326" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6269,10 +6269,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="D327" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6297,7 +6297,7 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D329" t="s">
         <v>415</v>
@@ -6311,10 +6311,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="D330" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6325,10 +6325,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="D331" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6342,7 +6342,7 @@
         <v>392</v>
       </c>
       <c r="D332" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6367,10 +6367,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D334" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6381,10 +6381,10 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D335" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6398,7 +6398,7 @@
         <v>405</v>
       </c>
       <c r="D336" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6423,10 +6423,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D338" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6437,10 +6437,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="D339" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6468,7 +6468,7 @@
         <v>403</v>
       </c>
       <c r="D341" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6479,10 +6479,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D342" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6493,10 +6493,10 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D343" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6510,7 +6510,7 @@
         <v>388</v>
       </c>
       <c r="D344" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6535,10 +6535,10 @@
         <v>348</v>
       </c>
       <c r="C346" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D346" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6549,10 +6549,10 @@
         <v>349</v>
       </c>
       <c r="C347" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D347" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6563,10 +6563,10 @@
         <v>350</v>
       </c>
       <c r="C348" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="D348" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6577,10 +6577,10 @@
         <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="D349" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6591,10 +6591,10 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D350" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6605,10 +6605,10 @@
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D351" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6619,10 +6619,10 @@
         <v>354</v>
       </c>
       <c r="C352" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="D352" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6633,10 +6633,10 @@
         <v>355</v>
       </c>
       <c r="C353" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="D353" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6650,7 +6650,7 @@
         <v>388</v>
       </c>
       <c r="D354" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6675,10 +6675,10 @@
         <v>358</v>
       </c>
       <c r="C356" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D356" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6689,10 +6689,10 @@
         <v>359</v>
       </c>
       <c r="C357" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="D357" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6703,10 +6703,10 @@
         <v>360</v>
       </c>
       <c r="C358" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D358" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6717,10 +6717,10 @@
         <v>361</v>
       </c>
       <c r="C359" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D359" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6731,10 +6731,10 @@
         <v>362</v>
       </c>
       <c r="C360" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D360" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6745,10 +6745,10 @@
         <v>363</v>
       </c>
       <c r="C361" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="D361" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6759,10 +6759,10 @@
         <v>364</v>
       </c>
       <c r="C362" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D362" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6773,10 +6773,10 @@
         <v>365</v>
       </c>
       <c r="C363" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D363" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6787,10 +6787,10 @@
         <v>366</v>
       </c>
       <c r="C364" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="D364" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6801,10 +6801,10 @@
         <v>367</v>
       </c>
       <c r="C365" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D365" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6815,7 +6815,7 @@
         <v>368</v>
       </c>
       <c r="C366" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D366" t="s">
         <v>407</v>
@@ -6829,7 +6829,7 @@
         <v>369</v>
       </c>
       <c r="C367" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D367" t="s">
         <v>407</v>
@@ -6843,10 +6843,10 @@
         <v>370</v>
       </c>
       <c r="C368" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D368" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6857,10 +6857,10 @@
         <v>371</v>
       </c>
       <c r="C369" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D369" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6871,10 +6871,10 @@
         <v>372</v>
       </c>
       <c r="C370" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D370" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6885,10 +6885,10 @@
         <v>373</v>
       </c>
       <c r="C371" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D371" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6941,7 +6941,7 @@
         <v>377</v>
       </c>
       <c r="C375" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D375" t="s">
         <v>437</v>
@@ -6972,7 +6972,7 @@
         <v>387</v>
       </c>
       <c r="D377" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -6983,10 +6983,10 @@
         <v>380</v>
       </c>
       <c r="C378" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D378" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7011,10 +7011,10 @@
         <v>382</v>
       </c>
       <c r="C380" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D380" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7028,7 +7028,7 @@
         <v>388</v>
       </c>
       <c r="D381" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -10,14 +10,14 @@
     <sheet name="draft" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$381</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$391</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="448">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -43,12 +43,12 @@
     <t>Jayson Tatum</t>
   </si>
   <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
     <t>Kevin Durant</t>
   </si>
   <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
     <t>Luka Doncic</t>
   </si>
   <si>
@@ -58,99 +58,99 @@
     <t>Trae Young</t>
   </si>
   <si>
+    <t>James Harden</t>
+  </si>
+  <si>
     <t>Damian Lillard</t>
   </si>
   <si>
-    <t>James Harden</t>
-  </si>
-  <si>
     <t>LeBron James</t>
   </si>
   <si>
+    <t>Anthony Davis</t>
+  </si>
+  <si>
     <t>LaMelo Ball</t>
   </si>
   <si>
-    <t>Anthony Davis</t>
-  </si>
-  <si>
     <t>Paul George</t>
   </si>
   <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
     <t>Bam Adebayo</t>
   </si>
   <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
+    <t>Shai GilgeousAlexander</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
     <t>Ja Morant</t>
   </si>
   <si>
-    <t>Shai GilgeousAlexander</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
     <t>Chris Paul</t>
   </si>
   <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
     <t>Nikola Vucevic</t>
   </si>
   <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>DeMar DeRozan</t>
+  </si>
+  <si>
     <t>Deandre Ayton</t>
   </si>
   <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>DeMar DeRozan</t>
-  </si>
-  <si>
     <t>Pascal Siakam</t>
   </si>
   <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
     <t>Jrue Holiday</t>
   </si>
   <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
     <t>Robert Williams III</t>
   </si>
   <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
@@ -160,25 +160,28 @@
     <t>Brandon Ingram</t>
   </si>
   <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>De'Aaron Fox</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>De'Aaron Fox</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
     <t>Cade Cunningham</t>
   </si>
   <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
     <t>Jonas Valanciunas</t>
   </si>
   <si>
-    <t>Jarrett Allen</t>
+    <t>Mikal Bridges</t>
   </si>
   <si>
     <t>OG Anunoby</t>
@@ -187,7 +190,7 @@
     <t>Julius Randle</t>
   </si>
   <si>
-    <t>Mikal Bridges</t>
+    <t>Terry Rozier</t>
   </si>
   <si>
     <t>Christian Wood</t>
@@ -196,30 +199,27 @@
     <t>Tobias Harris</t>
   </si>
   <si>
-    <t>Terry Rozier</t>
-  </si>
-  <si>
     <t>Michael Porter Jr.</t>
   </si>
   <si>
     <t>Evan Mobley</t>
   </si>
   <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Jusuf Nurkic</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Jusuf Nurkic</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
     <t>Clint Capela</t>
   </si>
   <si>
@@ -229,930 +229,960 @@
     <t>Ben Simmons</t>
   </si>
   <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
     <t>Marcus Smart</t>
   </si>
   <si>
     <t>Kyle Lowry</t>
   </si>
   <si>
-    <t>Jerami Grant</t>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>Saddiq Bey</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Scottie Barnes</t>
+  </si>
+  <si>
+    <t>Mitchell Robinson</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Gordon Hayward</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Josh Giddey</t>
+  </si>
+  <si>
+    <t>Tyler Herro</t>
   </si>
   <si>
     <t>Malcolm Brogdon</t>
   </si>
   <si>
-    <t>Gordon Hayward</t>
-  </si>
-  <si>
-    <t>Saddiq Bey</t>
-  </si>
-  <si>
-    <t>Mitchell Robinson</t>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Keldon Johnson</t>
+  </si>
+  <si>
+    <t>Russell Westbrook III</t>
   </si>
   <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Scottie Barnes</t>
-  </si>
-  <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Al Horford</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
   </si>
   <si>
     <t>Jaren Jackson Jr.</t>
   </si>
   <si>
-    <t>Buddy Hield</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Tyler Herro</t>
-  </si>
-  <si>
-    <t>Russell Westbrook III</t>
-  </si>
-  <si>
-    <t>Josh Giddey</t>
-  </si>
-  <si>
-    <t>Al Horford</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Keldon Johnson</t>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Robert Covington</t>
+  </si>
+  <si>
+    <t>Brook Lopez</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Harrison Barnes</t>
+  </si>
+  <si>
+    <t>Isaiah Stewart</t>
   </si>
   <si>
     <t>Bogdan Bogdanovic</t>
   </si>
   <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>Brook Lopez</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>Robert Covington</t>
-  </si>
-  <si>
-    <t>Klay Thompson</t>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Kevin Porter Jr.</t>
   </si>
   <si>
     <t>Norman Powell</t>
   </si>
   <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Harrison Barnes</t>
-  </si>
-  <si>
-    <t>Isaiah Stewart</t>
+    <t>Bobby Portis Jr.</t>
   </si>
   <si>
     <t>Collin Sexton</t>
   </si>
   <si>
-    <t>Kevin Porter Jr.</t>
+    <t>Jamal Murray</t>
   </si>
   <si>
     <t>Spencer Dinwiddie</t>
   </si>
   <si>
+    <t>Mo Bamba</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
     <t>Caris LeVert</t>
   </si>
   <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Bobby Portis Jr.</t>
+    <t>Brandon Clarke</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Derrick White</t>
+  </si>
+  <si>
+    <t>Gary Trent Jr.</t>
   </si>
   <si>
     <t>Richaun Holmes</t>
   </si>
   <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Derrick White</t>
-  </si>
-  <si>
-    <t>Mo Bamba</t>
+    <t>Alperen Sengun</t>
   </si>
   <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
-    <t>Brandon Clarke</t>
+    <t>Reggie Jackson</t>
   </si>
   <si>
     <t>Jalen Suggs</t>
   </si>
   <si>
-    <t>Jalen Brunson</t>
+    <t>Bojan Bogdanovic</t>
   </si>
   <si>
     <t>Kyle Anderson</t>
   </si>
   <si>
-    <t>Bojan Bogdanovic</t>
-  </si>
-  <si>
-    <t>Reggie Jackson</t>
-  </si>
-  <si>
-    <t>Gary Trent Jr.</t>
-  </si>
-  <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Dorian FinneySmith</t>
+  </si>
+  <si>
     <t>Evan Fournier</t>
   </si>
   <si>
     <t>Chris Boucher</t>
   </si>
   <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
     <t>Jae'Sean Tate</t>
   </si>
   <si>
     <t>Will Barton</t>
   </si>
   <si>
-    <t>Alperen Sengun</t>
-  </si>
-  <si>
-    <t>Dorian FinneySmith</t>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>De'Anthony Melton</t>
+  </si>
+  <si>
+    <t>Steven Adams</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Nic Claxton</t>
+  </si>
+  <si>
+    <t>Patrick Williams</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
+    <t>John Wall</t>
+  </si>
+  <si>
+    <t>Mason Plumlee</t>
   </si>
   <si>
     <t>T.J. McConnell</t>
   </si>
   <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Cole Anthony</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Patrick Williams</t>
-  </si>
-  <si>
-    <t>Steven Adams</t>
+    <t>Jonathan Isaac</t>
+  </si>
+  <si>
+    <t>Monte Morris</t>
+  </si>
+  <si>
+    <t>Miles Bridges</t>
+  </si>
+  <si>
+    <t>Chuma Okeke</t>
+  </si>
+  <si>
+    <t>Andre Drummond</t>
+  </si>
+  <si>
+    <t>Luguentz Dort</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
   </si>
   <si>
     <t>Devonte' Graham</t>
   </si>
   <si>
-    <t>Royce O'Neale</t>
-  </si>
-  <si>
-    <t>De'Anthony Melton</t>
-  </si>
-  <si>
-    <t>Chuma Okeke</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Miles Bridges</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Mason Plumlee</t>
-  </si>
-  <si>
-    <t>Jonathan Isaac</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>John Wall</t>
-  </si>
-  <si>
-    <t>Nic Claxton</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Kevin Huerter</t>
+  </si>
+  <si>
+    <t>James Wiseman</t>
+  </si>
+  <si>
+    <t>Tim Hardaway Jr.</t>
+  </si>
+  <si>
+    <t>Joe Harris</t>
+  </si>
+  <si>
+    <t>Seth Curry</t>
   </si>
   <si>
     <t>Aleksej Pokusevski</t>
   </si>
   <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Luguentz Dort</t>
-  </si>
-  <si>
-    <t>Andre Drummond</t>
-  </si>
-  <si>
-    <t>Joe Harris</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
+    <t>Matisse Thybulle</t>
+  </si>
+  <si>
+    <t>Marvin Bagley III</t>
+  </si>
+  <si>
+    <t>Isaiah Roby</t>
   </si>
   <si>
     <t>Nerlens Noel</t>
   </si>
   <si>
-    <t>Tim Hardaway Jr.</t>
-  </si>
-  <si>
-    <t>Isaiah Roby</t>
+    <t>Kelly Olynyk</t>
+  </si>
+  <si>
+    <t>Thomas Bryant</t>
+  </si>
+  <si>
+    <t>Duncan Robinson</t>
+  </si>
+  <si>
+    <t>Larry Nance Jr.</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
+    <t>Marcus Morris Sr.</t>
+  </si>
+  <si>
+    <t>Kevin Love</t>
+  </si>
+  <si>
+    <t>Jae Crowder</t>
+  </si>
+  <si>
+    <t>Markelle Fultz</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>T.J. Warren</t>
+  </si>
+  <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Nickeil AlexanderWalker</t>
   </si>
   <si>
     <t>Joe Ingles</t>
   </si>
   <si>
-    <t>Kelly Olynyk</t>
-  </si>
-  <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
-    <t>Kevin Huerter</t>
-  </si>
-  <si>
-    <t>James Wiseman</t>
-  </si>
-  <si>
-    <t>Monte Morris</t>
-  </si>
-  <si>
-    <t>Seth Curry</t>
-  </si>
-  <si>
-    <t>Marvin Bagley III</t>
-  </si>
-  <si>
-    <t>Duncan Robinson</t>
-  </si>
-  <si>
-    <t>Matisse Thybulle</t>
-  </si>
-  <si>
-    <t>Marcus Morris Sr.</t>
-  </si>
-  <si>
-    <t>Larry Nance Jr.</t>
-  </si>
-  <si>
-    <t>Nickeil AlexanderWalker</t>
+    <t>Victor Oladipo</t>
+  </si>
+  <si>
+    <t>Thaddeus Young</t>
   </si>
   <si>
     <t>Derrick Rose</t>
   </si>
   <si>
-    <t>Jae Crowder</t>
-  </si>
-  <si>
-    <t>Thaddeus Young</t>
-  </si>
-  <si>
-    <t>T.J. Warren</t>
-  </si>
-  <si>
-    <t>Thomas Bryant</t>
-  </si>
-  <si>
     <t>Dennis Schroder</t>
   </si>
   <si>
+    <t>Otto Porter Jr.</t>
+  </si>
+  <si>
+    <t>Killian Hayes</t>
+  </si>
+  <si>
+    <t>Danilo Gallinari</t>
+  </si>
+  <si>
+    <t>Darius Bazley</t>
+  </si>
+  <si>
+    <t>Josh Richardson</t>
+  </si>
+  <si>
+    <t>Obi Toppin</t>
+  </si>
+  <si>
+    <t>Maxi Kleber</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Bruce Brown Jr.</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Montrezl Harrell</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
+    <t>Isaac Okoro</t>
+  </si>
+  <si>
     <t>Kemba Walker</t>
   </si>
   <si>
-    <t>Kevin Love</t>
-  </si>
-  <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
-    <t>Markelle Fultz</t>
-  </si>
-  <si>
-    <t>Victor Oladipo</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Josh Richardson</t>
-  </si>
-  <si>
-    <t>Otto Porter Jr.</t>
-  </si>
-  <si>
-    <t>Danilo Gallinari</t>
-  </si>
-  <si>
-    <t>Isaac Okoro</t>
+    <t>Hassan Whiteside</t>
   </si>
   <si>
     <t>Derrick Favors</t>
   </si>
   <si>
-    <t>Killian Hayes</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
-    <t>Montrezl Harrell</t>
+    <t>Kevon Looney</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Alec Burks</t>
+  </si>
+  <si>
+    <t>Patrick Beverley</t>
+  </si>
+  <si>
+    <t>Terrence Ross</t>
+  </si>
+  <si>
+    <t>Lonnie Walker IV</t>
+  </si>
+  <si>
+    <t>Reggie Bullock</t>
+  </si>
+  <si>
+    <t>Xavier Tillman</t>
+  </si>
+  <si>
+    <t>Justin Holiday</t>
   </si>
   <si>
     <t>Eric Bledsoe</t>
   </si>
   <si>
-    <t>Terrence Ross</t>
-  </si>
-  <si>
-    <t>Darius Bazley</t>
-  </si>
-  <si>
-    <t>Maxi Kleber</t>
-  </si>
-  <si>
-    <t>Obi Toppin</t>
-  </si>
-  <si>
-    <t>Justin Holiday</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Lonnie Walker IV</t>
-  </si>
-  <si>
-    <t>Bruce Brown Jr.</t>
+    <t>Ricky Rubio</t>
+  </si>
+  <si>
+    <t>Kendrick Nunn</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Nicolas Batum</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
   </si>
   <si>
     <t>Daniel Theis</t>
   </si>
   <si>
-    <t>Ricky Rubio</t>
+    <t>Bennedict Mathurin</t>
+  </si>
+  <si>
+    <t>Jalen Smith</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>P.J. Tucker</t>
   </si>
   <si>
     <t>Khem Birch</t>
   </si>
   <si>
-    <t>Alec Burks</t>
-  </si>
-  <si>
-    <t>Kendrick Nunn</t>
-  </si>
-  <si>
-    <t>Xavier Tillman</t>
-  </si>
-  <si>
-    <t>Hassan Whiteside</t>
-  </si>
-  <si>
-    <t>Patrick Beverley</t>
+    <t>Herbert Jones</t>
+  </si>
+  <si>
+    <t>Eric Gordon</t>
+  </si>
+  <si>
+    <t>Cam Reddish</t>
+  </si>
+  <si>
+    <t>Precious Achiuwa</t>
+  </si>
+  <si>
+    <t>Goran Dragic</t>
   </si>
   <si>
     <t>Danny Green</t>
   </si>
   <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Nicolas Batum</t>
-  </si>
-  <si>
-    <t>Kevon Looney</t>
-  </si>
-  <si>
-    <t>Goran Dragic</t>
-  </si>
-  <si>
-    <t>Coby White</t>
+    <t>Jaxson Hayes</t>
   </si>
   <si>
     <t>Facundo Campazzo</t>
   </si>
   <si>
-    <t>Cam Reddish</t>
-  </si>
-  <si>
     <t>Davis Bertans</t>
   </si>
   <si>
-    <t>Reggie Bullock</t>
-  </si>
-  <si>
-    <t>Eric Gordon</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>P.J. Tucker</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
+    <t>Cameron Payne</t>
+  </si>
+  <si>
+    <t>Terance Mann</t>
+  </si>
+  <si>
+    <t>Juan ToscanoAnderson</t>
+  </si>
+  <si>
+    <t>Delon Wright</t>
   </si>
   <si>
     <t>Blake Griffin</t>
   </si>
   <si>
-    <t>Terance Mann</t>
+    <t>Rudy Gay</t>
+  </si>
+  <si>
+    <t>Luke Kennard</t>
   </si>
   <si>
     <t>Serge Ibaka</t>
   </si>
   <si>
+    <t>KJ Martin Jr.</t>
+  </si>
+  <si>
+    <t>Cody Zeller</t>
+  </si>
+  <si>
     <t>Carmelo Anthony</t>
   </si>
   <si>
-    <t>Rudy Gay</t>
-  </si>
-  <si>
     <t>Dwight Howard</t>
   </si>
   <si>
-    <t>Cody Zeller</t>
-  </si>
-  <si>
-    <t>Delon Wright</t>
-  </si>
-  <si>
-    <t>Juan ToscanoAnderson</t>
+    <t>Onyeka Okongwu</t>
+  </si>
+  <si>
+    <t>Bones Hyland</t>
+  </si>
+  <si>
+    <t>Tomas Satoransky</t>
+  </si>
+  <si>
+    <t>Theo Maledon</t>
+  </si>
+  <si>
+    <t>LaMarcus Aldridge</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Moses Moody</t>
+  </si>
+  <si>
+    <t>Moses Brown</t>
   </si>
   <si>
     <t>Enes Freedom</t>
   </si>
   <si>
-    <t>Precious Achiuwa</t>
-  </si>
-  <si>
-    <t>Bennedict Mathurin</t>
-  </si>
-  <si>
-    <t>Luke Kennard</t>
-  </si>
-  <si>
-    <t>Jaxson Hayes</t>
-  </si>
-  <si>
-    <t>Cameron Payne</t>
-  </si>
-  <si>
-    <t>Theo Maledon</t>
-  </si>
-  <si>
-    <t>Tomas Satoransky</t>
-  </si>
-  <si>
-    <t>Moses Brown</t>
-  </si>
-  <si>
-    <t>Onyeka Okongwu</t>
-  </si>
-  <si>
-    <t>KJ Martin Jr.</t>
-  </si>
-  <si>
-    <t>Bones Hyland</t>
-  </si>
-  <si>
-    <t>LaMarcus Aldridge</t>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Dewayne Dedmon</t>
   </si>
   <si>
     <t>Paul Millsap</t>
   </si>
   <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Jalen Smith</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
+    <t>Naz Reid</t>
+  </si>
+  <si>
+    <t>Dwight Powell</t>
   </si>
   <si>
     <t>Jeremy Lamb</t>
   </si>
   <si>
-    <t>Herbert Jones</t>
-  </si>
-  <si>
-    <t>Dewayne Dedmon</t>
+    <t>Jarred Vanderbilt</t>
+  </si>
+  <si>
+    <t>Tre Jones</t>
+  </si>
+  <si>
+    <t>Isaiah Jackson</t>
+  </si>
+  <si>
+    <t>Alex Caruso</t>
+  </si>
+  <si>
+    <t>Doug McDermott</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Isaiah Hartenstein</t>
+  </si>
+  <si>
+    <t>JaVale McGee</t>
   </si>
   <si>
     <t>Malachi Flynn</t>
   </si>
   <si>
-    <t>Moses Moody</t>
+    <t>Dario Saric</t>
+  </si>
+  <si>
+    <t>Jalen McDaniels</t>
   </si>
   <si>
     <t>DeAndre Jordan</t>
   </si>
   <si>
-    <t>Naz Reid</t>
+    <t>Chris Duarte</t>
   </si>
   <si>
     <t>Tristan Thompson</t>
   </si>
   <si>
+    <t>Kentavious CaldwellPope</t>
+  </si>
+  <si>
+    <t>Gary Payton II</t>
+  </si>
+  <si>
+    <t>Josh Jackson</t>
+  </si>
+  <si>
+    <t>Lou Williams</t>
+  </si>
+  <si>
+    <t>Shake Milton</t>
+  </si>
+  <si>
+    <t>Caleb Martin</t>
+  </si>
+  <si>
+    <t>Cody Martin</t>
+  </si>
+  <si>
+    <t>Malik Monk</t>
+  </si>
+  <si>
+    <t>Damian Jones</t>
+  </si>
+  <si>
+    <t>Grant Williams</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Max Strus</t>
+  </si>
+  <si>
+    <t>Davion Mitchell</t>
+  </si>
+  <si>
     <t>Jose Alvarado</t>
   </si>
   <si>
-    <t>Dwight Powell</t>
-  </si>
-  <si>
-    <t>Doug McDermott</t>
-  </si>
-  <si>
-    <t>Josh Jackson</t>
-  </si>
-  <si>
-    <t>Dario Saric</t>
-  </si>
-  <si>
-    <t>Damian Jones</t>
-  </si>
-  <si>
-    <t>Shake Milton</t>
-  </si>
-  <si>
-    <t>Lou Williams</t>
-  </si>
-  <si>
-    <t>Jalen McDaniels</t>
-  </si>
-  <si>
-    <t>Alex Caruso</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Jarred Vanderbilt</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Tre Jones</t>
+    <t>Nassir Little</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Pat Connaughton</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Zach Collins</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Johnny Davis</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Isaiah Livers</t>
+  </si>
+  <si>
+    <t>Joshua Primo</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Ziaire Williams</t>
+  </si>
+  <si>
+    <t>Josh Christopher</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Drew Eubanks</t>
+  </si>
+  <si>
+    <t>Nemanja Bjelica</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
   </si>
   <si>
     <t>Paul Reed</t>
   </si>
   <si>
-    <t>JaVale McGee</t>
-  </si>
-  <si>
-    <t>Chris Duarte</t>
-  </si>
-  <si>
-    <t>Kentavious CaldwellPope</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Isaiah Hartenstein</t>
-  </si>
-  <si>
-    <t>Isaiah Jackson</t>
-  </si>
-  <si>
-    <t>Caleb Martin</t>
+    <t>Talen HortonTucker</t>
+  </si>
+  <si>
+    <t>Elfrid Payton</t>
+  </si>
+  <si>
+    <t>Jaylen Nowell</t>
+  </si>
+  <si>
+    <t>Trevor Keels</t>
+  </si>
+  <si>
+    <t>Jeremiah RobinsonEarl</t>
+  </si>
+  <si>
+    <t>Trevor Ariza</t>
+  </si>
+  <si>
+    <t>Day'Ron Sharpe</t>
+  </si>
+  <si>
+    <t>TyTy Washington</t>
+  </si>
+  <si>
+    <t>Ty Jerome</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Udoka Azubuike</t>
+  </si>
+  <si>
+    <t>Jaylin Williams</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Trendon Watford</t>
+  </si>
+  <si>
+    <t>Malaki Branham</t>
+  </si>
+  <si>
+    <t>Corey Kispert</t>
+  </si>
+  <si>
+    <t>Jake LaRavia</t>
+  </si>
+  <si>
+    <t>Tre Mann</t>
+  </si>
+  <si>
+    <t>Shaedon Sharpe</t>
+  </si>
+  <si>
+    <t>JaMychal Green</t>
+  </si>
+  <si>
+    <t>Ochai Agbaji</t>
+  </si>
+  <si>
+    <t>Oshae Brissett</t>
+  </si>
+  <si>
+    <t>Jeff Green</t>
+  </si>
+  <si>
+    <t>Omer Yurtseven</t>
+  </si>
+  <si>
+    <t>John Konchar</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
+    <t>Gary Harris</t>
+  </si>
+  <si>
+    <t>Zeke Nnaji</t>
+  </si>
+  <si>
+    <t>Kenrich Williams</t>
+  </si>
+  <si>
+    <t>Gabe Vincent</t>
+  </si>
+  <si>
+    <t>Patty Mills</t>
+  </si>
+  <si>
+    <t>Torrey Craig</t>
+  </si>
+  <si>
+    <t>Garrison Mathews</t>
+  </si>
+  <si>
+    <t>Jordan McLaughlin</t>
+  </si>
+  <si>
+    <t>Ousmane Dieng</t>
+  </si>
+  <si>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
+    <t>Terence Davis II</t>
+  </si>
+  <si>
+    <t>Georges Niang</t>
+  </si>
+  <si>
+    <t>AJ Griffin</t>
+  </si>
+  <si>
+    <t>Josh Green</t>
+  </si>
+  <si>
+    <t>Trey Lyles</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>David Roddy</t>
+  </si>
+  <si>
+    <t>MarJon Beauchamp</t>
+  </si>
+  <si>
+    <t>Blake Wesley</t>
+  </si>
+  <si>
+    <t>Landry Shamet</t>
+  </si>
+  <si>
+    <t>Wendell Moore Jr.</t>
+  </si>
+  <si>
+    <t>Dalen Terry</t>
+  </si>
+  <si>
+    <t>Bismack Biyombo</t>
+  </si>
+  <si>
+    <t>Patrick Baldwin Jr.</t>
+  </si>
+  <si>
+    <t>Peyton Watson</t>
+  </si>
+  <si>
+    <t>Andrew Nembhard</t>
+  </si>
+  <si>
+    <t>Caleb Houstan</t>
+  </si>
+  <si>
+    <t>Aaron Nesmith</t>
+  </si>
+  <si>
+    <t>Christian Koloko</t>
+  </si>
+  <si>
+    <t>Jared Butler</t>
+  </si>
+  <si>
+    <t>Max Christie</t>
+  </si>
+  <si>
+    <t>Wesley Matthews</t>
+  </si>
+  <si>
+    <t>Moritz Wagner</t>
+  </si>
+  <si>
+    <t>Gabriele Procida</t>
+  </si>
+  <si>
+    <t>George Hill</t>
+  </si>
+  <si>
+    <t>Jaden Hardy</t>
+  </si>
+  <si>
+    <t>Mike Muscala</t>
+  </si>
+  <si>
+    <t>Kennedy Chandler</t>
+  </si>
+  <si>
+    <t>Usman Garuba</t>
+  </si>
+  <si>
+    <t>Khalifa Diop</t>
+  </si>
+  <si>
+    <t>Bryce McGowens</t>
+  </si>
+  <si>
+    <t>Willy Hernangomez</t>
+  </si>
+  <si>
+    <t>Chimezie Metu</t>
+  </si>
+  <si>
+    <t>E.J. Liddell</t>
+  </si>
+  <si>
+    <t>Moussa Diabate</t>
+  </si>
+  <si>
+    <t>Ryan Rollins</t>
+  </si>
+  <si>
+    <t>Justise Winslow</t>
+  </si>
+  <si>
+    <t>Josh Minott</t>
+  </si>
+  <si>
+    <t>Ismael Kamagate</t>
+  </si>
+  <si>
+    <t>James Bouknight</t>
+  </si>
+  <si>
+    <t>Vince Williams Jr.</t>
+  </si>
+  <si>
+    <t>Kendall Brown</t>
+  </si>
+  <si>
+    <t>Isaiah Mobley</t>
+  </si>
+  <si>
+    <t>Matteo Spagnolo</t>
+  </si>
+  <si>
+    <t>Tyrese Martin</t>
+  </si>
+  <si>
+    <t>Karlo Matkovic</t>
   </si>
   <si>
     <t>Jericho Sims</t>
   </si>
   <si>
-    <t>Cody Martin</t>
-  </si>
-  <si>
-    <t>Gary Payton II</t>
-  </si>
-  <si>
-    <t>Johnny Davis</t>
-  </si>
-  <si>
-    <t>Pat Connaughton</t>
-  </si>
-  <si>
-    <t>Grant Williams</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Nemanja Bjelica</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Malik Monk</t>
-  </si>
-  <si>
-    <t>Nassir Little</t>
-  </si>
-  <si>
-    <t>Elfrid Payton</t>
-  </si>
-  <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>Trevor Keels</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Quentin Grimes</t>
-  </si>
-  <si>
-    <t>Trevor Ariza</t>
-  </si>
-  <si>
-    <t>Ty Jerome</t>
-  </si>
-  <si>
-    <t>Max Strus</t>
-  </si>
-  <si>
-    <t>Isaiah Livers</t>
-  </si>
-  <si>
-    <t>Joshua Primo</t>
-  </si>
-  <si>
-    <t>Josh Christopher</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Jaylin Williams</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>JaMychal Green</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
-    <t>Davion Mitchell</t>
-  </si>
-  <si>
-    <t>Jake LaRavia</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Trendon Watford</t>
-  </si>
-  <si>
-    <t>Zach Collins</t>
-  </si>
-  <si>
-    <t>Jeff Green</t>
-  </si>
-  <si>
-    <t>Talen HortonTucker</t>
-  </si>
-  <si>
-    <t>Jeremiah RobinsonEarl</t>
-  </si>
-  <si>
-    <t>John Konchar</t>
-  </si>
-  <si>
-    <t>Ziaire Williams</t>
-  </si>
-  <si>
-    <t>Drew Eubanks</t>
-  </si>
-  <si>
-    <t>Gabe Vincent</t>
-  </si>
-  <si>
-    <t>Jaylen Nowell</t>
-  </si>
-  <si>
-    <t>Corey Kispert</t>
-  </si>
-  <si>
-    <t>Torrey Craig</t>
-  </si>
-  <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
-    <t>Tre Mann</t>
-  </si>
-  <si>
-    <t>TyTy Washington</t>
-  </si>
-  <si>
-    <t>Day'Ron Sharpe</t>
-  </si>
-  <si>
-    <t>Malaki Branham</t>
-  </si>
-  <si>
-    <t>Ousmane Dieng</t>
-  </si>
-  <si>
-    <t>Taurean Prince</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Terence Davis II</t>
-  </si>
-  <si>
-    <t>AJ Griffin</t>
-  </si>
-  <si>
-    <t>Gary Harris</t>
-  </si>
-  <si>
-    <t>Ochai Agbaji</t>
-  </si>
-  <si>
-    <t>Josh Green</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>David Roddy</t>
-  </si>
-  <si>
-    <t>MarJon Beauchamp</t>
-  </si>
-  <si>
-    <t>Blake Wesley</t>
-  </si>
-  <si>
-    <t>Landry Shamet</t>
-  </si>
-  <si>
-    <t>Wendell Moore Jr.</t>
-  </si>
-  <si>
-    <t>Dalen Terry</t>
-  </si>
-  <si>
-    <t>Patrick Baldwin Jr.</t>
-  </si>
-  <si>
-    <t>Jordan McLaughlin</t>
-  </si>
-  <si>
-    <t>Peyton Watson</t>
-  </si>
-  <si>
-    <t>Andrew Nembhard</t>
-  </si>
-  <si>
-    <t>Caleb Houstan</t>
-  </si>
-  <si>
-    <t>Garrison Mathews</t>
-  </si>
-  <si>
-    <t>Christian Koloko</t>
-  </si>
-  <si>
-    <t>Udoka Azubuike</t>
-  </si>
-  <si>
-    <t>Max Christie</t>
-  </si>
-  <si>
-    <t>Wesley Matthews</t>
-  </si>
-  <si>
-    <t>Gabriele Procida</t>
-  </si>
-  <si>
-    <t>George Hill</t>
-  </si>
-  <si>
-    <t>Jaden Hardy</t>
-  </si>
-  <si>
-    <t>Kennedy Chandler</t>
-  </si>
-  <si>
-    <t>Khalifa Diop</t>
-  </si>
-  <si>
-    <t>Georges Niang</t>
-  </si>
-  <si>
-    <t>Bryce McGowens</t>
-  </si>
-  <si>
-    <t>Chimezie Metu</t>
-  </si>
-  <si>
-    <t>E.J. Liddell</t>
-  </si>
-  <si>
-    <t>Oshae Brissett</t>
-  </si>
-  <si>
-    <t>Moussa Diabate</t>
-  </si>
-  <si>
-    <t>Patty Mills</t>
-  </si>
-  <si>
-    <t>Ryan Rollins</t>
-  </si>
-  <si>
-    <t>Justise Winslow</t>
-  </si>
-  <si>
-    <t>Josh Minott</t>
-  </si>
-  <si>
-    <t>Zeke Nnaji</t>
-  </si>
-  <si>
-    <t>Ismael Kamagate</t>
-  </si>
-  <si>
-    <t>James Bouknight</t>
-  </si>
-  <si>
-    <t>Vince Williams Jr.</t>
-  </si>
-  <si>
-    <t>Trey Lyles</t>
-  </si>
-  <si>
-    <t>Kendall Brown</t>
-  </si>
-  <si>
-    <t>Isaiah Mobley</t>
-  </si>
-  <si>
-    <t>Matteo Spagnolo</t>
-  </si>
-  <si>
-    <t>Tyrese Martin</t>
-  </si>
-  <si>
-    <t>Karlo Matkovic</t>
-  </si>
-  <si>
     <t>JD Davison</t>
   </si>
   <si>
@@ -1252,12 +1282,12 @@
     <t>BOS</t>
   </si>
   <si>
+    <t>GSW</t>
+  </si>
+  <si>
     <t>BKN</t>
   </si>
   <si>
-    <t>GSW</t>
-  </si>
-  <si>
     <t>DAL</t>
   </si>
   <si>
@@ -1279,25 +1309,25 @@
     <t>LAC</t>
   </si>
   <si>
+    <t>PHO</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
     <t>MIA</t>
   </si>
   <si>
-    <t>PHO</t>
-  </si>
-  <si>
     <t>WAS</t>
   </si>
   <si>
-    <t>SAC</t>
-  </si>
-  <si>
     <t>UTH</t>
   </si>
   <si>
+    <t>OKC</t>
+  </si>
+  <si>
     <t>MEM</t>
-  </si>
-  <si>
-    <t>OKC</t>
   </si>
   <si>
     <t>TOR</t>
@@ -1688,7 +1718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D381"/>
+  <dimension ref="A1:D391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1719,10 +1749,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D2" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1733,10 +1763,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D3" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1747,10 +1777,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D4" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1761,10 +1791,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D5" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1775,10 +1805,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="D6" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1789,10 +1819,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1803,10 +1833,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D8" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1817,10 +1847,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D9" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1831,10 +1861,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D10" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1845,10 +1875,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D11" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1859,10 +1889,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="D12" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1873,10 +1903,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="D13" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1887,10 +1917,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D14" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1901,10 +1931,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D15" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1915,10 +1945,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="D16" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1929,10 +1959,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="D17" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1943,10 +1973,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D18" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1957,10 +1987,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D19" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1971,10 +2001,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D20" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1985,10 +2015,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D21" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1999,10 +2029,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D22" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2013,10 +2043,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D23" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2027,10 +2057,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D24" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2041,10 +2071,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="D25" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2055,10 +2085,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D26" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2069,10 +2099,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D27" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2083,10 +2113,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D28" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2097,10 +2127,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D29" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2111,10 +2141,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D30" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2125,10 +2155,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D31" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2139,10 +2169,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D32" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2153,10 +2183,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="D33" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2167,10 +2197,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D34" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2181,10 +2211,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D35" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2195,10 +2225,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D36" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2209,10 +2239,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D37" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2223,10 +2253,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D38" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2237,10 +2267,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D39" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2251,10 +2281,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="D40" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2265,10 +2295,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="D41" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2279,10 +2309,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D42" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2293,10 +2323,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="D43" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2307,10 +2337,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D44" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2321,10 +2351,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D45" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2335,7 +2365,7 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="D46" t="s">
         <v>431</v>
@@ -2349,10 +2379,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D47" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2363,10 +2393,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="D48" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2377,10 +2407,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D49" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2391,10 +2421,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D50" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2405,10 +2435,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D51" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2419,10 +2449,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="D52" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2433,10 +2463,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D53" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2447,10 +2477,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D54" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2461,10 +2491,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D55" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2475,10 +2505,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="D56" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2489,10 +2519,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D57" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2503,10 +2533,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D58" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2517,10 +2547,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="D59" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2531,10 +2561,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D60" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2545,10 +2575,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="D61" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2559,10 +2589,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="D62" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2573,10 +2603,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D63" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2587,10 +2617,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="D64" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2601,10 +2631,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D65" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2615,10 +2645,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D66" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2629,10 +2659,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D67" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2643,10 +2673,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D68" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2657,7 +2687,7 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D69" t="s">
         <v>420</v>
@@ -2671,10 +2701,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="D70" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2685,10 +2715,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D71" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2699,10 +2729,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="D72" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2716,7 +2746,7 @@
         <v>396</v>
       </c>
       <c r="D73" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2727,10 +2757,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="D74" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2741,10 +2771,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D75" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2755,10 +2785,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D76" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2769,10 +2799,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="D77" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2783,10 +2813,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="D78" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2797,10 +2827,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="D79" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2811,10 +2841,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D80" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2825,10 +2855,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D81" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2839,10 +2869,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D82" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2853,10 +2883,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="D83" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2867,10 +2897,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D84" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2881,10 +2911,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D85" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2895,10 +2925,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="D86" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2909,10 +2939,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D87" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2923,10 +2953,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D88" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2937,10 +2967,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D89" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2951,10 +2981,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D90" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2965,10 +2995,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="D91" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2979,10 +3009,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D92" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2993,10 +3023,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="D93" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3007,10 +3037,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D94" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3021,10 +3051,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D95" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3035,10 +3065,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D96" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3049,10 +3079,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D97" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3063,10 +3093,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="D98" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3077,10 +3107,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="D99" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3091,10 +3121,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="D100" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3105,10 +3135,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="D101" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3119,10 +3149,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D102" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3133,10 +3163,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D103" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3147,10 +3177,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="D104" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3161,10 +3191,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D105" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3175,10 +3205,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="D106" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3189,10 +3219,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D107" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3203,10 +3233,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D108" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3217,10 +3247,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="D109" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3231,10 +3261,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="D110" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3245,10 +3275,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D111" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3259,10 +3289,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D112" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3273,10 +3303,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D113" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3287,10 +3317,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D114" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3301,10 +3331,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="D115" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3315,10 +3345,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="D116" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3329,10 +3359,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D117" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3343,10 +3373,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D118" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3357,10 +3387,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D119" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3371,10 +3401,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D120" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3385,10 +3415,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="D121" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3399,10 +3429,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D122" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3413,10 +3443,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D123" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3427,10 +3457,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D124" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3441,10 +3471,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D125" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3455,10 +3485,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D126" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3469,10 +3499,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D127" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3483,10 +3513,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="D128" t="s">
-        <v>407</v>
+        <v>445</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3497,10 +3527,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="D129" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3511,10 +3541,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D130" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3525,10 +3555,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D131" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3539,10 +3569,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="D132" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3553,10 +3583,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="D133" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3567,10 +3597,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="D134" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3581,10 +3611,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D135" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3595,10 +3625,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="D136" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3609,10 +3639,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="D137" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3623,10 +3653,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D138" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3637,10 +3667,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D139" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3651,10 +3681,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D140" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3665,10 +3695,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D141" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3679,10 +3709,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="D142" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3693,10 +3723,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D143" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3707,10 +3737,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D144" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3721,10 +3751,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D145" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3735,10 +3765,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="D146" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3749,10 +3779,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="D147" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3763,10 +3793,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D148" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3777,10 +3807,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="D149" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3791,10 +3821,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="D150" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3805,10 +3835,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="D151" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3819,10 +3849,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="D152" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3833,10 +3863,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="D153" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3847,10 +3877,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D154" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3861,10 +3891,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="D155" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3875,10 +3905,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D156" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3889,10 +3919,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D157" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3903,10 +3933,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="D158" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3917,10 +3947,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D159" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3931,10 +3961,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="D160" t="s">
-        <v>412</v>
+        <v>444</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3945,10 +3975,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D161" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3959,10 +3989,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D162" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3973,10 +4003,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="D163" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3987,10 +4017,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D164" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4001,10 +4031,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D165" t="s">
-        <v>409</v>
+        <v>441</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4015,10 +4045,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D166" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4029,10 +4059,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="D167" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4043,10 +4073,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D168" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4057,10 +4087,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D169" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4071,10 +4101,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="D170" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4085,10 +4115,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D171" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4099,10 +4129,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D172" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4113,10 +4143,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="D173" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4127,10 +4157,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="D174" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4141,10 +4171,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="D175" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4155,10 +4185,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D176" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4169,10 +4199,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="D177" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4183,10 +4213,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D178" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4197,10 +4227,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D179" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4211,10 +4241,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D180" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4225,10 +4255,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D181" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4239,10 +4269,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D182" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4253,10 +4283,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D183" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4267,10 +4297,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D184" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4281,10 +4311,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D185" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4295,10 +4325,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D186" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4309,10 +4339,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D187" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4323,10 +4353,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D188" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4337,10 +4367,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D189" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4351,10 +4381,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D190" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4365,10 +4395,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="D191" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4379,10 +4409,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D192" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4393,10 +4423,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="D193" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4407,10 +4437,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D194" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4421,10 +4451,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="D195" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4435,10 +4465,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D196" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4449,10 +4479,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D197" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4463,10 +4493,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D198" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4477,10 +4507,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D199" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4491,10 +4521,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D200" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4505,10 +4535,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D201" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4519,10 +4549,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="D202" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4533,10 +4563,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D203" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4547,10 +4577,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D204" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4561,10 +4591,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D205" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4575,10 +4605,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D206" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4589,10 +4619,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D207" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4603,10 +4633,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="D208" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4617,10 +4647,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D209" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4631,10 +4661,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="D210" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4645,10 +4675,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D211" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4659,10 +4689,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D212" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4673,10 +4703,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="D213" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4687,10 +4717,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D214" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4701,10 +4731,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D215" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4715,10 +4745,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="D216" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4729,10 +4759,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D217" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4743,10 +4773,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="D218" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4757,10 +4787,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D219" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4771,10 +4801,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="D220" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4785,7 +4815,7 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="D221" t="s">
         <v>437</v>
@@ -4799,10 +4829,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D222" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4813,10 +4843,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D223" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4827,10 +4857,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="D224" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4841,10 +4871,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="D225" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4855,10 +4885,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D226" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4869,10 +4899,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="D227" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4883,10 +4913,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="D228" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4897,10 +4927,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D229" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4911,10 +4941,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="D230" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4925,10 +4955,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D231" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4939,10 +4969,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D232" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4953,10 +4983,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D233" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4967,10 +4997,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D234" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4981,10 +5011,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D235" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4995,10 +5025,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="D236" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5009,10 +5039,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D237" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5023,10 +5053,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D238" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5037,10 +5067,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D239" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5051,10 +5081,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="D240" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5065,10 +5095,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D241" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5079,10 +5109,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="D242" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5093,10 +5123,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D243" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5107,10 +5137,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="D244" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5121,10 +5151,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="D245" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5135,10 +5165,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D246" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5149,10 +5179,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D247" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5163,10 +5193,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D248" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5177,10 +5207,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D249" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5191,10 +5221,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D250" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5205,10 +5235,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D251" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5219,10 +5249,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D252" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5233,10 +5263,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="D253" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5247,10 +5277,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D254" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5261,10 +5291,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D255" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5275,10 +5305,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="D256" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5289,10 +5319,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="D257" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5303,10 +5333,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D258" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5317,10 +5347,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="D259" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5331,10 +5361,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D260" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5345,10 +5375,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D261" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5359,7 +5389,7 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="D262" t="s">
         <v>437</v>
@@ -5373,10 +5403,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D263" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5387,10 +5417,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D264" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5401,10 +5431,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D265" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5415,10 +5445,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="D266" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5429,10 +5459,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D267" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5443,10 +5473,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="D268" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5457,10 +5487,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="D269" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5471,10 +5501,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="D270" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5485,10 +5515,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D271" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5499,10 +5529,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D272" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5513,10 +5543,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="D273" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5527,10 +5557,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D274" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5541,10 +5571,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D275" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5555,10 +5585,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D276" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5569,10 +5599,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D277" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5583,10 +5613,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D278" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5597,10 +5627,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="D279" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5611,10 +5641,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D280" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5625,10 +5655,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="D281" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5639,10 +5669,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="D282" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5653,7 +5683,7 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D283" t="s">
         <v>426</v>
@@ -5667,10 +5697,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="D284" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5681,10 +5711,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D285" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5695,10 +5725,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="D286" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5709,10 +5739,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="D287" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5723,10 +5753,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D288" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5737,10 +5767,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D289" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5751,7 +5781,7 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="D290" t="s">
         <v>433</v>
@@ -5765,10 +5795,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D291" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5779,10 +5809,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D292" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5793,10 +5823,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D293" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5807,10 +5837,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="D294" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5821,10 +5851,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="D295" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5835,10 +5865,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="D296" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5849,10 +5879,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="D297" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5863,10 +5893,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D298" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5877,10 +5907,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D299" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5891,10 +5921,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="D300" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5905,10 +5935,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="D301" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5919,10 +5949,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D302" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5933,10 +5963,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="D303" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5947,10 +5977,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="D304" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5961,10 +5991,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D305" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5975,10 +6005,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D306" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5989,10 +6019,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="D307" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6003,10 +6033,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="D308" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6017,10 +6047,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="D309" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6031,10 +6061,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="D310" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6045,10 +6075,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="D311" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6059,10 +6089,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="D312" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6073,10 +6103,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D313" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6087,10 +6117,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D314" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6101,10 +6131,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D315" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6115,10 +6145,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="D316" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6129,10 +6159,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D317" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6143,10 +6173,10 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="D318" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6157,10 +6187,10 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="D319" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6171,10 +6201,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D320" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6185,10 +6215,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D321" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6199,10 +6229,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="D322" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6213,10 +6243,10 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D323" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6227,10 +6257,10 @@
         <v>326</v>
       </c>
       <c r="C324" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D324" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6241,10 +6271,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D325" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6255,10 +6285,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="D326" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6269,10 +6299,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D327" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6283,10 +6313,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D328" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6297,10 +6327,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D329" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6311,7 +6341,7 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D330" t="s">
         <v>435</v>
@@ -6325,10 +6355,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D331" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6339,10 +6369,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D332" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6353,10 +6383,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D333" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6367,10 +6397,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="D334" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6381,10 +6411,10 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D335" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6395,10 +6425,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="D336" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6409,10 +6439,10 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D337" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6423,10 +6453,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="D338" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6437,10 +6467,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D339" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6451,10 +6481,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="D340" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6465,10 +6495,10 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D341" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6479,10 +6509,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D342" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6493,10 +6523,10 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="D343" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6507,10 +6537,10 @@
         <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D344" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6521,10 +6551,10 @@
         <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D345" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6535,10 +6565,10 @@
         <v>348</v>
       </c>
       <c r="C346" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="D346" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6549,10 +6579,10 @@
         <v>349</v>
       </c>
       <c r="C347" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="D347" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6563,10 +6593,10 @@
         <v>350</v>
       </c>
       <c r="C348" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="D348" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6577,10 +6607,10 @@
         <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="D349" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6591,10 +6621,10 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D350" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6605,10 +6635,10 @@
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D351" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6619,10 +6649,10 @@
         <v>354</v>
       </c>
       <c r="C352" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="D352" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6633,10 +6663,10 @@
         <v>355</v>
       </c>
       <c r="C353" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D353" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6647,10 +6677,10 @@
         <v>356</v>
       </c>
       <c r="C354" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D354" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6661,10 +6691,10 @@
         <v>357</v>
       </c>
       <c r="C355" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="D355" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6675,10 +6705,10 @@
         <v>358</v>
       </c>
       <c r="C356" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="D356" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6689,10 +6719,10 @@
         <v>359</v>
       </c>
       <c r="C357" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D357" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6703,10 +6733,10 @@
         <v>360</v>
       </c>
       <c r="C358" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="D358" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6717,10 +6747,10 @@
         <v>361</v>
       </c>
       <c r="C359" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="D359" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6731,10 +6761,10 @@
         <v>362</v>
       </c>
       <c r="C360" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="D360" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6748,7 +6778,7 @@
         <v>394</v>
       </c>
       <c r="D361" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6759,10 +6789,10 @@
         <v>364</v>
       </c>
       <c r="C362" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="D362" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6773,10 +6803,10 @@
         <v>365</v>
       </c>
       <c r="C363" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D363" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6787,10 +6817,10 @@
         <v>366</v>
       </c>
       <c r="C364" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D364" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6804,7 +6834,7 @@
         <v>394</v>
       </c>
       <c r="D365" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6815,10 +6845,10 @@
         <v>368</v>
       </c>
       <c r="C366" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="D366" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6829,10 +6859,10 @@
         <v>369</v>
       </c>
       <c r="C367" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="D367" t="s">
-        <v>407</v>
+        <v>446</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6843,10 +6873,10 @@
         <v>370</v>
       </c>
       <c r="C368" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D368" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6857,10 +6887,10 @@
         <v>371</v>
       </c>
       <c r="C369" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D369" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6871,10 +6901,10 @@
         <v>372</v>
       </c>
       <c r="C370" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="D370" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6885,10 +6915,10 @@
         <v>373</v>
       </c>
       <c r="C371" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D371" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6899,10 +6929,10 @@
         <v>374</v>
       </c>
       <c r="C372" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D372" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -6913,10 +6943,10 @@
         <v>375</v>
       </c>
       <c r="C373" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="D373" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -6927,10 +6957,10 @@
         <v>376</v>
       </c>
       <c r="C374" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="D374" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -6941,10 +6971,10 @@
         <v>377</v>
       </c>
       <c r="C375" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="D375" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6955,10 +6985,10 @@
         <v>378</v>
       </c>
       <c r="C376" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="D376" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -6969,10 +6999,10 @@
         <v>379</v>
       </c>
       <c r="C377" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D377" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -6983,10 +7013,10 @@
         <v>380</v>
       </c>
       <c r="C378" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="D378" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6997,10 +7027,10 @@
         <v>381</v>
       </c>
       <c r="C379" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="D379" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7011,10 +7041,10 @@
         <v>382</v>
       </c>
       <c r="C380" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="D380" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7025,14 +7055,154 @@
         <v>383</v>
       </c>
       <c r="C381" t="s">
+        <v>415</v>
+      </c>
+      <c r="D381" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>384</v>
+      </c>
+      <c r="C382" t="s">
+        <v>398</v>
+      </c>
+      <c r="D382" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>385</v>
+      </c>
+      <c r="C383" t="s">
+        <v>413</v>
+      </c>
+      <c r="D383" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>386</v>
+      </c>
+      <c r="C384" t="s">
+        <v>404</v>
+      </c>
+      <c r="D384" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>387</v>
+      </c>
+      <c r="C385" t="s">
+        <v>403</v>
+      </c>
+      <c r="D385" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
         <v>388</v>
       </c>
-      <c r="D381" t="s">
+      <c r="C386" t="s">
+        <v>398</v>
+      </c>
+      <c r="D386" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>389</v>
+      </c>
+      <c r="C387" t="s">
+        <v>397</v>
+      </c>
+      <c r="D387" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>390</v>
+      </c>
+      <c r="C388" t="s">
+        <v>406</v>
+      </c>
+      <c r="D388" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>391</v>
+      </c>
+      <c r="C389" t="s">
         <v>408</v>
       </c>
+      <c r="D389" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>392</v>
+      </c>
+      <c r="C390" t="s">
+        <v>404</v>
+      </c>
+      <c r="D390" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>393</v>
+      </c>
+      <c r="C391" t="s">
+        <v>398</v>
+      </c>
+      <c r="D391" t="s">
+        <v>418</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D381"/>
+  <autoFilter ref="A1:D391"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -271,12 +271,12 @@
     <t>Tyler Herro</t>
   </si>
   <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
     <t>Malcolm Brogdon</t>
   </si>
   <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
     <t>Keldon Johnson</t>
   </si>
   <si>
@@ -316,21 +316,21 @@
     <t>Harrison Barnes</t>
   </si>
   <si>
+    <t>Bogdan Bogdanovic</t>
+  </si>
+  <si>
     <t>Isaiah Stewart</t>
   </si>
   <si>
-    <t>Bogdan Bogdanovic</t>
-  </si>
-  <si>
     <t>Ivica Zubac</t>
   </si>
   <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
     <t>Kevin Porter Jr.</t>
   </si>
   <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
     <t>Bobby Portis Jr.</t>
   </si>
   <si>
@@ -388,12 +388,12 @@
     <t>De'Andre Hunter</t>
   </si>
   <si>
+    <t>Dorian FinneySmith</t>
+  </si>
+  <si>
     <t>Jaden McDaniels</t>
   </si>
   <si>
-    <t>Dorian FinneySmith</t>
-  </si>
-  <si>
     <t>Evan Fournier</t>
   </si>
   <si>
@@ -433,6 +433,9 @@
     <t>Patrick Williams</t>
   </si>
   <si>
+    <t>John Wall</t>
+  </si>
+  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
@@ -445,9 +448,6 @@
     <t>Royce O'Neale</t>
   </si>
   <si>
-    <t>John Wall</t>
-  </si>
-  <si>
     <t>Mason Plumlee</t>
   </si>
   <si>
@@ -670,12 +670,12 @@
     <t>Jalen Smith</t>
   </si>
   <si>
+    <t>P.J. Tucker</t>
+  </si>
+  <si>
     <t>Devin Vassell</t>
   </si>
   <si>
-    <t>P.J. Tucker</t>
-  </si>
-  <si>
     <t>Khem Birch</t>
   </si>
   <si>
@@ -805,12 +805,12 @@
     <t>Mark Williams</t>
   </si>
   <si>
+    <t>JaVale McGee</t>
+  </si>
+  <si>
     <t>Isaiah Hartenstein</t>
   </si>
   <si>
-    <t>JaVale McGee</t>
-  </si>
-  <si>
     <t>Malachi Flynn</t>
   </si>
   <si>
@@ -952,7 +952,7 @@
     <t>Day'Ron Sharpe</t>
   </si>
   <si>
-    <t>TyTy Washington</t>
+    <t>TyTy Washington Jr.</t>
   </si>
   <si>
     <t>Ty Jerome</t>
@@ -2869,10 +2869,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="D82" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2883,10 +2883,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="D83" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3079,10 +3079,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D97" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3093,10 +3093,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D98" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3121,10 +3121,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D100" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3135,10 +3135,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D101" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3415,10 +3415,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="D121" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3429,10 +3429,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="D122" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3625,10 +3625,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D136" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3639,10 +3639,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D137" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3653,10 +3653,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D138" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3670,7 +3670,7 @@
         <v>395</v>
       </c>
       <c r="D139" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3681,10 +3681,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D140" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4731,10 +4731,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D215" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4745,10 +4745,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D216" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5361,10 +5361,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D260" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5375,10 +5375,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D261" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6047,7 +6047,7 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="D309" t="s">
         <v>446</v>

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -5504,7 +5504,7 @@
         <v>402</v>
       </c>
       <c r="D270" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="271" spans="1:4">

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -1321,43 +1321,43 @@
     <t>WAS</t>
   </si>
   <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>NYK</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
     <t>UTH</t>
-  </si>
-  <si>
-    <t>OKC</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>TOR</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>CLE</t>
-  </si>
-  <si>
-    <t>NOR</t>
-  </si>
-  <si>
-    <t>DET</t>
-  </si>
-  <si>
-    <t>NYK</t>
-  </si>
-  <si>
-    <t>SAS</t>
-  </si>
-  <si>
-    <t>ORL</t>
-  </si>
-  <si>
-    <t>HOU</t>
   </si>
   <si>
     <t>FA</t>
@@ -2256,7 +2256,7 @@
         <v>396</v>
       </c>
       <c r="D38" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2326,7 +2326,7 @@
         <v>404</v>
       </c>
       <c r="D43" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2340,7 +2340,7 @@
         <v>395</v>
       </c>
       <c r="D44" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2382,7 +2382,7 @@
         <v>396</v>
       </c>
       <c r="D47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2410,7 +2410,7 @@
         <v>396</v>
       </c>
       <c r="D49" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2424,7 +2424,7 @@
         <v>397</v>
       </c>
       <c r="D50" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2438,7 +2438,7 @@
         <v>397</v>
       </c>
       <c r="D51" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2480,7 +2480,7 @@
         <v>394</v>
       </c>
       <c r="D54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2550,7 +2550,7 @@
         <v>403</v>
       </c>
       <c r="D59" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2606,7 +2606,7 @@
         <v>397</v>
       </c>
       <c r="D63" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2718,7 +2718,7 @@
         <v>397</v>
       </c>
       <c r="D71" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2732,7 +2732,7 @@
         <v>406</v>
       </c>
       <c r="D72" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2774,7 +2774,7 @@
         <v>397</v>
       </c>
       <c r="D75" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2872,7 +2872,7 @@
         <v>408</v>
       </c>
       <c r="D82" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2900,7 +2900,7 @@
         <v>395</v>
       </c>
       <c r="D84" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2942,7 +2942,7 @@
         <v>402</v>
       </c>
       <c r="D87" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3054,7 +3054,7 @@
         <v>398</v>
       </c>
       <c r="D95" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3096,7 +3096,7 @@
         <v>394</v>
       </c>
       <c r="D98" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3138,7 +3138,7 @@
         <v>401</v>
       </c>
       <c r="D101" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3166,7 +3166,7 @@
         <v>396</v>
       </c>
       <c r="D103" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3208,7 +3208,7 @@
         <v>397</v>
       </c>
       <c r="D106" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3222,7 +3222,7 @@
         <v>394</v>
       </c>
       <c r="D107" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3236,7 +3236,7 @@
         <v>402</v>
       </c>
       <c r="D108" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3264,7 +3264,7 @@
         <v>396</v>
       </c>
       <c r="D110" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3320,7 +3320,7 @@
         <v>397</v>
       </c>
       <c r="D114" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3334,7 +3334,7 @@
         <v>396</v>
       </c>
       <c r="D115" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3362,7 +3362,7 @@
         <v>396</v>
       </c>
       <c r="D117" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3376,7 +3376,7 @@
         <v>395</v>
       </c>
       <c r="D118" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3446,7 +3446,7 @@
         <v>402</v>
       </c>
       <c r="D123" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3488,7 +3488,7 @@
         <v>395</v>
       </c>
       <c r="D126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3516,7 +3516,7 @@
         <v>398</v>
       </c>
       <c r="D128" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3642,7 +3642,7 @@
         <v>404</v>
       </c>
       <c r="D137" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3726,7 +3726,7 @@
         <v>395</v>
       </c>
       <c r="D143" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3768,7 +3768,7 @@
         <v>404</v>
       </c>
       <c r="D146" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3810,7 +3810,7 @@
         <v>407</v>
       </c>
       <c r="D149" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3824,7 +3824,7 @@
         <v>396</v>
       </c>
       <c r="D150" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3950,7 +3950,7 @@
         <v>394</v>
       </c>
       <c r="D159" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3964,7 +3964,7 @@
         <v>403</v>
       </c>
       <c r="D160" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3978,7 +3978,7 @@
         <v>394</v>
       </c>
       <c r="D161" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3992,7 +3992,7 @@
         <v>394</v>
       </c>
       <c r="D162" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4034,7 +4034,7 @@
         <v>394</v>
       </c>
       <c r="D165" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4076,7 +4076,7 @@
         <v>394</v>
       </c>
       <c r="D168" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4104,7 +4104,7 @@
         <v>396</v>
       </c>
       <c r="D170" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4118,7 +4118,7 @@
         <v>398</v>
       </c>
       <c r="D171" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4146,7 +4146,7 @@
         <v>398</v>
       </c>
       <c r="D173" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4160,7 +4160,7 @@
         <v>401</v>
       </c>
       <c r="D174" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4216,7 +4216,7 @@
         <v>396</v>
       </c>
       <c r="D178" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4258,7 +4258,7 @@
         <v>396</v>
       </c>
       <c r="D181" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4300,7 +4300,7 @@
         <v>402</v>
       </c>
       <c r="D184" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4314,7 +4314,7 @@
         <v>395</v>
       </c>
       <c r="D185" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4370,7 +4370,7 @@
         <v>397</v>
       </c>
       <c r="D189" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4398,7 +4398,7 @@
         <v>404</v>
       </c>
       <c r="D191" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4412,7 +4412,7 @@
         <v>402</v>
       </c>
       <c r="D192" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4496,7 +4496,7 @@
         <v>402</v>
       </c>
       <c r="D198" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4524,7 +4524,7 @@
         <v>402</v>
       </c>
       <c r="D200" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4608,7 +4608,7 @@
         <v>398</v>
       </c>
       <c r="D206" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4678,7 +4678,7 @@
         <v>397</v>
       </c>
       <c r="D211" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4748,7 +4748,7 @@
         <v>402</v>
       </c>
       <c r="D216" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4776,7 +4776,7 @@
         <v>406</v>
       </c>
       <c r="D218" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4790,7 +4790,7 @@
         <v>402</v>
       </c>
       <c r="D219" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4804,7 +4804,7 @@
         <v>402</v>
       </c>
       <c r="D220" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4860,7 +4860,7 @@
         <v>397</v>
       </c>
       <c r="D224" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4972,7 +4972,7 @@
         <v>395</v>
       </c>
       <c r="D232" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5014,7 +5014,7 @@
         <v>395</v>
       </c>
       <c r="D235" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5140,7 +5140,7 @@
         <v>406</v>
       </c>
       <c r="D244" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5168,7 +5168,7 @@
         <v>397</v>
       </c>
       <c r="D246" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5196,7 +5196,7 @@
         <v>402</v>
       </c>
       <c r="D248" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5280,7 +5280,7 @@
         <v>394</v>
       </c>
       <c r="D254" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5294,7 +5294,7 @@
         <v>398</v>
       </c>
       <c r="D255" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5336,7 +5336,7 @@
         <v>395</v>
       </c>
       <c r="D258" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5378,7 +5378,7 @@
         <v>394</v>
       </c>
       <c r="D261" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5672,7 +5672,7 @@
         <v>398</v>
       </c>
       <c r="D282" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5742,7 +5742,7 @@
         <v>408</v>
       </c>
       <c r="D287" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5756,7 +5756,7 @@
         <v>394</v>
       </c>
       <c r="D288" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5798,7 +5798,7 @@
         <v>402</v>
       </c>
       <c r="D291" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5812,7 +5812,7 @@
         <v>395</v>
       </c>
       <c r="D292" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5826,7 +5826,7 @@
         <v>408</v>
       </c>
       <c r="D293" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5868,7 +5868,7 @@
         <v>408</v>
       </c>
       <c r="D296" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5882,7 +5882,7 @@
         <v>404</v>
       </c>
       <c r="D297" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5952,7 +5952,7 @@
         <v>402</v>
       </c>
       <c r="D302" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5994,7 +5994,7 @@
         <v>406</v>
       </c>
       <c r="D305" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6050,7 +6050,7 @@
         <v>398</v>
       </c>
       <c r="D309" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6078,7 +6078,7 @@
         <v>413</v>
       </c>
       <c r="D311" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6092,7 +6092,7 @@
         <v>397</v>
       </c>
       <c r="D312" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6148,7 +6148,7 @@
         <v>408</v>
       </c>
       <c r="D316" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6232,7 +6232,7 @@
         <v>413</v>
       </c>
       <c r="D322" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6316,7 +6316,7 @@
         <v>402</v>
       </c>
       <c r="D328" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6400,7 +6400,7 @@
         <v>402</v>
       </c>
       <c r="D334" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6582,7 +6582,7 @@
         <v>408</v>
       </c>
       <c r="D347" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6694,7 +6694,7 @@
         <v>413</v>
       </c>
       <c r="D355" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6736,7 +6736,7 @@
         <v>408</v>
       </c>
       <c r="D358" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6778,7 +6778,7 @@
         <v>394</v>
       </c>
       <c r="D361" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6792,7 +6792,7 @@
         <v>408</v>
       </c>
       <c r="D362" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6862,7 +6862,7 @@
         <v>404</v>
       </c>
       <c r="D367" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6876,7 +6876,7 @@
         <v>397</v>
       </c>
       <c r="D368" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6904,7 +6904,7 @@
         <v>397</v>
       </c>
       <c r="D370" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6932,7 +6932,7 @@
         <v>404</v>
       </c>
       <c r="D372" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7058,7 +7058,7 @@
         <v>415</v>
       </c>
       <c r="D381" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7114,7 +7114,7 @@
         <v>403</v>
       </c>
       <c r="D385" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7170,7 +7170,7 @@
         <v>408</v>
       </c>
       <c r="D389" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="390" spans="1:4">

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -10,14 +10,14 @@
     <sheet name="draft" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$391</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$393</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="450">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -40,15 +40,15 @@
     <t>Joel Embiid</t>
   </si>
   <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
     <t>Jayson Tatum</t>
   </si>
   <si>
     <t>Stephen Curry</t>
   </si>
   <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
     <t>Luka Doncic</t>
   </si>
   <si>
@@ -85,12 +85,12 @@
     <t>Jimmy Butler</t>
   </si>
   <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
@@ -127,24 +127,24 @@
     <t>Anthony Edwards</t>
   </si>
   <si>
+    <t>DeMar DeRozan</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
     <t>Zach LaVine</t>
   </si>
   <si>
-    <t>DeMar DeRozan</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
     <t>Pascal Siakam</t>
   </si>
   <si>
+    <t>Jrue Holiday</t>
+  </si>
+  <si>
     <t>Darius Garland</t>
   </si>
   <si>
-    <t>Jrue Holiday</t>
-  </si>
-  <si>
     <t>Khris Middleton</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>Tobias Harris</t>
   </si>
   <si>
+    <t>Evan Mobley</t>
+  </si>
+  <si>
     <t>Michael Porter Jr.</t>
   </si>
   <si>
-    <t>Evan Mobley</t>
-  </si>
-  <si>
     <t>John Collins</t>
   </si>
   <si>
@@ -217,21 +217,21 @@
     <t>Jakob Poeltl</t>
   </si>
   <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Ben Simmons</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Ben Simmons</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
     <t>Marcus Smart</t>
   </si>
   <si>
@@ -250,25 +250,28 @@
     <t>Scottie Barnes</t>
   </si>
   <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
     <t>Mitchell Robinson</t>
   </si>
   <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
     <t>Gordon Hayward</t>
   </si>
   <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
     <t>Buddy Hield</t>
   </si>
   <si>
+    <t>Tyler Herro</t>
+  </si>
+  <si>
     <t>Josh Giddey</t>
   </si>
   <si>
-    <t>Tyler Herro</t>
+    <t>Keldon Johnson</t>
   </si>
   <si>
     <t>Jalen Green</t>
@@ -277,33 +280,30 @@
     <t>Malcolm Brogdon</t>
   </si>
   <si>
-    <t>Keldon Johnson</t>
+    <t>Andrew Wiggins</t>
   </si>
   <si>
     <t>Russell Westbrook III</t>
   </si>
   <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
     <t>RJ Barrett</t>
   </si>
   <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
     <t>Al Horford</t>
   </si>
   <si>
-    <t>Kyle Kuzma</t>
+    <t>P.J. Washington</t>
   </si>
   <si>
     <t>Jaren Jackson Jr.</t>
   </si>
   <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
     <t>Robert Covington</t>
   </si>
   <si>
@@ -313,18 +313,21 @@
     <t>Mike Conley</t>
   </si>
   <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
     <t>Harrison Barnes</t>
   </si>
   <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Isaiah Stewart</t>
+  </si>
+  <si>
     <t>Bogdan Bogdanovic</t>
   </si>
   <si>
-    <t>Isaiah Stewart</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
     <t>Norman Powell</t>
   </si>
   <si>
@@ -334,30 +337,27 @@
     <t>Bobby Portis Jr.</t>
   </si>
   <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
     <t>Jamal Murray</t>
   </si>
   <si>
     <t>Spencer Dinwiddie</t>
   </si>
   <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
     <t>Mo Bamba</t>
   </si>
   <si>
-    <t>Lauri Markkanen</t>
+    <t>Brandon Clarke</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
   </si>
   <si>
     <t>Caris LeVert</t>
   </si>
   <si>
-    <t>Brandon Clarke</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
     <t>Derrick White</t>
   </si>
   <si>
@@ -370,42 +370,42 @@
     <t>Alperen Sengun</t>
   </si>
   <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Reggie Jackson</t>
+  </si>
+  <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
-    <t>Reggie Jackson</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
     <t>Bojan Bogdanovic</t>
   </si>
   <si>
     <t>Kyle Anderson</t>
   </si>
   <si>
+    <t>Dorian FinneySmith</t>
+  </si>
+  <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
-    <t>Dorian FinneySmith</t>
-  </si>
-  <si>
     <t>Jaden McDaniels</t>
   </si>
   <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Jae'Sean Tate</t>
+  </si>
+  <si>
+    <t>Chris Boucher</t>
+  </si>
+  <si>
     <t>Evan Fournier</t>
   </si>
   <si>
-    <t>Chris Boucher</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Jae'Sean Tate</t>
-  </si>
-  <si>
     <t>Will Barton</t>
   </si>
   <si>
@@ -415,90 +415,90 @@
     <t>Dillon Brooks</t>
   </si>
   <si>
+    <t>De'Anthony Melton</t>
+  </si>
+  <si>
     <t>Daniel Gafford</t>
   </si>
   <si>
-    <t>De'Anthony Melton</t>
-  </si>
-  <si>
     <t>Steven Adams</t>
   </si>
   <si>
+    <t>Nic Claxton</t>
+  </si>
+  <si>
     <t>Josh Hart</t>
   </si>
   <si>
-    <t>Nic Claxton</t>
-  </si>
-  <si>
     <t>Patrick Williams</t>
   </si>
   <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
     <t>John Wall</t>
   </si>
   <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
     <t>Kelly Oubre Jr.</t>
   </si>
   <si>
-    <t>Cameron Johnson</t>
+    <t>Mason Plumlee</t>
   </si>
   <si>
     <t>Royce O'Neale</t>
   </si>
   <si>
-    <t>Mason Plumlee</t>
+    <t>Monte Morris</t>
+  </si>
+  <si>
+    <t>Miles Bridges</t>
+  </si>
+  <si>
+    <t>Jonathan Isaac</t>
+  </si>
+  <si>
+    <t>Andre Drummond</t>
   </si>
   <si>
     <t>T.J. McConnell</t>
   </si>
   <si>
-    <t>Jonathan Isaac</t>
-  </si>
-  <si>
-    <t>Monte Morris</t>
-  </si>
-  <si>
-    <t>Miles Bridges</t>
-  </si>
-  <si>
     <t>Chuma Okeke</t>
   </si>
   <si>
-    <t>Andre Drummond</t>
+    <t>Keegan Murray</t>
   </si>
   <si>
     <t>Luguentz Dort</t>
   </si>
   <si>
+    <t>Devonte' Graham</t>
+  </si>
+  <si>
+    <t>Kevin Huerter</t>
+  </si>
+  <si>
     <t>Malik Beasley</t>
   </si>
   <si>
-    <t>Devonte' Graham</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Kevin Huerter</t>
-  </si>
-  <si>
     <t>James Wiseman</t>
   </si>
   <si>
+    <t>Aleksej Pokusevski</t>
+  </si>
+  <si>
     <t>Tim Hardaway Jr.</t>
   </si>
   <si>
+    <t>Seth Curry</t>
+  </si>
+  <si>
     <t>Joe Harris</t>
   </si>
   <si>
-    <t>Seth Curry</t>
-  </si>
-  <si>
-    <t>Aleksej Pokusevski</t>
-  </si>
-  <si>
     <t>Matisse Thybulle</t>
   </si>
   <si>
@@ -508,105 +508,111 @@
     <t>Isaiah Roby</t>
   </si>
   <si>
+    <t>Thomas Bryant</t>
+  </si>
+  <si>
+    <t>Kelly Olynyk</t>
+  </si>
+  <si>
     <t>Nerlens Noel</t>
   </si>
   <si>
-    <t>Kelly Olynyk</t>
-  </si>
-  <si>
-    <t>Thomas Bryant</t>
-  </si>
-  <si>
     <t>Duncan Robinson</t>
   </si>
   <si>
     <t>Larry Nance Jr.</t>
   </si>
   <si>
+    <t>Kevin Love</t>
+  </si>
+  <si>
+    <t>Markelle Fultz</t>
+  </si>
+  <si>
     <t>Donte DiVincenzo</t>
   </si>
   <si>
+    <t>Jae Crowder</t>
+  </si>
+  <si>
     <t>Marcus Morris Sr.</t>
   </si>
   <si>
-    <t>Kevin Love</t>
-  </si>
-  <si>
-    <t>Jae Crowder</t>
-  </si>
-  <si>
-    <t>Markelle Fultz</t>
-  </si>
-  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Joe Ingles</t>
+  </si>
+  <si>
     <t>T.J. Warren</t>
   </si>
   <si>
-    <t>Jaden Ivey</t>
+    <t>Victor Oladipo</t>
   </si>
   <si>
     <t>Nickeil AlexanderWalker</t>
   </si>
   <si>
-    <t>Joe Ingles</t>
-  </si>
-  <si>
-    <t>Victor Oladipo</t>
-  </si>
-  <si>
     <t>Thaddeus Young</t>
   </si>
   <si>
+    <t>Dennis Schroder</t>
+  </si>
+  <si>
+    <t>Otto Porter Jr.</t>
+  </si>
+  <si>
+    <t>Darius Bazley</t>
+  </si>
+  <si>
+    <t>Killian Hayes</t>
+  </si>
+  <si>
     <t>Derrick Rose</t>
   </si>
   <si>
-    <t>Dennis Schroder</t>
-  </si>
-  <si>
-    <t>Otto Porter Jr.</t>
-  </si>
-  <si>
-    <t>Killian Hayes</t>
+    <t>Obi Toppin</t>
+  </si>
+  <si>
+    <t>Josh Richardson</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Bruce Brown Jr.</t>
+  </si>
+  <si>
+    <t>Maxi Kleber</t>
+  </si>
+  <si>
+    <t>Montrezl Harrell</t>
+  </si>
+  <si>
+    <t>Isaac Okoro</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
   </si>
   <si>
     <t>Danilo Gallinari</t>
   </si>
   <si>
-    <t>Darius Bazley</t>
-  </si>
-  <si>
-    <t>Josh Richardson</t>
-  </si>
-  <si>
-    <t>Obi Toppin</t>
-  </si>
-  <si>
-    <t>Maxi Kleber</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
-    <t>Bruce Brown Jr.</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Montrezl Harrell</t>
-  </si>
-  <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
-    <t>Isaac Okoro</t>
-  </si>
-  <si>
     <t>Kemba Walker</t>
   </si>
   <si>
+    <t>Patrick Beverley</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
     <t>Hassan Whiteside</t>
   </si>
   <si>
@@ -616,42 +622,36 @@
     <t>Kevon Looney</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
+    <t>Terrence Ross</t>
+  </si>
+  <si>
+    <t>Lonnie Walker IV</t>
   </si>
   <si>
     <t>Alec Burks</t>
   </si>
   <si>
-    <t>Patrick Beverley</t>
-  </si>
-  <si>
-    <t>Terrence Ross</t>
-  </si>
-  <si>
-    <t>Lonnie Walker IV</t>
-  </si>
-  <si>
     <t>Reggie Bullock</t>
   </si>
   <si>
     <t>Xavier Tillman</t>
   </si>
   <si>
+    <t>Eric Bledsoe</t>
+  </si>
+  <si>
     <t>Justin Holiday</t>
   </si>
   <si>
-    <t>Eric Bledsoe</t>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Kendrick Nunn</t>
   </si>
   <si>
     <t>Ricky Rubio</t>
   </si>
   <si>
-    <t>Kendrick Nunn</t>
-  </si>
-  <si>
-    <t>Coby White</t>
-  </si>
-  <si>
     <t>Jonathan Kuminga</t>
   </si>
   <si>
@@ -661,27 +661,27 @@
     <t>Walker Kessler</t>
   </si>
   <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Bennedict Mathurin</t>
+  </si>
+  <si>
+    <t>Jalen Smith</t>
+  </si>
+  <si>
     <t>Daniel Theis</t>
   </si>
   <si>
-    <t>Bennedict Mathurin</t>
-  </si>
-  <si>
-    <t>Jalen Smith</t>
+    <t>Khem Birch</t>
+  </si>
+  <si>
+    <t>Herbert Jones</t>
   </si>
   <si>
     <t>P.J. Tucker</t>
   </si>
   <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Khem Birch</t>
-  </si>
-  <si>
-    <t>Herbert Jones</t>
-  </si>
-  <si>
     <t>Eric Gordon</t>
   </si>
   <si>
@@ -691,24 +691,24 @@
     <t>Precious Achiuwa</t>
   </si>
   <si>
+    <t>Danny Green</t>
+  </si>
+  <si>
+    <t>Jaxson Hayes</t>
+  </si>
+  <si>
+    <t>Facundo Campazzo</t>
+  </si>
+  <si>
+    <t>Cameron Payne</t>
+  </si>
+  <si>
     <t>Goran Dragic</t>
   </si>
   <si>
-    <t>Danny Green</t>
-  </si>
-  <si>
-    <t>Jaxson Hayes</t>
-  </si>
-  <si>
-    <t>Facundo Campazzo</t>
-  </si>
-  <si>
     <t>Davis Bertans</t>
   </si>
   <si>
-    <t>Cameron Payne</t>
-  </si>
-  <si>
     <t>Terance Mann</t>
   </si>
   <si>
@@ -718,114 +718,114 @@
     <t>Delon Wright</t>
   </si>
   <si>
+    <t>Luke Kennard</t>
+  </si>
+  <si>
     <t>Blake Griffin</t>
   </si>
   <si>
+    <t>Serge Ibaka</t>
+  </si>
+  <si>
+    <t>KJ Martin Jr.</t>
+  </si>
+  <si>
+    <t>Onyeka Okongwu</t>
+  </si>
+  <si>
+    <t>Cody Zeller</t>
+  </si>
+  <si>
+    <t>Carmelo Anthony</t>
+  </si>
+  <si>
+    <t>Dwight Howard</t>
+  </si>
+  <si>
+    <t>Bones Hyland</t>
+  </si>
+  <si>
     <t>Rudy Gay</t>
   </si>
   <si>
-    <t>Luke Kennard</t>
-  </si>
-  <si>
-    <t>Serge Ibaka</t>
-  </si>
-  <si>
-    <t>KJ Martin Jr.</t>
-  </si>
-  <si>
-    <t>Cody Zeller</t>
-  </si>
-  <si>
-    <t>Carmelo Anthony</t>
-  </si>
-  <si>
-    <t>Dwight Howard</t>
-  </si>
-  <si>
-    <t>Onyeka Okongwu</t>
-  </si>
-  <si>
-    <t>Bones Hyland</t>
-  </si>
-  <si>
     <t>Tomas Satoransky</t>
   </si>
   <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
     <t>Theo Maledon</t>
   </si>
   <si>
     <t>LaMarcus Aldridge</t>
   </si>
   <si>
+    <t>Moses Moody</t>
+  </si>
+  <si>
+    <t>Moses Brown</t>
+  </si>
+  <si>
+    <t>Enes Freedom</t>
+  </si>
+  <si>
     <t>Tari Eason</t>
   </si>
   <si>
-    <t>Moses Moody</t>
-  </si>
-  <si>
-    <t>Moses Brown</t>
-  </si>
-  <si>
-    <t>Enes Freedom</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
     <t>Dewayne Dedmon</t>
   </si>
   <si>
+    <t>Dwight Powell</t>
+  </si>
+  <si>
+    <t>Naz Reid</t>
+  </si>
+  <si>
     <t>Paul Millsap</t>
   </si>
   <si>
-    <t>Naz Reid</t>
-  </si>
-  <si>
-    <t>Dwight Powell</t>
-  </si>
-  <si>
     <t>Jeremy Lamb</t>
   </si>
   <si>
+    <t>Tre Jones</t>
+  </si>
+  <si>
+    <t>Isaiah Jackson</t>
+  </si>
+  <si>
     <t>Jarred Vanderbilt</t>
   </si>
   <si>
-    <t>Tre Jones</t>
-  </si>
-  <si>
-    <t>Isaiah Jackson</t>
-  </si>
-  <si>
     <t>Alex Caruso</t>
   </si>
   <si>
+    <t>Dario Saric</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Isaiah Hartenstein</t>
+  </si>
+  <si>
+    <t>JaVale McGee</t>
+  </si>
+  <si>
     <t>Doug McDermott</t>
   </si>
   <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>JaVale McGee</t>
-  </si>
-  <si>
-    <t>Isaiah Hartenstein</t>
-  </si>
-  <si>
     <t>Malachi Flynn</t>
   </si>
   <si>
-    <t>Dario Saric</t>
-  </si>
-  <si>
     <t>Jalen McDaniels</t>
   </si>
   <si>
+    <t>Chris Duarte</t>
+  </si>
+  <si>
     <t>DeAndre Jordan</t>
   </si>
   <si>
-    <t>Chris Duarte</t>
-  </si>
-  <si>
     <t>Tristan Thompson</t>
   </si>
   <si>
@@ -838,61 +838,64 @@
     <t>Josh Jackson</t>
   </si>
   <si>
+    <t>Cody Martin</t>
+  </si>
+  <si>
+    <t>Caleb Martin</t>
+  </si>
+  <si>
     <t>Lou Williams</t>
   </si>
   <si>
     <t>Shake Milton</t>
   </si>
   <si>
-    <t>Caleb Martin</t>
-  </si>
-  <si>
-    <t>Cody Martin</t>
+    <t>Grant Williams</t>
+  </si>
+  <si>
+    <t>Damian Jones</t>
   </si>
   <si>
     <t>Malik Monk</t>
   </si>
   <si>
-    <t>Damian Jones</t>
-  </si>
-  <si>
-    <t>Grant Williams</t>
-  </si>
-  <si>
     <t>Tyus Jones</t>
   </si>
   <si>
+    <t>Davion Mitchell</t>
+  </si>
+  <si>
     <t>Jalen Williams</t>
   </si>
   <si>
     <t>Max Strus</t>
   </si>
   <si>
-    <t>Davion Mitchell</t>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Nassir Little</t>
+  </si>
+  <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Pat Connaughton</t>
   </si>
   <si>
     <t>Jose Alvarado</t>
   </si>
   <si>
-    <t>Nassir Little</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Pat Connaughton</t>
-  </si>
-  <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>Quentin Grimes</t>
-  </si>
-  <si>
     <t>Zach Collins</t>
   </si>
   <si>
-    <t>Ayo Dosunmu</t>
+    <t>Isaiah Livers</t>
   </si>
   <si>
     <t>Johnny Davis</t>
@@ -901,9 +904,6 @@
     <t>Trey Murphy III</t>
   </si>
   <si>
-    <t>Isaiah Livers</t>
-  </si>
-  <si>
     <t>Joshua Primo</t>
   </si>
   <si>
@@ -916,52 +916,64 @@
     <t>Josh Christopher</t>
   </si>
   <si>
+    <t>Drew Eubanks</t>
+  </si>
+  <si>
     <t>Jeremy Sochan</t>
   </si>
   <si>
-    <t>Drew Eubanks</t>
+    <t>Talen HortonTucker</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>Paul Reed</t>
   </si>
   <si>
     <t>Nemanja Bjelica</t>
   </si>
   <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Paul Reed</t>
-  </si>
-  <si>
-    <t>Talen HortonTucker</t>
+    <t>Jeremiah RobinsonEarl</t>
+  </si>
+  <si>
+    <t>Jaylen Nowell</t>
   </si>
   <si>
     <t>Elfrid Payton</t>
   </si>
   <si>
-    <t>Jaylen Nowell</t>
-  </si>
-  <si>
     <t>Trevor Keels</t>
   </si>
   <si>
-    <t>Jeremiah RobinsonEarl</t>
-  </si>
-  <si>
     <t>Trevor Ariza</t>
   </si>
   <si>
+    <t>TyTy Washington Jr.</t>
+  </si>
+  <si>
+    <t>Ty Jerome</t>
+  </si>
+  <si>
+    <t>Udoka Azubuike</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Malaki Branham</t>
+  </si>
+  <si>
+    <t>Jake LaRavia</t>
+  </si>
+  <si>
+    <t>Tre Mann</t>
+  </si>
+  <si>
     <t>Day'Ron Sharpe</t>
   </si>
   <si>
-    <t>TyTy Washington Jr.</t>
-  </si>
-  <si>
-    <t>Ty Jerome</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Udoka Azubuike</t>
+    <t>Ochai Agbaji</t>
   </si>
   <si>
     <t>Jaylin Williams</t>
@@ -973,93 +985,90 @@
     <t>Trendon Watford</t>
   </si>
   <si>
-    <t>Malaki Branham</t>
-  </si>
-  <si>
     <t>Corey Kispert</t>
   </si>
   <si>
-    <t>Jake LaRavia</t>
-  </si>
-  <si>
-    <t>Tre Mann</t>
-  </si>
-  <si>
     <t>Shaedon Sharpe</t>
   </si>
   <si>
+    <t>Jeff Green</t>
+  </si>
+  <si>
     <t>JaMychal Green</t>
   </si>
   <si>
-    <t>Ochai Agbaji</t>
+    <t>Zeke Nnaji</t>
+  </si>
+  <si>
+    <t>Gabe Vincent</t>
+  </si>
+  <si>
+    <t>John Konchar</t>
+  </si>
+  <si>
+    <t>Omer Yurtseven</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
+    <t>Kenrich Williams</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Garrison Mathews</t>
+  </si>
+  <si>
+    <t>Jordan McLaughlin</t>
+  </si>
+  <si>
+    <t>Taurean Prince</t>
   </si>
   <si>
     <t>Oshae Brissett</t>
   </si>
   <si>
-    <t>Jeff Green</t>
-  </si>
-  <si>
-    <t>Omer Yurtseven</t>
-  </si>
-  <si>
-    <t>John Konchar</t>
-  </si>
-  <si>
-    <t>Goga Bitadze</t>
+    <t>Aaron Nesmith</t>
+  </si>
+  <si>
+    <t>Torrey Craig</t>
+  </si>
+  <si>
+    <t>Patty Mills</t>
+  </si>
+  <si>
+    <t>Usman Garuba</t>
+  </si>
+  <si>
+    <t>Ousmane Dieng</t>
   </si>
   <si>
     <t>Gary Harris</t>
   </si>
   <si>
-    <t>Zeke Nnaji</t>
-  </si>
-  <si>
-    <t>Kenrich Williams</t>
-  </si>
-  <si>
-    <t>Gabe Vincent</t>
-  </si>
-  <si>
-    <t>Patty Mills</t>
-  </si>
-  <si>
-    <t>Torrey Craig</t>
-  </si>
-  <si>
-    <t>Garrison Mathews</t>
-  </si>
-  <si>
-    <t>Jordan McLaughlin</t>
-  </si>
-  <si>
-    <t>Ousmane Dieng</t>
-  </si>
-  <si>
-    <t>Taurean Prince</t>
-  </si>
-  <si>
     <t>Terence Davis II</t>
   </si>
   <si>
+    <t>Josh Green</t>
+  </si>
+  <si>
+    <t>AJ Griffin</t>
+  </si>
+  <si>
+    <t>Trey Lyles</t>
+  </si>
+  <si>
     <t>Georges Niang</t>
   </si>
   <si>
-    <t>AJ Griffin</t>
-  </si>
-  <si>
-    <t>Josh Green</t>
-  </si>
-  <si>
-    <t>Trey Lyles</t>
+    <t>Landry Shamet</t>
   </si>
   <si>
     <t>Christian Braun</t>
   </si>
   <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
     <t>David Roddy</t>
   </si>
   <si>
@@ -1069,9 +1078,6 @@
     <t>Blake Wesley</t>
   </si>
   <si>
-    <t>Landry Shamet</t>
-  </si>
-  <si>
     <t>Wendell Moore Jr.</t>
   </si>
   <si>
@@ -1093,7 +1099,7 @@
     <t>Caleb Houstan</t>
   </si>
   <si>
-    <t>Aaron Nesmith</t>
+    <t>George Hill</t>
   </si>
   <si>
     <t>Christian Koloko</t>
@@ -1105,30 +1111,27 @@
     <t>Max Christie</t>
   </si>
   <si>
+    <t>Moritz Wagner</t>
+  </si>
+  <si>
+    <t>Gabriele Procida</t>
+  </si>
+  <si>
+    <t>Chimezie Metu</t>
+  </si>
+  <si>
+    <t>Jaden Hardy</t>
+  </si>
+  <si>
+    <t>Mike Muscala</t>
+  </si>
+  <si>
+    <t>Kennedy Chandler</t>
+  </si>
+  <si>
     <t>Wesley Matthews</t>
   </si>
   <si>
-    <t>Moritz Wagner</t>
-  </si>
-  <si>
-    <t>Gabriele Procida</t>
-  </si>
-  <si>
-    <t>George Hill</t>
-  </si>
-  <si>
-    <t>Jaden Hardy</t>
-  </si>
-  <si>
-    <t>Mike Muscala</t>
-  </si>
-  <si>
-    <t>Kennedy Chandler</t>
-  </si>
-  <si>
-    <t>Usman Garuba</t>
-  </si>
-  <si>
     <t>Khalifa Diop</t>
   </si>
   <si>
@@ -1138,7 +1141,7 @@
     <t>Willy Hernangomez</t>
   </si>
   <si>
-    <t>Chimezie Metu</t>
+    <t>Jalen Johnson</t>
   </si>
   <si>
     <t>E.J. Liddell</t>
@@ -1159,18 +1162,21 @@
     <t>Ismael Kamagate</t>
   </si>
   <si>
+    <t>Vince Williams Jr.</t>
+  </si>
+  <si>
+    <t>Kendall Brown</t>
+  </si>
+  <si>
+    <t>Troy Brown Jr.</t>
+  </si>
+  <si>
+    <t>Isaiah Mobley</t>
+  </si>
+  <si>
     <t>James Bouknight</t>
   </si>
   <si>
-    <t>Vince Williams Jr.</t>
-  </si>
-  <si>
-    <t>Kendall Brown</t>
-  </si>
-  <si>
-    <t>Isaiah Mobley</t>
-  </si>
-  <si>
     <t>Matteo Spagnolo</t>
   </si>
   <si>
@@ -1279,13 +1285,13 @@
     <t>PHI</t>
   </si>
   <si>
+    <t>BKN</t>
+  </si>
+  <si>
     <t>BOS</t>
   </si>
   <si>
     <t>GSW</t>
-  </si>
-  <si>
-    <t>BKN</t>
   </si>
   <si>
     <t>DAL</t>
@@ -1718,7 +1724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D391"/>
+  <dimension ref="A1:D393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1749,10 +1755,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1763,10 +1769,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1777,10 +1783,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1791,10 +1797,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1805,10 +1811,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D6" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1819,10 +1825,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1833,10 +1839,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D8" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1847,10 +1853,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D9" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1861,10 +1867,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D10" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1875,10 +1881,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D11" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1889,10 +1895,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D12" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1903,10 +1909,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D13" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1917,10 +1923,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D14" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1931,10 +1937,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D15" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1945,10 +1951,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D16" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1959,10 +1965,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D17" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1973,10 +1979,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D18" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1987,10 +1993,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D19" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2001,10 +2007,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D20" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2015,10 +2021,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="D21" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2029,10 +2035,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D22" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2043,10 +2049,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D23" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2057,10 +2063,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D24" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2071,10 +2077,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D25" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2085,10 +2091,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D26" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2099,10 +2105,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D27" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2113,10 +2119,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D28" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2127,10 +2133,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D29" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2141,7 +2147,7 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D30" t="s">
         <v>422</v>
@@ -2155,10 +2161,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D31" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2169,10 +2175,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D32" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2183,10 +2189,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D33" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2200,7 +2206,7 @@
         <v>402</v>
       </c>
       <c r="D34" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2211,10 +2217,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D35" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2225,10 +2231,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D36" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2239,10 +2245,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D37" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2253,10 +2259,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D38" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2267,10 +2273,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D39" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2281,10 +2287,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D40" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2295,10 +2301,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D41" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2309,10 +2315,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D42" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2323,10 +2329,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D43" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2337,10 +2343,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D44" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2351,10 +2357,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D45" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2365,10 +2371,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D46" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2379,10 +2385,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D47" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2393,10 +2399,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D48" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2407,10 +2413,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D49" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2421,10 +2427,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D50" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2435,10 +2441,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D51" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2449,10 +2455,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D52" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2463,10 +2469,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D53" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2477,10 +2483,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D54" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2491,10 +2497,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D55" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2505,10 +2511,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D56" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2519,10 +2525,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D57" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2533,10 +2539,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D58" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2547,10 +2553,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D59" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2561,10 +2567,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D60" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2575,10 +2581,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D61" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2589,10 +2595,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D62" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2603,10 +2609,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D63" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2617,10 +2623,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D64" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2631,10 +2637,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D65" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2645,10 +2651,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D66" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2659,10 +2665,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D67" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2673,10 +2679,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D68" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2687,10 +2693,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D69" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2701,10 +2707,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D70" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2715,10 +2721,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D71" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2729,10 +2735,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D72" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2743,10 +2749,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D73" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2757,10 +2763,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D74" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2771,10 +2777,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D75" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2785,10 +2791,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D76" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2799,10 +2805,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D77" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2813,10 +2819,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D78" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2827,10 +2833,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D79" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2841,10 +2847,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D80" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2855,10 +2861,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D81" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2869,7 +2875,7 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D82" t="s">
         <v>445</v>
@@ -2883,10 +2889,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="D83" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2897,10 +2903,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D84" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2911,10 +2917,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D85" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2925,10 +2931,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D86" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2939,10 +2945,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D87" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2953,10 +2959,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D88" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2967,10 +2973,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="D89" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2981,10 +2987,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D90" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2995,10 +3001,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D91" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3009,10 +3015,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D92" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3023,10 +3029,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D93" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3037,10 +3043,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D94" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3051,10 +3057,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D95" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3065,10 +3071,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D96" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3079,10 +3085,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D97" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3093,10 +3099,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D98" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3107,10 +3113,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D99" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3124,7 +3130,7 @@
         <v>402</v>
       </c>
       <c r="D100" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3135,10 +3141,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D101" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3149,10 +3155,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="D102" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3166,7 +3172,7 @@
         <v>396</v>
       </c>
       <c r="D103" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3177,10 +3183,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D104" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3191,10 +3197,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D105" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3205,10 +3211,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D106" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3219,7 +3225,7 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D107" t="s">
         <v>446</v>
@@ -3233,10 +3239,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="D108" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3247,10 +3253,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D109" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3261,10 +3267,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D110" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3275,10 +3281,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D111" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3289,10 +3295,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D112" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3303,10 +3309,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D113" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3317,10 +3323,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D114" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3331,7 +3337,7 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D115" t="s">
         <v>446</v>
@@ -3345,10 +3351,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D116" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3359,10 +3365,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D117" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3373,10 +3379,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D118" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3387,10 +3393,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D119" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3401,7 +3407,7 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D120" t="s">
         <v>425</v>
@@ -3415,10 +3421,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D121" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3429,10 +3435,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D122" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3443,10 +3449,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D123" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3457,10 +3463,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D124" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3471,10 +3477,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D125" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3485,10 +3491,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="D126" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3499,10 +3505,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D127" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3513,10 +3519,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D128" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3527,10 +3533,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D129" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3541,10 +3547,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D130" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3555,10 +3561,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D131" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3569,10 +3575,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D132" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3583,10 +3589,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D133" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3597,10 +3603,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D134" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3611,10 +3617,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D135" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3625,10 +3631,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D136" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3639,10 +3645,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D137" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3653,10 +3659,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D138" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3667,7 +3673,7 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="D139" t="s">
         <v>430</v>
@@ -3681,10 +3687,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D140" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3695,10 +3701,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D141" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3709,10 +3715,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D142" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3723,10 +3729,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D143" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3737,10 +3743,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D144" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3751,10 +3757,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D145" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3765,10 +3771,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D146" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3779,10 +3785,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="D147" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3793,10 +3799,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D148" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3807,10 +3813,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D149" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3821,10 +3827,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D150" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3838,7 +3844,7 @@
         <v>404</v>
       </c>
       <c r="D151" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3849,10 +3855,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D152" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3863,10 +3869,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D153" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3877,10 +3883,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D154" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3891,10 +3897,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D155" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3905,7 +3911,7 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D156" t="s">
         <v>422</v>
@@ -3919,10 +3925,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="D157" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3933,10 +3939,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D158" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3947,10 +3953,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D159" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3961,10 +3967,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D160" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3975,10 +3981,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D161" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3989,10 +3995,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D162" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4003,10 +4009,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D163" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4017,10 +4023,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D164" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4031,10 +4037,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D165" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4048,7 +4054,7 @@
         <v>396</v>
       </c>
       <c r="D166" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4059,10 +4065,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D167" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4073,10 +4079,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D168" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4087,10 +4093,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D169" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4101,10 +4107,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D170" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4115,10 +4121,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D171" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4129,10 +4135,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D172" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4143,10 +4149,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D173" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4157,10 +4163,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D174" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4171,10 +4177,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D175" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4185,10 +4191,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D176" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4199,10 +4205,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D177" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4213,10 +4219,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D178" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4227,10 +4233,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D179" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4241,7 +4247,7 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D180" t="s">
         <v>437</v>
@@ -4255,10 +4261,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D181" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4269,10 +4275,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D182" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4283,10 +4289,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D183" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4297,10 +4303,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D184" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4311,10 +4317,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D185" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4325,10 +4331,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="D186" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4339,10 +4345,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D187" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4353,10 +4359,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D188" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4367,10 +4373,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D189" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4381,7 +4387,7 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="D190" t="s">
         <v>447</v>
@@ -4395,10 +4401,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D191" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4409,10 +4415,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D192" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4423,10 +4429,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D193" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4437,10 +4443,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D194" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4451,10 +4457,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D195" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4465,10 +4471,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D196" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4479,10 +4485,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D197" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4493,10 +4499,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D198" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4507,10 +4513,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D199" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4521,10 +4527,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D200" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4535,10 +4541,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D201" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4549,10 +4555,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D202" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4563,10 +4569,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D203" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4577,10 +4583,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D204" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4591,10 +4597,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D205" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4608,7 +4614,7 @@
         <v>398</v>
       </c>
       <c r="D206" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4619,10 +4625,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D207" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4633,10 +4639,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D208" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4647,10 +4653,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D209" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4661,10 +4667,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D210" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4675,10 +4681,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D211" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4689,10 +4695,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="D212" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4703,10 +4709,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D213" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4717,10 +4723,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D214" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4731,10 +4737,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D215" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4745,10 +4751,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D216" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4759,10 +4765,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="D217" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4773,10 +4779,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D218" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4787,10 +4793,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D219" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4801,10 +4807,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D220" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4815,10 +4821,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D221" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4829,10 +4835,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D222" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4843,10 +4849,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D223" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4857,10 +4863,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D224" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4874,7 +4880,7 @@
         <v>398</v>
       </c>
       <c r="D225" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4885,10 +4891,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D226" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4902,7 +4908,7 @@
         <v>396</v>
       </c>
       <c r="D227" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4913,10 +4919,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D228" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4927,10 +4933,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D229" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4941,10 +4947,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D230" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4955,10 +4961,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="D231" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4969,10 +4975,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D232" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4983,10 +4989,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D233" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4997,10 +5003,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D234" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5011,10 +5017,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D235" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5025,10 +5031,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D236" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5039,10 +5045,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D237" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5053,10 +5059,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D238" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5067,10 +5073,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D239" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5081,10 +5087,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D240" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5095,10 +5101,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D241" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5109,10 +5115,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D242" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5123,10 +5129,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D243" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5137,10 +5143,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D244" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5151,10 +5157,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D245" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5165,10 +5171,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D246" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5179,10 +5185,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D247" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5193,10 +5199,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D248" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5207,10 +5213,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D249" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5221,10 +5227,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D250" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5235,10 +5241,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D251" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5249,10 +5255,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D252" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5263,10 +5269,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D253" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5277,10 +5283,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D254" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5291,10 +5297,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D255" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5305,10 +5311,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D256" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5319,10 +5325,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D257" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5333,10 +5339,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D258" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5347,10 +5353,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D259" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5361,10 +5367,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D260" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5375,10 +5381,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D261" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5389,10 +5395,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D262" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5403,10 +5409,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D263" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5417,10 +5423,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D264" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5431,10 +5437,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="D265" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5445,10 +5451,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D266" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5459,10 +5465,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D267" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5473,10 +5479,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D268" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5487,10 +5493,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D269" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5501,10 +5507,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D270" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5515,10 +5521,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D271" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5529,10 +5535,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="D272" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5543,10 +5549,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="D273" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5557,10 +5563,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D274" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5571,10 +5577,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D275" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5585,10 +5591,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D276" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5599,10 +5605,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D277" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5613,10 +5619,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D278" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5627,10 +5633,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="D279" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5641,10 +5647,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D280" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5655,10 +5661,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D281" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5672,7 +5678,7 @@
         <v>398</v>
       </c>
       <c r="D282" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5683,10 +5689,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D283" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5697,10 +5703,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D284" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5711,10 +5717,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D285" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5725,10 +5731,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D286" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5739,10 +5745,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D287" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5753,10 +5759,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D288" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5770,7 +5776,7 @@
         <v>396</v>
       </c>
       <c r="D289" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5781,10 +5787,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D290" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5795,10 +5801,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D291" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5809,10 +5815,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="D292" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5823,10 +5829,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D293" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5837,10 +5843,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D294" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5851,10 +5857,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D295" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5865,10 +5871,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D296" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5879,10 +5885,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D297" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5893,10 +5899,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="D298" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5910,7 +5916,7 @@
         <v>404</v>
       </c>
       <c r="D299" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5921,7 +5927,7 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D300" t="s">
         <v>422</v>
@@ -5935,10 +5941,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D301" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5949,10 +5955,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D302" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5963,10 +5969,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D303" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5977,10 +5983,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D304" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5991,10 +5997,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D305" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6005,10 +6011,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="D306" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6019,10 +6025,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D307" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6033,10 +6039,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D308" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6050,7 +6056,7 @@
         <v>398</v>
       </c>
       <c r="D309" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6061,10 +6067,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D310" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6075,10 +6081,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D311" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6089,10 +6095,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="D312" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6103,10 +6109,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="D313" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6117,10 +6123,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D314" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6131,10 +6137,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D315" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6145,10 +6151,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D316" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6159,10 +6165,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D317" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6173,10 +6179,10 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D318" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6187,10 +6193,10 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="D319" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6201,10 +6207,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D320" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6215,10 +6221,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="D321" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6229,10 +6235,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="D322" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6243,10 +6249,10 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D323" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6257,10 +6263,10 @@
         <v>326</v>
       </c>
       <c r="C324" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D324" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6271,10 +6277,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D325" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6285,10 +6291,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D326" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6299,10 +6305,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D327" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6313,10 +6319,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D328" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6327,10 +6333,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D329" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6341,10 +6347,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D330" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6355,10 +6361,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D331" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6369,10 +6375,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D332" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6383,10 +6389,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D333" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6397,10 +6403,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D334" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6411,10 +6417,10 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D335" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6425,10 +6431,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D336" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6439,10 +6445,10 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D337" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6453,10 +6459,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D338" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6467,10 +6473,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="D339" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6481,10 +6487,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D340" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6495,10 +6501,10 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D341" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6509,10 +6515,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="D342" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6526,7 +6532,7 @@
         <v>408</v>
       </c>
       <c r="D343" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6537,10 +6543,10 @@
         <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D344" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6551,10 +6557,10 @@
         <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D345" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6565,10 +6571,10 @@
         <v>348</v>
       </c>
       <c r="C346" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="D346" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6579,10 +6585,10 @@
         <v>349</v>
       </c>
       <c r="C347" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D347" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6593,10 +6599,10 @@
         <v>350</v>
       </c>
       <c r="C348" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D348" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6607,10 +6613,10 @@
         <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D349" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6621,10 +6627,10 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="D350" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6635,10 +6641,10 @@
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="D351" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6649,10 +6655,10 @@
         <v>354</v>
       </c>
       <c r="C352" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D352" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6663,10 +6669,10 @@
         <v>355</v>
       </c>
       <c r="C353" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D353" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6677,10 +6683,10 @@
         <v>356</v>
       </c>
       <c r="C354" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="D354" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6691,10 +6697,10 @@
         <v>357</v>
       </c>
       <c r="C355" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D355" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6705,10 +6711,10 @@
         <v>358</v>
       </c>
       <c r="C356" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D356" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6719,10 +6725,10 @@
         <v>359</v>
       </c>
       <c r="C357" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="D357" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6733,10 +6739,10 @@
         <v>360</v>
       </c>
       <c r="C358" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D358" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6747,10 +6753,10 @@
         <v>361</v>
       </c>
       <c r="C359" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D359" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6761,10 +6767,10 @@
         <v>362</v>
       </c>
       <c r="C360" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D360" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6775,10 +6781,10 @@
         <v>363</v>
       </c>
       <c r="C361" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="D361" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6789,10 +6795,10 @@
         <v>364</v>
       </c>
       <c r="C362" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="D362" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6803,10 +6809,10 @@
         <v>365</v>
       </c>
       <c r="C363" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="D363" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6817,10 +6823,10 @@
         <v>366</v>
       </c>
       <c r="C364" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="D364" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6831,10 +6837,10 @@
         <v>367</v>
       </c>
       <c r="C365" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="D365" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6845,10 +6851,10 @@
         <v>368</v>
       </c>
       <c r="C366" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D366" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6859,10 +6865,10 @@
         <v>369</v>
       </c>
       <c r="C367" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D367" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6873,10 +6879,10 @@
         <v>370</v>
       </c>
       <c r="C368" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D368" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6887,10 +6893,10 @@
         <v>371</v>
       </c>
       <c r="C369" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D369" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6901,10 +6907,10 @@
         <v>372</v>
       </c>
       <c r="C370" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="D370" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6915,10 +6921,10 @@
         <v>373</v>
       </c>
       <c r="C371" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D371" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6929,10 +6935,10 @@
         <v>374</v>
       </c>
       <c r="C372" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D372" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -6943,10 +6949,10 @@
         <v>375</v>
       </c>
       <c r="C373" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D373" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -6957,10 +6963,10 @@
         <v>376</v>
       </c>
       <c r="C374" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D374" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -6971,10 +6977,10 @@
         <v>377</v>
       </c>
       <c r="C375" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D375" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6985,10 +6991,10 @@
         <v>378</v>
       </c>
       <c r="C376" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="D376" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -6999,10 +7005,10 @@
         <v>379</v>
       </c>
       <c r="C377" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="D377" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7013,10 +7019,10 @@
         <v>380</v>
       </c>
       <c r="C378" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D378" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7027,10 +7033,10 @@
         <v>381</v>
       </c>
       <c r="C379" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D379" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7041,10 +7047,10 @@
         <v>382</v>
       </c>
       <c r="C380" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D380" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7055,10 +7061,10 @@
         <v>383</v>
       </c>
       <c r="C381" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D381" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7069,10 +7075,10 @@
         <v>384</v>
       </c>
       <c r="C382" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="D382" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7083,10 +7089,10 @@
         <v>385</v>
       </c>
       <c r="C383" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D383" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7097,10 +7103,10 @@
         <v>386</v>
       </c>
       <c r="C384" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D384" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7111,10 +7117,10 @@
         <v>387</v>
       </c>
       <c r="C385" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="D385" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7125,10 +7131,10 @@
         <v>388</v>
       </c>
       <c r="C386" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D386" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7139,10 +7145,10 @@
         <v>389</v>
       </c>
       <c r="C387" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D387" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7153,10 +7159,10 @@
         <v>390</v>
       </c>
       <c r="C388" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D388" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7167,10 +7173,10 @@
         <v>391</v>
       </c>
       <c r="C389" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D389" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7181,10 +7187,10 @@
         <v>392</v>
       </c>
       <c r="C390" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D390" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7195,14 +7201,42 @@
         <v>393</v>
       </c>
       <c r="C391" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="D391" t="s">
-        <v>418</v>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>394</v>
+      </c>
+      <c r="C392" t="s">
+        <v>406</v>
+      </c>
+      <c r="D392" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>395</v>
+      </c>
+      <c r="C393" t="s">
+        <v>400</v>
+      </c>
+      <c r="D393" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D391"/>
+  <autoFilter ref="A1:D393"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -4362,7 +4362,7 @@
         <v>396</v>
       </c>
       <c r="D188" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
     </row>
     <row r="189" spans="1:4">

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -34,12 +34,12 @@
     <t>Nikola Jokic</t>
   </si>
   <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
     <t>Kevin Durant</t>
   </si>
   <si>
@@ -55,46 +55,58 @@
     <t>KarlAnthony Towns</t>
   </si>
   <si>
+    <t>James Harden</t>
+  </si>
+  <si>
     <t>Trae Young</t>
   </si>
   <si>
-    <t>James Harden</t>
-  </si>
-  <si>
     <t>Damian Lillard</t>
   </si>
   <si>
+    <t>LaMelo Ball</t>
+  </si>
+  <si>
+    <t>Anthony Davis</t>
+  </si>
+  <si>
     <t>LeBron James</t>
   </si>
   <si>
-    <t>Anthony Davis</t>
-  </si>
-  <si>
-    <t>LaMelo Ball</t>
-  </si>
-  <si>
     <t>Paul George</t>
   </si>
   <si>
     <t>Devin Booker</t>
   </si>
   <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
     <t>Domantas Sabonis</t>
   </si>
   <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Bam Adebayo</t>
+    <t>Shai GilgeousAlexander</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
   </si>
   <si>
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Shai GilgeousAlexander</t>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
   </si>
   <si>
     <t>Rudy Gobert</t>
@@ -103,319 +115,316 @@
     <t>Ja Morant</t>
   </si>
   <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
     <t>Chris Paul</t>
   </si>
   <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
+    <t>Anthony Edwards</t>
   </si>
   <si>
     <t>Nikola Vucevic</t>
   </si>
   <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>DeMar DeRozan</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Jrue Holiday</t>
+  </si>
+  <si>
+    <t>Robert Williams III</t>
+  </si>
+  <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>DeMar DeRozan</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
     <t>Zach LaVine</t>
   </si>
   <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Jrue Holiday</t>
-  </si>
-  <si>
     <t>Darius Garland</t>
   </si>
   <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
     <t>Khris Middleton</t>
   </si>
   <si>
-    <t>Robert Williams III</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
+    <t>De'Aaron Fox</t>
   </si>
   <si>
     <t>Zion Williamson</t>
   </si>
   <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>De'Aaron Fox</t>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Cade Cunningham</t>
   </si>
   <si>
     <t>CJ McCollum</t>
   </si>
   <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Cade Cunningham</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
     <t>Jonas Valanciunas</t>
   </si>
   <si>
     <t>Mikal Bridges</t>
   </si>
   <si>
+    <t>Terry Rozier</t>
+  </si>
+  <si>
     <t>OG Anunoby</t>
   </si>
   <si>
     <t>Julius Randle</t>
   </si>
   <si>
-    <t>Terry Rozier</t>
-  </si>
-  <si>
     <t>Christian Wood</t>
   </si>
   <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
     <t>Tobias Harris</t>
   </si>
   <si>
     <t>Evan Mobley</t>
   </si>
   <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
     <t>John Collins</t>
   </si>
   <si>
     <t>Jusuf Nurkic</t>
   </si>
   <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
     <t>D'Angelo Russell</t>
   </si>
   <si>
-    <t>Jakob Poeltl</t>
+    <t>Ben Simmons</t>
   </si>
   <si>
     <t>Clint Capela</t>
   </si>
   <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
     <t>Draymond Green</t>
   </si>
   <si>
-    <t>Ben Simmons</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
+    <t>Scottie Barnes</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Marcus Smart</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Kyle Lowry</t>
+  </si>
+  <si>
+    <t>Saddiq Bey</t>
+  </si>
+  <si>
+    <t>Tyler Herro</t>
+  </si>
+  <si>
+    <t>Keldon Johnson</t>
+  </si>
+  <si>
+    <t>Josh Giddey</t>
+  </si>
+  <si>
+    <t>Mitchell Robinson</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
   </si>
   <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
-    <t>Marcus Smart</t>
-  </si>
-  <si>
-    <t>Kyle Lowry</t>
-  </si>
-  <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
-    <t>Saddiq Bey</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Scottie Barnes</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Mitchell Robinson</t>
+    <t>Andrew Wiggins</t>
   </si>
   <si>
     <t>Gordon Hayward</t>
   </si>
   <si>
-    <t>Buddy Hield</t>
-  </si>
-  <si>
-    <t>Tyler Herro</t>
-  </si>
-  <si>
-    <t>Josh Giddey</t>
-  </si>
-  <si>
-    <t>Keldon Johnson</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
+    <t>RJ Barrett</t>
   </si>
   <si>
     <t>Malcolm Brogdon</t>
   </si>
   <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
     <t>Russell Westbrook III</t>
   </si>
   <si>
-    <t>RJ Barrett</t>
+    <t>Klay Thompson</t>
   </si>
   <si>
     <t>Kyle Kuzma</t>
   </si>
   <si>
-    <t>Klay Thompson</t>
+    <t>P.J. Washington</t>
   </si>
   <si>
     <t>Al Horford</t>
   </si>
   <si>
-    <t>P.J. Washington</t>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
+    <t>Harrison Barnes</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Brook Lopez</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Isaiah Stewart</t>
+  </si>
+  <si>
+    <t>Robert Covington</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Kevin Porter Jr.</t>
+  </si>
+  <si>
+    <t>Bobby Portis Jr.</t>
+  </si>
+  <si>
+    <t>Bogdan Bogdanovic</t>
   </si>
   <si>
     <t>Jaren Jackson Jr.</t>
   </si>
   <si>
-    <t>Robert Covington</t>
-  </si>
-  <si>
-    <t>Brook Lopez</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
-    <t>Harrison Barnes</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Isaiah Stewart</t>
-  </si>
-  <si>
-    <t>Bogdan Bogdanovic</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Kevin Porter Jr.</t>
-  </si>
-  <si>
-    <t>Bobby Portis Jr.</t>
+    <t>Brandon Clarke</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie</t>
   </si>
   <si>
     <t>Jamal Murray</t>
   </si>
   <si>
-    <t>Spencer Dinwiddie</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
+    <t>Alperen Sengun</t>
   </si>
   <si>
     <t>Mo Bamba</t>
   </si>
   <si>
-    <t>Brandon Clarke</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
     <t>Caris LeVert</t>
   </si>
   <si>
     <t>Derrick White</t>
   </si>
   <si>
-    <t>Gary Trent Jr.</t>
+    <t>Bojan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Reggie Jackson</t>
+  </si>
+  <si>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Kyle Anderson</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Dorian FinneySmith</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>De'Anthony Melton</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
   </si>
   <si>
     <t>Richaun Holmes</t>
   </si>
   <si>
-    <t>Alperen Sengun</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Reggie Jackson</t>
-  </si>
-  <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
-    <t>Bojan Bogdanovic</t>
-  </si>
-  <si>
-    <t>Kyle Anderson</t>
-  </si>
-  <si>
-    <t>Dorian FinneySmith</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
     <t>Jae'Sean Tate</t>
   </si>
   <si>
+    <t>Will Barton</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
     <t>Chris Boucher</t>
   </si>
   <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
     <t>Evan Fournier</t>
   </si>
   <si>
-    <t>Will Barton</t>
-  </si>
-  <si>
-    <t>Cole Anthony</t>
-  </si>
-  <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
-    <t>De'Anthony Melton</t>
+    <t>Nic Claxton</t>
   </si>
   <si>
     <t>Daniel Gafford</t>
@@ -424,22 +433,22 @@
     <t>Steven Adams</t>
   </si>
   <si>
-    <t>Nic Claxton</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
+    <t>John Wall</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
   </si>
   <si>
     <t>Patrick Williams</t>
   </si>
   <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>John Wall</t>
+    <t>Monte Morris</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
   </si>
   <si>
     <t>Kelly Oubre Jr.</t>
@@ -448,90 +457,81 @@
     <t>Mason Plumlee</t>
   </si>
   <si>
-    <t>Royce O'Neale</t>
-  </si>
-  <si>
-    <t>Monte Morris</t>
+    <t>Devonte' Graham</t>
+  </si>
+  <si>
+    <t>Jonathan Isaac</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Chuma Okeke</t>
+  </si>
+  <si>
+    <t>T.J. McConnell</t>
+  </si>
+  <si>
+    <t>Andre Drummond</t>
+  </si>
+  <si>
+    <t>Luguentz Dort</t>
+  </si>
+  <si>
+    <t>Kevin Huerter</t>
+  </si>
+  <si>
+    <t>Marvin Bagley III</t>
+  </si>
+  <si>
+    <t>Aleksej Pokusevski</t>
+  </si>
+  <si>
+    <t>James Wiseman</t>
+  </si>
+  <si>
+    <t>Tim Hardaway Jr.</t>
+  </si>
+  <si>
+    <t>Seth Curry</t>
+  </si>
+  <si>
+    <t>Joe Harris</t>
+  </si>
+  <si>
+    <t>Matisse Thybulle</t>
+  </si>
+  <si>
+    <t>Markelle Fultz</t>
+  </si>
+  <si>
+    <t>Isaiah Roby</t>
+  </si>
+  <si>
+    <t>Kelly Olynyk</t>
+  </si>
+  <si>
+    <t>Thomas Bryant</t>
+  </si>
+  <si>
+    <t>Nerlens Noel</t>
   </si>
   <si>
     <t>Miles Bridges</t>
   </si>
   <si>
-    <t>Jonathan Isaac</t>
-  </si>
-  <si>
-    <t>Andre Drummond</t>
-  </si>
-  <si>
-    <t>T.J. McConnell</t>
-  </si>
-  <si>
-    <t>Chuma Okeke</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Luguentz Dort</t>
-  </si>
-  <si>
-    <t>Devonte' Graham</t>
-  </si>
-  <si>
-    <t>Kevin Huerter</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>James Wiseman</t>
-  </si>
-  <si>
-    <t>Aleksej Pokusevski</t>
-  </si>
-  <si>
-    <t>Tim Hardaway Jr.</t>
-  </si>
-  <si>
-    <t>Seth Curry</t>
-  </si>
-  <si>
-    <t>Joe Harris</t>
-  </si>
-  <si>
-    <t>Matisse Thybulle</t>
-  </si>
-  <si>
-    <t>Marvin Bagley III</t>
-  </si>
-  <si>
-    <t>Isaiah Roby</t>
-  </si>
-  <si>
-    <t>Thomas Bryant</t>
-  </si>
-  <si>
-    <t>Kelly Olynyk</t>
-  </si>
-  <si>
-    <t>Nerlens Noel</t>
+    <t>Donte DiVincenzo</t>
   </si>
   <si>
     <t>Duncan Robinson</t>
   </si>
   <si>
+    <t>Kevin Love</t>
+  </si>
+  <si>
     <t>Larry Nance Jr.</t>
   </si>
   <si>
-    <t>Kevin Love</t>
-  </si>
-  <si>
-    <t>Markelle Fultz</t>
-  </si>
-  <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
     <t>Jae Crowder</t>
   </si>
   <si>
@@ -544,13 +544,49 @@
     <t>Jaden Ivey</t>
   </si>
   <si>
+    <t>Victor Oladipo</t>
+  </si>
+  <si>
+    <t>T.J. Warren</t>
+  </si>
+  <si>
+    <t>Obi Toppin</t>
+  </si>
+  <si>
     <t>Joe Ingles</t>
   </si>
   <si>
-    <t>T.J. Warren</t>
-  </si>
-  <si>
-    <t>Victor Oladipo</t>
+    <t>Darius Bazley</t>
+  </si>
+  <si>
+    <t>Bruce Brown Jr.</t>
+  </si>
+  <si>
+    <t>Otto Porter Jr.</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Killian Hayes</t>
+  </si>
+  <si>
+    <t>Montrezl Harrell</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Josh Richardson</t>
+  </si>
+  <si>
+    <t>Isaac Okoro</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
+    <t>Maxi Kleber</t>
   </si>
   <si>
     <t>Nickeil AlexanderWalker</t>
@@ -559,513 +595,492 @@
     <t>Thaddeus Young</t>
   </si>
   <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Xavier Tillman</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Kevon Looney</t>
+  </si>
+  <si>
+    <t>Patrick Beverley</t>
+  </si>
+  <si>
+    <t>Derrick Rose</t>
+  </si>
+  <si>
+    <t>Herbert Jones</t>
+  </si>
+  <si>
     <t>Dennis Schroder</t>
   </si>
   <si>
-    <t>Otto Porter Jr.</t>
-  </si>
-  <si>
-    <t>Darius Bazley</t>
-  </si>
-  <si>
-    <t>Killian Hayes</t>
-  </si>
-  <si>
-    <t>Derrick Rose</t>
-  </si>
-  <si>
-    <t>Obi Toppin</t>
-  </si>
-  <si>
-    <t>Josh Richardson</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
-    <t>Bruce Brown Jr.</t>
-  </si>
-  <si>
-    <t>Maxi Kleber</t>
-  </si>
-  <si>
-    <t>Montrezl Harrell</t>
-  </si>
-  <si>
-    <t>Isaac Okoro</t>
-  </si>
-  <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Reggie Bullock</t>
+  </si>
+  <si>
+    <t>Alec Burks</t>
+  </si>
+  <si>
+    <t>Lonnie Walker IV</t>
+  </si>
+  <si>
+    <t>Kemba Walker</t>
+  </si>
+  <si>
+    <t>Bennedict Mathurin</t>
+  </si>
+  <si>
+    <t>Justin Holiday</t>
+  </si>
+  <si>
+    <t>Ricky Rubio</t>
+  </si>
+  <si>
+    <t>Kendrick Nunn</t>
+  </si>
+  <si>
+    <t>Terrence Ross</t>
+  </si>
+  <si>
+    <t>P.J. Tucker</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Jaxson Hayes</t>
   </si>
   <si>
     <t>Danilo Gallinari</t>
   </si>
   <si>
-    <t>Kemba Walker</t>
-  </si>
-  <si>
-    <t>Patrick Beverley</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
+    <t>Derrick Favors</t>
   </si>
   <si>
     <t>Hassan Whiteside</t>
   </si>
   <si>
-    <t>Derrick Favors</t>
-  </si>
-  <si>
-    <t>Kevon Looney</t>
-  </si>
-  <si>
-    <t>Terrence Ross</t>
-  </si>
-  <si>
-    <t>Lonnie Walker IV</t>
-  </si>
-  <si>
-    <t>Alec Burks</t>
-  </si>
-  <si>
-    <t>Reggie Bullock</t>
-  </si>
-  <si>
-    <t>Xavier Tillman</t>
+    <t>Jalen Smith</t>
+  </si>
+  <si>
+    <t>Nicolas Batum</t>
+  </si>
+  <si>
+    <t>Khem Birch</t>
+  </si>
+  <si>
+    <t>Cam Reddish</t>
+  </si>
+  <si>
+    <t>Precious Achiuwa</t>
   </si>
   <si>
     <t>Eric Bledsoe</t>
   </si>
   <si>
-    <t>Justin Holiday</t>
-  </si>
-  <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Kendrick Nunn</t>
-  </si>
-  <si>
-    <t>Ricky Rubio</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>Nicolas Batum</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Bennedict Mathurin</t>
-  </si>
-  <si>
-    <t>Jalen Smith</t>
+    <t>Danny Green</t>
+  </si>
+  <si>
+    <t>Facundo Campazzo</t>
+  </si>
+  <si>
+    <t>Cameron Payne</t>
+  </si>
+  <si>
+    <t>Davis Bertans</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Terance Mann</t>
   </si>
   <si>
     <t>Daniel Theis</t>
   </si>
   <si>
-    <t>Khem Birch</t>
-  </si>
-  <si>
-    <t>Herbert Jones</t>
-  </si>
-  <si>
-    <t>P.J. Tucker</t>
+    <t>Bones Hyland</t>
+  </si>
+  <si>
+    <t>Goran Dragic</t>
+  </si>
+  <si>
+    <t>Juan ToscanoAnderson</t>
+  </si>
+  <si>
+    <t>Onyeka Okongwu</t>
+  </si>
+  <si>
+    <t>Delon Wright</t>
   </si>
   <si>
     <t>Eric Gordon</t>
   </si>
   <si>
-    <t>Cam Reddish</t>
-  </si>
-  <si>
-    <t>Precious Achiuwa</t>
-  </si>
-  <si>
-    <t>Danny Green</t>
-  </si>
-  <si>
-    <t>Jaxson Hayes</t>
-  </si>
-  <si>
-    <t>Facundo Campazzo</t>
-  </si>
-  <si>
-    <t>Cameron Payne</t>
-  </si>
-  <si>
-    <t>Goran Dragic</t>
-  </si>
-  <si>
-    <t>Davis Bertans</t>
-  </si>
-  <si>
-    <t>Terance Mann</t>
-  </si>
-  <si>
-    <t>Juan ToscanoAnderson</t>
-  </si>
-  <si>
-    <t>Delon Wright</t>
-  </si>
-  <si>
     <t>Luke Kennard</t>
   </si>
   <si>
+    <t>KJ Martin Jr.</t>
+  </si>
+  <si>
+    <t>Alex Caruso</t>
+  </si>
+  <si>
+    <t>Tre Jones</t>
+  </si>
+  <si>
+    <t>Jarred Vanderbilt</t>
+  </si>
+  <si>
+    <t>Moses Moody</t>
+  </si>
+  <si>
+    <t>Theo Maledon</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Jalen McDaniels</t>
+  </si>
+  <si>
+    <t>Moses Brown</t>
+  </si>
+  <si>
+    <t>Dewayne Dedmon</t>
+  </si>
+  <si>
+    <t>Serge Ibaka</t>
+  </si>
+  <si>
+    <t>Dwight Powell</t>
+  </si>
+  <si>
+    <t>Naz Reid</t>
+  </si>
+  <si>
     <t>Blake Griffin</t>
   </si>
   <si>
-    <t>Serge Ibaka</t>
-  </si>
-  <si>
-    <t>KJ Martin Jr.</t>
-  </si>
-  <si>
-    <t>Onyeka Okongwu</t>
+    <t>Isaiah Hartenstein</t>
+  </si>
+  <si>
+    <t>Rudy Gay</t>
+  </si>
+  <si>
+    <t>Chris Duarte</t>
+  </si>
+  <si>
+    <t>Carmelo Anthony</t>
   </si>
   <si>
     <t>Cody Zeller</t>
   </si>
   <si>
-    <t>Carmelo Anthony</t>
-  </si>
-  <si>
     <t>Dwight Howard</t>
   </si>
   <si>
-    <t>Bones Hyland</t>
-  </si>
-  <si>
-    <t>Rudy Gay</t>
+    <t>LaMarcus Aldridge</t>
+  </si>
+  <si>
+    <t>JaVale McGee</t>
   </si>
   <si>
     <t>Tomas Satoransky</t>
   </si>
   <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Theo Maledon</t>
-  </si>
-  <si>
-    <t>LaMarcus Aldridge</t>
-  </si>
-  <si>
-    <t>Moses Moody</t>
-  </si>
-  <si>
-    <t>Moses Brown</t>
+    <t>Doug McDermott</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
   </si>
   <si>
     <t>Enes Freedom</t>
   </si>
   <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Dewayne Dedmon</t>
-  </si>
-  <si>
-    <t>Dwight Powell</t>
-  </si>
-  <si>
-    <t>Naz Reid</t>
-  </si>
-  <si>
     <t>Paul Millsap</t>
   </si>
   <si>
+    <t>Dario Saric</t>
+  </si>
+  <si>
     <t>Jeremy Lamb</t>
   </si>
   <si>
-    <t>Tre Jones</t>
+    <t>Malachi Flynn</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
   </si>
   <si>
     <t>Isaiah Jackson</t>
   </si>
   <si>
-    <t>Jarred Vanderbilt</t>
-  </si>
-  <si>
-    <t>Alex Caruso</t>
-  </si>
-  <si>
-    <t>Dario Saric</t>
-  </si>
-  <si>
     <t>Mark Williams</t>
   </si>
   <si>
-    <t>Isaiah Hartenstein</t>
-  </si>
-  <si>
-    <t>JaVale McGee</t>
-  </si>
-  <si>
-    <t>Doug McDermott</t>
-  </si>
-  <si>
-    <t>Malachi Flynn</t>
-  </si>
-  <si>
-    <t>Jalen McDaniels</t>
-  </si>
-  <si>
-    <t>Chris Duarte</t>
+    <t>Kentavious CaldwellPope</t>
+  </si>
+  <si>
+    <t>Davion Mitchell</t>
+  </si>
+  <si>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
   </si>
   <si>
     <t>DeAndre Jordan</t>
   </si>
   <si>
+    <t>Gary Payton II</t>
+  </si>
+  <si>
+    <t>Cody Martin</t>
+  </si>
+  <si>
+    <t>Caleb Martin</t>
+  </si>
+  <si>
+    <t>Grant Williams</t>
+  </si>
+  <si>
     <t>Tristan Thompson</t>
   </si>
   <si>
-    <t>Kentavious CaldwellPope</t>
-  </si>
-  <si>
-    <t>Gary Payton II</t>
-  </si>
-  <si>
     <t>Josh Jackson</t>
   </si>
   <si>
-    <t>Cody Martin</t>
-  </si>
-  <si>
-    <t>Caleb Martin</t>
+    <t>Max Strus</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Pat Connaughton</t>
+  </si>
+  <si>
+    <t>Shake Milton</t>
   </si>
   <si>
     <t>Lou Williams</t>
   </si>
   <si>
-    <t>Shake Milton</t>
-  </si>
-  <si>
-    <t>Grant Williams</t>
+    <t>Malik Monk</t>
   </si>
   <si>
     <t>Damian Jones</t>
   </si>
   <si>
-    <t>Malik Monk</t>
-  </si>
-  <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Davion Mitchell</t>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Nassir Little</t>
   </si>
   <si>
     <t>Jalen Williams</t>
   </si>
   <si>
-    <t>Max Strus</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Nassir Little</t>
-  </si>
-  <si>
-    <t>Quentin Grimes</t>
-  </si>
-  <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>Pat Connaughton</t>
-  </si>
-  <si>
-    <t>Jose Alvarado</t>
-  </si>
-  <si>
     <t>Zach Collins</t>
   </si>
   <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>JaMychal Green</t>
+  </si>
+  <si>
+    <t>Joshua Primo</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Johnny Davis</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
     <t>Isaiah Livers</t>
   </si>
   <si>
-    <t>Johnny Davis</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Joshua Primo</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
+    <t>Talen HortonTucker</t>
+  </si>
+  <si>
+    <t>Josh Christopher</t>
+  </si>
+  <si>
+    <t>Drew Eubanks</t>
+  </si>
+  <si>
+    <t>Jaylen Nowell</t>
+  </si>
+  <si>
+    <t>Malaki Branham</t>
   </si>
   <si>
     <t>Ziaire Williams</t>
   </si>
   <si>
-    <t>Josh Christopher</t>
-  </si>
-  <si>
-    <t>Drew Eubanks</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
-    <t>Talen HortonTucker</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
+    <t>Gabe Vincent</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Trendon Watford</t>
   </si>
   <si>
     <t>Paul Reed</t>
   </si>
   <si>
+    <t>Tre Mann</t>
+  </si>
+  <si>
+    <t>Corey Kispert</t>
+  </si>
+  <si>
+    <t>Chimezie Metu</t>
+  </si>
+  <si>
+    <t>Ty Jerome</t>
+  </si>
+  <si>
+    <t>Trevor Keels</t>
+  </si>
+  <si>
+    <t>Ochai Agbaji</t>
+  </si>
+  <si>
+    <t>Jaylin Williams</t>
+  </si>
+  <si>
+    <t>Day'Ron Sharpe</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>TyTy Washington Jr.</t>
+  </si>
+  <si>
     <t>Nemanja Bjelica</t>
   </si>
   <si>
     <t>Jeremiah RobinsonEarl</t>
   </si>
   <si>
-    <t>Jaylen Nowell</t>
+    <t>Shaedon Sharpe</t>
   </si>
   <si>
     <t>Elfrid Payton</t>
   </si>
   <si>
-    <t>Trevor Keels</t>
+    <t>Patty Mills</t>
+  </si>
+  <si>
+    <t>Zeke Nnaji</t>
   </si>
   <si>
     <t>Trevor Ariza</t>
   </si>
   <si>
-    <t>TyTy Washington Jr.</t>
-  </si>
-  <si>
-    <t>Ty Jerome</t>
+    <t>Payton Pritchard</t>
   </si>
   <si>
     <t>Udoka Azubuike</t>
   </si>
   <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Malaki Branham</t>
+    <t>Trey Lyles</t>
+  </si>
+  <si>
+    <t>Usman Garuba</t>
+  </si>
+  <si>
+    <t>Omer Yurtseven</t>
   </si>
   <si>
     <t>Jake LaRavia</t>
   </si>
   <si>
-    <t>Tre Mann</t>
-  </si>
-  <si>
-    <t>Day'Ron Sharpe</t>
-  </si>
-  <si>
-    <t>Ochai Agbaji</t>
-  </si>
-  <si>
-    <t>Jaylin Williams</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>Trendon Watford</t>
-  </si>
-  <si>
-    <t>Corey Kispert</t>
-  </si>
-  <si>
-    <t>Shaedon Sharpe</t>
+    <t>Georges Niang</t>
+  </si>
+  <si>
+    <t>Terence Davis II</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
+    <t>Oshae Brissett</t>
+  </si>
+  <si>
+    <t>Jordan McLaughlin</t>
+  </si>
+  <si>
+    <t>Landry Shamet</t>
+  </si>
+  <si>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
+    <t>Bismack Biyombo</t>
+  </si>
+  <si>
+    <t>Jaden Hardy</t>
   </si>
   <si>
     <t>Jeff Green</t>
   </si>
   <si>
-    <t>JaMychal Green</t>
-  </si>
-  <si>
-    <t>Zeke Nnaji</t>
-  </si>
-  <si>
-    <t>Gabe Vincent</t>
+    <t>Gary Harris</t>
+  </si>
+  <si>
+    <t>AJ Griffin</t>
   </si>
   <si>
     <t>John Konchar</t>
   </si>
   <si>
-    <t>Omer Yurtseven</t>
-  </si>
-  <si>
-    <t>Goga Bitadze</t>
+    <t>Jericho Sims</t>
+  </si>
+  <si>
+    <t>Garrison Mathews</t>
+  </si>
+  <si>
+    <t>Aaron Nesmith</t>
+  </si>
+  <si>
+    <t>Jared Butler</t>
   </si>
   <si>
     <t>Kenrich Williams</t>
   </si>
   <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Garrison Mathews</t>
-  </si>
-  <si>
-    <t>Jordan McLaughlin</t>
-  </si>
-  <si>
-    <t>Taurean Prince</t>
-  </si>
-  <si>
-    <t>Oshae Brissett</t>
-  </si>
-  <si>
-    <t>Aaron Nesmith</t>
-  </si>
-  <si>
     <t>Torrey Craig</t>
   </si>
   <si>
-    <t>Patty Mills</t>
-  </si>
-  <si>
-    <t>Usman Garuba</t>
-  </si>
-  <si>
     <t>Ousmane Dieng</t>
   </si>
   <si>
-    <t>Gary Harris</t>
-  </si>
-  <si>
-    <t>Terence Davis II</t>
-  </si>
-  <si>
     <t>Josh Green</t>
   </si>
   <si>
-    <t>AJ Griffin</t>
-  </si>
-  <si>
-    <t>Trey Lyles</t>
-  </si>
-  <si>
-    <t>Georges Niang</t>
-  </si>
-  <si>
-    <t>Landry Shamet</t>
-  </si>
-  <si>
     <t>Christian Braun</t>
   </si>
   <si>
@@ -1084,9 +1099,6 @@
     <t>Dalen Terry</t>
   </si>
   <si>
-    <t>Bismack Biyombo</t>
-  </si>
-  <si>
     <t>Patrick Baldwin Jr.</t>
   </si>
   <si>
@@ -1105,9 +1117,6 @@
     <t>Christian Koloko</t>
   </si>
   <si>
-    <t>Jared Butler</t>
-  </si>
-  <si>
     <t>Max Christie</t>
   </si>
   <si>
@@ -1117,12 +1126,6 @@
     <t>Gabriele Procida</t>
   </si>
   <si>
-    <t>Chimezie Metu</t>
-  </si>
-  <si>
-    <t>Jaden Hardy</t>
-  </si>
-  <si>
     <t>Mike Muscala</t>
   </si>
   <si>
@@ -1186,9 +1189,6 @@
     <t>Karlo Matkovic</t>
   </si>
   <si>
-    <t>Jericho Sims</t>
-  </si>
-  <si>
     <t>JD Davison</t>
   </si>
   <si>
@@ -1237,18 +1237,18 @@
     <t>C,PF</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
+    <t>PG,SG,SF</t>
   </si>
   <si>
     <t>SF</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
@@ -1264,12 +1264,12 @@
     <t>SF,SG</t>
   </si>
   <si>
+    <t>SG,PG</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
-    <t>SG,PG</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -1279,12 +1279,12 @@
     <t>DEN</t>
   </si>
   <si>
+    <t>PHI</t>
+  </si>
+  <si>
     <t>MIL</t>
   </si>
   <si>
-    <t>PHI</t>
-  </si>
-  <si>
     <t>BKN</t>
   </si>
   <si>
@@ -1306,40 +1306,40 @@
     <t>POR</t>
   </si>
   <si>
+    <t>CHA</t>
+  </si>
+  <si>
     <t>LAL</t>
   </si>
   <si>
-    <t>CHA</t>
-  </si>
-  <si>
     <t>LAC</t>
   </si>
   <si>
     <t>PHO</t>
   </si>
   <si>
+    <t>MIA</t>
+  </si>
+  <si>
     <t>SAC</t>
   </si>
   <si>
-    <t>MIA</t>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>IND</t>
   </si>
   <si>
     <t>WAS</t>
   </si>
   <si>
-    <t>CLE</t>
-  </si>
-  <si>
-    <t>OKC</t>
+    <t>TOR</t>
   </si>
   <si>
     <t>MEM</t>
-  </si>
-  <si>
-    <t>TOR</t>
-  </si>
-  <si>
-    <t>IND</t>
   </si>
   <si>
     <t>CHI</t>
@@ -1867,10 +1867,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D10" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1881,10 +1881,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D11" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1909,7 +1909,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D13" t="s">
         <v>429</v>
@@ -1926,7 +1926,7 @@
         <v>396</v>
       </c>
       <c r="D14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1937,7 +1937,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D15" t="s">
         <v>430</v>
@@ -1979,7 +1979,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D18" t="s">
         <v>433</v>
@@ -1993,10 +1993,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2021,7 +2021,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D21" t="s">
         <v>435</v>
@@ -2063,10 +2063,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D24" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2077,10 +2077,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D25" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2094,7 +2094,7 @@
         <v>398</v>
       </c>
       <c r="D26" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2105,10 +2105,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D27" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2119,10 +2119,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D28" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2133,10 +2133,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D29" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2147,10 +2147,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D30" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2161,10 +2161,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D31" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2175,10 +2175,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D32" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2189,10 +2189,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D33" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2217,10 +2217,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D35" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2231,10 +2231,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D36" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2245,10 +2245,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D37" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2259,10 +2259,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D38" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2273,10 +2273,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D39" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2287,10 +2287,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D40" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2301,10 +2301,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D41" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2315,10 +2315,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D42" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2329,10 +2329,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D43" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2343,10 +2343,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="D44" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2357,10 +2357,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D45" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2374,7 +2374,7 @@
         <v>400</v>
       </c>
       <c r="D46" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2385,7 +2385,7 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D47" t="s">
         <v>442</v>
@@ -2399,10 +2399,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D48" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2427,10 +2427,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D50" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2469,10 +2469,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D53" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2483,10 +2483,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D54" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2497,10 +2497,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D55" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2528,7 +2528,7 @@
         <v>397</v>
       </c>
       <c r="D57" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2539,10 +2539,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D58" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2553,10 +2553,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D59" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2595,10 +2595,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D62" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2609,10 +2609,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D63" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2623,10 +2623,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D64" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2637,10 +2637,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D65" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2651,10 +2651,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D66" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2665,10 +2665,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D67" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2679,10 +2679,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D68" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2693,10 +2693,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D69" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2707,10 +2707,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D70" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2721,10 +2721,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D71" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2735,10 +2735,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D72" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2749,10 +2749,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D73" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2763,10 +2763,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D74" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2777,10 +2777,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D75" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2791,10 +2791,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="D76" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2805,10 +2805,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D77" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2819,10 +2819,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D78" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2833,10 +2833,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D79" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2847,10 +2847,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D80" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2861,10 +2861,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="D81" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2875,10 +2875,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D82" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2889,10 +2889,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D83" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2903,10 +2903,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D84" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2920,7 +2920,7 @@
         <v>404</v>
       </c>
       <c r="D85" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2931,10 +2931,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D86" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2945,10 +2945,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D87" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2959,10 +2959,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D88" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2973,10 +2973,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D89" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2990,7 +2990,7 @@
         <v>396</v>
       </c>
       <c r="D90" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3004,7 +3004,7 @@
         <v>396</v>
       </c>
       <c r="D91" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3015,10 +3015,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D92" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3029,10 +3029,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="D93" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3043,10 +3043,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D94" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3057,10 +3057,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D95" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3071,10 +3071,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D96" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3085,10 +3085,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D97" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3099,7 +3099,7 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="D98" t="s">
         <v>431</v>
@@ -3113,10 +3113,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D99" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3127,10 +3127,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D100" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3141,10 +3141,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D101" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3155,10 +3155,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D102" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3172,7 +3172,7 @@
         <v>396</v>
       </c>
       <c r="D103" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3183,10 +3183,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="D104" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3200,7 +3200,7 @@
         <v>398</v>
       </c>
       <c r="D105" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3225,10 +3225,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D107" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3239,10 +3239,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="D108" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3253,10 +3253,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D109" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3267,10 +3267,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D110" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3281,10 +3281,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D111" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3298,7 +3298,7 @@
         <v>404</v>
       </c>
       <c r="D112" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3309,10 +3309,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D113" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3323,10 +3323,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D114" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3340,7 +3340,7 @@
         <v>398</v>
       </c>
       <c r="D115" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3354,7 +3354,7 @@
         <v>398</v>
       </c>
       <c r="D116" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3365,10 +3365,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D117" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3382,7 +3382,7 @@
         <v>397</v>
       </c>
       <c r="D118" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3393,10 +3393,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D119" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3421,10 +3421,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="D121" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3435,10 +3435,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="D122" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3463,10 +3463,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D124" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3477,10 +3477,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D125" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3494,7 +3494,7 @@
         <v>404</v>
       </c>
       <c r="D126" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3508,7 +3508,7 @@
         <v>404</v>
       </c>
       <c r="D127" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3519,10 +3519,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D128" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3533,10 +3533,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D129" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3547,10 +3547,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D130" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3561,10 +3561,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D131" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3575,10 +3575,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D132" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3603,10 +3603,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D134" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3617,10 +3617,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D135" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3631,10 +3631,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D136" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3645,10 +3645,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D137" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3659,10 +3659,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D138" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3673,10 +3673,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D139" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3687,10 +3687,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D140" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3701,10 +3701,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D141" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3715,10 +3715,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D142" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3729,10 +3729,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D143" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3743,10 +3743,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D144" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3757,10 +3757,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D145" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3771,10 +3771,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D146" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3785,7 +3785,7 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D147" t="s">
         <v>446</v>
@@ -3799,10 +3799,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D148" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3813,10 +3813,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D149" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3827,10 +3827,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D150" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3844,7 +3844,7 @@
         <v>404</v>
       </c>
       <c r="D151" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3855,10 +3855,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D152" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3869,10 +3869,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D153" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3883,10 +3883,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D154" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3942,7 +3942,7 @@
         <v>404</v>
       </c>
       <c r="D158" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3953,10 +3953,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D159" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3981,10 +3981,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D161" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3995,10 +3995,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D162" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4023,10 +4023,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D164" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4037,10 +4037,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D165" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4051,10 +4051,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D166" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4065,10 +4065,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D167" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4079,10 +4079,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D168" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4149,10 +4149,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D173" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4177,10 +4177,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D175" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4191,10 +4191,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D176" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4205,10 +4205,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="D177" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4219,10 +4219,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D178" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4247,10 +4247,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D180" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4275,10 +4275,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D182" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4292,7 +4292,7 @@
         <v>397</v>
       </c>
       <c r="D183" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4317,10 +4317,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D185" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4331,10 +4331,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D186" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4359,10 +4359,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D188" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4373,10 +4373,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D189" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4387,10 +4387,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D190" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4401,10 +4401,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D191" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4415,10 +4415,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D192" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4429,10 +4429,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D193" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4443,10 +4443,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D194" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4460,7 +4460,7 @@
         <v>398</v>
       </c>
       <c r="D195" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4471,10 +4471,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D196" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4485,10 +4485,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D197" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4499,10 +4499,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D198" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4516,7 +4516,7 @@
         <v>404</v>
       </c>
       <c r="D199" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4530,7 +4530,7 @@
         <v>404</v>
       </c>
       <c r="D200" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4558,7 +4558,7 @@
         <v>404</v>
       </c>
       <c r="D202" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4569,10 +4569,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D203" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4583,10 +4583,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="D204" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4611,10 +4611,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D206" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4628,7 +4628,7 @@
         <v>398</v>
       </c>
       <c r="D207" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4639,10 +4639,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D208" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4653,10 +4653,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="D209" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4667,10 +4667,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D210" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4684,7 +4684,7 @@
         <v>399</v>
       </c>
       <c r="D211" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4695,10 +4695,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D212" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4709,10 +4709,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D213" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4726,7 +4726,7 @@
         <v>396</v>
       </c>
       <c r="D214" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4740,7 +4740,7 @@
         <v>396</v>
       </c>
       <c r="D215" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4751,10 +4751,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D216" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4765,10 +4765,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="D217" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4779,10 +4779,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D218" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4793,10 +4793,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D219" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4807,10 +4807,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D220" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4821,10 +4821,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D221" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4835,10 +4835,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D222" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4849,10 +4849,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D223" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4863,10 +4863,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D224" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4877,10 +4877,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D225" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4891,10 +4891,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="D226" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4908,7 +4908,7 @@
         <v>396</v>
       </c>
       <c r="D227" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4919,10 +4919,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="D228" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4933,10 +4933,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D229" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4947,10 +4947,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D230" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4961,10 +4961,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D231" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4975,10 +4975,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D232" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4989,10 +4989,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D233" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5003,10 +5003,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D234" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5017,10 +5017,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D235" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5031,10 +5031,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D236" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5045,10 +5045,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D237" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5059,10 +5059,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D238" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5073,10 +5073,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="D239" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5087,10 +5087,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D240" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5101,10 +5101,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="D241" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5115,10 +5115,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D242" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5129,10 +5129,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D243" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5143,10 +5143,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D244" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5157,10 +5157,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D245" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5171,10 +5171,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D246" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5188,7 +5188,7 @@
         <v>399</v>
       </c>
       <c r="D247" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5199,10 +5199,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="D248" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5213,10 +5213,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D249" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5227,10 +5227,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D250" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5241,10 +5241,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="D251" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5255,7 +5255,7 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D252" t="s">
         <v>449</v>
@@ -5269,7 +5269,7 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D253" t="s">
         <v>449</v>
@@ -5283,10 +5283,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D254" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5297,10 +5297,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D255" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5311,10 +5311,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D256" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5328,7 +5328,7 @@
         <v>398</v>
       </c>
       <c r="D257" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5339,10 +5339,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D258" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5353,10 +5353,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D259" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5367,10 +5367,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D260" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5381,10 +5381,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D261" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5395,10 +5395,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D262" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5409,10 +5409,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D263" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5423,10 +5423,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D264" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5437,10 +5437,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D265" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5451,10 +5451,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D266" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5465,10 +5465,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D267" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5479,7 +5479,7 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D268" t="s">
         <v>419</v>
@@ -5493,10 +5493,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="D269" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5507,10 +5507,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D270" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5524,7 +5524,7 @@
         <v>404</v>
       </c>
       <c r="D271" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5535,10 +5535,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="D272" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5552,7 +5552,7 @@
         <v>398</v>
       </c>
       <c r="D273" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5563,10 +5563,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D274" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5577,10 +5577,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="D275" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5591,10 +5591,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D276" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5605,10 +5605,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D277" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5619,10 +5619,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D278" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5633,7 +5633,7 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D279" t="s">
         <v>433</v>
@@ -5647,10 +5647,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D280" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5664,7 +5664,7 @@
         <v>404</v>
       </c>
       <c r="D281" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5678,7 +5678,7 @@
         <v>398</v>
       </c>
       <c r="D282" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5689,10 +5689,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D283" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5703,10 +5703,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D284" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5717,10 +5717,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D285" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5731,10 +5731,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D286" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5745,10 +5745,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D287" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5759,10 +5759,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D288" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5787,10 +5787,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D290" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5801,10 +5801,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="D291" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5815,10 +5815,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D292" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5832,7 +5832,7 @@
         <v>410</v>
       </c>
       <c r="D293" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5846,7 +5846,7 @@
         <v>410</v>
       </c>
       <c r="D294" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5857,10 +5857,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D295" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5874,7 +5874,7 @@
         <v>410</v>
       </c>
       <c r="D296" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5885,10 +5885,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D297" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5899,10 +5899,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D298" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5913,10 +5913,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D299" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5927,10 +5927,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="D300" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5941,10 +5941,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="D301" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5955,10 +5955,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D302" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5969,10 +5969,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="D303" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5983,10 +5983,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D304" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5997,10 +5997,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="D305" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6011,10 +6011,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D306" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6025,10 +6025,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D307" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6039,10 +6039,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="D308" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6053,10 +6053,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D309" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6067,10 +6067,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D310" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6081,10 +6081,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="D311" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6095,10 +6095,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D312" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6109,10 +6109,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D313" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6123,10 +6123,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="D314" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6151,10 +6151,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D316" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6165,10 +6165,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D317" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6179,10 +6179,10 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D318" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6196,7 +6196,7 @@
         <v>397</v>
       </c>
       <c r="D319" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6207,10 +6207,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D320" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6221,10 +6221,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D321" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6235,10 +6235,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D322" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6252,7 +6252,7 @@
         <v>396</v>
       </c>
       <c r="D323" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6263,10 +6263,10 @@
         <v>326</v>
       </c>
       <c r="C324" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D324" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6277,10 +6277,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D325" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6291,10 +6291,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="D326" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6305,7 +6305,7 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D327" t="s">
         <v>434</v>
@@ -6319,10 +6319,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D328" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6333,10 +6333,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D329" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6347,10 +6347,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D330" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6361,10 +6361,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D331" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6375,10 +6375,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D332" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6389,10 +6389,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D333" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6406,7 +6406,7 @@
         <v>397</v>
       </c>
       <c r="D334" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6417,10 +6417,10 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D335" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6431,7 +6431,7 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D336" t="s">
         <v>432</v>
@@ -6445,10 +6445,10 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D337" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6459,10 +6459,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D338" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6473,10 +6473,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D339" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6487,10 +6487,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D340" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6504,7 +6504,7 @@
         <v>404</v>
       </c>
       <c r="D341" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6515,10 +6515,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D342" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6529,10 +6529,10 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D343" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6543,10 +6543,10 @@
         <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D344" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6557,10 +6557,10 @@
         <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D345" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6571,10 +6571,10 @@
         <v>348</v>
       </c>
       <c r="C346" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D346" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6588,7 +6588,7 @@
         <v>410</v>
       </c>
       <c r="D347" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6599,10 +6599,10 @@
         <v>350</v>
       </c>
       <c r="C348" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D348" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6613,10 +6613,10 @@
         <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="D349" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6627,10 +6627,10 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D350" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6641,10 +6641,10 @@
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="D351" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6655,10 +6655,10 @@
         <v>354</v>
       </c>
       <c r="C352" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D352" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6669,10 +6669,10 @@
         <v>355</v>
       </c>
       <c r="C353" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D353" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6683,10 +6683,10 @@
         <v>356</v>
       </c>
       <c r="C354" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D354" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6697,10 +6697,10 @@
         <v>357</v>
       </c>
       <c r="C355" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D355" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6711,10 +6711,10 @@
         <v>358</v>
       </c>
       <c r="C356" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="D356" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6725,10 +6725,10 @@
         <v>359</v>
       </c>
       <c r="C357" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="D357" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6739,10 +6739,10 @@
         <v>360</v>
       </c>
       <c r="C358" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="D358" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6753,10 +6753,10 @@
         <v>361</v>
       </c>
       <c r="C359" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D359" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6767,10 +6767,10 @@
         <v>362</v>
       </c>
       <c r="C360" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D360" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6781,10 +6781,10 @@
         <v>363</v>
       </c>
       <c r="C361" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D361" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6795,10 +6795,10 @@
         <v>364</v>
       </c>
       <c r="C362" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D362" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6809,10 +6809,10 @@
         <v>365</v>
       </c>
       <c r="C363" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D363" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6823,10 +6823,10 @@
         <v>366</v>
       </c>
       <c r="C364" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="D364" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6837,10 +6837,10 @@
         <v>367</v>
       </c>
       <c r="C365" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="D365" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6851,10 +6851,10 @@
         <v>368</v>
       </c>
       <c r="C366" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="D366" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6865,10 +6865,10 @@
         <v>369</v>
       </c>
       <c r="C367" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D367" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6879,10 +6879,10 @@
         <v>370</v>
       </c>
       <c r="C368" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D368" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6893,10 +6893,10 @@
         <v>371</v>
       </c>
       <c r="C369" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D369" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6907,10 +6907,10 @@
         <v>372</v>
       </c>
       <c r="C370" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D370" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6921,10 +6921,10 @@
         <v>373</v>
       </c>
       <c r="C371" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="D371" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6935,10 +6935,10 @@
         <v>374</v>
       </c>
       <c r="C372" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D372" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -6949,10 +6949,10 @@
         <v>375</v>
       </c>
       <c r="C373" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D373" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -6963,10 +6963,10 @@
         <v>376</v>
       </c>
       <c r="C374" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D374" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -6977,10 +6977,10 @@
         <v>377</v>
       </c>
       <c r="C375" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D375" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6991,10 +6991,10 @@
         <v>378</v>
       </c>
       <c r="C376" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D376" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7005,10 +7005,10 @@
         <v>379</v>
       </c>
       <c r="C377" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="D377" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7019,10 +7019,10 @@
         <v>380</v>
       </c>
       <c r="C378" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D378" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7033,10 +7033,10 @@
         <v>381</v>
       </c>
       <c r="C379" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="D379" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7047,7 +7047,7 @@
         <v>382</v>
       </c>
       <c r="C380" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="D380" t="s">
         <v>440</v>
@@ -7061,10 +7061,10 @@
         <v>383</v>
       </c>
       <c r="C381" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D381" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7075,10 +7075,10 @@
         <v>384</v>
       </c>
       <c r="C382" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="D382" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7089,10 +7089,10 @@
         <v>385</v>
       </c>
       <c r="C383" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D383" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7103,10 +7103,10 @@
         <v>386</v>
       </c>
       <c r="C384" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D384" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7117,10 +7117,10 @@
         <v>387</v>
       </c>
       <c r="C385" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="D385" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7131,10 +7131,10 @@
         <v>388</v>
       </c>
       <c r="C386" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D386" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7145,10 +7145,10 @@
         <v>389</v>
       </c>
       <c r="C387" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D387" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7176,7 +7176,7 @@
         <v>399</v>
       </c>
       <c r="D389" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7187,7 +7187,7 @@
         <v>392</v>
       </c>
       <c r="C390" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D390" t="s">
         <v>424</v>
@@ -7215,7 +7215,7 @@
         <v>394</v>
       </c>
       <c r="C392" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D392" t="s">
         <v>428</v>
@@ -7232,7 +7232,7 @@
         <v>400</v>
       </c>
       <c r="D393" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -43,12 +43,12 @@
     <t>Kevin Durant</t>
   </si>
   <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
     <t>Jayson Tatum</t>
   </si>
   <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
     <t>Luka Doncic</t>
   </si>
   <si>
@@ -79,45 +79,45 @@
     <t>Devin Booker</t>
   </si>
   <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
     <t>Shai GilgeousAlexander</t>
   </si>
   <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
     <t>Dejounte Murray</t>
   </si>
   <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
     <t>Ja Morant</t>
   </si>
   <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
     <t>Anthony Edwards</t>
   </si>
   <si>
@@ -130,154 +130,160 @@
     <t>DeMar DeRozan</t>
   </si>
   <si>
+    <t>Robert Williams III</t>
+  </si>
+  <si>
+    <t>Jrue Holiday</t>
+  </si>
+  <si>
     <t>Pascal Siakam</t>
   </si>
   <si>
-    <t>Jrue Holiday</t>
-  </si>
-  <si>
-    <t>Robert Williams III</t>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
   </si>
   <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
+    <t>Khris Middleton</t>
   </si>
   <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
     <t>Myles Turner</t>
   </si>
   <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>De'Aaron Fox</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
+    <t>Cade Cunningham</t>
+  </si>
+  <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>De'Aaron Fox</t>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Terry Rozier</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
   </si>
   <si>
     <t>Zion Williamson</t>
   </si>
   <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Cade Cunningham</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Jonas Valanciunas</t>
-  </si>
-  <si>
     <t>Mikal Bridges</t>
   </si>
   <si>
-    <t>Terry Rozier</t>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Julius Randle</t>
   </si>
   <si>
     <t>OG Anunoby</t>
   </si>
   <si>
-    <t>Julius Randle</t>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
   </si>
   <si>
     <t>Christian Wood</t>
   </si>
   <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
     <t>Evan Mobley</t>
   </si>
   <si>
-    <t>John Collins</t>
-  </si>
-  <si>
     <t>Jusuf Nurkic</t>
   </si>
   <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
     <t>Jakob Poeltl</t>
   </si>
   <si>
-    <t>D'Angelo Russell</t>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Clint Capela</t>
   </si>
   <si>
     <t>Ben Simmons</t>
   </si>
   <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
     <t>Draymond Green</t>
   </si>
   <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
     <t>Scottie Barnes</t>
   </si>
   <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
     <t>Marcus Smart</t>
   </si>
   <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Wendell Carter Jr.</t>
+    <t>Keldon Johnson</t>
   </si>
   <si>
     <t>Buddy Hield</t>
   </si>
   <si>
+    <t>Saddiq Bey</t>
+  </si>
+  <si>
     <t>Kyle Lowry</t>
   </si>
   <si>
-    <t>Saddiq Bey</t>
+    <t>Jalen Green</t>
   </si>
   <si>
     <t>Tyler Herro</t>
   </si>
   <si>
-    <t>Keldon Johnson</t>
+    <t>Mitchell Robinson</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
   </si>
   <si>
     <t>Josh Giddey</t>
   </si>
   <si>
-    <t>Mitchell Robinson</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
+    <t>Gordon Hayward</t>
   </si>
   <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Gordon Hayward</t>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
   </si>
   <si>
     <t>RJ Barrett</t>
@@ -286,78 +292,72 @@
     <t>Malcolm Brogdon</t>
   </si>
   <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
     <t>Russell Westbrook III</t>
   </si>
   <si>
-    <t>Klay Thompson</t>
+    <t>Al Horford</t>
+  </si>
+  <si>
+    <t>Harrison Barnes</t>
   </si>
   <si>
     <t>Kyle Kuzma</t>
   </si>
   <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Al Horford</t>
-  </si>
-  <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
-    <t>Harrison Barnes</t>
+    <t>Ivica Zubac</t>
   </si>
   <si>
     <t>Mike Conley</t>
   </si>
   <si>
+    <t>Brandon Clarke</t>
+  </si>
+  <si>
+    <t>Bobby Portis Jr.</t>
+  </si>
+  <si>
+    <t>Isaiah Stewart</t>
+  </si>
+  <si>
     <t>Brook Lopez</t>
   </si>
   <si>
+    <t>Robert Covington</t>
+  </si>
+  <si>
     <t>Norman Powell</t>
   </si>
   <si>
-    <t>Isaiah Stewart</t>
-  </si>
-  <si>
-    <t>Robert Covington</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
     <t>Kevin Porter Jr.</t>
   </si>
   <si>
-    <t>Bobby Portis Jr.</t>
-  </si>
-  <si>
     <t>Bogdan Bogdanovic</t>
   </si>
   <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
+    <t>Alperen Sengun</t>
+  </si>
+  <si>
     <t>Jaren Jackson Jr.</t>
   </si>
   <si>
-    <t>Brandon Clarke</t>
-  </si>
-  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Spencer Dinwiddie</t>
+    <t>Gary Trent Jr.</t>
   </si>
   <si>
     <t>Jamal Murray</t>
   </si>
   <si>
-    <t>Gary Trent Jr.</t>
-  </si>
-  <si>
-    <t>Alperen Sengun</t>
-  </si>
-  <si>
     <t>Mo Bamba</t>
   </si>
   <si>
@@ -376,217 +376,235 @@
     <t>Jordan Clarkson</t>
   </si>
   <si>
+    <t>De'Anthony Melton</t>
+  </si>
+  <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
+    <t>Dorian FinneySmith</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
     <t>Kyle Anderson</t>
   </si>
   <si>
     <t>Jalen Suggs</t>
   </si>
   <si>
-    <t>Dorian FinneySmith</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>De'Anthony Melton</t>
+    <t>Richaun Holmes</t>
   </si>
   <si>
     <t>Aaron Gordon</t>
   </si>
   <si>
-    <t>Richaun Holmes</t>
-  </si>
-  <si>
     <t>Jae'Sean Tate</t>
   </si>
   <si>
+    <t>Chris Boucher</t>
+  </si>
+  <si>
     <t>Will Barton</t>
   </si>
   <si>
     <t>Dillon Brooks</t>
   </si>
   <si>
+    <t>Nic Claxton</t>
+  </si>
+  <si>
     <t>Josh Hart</t>
   </si>
   <si>
-    <t>Chris Boucher</t>
-  </si>
-  <si>
     <t>Cole Anthony</t>
   </si>
   <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Steven Adams</t>
+  </si>
+  <si>
+    <t>Evan Fournier</t>
+  </si>
+  <si>
+    <t>Patrick Williams</t>
+  </si>
+  <si>
+    <t>Monte Morris</t>
+  </si>
+  <si>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
-    <t>Evan Fournier</t>
-  </si>
-  <si>
-    <t>Nic Claxton</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Steven Adams</t>
-  </si>
-  <si>
-    <t>Royce O'Neale</t>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Mason Plumlee</t>
   </si>
   <si>
     <t>John Wall</t>
   </si>
   <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>Patrick Williams</t>
-  </si>
-  <si>
-    <t>Monte Morris</t>
+    <t>Devonte' Graham</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Jonathan Isaac</t>
+  </si>
+  <si>
+    <t>Chuma Okeke</t>
   </si>
   <si>
     <t>Keegan Murray</t>
   </si>
   <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Mason Plumlee</t>
-  </si>
-  <si>
-    <t>Devonte' Graham</t>
-  </si>
-  <si>
-    <t>Jonathan Isaac</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Chuma Okeke</t>
+    <t>Kevin Huerter</t>
   </si>
   <si>
     <t>T.J. McConnell</t>
   </si>
   <si>
+    <t>Luguentz Dort</t>
+  </si>
+  <si>
     <t>Andre Drummond</t>
   </si>
   <si>
-    <t>Luguentz Dort</t>
-  </si>
-  <si>
-    <t>Kevin Huerter</t>
+    <t>Seth Curry</t>
+  </si>
+  <si>
+    <t>Aleksej Pokusevski</t>
   </si>
   <si>
     <t>Marvin Bagley III</t>
   </si>
   <si>
-    <t>Aleksej Pokusevski</t>
+    <t>Tim Hardaway Jr.</t>
+  </si>
+  <si>
+    <t>Joe Harris</t>
+  </si>
+  <si>
+    <t>Matisse Thybulle</t>
   </si>
   <si>
     <t>James Wiseman</t>
   </si>
   <si>
-    <t>Tim Hardaway Jr.</t>
-  </si>
-  <si>
-    <t>Seth Curry</t>
-  </si>
-  <si>
-    <t>Joe Harris</t>
-  </si>
-  <si>
-    <t>Matisse Thybulle</t>
-  </si>
-  <si>
     <t>Markelle Fultz</t>
   </si>
   <si>
+    <t>Thomas Bryant</t>
+  </si>
+  <si>
+    <t>Duncan Robinson</t>
+  </si>
+  <si>
+    <t>Kelly Olynyk</t>
+  </si>
+  <si>
     <t>Isaiah Roby</t>
   </si>
   <si>
-    <t>Kelly Olynyk</t>
-  </si>
-  <si>
-    <t>Thomas Bryant</t>
+    <t>Kevin Love</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
   </si>
   <si>
     <t>Nerlens Noel</t>
   </si>
   <si>
+    <t>Jae Crowder</t>
+  </si>
+  <si>
+    <t>Larry Nance Jr.</t>
+  </si>
+  <si>
+    <t>Marcus Morris Sr.</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Obi Toppin</t>
+  </si>
+  <si>
+    <t>Victor Oladipo</t>
+  </si>
+  <si>
+    <t>Darius Bazley</t>
+  </si>
+  <si>
     <t>Miles Bridges</t>
   </si>
   <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
-    <t>Duncan Robinson</t>
-  </si>
-  <si>
-    <t>Kevin Love</t>
-  </si>
-  <si>
-    <t>Larry Nance Jr.</t>
-  </si>
-  <si>
-    <t>Jae Crowder</t>
-  </si>
-  <si>
-    <t>Marcus Morris Sr.</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
+    <t>Bruce Brown Jr.</t>
+  </si>
+  <si>
+    <t>Herbert Jones</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>T.J. Warren</t>
+  </si>
+  <si>
+    <t>Killian Hayes</t>
+  </si>
+  <si>
+    <t>Otto Porter Jr.</t>
+  </si>
+  <si>
+    <t>Joe Ingles</t>
   </si>
   <si>
     <t>Jaden Ivey</t>
   </si>
   <si>
-    <t>Victor Oladipo</t>
-  </si>
-  <si>
-    <t>T.J. Warren</t>
-  </si>
-  <si>
-    <t>Obi Toppin</t>
-  </si>
-  <si>
-    <t>Joe Ingles</t>
-  </si>
-  <si>
-    <t>Darius Bazley</t>
-  </si>
-  <si>
-    <t>Bruce Brown Jr.</t>
-  </si>
-  <si>
-    <t>Otto Porter Jr.</t>
-  </si>
-  <si>
     <t>Anfernee Simons</t>
   </si>
   <si>
-    <t>Killian Hayes</t>
+    <t>Rui Hachimura</t>
   </si>
   <si>
     <t>Montrezl Harrell</t>
   </si>
   <si>
-    <t>Rui Hachimura</t>
+    <t>Maxi Kleber</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
   </si>
   <si>
     <t>Josh Richardson</t>
   </si>
   <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
     <t>Isaac Okoro</t>
   </si>
   <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
-    <t>Maxi Kleber</t>
+    <t>Kevon Looney</t>
+  </si>
+  <si>
+    <t>Xavier Tillman</t>
+  </si>
+  <si>
+    <t>Coby White</t>
   </si>
   <si>
     <t>Nickeil AlexanderWalker</t>
@@ -595,115 +613,121 @@
     <t>Thaddeus Young</t>
   </si>
   <si>
+    <t>Reggie Bullock</t>
+  </si>
+  <si>
+    <t>Patrick Beverley</t>
+  </si>
+  <si>
+    <t>Jalen Smith</t>
+  </si>
+  <si>
+    <t>Alec Burks</t>
+  </si>
+  <si>
+    <t>Precious Achiuwa</t>
+  </si>
+  <si>
+    <t>Dennis Schroder</t>
+  </si>
+  <si>
+    <t>Derrick Rose</t>
+  </si>
+  <si>
+    <t>P.J. Tucker</t>
+  </si>
+  <si>
+    <t>Lonnie Walker IV</t>
+  </si>
+  <si>
+    <t>Kendrick Nunn</t>
+  </si>
+  <si>
+    <t>Justin Holiday</t>
+  </si>
+  <si>
+    <t>Kemba Walker</t>
+  </si>
+  <si>
+    <t>Ricky Rubio</t>
+  </si>
+  <si>
     <t>Jalen Duren</t>
   </si>
   <si>
-    <t>Xavier Tillman</t>
-  </si>
-  <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>Kevon Looney</t>
-  </si>
-  <si>
-    <t>Patrick Beverley</t>
-  </si>
-  <si>
-    <t>Derrick Rose</t>
-  </si>
-  <si>
-    <t>Herbert Jones</t>
-  </si>
-  <si>
-    <t>Dennis Schroder</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Reggie Bullock</t>
-  </si>
-  <si>
-    <t>Alec Burks</t>
-  </si>
-  <si>
-    <t>Lonnie Walker IV</t>
-  </si>
-  <si>
-    <t>Kemba Walker</t>
+    <t>Cameron Payne</t>
+  </si>
+  <si>
+    <t>Jaxson Hayes</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Terance Mann</t>
+  </si>
+  <si>
+    <t>Delon Wright</t>
+  </si>
+  <si>
+    <t>Terrence Ross</t>
   </si>
   <si>
     <t>Bennedict Mathurin</t>
   </si>
   <si>
-    <t>Justin Holiday</t>
-  </si>
-  <si>
-    <t>Ricky Rubio</t>
-  </si>
-  <si>
-    <t>Kendrick Nunn</t>
-  </si>
-  <si>
-    <t>Terrence Ross</t>
-  </si>
-  <si>
-    <t>P.J. Tucker</t>
+    <t>Luke Kennard</t>
+  </si>
+  <si>
+    <t>Danilo Gallinari</t>
+  </si>
+  <si>
+    <t>Nicolas Batum</t>
+  </si>
+  <si>
+    <t>Cam Reddish</t>
+  </si>
+  <si>
+    <t>Hassan Whiteside</t>
+  </si>
+  <si>
+    <t>Derrick Favors</t>
+  </si>
+  <si>
+    <t>Khem Birch</t>
+  </si>
+  <si>
+    <t>Tre Jones</t>
+  </si>
+  <si>
+    <t>Jarred Vanderbilt</t>
+  </si>
+  <si>
+    <t>Facundo Campazzo</t>
+  </si>
+  <si>
+    <t>Juan ToscanoAnderson</t>
+  </si>
+  <si>
+    <t>Onyeka Okongwu</t>
+  </si>
+  <si>
+    <t>Eric Bledsoe</t>
+  </si>
+  <si>
+    <t>Davis Bertans</t>
   </si>
   <si>
     <t>Walker Kessler</t>
   </si>
   <si>
-    <t>Jaxson Hayes</t>
-  </si>
-  <si>
-    <t>Danilo Gallinari</t>
-  </si>
-  <si>
-    <t>Derrick Favors</t>
-  </si>
-  <si>
-    <t>Hassan Whiteside</t>
-  </si>
-  <si>
-    <t>Jalen Smith</t>
-  </si>
-  <si>
-    <t>Nicolas Batum</t>
-  </si>
-  <si>
-    <t>Khem Birch</t>
-  </si>
-  <si>
-    <t>Cam Reddish</t>
-  </si>
-  <si>
-    <t>Precious Achiuwa</t>
-  </si>
-  <si>
-    <t>Eric Bledsoe</t>
-  </si>
-  <si>
     <t>Danny Green</t>
   </si>
   <si>
-    <t>Facundo Campazzo</t>
-  </si>
-  <si>
-    <t>Cameron Payne</t>
-  </si>
-  <si>
-    <t>Davis Bertans</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Terance Mann</t>
+    <t>Goran Dragic</t>
+  </si>
+  <si>
+    <t>Eric Gordon</t>
   </si>
   <si>
     <t>Daniel Theis</t>
@@ -712,357 +736,333 @@
     <t>Bones Hyland</t>
   </si>
   <si>
-    <t>Goran Dragic</t>
-  </si>
-  <si>
-    <t>Juan ToscanoAnderson</t>
-  </si>
-  <si>
-    <t>Onyeka Okongwu</t>
-  </si>
-  <si>
-    <t>Delon Wright</t>
-  </si>
-  <si>
-    <t>Eric Gordon</t>
-  </si>
-  <si>
-    <t>Luke Kennard</t>
+    <t>Dewayne Dedmon</t>
   </si>
   <si>
     <t>KJ Martin Jr.</t>
   </si>
   <si>
+    <t>Dwight Powell</t>
+  </si>
+  <si>
+    <t>Naz Reid</t>
+  </si>
+  <si>
+    <t>Isaiah Hartenstein</t>
+  </si>
+  <si>
+    <t>Chris Duarte</t>
+  </si>
+  <si>
     <t>Alex Caruso</t>
   </si>
   <si>
-    <t>Tre Jones</t>
-  </si>
-  <si>
-    <t>Jarred Vanderbilt</t>
-  </si>
-  <si>
     <t>Moses Moody</t>
   </si>
   <si>
+    <t>Moses Brown</t>
+  </si>
+  <si>
+    <t>JaVale McGee</t>
+  </si>
+  <si>
     <t>Theo Maledon</t>
   </si>
   <si>
+    <t>Doug McDermott</t>
+  </si>
+  <si>
+    <t>Jalen McDaniels</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Serge Ibaka</t>
+  </si>
+  <si>
     <t>Tari Eason</t>
   </si>
   <si>
-    <t>Jalen McDaniels</t>
-  </si>
-  <si>
-    <t>Moses Brown</t>
-  </si>
-  <si>
-    <t>Dewayne Dedmon</t>
-  </si>
-  <si>
-    <t>Serge Ibaka</t>
-  </si>
-  <si>
-    <t>Dwight Powell</t>
-  </si>
-  <si>
-    <t>Naz Reid</t>
+    <t>Dario Saric</t>
+  </si>
+  <si>
+    <t>Rudy Gay</t>
   </si>
   <si>
     <t>Blake Griffin</t>
   </si>
   <si>
-    <t>Isaiah Hartenstein</t>
-  </si>
-  <si>
-    <t>Rudy Gay</t>
-  </si>
-  <si>
-    <t>Chris Duarte</t>
+    <t>Malachi Flynn</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>LaMarcus Aldridge</t>
+  </si>
+  <si>
+    <t>Cody Zeller</t>
   </si>
   <si>
     <t>Carmelo Anthony</t>
   </si>
   <si>
-    <t>Cody Zeller</t>
+    <t>Isaiah Jackson</t>
   </si>
   <si>
     <t>Dwight Howard</t>
   </si>
   <si>
-    <t>LaMarcus Aldridge</t>
-  </si>
-  <si>
-    <t>JaVale McGee</t>
-  </si>
-  <si>
     <t>Tomas Satoransky</t>
   </si>
   <si>
-    <t>Doug McDermott</t>
-  </si>
-  <si>
-    <t>Tyus Jones</t>
+    <t>Kentavious CaldwellPope</t>
+  </si>
+  <si>
+    <t>Davion Mitchell</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Paul Millsap</t>
+  </si>
+  <si>
+    <t>DeAndre Jordan</t>
+  </si>
+  <si>
+    <t>Gary Payton II</t>
+  </si>
+  <si>
+    <t>Jeremy Lamb</t>
   </si>
   <si>
     <t>Enes Freedom</t>
   </si>
   <si>
-    <t>Paul Millsap</t>
-  </si>
-  <si>
-    <t>Dario Saric</t>
-  </si>
-  <si>
-    <t>Jeremy Lamb</t>
-  </si>
-  <si>
-    <t>Malachi Flynn</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Isaiah Jackson</t>
+    <t>Cody Martin</t>
+  </si>
+  <si>
+    <t>Caleb Martin</t>
+  </si>
+  <si>
+    <t>Grant Williams</t>
+  </si>
+  <si>
+    <t>Tristan Thompson</t>
+  </si>
+  <si>
+    <t>Josh Jackson</t>
+  </si>
+  <si>
+    <t>Max Strus</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
   </si>
   <si>
     <t>Mark Williams</t>
   </si>
   <si>
-    <t>Kentavious CaldwellPope</t>
-  </si>
-  <si>
-    <t>Davion Mitchell</t>
+    <t>Pat Connaughton</t>
+  </si>
+  <si>
+    <t>Shake Milton</t>
+  </si>
+  <si>
+    <t>Lou Williams</t>
+  </si>
+  <si>
+    <t>Malik Monk</t>
   </si>
   <si>
     <t>Jose Alvarado</t>
   </si>
   <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>DeAndre Jordan</t>
-  </si>
-  <si>
-    <t>Gary Payton II</t>
-  </si>
-  <si>
-    <t>Cody Martin</t>
-  </si>
-  <si>
-    <t>Caleb Martin</t>
-  </si>
-  <si>
-    <t>Grant Williams</t>
-  </si>
-  <si>
-    <t>Tristan Thompson</t>
-  </si>
-  <si>
-    <t>Josh Jackson</t>
-  </si>
-  <si>
-    <t>Max Strus</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Pat Connaughton</t>
-  </si>
-  <si>
-    <t>Shake Milton</t>
-  </si>
-  <si>
-    <t>Lou Williams</t>
-  </si>
-  <si>
-    <t>Malik Monk</t>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Nassir Little</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Zach Collins</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>JaMychal Green</t>
+  </si>
+  <si>
+    <t>Joshua Primo</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
   </si>
   <si>
     <t>Damian Jones</t>
   </si>
   <si>
-    <t>Quentin Grimes</t>
-  </si>
-  <si>
-    <t>Nassir Little</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Zach Collins</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>JaMychal Green</t>
-  </si>
-  <si>
-    <t>Joshua Primo</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>Isaiah Livers</t>
+  </si>
+  <si>
+    <t>Talen HortonTucker</t>
+  </si>
+  <si>
+    <t>Josh Christopher</t>
+  </si>
+  <si>
+    <t>Drew Eubanks</t>
+  </si>
+  <si>
+    <t>Jaylen Nowell</t>
+  </si>
+  <si>
+    <t>Malaki Branham</t>
+  </si>
+  <si>
+    <t>Ziaire Williams</t>
+  </si>
+  <si>
+    <t>Gabe Vincent</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Trendon Watford</t>
+  </si>
+  <si>
+    <t>Paul Reed</t>
+  </si>
+  <si>
+    <t>Tre Mann</t>
+  </si>
+  <si>
+    <t>Corey Kispert</t>
+  </si>
+  <si>
+    <t>Chimezie Metu</t>
+  </si>
+  <si>
+    <t>Ty Jerome</t>
+  </si>
+  <si>
+    <t>Ochai Agbaji</t>
+  </si>
+  <si>
+    <t>Day'Ron Sharpe</t>
+  </si>
+  <si>
+    <t>TyTy Washington Jr.</t>
+  </si>
+  <si>
+    <t>Nemanja Bjelica</t>
+  </si>
+  <si>
+    <t>Jeremiah RobinsonEarl</t>
+  </si>
+  <si>
+    <t>Shaedon Sharpe</t>
+  </si>
+  <si>
+    <t>Elfrid Payton</t>
+  </si>
+  <si>
+    <t>Patty Mills</t>
+  </si>
+  <si>
+    <t>Zeke Nnaji</t>
   </si>
   <si>
     <t>Johnny Davis</t>
   </si>
   <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Isaiah Livers</t>
-  </si>
-  <si>
-    <t>Talen HortonTucker</t>
-  </si>
-  <si>
-    <t>Josh Christopher</t>
-  </si>
-  <si>
-    <t>Drew Eubanks</t>
-  </si>
-  <si>
-    <t>Jaylen Nowell</t>
-  </si>
-  <si>
-    <t>Malaki Branham</t>
-  </si>
-  <si>
-    <t>Ziaire Williams</t>
-  </si>
-  <si>
-    <t>Gabe Vincent</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Trendon Watford</t>
-  </si>
-  <si>
-    <t>Paul Reed</t>
-  </si>
-  <si>
-    <t>Tre Mann</t>
-  </si>
-  <si>
-    <t>Corey Kispert</t>
-  </si>
-  <si>
-    <t>Chimezie Metu</t>
-  </si>
-  <si>
-    <t>Ty Jerome</t>
+    <t>Trevor Ariza</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Udoka Azubuike</t>
+  </si>
+  <si>
+    <t>Trey Lyles</t>
+  </si>
+  <si>
+    <t>Usman Garuba</t>
+  </si>
+  <si>
+    <t>Omer Yurtseven</t>
+  </si>
+  <si>
+    <t>Jake LaRavia</t>
+  </si>
+  <si>
+    <t>Georges Niang</t>
+  </si>
+  <si>
+    <t>Terence Davis II</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
+    <t>Oshae Brissett</t>
+  </si>
+  <si>
+    <t>Jordan McLaughlin</t>
+  </si>
+  <si>
+    <t>Landry Shamet</t>
+  </si>
+  <si>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
+    <t>Bismack Biyombo</t>
+  </si>
+  <si>
+    <t>Jaden Hardy</t>
   </si>
   <si>
     <t>Trevor Keels</t>
   </si>
   <si>
-    <t>Ochai Agbaji</t>
+    <t>Jeff Green</t>
+  </si>
+  <si>
+    <t>Gary Harris</t>
+  </si>
+  <si>
+    <t>AJ Griffin</t>
+  </si>
+  <si>
+    <t>John Konchar</t>
+  </si>
+  <si>
+    <t>Jericho Sims</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Garrison Mathews</t>
   </si>
   <si>
     <t>Jaylin Williams</t>
   </si>
   <si>
-    <t>Day'Ron Sharpe</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>TyTy Washington Jr.</t>
-  </si>
-  <si>
-    <t>Nemanja Bjelica</t>
-  </si>
-  <si>
-    <t>Jeremiah RobinsonEarl</t>
-  </si>
-  <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
-    <t>Elfrid Payton</t>
-  </si>
-  <si>
-    <t>Patty Mills</t>
-  </si>
-  <si>
-    <t>Zeke Nnaji</t>
-  </si>
-  <si>
-    <t>Trevor Ariza</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Udoka Azubuike</t>
-  </si>
-  <si>
-    <t>Trey Lyles</t>
-  </si>
-  <si>
-    <t>Usman Garuba</t>
-  </si>
-  <si>
-    <t>Omer Yurtseven</t>
-  </si>
-  <si>
-    <t>Jake LaRavia</t>
-  </si>
-  <si>
-    <t>Georges Niang</t>
-  </si>
-  <si>
-    <t>Terence Davis II</t>
-  </si>
-  <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
-    <t>Oshae Brissett</t>
-  </si>
-  <si>
-    <t>Jordan McLaughlin</t>
-  </si>
-  <si>
-    <t>Landry Shamet</t>
-  </si>
-  <si>
-    <t>Taurean Prince</t>
-  </si>
-  <si>
-    <t>Bismack Biyombo</t>
-  </si>
-  <si>
-    <t>Jaden Hardy</t>
-  </si>
-  <si>
-    <t>Jeff Green</t>
-  </si>
-  <si>
-    <t>Gary Harris</t>
-  </si>
-  <si>
-    <t>AJ Griffin</t>
-  </si>
-  <si>
-    <t>John Konchar</t>
-  </si>
-  <si>
-    <t>Jericho Sims</t>
-  </si>
-  <si>
-    <t>Garrison Mathews</t>
-  </si>
-  <si>
     <t>Aaron Nesmith</t>
   </si>
   <si>
@@ -1252,12 +1252,12 @@
     <t>SG</t>
   </si>
   <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
     <t>PF,C,SF</t>
   </si>
   <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
     <t>PF,SF</t>
   </si>
   <si>
@@ -1288,12 +1288,12 @@
     <t>BKN</t>
   </si>
   <si>
+    <t>GSW</t>
+  </si>
+  <si>
     <t>BOS</t>
   </si>
   <si>
-    <t>GSW</t>
-  </si>
-  <si>
     <t>DAL</t>
   </si>
   <si>
@@ -1327,10 +1327,10 @@
     <t>OKC</t>
   </si>
   <si>
+    <t>IND</t>
+  </si>
+  <si>
     <t>CLE</t>
-  </si>
-  <si>
-    <t>IND</t>
   </si>
   <si>
     <t>WAS</t>
@@ -1811,7 +1811,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D6" t="s">
         <v>423</v>
@@ -1825,7 +1825,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D7" t="s">
         <v>424</v>
@@ -1979,7 +1979,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D18" t="s">
         <v>433</v>
@@ -1996,7 +1996,7 @@
         <v>396</v>
       </c>
       <c r="D19" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2007,10 +2007,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2091,10 +2091,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D26" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2119,10 +2119,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D28" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2133,10 +2133,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D29" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2150,7 +2150,7 @@
         <v>400</v>
       </c>
       <c r="D30" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2217,10 +2217,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D35" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2245,10 +2245,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D37" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2262,7 +2262,7 @@
         <v>404</v>
       </c>
       <c r="D38" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2273,10 +2273,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2287,10 +2287,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D40" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2301,10 +2301,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D41" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2315,10 +2315,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D42" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2332,7 +2332,7 @@
         <v>396</v>
       </c>
       <c r="D43" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2343,10 +2343,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D44" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2357,10 +2357,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D45" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2371,10 +2371,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D46" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2385,10 +2385,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D47" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2399,10 +2399,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D48" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2416,7 +2416,7 @@
         <v>398</v>
       </c>
       <c r="D49" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2430,7 +2430,7 @@
         <v>398</v>
       </c>
       <c r="D50" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2455,10 +2455,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D52" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2469,10 +2469,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D53" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2486,7 +2486,7 @@
         <v>397</v>
       </c>
       <c r="D54" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2511,10 +2511,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D56" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2525,10 +2525,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D57" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2553,10 +2553,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D59" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2567,10 +2567,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D60" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2595,10 +2595,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D62" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2609,10 +2609,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D63" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2623,10 +2623,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D64" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2651,10 +2651,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D66" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2668,7 +2668,7 @@
         <v>396</v>
       </c>
       <c r="D67" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2679,10 +2679,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="D68" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2693,10 +2693,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D69" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2710,7 +2710,7 @@
         <v>398</v>
       </c>
       <c r="D70" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2721,10 +2721,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D71" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2735,10 +2735,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D72" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2749,10 +2749,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D73" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2763,10 +2763,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D74" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2777,10 +2777,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D75" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2805,7 +2805,7 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D77" t="s">
         <v>433</v>
@@ -2819,10 +2819,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="D78" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2836,7 +2836,7 @@
         <v>398</v>
       </c>
       <c r="D79" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2861,10 +2861,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D81" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2878,7 +2878,7 @@
         <v>398</v>
       </c>
       <c r="D82" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2892,7 +2892,7 @@
         <v>404</v>
       </c>
       <c r="D83" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2903,10 +2903,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D84" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2920,7 +2920,7 @@
         <v>404</v>
       </c>
       <c r="D85" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2931,10 +2931,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D86" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2945,10 +2945,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D87" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2959,7 +2959,7 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D88" t="s">
         <v>424</v>
@@ -2973,10 +2973,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D89" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2987,10 +2987,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D90" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3004,7 +3004,7 @@
         <v>396</v>
       </c>
       <c r="D91" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3015,10 +3015,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D92" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3032,7 +3032,7 @@
         <v>397</v>
       </c>
       <c r="D93" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3043,10 +3043,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D94" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3057,10 +3057,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D95" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3071,10 +3071,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D96" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3088,7 +3088,7 @@
         <v>396</v>
       </c>
       <c r="D97" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3099,10 +3099,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="D98" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3116,7 +3116,7 @@
         <v>399</v>
       </c>
       <c r="D99" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3127,10 +3127,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D100" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3141,10 +3141,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D101" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3155,10 +3155,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D102" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3169,10 +3169,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D103" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3183,10 +3183,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="D104" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3200,7 +3200,7 @@
         <v>398</v>
       </c>
       <c r="D105" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3211,10 +3211,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D106" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3225,10 +3225,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D107" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3242,7 +3242,7 @@
         <v>398</v>
       </c>
       <c r="D108" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3267,10 +3267,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D110" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3298,7 +3298,7 @@
         <v>404</v>
       </c>
       <c r="D112" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3312,7 +3312,7 @@
         <v>398</v>
       </c>
       <c r="D113" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3365,10 +3365,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D117" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3382,7 +3382,7 @@
         <v>397</v>
       </c>
       <c r="D118" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3393,10 +3393,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D119" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3407,10 +3407,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="D120" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3421,7 +3421,7 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="D121" t="s">
         <v>426</v>
@@ -3438,7 +3438,7 @@
         <v>398</v>
       </c>
       <c r="D122" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3449,10 +3449,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D123" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3463,10 +3463,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D124" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3491,10 +3491,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D126" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3508,7 +3508,7 @@
         <v>404</v>
       </c>
       <c r="D127" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3522,7 +3522,7 @@
         <v>404</v>
       </c>
       <c r="D128" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3533,10 +3533,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D129" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3547,10 +3547,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D130" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3561,7 +3561,7 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D131" t="s">
         <v>446</v>
@@ -3575,10 +3575,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D132" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3589,10 +3589,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D133" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3603,10 +3603,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D134" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3617,10 +3617,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D135" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3631,10 +3631,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D136" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3645,10 +3645,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D137" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3673,10 +3673,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D139" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3687,10 +3687,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D140" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3701,10 +3701,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D141" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3715,10 +3715,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D142" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3729,10 +3729,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D143" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3743,10 +3743,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D144" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3771,10 +3771,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D146" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3788,7 +3788,7 @@
         <v>407</v>
       </c>
       <c r="D147" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3799,10 +3799,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D148" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3813,10 +3813,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D149" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3841,10 +3841,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D151" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3855,10 +3855,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D152" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3883,10 +3883,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D154" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3911,7 +3911,7 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D156" t="s">
         <v>422</v>
@@ -3928,7 +3928,7 @@
         <v>404</v>
       </c>
       <c r="D157" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3939,10 +3939,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D158" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3967,10 +3967,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D160" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3981,10 +3981,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D161" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3995,10 +3995,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D162" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4009,10 +4009,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D163" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4023,10 +4023,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D164" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4040,7 +4040,7 @@
         <v>398</v>
       </c>
       <c r="D165" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4051,10 +4051,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D166" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4065,10 +4065,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D167" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4093,10 +4093,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="D169" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4107,10 +4107,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D170" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4121,7 +4121,7 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D171" t="s">
         <v>444</v>
@@ -4135,10 +4135,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D172" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4149,10 +4149,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D173" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4166,7 +4166,7 @@
         <v>397</v>
       </c>
       <c r="D174" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4177,10 +4177,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D175" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4191,10 +4191,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D176" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4205,10 +4205,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D177" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4219,7 +4219,7 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D178" t="s">
         <v>422</v>
@@ -4233,10 +4233,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D179" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4247,10 +4247,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D180" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4261,10 +4261,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D181" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4275,10 +4275,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D182" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4289,10 +4289,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D183" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4303,10 +4303,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D184" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4317,10 +4317,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D185" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4331,10 +4331,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D186" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4345,10 +4345,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D187" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4359,10 +4359,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D188" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4373,10 +4373,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D189" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4387,10 +4387,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D190" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4404,7 +4404,7 @@
         <v>396</v>
       </c>
       <c r="D191" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4415,10 +4415,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D192" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4429,10 +4429,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D193" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4443,10 +4443,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D194" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4457,10 +4457,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="D195" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4471,10 +4471,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D196" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4485,10 +4485,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D197" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4499,10 +4499,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D198" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4516,7 +4516,7 @@
         <v>404</v>
       </c>
       <c r="D199" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4527,10 +4527,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D200" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4541,10 +4541,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D201" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4555,10 +4555,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D202" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4569,10 +4569,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="D203" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4583,10 +4583,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D204" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4597,10 +4597,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D205" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4611,10 +4611,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D206" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4625,10 +4625,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D207" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4639,10 +4639,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D208" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4653,10 +4653,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D209" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4667,10 +4667,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D210" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4695,10 +4695,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D212" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4709,10 +4709,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="D213" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4723,10 +4723,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D214" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4737,10 +4737,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D215" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4751,10 +4751,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D216" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4765,10 +4765,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D217" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4779,10 +4779,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D218" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4793,10 +4793,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D219" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4807,10 +4807,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D220" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4821,10 +4821,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D221" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4835,10 +4835,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D222" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4849,10 +4849,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D223" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4863,10 +4863,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D224" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4877,10 +4877,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D225" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4891,10 +4891,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="D226" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4905,10 +4905,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D227" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4919,10 +4919,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D228" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4936,7 +4936,7 @@
         <v>398</v>
       </c>
       <c r="D229" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4947,10 +4947,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D230" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4961,10 +4961,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D231" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4975,10 +4975,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D232" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4989,10 +4989,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D233" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5006,7 +5006,7 @@
         <v>404</v>
       </c>
       <c r="D234" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5017,10 +5017,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D235" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5034,7 +5034,7 @@
         <v>398</v>
       </c>
       <c r="D236" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5045,10 +5045,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D237" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5059,10 +5059,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D238" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5073,10 +5073,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D239" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5087,10 +5087,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D240" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5101,10 +5101,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D241" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5115,10 +5115,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="D242" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5129,10 +5129,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D243" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5143,10 +5143,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="D244" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5157,10 +5157,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D245" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5171,7 +5171,7 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D246" t="s">
         <v>425</v>
@@ -5185,10 +5185,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D247" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5199,10 +5199,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D248" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5216,7 +5216,7 @@
         <v>396</v>
       </c>
       <c r="D249" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5227,10 +5227,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D250" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5241,10 +5241,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="D251" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5255,10 +5255,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D252" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5269,10 +5269,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D253" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5283,10 +5283,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D254" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5311,10 +5311,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D256" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5328,7 +5328,7 @@
         <v>398</v>
       </c>
       <c r="D257" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5339,10 +5339,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D258" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5353,10 +5353,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D259" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5367,7 +5367,7 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D260" t="s">
         <v>449</v>
@@ -5381,10 +5381,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D261" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5395,10 +5395,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D262" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5409,7 +5409,7 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D263" t="s">
         <v>449</v>
@@ -5423,10 +5423,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D264" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5437,10 +5437,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="D265" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5451,10 +5451,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D266" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5465,10 +5465,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D267" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5479,7 +5479,7 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D268" t="s">
         <v>419</v>
@@ -5493,10 +5493,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="D269" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5507,10 +5507,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D270" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5521,10 +5521,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D271" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5535,10 +5535,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D272" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5549,10 +5549,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="D273" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5563,10 +5563,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D274" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5577,10 +5577,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="D275" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5591,10 +5591,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D276" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5605,10 +5605,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D277" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5619,10 +5619,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D278" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5633,10 +5633,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D279" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5647,10 +5647,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D280" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5661,10 +5661,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D281" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5678,7 +5678,7 @@
         <v>398</v>
       </c>
       <c r="D282" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5692,7 +5692,7 @@
         <v>398</v>
       </c>
       <c r="D283" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5703,10 +5703,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D284" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5717,10 +5717,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="D285" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5731,10 +5731,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D286" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5745,10 +5745,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D287" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5759,10 +5759,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="D288" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5773,10 +5773,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D289" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5787,10 +5787,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D290" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5801,10 +5801,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="D291" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5818,7 +5818,7 @@
         <v>410</v>
       </c>
       <c r="D292" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5829,7 +5829,7 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D293" t="s">
         <v>430</v>
@@ -5843,10 +5843,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D294" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5857,10 +5857,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D295" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5871,10 +5871,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="D296" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5885,10 +5885,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D297" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5899,10 +5899,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D298" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5913,10 +5913,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="D299" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5927,10 +5927,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="D300" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5944,7 +5944,7 @@
         <v>410</v>
       </c>
       <c r="D301" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5955,10 +5955,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D302" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5969,10 +5969,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="D303" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5983,10 +5983,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="D304" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5997,10 +5997,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="D305" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6014,7 +6014,7 @@
         <v>397</v>
       </c>
       <c r="D306" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6025,10 +6025,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="D307" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6039,10 +6039,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D308" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6053,10 +6053,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D309" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6067,10 +6067,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D310" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6081,10 +6081,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="D311" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6095,10 +6095,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D312" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6109,10 +6109,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D313" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6123,10 +6123,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D314" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6137,10 +6137,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D315" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6151,10 +6151,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D316" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6168,7 +6168,7 @@
         <v>400</v>
       </c>
       <c r="D317" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6179,10 +6179,10 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D318" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6193,10 +6193,10 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D319" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6210,7 +6210,7 @@
         <v>410</v>
       </c>
       <c r="D320" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6221,7 +6221,7 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D321" t="s">
         <v>449</v>
@@ -6238,7 +6238,7 @@
         <v>400</v>
       </c>
       <c r="D322" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6249,10 +6249,10 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D323" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6263,10 +6263,10 @@
         <v>326</v>
       </c>
       <c r="C324" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D324" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6277,10 +6277,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D325" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6294,7 +6294,7 @@
         <v>399</v>
       </c>
       <c r="D326" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6305,10 +6305,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D327" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6319,10 +6319,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D328" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6333,10 +6333,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D329" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6347,10 +6347,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D330" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6364,7 +6364,7 @@
         <v>397</v>
       </c>
       <c r="D331" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6375,10 +6375,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D332" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6389,10 +6389,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D333" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6406,7 +6406,7 @@
         <v>397</v>
       </c>
       <c r="D334" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6417,10 +6417,10 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D335" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6431,10 +6431,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="D336" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6445,10 +6445,10 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D337" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6459,10 +6459,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D338" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6473,10 +6473,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D339" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6487,10 +6487,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D340" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6501,10 +6501,10 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="D341" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6515,10 +6515,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D342" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6529,10 +6529,10 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D343" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6543,10 +6543,10 @@
         <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D344" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6557,10 +6557,10 @@
         <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D345" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6574,7 +6574,7 @@
         <v>404</v>
       </c>
       <c r="D346" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6742,7 +6742,7 @@
         <v>416</v>
       </c>
       <c r="D358" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6770,7 +6770,7 @@
         <v>400</v>
       </c>
       <c r="D360" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6910,7 +6910,7 @@
         <v>399</v>
       </c>
       <c r="D370" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6994,7 +6994,7 @@
         <v>410</v>
       </c>
       <c r="D376" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7064,7 +7064,7 @@
         <v>409</v>
       </c>
       <c r="D381" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7092,7 +7092,7 @@
         <v>417</v>
       </c>
       <c r="D383" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7162,7 +7162,7 @@
         <v>400</v>
       </c>
       <c r="D388" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7190,7 +7190,7 @@
         <v>409</v>
       </c>
       <c r="D390" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7204,7 +7204,7 @@
         <v>410</v>
       </c>
       <c r="D391" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="392" spans="1:4">

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -238,27 +238,27 @@
     <t>Jordan Poole</t>
   </si>
   <si>
+    <t>Scottie Barnes</t>
+  </si>
+  <si>
     <t>Wendell Carter Jr.</t>
   </si>
   <si>
-    <t>Scottie Barnes</t>
-  </si>
-  <si>
     <t>Marcus Smart</t>
   </si>
   <si>
     <t>Keldon Johnson</t>
   </si>
   <si>
+    <t>Kyle Lowry</t>
+  </si>
+  <si>
     <t>Buddy Hield</t>
   </si>
   <si>
     <t>Saddiq Bey</t>
   </si>
   <si>
-    <t>Kyle Lowry</t>
-  </si>
-  <si>
     <t>Jalen Green</t>
   </si>
   <si>
@@ -376,10 +376,10 @@
     <t>Jordan Clarkson</t>
   </si>
   <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
     <t>De'Anthony Melton</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
   </si>
   <si>
     <t>Dorian FinneySmith</t>
@@ -2721,10 +2721,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D71" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2735,10 +2735,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D72" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2777,10 +2777,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D75" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2791,10 +2791,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D76" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2805,10 +2805,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="D77" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3365,10 +3365,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D117" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3379,10 +3379,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D118" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119" spans="1:4">

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -190,24 +190,24 @@
     <t>Michael Porter Jr.</t>
   </si>
   <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Christian Wood</t>
+  </si>
+  <si>
+    <t>Evan Mobley</t>
+  </si>
+  <si>
     <t>Julius Randle</t>
   </si>
   <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Christian Wood</t>
-  </si>
-  <si>
-    <t>Evan Mobley</t>
-  </si>
-  <si>
     <t>Jusuf Nurkic</t>
   </si>
   <si>
@@ -220,12 +220,12 @@
     <t>Jerami Grant</t>
   </si>
   <si>
+    <t>Ben Simmons</t>
+  </si>
+  <si>
     <t>Clint Capela</t>
   </si>
   <si>
-    <t>Ben Simmons</t>
-  </si>
-  <si>
     <t>Draymond Green</t>
   </si>
   <si>
@@ -238,24 +238,24 @@
     <t>Jordan Poole</t>
   </si>
   <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
     <t>Scottie Barnes</t>
   </si>
   <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
     <t>Marcus Smart</t>
   </si>
   <si>
     <t>Keldon Johnson</t>
   </si>
   <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
     <t>Kyle Lowry</t>
   </si>
   <si>
-    <t>Buddy Hield</t>
-  </si>
-  <si>
     <t>Saddiq Bey</t>
   </si>
   <si>
@@ -331,12 +331,12 @@
     <t>Norman Powell</t>
   </si>
   <si>
+    <t>Bogdan Bogdanovic</t>
+  </si>
+  <si>
     <t>Kevin Porter Jr.</t>
   </si>
   <si>
-    <t>Bogdan Bogdanovic</t>
-  </si>
-  <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
@@ -373,15 +373,15 @@
     <t>Reggie Jackson</t>
   </si>
   <si>
+    <t>De'Anthony Melton</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>De'Anthony Melton</t>
-  </si>
-  <si>
     <t>Dorian FinneySmith</t>
   </si>
   <si>
@@ -427,13 +427,13 @@
     <t>Steven Adams</t>
   </si>
   <si>
+    <t>Monte Morris</t>
+  </si>
+  <si>
     <t>Evan Fournier</t>
   </si>
   <si>
     <t>Patrick Williams</t>
-  </si>
-  <si>
-    <t>Monte Morris</t>
   </si>
   <si>
     <t>Royce O'Neale</t>
@@ -2497,10 +2497,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D55" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2511,10 +2511,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D56" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2525,10 +2525,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D57" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2539,10 +2539,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D58" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2553,10 +2553,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D59" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2567,10 +2567,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D60" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2637,10 +2637,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D65" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2651,10 +2651,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D66" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2721,10 +2721,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D71" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2735,10 +2735,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D72" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2777,10 +2777,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D75" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2791,10 +2791,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D76" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3155,10 +3155,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D102" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3169,10 +3169,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D103" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3354,7 +3354,7 @@
         <v>398</v>
       </c>
       <c r="D116" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3382,7 +3382,7 @@
         <v>398</v>
       </c>
       <c r="D118" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3603,10 +3603,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D134" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3617,10 +3617,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D135" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3631,10 +3631,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D136" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="137" spans="1:4">

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -73,69 +73,69 @@
     <t>LeBron James</t>
   </si>
   <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
     <t>Paul George</t>
   </si>
   <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
     <t>Bam Adebayo</t>
   </si>
   <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
     <t>Domantas Sabonis</t>
   </si>
   <si>
+    <t>Shai GilgeousAlexander</t>
+  </si>
+  <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
-    <t>Shai GilgeousAlexander</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
   </si>
   <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
     <t>Rudy Gobert</t>
   </si>
   <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
-    <t>Chris Paul</t>
+    <t>Ja Morant</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
   </si>
   <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
-    <t>Ja Morant</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
     <t>Nikola Vucevic</t>
   </si>
   <si>
     <t>Deandre Ayton</t>
   </si>
   <si>
+    <t>Jrue Holiday</t>
+  </si>
+  <si>
+    <t>Robert Williams III</t>
+  </si>
+  <si>
     <t>DeMar DeRozan</t>
   </si>
   <si>
-    <t>Robert Williams III</t>
-  </si>
-  <si>
-    <t>Jrue Holiday</t>
-  </si>
-  <si>
     <t>Pascal Siakam</t>
   </si>
   <si>
@@ -157,30 +157,30 @@
     <t>Myles Turner</t>
   </si>
   <si>
+    <t>Cade Cunningham</t>
+  </si>
+  <si>
+    <t>De'Aaron Fox</t>
+  </si>
+  <si>
     <t>Jarrett Allen</t>
   </si>
   <si>
-    <t>De'Aaron Fox</t>
-  </si>
-  <si>
     <t>Brandon Ingram</t>
   </si>
   <si>
-    <t>Cade Cunningham</t>
+    <t>CJ McCollum</t>
   </si>
   <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
+    <t>Jonas Valanciunas</t>
   </si>
   <si>
     <t>Terry Rozier</t>
   </si>
   <si>
-    <t>Jonas Valanciunas</t>
-  </si>
-  <si>
     <t>Zion Williamson</t>
   </si>
   <si>
@@ -220,36 +220,39 @@
     <t>Jerami Grant</t>
   </si>
   <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
     <t>Ben Simmons</t>
   </si>
   <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Wendell Carter Jr.</t>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Marcus Smart</t>
+  </si>
+  <si>
+    <t>Keldon Johnson</t>
   </si>
   <si>
     <t>Scottie Barnes</t>
   </si>
   <si>
-    <t>Marcus Smart</t>
-  </si>
-  <si>
-    <t>Keldon Johnson</t>
-  </si>
-  <si>
     <t>Buddy Hield</t>
   </si>
   <si>
@@ -259,9 +262,6 @@
     <t>Saddiq Bey</t>
   </si>
   <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
     <t>Tyler Herro</t>
   </si>
   <si>
@@ -289,15 +289,15 @@
     <t>RJ Barrett</t>
   </si>
   <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
+    <t>Russell Westbrook III</t>
+  </si>
+  <si>
     <t>Malcolm Brogdon</t>
   </si>
   <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
-    <t>Russell Westbrook III</t>
-  </si>
-  <si>
     <t>Al Horford</t>
   </si>
   <si>
@@ -340,30 +340,30 @@
     <t>Lauri Markkanen</t>
   </si>
   <si>
+    <t>Alperen Sengun</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
     <t>Spencer Dinwiddie</t>
   </si>
   <si>
-    <t>Alperen Sengun</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
     <t>Gary Trent Jr.</t>
   </si>
   <si>
     <t>Jamal Murray</t>
   </si>
   <si>
+    <t>Caris LeVert</t>
+  </si>
+  <si>
     <t>Mo Bamba</t>
   </si>
   <si>
-    <t>Caris LeVert</t>
-  </si>
-  <si>
     <t>Derrick White</t>
   </si>
   <si>
@@ -442,18 +442,18 @@
     <t>Cameron Johnson</t>
   </si>
   <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Mason Plumlee</t>
+  </si>
+  <si>
+    <t>John Wall</t>
+  </si>
+  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Mason Plumlee</t>
-  </si>
-  <si>
-    <t>John Wall</t>
-  </si>
-  <si>
     <t>Devonte' Graham</t>
   </si>
   <si>
@@ -523,12 +523,12 @@
     <t>Donte DiVincenzo</t>
   </si>
   <si>
+    <t>Jae Crowder</t>
+  </si>
+  <si>
     <t>Nerlens Noel</t>
   </si>
   <si>
-    <t>Jae Crowder</t>
-  </si>
-  <si>
     <t>Larry Nance Jr.</t>
   </si>
   <si>
@@ -538,12 +538,12 @@
     <t>Immanuel Quickley</t>
   </si>
   <si>
+    <t>Victor Oladipo</t>
+  </si>
+  <si>
     <t>Obi Toppin</t>
   </si>
   <si>
-    <t>Victor Oladipo</t>
-  </si>
-  <si>
     <t>Darius Bazley</t>
   </si>
   <si>
@@ -571,12 +571,12 @@
     <t>Joe Ingles</t>
   </si>
   <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
     <t>Jaden Ivey</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
     <t>Rui Hachimura</t>
   </si>
   <si>
@@ -733,6 +733,9 @@
     <t>Daniel Theis</t>
   </si>
   <si>
+    <t>Alex Caruso</t>
+  </si>
+  <si>
     <t>Bones Hyland</t>
   </si>
   <si>
@@ -754,21 +757,18 @@
     <t>Chris Duarte</t>
   </si>
   <si>
-    <t>Alex Caruso</t>
-  </si>
-  <si>
     <t>Moses Moody</t>
   </si>
   <si>
     <t>Moses Brown</t>
   </si>
   <si>
+    <t>Theo Maledon</t>
+  </si>
+  <si>
     <t>JaVale McGee</t>
   </si>
   <si>
-    <t>Theo Maledon</t>
-  </si>
-  <si>
     <t>Doug McDermott</t>
   </si>
   <si>
@@ -799,12 +799,12 @@
     <t>Ayo Dosunmu</t>
   </si>
   <si>
+    <t>Cody Zeller</t>
+  </si>
+  <si>
     <t>LaMarcus Aldridge</t>
   </si>
   <si>
-    <t>Cody Zeller</t>
-  </si>
-  <si>
     <t>Carmelo Anthony</t>
   </si>
   <si>
@@ -844,27 +844,30 @@
     <t>Cody Martin</t>
   </si>
   <si>
+    <t>JaMychal Green</t>
+  </si>
+  <si>
     <t>Caleb Martin</t>
   </si>
   <si>
+    <t>Tristan Thompson</t>
+  </si>
+  <si>
     <t>Grant Williams</t>
   </si>
   <si>
-    <t>Tristan Thompson</t>
-  </si>
-  <si>
     <t>Josh Jackson</t>
   </si>
   <si>
     <t>Max Strus</t>
   </si>
   <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
     <t>Deni Avdija</t>
   </si>
   <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
     <t>Pat Connaughton</t>
   </si>
   <si>
@@ -880,30 +883,27 @@
     <t>Jose Alvarado</t>
   </si>
   <si>
+    <t>Nassir Little</t>
+  </si>
+  <si>
     <t>Quentin Grimes</t>
   </si>
   <si>
-    <t>Nassir Little</t>
-  </si>
-  <si>
     <t>Jalen Williams</t>
   </si>
   <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
     <t>Zach Collins</t>
   </si>
   <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>JaMychal Green</t>
+    <t>Austin Reaves</t>
   </si>
   <si>
     <t>Joshua Primo</t>
   </si>
   <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
     <t>Damian Jones</t>
   </si>
   <si>
@@ -943,21 +943,21 @@
     <t>Trendon Watford</t>
   </si>
   <si>
+    <t>Chimezie Metu</t>
+  </si>
+  <si>
     <t>Paul Reed</t>
   </si>
   <si>
     <t>Tre Mann</t>
   </si>
   <si>
+    <t>Ty Jerome</t>
+  </si>
+  <si>
     <t>Corey Kispert</t>
   </si>
   <si>
-    <t>Chimezie Metu</t>
-  </si>
-  <si>
-    <t>Ty Jerome</t>
-  </si>
-  <si>
     <t>Ochai Agbaji</t>
   </si>
   <si>
@@ -997,6 +997,9 @@
     <t>Udoka Azubuike</t>
   </si>
   <si>
+    <t>Jake LaRavia</t>
+  </si>
+  <si>
     <t>Trey Lyles</t>
   </si>
   <si>
@@ -1006,9 +1009,6 @@
     <t>Omer Yurtseven</t>
   </si>
   <si>
-    <t>Jake LaRavia</t>
-  </si>
-  <si>
     <t>Georges Niang</t>
   </si>
   <si>
@@ -1018,15 +1018,15 @@
     <t>Goga Bitadze</t>
   </si>
   <si>
+    <t>Landry Shamet</t>
+  </si>
+  <si>
     <t>Oshae Brissett</t>
   </si>
   <si>
     <t>Jordan McLaughlin</t>
   </si>
   <si>
-    <t>Landry Shamet</t>
-  </si>
-  <si>
     <t>Taurean Prince</t>
   </si>
   <si>
@@ -1042,12 +1042,12 @@
     <t>Jeff Green</t>
   </si>
   <si>
+    <t>AJ Griffin</t>
+  </si>
+  <si>
     <t>Gary Harris</t>
   </si>
   <si>
-    <t>AJ Griffin</t>
-  </si>
-  <si>
     <t>John Konchar</t>
   </si>
   <si>
@@ -1111,57 +1111,57 @@
     <t>Caleb Houstan</t>
   </si>
   <si>
+    <t>Christian Koloko</t>
+  </si>
+  <si>
     <t>George Hill</t>
   </si>
   <si>
-    <t>Christian Koloko</t>
-  </si>
-  <si>
     <t>Max Christie</t>
   </si>
   <si>
+    <t>Gabriele Procida</t>
+  </si>
+  <si>
     <t>Moritz Wagner</t>
   </si>
   <si>
-    <t>Gabriele Procida</t>
+    <t>Kennedy Chandler</t>
+  </si>
+  <si>
+    <t>Khalifa Diop</t>
+  </si>
+  <si>
+    <t>Wesley Matthews</t>
   </si>
   <si>
     <t>Mike Muscala</t>
   </si>
   <si>
-    <t>Kennedy Chandler</t>
-  </si>
-  <si>
-    <t>Wesley Matthews</t>
-  </si>
-  <si>
-    <t>Khalifa Diop</t>
-  </si>
-  <si>
     <t>Bryce McGowens</t>
   </si>
   <si>
+    <t>E.J. Liddell</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>Moussa Diabate</t>
+  </si>
+  <si>
     <t>Willy Hernangomez</t>
   </si>
   <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
-    <t>E.J. Liddell</t>
-  </si>
-  <si>
-    <t>Moussa Diabate</t>
-  </si>
-  <si>
     <t>Ryan Rollins</t>
   </si>
   <si>
+    <t>Josh Minott</t>
+  </si>
+  <si>
     <t>Justise Winslow</t>
   </si>
   <si>
-    <t>Josh Minott</t>
-  </si>
-  <si>
     <t>Ismael Kamagate</t>
   </si>
   <si>
@@ -1171,18 +1171,18 @@
     <t>Kendall Brown</t>
   </si>
   <si>
+    <t>Isaiah Mobley</t>
+  </si>
+  <si>
     <t>Troy Brown Jr.</t>
   </si>
   <si>
-    <t>Isaiah Mobley</t>
+    <t>Matteo Spagnolo</t>
   </si>
   <si>
     <t>James Bouknight</t>
   </si>
   <si>
-    <t>Matteo Spagnolo</t>
-  </si>
-  <si>
     <t>Tyrese Martin</t>
   </si>
   <si>
@@ -1225,12 +1225,12 @@
     <t>PG,SG,SF,PF</t>
   </si>
   <si>
+    <t>SG,SF,PG</t>
+  </si>
+  <si>
     <t>SF,PF,SG</t>
   </si>
   <si>
-    <t>SG,SF,PG</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
@@ -1246,12 +1246,12 @@
     <t>PG,SG,SF</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>SF,PF,C</t>
   </si>
   <si>
@@ -1312,30 +1312,30 @@
     <t>LAL</t>
   </si>
   <si>
+    <t>PHO</t>
+  </si>
+  <si>
     <t>LAC</t>
   </si>
   <si>
-    <t>PHO</t>
-  </si>
-  <si>
     <t>MIA</t>
   </si>
   <si>
+    <t>IND</t>
+  </si>
+  <si>
     <t>SAC</t>
   </si>
   <si>
     <t>OKC</t>
   </si>
   <si>
-    <t>IND</t>
+    <t>WAS</t>
   </si>
   <si>
     <t>CLE</t>
   </si>
   <si>
-    <t>WAS</t>
-  </si>
-  <si>
     <t>TOR</t>
   </si>
   <si>
@@ -1345,10 +1345,10 @@
     <t>CHI</t>
   </si>
   <si>
+    <t>DET</t>
+  </si>
+  <si>
     <t>NOR</t>
-  </si>
-  <si>
-    <t>DET</t>
   </si>
   <si>
     <t>NYK</t>
@@ -1993,7 +1993,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D19" t="s">
         <v>434</v>
@@ -2007,10 +2007,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D20" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2024,7 +2024,7 @@
         <v>398</v>
       </c>
       <c r="D21" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2035,10 +2035,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D22" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2049,7 +2049,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D23" t="s">
         <v>437</v>
@@ -2063,10 +2063,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D24" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2080,7 +2080,7 @@
         <v>398</v>
       </c>
       <c r="D25" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2105,10 +2105,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D27" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2119,10 +2119,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D28" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2133,10 +2133,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D29" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2147,10 +2147,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D30" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2161,10 +2161,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D31" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2192,7 +2192,7 @@
         <v>399</v>
       </c>
       <c r="D33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2203,10 +2203,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D34" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2231,10 +2231,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D36" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2276,7 +2276,7 @@
         <v>398</v>
       </c>
       <c r="D39" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2301,7 +2301,7 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D41" t="s">
         <v>421</v>
@@ -2318,7 +2318,7 @@
         <v>396</v>
       </c>
       <c r="D42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2332,7 +2332,7 @@
         <v>396</v>
       </c>
       <c r="D43" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2343,10 +2343,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D44" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2360,7 +2360,7 @@
         <v>400</v>
       </c>
       <c r="D45" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2371,10 +2371,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D46" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2385,7 +2385,7 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D47" t="s">
         <v>443</v>
@@ -2399,10 +2399,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D48" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2413,10 +2413,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D49" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2427,10 +2427,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D50" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2441,10 +2441,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D51" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2458,7 +2458,7 @@
         <v>407</v>
       </c>
       <c r="D52" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2472,7 +2472,7 @@
         <v>404</v>
       </c>
       <c r="D53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2556,7 +2556,7 @@
         <v>405</v>
       </c>
       <c r="D59" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2637,10 +2637,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D65" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2651,10 +2651,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D66" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2665,10 +2665,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="D67" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2679,10 +2679,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D68" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2696,7 +2696,7 @@
         <v>398</v>
       </c>
       <c r="D69" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2707,10 +2707,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D70" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2721,10 +2721,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D71" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2735,10 +2735,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D72" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2777,10 +2777,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D75" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2791,10 +2791,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D76" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2805,10 +2805,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D77" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2822,7 +2822,7 @@
         <v>410</v>
       </c>
       <c r="D78" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2878,7 +2878,7 @@
         <v>398</v>
       </c>
       <c r="D82" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2962,7 +2962,7 @@
         <v>398</v>
       </c>
       <c r="D88" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2973,10 +2973,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D89" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2987,10 +2987,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D90" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3018,7 +3018,7 @@
         <v>397</v>
       </c>
       <c r="D92" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3032,7 +3032,7 @@
         <v>397</v>
       </c>
       <c r="D93" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3046,7 +3046,7 @@
         <v>399</v>
       </c>
       <c r="D94" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3102,7 +3102,7 @@
         <v>396</v>
       </c>
       <c r="D98" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3130,7 +3130,7 @@
         <v>412</v>
       </c>
       <c r="D100" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3144,7 +3144,7 @@
         <v>404</v>
       </c>
       <c r="D101" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3155,7 +3155,7 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D102" t="s">
         <v>427</v>
@@ -3169,7 +3169,7 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D103" t="s">
         <v>447</v>
@@ -3197,10 +3197,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D105" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3211,10 +3211,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D106" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3225,10 +3225,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D107" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3242,7 +3242,7 @@
         <v>398</v>
       </c>
       <c r="D108" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3281,10 +3281,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D111" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3295,10 +3295,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D112" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3340,7 +3340,7 @@
         <v>398</v>
       </c>
       <c r="D115" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3452,7 +3452,7 @@
         <v>396</v>
       </c>
       <c r="D123" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3508,7 +3508,7 @@
         <v>404</v>
       </c>
       <c r="D127" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3578,7 +3578,7 @@
         <v>405</v>
       </c>
       <c r="D132" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3606,7 +3606,7 @@
         <v>398</v>
       </c>
       <c r="D134" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3662,7 +3662,7 @@
         <v>397</v>
       </c>
       <c r="D138" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3673,10 +3673,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D139" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3687,7 +3687,7 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D140" t="s">
         <v>429</v>
@@ -3701,10 +3701,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D141" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3715,10 +3715,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D142" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3732,7 +3732,7 @@
         <v>398</v>
       </c>
       <c r="D143" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3788,7 +3788,7 @@
         <v>407</v>
       </c>
       <c r="D147" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3802,7 +3802,7 @@
         <v>404</v>
       </c>
       <c r="D148" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3816,7 +3816,7 @@
         <v>398</v>
       </c>
       <c r="D149" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3830,7 +3830,7 @@
         <v>404</v>
       </c>
       <c r="D150" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3872,7 +3872,7 @@
         <v>397</v>
       </c>
       <c r="D153" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3886,7 +3886,7 @@
         <v>396</v>
       </c>
       <c r="D154" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3998,7 +3998,7 @@
         <v>396</v>
       </c>
       <c r="D162" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4026,7 +4026,7 @@
         <v>396</v>
       </c>
       <c r="D164" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4051,10 +4051,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D166" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4065,10 +4065,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D167" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4082,7 +4082,7 @@
         <v>396</v>
       </c>
       <c r="D168" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4096,7 +4096,7 @@
         <v>412</v>
       </c>
       <c r="D169" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4121,10 +4121,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D171" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4135,10 +4135,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D172" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4152,7 +4152,7 @@
         <v>397</v>
       </c>
       <c r="D173" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4191,10 +4191,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D176" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4236,7 +4236,7 @@
         <v>398</v>
       </c>
       <c r="D179" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4275,10 +4275,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D182" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4289,10 +4289,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D183" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4306,7 +4306,7 @@
         <v>397</v>
       </c>
       <c r="D184" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4390,7 +4390,7 @@
         <v>404</v>
       </c>
       <c r="D190" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4443,7 +4443,7 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D194" t="s">
         <v>448</v>
@@ -4502,7 +4502,7 @@
         <v>396</v>
       </c>
       <c r="D198" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4516,7 +4516,7 @@
         <v>404</v>
       </c>
       <c r="D199" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4642,7 +4642,7 @@
         <v>400</v>
       </c>
       <c r="D208" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4656,7 +4656,7 @@
         <v>399</v>
       </c>
       <c r="D209" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4670,7 +4670,7 @@
         <v>398</v>
       </c>
       <c r="D210" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4684,7 +4684,7 @@
         <v>399</v>
       </c>
       <c r="D211" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4712,7 +4712,7 @@
         <v>414</v>
       </c>
       <c r="D213" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4726,7 +4726,7 @@
         <v>398</v>
       </c>
       <c r="D214" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4751,10 +4751,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D216" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4768,7 +4768,7 @@
         <v>404</v>
       </c>
       <c r="D217" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4793,10 +4793,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D219" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4838,7 +4838,7 @@
         <v>405</v>
       </c>
       <c r="D222" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5020,7 +5020,7 @@
         <v>396</v>
       </c>
       <c r="D235" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5034,7 +5034,7 @@
         <v>398</v>
       </c>
       <c r="D236" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5045,10 +5045,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D237" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5059,10 +5059,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D238" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5073,10 +5073,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D239" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5087,10 +5087,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D240" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5101,10 +5101,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D241" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5115,10 +5115,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="D242" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5129,10 +5129,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="D243" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5160,7 +5160,7 @@
         <v>399</v>
       </c>
       <c r="D245" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5171,10 +5171,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D246" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5185,10 +5185,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D247" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5255,7 +5255,7 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D252" t="s">
         <v>447</v>
@@ -5272,7 +5272,7 @@
         <v>396</v>
       </c>
       <c r="D253" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5339,7 +5339,7 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D258" t="s">
         <v>449</v>
@@ -5353,7 +5353,7 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D259" t="s">
         <v>449</v>
@@ -5384,7 +5384,7 @@
         <v>407</v>
       </c>
       <c r="D261" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5440,7 +5440,7 @@
         <v>415</v>
       </c>
       <c r="D265" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5549,10 +5549,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="D273" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5563,10 +5563,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="D274" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5591,10 +5591,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D276" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5608,7 +5608,7 @@
         <v>404</v>
       </c>
       <c r="D277" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5619,10 +5619,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D278" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5647,10 +5647,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D280" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5661,10 +5661,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D281" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5678,7 +5678,7 @@
         <v>398</v>
       </c>
       <c r="D282" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5692,7 +5692,7 @@
         <v>398</v>
       </c>
       <c r="D283" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5703,10 +5703,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D284" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5717,10 +5717,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D285" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5731,7 +5731,7 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D286" t="s">
         <v>428</v>
@@ -5745,10 +5745,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D287" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5759,10 +5759,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="D288" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5776,7 +5776,7 @@
         <v>404</v>
       </c>
       <c r="D289" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5790,7 +5790,7 @@
         <v>396</v>
       </c>
       <c r="D290" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5801,10 +5801,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D291" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5815,10 +5815,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D292" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5857,7 +5857,7 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D295" t="s">
         <v>422</v>
@@ -5874,7 +5874,7 @@
         <v>397</v>
       </c>
       <c r="D296" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5899,7 +5899,7 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D298" t="s">
         <v>447</v>
@@ -5927,7 +5927,7 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D300" t="s">
         <v>426</v>
@@ -5941,7 +5941,7 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D301" t="s">
         <v>445</v>
@@ -5986,7 +5986,7 @@
         <v>416</v>
       </c>
       <c r="D304" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6011,10 +6011,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D306" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6025,10 +6025,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="D307" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6039,10 +6039,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="D308" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6053,10 +6053,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D309" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6067,10 +6067,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D310" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6140,7 +6140,7 @@
         <v>397</v>
       </c>
       <c r="D315" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6151,7 +6151,7 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D316" t="s">
         <v>428</v>
@@ -6207,10 +6207,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D320" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6263,10 +6263,10 @@
         <v>326</v>
       </c>
       <c r="C324" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D324" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6277,10 +6277,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D325" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6291,10 +6291,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D326" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6305,10 +6305,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D327" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6336,7 +6336,7 @@
         <v>404</v>
       </c>
       <c r="D329" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6350,7 +6350,7 @@
         <v>399</v>
       </c>
       <c r="D330" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6361,10 +6361,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D331" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6375,10 +6375,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D332" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6389,10 +6389,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D333" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6420,7 +6420,7 @@
         <v>399</v>
       </c>
       <c r="D335" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6445,7 +6445,7 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D337" t="s">
         <v>444</v>
@@ -6473,10 +6473,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D339" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6487,10 +6487,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D340" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6529,7 +6529,7 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D343" t="s">
         <v>433</v>
@@ -6560,7 +6560,7 @@
         <v>399</v>
       </c>
       <c r="D345" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6574,7 +6574,7 @@
         <v>404</v>
       </c>
       <c r="D346" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6585,7 +6585,7 @@
         <v>349</v>
       </c>
       <c r="C347" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D347" t="s">
         <v>448</v>
@@ -6602,7 +6602,7 @@
         <v>397</v>
       </c>
       <c r="D348" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6616,7 +6616,7 @@
         <v>404</v>
       </c>
       <c r="D349" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6630,7 +6630,7 @@
         <v>417</v>
       </c>
       <c r="D350" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6655,7 +6655,7 @@
         <v>354</v>
       </c>
       <c r="C352" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D352" t="s">
         <v>419</v>
@@ -6697,7 +6697,7 @@
         <v>357</v>
       </c>
       <c r="C355" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D355" t="s">
         <v>445</v>
@@ -6753,7 +6753,7 @@
         <v>361</v>
       </c>
       <c r="C359" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D359" t="s">
         <v>419</v>
@@ -6770,7 +6770,7 @@
         <v>400</v>
       </c>
       <c r="D360" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6795,10 +6795,10 @@
         <v>364</v>
       </c>
       <c r="C362" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D362" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6809,10 +6809,10 @@
         <v>365</v>
       </c>
       <c r="C363" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D363" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6823,7 +6823,7 @@
         <v>366</v>
       </c>
       <c r="C364" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D364" t="s">
         <v>430</v>
@@ -6837,10 +6837,10 @@
         <v>367</v>
       </c>
       <c r="C365" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="D365" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6851,10 +6851,10 @@
         <v>368</v>
       </c>
       <c r="C366" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="D366" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6865,10 +6865,10 @@
         <v>369</v>
       </c>
       <c r="C367" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D367" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6879,10 +6879,10 @@
         <v>370</v>
       </c>
       <c r="C368" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D368" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6907,10 +6907,10 @@
         <v>372</v>
       </c>
       <c r="C370" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D370" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6921,7 +6921,7 @@
         <v>373</v>
       </c>
       <c r="C371" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D371" t="s">
         <v>429</v>
@@ -6935,10 +6935,10 @@
         <v>374</v>
       </c>
       <c r="C372" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D372" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -6949,7 +6949,7 @@
         <v>375</v>
       </c>
       <c r="C373" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D373" t="s">
         <v>427</v>
@@ -6966,7 +6966,7 @@
         <v>407</v>
       </c>
       <c r="D374" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -6977,10 +6977,10 @@
         <v>377</v>
       </c>
       <c r="C375" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D375" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6991,7 +6991,7 @@
         <v>378</v>
       </c>
       <c r="C376" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D376" t="s">
         <v>423</v>
@@ -7005,10 +7005,10 @@
         <v>379</v>
       </c>
       <c r="C377" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D377" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7019,10 +7019,10 @@
         <v>380</v>
       </c>
       <c r="C378" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="D378" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7061,10 +7061,10 @@
         <v>383</v>
       </c>
       <c r="C381" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D381" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7075,10 +7075,10 @@
         <v>384</v>
       </c>
       <c r="C382" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="D382" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7089,10 +7089,10 @@
         <v>385</v>
       </c>
       <c r="C383" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="D383" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7103,10 +7103,10 @@
         <v>386</v>
       </c>
       <c r="C384" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D384" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7117,10 +7117,10 @@
         <v>387</v>
       </c>
       <c r="C385" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="D385" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7176,7 +7176,7 @@
         <v>399</v>
       </c>
       <c r="D389" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7187,7 +7187,7 @@
         <v>392</v>
       </c>
       <c r="C390" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D390" t="s">
         <v>423</v>
@@ -7201,10 +7201,10 @@
         <v>393</v>
       </c>
       <c r="C391" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D391" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="392" spans="1:4">

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -43,12 +43,12 @@
     <t>Kevin Durant</t>
   </si>
   <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
     <t>Stephen Curry</t>
   </si>
   <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
     <t>Luka Doncic</t>
   </si>
   <si>
@@ -73,21 +73,21 @@
     <t>LeBron James</t>
   </si>
   <si>
+    <t>Paul George</t>
+  </si>
+  <si>
     <t>Devin Booker</t>
   </si>
   <si>
-    <t>Paul George</t>
-  </si>
-  <si>
     <t>Bam Adebayo</t>
   </si>
   <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
     <t>Shai GilgeousAlexander</t>
   </si>
   <si>
@@ -106,12 +106,12 @@
     <t>Rudy Gobert</t>
   </si>
   <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
     <t>Chris Paul</t>
   </si>
   <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
     <t>Ja Morant</t>
   </si>
   <si>
@@ -127,60 +127,60 @@
     <t>Deandre Ayton</t>
   </si>
   <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>DeMar DeRozan</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
     <t>Jrue Holiday</t>
   </si>
   <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Cade Cunningham</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>De'Aaron Fox</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
     <t>Robert Williams III</t>
   </si>
   <si>
-    <t>DeMar DeRozan</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Cade Cunningham</t>
-  </si>
-  <si>
-    <t>De'Aaron Fox</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
     <t>Brandon Ingram</t>
   </si>
   <si>
     <t>CJ McCollum</t>
   </si>
   <si>
+    <t>Terry Rozier</t>
+  </si>
+  <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
     <t>Jonas Valanciunas</t>
   </si>
   <si>
-    <t>Terry Rozier</t>
-  </si>
-  <si>
     <t>Zion Williamson</t>
   </si>
   <si>
@@ -199,24 +199,24 @@
     <t>Tobias Harris</t>
   </si>
   <si>
+    <t>Evan Mobley</t>
+  </si>
+  <si>
     <t>Christian Wood</t>
   </si>
   <si>
-    <t>Evan Mobley</t>
+    <t>Jusuf Nurkic</t>
   </si>
   <si>
     <t>Julius Randle</t>
   </si>
   <si>
-    <t>Jusuf Nurkic</t>
+    <t>Jakob Poeltl</t>
   </si>
   <si>
     <t>D'Angelo Russell</t>
   </si>
   <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
     <t>Jerami Grant</t>
   </si>
   <si>
@@ -235,24 +235,24 @@
     <t>Jordan Poole</t>
   </si>
   <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Keldon Johnson</t>
+  </si>
+  <si>
     <t>Wendell Carter Jr.</t>
   </si>
   <si>
     <t>Ben Simmons</t>
   </si>
   <si>
-    <t>Jalen Green</t>
+    <t>Scottie Barnes</t>
   </si>
   <si>
     <t>Marcus Smart</t>
   </si>
   <si>
-    <t>Keldon Johnson</t>
-  </si>
-  <si>
-    <t>Scottie Barnes</t>
-  </si>
-  <si>
     <t>Buddy Hield</t>
   </si>
   <si>
@@ -268,87 +268,87 @@
     <t>Mitchell Robinson</t>
   </si>
   <si>
+    <t>Josh Giddey</t>
+  </si>
+  <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
-    <t>Josh Giddey</t>
-  </si>
-  <si>
     <t>Gordon Hayward</t>
   </si>
   <si>
+    <t>Al Horford</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
+    <t>Malcolm Brogdon</t>
+  </si>
+  <si>
+    <t>Harrison Barnes</t>
+  </si>
+  <si>
+    <t>Russell Westbrook III</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
   </si>
   <si>
     <t>RJ Barrett</t>
   </si>
   <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
-    <t>Russell Westbrook III</t>
-  </si>
-  <si>
-    <t>Malcolm Brogdon</t>
-  </si>
-  <si>
-    <t>Al Horford</t>
-  </si>
-  <si>
-    <t>Harrison Barnes</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
     <t>Brandon Clarke</t>
   </si>
   <si>
+    <t>Isaiah Stewart</t>
+  </si>
+  <si>
     <t>Bobby Portis Jr.</t>
   </si>
   <si>
-    <t>Isaiah Stewart</t>
+    <t>Robert Covington</t>
   </si>
   <si>
     <t>Brook Lopez</t>
   </si>
   <si>
-    <t>Robert Covington</t>
-  </si>
-  <si>
     <t>Norman Powell</t>
   </si>
   <si>
+    <t>Kevin Porter Jr.</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
     <t>Bogdan Bogdanovic</t>
   </si>
   <si>
-    <t>Kevin Porter Jr.</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
     <t>Alperen Sengun</t>
   </si>
   <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
     <t>Jaren Jackson Jr.</t>
   </si>
   <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
     <t>Spencer Dinwiddie</t>
   </si>
   <si>
@@ -376,27 +376,27 @@
     <t>De'Anthony Melton</t>
   </si>
   <si>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
+    <t>Dorian FinneySmith</t>
+  </si>
+  <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
-    <t>Dorian FinneySmith</t>
-  </si>
-  <si>
     <t>Jaden McDaniels</t>
   </si>
   <si>
     <t>Kyle Anderson</t>
   </si>
   <si>
+    <t>Richaun Holmes</t>
+  </si>
+  <si>
     <t>Jalen Suggs</t>
   </si>
   <si>
-    <t>Richaun Holmes</t>
-  </si>
-  <si>
     <t>Aaron Gordon</t>
   </si>
   <si>
@@ -415,30 +415,30 @@
     <t>Nic Claxton</t>
   </si>
   <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
     <t>Josh Hart</t>
   </si>
   <si>
-    <t>Cole Anthony</t>
-  </si>
-  <si>
     <t>Daniel Gafford</t>
   </si>
   <si>
+    <t>Monte Morris</t>
+  </si>
+  <si>
     <t>Steven Adams</t>
   </si>
   <si>
-    <t>Monte Morris</t>
+    <t>Patrick Williams</t>
+  </si>
+  <si>
+    <t>Royce O'Neale</t>
   </si>
   <si>
     <t>Evan Fournier</t>
   </si>
   <si>
-    <t>Patrick Williams</t>
-  </si>
-  <si>
-    <t>Royce O'Neale</t>
-  </si>
-  <si>
     <t>Cameron Johnson</t>
   </si>
   <si>
@@ -448,84 +448,84 @@
     <t>Mason Plumlee</t>
   </si>
   <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
     <t>John Wall</t>
   </si>
   <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
     <t>Devonte' Graham</t>
   </si>
   <si>
+    <t>Jonathan Isaac</t>
+  </si>
+  <si>
+    <t>Chuma Okeke</t>
+  </si>
+  <si>
+    <t>Kevin Huerter</t>
+  </si>
+  <si>
     <t>Malik Beasley</t>
   </si>
   <si>
-    <t>Jonathan Isaac</t>
-  </si>
-  <si>
-    <t>Chuma Okeke</t>
+    <t>T.J. McConnell</t>
+  </si>
+  <si>
+    <t>Luguentz Dort</t>
+  </si>
+  <si>
+    <t>Andre Drummond</t>
+  </si>
+  <si>
+    <t>Aleksej Pokusevski</t>
+  </si>
+  <si>
+    <t>Marvin Bagley III</t>
+  </si>
+  <si>
+    <t>Seth Curry</t>
   </si>
   <si>
     <t>Keegan Murray</t>
   </si>
   <si>
-    <t>Kevin Huerter</t>
-  </si>
-  <si>
-    <t>T.J. McConnell</t>
-  </si>
-  <si>
-    <t>Luguentz Dort</t>
-  </si>
-  <si>
-    <t>Andre Drummond</t>
-  </si>
-  <si>
-    <t>Seth Curry</t>
-  </si>
-  <si>
-    <t>Aleksej Pokusevski</t>
-  </si>
-  <si>
-    <t>Marvin Bagley III</t>
-  </si>
-  <si>
     <t>Tim Hardaway Jr.</t>
   </si>
   <si>
+    <t>Matisse Thybulle</t>
+  </si>
+  <si>
+    <t>Markelle Fultz</t>
+  </si>
+  <si>
     <t>Joe Harris</t>
   </si>
   <si>
-    <t>Matisse Thybulle</t>
-  </si>
-  <si>
     <t>James Wiseman</t>
   </si>
   <si>
-    <t>Markelle Fultz</t>
-  </si>
-  <si>
     <t>Thomas Bryant</t>
   </si>
   <si>
     <t>Duncan Robinson</t>
   </si>
   <si>
+    <t>Isaiah Roby</t>
+  </si>
+  <si>
     <t>Kelly Olynyk</t>
   </si>
   <si>
-    <t>Isaiah Roby</t>
-  </si>
-  <si>
     <t>Kevin Love</t>
   </si>
   <si>
+    <t>Jae Crowder</t>
+  </si>
+  <si>
     <t>Donte DiVincenzo</t>
   </si>
   <si>
-    <t>Jae Crowder</t>
-  </si>
-  <si>
     <t>Nerlens Noel</t>
   </si>
   <si>
@@ -538,6 +538,9 @@
     <t>Immanuel Quickley</t>
   </si>
   <si>
+    <t>Montrezl Harrell</t>
+  </si>
+  <si>
     <t>Victor Oladipo</t>
   </si>
   <si>
@@ -547,40 +550,46 @@
     <t>Darius Bazley</t>
   </si>
   <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Bruce Brown Jr.</t>
+  </si>
+  <si>
     <t>Miles Bridges</t>
   </si>
   <si>
-    <t>Bruce Brown Jr.</t>
-  </si>
-  <si>
     <t>Herbert Jones</t>
   </si>
   <si>
-    <t>Devin Vassell</t>
+    <t>Killian Hayes</t>
   </si>
   <si>
     <t>T.J. Warren</t>
   </si>
   <si>
-    <t>Killian Hayes</t>
-  </si>
-  <si>
     <t>Otto Porter Jr.</t>
   </si>
   <si>
+    <t>Dennis Schroder</t>
+  </si>
+  <si>
     <t>Joe Ingles</t>
   </si>
   <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
     <t>Anfernee Simons</t>
   </si>
   <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
-    <t>Montrezl Harrell</t>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
+    <t>Isaac Okoro</t>
   </si>
   <si>
     <t>Maxi Kleber</t>
@@ -592,21 +601,15 @@
     <t>Josh Richardson</t>
   </si>
   <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
-    <t>Isaac Okoro</t>
-  </si>
-  <si>
     <t>Kevon Looney</t>
   </si>
   <si>
+    <t>Coby White</t>
+  </si>
+  <si>
     <t>Xavier Tillman</t>
   </si>
   <si>
-    <t>Coby White</t>
-  </si>
-  <si>
     <t>Nickeil AlexanderWalker</t>
   </si>
   <si>
@@ -616,54 +619,51 @@
     <t>Reggie Bullock</t>
   </si>
   <si>
+    <t>Jalen Smith</t>
+  </si>
+  <si>
     <t>Patrick Beverley</t>
   </si>
   <si>
-    <t>Jalen Smith</t>
+    <t>Precious Achiuwa</t>
   </si>
   <si>
     <t>Alec Burks</t>
   </si>
   <si>
-    <t>Precious Achiuwa</t>
-  </si>
-  <si>
-    <t>Dennis Schroder</t>
-  </si>
-  <si>
     <t>Derrick Rose</t>
   </si>
   <si>
     <t>P.J. Tucker</t>
   </si>
   <si>
+    <t>Kendrick Nunn</t>
+  </si>
+  <si>
     <t>Lonnie Walker IV</t>
   </si>
   <si>
-    <t>Kendrick Nunn</t>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Kemba Walker</t>
+  </si>
+  <si>
+    <t>Ricky Rubio</t>
   </si>
   <si>
     <t>Justin Holiday</t>
   </si>
   <si>
-    <t>Kemba Walker</t>
-  </si>
-  <si>
-    <t>Ricky Rubio</t>
+    <t>Jaxson Hayes</t>
+  </si>
+  <si>
+    <t>Cameron Payne</t>
   </si>
   <si>
     <t>Jalen Duren</t>
   </si>
   <si>
-    <t>Cameron Payne</t>
-  </si>
-  <si>
-    <t>Jaxson Hayes</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
     <t>Terance Mann</t>
   </si>
   <si>
@@ -682,60 +682,60 @@
     <t>Danilo Gallinari</t>
   </si>
   <si>
+    <t>Cam Reddish</t>
+  </si>
+  <si>
+    <t>Tre Jones</t>
+  </si>
+  <si>
+    <t>Hassan Whiteside</t>
+  </si>
+  <si>
+    <t>Derrick Favors</t>
+  </si>
+  <si>
+    <t>Khem Birch</t>
+  </si>
+  <si>
     <t>Nicolas Batum</t>
   </si>
   <si>
-    <t>Cam Reddish</t>
-  </si>
-  <si>
-    <t>Hassan Whiteside</t>
-  </si>
-  <si>
-    <t>Derrick Favors</t>
-  </si>
-  <si>
-    <t>Khem Birch</t>
-  </si>
-  <si>
-    <t>Tre Jones</t>
-  </si>
-  <si>
     <t>Jarred Vanderbilt</t>
   </si>
   <si>
+    <t>Onyeka Okongwu</t>
+  </si>
+  <si>
     <t>Facundo Campazzo</t>
   </si>
   <si>
     <t>Juan ToscanoAnderson</t>
   </si>
   <si>
-    <t>Onyeka Okongwu</t>
-  </si>
-  <si>
     <t>Eric Bledsoe</t>
   </si>
   <si>
     <t>Davis Bertans</t>
   </si>
   <si>
+    <t>Danny Green</t>
+  </si>
+  <si>
     <t>Walker Kessler</t>
   </si>
   <si>
-    <t>Danny Green</t>
+    <t>Alex Caruso</t>
   </si>
   <si>
     <t>Goran Dragic</t>
   </si>
   <si>
+    <t>Daniel Theis</t>
+  </si>
+  <si>
     <t>Eric Gordon</t>
   </si>
   <si>
-    <t>Daniel Theis</t>
-  </si>
-  <si>
-    <t>Alex Caruso</t>
-  </si>
-  <si>
     <t>Bones Hyland</t>
   </si>
   <si>
@@ -760,21 +760,21 @@
     <t>Moses Moody</t>
   </si>
   <si>
+    <t>JaVale McGee</t>
+  </si>
+  <si>
     <t>Moses Brown</t>
   </si>
   <si>
     <t>Theo Maledon</t>
   </si>
   <si>
-    <t>JaVale McGee</t>
+    <t>Jalen McDaniels</t>
   </si>
   <si>
     <t>Doug McDermott</t>
   </si>
   <si>
-    <t>Jalen McDaniels</t>
-  </si>
-  <si>
     <t>Tyus Jones</t>
   </si>
   <si>
@@ -787,6 +787,9 @@
     <t>Dario Saric</t>
   </si>
   <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
     <t>Rudy Gay</t>
   </si>
   <si>
@@ -796,7 +799,7 @@
     <t>Malachi Flynn</t>
   </si>
   <si>
-    <t>Ayo Dosunmu</t>
+    <t>Isaiah Jackson</t>
   </si>
   <si>
     <t>Cody Zeller</t>
@@ -808,31 +811,31 @@
     <t>Carmelo Anthony</t>
   </si>
   <si>
-    <t>Isaiah Jackson</t>
-  </si>
-  <si>
     <t>Dwight Howard</t>
   </si>
   <si>
     <t>Tomas Satoransky</t>
   </si>
   <si>
+    <t>Davion Mitchell</t>
+  </si>
+  <si>
     <t>Kentavious CaldwellPope</t>
   </si>
   <si>
-    <t>Davion Mitchell</t>
-  </si>
-  <si>
     <t>Grayson Allen</t>
   </si>
   <si>
+    <t>Gary Payton II</t>
+  </si>
+  <si>
     <t>Paul Millsap</t>
   </si>
   <si>
     <t>DeAndre Jordan</t>
   </si>
   <si>
-    <t>Gary Payton II</t>
+    <t>Cody Martin</t>
   </si>
   <si>
     <t>Jeremy Lamb</t>
@@ -841,36 +844,33 @@
     <t>Enes Freedom</t>
   </si>
   <si>
-    <t>Cody Martin</t>
+    <t>Caleb Martin</t>
   </si>
   <si>
     <t>JaMychal Green</t>
   </si>
   <si>
-    <t>Caleb Martin</t>
+    <t>Grant Williams</t>
   </si>
   <si>
     <t>Tristan Thompson</t>
   </si>
   <si>
-    <t>Grant Williams</t>
+    <t>Mark Williams</t>
   </si>
   <si>
     <t>Josh Jackson</t>
   </si>
   <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Pat Connaughton</t>
+  </si>
+  <si>
     <t>Max Strus</t>
   </si>
   <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Pat Connaughton</t>
-  </si>
-  <si>
     <t>Shake Milton</t>
   </si>
   <si>
@@ -892,36 +892,36 @@
     <t>Jalen Williams</t>
   </si>
   <si>
+    <t>Damian Jones</t>
+  </si>
+  <si>
     <t>Trey Murphy III</t>
   </si>
   <si>
     <t>Zach Collins</t>
   </si>
   <si>
+    <t>Joshua Primo</t>
+  </si>
+  <si>
+    <t>Isaiah Livers</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
     <t>Austin Reaves</t>
   </si>
   <si>
-    <t>Joshua Primo</t>
-  </si>
-  <si>
-    <t>Damian Jones</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
-    <t>Isaiah Livers</t>
+    <t>Josh Christopher</t>
   </si>
   <si>
     <t>Talen HortonTucker</t>
   </si>
   <si>
-    <t>Josh Christopher</t>
-  </si>
-  <si>
     <t>Drew Eubanks</t>
   </si>
   <si>
@@ -931,48 +931,48 @@
     <t>Malaki Branham</t>
   </si>
   <si>
+    <t>Gabe Vincent</t>
+  </si>
+  <si>
     <t>Ziaire Williams</t>
   </si>
   <si>
-    <t>Gabe Vincent</t>
-  </si>
-  <si>
     <t>Dyson Daniels</t>
   </si>
   <si>
+    <t>Tre Mann</t>
+  </si>
+  <si>
+    <t>Chimezie Metu</t>
+  </si>
+  <si>
+    <t>Ty Jerome</t>
+  </si>
+  <si>
+    <t>Corey Kispert</t>
+  </si>
+  <si>
     <t>Trendon Watford</t>
   </si>
   <si>
-    <t>Chimezie Metu</t>
+    <t>Ochai Agbaji</t>
   </si>
   <si>
     <t>Paul Reed</t>
   </si>
   <si>
-    <t>Tre Mann</t>
-  </si>
-  <si>
-    <t>Ty Jerome</t>
-  </si>
-  <si>
-    <t>Corey Kispert</t>
-  </si>
-  <si>
-    <t>Ochai Agbaji</t>
+    <t>TyTy Washington Jr.</t>
+  </si>
+  <si>
+    <t>Jeremiah RobinsonEarl</t>
   </si>
   <si>
     <t>Day'Ron Sharpe</t>
   </si>
   <si>
-    <t>TyTy Washington Jr.</t>
-  </si>
-  <si>
     <t>Nemanja Bjelica</t>
   </si>
   <si>
-    <t>Jeremiah RobinsonEarl</t>
-  </si>
-  <si>
     <t>Shaedon Sharpe</t>
   </si>
   <si>
@@ -985,102 +985,102 @@
     <t>Zeke Nnaji</t>
   </si>
   <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
     <t>Johnny Davis</t>
   </si>
   <si>
+    <t>Usman Garuba</t>
+  </si>
+  <si>
     <t>Trevor Ariza</t>
   </si>
   <si>
-    <t>Payton Pritchard</t>
+    <t>Jake LaRavia</t>
+  </si>
+  <si>
+    <t>Trey Lyles</t>
   </si>
   <si>
     <t>Udoka Azubuike</t>
   </si>
   <si>
-    <t>Jake LaRavia</t>
-  </si>
-  <si>
-    <t>Trey Lyles</t>
-  </si>
-  <si>
-    <t>Usman Garuba</t>
-  </si>
-  <si>
     <t>Omer Yurtseven</t>
   </si>
   <si>
+    <t>Terence Davis II</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
+    <t>Oshae Brissett</t>
+  </si>
+  <si>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
+    <t>Landry Shamet</t>
+  </si>
+  <si>
+    <t>Jordan McLaughlin</t>
+  </si>
+  <si>
+    <t>Bismack Biyombo</t>
+  </si>
+  <si>
+    <t>Jaden Hardy</t>
+  </si>
+  <si>
+    <t>Jeff Green</t>
+  </si>
+  <si>
+    <t>Trevor Keels</t>
+  </si>
+  <si>
+    <t>AJ Griffin</t>
+  </si>
+  <si>
     <t>Georges Niang</t>
   </si>
   <si>
-    <t>Terence Davis II</t>
-  </si>
-  <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
-    <t>Landry Shamet</t>
-  </si>
-  <si>
-    <t>Oshae Brissett</t>
-  </si>
-  <si>
-    <t>Jordan McLaughlin</t>
-  </si>
-  <si>
-    <t>Taurean Prince</t>
-  </si>
-  <si>
-    <t>Bismack Biyombo</t>
-  </si>
-  <si>
-    <t>Jaden Hardy</t>
-  </si>
-  <si>
-    <t>Trevor Keels</t>
-  </si>
-  <si>
-    <t>Jeff Green</t>
-  </si>
-  <si>
-    <t>AJ Griffin</t>
+    <t>John Konchar</t>
+  </si>
+  <si>
+    <t>Jericho Sims</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Jaylin Williams</t>
+  </si>
+  <si>
+    <t>Garrison Mathews</t>
+  </si>
+  <si>
+    <t>Aaron Nesmith</t>
+  </si>
+  <si>
+    <t>Jared Butler</t>
+  </si>
+  <si>
+    <t>Kenrich Williams</t>
+  </si>
+  <si>
+    <t>Ousmane Dieng</t>
+  </si>
+  <si>
+    <t>Torrey Craig</t>
+  </si>
+  <si>
+    <t>Josh Green</t>
   </si>
   <si>
     <t>Gary Harris</t>
   </si>
   <si>
-    <t>John Konchar</t>
-  </si>
-  <si>
-    <t>Jericho Sims</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>Garrison Mathews</t>
-  </si>
-  <si>
-    <t>Jaylin Williams</t>
-  </si>
-  <si>
-    <t>Aaron Nesmith</t>
-  </si>
-  <si>
-    <t>Jared Butler</t>
-  </si>
-  <si>
-    <t>Kenrich Williams</t>
-  </si>
-  <si>
-    <t>Torrey Craig</t>
-  </si>
-  <si>
-    <t>Ousmane Dieng</t>
-  </si>
-  <si>
-    <t>Josh Green</t>
-  </si>
-  <si>
     <t>Christian Braun</t>
   </si>
   <si>
@@ -1114,12 +1114,12 @@
     <t>Christian Koloko</t>
   </si>
   <si>
+    <t>Max Christie</t>
+  </si>
+  <si>
     <t>George Hill</t>
   </si>
   <si>
-    <t>Max Christie</t>
-  </si>
-  <si>
     <t>Gabriele Procida</t>
   </si>
   <si>
@@ -1132,15 +1132,15 @@
     <t>Khalifa Diop</t>
   </si>
   <si>
+    <t>Mike Muscala</t>
+  </si>
+  <si>
+    <t>Bryce McGowens</t>
+  </si>
+  <si>
     <t>Wesley Matthews</t>
   </si>
   <si>
-    <t>Mike Muscala</t>
-  </si>
-  <si>
-    <t>Bryce McGowens</t>
-  </si>
-  <si>
     <t>E.J. Liddell</t>
   </si>
   <si>
@@ -1159,30 +1159,30 @@
     <t>Josh Minott</t>
   </si>
   <si>
+    <t>Ismael Kamagate</t>
+  </si>
+  <si>
+    <t>Simone Fontecchio</t>
+  </si>
+  <si>
+    <t>Vince Williams Jr.</t>
+  </si>
+  <si>
+    <t>Kendall Brown</t>
+  </si>
+  <si>
+    <t>Isaiah Mobley</t>
+  </si>
+  <si>
+    <t>James Bouknight</t>
+  </si>
+  <si>
+    <t>Matteo Spagnolo</t>
+  </si>
+  <si>
     <t>Justise Winslow</t>
   </si>
   <si>
-    <t>Ismael Kamagate</t>
-  </si>
-  <si>
-    <t>Vince Williams Jr.</t>
-  </si>
-  <si>
-    <t>Kendall Brown</t>
-  </si>
-  <si>
-    <t>Isaiah Mobley</t>
-  </si>
-  <si>
-    <t>Troy Brown Jr.</t>
-  </si>
-  <si>
-    <t>Matteo Spagnolo</t>
-  </si>
-  <si>
-    <t>James Bouknight</t>
-  </si>
-  <si>
     <t>Tyrese Martin</t>
   </si>
   <si>
@@ -1225,12 +1225,12 @@
     <t>PG,SG,SF,PF</t>
   </si>
   <si>
+    <t>SF,PF,SG</t>
+  </si>
+  <si>
     <t>SG,SF,PG</t>
   </si>
   <si>
-    <t>SF,PF,SG</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
@@ -1288,12 +1288,12 @@
     <t>BKN</t>
   </si>
   <si>
+    <t>BOS</t>
+  </si>
+  <si>
     <t>GSW</t>
   </si>
   <si>
-    <t>BOS</t>
-  </si>
-  <si>
     <t>DAL</t>
   </si>
   <si>
@@ -1312,21 +1312,21 @@
     <t>LAL</t>
   </si>
   <si>
+    <t>LAC</t>
+  </si>
+  <si>
     <t>PHO</t>
   </si>
   <si>
-    <t>LAC</t>
-  </si>
-  <si>
     <t>MIA</t>
   </si>
   <si>
+    <t>SAC</t>
+  </si>
+  <si>
     <t>IND</t>
   </si>
   <si>
-    <t>SAC</t>
-  </si>
-  <si>
     <t>OKC</t>
   </si>
   <si>
@@ -1357,10 +1357,10 @@
     <t>SAS</t>
   </si>
   <si>
+    <t>HOU</t>
+  </si>
+  <si>
     <t>ORL</t>
-  </si>
-  <si>
-    <t>HOU</t>
   </si>
   <si>
     <t>UTH</t>
@@ -1811,7 +1811,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D6" t="s">
         <v>423</v>
@@ -1825,7 +1825,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D7" t="s">
         <v>424</v>
@@ -1993,7 +1993,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D19" t="s">
         <v>434</v>
@@ -2007,7 +2007,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D20" t="s">
         <v>435</v>
@@ -2035,7 +2035,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D22" t="s">
         <v>433</v>
@@ -2105,10 +2105,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D27" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2119,10 +2119,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D28" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2192,7 +2192,7 @@
         <v>399</v>
       </c>
       <c r="D33" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2203,10 +2203,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D34" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2217,10 +2217,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D35" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2231,7 +2231,7 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D36" t="s">
         <v>441</v>
@@ -2245,10 +2245,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2262,7 +2262,7 @@
         <v>404</v>
       </c>
       <c r="D38" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2276,7 +2276,7 @@
         <v>398</v>
       </c>
       <c r="D39" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2287,10 +2287,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D40" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2301,10 +2301,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D41" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2315,10 +2315,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D42" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2332,7 +2332,7 @@
         <v>396</v>
       </c>
       <c r="D43" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2343,10 +2343,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D44" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2357,10 +2357,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D45" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2371,10 +2371,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D46" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2413,10 +2413,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D49" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2427,10 +2427,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D50" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2441,10 +2441,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D51" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2472,7 +2472,7 @@
         <v>404</v>
       </c>
       <c r="D53" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2539,10 +2539,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D58" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2553,10 +2553,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D59" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2567,10 +2567,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D60" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2581,10 +2581,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D61" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2595,10 +2595,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D62" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2609,10 +2609,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D63" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2654,7 +2654,7 @@
         <v>396</v>
       </c>
       <c r="D66" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2696,7 +2696,7 @@
         <v>398</v>
       </c>
       <c r="D69" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2707,7 +2707,7 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D70" t="s">
         <v>446</v>
@@ -2721,10 +2721,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D71" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2735,7 +2735,7 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D72" t="s">
         <v>447</v>
@@ -2749,10 +2749,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D73" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2766,7 +2766,7 @@
         <v>397</v>
       </c>
       <c r="D74" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2777,10 +2777,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D75" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2794,7 +2794,7 @@
         <v>404</v>
       </c>
       <c r="D76" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2861,10 +2861,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D81" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2875,10 +2875,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D82" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2903,10 +2903,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D84" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2920,7 +2920,7 @@
         <v>404</v>
       </c>
       <c r="D85" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2931,10 +2931,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D86" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2945,10 +2945,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D87" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2962,7 +2962,7 @@
         <v>398</v>
       </c>
       <c r="D88" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2973,10 +2973,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D89" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2987,10 +2987,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D90" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3001,10 +3001,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D91" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3018,7 +3018,7 @@
         <v>397</v>
       </c>
       <c r="D92" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3029,10 +3029,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D93" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3043,10 +3043,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D94" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3057,10 +3057,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D95" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3088,7 +3088,7 @@
         <v>396</v>
       </c>
       <c r="D97" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3102,7 +3102,7 @@
         <v>396</v>
       </c>
       <c r="D98" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3113,10 +3113,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="D99" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3127,10 +3127,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="D100" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3144,7 +3144,7 @@
         <v>404</v>
       </c>
       <c r="D101" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3158,7 +3158,7 @@
         <v>403</v>
       </c>
       <c r="D102" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3169,10 +3169,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D103" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3183,10 +3183,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D104" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3200,7 +3200,7 @@
         <v>399</v>
       </c>
       <c r="D105" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3211,10 +3211,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D106" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3225,10 +3225,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D107" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3298,7 +3298,7 @@
         <v>399</v>
       </c>
       <c r="D112" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3312,7 +3312,7 @@
         <v>398</v>
       </c>
       <c r="D113" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3340,7 +3340,7 @@
         <v>398</v>
       </c>
       <c r="D115" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3365,10 +3365,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D117" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3379,10 +3379,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D118" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3396,7 +3396,7 @@
         <v>397</v>
       </c>
       <c r="D119" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3435,10 +3435,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D122" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3449,10 +3449,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D123" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3480,7 +3480,7 @@
         <v>397</v>
       </c>
       <c r="D125" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3547,10 +3547,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D130" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3561,10 +3561,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D131" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3589,10 +3589,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D133" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3603,10 +3603,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D134" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3617,10 +3617,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D135" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3634,7 +3634,7 @@
         <v>397</v>
       </c>
       <c r="D136" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3645,10 +3645,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D137" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3662,7 +3662,7 @@
         <v>397</v>
       </c>
       <c r="D138" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3701,10 +3701,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D141" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3715,10 +3715,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D142" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3743,10 +3743,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D144" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3757,10 +3757,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D145" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3771,10 +3771,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D146" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3785,10 +3785,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D147" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3799,7 +3799,7 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D148" t="s">
         <v>435</v>
@@ -3813,10 +3813,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D149" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3827,10 +3827,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D150" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3841,10 +3841,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D151" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3855,10 +3855,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D152" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3869,10 +3869,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D153" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3883,10 +3883,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D154" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3914,7 +3914,7 @@
         <v>404</v>
       </c>
       <c r="D156" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3925,10 +3925,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D157" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3939,10 +3939,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D158" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3953,10 +3953,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D159" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3995,10 +3995,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D162" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4009,10 +4009,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D163" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4037,10 +4037,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D165" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4051,10 +4051,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D166" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4096,7 +4096,7 @@
         <v>412</v>
       </c>
       <c r="D169" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4121,10 +4121,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D171" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4135,10 +4135,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D172" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4152,7 +4152,7 @@
         <v>397</v>
       </c>
       <c r="D173" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4166,7 +4166,7 @@
         <v>397</v>
       </c>
       <c r="D174" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4180,7 +4180,7 @@
         <v>404</v>
       </c>
       <c r="D175" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4191,10 +4191,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D176" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4205,10 +4205,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D177" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4219,10 +4219,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="D178" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4250,7 +4250,7 @@
         <v>397</v>
       </c>
       <c r="D180" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4261,10 +4261,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D181" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4275,10 +4275,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D182" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4289,10 +4289,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D183" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4303,10 +4303,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D184" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4317,10 +4317,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D185" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4331,10 +4331,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D186" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4345,10 +4345,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D187" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4362,7 +4362,7 @@
         <v>404</v>
       </c>
       <c r="D188" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4373,10 +4373,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D189" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4387,10 +4387,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D190" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4401,10 +4401,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D191" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4418,7 +4418,7 @@
         <v>396</v>
       </c>
       <c r="D192" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4443,10 +4443,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D194" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4457,10 +4457,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D195" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4471,10 +4471,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D196" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4485,10 +4485,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D197" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4502,7 +4502,7 @@
         <v>396</v>
       </c>
       <c r="D198" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4513,10 +4513,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D199" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4541,10 +4541,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D201" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4583,7 +4583,7 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D204" t="s">
         <v>430</v>
@@ -4597,7 +4597,7 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D205" t="s">
         <v>430</v>
@@ -4614,7 +4614,7 @@
         <v>404</v>
       </c>
       <c r="D206" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4653,10 +4653,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D209" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4667,10 +4667,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D210" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4681,10 +4681,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D211" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4695,10 +4695,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D212" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4712,7 +4712,7 @@
         <v>414</v>
       </c>
       <c r="D213" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4740,7 +4740,7 @@
         <v>404</v>
       </c>
       <c r="D215" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4754,7 +4754,7 @@
         <v>410</v>
       </c>
       <c r="D216" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4768,7 +4768,7 @@
         <v>404</v>
       </c>
       <c r="D217" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4782,7 +4782,7 @@
         <v>397</v>
       </c>
       <c r="D218" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4793,10 +4793,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D219" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4807,10 +4807,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D220" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4863,10 +4863,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D224" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4891,10 +4891,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D226" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4905,10 +4905,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D227" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4919,10 +4919,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D228" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4961,10 +4961,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D231" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4975,10 +4975,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D232" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5003,10 +5003,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D234" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5020,7 +5020,7 @@
         <v>396</v>
       </c>
       <c r="D235" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5031,10 +5031,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D236" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5076,7 +5076,7 @@
         <v>397</v>
       </c>
       <c r="D239" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5132,7 +5132,7 @@
         <v>409</v>
       </c>
       <c r="D243" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5146,7 +5146,7 @@
         <v>414</v>
       </c>
       <c r="D244" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5160,7 +5160,7 @@
         <v>399</v>
       </c>
       <c r="D245" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5171,10 +5171,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D246" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5185,10 +5185,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D247" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5199,10 +5199,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D248" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5213,10 +5213,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D249" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5258,7 +5258,7 @@
         <v>410</v>
       </c>
       <c r="D252" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5272,7 +5272,7 @@
         <v>396</v>
       </c>
       <c r="D253" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5283,10 +5283,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D254" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5297,10 +5297,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D255" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5311,10 +5311,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D256" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5325,10 +5325,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D257" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5339,10 +5339,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D258" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5353,7 +5353,7 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D259" t="s">
         <v>449</v>
@@ -5367,7 +5367,7 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D260" t="s">
         <v>449</v>
@@ -5381,10 +5381,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D261" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5423,10 +5423,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D264" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5437,10 +5437,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D265" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5465,10 +5465,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D267" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5479,10 +5479,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D268" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5493,10 +5493,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D269" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5510,7 +5510,7 @@
         <v>404</v>
       </c>
       <c r="D270" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5521,7 +5521,7 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D271" t="s">
         <v>449</v>
@@ -5535,10 +5535,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D272" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5549,10 +5549,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="D273" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5563,10 +5563,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="D274" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5577,10 +5577,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D275" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5591,10 +5591,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D276" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5605,10 +5605,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D277" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5622,7 +5622,7 @@
         <v>404</v>
       </c>
       <c r="D278" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5633,10 +5633,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D279" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5647,10 +5647,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D280" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5664,7 +5664,7 @@
         <v>404</v>
       </c>
       <c r="D281" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5706,7 +5706,7 @@
         <v>398</v>
       </c>
       <c r="D284" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5773,10 +5773,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D289" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5787,10 +5787,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D290" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5801,10 +5801,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D291" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5829,10 +5829,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D293" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5860,7 +5860,7 @@
         <v>409</v>
       </c>
       <c r="D295" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5871,10 +5871,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D296" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5885,10 +5885,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D297" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5899,10 +5899,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D298" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5955,10 +5955,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="D302" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5969,10 +5969,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="D303" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5997,10 +5997,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="D305" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6014,7 +6014,7 @@
         <v>396</v>
       </c>
       <c r="D306" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6025,10 +6025,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D307" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6039,10 +6039,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D308" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6053,10 +6053,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D309" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6067,10 +6067,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="D310" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6081,10 +6081,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="D311" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6095,10 +6095,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D312" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6109,10 +6109,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D313" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6123,10 +6123,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D314" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6137,10 +6137,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D315" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6207,10 +6207,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D320" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6221,10 +6221,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D321" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6235,10 +6235,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D322" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6249,10 +6249,10 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D323" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6280,7 +6280,7 @@
         <v>396</v>
       </c>
       <c r="D325" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6291,10 +6291,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D326" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6319,10 +6319,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D328" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6333,7 +6333,7 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D329" t="s">
         <v>435</v>
@@ -6347,10 +6347,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D330" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6361,10 +6361,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D331" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6375,10 +6375,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D332" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6403,10 +6403,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D334" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6417,10 +6417,10 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="D335" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6431,10 +6431,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="D336" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6459,10 +6459,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="D338" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6473,10 +6473,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="D339" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6487,10 +6487,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="D340" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6501,10 +6501,10 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D341" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6515,10 +6515,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D342" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6529,10 +6529,10 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D343" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6546,7 +6546,7 @@
         <v>404</v>
       </c>
       <c r="D344" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6557,10 +6557,10 @@
         <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D345" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6571,10 +6571,10 @@
         <v>348</v>
       </c>
       <c r="C346" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D346" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6585,10 +6585,10 @@
         <v>349</v>
       </c>
       <c r="C347" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D347" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6599,7 +6599,7 @@
         <v>350</v>
       </c>
       <c r="C348" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="D348" t="s">
         <v>436</v>
@@ -6616,7 +6616,7 @@
         <v>404</v>
       </c>
       <c r="D349" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6627,10 +6627,10 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="D350" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6644,7 +6644,7 @@
         <v>404</v>
       </c>
       <c r="D351" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6742,7 +6742,7 @@
         <v>416</v>
       </c>
       <c r="D358" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6770,7 +6770,7 @@
         <v>400</v>
       </c>
       <c r="D360" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6784,7 +6784,7 @@
         <v>416</v>
       </c>
       <c r="D361" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6809,10 +6809,10 @@
         <v>365</v>
       </c>
       <c r="C363" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="D363" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6823,10 +6823,10 @@
         <v>366</v>
       </c>
       <c r="C364" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D364" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6854,7 +6854,7 @@
         <v>396</v>
       </c>
       <c r="D366" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6893,10 +6893,10 @@
         <v>371</v>
       </c>
       <c r="C369" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D369" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6907,10 +6907,10 @@
         <v>372</v>
       </c>
       <c r="C370" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="D370" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6921,10 +6921,10 @@
         <v>373</v>
       </c>
       <c r="C371" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D371" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6966,7 +6966,7 @@
         <v>407</v>
       </c>
       <c r="D374" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -6994,7 +6994,7 @@
         <v>409</v>
       </c>
       <c r="D376" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7019,10 +7019,10 @@
         <v>380</v>
       </c>
       <c r="C378" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="D378" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7033,10 +7033,10 @@
         <v>381</v>
       </c>
       <c r="C379" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="D379" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7064,7 +7064,7 @@
         <v>410</v>
       </c>
       <c r="D381" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7089,10 +7089,10 @@
         <v>385</v>
       </c>
       <c r="C383" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D383" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7117,10 +7117,10 @@
         <v>387</v>
       </c>
       <c r="C385" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="D385" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7162,7 +7162,7 @@
         <v>400</v>
       </c>
       <c r="D388" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7190,7 +7190,7 @@
         <v>410</v>
       </c>
       <c r="D390" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="391" spans="1:4">

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -37,1038 +37,1038 @@
     <t>Joel Embiid</t>
   </si>
   <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
-    <t>Kevin Durant</t>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Luka Doncic</t>
   </si>
   <si>
     <t>Jayson Tatum</t>
   </si>
   <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
-    <t>Luka Doncic</t>
-  </si>
-  <si>
     <t>KarlAnthony Towns</t>
   </si>
   <si>
-    <t>James Harden</t>
-  </si>
-  <si>
     <t>Trae Young</t>
   </si>
   <si>
+    <t>LaMelo Ball</t>
+  </si>
+  <si>
     <t>Damian Lillard</t>
   </si>
   <si>
-    <t>LaMelo Ball</t>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
   </si>
   <si>
     <t>Anthony Davis</t>
   </si>
   <si>
-    <t>LeBron James</t>
+    <t>Devin Booker</t>
   </si>
   <si>
     <t>Paul George</t>
   </si>
   <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
     <t>Bam Adebayo</t>
   </si>
   <si>
     <t>Domantas Sabonis</t>
   </si>
   <si>
-    <t>Tyrese Haliburton</t>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Ja Morant</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>DeMar DeRozan</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Nikola Vucevic</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
   </si>
   <si>
     <t>Shai GilgeousAlexander</t>
   </si>
   <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Ja Morant</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Nikola Vucevic</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>DeMar DeRozan</t>
+    <t>Cade Cunningham</t>
+  </si>
+  <si>
+    <t>Jrue Holiday</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
   </si>
   <si>
     <t>Zach LaVine</t>
   </si>
   <si>
-    <t>Darius Garland</t>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Terry Rozier</t>
   </si>
   <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
-    <t>Jrue Holiday</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Cade Cunningham</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
+    <t>Robert Williams III</t>
+  </si>
+  <si>
+    <t>Evan Mobley</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
   </si>
   <si>
     <t>De'Aaron Fox</t>
   </si>
   <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Robert Williams III</t>
+    <t>CJ McCollum</t>
   </si>
   <si>
     <t>Brandon Ingram</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Terry Rozier</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Jonas Valanciunas</t>
+    <t>Mikal Bridges</t>
   </si>
   <si>
     <t>Zion Williamson</t>
   </si>
   <si>
-    <t>Mikal Bridges</t>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Scottie Barnes</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
   </si>
   <si>
     <t>Michael Porter Jr.</t>
   </si>
   <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Evan Mobley</t>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Jusuf Nurkic</t>
+  </si>
+  <si>
+    <t>Julius Randle</t>
   </si>
   <si>
     <t>Christian Wood</t>
   </si>
   <si>
-    <t>Jusuf Nurkic</t>
-  </si>
-  <si>
-    <t>Julius Randle</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
     <t>Jerami Grant</t>
   </si>
   <si>
+    <t>Tyler Herro</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>Keldon Johnson</t>
+  </si>
+  <si>
+    <t>Ben Simmons</t>
+  </si>
+  <si>
+    <t>Brandon Clarke</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Kyle Lowry</t>
+  </si>
+  <si>
+    <t>Josh Giddey</t>
+  </si>
+  <si>
+    <t>Marcus Smart</t>
+  </si>
+  <si>
+    <t>Alperen Sengun</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Saddiq Bey</t>
+  </si>
+  <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
     <t>Clint Capela</t>
   </si>
   <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Keldon Johnson</t>
-  </si>
-  <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
-    <t>Ben Simmons</t>
-  </si>
-  <si>
-    <t>Scottie Barnes</t>
-  </si>
-  <si>
-    <t>Marcus Smart</t>
-  </si>
-  <si>
-    <t>Buddy Hield</t>
-  </si>
-  <si>
-    <t>Kyle Lowry</t>
-  </si>
-  <si>
-    <t>Saddiq Bey</t>
-  </si>
-  <si>
-    <t>Tyler Herro</t>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Gordon Hayward</t>
+  </si>
+  <si>
+    <t>Al Horford</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
   </si>
   <si>
     <t>Mitchell Robinson</t>
   </si>
   <si>
-    <t>Josh Giddey</t>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Bobby Portis Jr.</t>
+  </si>
+  <si>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
+    <t>Harrison Barnes</t>
   </si>
   <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
-    <t>Gordon Hayward</t>
-  </si>
-  <si>
-    <t>Al Horford</t>
-  </si>
-  <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
     <t>Collin Sexton</t>
   </si>
   <si>
-    <t>P.J. Washington</t>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Brook Lopez</t>
   </si>
   <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
+    <t>Robert Covington</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
     <t>Malcolm Brogdon</t>
   </si>
   <si>
-    <t>Harrison Barnes</t>
+    <t>Kevin Porter Jr.</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Isaiah Stewart</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Bogdan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Dorian FinneySmith</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Monte Morris</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Mo Bamba</t>
+  </si>
+  <si>
+    <t>De'Anthony Melton</t>
+  </si>
+  <si>
+    <t>Nic Claxton</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Bojan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Herbert Jones</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Reggie Jackson</t>
+  </si>
+  <si>
+    <t>Derrick White</t>
+  </si>
+  <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>Patrick Williams</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Jae'Sean Tate</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Will Barton</t>
   </si>
   <si>
     <t>Russell Westbrook III</t>
   </si>
   <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Brandon Clarke</t>
-  </si>
-  <si>
-    <t>Isaiah Stewart</t>
-  </si>
-  <si>
-    <t>Bobby Portis Jr.</t>
-  </si>
-  <si>
-    <t>Robert Covington</t>
-  </si>
-  <si>
-    <t>Brook Lopez</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Kevin Porter Jr.</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Bogdan Bogdanovic</t>
-  </si>
-  <si>
-    <t>Alperen Sengun</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Spencer Dinwiddie</t>
-  </si>
-  <si>
-    <t>Gary Trent Jr.</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
+    <t>Steven Adams</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Kyle Anderson</t>
+  </si>
+  <si>
+    <t>Richaun Holmes</t>
+  </si>
+  <si>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Jalen Smith</t>
+  </si>
+  <si>
+    <t>Markelle Fultz</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
+    <t>Mason Plumlee</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Kevin Huerter</t>
+  </si>
+  <si>
+    <t>Luguentz Dort</t>
+  </si>
+  <si>
+    <t>Marvin Bagley III</t>
+  </si>
+  <si>
+    <t>Andre Drummond</t>
+  </si>
+  <si>
+    <t>Seth Curry</t>
+  </si>
+  <si>
+    <t>Matisse Thybulle</t>
   </si>
   <si>
     <t>Caris LeVert</t>
   </si>
   <si>
-    <t>Mo Bamba</t>
-  </si>
-  <si>
-    <t>Derrick White</t>
-  </si>
-  <si>
-    <t>Bojan Bogdanovic</t>
-  </si>
-  <si>
-    <t>Reggie Jackson</t>
-  </si>
-  <si>
-    <t>De'Anthony Melton</t>
-  </si>
-  <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
-    <t>Dorian FinneySmith</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Kyle Anderson</t>
-  </si>
-  <si>
-    <t>Richaun Holmes</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Jae'Sean Tate</t>
+    <t>Chuma Okeke</t>
+  </si>
+  <si>
+    <t>Bruce Brown Jr.</t>
+  </si>
+  <si>
+    <t>Jonathan Isaac</t>
+  </si>
+  <si>
+    <t>Thomas Bryant</t>
+  </si>
+  <si>
+    <t>Aleksej Pokusevski</t>
+  </si>
+  <si>
+    <t>Tre Jones</t>
+  </si>
+  <si>
+    <t>Tim Hardaway Jr.</t>
+  </si>
+  <si>
+    <t>Onyeka Okongwu</t>
+  </si>
+  <si>
+    <t>Kevin Love</t>
+  </si>
+  <si>
+    <t>Jarred Vanderbilt</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>John Wall</t>
+  </si>
+  <si>
+    <t>Obi Toppin</t>
+  </si>
+  <si>
+    <t>Jae Crowder</t>
   </si>
   <si>
     <t>Chris Boucher</t>
   </si>
   <si>
-    <t>Will Barton</t>
-  </si>
-  <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
-    <t>Nic Claxton</t>
-  </si>
-  <si>
-    <t>Cole Anthony</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Monte Morris</t>
-  </si>
-  <si>
-    <t>Steven Adams</t>
-  </si>
-  <si>
-    <t>Patrick Williams</t>
-  </si>
-  <si>
-    <t>Royce O'Neale</t>
+    <t>Bennedict Mathurin</t>
+  </si>
+  <si>
+    <t>Darius Bazley</t>
   </si>
   <si>
     <t>Evan Fournier</t>
   </si>
   <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Mason Plumlee</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>John Wall</t>
+    <t>Bones Hyland</t>
+  </si>
+  <si>
+    <t>Otto Porter Jr.</t>
+  </si>
+  <si>
+    <t>Isaiah Hartenstein</t>
+  </si>
+  <si>
+    <t>Victor Oladipo</t>
+  </si>
+  <si>
+    <t>Alex Caruso</t>
+  </si>
+  <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Killian Hayes</t>
+  </si>
+  <si>
+    <t>James Wiseman</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Patrick Beverley</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>JaVale McGee</t>
+  </si>
+  <si>
+    <t>Chris Duarte</t>
   </si>
   <si>
     <t>Devonte' Graham</t>
   </si>
   <si>
-    <t>Jonathan Isaac</t>
-  </si>
-  <si>
-    <t>Chuma Okeke</t>
-  </si>
-  <si>
-    <t>Kevin Huerter</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
+    <t>Reggie Bullock</t>
   </si>
   <si>
     <t>T.J. McConnell</t>
   </si>
   <si>
-    <t>Luguentz Dort</t>
-  </si>
-  <si>
-    <t>Andre Drummond</t>
-  </si>
-  <si>
-    <t>Aleksej Pokusevski</t>
-  </si>
-  <si>
-    <t>Marvin Bagley III</t>
-  </si>
-  <si>
-    <t>Seth Curry</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Tim Hardaway Jr.</t>
-  </si>
-  <si>
-    <t>Matisse Thybulle</t>
-  </si>
-  <si>
-    <t>Markelle Fultz</t>
+    <t>Kendrick Nunn</t>
   </si>
   <si>
     <t>Joe Harris</t>
   </si>
   <si>
-    <t>James Wiseman</t>
-  </si>
-  <si>
-    <t>Thomas Bryant</t>
+    <t>Jaxson Hayes</t>
   </si>
   <si>
     <t>Duncan Robinson</t>
   </si>
   <si>
+    <t>Cameron Payne</t>
+  </si>
+  <si>
+    <t>Josh Richardson</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
     <t>Isaiah Roby</t>
   </si>
   <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Delon Wright</t>
+  </si>
+  <si>
+    <t>Larry Nance Jr.</t>
+  </si>
+  <si>
+    <t>Montrezl Harrell</t>
+  </si>
+  <si>
+    <t>Marcus Morris Sr.</t>
+  </si>
+  <si>
     <t>Kelly Olynyk</t>
   </si>
   <si>
-    <t>Kevin Love</t>
-  </si>
-  <si>
-    <t>Jae Crowder</t>
-  </si>
-  <si>
-    <t>Donte DiVincenzo</t>
+    <t>Kentavious CaldwellPope</t>
+  </si>
+  <si>
+    <t>Kevon Looney</t>
+  </si>
+  <si>
+    <t>Maxi Kleber</t>
+  </si>
+  <si>
+    <t>Isaiah Jackson</t>
   </si>
   <si>
     <t>Nerlens Noel</t>
   </si>
   <si>
-    <t>Larry Nance Jr.</t>
-  </si>
-  <si>
-    <t>Marcus Morris Sr.</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Montrezl Harrell</t>
-  </si>
-  <si>
-    <t>Victor Oladipo</t>
-  </si>
-  <si>
-    <t>Obi Toppin</t>
-  </si>
-  <si>
-    <t>Darius Bazley</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Bruce Brown Jr.</t>
+    <t>Gary Payton II</t>
+  </si>
+  <si>
+    <t>Cody Martin</t>
+  </si>
+  <si>
+    <t>T.J. Warren</t>
+  </si>
+  <si>
+    <t>Derrick Rose</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Caleb Martin</t>
+  </si>
+  <si>
+    <t>Precious Achiuwa</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Xavier Tillman</t>
+  </si>
+  <si>
+    <t>P.J. Tucker</t>
+  </si>
+  <si>
+    <t>Isaac Okoro</t>
+  </si>
+  <si>
+    <t>Dennis Schroder</t>
+  </si>
+  <si>
+    <t>Grant Williams</t>
+  </si>
+  <si>
+    <t>Pat Connaughton</t>
+  </si>
+  <si>
+    <t>Alec Burks</t>
+  </si>
+  <si>
+    <t>Terance Mann</t>
+  </si>
+  <si>
+    <t>Nassir Little</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Joe Ingles</t>
+  </si>
+  <si>
+    <t>Lonnie Walker IV</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Luke Kennard</t>
   </si>
   <si>
     <t>Miles Bridges</t>
   </si>
   <si>
-    <t>Herbert Jones</t>
-  </si>
-  <si>
-    <t>Killian Hayes</t>
-  </si>
-  <si>
-    <t>T.J. Warren</t>
-  </si>
-  <si>
-    <t>Otto Porter Jr.</t>
-  </si>
-  <si>
-    <t>Dennis Schroder</t>
-  </si>
-  <si>
-    <t>Joe Ingles</t>
-  </si>
-  <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
-    <t>Isaac Okoro</t>
-  </si>
-  <si>
-    <t>Maxi Kleber</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>Josh Richardson</t>
-  </si>
-  <si>
-    <t>Kevon Looney</t>
-  </si>
-  <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Xavier Tillman</t>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Moses Moody</t>
+  </si>
+  <si>
+    <t>Justin Holiday</t>
+  </si>
+  <si>
+    <t>Ricky Rubio</t>
+  </si>
+  <si>
+    <t>Thaddeus Young</t>
+  </si>
+  <si>
+    <t>Damian Jones</t>
+  </si>
+  <si>
+    <t>Davion Mitchell</t>
+  </si>
+  <si>
+    <t>Nicolas Batum</t>
+  </si>
+  <si>
+    <t>Jalen McDaniels</t>
+  </si>
+  <si>
+    <t>Juan ToscanoAnderson</t>
   </si>
   <si>
     <t>Nickeil AlexanderWalker</t>
   </si>
   <si>
-    <t>Thaddeus Young</t>
-  </si>
-  <si>
-    <t>Reggie Bullock</t>
-  </si>
-  <si>
-    <t>Jalen Smith</t>
-  </si>
-  <si>
-    <t>Patrick Beverley</t>
-  </si>
-  <si>
-    <t>Precious Achiuwa</t>
-  </si>
-  <si>
-    <t>Alec Burks</t>
-  </si>
-  <si>
-    <t>Derrick Rose</t>
-  </si>
-  <si>
-    <t>P.J. Tucker</t>
-  </si>
-  <si>
-    <t>Kendrick Nunn</t>
-  </si>
-  <si>
-    <t>Lonnie Walker IV</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
+    <t>Cam Reddish</t>
+  </si>
+  <si>
+    <t>Isaiah Livers</t>
+  </si>
+  <si>
+    <t>Dwight Powell</t>
+  </si>
+  <si>
+    <t>Dewayne Dedmon</t>
+  </si>
+  <si>
+    <t>Terrence Ross</t>
+  </si>
+  <si>
+    <t>Hassan Whiteside</t>
+  </si>
+  <si>
+    <t>Naz Reid</t>
+  </si>
+  <si>
+    <t>KJ Martin Jr.</t>
+  </si>
+  <si>
+    <t>JaMychal Green</t>
+  </si>
+  <si>
+    <t>Eric Gordon</t>
+  </si>
+  <si>
+    <t>Danilo Gallinari</t>
+  </si>
+  <si>
+    <t>Khem Birch</t>
+  </si>
+  <si>
+    <t>Facundo Campazzo</t>
+  </si>
+  <si>
+    <t>Davis Bertans</t>
+  </si>
+  <si>
+    <t>Talen HortonTucker</t>
+  </si>
+  <si>
+    <t>Max Strus</t>
+  </si>
+  <si>
+    <t>Goran Dragic</t>
+  </si>
+  <si>
+    <t>Doug McDermott</t>
+  </si>
+  <si>
+    <t>Paul Reed</t>
+  </si>
+  <si>
+    <t>Malik Monk</t>
+  </si>
+  <si>
+    <t>Derrick Favors</t>
+  </si>
+  <si>
+    <t>Jose Alvarado</t>
   </si>
   <si>
     <t>Kemba Walker</t>
   </si>
   <si>
-    <t>Ricky Rubio</t>
-  </si>
-  <si>
-    <t>Justin Holiday</t>
-  </si>
-  <si>
-    <t>Jaxson Hayes</t>
-  </si>
-  <si>
-    <t>Cameron Payne</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Terance Mann</t>
-  </si>
-  <si>
-    <t>Delon Wright</t>
-  </si>
-  <si>
-    <t>Terrence Ross</t>
-  </si>
-  <si>
-    <t>Bennedict Mathurin</t>
-  </si>
-  <si>
-    <t>Luke Kennard</t>
-  </si>
-  <si>
-    <t>Danilo Gallinari</t>
-  </si>
-  <si>
-    <t>Cam Reddish</t>
-  </si>
-  <si>
-    <t>Tre Jones</t>
-  </si>
-  <si>
-    <t>Hassan Whiteside</t>
-  </si>
-  <si>
-    <t>Derrick Favors</t>
-  </si>
-  <si>
-    <t>Khem Birch</t>
-  </si>
-  <si>
-    <t>Nicolas Batum</t>
-  </si>
-  <si>
-    <t>Jarred Vanderbilt</t>
-  </si>
-  <si>
-    <t>Onyeka Okongwu</t>
-  </si>
-  <si>
-    <t>Facundo Campazzo</t>
-  </si>
-  <si>
-    <t>Juan ToscanoAnderson</t>
+    <t>Trendon Watford</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Theo Maledon</t>
+  </si>
+  <si>
+    <t>Dario Saric</t>
+  </si>
+  <si>
+    <t>Moses Brown</t>
   </si>
   <si>
     <t>Eric Bledsoe</t>
   </si>
   <si>
-    <t>Davis Bertans</t>
+    <t>Daniel Theis</t>
   </si>
   <si>
     <t>Danny Green</t>
   </si>
   <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Alex Caruso</t>
-  </si>
-  <si>
-    <t>Goran Dragic</t>
-  </si>
-  <si>
-    <t>Daniel Theis</t>
-  </si>
-  <si>
-    <t>Eric Gordon</t>
-  </si>
-  <si>
-    <t>Bones Hyland</t>
-  </si>
-  <si>
-    <t>Dewayne Dedmon</t>
-  </si>
-  <si>
-    <t>KJ Martin Jr.</t>
-  </si>
-  <si>
-    <t>Dwight Powell</t>
-  </si>
-  <si>
-    <t>Naz Reid</t>
-  </si>
-  <si>
-    <t>Isaiah Hartenstein</t>
-  </si>
-  <si>
-    <t>Chris Duarte</t>
-  </si>
-  <si>
-    <t>Moses Moody</t>
-  </si>
-  <si>
-    <t>JaVale McGee</t>
-  </si>
-  <si>
-    <t>Moses Brown</t>
-  </si>
-  <si>
-    <t>Theo Maledon</t>
-  </si>
-  <si>
-    <t>Jalen McDaniels</t>
-  </si>
-  <si>
-    <t>Doug McDermott</t>
-  </si>
-  <si>
-    <t>Tyus Jones</t>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Zach Collins</t>
+  </si>
+  <si>
+    <t>Joshua Primo</t>
   </si>
   <si>
     <t>Serge Ibaka</t>
   </si>
   <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Dario Saric</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
+    <t>Malachi Flynn</t>
   </si>
   <si>
     <t>Rudy Gay</t>
   </si>
   <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>Josh Christopher</t>
+  </si>
+  <si>
+    <t>LaMarcus Aldridge</t>
+  </si>
+  <si>
+    <t>Drew Eubanks</t>
+  </si>
+  <si>
     <t>Blake Griffin</t>
   </si>
   <si>
-    <t>Malachi Flynn</t>
-  </si>
-  <si>
-    <t>Isaiah Jackson</t>
+    <t>Carmelo Anthony</t>
+  </si>
+  <si>
+    <t>Jaylen Nowell</t>
   </si>
   <si>
     <t>Cody Zeller</t>
   </si>
   <si>
-    <t>LaMarcus Aldridge</t>
-  </si>
-  <si>
-    <t>Carmelo Anthony</t>
+    <t>Malaki Branham</t>
+  </si>
+  <si>
+    <t>Tomas Satoransky</t>
+  </si>
+  <si>
+    <t>DeAndre Jordan</t>
   </si>
   <si>
     <t>Dwight Howard</t>
   </si>
   <si>
-    <t>Tomas Satoransky</t>
-  </si>
-  <si>
-    <t>Davion Mitchell</t>
-  </si>
-  <si>
-    <t>Kentavious CaldwellPope</t>
-  </si>
-  <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>Gary Payton II</t>
+    <t>Gabe Vincent</t>
+  </si>
+  <si>
+    <t>Ziaire Williams</t>
   </si>
   <si>
     <t>Paul Millsap</t>
   </si>
   <si>
-    <t>DeAndre Jordan</t>
-  </si>
-  <si>
-    <t>Cody Martin</t>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Tre Mann</t>
+  </si>
+  <si>
+    <t>Chimezie Metu</t>
+  </si>
+  <si>
+    <t>Corey Kispert</t>
   </si>
   <si>
     <t>Jeremy Lamb</t>
   </si>
   <si>
+    <t>Ochai Agbaji</t>
+  </si>
+  <si>
+    <t>Josh Jackson</t>
+  </si>
+  <si>
+    <t>Tristan Thompson</t>
+  </si>
+  <si>
+    <t>Shake Milton</t>
+  </si>
+  <si>
+    <t>TyTy Washington Jr.</t>
+  </si>
+  <si>
+    <t>Lou Williams</t>
+  </si>
+  <si>
+    <t>Jeremiah RobinsonEarl</t>
+  </si>
+  <si>
+    <t>Day'Ron Sharpe</t>
+  </si>
+  <si>
+    <t>Shaedon Sharpe</t>
+  </si>
+  <si>
+    <t>Patty Mills</t>
+  </si>
+  <si>
+    <t>Zeke Nnaji</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Johnny Davis</t>
+  </si>
+  <si>
+    <t>Usman Garuba</t>
+  </si>
+  <si>
+    <t>Jake LaRavia</t>
+  </si>
+  <si>
+    <t>Trey Lyles</t>
+  </si>
+  <si>
+    <t>Udoka Azubuike</t>
+  </si>
+  <si>
+    <t>Omer Yurtseven</t>
+  </si>
+  <si>
     <t>Enes Freedom</t>
   </si>
   <si>
-    <t>Caleb Martin</t>
-  </si>
-  <si>
-    <t>JaMychal Green</t>
-  </si>
-  <si>
-    <t>Grant Williams</t>
-  </si>
-  <si>
-    <t>Tristan Thompson</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Josh Jackson</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Pat Connaughton</t>
-  </si>
-  <si>
-    <t>Max Strus</t>
-  </si>
-  <si>
-    <t>Shake Milton</t>
-  </si>
-  <si>
-    <t>Lou Williams</t>
-  </si>
-  <si>
-    <t>Malik Monk</t>
-  </si>
-  <si>
-    <t>Jose Alvarado</t>
-  </si>
-  <si>
-    <t>Nassir Little</t>
-  </si>
-  <si>
-    <t>Quentin Grimes</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Damian Jones</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Zach Collins</t>
-  </si>
-  <si>
-    <t>Joshua Primo</t>
-  </si>
-  <si>
-    <t>Isaiah Livers</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Josh Christopher</t>
-  </si>
-  <si>
-    <t>Talen HortonTucker</t>
-  </si>
-  <si>
-    <t>Drew Eubanks</t>
-  </si>
-  <si>
-    <t>Jaylen Nowell</t>
-  </si>
-  <si>
-    <t>Malaki Branham</t>
-  </si>
-  <si>
-    <t>Gabe Vincent</t>
-  </si>
-  <si>
-    <t>Ziaire Williams</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Tre Mann</t>
-  </si>
-  <si>
-    <t>Chimezie Metu</t>
+    <t>Terence Davis II</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
+    <t>Oshae Brissett</t>
+  </si>
+  <si>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
+    <t>Landry Shamet</t>
+  </si>
+  <si>
+    <t>Jordan McLaughlin</t>
   </si>
   <si>
     <t>Ty Jerome</t>
   </si>
   <si>
-    <t>Corey Kispert</t>
-  </si>
-  <si>
-    <t>Trendon Watford</t>
-  </si>
-  <si>
-    <t>Ochai Agbaji</t>
-  </si>
-  <si>
-    <t>Paul Reed</t>
-  </si>
-  <si>
-    <t>TyTy Washington Jr.</t>
-  </si>
-  <si>
-    <t>Jeremiah RobinsonEarl</t>
-  </si>
-  <si>
-    <t>Day'Ron Sharpe</t>
+    <t>Bismack Biyombo</t>
+  </si>
+  <si>
+    <t>Jaden Hardy</t>
+  </si>
+  <si>
+    <t>Jeff Green</t>
+  </si>
+  <si>
+    <t>Trevor Keels</t>
+  </si>
+  <si>
+    <t>AJ Griffin</t>
+  </si>
+  <si>
+    <t>Georges Niang</t>
+  </si>
+  <si>
+    <t>John Konchar</t>
+  </si>
+  <si>
+    <t>Jericho Sims</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Jaylin Williams</t>
+  </si>
+  <si>
+    <t>Garrison Mathews</t>
   </si>
   <si>
     <t>Nemanja Bjelica</t>
   </si>
   <si>
-    <t>Shaedon Sharpe</t>
+    <t>Aaron Nesmith</t>
+  </si>
+  <si>
+    <t>Jared Butler</t>
+  </si>
+  <si>
+    <t>Kenrich Williams</t>
   </si>
   <si>
     <t>Elfrid Payton</t>
   </si>
   <si>
-    <t>Patty Mills</t>
-  </si>
-  <si>
-    <t>Zeke Nnaji</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Johnny Davis</t>
-  </si>
-  <si>
-    <t>Usman Garuba</t>
-  </si>
-  <si>
     <t>Trevor Ariza</t>
   </si>
   <si>
-    <t>Jake LaRavia</t>
-  </si>
-  <si>
-    <t>Trey Lyles</t>
-  </si>
-  <si>
-    <t>Udoka Azubuike</t>
-  </si>
-  <si>
-    <t>Omer Yurtseven</t>
-  </si>
-  <si>
-    <t>Terence Davis II</t>
-  </si>
-  <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
-    <t>Oshae Brissett</t>
-  </si>
-  <si>
-    <t>Taurean Prince</t>
-  </si>
-  <si>
-    <t>Landry Shamet</t>
-  </si>
-  <si>
-    <t>Jordan McLaughlin</t>
-  </si>
-  <si>
-    <t>Bismack Biyombo</t>
-  </si>
-  <si>
-    <t>Jaden Hardy</t>
-  </si>
-  <si>
-    <t>Jeff Green</t>
-  </si>
-  <si>
-    <t>Trevor Keels</t>
-  </si>
-  <si>
-    <t>AJ Griffin</t>
-  </si>
-  <si>
-    <t>Georges Niang</t>
-  </si>
-  <si>
-    <t>John Konchar</t>
-  </si>
-  <si>
-    <t>Jericho Sims</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>Jaylin Williams</t>
-  </si>
-  <si>
-    <t>Garrison Mathews</t>
-  </si>
-  <si>
-    <t>Aaron Nesmith</t>
-  </si>
-  <si>
-    <t>Jared Butler</t>
-  </si>
-  <si>
-    <t>Kenrich Williams</t>
-  </si>
-  <si>
     <t>Ousmane Dieng</t>
   </si>
   <si>
@@ -1225,10 +1225,13 @@
     <t>PG,SG,SF,PF</t>
   </si>
   <si>
+    <t>SG,SF,PG</t>
+  </si>
+  <si>
     <t>SF,PF,SG</t>
   </si>
   <si>
-    <t>SG,SF,PG</t>
+    <t>SG,SF,PF</t>
   </si>
   <si>
     <t>SG,SF</t>
@@ -1237,39 +1240,36 @@
     <t>C,PF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
     <t>SF</t>
   </si>
   <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
     <t>PF,C,SF</t>
   </si>
   <si>
     <t>PF,SF</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>SF,SG</t>
   </si>
   <si>
     <t>SG,PG</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -1282,85 +1282,85 @@
     <t>PHI</t>
   </si>
   <si>
+    <t>BKN</t>
+  </si>
+  <si>
     <t>MIL</t>
   </si>
   <si>
-    <t>BKN</t>
+    <t>GSW</t>
+  </si>
+  <si>
+    <t>DAL</t>
   </si>
   <si>
     <t>BOS</t>
   </si>
   <si>
-    <t>GSW</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
     <t>MIN</t>
   </si>
   <si>
     <t>ATL</t>
   </si>
   <si>
+    <t>CHA</t>
+  </si>
+  <si>
     <t>POR</t>
   </si>
   <si>
-    <t>CHA</t>
-  </si>
-  <si>
     <t>LAL</t>
   </si>
   <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>PHO</t>
+  </si>
+  <si>
     <t>LAC</t>
   </si>
   <si>
-    <t>PHO</t>
-  </si>
-  <si>
     <t>MIA</t>
   </si>
   <si>
     <t>SAC</t>
   </si>
   <si>
-    <t>IND</t>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>WAS</t>
   </si>
   <si>
     <t>OKC</t>
   </si>
   <si>
-    <t>WAS</t>
-  </si>
-  <si>
-    <t>CLE</t>
-  </si>
-  <si>
-    <t>TOR</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
     <t>DET</t>
   </si>
   <si>
     <t>NOR</t>
   </si>
   <si>
+    <t>SAS</t>
+  </si>
+  <si>
     <t>NYK</t>
   </si>
   <si>
-    <t>SAS</t>
+    <t>ORL</t>
   </si>
   <si>
     <t>HOU</t>
-  </si>
-  <si>
-    <t>ORL</t>
   </si>
   <si>
     <t>UTH</t>
@@ -1783,7 +1783,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D4" t="s">
         <v>421</v>
@@ -1797,7 +1797,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D5" t="s">
         <v>422</v>
@@ -1811,10 +1811,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1828,7 +1828,7 @@
         <v>398</v>
       </c>
       <c r="D7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1842,7 +1842,7 @@
         <v>398</v>
       </c>
       <c r="D8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1853,10 +1853,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1867,10 +1867,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D10" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1895,7 +1895,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D12" t="s">
         <v>428</v>
@@ -1909,7 +1909,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D13" t="s">
         <v>429</v>
@@ -1923,7 +1923,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D14" t="s">
         <v>430</v>
@@ -1937,10 +1937,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D15" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1951,10 +1951,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D16" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1965,10 +1965,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1979,10 +1979,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1993,10 +1993,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2007,10 +2007,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2021,10 +2021,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2035,10 +2035,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D22" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2049,10 +2049,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2066,7 +2066,7 @@
         <v>398</v>
       </c>
       <c r="D24" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2077,10 +2077,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D25" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2105,10 +2105,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D27" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2119,10 +2119,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D28" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2136,7 +2136,7 @@
         <v>400</v>
       </c>
       <c r="D29" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2147,7 +2147,7 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D30" t="s">
         <v>426</v>
@@ -2164,7 +2164,7 @@
         <v>398</v>
       </c>
       <c r="D31" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2175,10 +2175,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D32" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2189,10 +2189,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D33" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2203,10 +2203,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D34" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2217,10 +2217,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D35" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2231,10 +2231,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D36" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2245,10 +2245,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D37" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2259,10 +2259,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D38" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2276,7 +2276,7 @@
         <v>398</v>
       </c>
       <c r="D39" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2287,10 +2287,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D40" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2301,10 +2301,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D41" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2315,10 +2315,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D42" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2329,10 +2329,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D43" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2343,10 +2343,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D44" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2357,10 +2357,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D45" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2374,7 +2374,7 @@
         <v>405</v>
       </c>
       <c r="D46" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2385,10 +2385,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="D47" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2399,10 +2399,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D48" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2413,10 +2413,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D49" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2427,10 +2427,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D50" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2441,7 +2441,7 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D51" t="s">
         <v>443</v>
@@ -2455,7 +2455,7 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D52" t="s">
         <v>443</v>
@@ -2469,7 +2469,7 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D53" t="s">
         <v>432</v>
@@ -2483,10 +2483,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D54" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2497,10 +2497,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D55" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2511,10 +2511,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D56" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2525,10 +2525,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="D57" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2539,10 +2539,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D58" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2553,10 +2553,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D59" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2567,10 +2567,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D60" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2581,10 +2581,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D61" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2595,10 +2595,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D62" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2609,10 +2609,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D63" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2623,10 +2623,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D64" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2640,7 +2640,7 @@
         <v>399</v>
       </c>
       <c r="D65" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2654,7 +2654,7 @@
         <v>396</v>
       </c>
       <c r="D66" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2665,10 +2665,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="D67" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2679,10 +2679,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D68" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2696,7 +2696,7 @@
         <v>398</v>
       </c>
       <c r="D69" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2707,7 +2707,7 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D70" t="s">
         <v>446</v>
@@ -2724,7 +2724,7 @@
         <v>397</v>
       </c>
       <c r="D71" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2735,10 +2735,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D72" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2749,10 +2749,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="D73" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2763,10 +2763,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D74" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2777,7 +2777,7 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D75" t="s">
         <v>423</v>
@@ -2791,10 +2791,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D76" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2808,7 +2808,7 @@
         <v>400</v>
       </c>
       <c r="D77" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2819,10 +2819,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D78" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2836,7 +2836,7 @@
         <v>398</v>
       </c>
       <c r="D79" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2850,7 +2850,7 @@
         <v>399</v>
       </c>
       <c r="D80" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2861,10 +2861,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D81" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2875,10 +2875,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D82" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2889,10 +2889,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D83" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2903,10 +2903,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D84" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2917,10 +2917,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D85" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2931,10 +2931,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D86" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2948,7 +2948,7 @@
         <v>396</v>
       </c>
       <c r="D87" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2959,10 +2959,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D88" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2976,7 +2976,7 @@
         <v>398</v>
       </c>
       <c r="D89" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2987,10 +2987,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D90" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3001,10 +3001,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D91" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3015,10 +3015,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D92" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3029,10 +3029,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D93" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3043,10 +3043,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D94" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3057,10 +3057,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D95" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3071,10 +3071,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="D96" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3085,10 +3085,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D97" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3099,10 +3099,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D98" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3113,10 +3113,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="D99" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3130,7 +3130,7 @@
         <v>399</v>
       </c>
       <c r="D100" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3141,10 +3141,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D101" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3155,10 +3155,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D102" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3169,10 +3169,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D103" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3183,10 +3183,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D104" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3197,10 +3197,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D105" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3211,10 +3211,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D106" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3228,7 +3228,7 @@
         <v>396</v>
       </c>
       <c r="D107" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3242,7 +3242,7 @@
         <v>398</v>
       </c>
       <c r="D108" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3253,10 +3253,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D109" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3267,10 +3267,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D110" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3281,10 +3281,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D111" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3295,10 +3295,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D112" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3312,7 +3312,7 @@
         <v>398</v>
       </c>
       <c r="D113" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3323,10 +3323,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D114" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3337,10 +3337,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D115" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3365,10 +3365,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D117" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3382,7 +3382,7 @@
         <v>397</v>
       </c>
       <c r="D118" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3396,7 +3396,7 @@
         <v>397</v>
       </c>
       <c r="D119" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3407,10 +3407,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="D120" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3421,7 +3421,7 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="D121" t="s">
         <v>426</v>
@@ -3435,10 +3435,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D122" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3449,10 +3449,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D123" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3463,10 +3463,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D124" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3477,10 +3477,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D125" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3491,10 +3491,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D126" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3505,10 +3505,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D127" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3519,10 +3519,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D128" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3533,10 +3533,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D129" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3547,10 +3547,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D130" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3561,10 +3561,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D131" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3575,10 +3575,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D132" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3589,10 +3589,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D133" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3603,10 +3603,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D134" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3617,10 +3617,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D135" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3631,10 +3631,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D136" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3648,7 +3648,7 @@
         <v>404</v>
       </c>
       <c r="D137" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3662,7 +3662,7 @@
         <v>397</v>
       </c>
       <c r="D138" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3673,10 +3673,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D139" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3687,10 +3687,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D140" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3701,10 +3701,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D141" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3715,7 +3715,7 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D142" t="s">
         <v>431</v>
@@ -3732,7 +3732,7 @@
         <v>398</v>
       </c>
       <c r="D143" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3743,7 +3743,7 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D144" t="s">
         <v>447</v>
@@ -3757,10 +3757,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D145" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3771,10 +3771,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D146" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3785,10 +3785,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D147" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3799,10 +3799,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D148" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3813,10 +3813,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D149" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3830,7 +3830,7 @@
         <v>399</v>
       </c>
       <c r="D150" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3841,10 +3841,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D151" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3855,10 +3855,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D152" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3869,10 +3869,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D153" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3886,7 +3886,7 @@
         <v>407</v>
       </c>
       <c r="D154" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3897,10 +3897,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D155" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3911,10 +3911,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D156" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3925,10 +3925,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D157" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3939,10 +3939,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D158" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3953,10 +3953,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D159" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3967,10 +3967,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D160" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3981,10 +3981,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D161" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3995,10 +3995,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D162" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4012,7 +4012,7 @@
         <v>396</v>
       </c>
       <c r="D163" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4023,10 +4023,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D164" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4037,10 +4037,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D165" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4051,10 +4051,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D166" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4065,10 +4065,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D167" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4082,7 +4082,7 @@
         <v>396</v>
       </c>
       <c r="D168" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4093,7 +4093,7 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D169" t="s">
         <v>431</v>
@@ -4107,10 +4107,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D170" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4121,10 +4121,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D171" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4135,10 +4135,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D172" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4152,7 +4152,7 @@
         <v>397</v>
       </c>
       <c r="D173" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4163,10 +4163,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D174" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4177,10 +4177,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D175" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4191,10 +4191,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D176" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4205,10 +4205,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D177" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4219,10 +4219,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D178" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4233,10 +4233,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D179" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4247,10 +4247,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D180" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4261,10 +4261,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D181" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4275,10 +4275,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D182" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4289,10 +4289,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D183" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4303,10 +4303,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D184" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4317,10 +4317,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D185" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4331,10 +4331,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D186" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4345,10 +4345,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D187" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4359,10 +4359,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D188" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4373,10 +4373,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D189" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4387,10 +4387,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D190" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4401,10 +4401,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D191" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4415,10 +4415,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D192" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4429,10 +4429,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D193" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4443,10 +4443,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D194" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4457,10 +4457,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D195" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4471,10 +4471,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="D196" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4485,10 +4485,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D197" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4499,10 +4499,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D198" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4516,7 +4516,7 @@
         <v>398</v>
       </c>
       <c r="D199" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4527,10 +4527,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="D200" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4541,10 +4541,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D201" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4555,10 +4555,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="D202" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4569,10 +4569,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="D203" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4583,10 +4583,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D204" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4597,10 +4597,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D205" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4611,10 +4611,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D206" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4625,10 +4625,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D207" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4639,10 +4639,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D208" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4653,10 +4653,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D209" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4667,10 +4667,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D210" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4681,10 +4681,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D211" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4695,10 +4695,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D212" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4709,10 +4709,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D213" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4726,7 +4726,7 @@
         <v>398</v>
       </c>
       <c r="D214" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4737,10 +4737,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="D215" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4751,10 +4751,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D216" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4765,10 +4765,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D217" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4779,10 +4779,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D218" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4793,10 +4793,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D219" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4807,10 +4807,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D220" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4821,7 +4821,7 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D221" t="s">
         <v>449</v>
@@ -4835,10 +4835,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D222" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4849,10 +4849,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D223" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4863,10 +4863,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D224" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4877,10 +4877,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="D225" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4891,10 +4891,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D226" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4905,10 +4905,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D227" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4919,10 +4919,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D228" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4933,10 +4933,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D229" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4947,10 +4947,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D230" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4975,10 +4975,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="D232" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4989,10 +4989,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D233" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5003,10 +5003,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D234" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5017,10 +5017,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D235" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5031,10 +5031,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="D236" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5045,10 +5045,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D237" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5059,10 +5059,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D238" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5073,10 +5073,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="D239" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5087,10 +5087,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D240" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5101,10 +5101,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="D241" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5115,10 +5115,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D242" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5129,10 +5129,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D243" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5143,10 +5143,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="D244" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5157,10 +5157,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D245" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5171,10 +5171,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D246" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5185,10 +5185,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D247" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5202,7 +5202,7 @@
         <v>396</v>
       </c>
       <c r="D248" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5213,10 +5213,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D249" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5227,10 +5227,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D250" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5244,7 +5244,7 @@
         <v>396</v>
       </c>
       <c r="D251" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5255,10 +5255,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D252" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5269,10 +5269,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D253" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5283,10 +5283,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D254" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5297,10 +5297,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D255" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5311,10 +5311,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D256" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5325,10 +5325,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D257" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5339,10 +5339,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D258" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5353,10 +5353,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D259" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5367,10 +5367,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D260" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5381,10 +5381,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D261" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5395,10 +5395,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D262" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5409,10 +5409,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D263" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5423,10 +5423,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="D264" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5437,10 +5437,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D265" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5451,10 +5451,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D266" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5465,10 +5465,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D267" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5479,7 +5479,7 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D268" t="s">
         <v>449</v>
@@ -5493,10 +5493,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D269" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5507,10 +5507,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D270" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5521,10 +5521,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D271" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5535,10 +5535,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D272" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5549,10 +5549,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="D273" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5563,10 +5563,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D274" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5577,10 +5577,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D275" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5591,10 +5591,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D276" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5605,10 +5605,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D277" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5619,10 +5619,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D278" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5633,10 +5633,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D279" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5647,10 +5647,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D280" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5661,10 +5661,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D281" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5675,10 +5675,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D282" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5689,10 +5689,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D283" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5703,10 +5703,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="D284" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5717,10 +5717,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D285" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5734,7 +5734,7 @@
         <v>410</v>
       </c>
       <c r="D286" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5745,10 +5745,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D287" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5759,10 +5759,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D288" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5773,10 +5773,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D289" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5787,10 +5787,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D290" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5801,10 +5801,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="D291" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5815,10 +5815,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D292" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5829,10 +5829,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="D293" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5843,10 +5843,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D294" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5857,10 +5857,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D295" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5871,10 +5871,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D296" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5885,10 +5885,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D297" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5899,10 +5899,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="D298" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5916,7 +5916,7 @@
         <v>396</v>
       </c>
       <c r="D299" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5927,10 +5927,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D300" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5941,10 +5941,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="D301" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5955,10 +5955,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D302" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5969,7 +5969,7 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D303" t="s">
         <v>440</v>
@@ -5983,10 +5983,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D304" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5997,10 +5997,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D305" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6011,10 +6011,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D306" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6025,10 +6025,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D307" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6039,10 +6039,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D308" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6053,10 +6053,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D309" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6067,10 +6067,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="D310" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6084,7 +6084,7 @@
         <v>397</v>
       </c>
       <c r="D311" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6095,10 +6095,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D312" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6109,10 +6109,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="D313" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6123,10 +6123,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D314" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6137,10 +6137,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D315" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6151,10 +6151,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D316" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6165,10 +6165,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D317" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6179,10 +6179,10 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D318" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6193,10 +6193,10 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D319" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6207,10 +6207,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D320" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6221,10 +6221,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D321" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6235,10 +6235,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D322" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6249,7 +6249,7 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D323" t="s">
         <v>449</v>
@@ -6263,10 +6263,10 @@
         <v>326</v>
       </c>
       <c r="C324" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D324" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6277,10 +6277,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D325" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6291,10 +6291,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D326" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6305,10 +6305,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D327" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6319,10 +6319,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D328" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6333,10 +6333,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D329" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6347,10 +6347,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D330" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6361,10 +6361,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D331" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6375,10 +6375,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="D332" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6389,10 +6389,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D333" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6403,10 +6403,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="D334" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6417,10 +6417,10 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D335" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6434,7 +6434,7 @@
         <v>397</v>
       </c>
       <c r="D336" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6445,10 +6445,10 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D337" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6459,10 +6459,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D338" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6473,10 +6473,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="D339" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6487,10 +6487,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="D340" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6504,7 +6504,7 @@
         <v>405</v>
       </c>
       <c r="D341" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6515,10 +6515,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D342" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6529,10 +6529,10 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D343" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6543,10 +6543,10 @@
         <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D344" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6557,10 +6557,10 @@
         <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D345" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6571,10 +6571,10 @@
         <v>348</v>
       </c>
       <c r="C346" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D346" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6585,10 +6585,10 @@
         <v>349</v>
       </c>
       <c r="C347" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D347" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6602,7 +6602,7 @@
         <v>417</v>
       </c>
       <c r="D348" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6613,7 +6613,7 @@
         <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D349" t="s">
         <v>432</v>
@@ -6627,10 +6627,10 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D350" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6641,10 +6641,10 @@
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D351" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6655,7 +6655,7 @@
         <v>354</v>
       </c>
       <c r="C352" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D352" t="s">
         <v>419</v>
@@ -6672,7 +6672,7 @@
         <v>407</v>
       </c>
       <c r="D353" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6686,7 +6686,7 @@
         <v>417</v>
       </c>
       <c r="D354" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6697,10 +6697,10 @@
         <v>357</v>
       </c>
       <c r="C355" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D355" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6728,7 +6728,7 @@
         <v>400</v>
       </c>
       <c r="D357" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6739,10 +6739,10 @@
         <v>360</v>
       </c>
       <c r="C358" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D358" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6753,7 +6753,7 @@
         <v>361</v>
       </c>
       <c r="C359" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D359" t="s">
         <v>419</v>
@@ -6770,7 +6770,7 @@
         <v>400</v>
       </c>
       <c r="D360" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6781,10 +6781,10 @@
         <v>363</v>
       </c>
       <c r="C361" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D361" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6798,7 +6798,7 @@
         <v>407</v>
       </c>
       <c r="D362" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6809,7 +6809,7 @@
         <v>365</v>
       </c>
       <c r="C363" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D363" t="s">
         <v>430</v>
@@ -6826,7 +6826,7 @@
         <v>398</v>
       </c>
       <c r="D364" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6837,7 +6837,7 @@
         <v>367</v>
       </c>
       <c r="C365" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D365" t="s">
         <v>442</v>
@@ -6854,7 +6854,7 @@
         <v>396</v>
       </c>
       <c r="D366" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6868,7 +6868,7 @@
         <v>400</v>
       </c>
       <c r="D367" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6882,7 +6882,7 @@
         <v>399</v>
       </c>
       <c r="D368" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6896,7 +6896,7 @@
         <v>396</v>
       </c>
       <c r="D369" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6907,10 +6907,10 @@
         <v>372</v>
       </c>
       <c r="C370" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D370" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6921,10 +6921,10 @@
         <v>373</v>
       </c>
       <c r="C371" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D371" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6949,7 +6949,7 @@
         <v>375</v>
       </c>
       <c r="C373" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D373" t="s">
         <v>427</v>
@@ -6966,7 +6966,7 @@
         <v>407</v>
       </c>
       <c r="D374" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -6991,10 +6991,10 @@
         <v>378</v>
       </c>
       <c r="C376" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D376" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7050,7 +7050,7 @@
         <v>417</v>
       </c>
       <c r="D380" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7061,10 +7061,10 @@
         <v>383</v>
       </c>
       <c r="C381" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D381" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7078,7 +7078,7 @@
         <v>417</v>
       </c>
       <c r="D382" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7089,10 +7089,10 @@
         <v>385</v>
       </c>
       <c r="C383" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D383" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7120,7 +7120,7 @@
         <v>418</v>
       </c>
       <c r="D385" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7131,7 +7131,7 @@
         <v>388</v>
       </c>
       <c r="C386" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D386" t="s">
         <v>427</v>
@@ -7162,7 +7162,7 @@
         <v>400</v>
       </c>
       <c r="D388" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7176,7 +7176,7 @@
         <v>399</v>
       </c>
       <c r="D389" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7187,10 +7187,10 @@
         <v>392</v>
       </c>
       <c r="C390" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D390" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7201,10 +7201,10 @@
         <v>393</v>
       </c>
       <c r="C391" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D391" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7218,7 +7218,7 @@
         <v>407</v>
       </c>
       <c r="D392" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7232,7 +7232,7 @@
         <v>400</v>
       </c>
       <c r="D393" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -10,14 +10,14 @@
     <sheet name="draft" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$393</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$475</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="533">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -37,10 +37,22 @@
     <t>Joel Embiid</t>
   </si>
   <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>KarlAnthony Towns</t>
+  </si>
+  <si>
+    <t>Luka Doncic</t>
+  </si>
+  <si>
     <t>Kevin Durant</t>
   </si>
   <si>
-    <t>Giannis Antetokounmpo</t>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
   </si>
   <si>
     <t>James Harden</t>
@@ -49,1036 +61,1072 @@
     <t>Stephen Curry</t>
   </si>
   <si>
-    <t>Luka Doncic</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
-    <t>KarlAnthony Towns</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
     <t>LaMelo Ball</t>
   </si>
   <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
     <t>Damian Lillard</t>
   </si>
   <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
     <t>LeBron James</t>
   </si>
   <si>
-    <t>Tyrese Haliburton</t>
+    <t>Anthony Davis</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Paul George</t>
   </si>
   <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
-    <t>Anthony Davis</t>
-  </si>
-  <si>
-    <t>Devin Booker</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
     <t>Domantas Sabonis</t>
   </si>
   <si>
+    <t>Ja Morant</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Shai GilgeousAlexander</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
   </si>
   <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
-    <t>Rudy Gobert</t>
+    <t>Cade Cunningham</t>
+  </si>
+  <si>
+    <t>DeMar DeRozan</t>
+  </si>
+  <si>
+    <t>Nikola Vucevic</t>
   </si>
   <si>
     <t>Chris Paul</t>
   </si>
   <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Ja Morant</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>DeMar DeRozan</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
   </si>
   <si>
     <t>Pascal Siakam</t>
   </si>
   <si>
-    <t>Nikola Vucevic</t>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Jrue Holiday</t>
   </si>
   <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
-    <t>Shai GilgeousAlexander</t>
-  </si>
-  <si>
-    <t>Cade Cunningham</t>
-  </si>
-  <si>
-    <t>Jrue Holiday</t>
-  </si>
-  <si>
     <t>Khris Middleton</t>
   </si>
   <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
+    <t>Robert Williams III</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Evan Mobley</t>
   </si>
   <si>
     <t>Terry Rozier</t>
   </si>
   <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Robert Williams III</t>
-  </si>
-  <si>
-    <t>Evan Mobley</t>
+    <t>De'Aaron Fox</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
   </si>
   <si>
     <t>Jonas Valanciunas</t>
   </si>
   <si>
-    <t>De'Aaron Fox</t>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
+    <t>Scottie Barnes</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Mikal Bridges</t>
   </si>
   <si>
     <t>CJ McCollum</t>
   </si>
   <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Mikal Bridges</t>
-  </si>
-  <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Scottie Barnes</t>
-  </si>
-  <si>
     <t>Desmond Bane</t>
   </si>
   <si>
     <t>OG Anunoby</t>
   </si>
   <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
     <t>Tyrese Maxey</t>
   </si>
   <si>
     <t>Tobias Harris</t>
   </si>
   <si>
-    <t>Michael Porter Jr.</t>
+    <t>Julius Randle</t>
   </si>
   <si>
     <t>Jordan Poole</t>
   </si>
   <si>
+    <t>Jusuf Nurkic</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Ben Simmons</t>
+  </si>
+  <si>
     <t>Jakob Poeltl</t>
   </si>
   <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
-    <t>Jusuf Nurkic</t>
-  </si>
-  <si>
-    <t>Julius Randle</t>
+    <t>Tyler Herro</t>
   </si>
   <si>
     <t>Christian Wood</t>
   </si>
   <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Tyler Herro</t>
-  </si>
-  <si>
-    <t>Wendell Carter Jr.</t>
+    <t>Josh Giddey</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
   </si>
   <si>
     <t>Keldon Johnson</t>
   </si>
   <si>
-    <t>Ben Simmons</t>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Marcus Smart</t>
+  </si>
+  <si>
+    <t>Alperen Sengun</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Kyle Lowry</t>
+  </si>
+  <si>
+    <t>Saddiq Bey</t>
+  </si>
+  <si>
+    <t>Gordon Hayward</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
   </si>
   <si>
     <t>Brandon Clarke</t>
   </si>
   <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Kyle Lowry</t>
-  </si>
-  <si>
-    <t>Josh Giddey</t>
-  </si>
-  <si>
-    <t>Marcus Smart</t>
-  </si>
-  <si>
-    <t>Alperen Sengun</t>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Mitchell Robinson</t>
+  </si>
+  <si>
+    <t>Lonzo Ball</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
   </si>
   <si>
     <t>Klay Thompson</t>
   </si>
   <si>
-    <t>Saddiq Bey</t>
-  </si>
-  <si>
-    <t>Buddy Hield</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Gordon Hayward</t>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Harrison Barnes</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Malcolm Brogdon</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
   </si>
   <si>
     <t>Al Horford</t>
   </si>
   <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Mitchell Robinson</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Robert Covington</t>
   </si>
   <si>
     <t>Bobby Portis Jr.</t>
   </si>
   <si>
-    <t>Gary Trent Jr.</t>
-  </si>
-  <si>
-    <t>Harrison Barnes</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
+    <t>Kevin Porter Jr.</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Isaiah Stewart</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
+    <t>Mo Bamba</t>
+  </si>
+  <si>
+    <t>Bogdan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
   </si>
   <si>
     <t>Brook Lopez</t>
   </si>
   <si>
-    <t>Lonzo Ball</t>
-  </si>
-  <si>
-    <t>Robert Covington</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Malcolm Brogdon</t>
-  </si>
-  <si>
-    <t>Kevin Porter Jr.</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Isaiah Stewart</t>
-  </si>
-  <si>
-    <t>Spencer Dinwiddie</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Bogdan Bogdanovic</t>
+    <t>De'Anthony Melton</t>
+  </si>
+  <si>
+    <t>Derrick White</t>
+  </si>
+  <si>
+    <t>Herbert Jones</t>
+  </si>
+  <si>
+    <t>Nic Claxton</t>
+  </si>
+  <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
   </si>
   <si>
     <t>Dorian FinneySmith</t>
   </si>
   <si>
-    <t>RJ Barrett</t>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
   </si>
   <si>
     <t>Monte Morris</t>
   </si>
   <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Mo Bamba</t>
-  </si>
-  <si>
-    <t>De'Anthony Melton</t>
-  </si>
-  <si>
-    <t>Nic Claxton</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
+    <t>Anfernee Simons</t>
   </si>
   <si>
     <t>Bojan Bogdanovic</t>
   </si>
   <si>
-    <t>Cameron Johnson</t>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Jae'Sean Tate</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
   </si>
   <si>
     <t>Jaden McDaniels</t>
   </si>
   <si>
-    <t>Herbert Jones</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
     <t>Reggie Jackson</t>
   </si>
   <si>
-    <t>Derrick White</t>
-  </si>
-  <si>
-    <t>Cole Anthony</t>
+    <t>Russell Westbrook III</t>
+  </si>
+  <si>
+    <t>Richaun Holmes</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
   </si>
   <si>
     <t>Patrick Williams</t>
   </si>
   <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
-    <t>Jae'Sean Tate</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
     <t>Will Barton</t>
   </si>
   <si>
-    <t>Russell Westbrook III</t>
+    <t>Kyle Anderson</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
   </si>
   <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
+    <t>Markelle Fultz</t>
+  </si>
+  <si>
+    <t>Kevin Huerter</t>
+  </si>
+  <si>
+    <t>Luguentz Dort</t>
+  </si>
+  <si>
+    <t>Matisse Thybulle</t>
+  </si>
+  <si>
+    <t>Caris LeVert</t>
+  </si>
+  <si>
+    <t>Andre Drummond</t>
+  </si>
+  <si>
+    <t>Jalen Smith</t>
+  </si>
+  <si>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
     <t>Steven Adams</t>
   </si>
   <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Kyle Anderson</t>
-  </si>
-  <si>
-    <t>Richaun Holmes</t>
-  </si>
-  <si>
-    <t>Royce O'Neale</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Jalen Smith</t>
-  </si>
-  <si>
-    <t>Markelle Fultz</t>
-  </si>
-  <si>
-    <t>Jabari Smith Jr.</t>
+    <t>Jonathan Isaac</t>
+  </si>
+  <si>
+    <t>Marvin Bagley III</t>
+  </si>
+  <si>
+    <t>Aleksej Pokusevski</t>
+  </si>
+  <si>
+    <t>Thomas Bryant</t>
+  </si>
+  <si>
+    <t>Onyeka Okongwu</t>
+  </si>
+  <si>
+    <t>Chuma Okeke</t>
+  </si>
+  <si>
+    <t>Jarred Vanderbilt</t>
   </si>
   <si>
     <t>Mason Plumlee</t>
   </si>
   <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Kevin Huerter</t>
-  </si>
-  <si>
-    <t>Luguentz Dort</t>
-  </si>
-  <si>
-    <t>Marvin Bagley III</t>
-  </si>
-  <si>
-    <t>Andre Drummond</t>
-  </si>
-  <si>
     <t>Seth Curry</t>
   </si>
   <si>
-    <t>Matisse Thybulle</t>
-  </si>
-  <si>
-    <t>Caris LeVert</t>
-  </si>
-  <si>
-    <t>Chuma Okeke</t>
+    <t>Obi Toppin</t>
   </si>
   <si>
     <t>Bruce Brown Jr.</t>
   </si>
   <si>
-    <t>Jonathan Isaac</t>
-  </si>
-  <si>
-    <t>Thomas Bryant</t>
-  </si>
-  <si>
-    <t>Aleksej Pokusevski</t>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Bennedict Mathurin</t>
+  </si>
+  <si>
+    <t>Kevin Love</t>
+  </si>
+  <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Tim Hardaway Jr.</t>
+  </si>
+  <si>
+    <t>Darius Bazley</t>
+  </si>
+  <si>
+    <t>Bones Hyland</t>
+  </si>
+  <si>
+    <t>Evan Fournier</t>
+  </si>
+  <si>
+    <t>Killian Hayes</t>
+  </si>
+  <si>
+    <t>Isaiah Hartenstein</t>
+  </si>
+  <si>
+    <t>Chris Duarte</t>
+  </si>
+  <si>
+    <t>James Wiseman</t>
+  </si>
+  <si>
+    <t>John Wall</t>
+  </si>
+  <si>
+    <t>Chris Boucher</t>
+  </si>
+  <si>
+    <t>Jaxson Hayes</t>
+  </si>
+  <si>
+    <t>Alex Caruso</t>
+  </si>
+  <si>
+    <t>Victor Oladipo</t>
+  </si>
+  <si>
+    <t>Otto Porter Jr.</t>
+  </si>
+  <si>
+    <t>Jae Crowder</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Devonte' Graham</t>
   </si>
   <si>
     <t>Tre Jones</t>
   </si>
   <si>
-    <t>Tim Hardaway Jr.</t>
-  </si>
-  <si>
-    <t>Onyeka Okongwu</t>
-  </si>
-  <si>
-    <t>Kevin Love</t>
-  </si>
-  <si>
-    <t>Jarred Vanderbilt</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>John Wall</t>
-  </si>
-  <si>
-    <t>Obi Toppin</t>
-  </si>
-  <si>
-    <t>Jae Crowder</t>
-  </si>
-  <si>
-    <t>Chris Boucher</t>
-  </si>
-  <si>
-    <t>Bennedict Mathurin</t>
-  </si>
-  <si>
-    <t>Darius Bazley</t>
-  </si>
-  <si>
-    <t>Evan Fournier</t>
-  </si>
-  <si>
-    <t>Bones Hyland</t>
-  </si>
-  <si>
-    <t>Otto Porter Jr.</t>
-  </si>
-  <si>
-    <t>Isaiah Hartenstein</t>
-  </si>
-  <si>
-    <t>Victor Oladipo</t>
-  </si>
-  <si>
-    <t>Alex Caruso</t>
-  </si>
-  <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
-    <t>Killian Hayes</t>
-  </si>
-  <si>
-    <t>James Wiseman</t>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Patrick Beverley</t>
+  </si>
+  <si>
+    <t>Kendrick Nunn</t>
+  </si>
+  <si>
+    <t>Reggie Bullock</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
   </si>
   <si>
     <t>Walker Kessler</t>
   </si>
   <si>
-    <t>Patrick Beverley</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
+    <t>Isaiah Jackson</t>
+  </si>
+  <si>
+    <t>T.J. McConnell</t>
+  </si>
+  <si>
+    <t>Montrezl Harrell</t>
+  </si>
+  <si>
+    <t>Josh Richardson</t>
+  </si>
+  <si>
+    <t>Joe Harris</t>
+  </si>
+  <si>
+    <t>Larry Nance Jr.</t>
   </si>
   <si>
     <t>JaVale McGee</t>
   </si>
   <si>
-    <t>Chris Duarte</t>
-  </si>
-  <si>
-    <t>Devonte' Graham</t>
-  </si>
-  <si>
-    <t>Reggie Bullock</t>
-  </si>
-  <si>
-    <t>T.J. McConnell</t>
-  </si>
-  <si>
-    <t>Kendrick Nunn</t>
-  </si>
-  <si>
-    <t>Joe Harris</t>
-  </si>
-  <si>
-    <t>Jaxson Hayes</t>
+    <t>Isaiah Roby</t>
   </si>
   <si>
     <t>Duncan Robinson</t>
   </si>
   <si>
+    <t>Kevon Looney</t>
+  </si>
+  <si>
     <t>Cameron Payne</t>
   </si>
   <si>
-    <t>Josh Richardson</t>
-  </si>
-  <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
-    <t>Isaiah Roby</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Miles Bridges</t>
+  </si>
+  <si>
+    <t>Isaac Okoro</t>
+  </si>
+  <si>
+    <t>Nerlens Noel</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Cody Martin</t>
+  </si>
+  <si>
+    <t>Dennis Schroder</t>
+  </si>
+  <si>
+    <t>Kentavious CaldwellPope</t>
+  </si>
+  <si>
+    <t>Maxi Kleber</t>
+  </si>
+  <si>
+    <t>Kelly Olynyk</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>T.J. Warren</t>
+  </si>
+  <si>
+    <t>Precious Achiuwa</t>
+  </si>
+  <si>
+    <t>Delon Wright</t>
+  </si>
+  <si>
+    <t>Nassir Little</t>
+  </si>
+  <si>
+    <t>Terance Mann</t>
   </si>
   <si>
     <t>Tyus Jones</t>
   </si>
   <si>
-    <t>Delon Wright</t>
-  </si>
-  <si>
-    <t>Larry Nance Jr.</t>
-  </si>
-  <si>
-    <t>Montrezl Harrell</t>
+    <t>Derrick Rose</t>
+  </si>
+  <si>
+    <t>Gary Payton II</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
   </si>
   <si>
     <t>Marcus Morris Sr.</t>
   </si>
   <si>
-    <t>Kelly Olynyk</t>
-  </si>
-  <si>
-    <t>Kentavious CaldwellPope</t>
-  </si>
-  <si>
-    <t>Kevon Looney</t>
-  </si>
-  <si>
-    <t>Maxi Kleber</t>
-  </si>
-  <si>
-    <t>Isaiah Jackson</t>
-  </si>
-  <si>
-    <t>Nerlens Noel</t>
-  </si>
-  <si>
-    <t>Gary Payton II</t>
-  </si>
-  <si>
-    <t>Cody Martin</t>
-  </si>
-  <si>
-    <t>T.J. Warren</t>
-  </si>
-  <si>
-    <t>Derrick Rose</t>
-  </si>
-  <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>Coby White</t>
+    <t>Pat Connaughton</t>
+  </si>
+  <si>
+    <t>Lonnie Walker IV</t>
+  </si>
+  <si>
+    <t>Xavier Tillman</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Davion Mitchell</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>P.J. Tucker</t>
+  </si>
+  <si>
+    <t>Luke Kennard</t>
+  </si>
+  <si>
+    <t>Cam Reddish</t>
+  </si>
+  <si>
+    <t>Moses Moody</t>
   </si>
   <si>
     <t>Caleb Martin</t>
   </si>
   <si>
-    <t>Precious Achiuwa</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
-    <t>Xavier Tillman</t>
-  </si>
-  <si>
-    <t>P.J. Tucker</t>
-  </si>
-  <si>
-    <t>Isaac Okoro</t>
-  </si>
-  <si>
-    <t>Dennis Schroder</t>
+    <t>Nickeil AlexanderWalker</t>
   </si>
   <si>
     <t>Grant Williams</t>
   </si>
   <si>
-    <t>Pat Connaughton</t>
-  </si>
-  <si>
     <t>Alec Burks</t>
   </si>
   <si>
-    <t>Terance Mann</t>
-  </si>
-  <si>
-    <t>Nassir Little</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Malik Monk</t>
+  </si>
+  <si>
+    <t>Ricky Rubio</t>
+  </si>
+  <si>
+    <t>Talen HortonTucker</t>
   </si>
   <si>
     <t>Joe Ingles</t>
   </si>
   <si>
-    <t>Lonnie Walker IV</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Quentin Grimes</t>
-  </si>
-  <si>
-    <t>Luke Kennard</t>
-  </si>
-  <si>
-    <t>Miles Bridges</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Moses Moody</t>
+    <t>KJ Martin Jr.</t>
+  </si>
+  <si>
+    <t>Nicolas Batum</t>
+  </si>
+  <si>
+    <t>Dwight Powell</t>
+  </si>
+  <si>
+    <t>Thaddeus Young</t>
+  </si>
+  <si>
+    <t>Terrence Ross</t>
   </si>
   <si>
     <t>Justin Holiday</t>
   </si>
   <si>
-    <t>Ricky Rubio</t>
-  </si>
-  <si>
-    <t>Thaddeus Young</t>
+    <t>Max Strus</t>
+  </si>
+  <si>
+    <t>Eric Gordon</t>
+  </si>
+  <si>
+    <t>Trendon Watford</t>
+  </si>
+  <si>
+    <t>Naz Reid</t>
   </si>
   <si>
     <t>Damian Jones</t>
   </si>
   <si>
-    <t>Davion Mitchell</t>
-  </si>
-  <si>
-    <t>Nicolas Batum</t>
+    <t>Juan ToscanoAnderson</t>
+  </si>
+  <si>
+    <t>Danilo Gallinari</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
+    <t>Doug McDermott</t>
+  </si>
+  <si>
+    <t>Khem Birch</t>
+  </si>
+  <si>
+    <t>Dewayne Dedmon</t>
   </si>
   <si>
     <t>Jalen McDaniels</t>
   </si>
   <si>
-    <t>Juan ToscanoAnderson</t>
-  </si>
-  <si>
-    <t>Nickeil AlexanderWalker</t>
-  </si>
-  <si>
-    <t>Cam Reddish</t>
+    <t>Hassan Whiteside</t>
+  </si>
+  <si>
+    <t>Davis Bertans</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Kemba Walker</t>
+  </si>
+  <si>
+    <t>Facundo Campazzo</t>
+  </si>
+  <si>
+    <t>Daniel Theis</t>
+  </si>
+  <si>
+    <t>Josh Christopher</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>Zach Collins</t>
+  </si>
+  <si>
+    <t>Theo Maledon</t>
+  </si>
+  <si>
+    <t>Joshua Primo</t>
   </si>
   <si>
     <t>Isaiah Livers</t>
   </si>
   <si>
-    <t>Dwight Powell</t>
-  </si>
-  <si>
-    <t>Dewayne Dedmon</t>
-  </si>
-  <si>
-    <t>Terrence Ross</t>
-  </si>
-  <si>
-    <t>Hassan Whiteside</t>
-  </si>
-  <si>
-    <t>Naz Reid</t>
-  </si>
-  <si>
-    <t>KJ Martin Jr.</t>
+    <t>Goran Dragic</t>
+  </si>
+  <si>
+    <t>Tre Mann</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Ochai Agbaji</t>
+  </si>
+  <si>
+    <t>Eric Bledsoe</t>
+  </si>
+  <si>
+    <t>Danny Green</t>
   </si>
   <si>
     <t>JaMychal Green</t>
   </si>
   <si>
-    <t>Eric Gordon</t>
-  </si>
-  <si>
-    <t>Danilo Gallinari</t>
-  </si>
-  <si>
-    <t>Khem Birch</t>
-  </si>
-  <si>
-    <t>Facundo Campazzo</t>
-  </si>
-  <si>
-    <t>Davis Bertans</t>
-  </si>
-  <si>
-    <t>Talen HortonTucker</t>
-  </si>
-  <si>
-    <t>Max Strus</t>
-  </si>
-  <si>
-    <t>Goran Dragic</t>
-  </si>
-  <si>
-    <t>Doug McDermott</t>
+    <t>Malachi Flynn</t>
   </si>
   <si>
     <t>Paul Reed</t>
   </si>
   <si>
-    <t>Malik Monk</t>
+    <t>Moses Brown</t>
+  </si>
+  <si>
+    <t>Dario Saric</t>
   </si>
   <si>
     <t>Derrick Favors</t>
   </si>
   <si>
-    <t>Jose Alvarado</t>
-  </si>
-  <si>
-    <t>Kemba Walker</t>
-  </si>
-  <si>
-    <t>Trendon Watford</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Theo Maledon</t>
-  </si>
-  <si>
-    <t>Dario Saric</t>
-  </si>
-  <si>
-    <t>Moses Brown</t>
-  </si>
-  <si>
-    <t>Eric Bledsoe</t>
-  </si>
-  <si>
-    <t>Daniel Theis</t>
-  </si>
-  <si>
-    <t>Danny Green</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Zach Collins</t>
-  </si>
-  <si>
-    <t>Joshua Primo</t>
+    <t>Shaedon Sharpe</t>
+  </si>
+  <si>
+    <t>Johnny Davis</t>
+  </si>
+  <si>
+    <t>LaMarcus Aldridge</t>
+  </si>
+  <si>
+    <t>Chimezie Metu</t>
+  </si>
+  <si>
+    <t>Ziaire Williams</t>
   </si>
   <si>
     <t>Serge Ibaka</t>
   </si>
   <si>
-    <t>Malachi Flynn</t>
+    <t>Gabe Vincent</t>
+  </si>
+  <si>
+    <t>Corey Kispert</t>
+  </si>
+  <si>
+    <t>Blake Griffin</t>
+  </si>
+  <si>
+    <t>Shake Milton</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
+    <t>Day'Ron Sharpe</t>
+  </si>
+  <si>
+    <t>Patty Mills</t>
+  </si>
+  <si>
+    <t>Oshae Brissett</t>
+  </si>
+  <si>
+    <t>TyTy Washington Jr.</t>
+  </si>
+  <si>
+    <t>AJ Griffin</t>
+  </si>
+  <si>
+    <t>Malaki Branham</t>
   </si>
   <si>
     <t>Rudy Gay</t>
   </si>
   <si>
-    <t>Jeremy Sochan</t>
+    <t>Jeremiah RobinsonEarl</t>
   </si>
   <si>
     <t>Austin Reaves</t>
   </si>
   <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Josh Christopher</t>
-  </si>
-  <si>
-    <t>LaMarcus Aldridge</t>
+    <t>Jeremy Lamb</t>
+  </si>
+  <si>
+    <t>DeAndre Jordan</t>
+  </si>
+  <si>
+    <t>Jaylen Nowell</t>
   </si>
   <si>
     <t>Drew Eubanks</t>
   </si>
   <si>
-    <t>Blake Griffin</t>
-  </si>
-  <si>
     <t>Carmelo Anthony</t>
   </si>
   <si>
-    <t>Jaylen Nowell</t>
-  </si>
-  <si>
     <t>Cody Zeller</t>
   </si>
   <si>
-    <t>Malaki Branham</t>
+    <t>Omer Yurtseven</t>
   </si>
   <si>
     <t>Tomas Satoransky</t>
   </si>
   <si>
-    <t>DeAndre Jordan</t>
-  </si>
-  <si>
     <t>Dwight Howard</t>
   </si>
   <si>
-    <t>Gabe Vincent</t>
-  </si>
-  <si>
-    <t>Ziaire Williams</t>
+    <t>Usman Garuba</t>
+  </si>
+  <si>
+    <t>Josh Jackson</t>
   </si>
   <si>
     <t>Paul Millsap</t>
   </si>
   <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Tre Mann</t>
-  </si>
-  <si>
-    <t>Chimezie Metu</t>
-  </si>
-  <si>
-    <t>Corey Kispert</t>
-  </si>
-  <si>
-    <t>Jeremy Lamb</t>
-  </si>
-  <si>
-    <t>Ochai Agbaji</t>
-  </si>
-  <si>
-    <t>Josh Jackson</t>
+    <t>Landry Shamet</t>
+  </si>
+  <si>
+    <t>Trey Lyles</t>
+  </si>
+  <si>
+    <t>Enes Freedom</t>
+  </si>
+  <si>
+    <t>Udoka Azubuike</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Justise Winslow</t>
+  </si>
+  <si>
+    <t>Lou Williams</t>
+  </si>
+  <si>
+    <t>Ousmane Dieng</t>
+  </si>
+  <si>
+    <t>Garrison Mathews</t>
+  </si>
+  <si>
+    <t>Zeke Nnaji</t>
   </si>
   <si>
     <t>Tristan Thompson</t>
   </si>
   <si>
-    <t>Shake Milton</t>
-  </si>
-  <si>
-    <t>TyTy Washington Jr.</t>
-  </si>
-  <si>
-    <t>Lou Williams</t>
-  </si>
-  <si>
-    <t>Jeremiah RobinsonEarl</t>
-  </si>
-  <si>
-    <t>Day'Ron Sharpe</t>
-  </si>
-  <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
-    <t>Patty Mills</t>
-  </si>
-  <si>
-    <t>Zeke Nnaji</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Johnny Davis</t>
-  </si>
-  <si>
-    <t>Usman Garuba</t>
+    <t>MarJon Beauchamp</t>
+  </si>
+  <si>
+    <t>Terence Davis II</t>
+  </si>
+  <si>
+    <t>Gary Harris</t>
+  </si>
+  <si>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
+    <t>James Bouknight</t>
+  </si>
+  <si>
+    <t>Jaden Hardy</t>
+  </si>
+  <si>
+    <t>Jordan McLaughlin</t>
   </si>
   <si>
     <t>Jake LaRavia</t>
   </si>
   <si>
-    <t>Trey Lyles</t>
-  </si>
-  <si>
-    <t>Udoka Azubuike</t>
-  </si>
-  <si>
-    <t>Omer Yurtseven</t>
-  </si>
-  <si>
-    <t>Enes Freedom</t>
-  </si>
-  <si>
-    <t>Terence Davis II</t>
-  </si>
-  <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
-    <t>Oshae Brissett</t>
-  </si>
-  <si>
-    <t>Taurean Prince</t>
-  </si>
-  <si>
-    <t>Landry Shamet</t>
-  </si>
-  <si>
-    <t>Jordan McLaughlin</t>
-  </si>
-  <si>
     <t>Ty Jerome</t>
   </si>
   <si>
+    <t>Jeff Green</t>
+  </si>
+  <si>
+    <t>Jared Butler</t>
+  </si>
+  <si>
+    <t>Jericho Sims</t>
+  </si>
+  <si>
+    <t>Dalen Terry</t>
+  </si>
+  <si>
     <t>Bismack Biyombo</t>
   </si>
   <si>
-    <t>Jaden Hardy</t>
-  </si>
-  <si>
-    <t>Jeff Green</t>
-  </si>
-  <si>
     <t>Trevor Keels</t>
   </si>
   <si>
-    <t>AJ Griffin</t>
-  </si>
-  <si>
     <t>Georges Niang</t>
   </si>
   <si>
+    <t>Aaron Nesmith</t>
+  </si>
+  <si>
+    <t>Wendell Moore Jr.</t>
+  </si>
+  <si>
+    <t>Hamidou Diallo</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Jaylin Williams</t>
+  </si>
+  <si>
     <t>John Konchar</t>
   </si>
   <si>
-    <t>Jericho Sims</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>Jaylin Williams</t>
-  </si>
-  <si>
-    <t>Garrison Mathews</t>
+    <t>Duane Washington Jr.</t>
+  </si>
+  <si>
+    <t>Amir Coffey</t>
+  </si>
+  <si>
+    <t>Kira Lewis Jr.</t>
+  </si>
+  <si>
+    <t>Josh Green</t>
+  </si>
+  <si>
+    <t>Cedi Osman</t>
+  </si>
+  <si>
+    <t>Eric Paschall</t>
+  </si>
+  <si>
+    <t>Aaron Wiggins</t>
   </si>
   <si>
     <t>Nemanja Bjelica</t>
   </si>
   <si>
-    <t>Aaron Nesmith</t>
-  </si>
-  <si>
-    <t>Jared Butler</t>
+    <t>Elfrid Payton</t>
+  </si>
+  <si>
+    <t>Dalano Banton</t>
   </si>
   <si>
     <t>Kenrich Williams</t>
   </si>
   <si>
-    <t>Elfrid Payton</t>
-  </si>
-  <si>
     <t>Trevor Ariza</t>
   </si>
   <si>
-    <t>Ousmane Dieng</t>
+    <t>Brandon Goodwin</t>
   </si>
   <si>
     <t>Torrey Craig</t>
   </si>
   <si>
-    <t>Josh Green</t>
-  </si>
-  <si>
-    <t>Gary Harris</t>
+    <t>Kessler Edwards</t>
+  </si>
+  <si>
+    <t>Furkan Korkmaz</t>
   </si>
   <si>
     <t>Christian Braun</t>
@@ -1087,27 +1135,27 @@
     <t>David Roddy</t>
   </si>
   <si>
-    <t>MarJon Beauchamp</t>
+    <t>Peyton Watson</t>
+  </si>
+  <si>
+    <t>Frank Jackson</t>
   </si>
   <si>
     <t>Blake Wesley</t>
   </si>
   <si>
-    <t>Wendell Moore Jr.</t>
-  </si>
-  <si>
-    <t>Dalen Terry</t>
+    <t>Jalen Johnson</t>
   </si>
   <si>
     <t>Patrick Baldwin Jr.</t>
   </si>
   <si>
-    <t>Peyton Watson</t>
-  </si>
-  <si>
     <t>Andrew Nembhard</t>
   </si>
   <si>
+    <t>R.J. Hampton Jr.</t>
+  </si>
+  <si>
     <t>Caleb Houstan</t>
   </si>
   <si>
@@ -1120,13 +1168,22 @@
     <t>George Hill</t>
   </si>
   <si>
+    <t>CJ Elleby</t>
+  </si>
+  <si>
     <t>Gabriele Procida</t>
   </si>
   <si>
+    <t>Vernon Carey Jr.</t>
+  </si>
+  <si>
+    <t>Kennedy Chandler</t>
+  </si>
+  <si>
     <t>Moritz Wagner</t>
   </si>
   <si>
-    <t>Kennedy Chandler</t>
+    <t>Jock Landale</t>
   </si>
   <si>
     <t>Khalifa Diop</t>
@@ -1144,9 +1201,6 @@
     <t>E.J. Liddell</t>
   </si>
   <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
     <t>Moussa Diabate</t>
   </si>
   <si>
@@ -1168,21 +1222,18 @@
     <t>Vince Williams Jr.</t>
   </si>
   <si>
+    <t>Bol Bol</t>
+  </si>
+  <si>
     <t>Kendall Brown</t>
   </si>
   <si>
     <t>Isaiah Mobley</t>
   </si>
   <si>
-    <t>James Bouknight</t>
-  </si>
-  <si>
     <t>Matteo Spagnolo</t>
   </si>
   <si>
-    <t>Justise Winslow</t>
-  </si>
-  <si>
     <t>Tyrese Martin</t>
   </si>
   <si>
@@ -1204,39 +1255,234 @@
     <t>Jabari Walker</t>
   </si>
   <si>
+    <t>Naji Marshall</t>
+  </si>
+  <si>
     <t>Hugo Besson</t>
   </si>
   <si>
+    <t>Saben Lee</t>
+  </si>
+  <si>
+    <t>Keon Johnson</t>
+  </si>
+  <si>
+    <t>Luka Garza</t>
+  </si>
+  <si>
+    <t>Miles McBride</t>
+  </si>
+  <si>
+    <t>JT Thor</t>
+  </si>
+  <si>
+    <t>Frank Ntilikina</t>
+  </si>
+  <si>
+    <t>Isaiah Todd</t>
+  </si>
+  <si>
+    <t>Sharife Cooper</t>
+  </si>
+  <si>
+    <t>Javonte Green</t>
+  </si>
+  <si>
+    <t>DeAndre' Bembry</t>
+  </si>
+  <si>
+    <t>Jarrett Culver</t>
+  </si>
+  <si>
+    <t>Raul Neto</t>
+  </si>
+  <si>
+    <t>Troy Brown Jr.</t>
+  </si>
+  <si>
+    <t>Josh Okogie</t>
+  </si>
+  <si>
+    <t>Alize Johnson</t>
+  </si>
+  <si>
+    <t>Tony Bradley</t>
+  </si>
+  <si>
+    <t>Jaden Springer</t>
+  </si>
+  <si>
+    <t>Romeo Langford</t>
+  </si>
+  <si>
+    <t>David Nwaba</t>
+  </si>
+  <si>
+    <t>Kai Jones</t>
+  </si>
+  <si>
+    <t>KZ Okpala</t>
+  </si>
+  <si>
+    <t>Dennis Smith Jr.</t>
+  </si>
+  <si>
+    <t>DeMarcus Cousins</t>
+  </si>
+  <si>
+    <t>Aaron Holiday</t>
+  </si>
+  <si>
+    <t>Juancho Hernangomez</t>
+  </si>
+  <si>
+    <t>Kris Dunn</t>
+  </si>
+  <si>
+    <t>Wenyen Gabriel</t>
+  </si>
+  <si>
+    <t>Kevin Knox II</t>
+  </si>
+  <si>
+    <t>Cory Joseph</t>
+  </si>
+  <si>
+    <t>Svi Mykhailiuk</t>
+  </si>
+  <si>
+    <t>Derrick Jones Jr.</t>
+  </si>
+  <si>
+    <t>Dean Wade</t>
+  </si>
+  <si>
+    <t>Dylan Windler</t>
+  </si>
+  <si>
+    <t>Austin Rivers</t>
+  </si>
+  <si>
+    <t>Marquese Chriss</t>
+  </si>
+  <si>
+    <t>Damion Lee</t>
+  </si>
+  <si>
+    <t>Alex Len</t>
+  </si>
+  <si>
+    <t>D.J. Augustin</t>
+  </si>
+  <si>
+    <t>James Johnson</t>
+  </si>
+  <si>
+    <t>Robin Lopez</t>
+  </si>
+  <si>
+    <t>Bruno Fernando</t>
+  </si>
+  <si>
+    <t>Danuel House Jr.</t>
+  </si>
+  <si>
+    <t>Leandro Bolmaro</t>
+  </si>
+  <si>
+    <t>Rodney Hood</t>
+  </si>
+  <si>
+    <t>Kent Bazemore</t>
+  </si>
+  <si>
+    <t>Khyri Thomas</t>
+  </si>
+  <si>
+    <t>Rajon Rondo</t>
+  </si>
+  <si>
+    <t>Gorgui Dieng</t>
+  </si>
+  <si>
+    <t>Michael CarterWilliams</t>
+  </si>
+  <si>
+    <t>Jeff Teague</t>
+  </si>
+  <si>
+    <t>Sekou Doumbouya</t>
+  </si>
+  <si>
+    <t>Denzel Valentine</t>
+  </si>
+  <si>
+    <t>Willie CauleyStein</t>
+  </si>
+  <si>
+    <t>Jabari Parker</t>
+  </si>
+  <si>
+    <t>Harry Giles III</t>
+  </si>
+  <si>
+    <t>Zhaire Smith</t>
+  </si>
+  <si>
+    <t>Grant Riller</t>
+  </si>
+  <si>
+    <t>Thon Maker</t>
+  </si>
+  <si>
+    <t>Emmanuel Mudiay</t>
+  </si>
+  <si>
+    <t>Dante Exum</t>
+  </si>
+  <si>
+    <t>Tyler Johnson</t>
+  </si>
+  <si>
+    <t>Meyers Leonard</t>
+  </si>
+  <si>
+    <t>Brad Wanamaker</t>
+  </si>
+  <si>
+    <t>Aron Baynes</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>SG,SF,PG</t>
+  </si>
+  <si>
     <t>PG,SG,SF,PF</t>
   </si>
   <si>
-    <t>SG,SF,PG</t>
-  </si>
-  <si>
     <t>SF,PF,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>C,PF</t>
   </si>
   <si>
@@ -1246,34 +1492,37 @@
     <t>PG,SG,SF</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>SF,PF,C</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>PF,C,SF</t>
   </si>
   <si>
     <t>PF,SF</t>
   </si>
   <si>
+    <t>SF,SG</t>
+  </si>
+  <si>
+    <t>SG,PG</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
-    <t>SF,SG</t>
-  </si>
-  <si>
-    <t>SG,PG</t>
+    <t>PF,PG,SF</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>PF,PG,SF</t>
+    <t>SF,PG</t>
   </si>
   <si>
     <t>DEN</t>
@@ -1282,82 +1531,82 @@
     <t>PHI</t>
   </si>
   <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
     <t>BKN</t>
   </si>
   <si>
-    <t>MIL</t>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>ATL</t>
   </si>
   <si>
     <t>GSW</t>
   </si>
   <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>BOS</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>ATL</t>
-  </si>
-  <si>
     <t>CHA</t>
   </si>
   <si>
+    <t>IND</t>
+  </si>
+  <si>
     <t>POR</t>
   </si>
   <si>
+    <t>PHO</t>
+  </si>
+  <si>
     <t>LAL</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>PHO</t>
+    <t>MIA</t>
   </si>
   <si>
     <t>LAC</t>
   </si>
   <si>
-    <t>MIA</t>
-  </si>
-  <si>
     <t>SAC</t>
   </si>
   <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
     <t>TOR</t>
   </si>
   <si>
-    <t>CLE</t>
-  </si>
-  <si>
-    <t>MEM</t>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>DET</t>
   </si>
   <si>
     <t>CHI</t>
   </si>
   <si>
-    <t>WAS</t>
-  </si>
-  <si>
-    <t>OKC</t>
-  </si>
-  <si>
-    <t>DET</t>
-  </si>
-  <si>
     <t>NOR</t>
   </si>
   <si>
+    <t>NYK</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
     <t>SAS</t>
-  </si>
-  <si>
-    <t>NYK</t>
-  </si>
-  <si>
-    <t>ORL</t>
   </si>
   <si>
     <t>HOU</t>
@@ -1724,7 +1973,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D393"/>
+  <dimension ref="A1:D475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1755,10 +2004,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="D2" t="s">
-        <v>419</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1769,10 +2018,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="D3" t="s">
-        <v>420</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1783,10 +2032,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>397</v>
+        <v>478</v>
       </c>
       <c r="D4" t="s">
-        <v>421</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1797,10 +2046,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>396</v>
+        <v>479</v>
       </c>
       <c r="D5" t="s">
-        <v>422</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1811,10 +2060,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="D6" t="s">
-        <v>420</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1825,10 +2074,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>398</v>
+        <v>481</v>
       </c>
       <c r="D7" t="s">
-        <v>423</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1839,10 +2088,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>398</v>
+        <v>481</v>
       </c>
       <c r="D8" t="s">
-        <v>424</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1853,10 +2102,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>397</v>
+        <v>482</v>
       </c>
       <c r="D9" t="s">
-        <v>425</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1867,10 +2116,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
       <c r="D10" t="s">
-        <v>426</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1881,10 +2130,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="D11" t="s">
-        <v>427</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1895,10 +2144,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="D12" t="s">
-        <v>428</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1909,10 +2158,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="D13" t="s">
-        <v>429</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1923,10 +2172,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>401</v>
+        <v>482</v>
       </c>
       <c r="D14" t="s">
-        <v>430</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1937,10 +2186,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>398</v>
+        <v>483</v>
       </c>
       <c r="D15" t="s">
-        <v>431</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1951,10 +2200,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>398</v>
+        <v>484</v>
       </c>
       <c r="D16" t="s">
-        <v>421</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1965,10 +2214,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="D17" t="s">
-        <v>430</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1979,10 +2228,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>402</v>
+        <v>478</v>
       </c>
       <c r="D18" t="s">
-        <v>432</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1993,10 +2242,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>403</v>
+        <v>485</v>
       </c>
       <c r="D19" t="s">
-        <v>433</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2007,10 +2256,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>396</v>
+        <v>480</v>
       </c>
       <c r="D20" t="s">
-        <v>434</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2021,10 +2270,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="D21" t="s">
-        <v>435</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2035,10 +2284,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>403</v>
+        <v>482</v>
       </c>
       <c r="D22" t="s">
-        <v>434</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2049,10 +2298,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="D23" t="s">
-        <v>436</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2063,10 +2312,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="D24" t="s">
-        <v>437</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2077,10 +2326,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>404</v>
+        <v>486</v>
       </c>
       <c r="D25" t="s">
-        <v>433</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2091,10 +2340,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
       <c r="D26" t="s">
-        <v>426</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2105,10 +2354,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="D27" t="s">
-        <v>432</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2119,10 +2368,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="D28" t="s">
-        <v>427</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2133,10 +2382,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>400</v>
+        <v>479</v>
       </c>
       <c r="D29" t="s">
-        <v>438</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2147,10 +2396,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>405</v>
+        <v>486</v>
       </c>
       <c r="D30" t="s">
-        <v>426</v>
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2161,10 +2410,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="D31" t="s">
-        <v>437</v>
+        <v>523</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2175,10 +2424,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>403</v>
+        <v>479</v>
       </c>
       <c r="D32" t="s">
-        <v>439</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2189,10 +2438,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
       <c r="D33" t="s">
-        <v>440</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2203,10 +2452,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
       <c r="D34" t="s">
-        <v>432</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2217,10 +2466,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>396</v>
+        <v>485</v>
       </c>
       <c r="D35" t="s">
-        <v>436</v>
+        <v>525</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2231,10 +2480,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>399</v>
+        <v>479</v>
       </c>
       <c r="D36" t="s">
-        <v>439</v>
+        <v>525</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2245,10 +2494,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>396</v>
+        <v>482</v>
       </c>
       <c r="D37" t="s">
-        <v>440</v>
+        <v>514</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2259,10 +2508,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>398</v>
+        <v>486</v>
       </c>
       <c r="D38" t="s">
-        <v>441</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2273,10 +2522,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
       <c r="D39" t="s">
-        <v>442</v>
+        <v>520</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2287,10 +2536,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>398</v>
+        <v>478</v>
       </c>
       <c r="D40" t="s">
-        <v>422</v>
+        <v>521</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2301,10 +2550,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>403</v>
+        <v>478</v>
       </c>
       <c r="D41" t="s">
-        <v>422</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2315,10 +2564,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>396</v>
+        <v>480</v>
       </c>
       <c r="D42" t="s">
-        <v>431</v>
+        <v>504</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2329,10 +2578,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>405</v>
+        <v>478</v>
       </c>
       <c r="D43" t="s">
-        <v>439</v>
+        <v>522</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2343,10 +2592,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>399</v>
+        <v>485</v>
       </c>
       <c r="D44" t="s">
-        <v>437</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2357,10 +2606,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>398</v>
+        <v>488</v>
       </c>
       <c r="D45" t="s">
-        <v>428</v>
+        <v>508</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2371,10 +2620,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>405</v>
+        <v>486</v>
       </c>
       <c r="D46" t="s">
-        <v>425</v>
+        <v>508</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2385,10 +2634,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>406</v>
+        <v>488</v>
       </c>
       <c r="D47" t="s">
-        <v>425</v>
+        <v>520</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2399,10 +2648,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>406</v>
+        <v>480</v>
       </c>
       <c r="D48" t="s">
-        <v>437</v>
+        <v>511</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2413,10 +2662,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>399</v>
+        <v>482</v>
       </c>
       <c r="D49" t="s">
-        <v>443</v>
+        <v>518</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2427,10 +2676,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="D50" t="s">
-        <v>435</v>
+        <v>526</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2441,10 +2690,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
       <c r="D51" t="s">
-        <v>443</v>
+        <v>526</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2455,10 +2704,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>397</v>
+        <v>481</v>
       </c>
       <c r="D52" t="s">
-        <v>443</v>
+        <v>526</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2469,10 +2718,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>405</v>
+        <v>481</v>
       </c>
       <c r="D53" t="s">
-        <v>432</v>
+        <v>521</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2483,10 +2732,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>407</v>
+        <v>478</v>
       </c>
       <c r="D54" t="s">
-        <v>443</v>
+        <v>509</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2497,10 +2746,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>396</v>
+        <v>486</v>
       </c>
       <c r="D55" t="s">
-        <v>427</v>
+        <v>514</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2511,10 +2760,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>397</v>
+        <v>480</v>
       </c>
       <c r="D56" t="s">
-        <v>436</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2525,10 +2774,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>408</v>
+        <v>490</v>
       </c>
       <c r="D57" t="s">
-        <v>438</v>
+        <v>519</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2539,10 +2788,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>397</v>
+        <v>481</v>
       </c>
       <c r="D58" t="s">
-        <v>436</v>
+        <v>521</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2553,10 +2802,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>398</v>
+        <v>481</v>
       </c>
       <c r="D59" t="s">
-        <v>420</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2567,10 +2816,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>397</v>
+        <v>480</v>
       </c>
       <c r="D60" t="s">
-        <v>420</v>
+        <v>503</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2581,10 +2830,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>397</v>
+        <v>481</v>
       </c>
       <c r="D61" t="s">
-        <v>419</v>
+        <v>503</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2595,10 +2844,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>398</v>
+        <v>478</v>
       </c>
       <c r="D62" t="s">
-        <v>423</v>
+        <v>527</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2609,10 +2858,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
       <c r="D63" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2623,10 +2872,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
       <c r="D64" t="s">
-        <v>426</v>
+        <v>513</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2637,10 +2886,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
       <c r="D65" t="s">
-        <v>429</v>
+        <v>505</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2651,10 +2900,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>396</v>
+        <v>479</v>
       </c>
       <c r="D66" t="s">
-        <v>445</v>
+        <v>528</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2665,10 +2914,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>396</v>
+        <v>481</v>
       </c>
       <c r="D67" t="s">
-        <v>424</v>
+        <v>513</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2679,10 +2928,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>397</v>
+        <v>482</v>
       </c>
       <c r="D68" t="s">
-        <v>429</v>
+        <v>507</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2693,10 +2942,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
       <c r="D69" t="s">
-        <v>434</v>
+        <v>529</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2707,10 +2956,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
       <c r="D70" t="s">
-        <v>446</v>
+        <v>516</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2721,10 +2970,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>397</v>
+        <v>478</v>
       </c>
       <c r="D71" t="s">
-        <v>444</v>
+        <v>506</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2735,10 +2984,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="D72" t="s">
-        <v>421</v>
+        <v>523</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2749,10 +2998,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>409</v>
+        <v>491</v>
       </c>
       <c r="D73" t="s">
-        <v>438</v>
+        <v>530</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2763,10 +3012,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>398</v>
+        <v>478</v>
       </c>
       <c r="D74" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2777,10 +3026,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>396</v>
+        <v>481</v>
       </c>
       <c r="D75" t="s">
-        <v>423</v>
+        <v>529</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2791,10 +3040,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="D76" t="s">
-        <v>447</v>
+        <v>509</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2805,10 +3054,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="D77" t="s">
-        <v>434</v>
+        <v>508</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2819,10 +3068,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
       <c r="D78" t="s">
-        <v>441</v>
+        <v>530</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2833,10 +3082,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="D79" t="s">
-        <v>425</v>
+        <v>527</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2847,10 +3096,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
       <c r="D80" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2861,10 +3110,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>405</v>
+        <v>482</v>
       </c>
       <c r="D81" t="s">
-        <v>423</v>
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2875,10 +3124,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="D82" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2889,10 +3138,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>405</v>
+        <v>486</v>
       </c>
       <c r="D83" t="s">
-        <v>431</v>
+        <v>511</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2903,10 +3152,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>399</v>
+        <v>478</v>
       </c>
       <c r="D84" t="s">
-        <v>427</v>
+        <v>511</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2917,10 +3166,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>396</v>
+        <v>493</v>
       </c>
       <c r="D85" t="s">
-        <v>428</v>
+        <v>519</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2931,10 +3180,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>405</v>
+        <v>486</v>
       </c>
       <c r="D86" t="s">
-        <v>428</v>
+        <v>512</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2945,10 +3194,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>396</v>
+        <v>479</v>
       </c>
       <c r="D87" t="s">
-        <v>425</v>
+        <v>527</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2959,10 +3208,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
       <c r="D88" t="s">
-        <v>433</v>
+        <v>525</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2973,10 +3222,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>398</v>
+        <v>481</v>
       </c>
       <c r="D89" t="s">
-        <v>419</v>
+        <v>522</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2987,10 +3236,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>399</v>
+        <v>486</v>
       </c>
       <c r="D90" t="s">
-        <v>445</v>
+        <v>521</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3001,10 +3250,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>397</v>
+        <v>489</v>
       </c>
       <c r="D91" t="s">
-        <v>440</v>
+        <v>528</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3015,10 +3264,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>396</v>
+        <v>486</v>
       </c>
       <c r="D92" t="s">
-        <v>448</v>
+        <v>510</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3029,10 +3278,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>407</v>
+        <v>486</v>
       </c>
       <c r="D93" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3043,10 +3292,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>396</v>
+        <v>480</v>
       </c>
       <c r="D94" t="s">
-        <v>422</v>
+        <v>531</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3057,10 +3306,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>405</v>
+        <v>478</v>
       </c>
       <c r="D95" t="s">
-        <v>436</v>
+        <v>519</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3071,10 +3320,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>397</v>
+        <v>479</v>
       </c>
       <c r="D96" t="s">
-        <v>435</v>
+        <v>517</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3085,10 +3334,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>405</v>
+        <v>481</v>
       </c>
       <c r="D97" t="s">
-        <v>423</v>
+        <v>518</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3099,10 +3348,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>398</v>
+        <v>478</v>
       </c>
       <c r="D98" t="s">
-        <v>448</v>
+        <v>531</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3113,10 +3362,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="D99" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3127,10 +3376,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>399</v>
+        <v>489</v>
       </c>
       <c r="D100" t="s">
-        <v>422</v>
+        <v>518</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3141,10 +3390,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>398</v>
+        <v>478</v>
       </c>
       <c r="D101" t="s">
-        <v>439</v>
+        <v>508</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3155,10 +3404,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>412</v>
+        <v>482</v>
       </c>
       <c r="D102" t="s">
-        <v>433</v>
+        <v>531</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3169,10 +3418,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>407</v>
+        <v>494</v>
       </c>
       <c r="D103" t="s">
-        <v>435</v>
+        <v>517</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3183,10 +3432,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>398</v>
+        <v>478</v>
       </c>
       <c r="D104" t="s">
-        <v>425</v>
+        <v>504</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3197,10 +3446,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>402</v>
+        <v>483</v>
       </c>
       <c r="D105" t="s">
-        <v>447</v>
+        <v>530</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3211,10 +3460,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>405</v>
+        <v>486</v>
       </c>
       <c r="D106" t="s">
-        <v>433</v>
+        <v>527</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3225,10 +3474,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="D107" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3239,10 +3488,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>398</v>
+        <v>486</v>
       </c>
       <c r="D108" t="s">
-        <v>424</v>
+        <v>517</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3253,10 +3502,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>396</v>
+        <v>480</v>
       </c>
       <c r="D109" t="s">
-        <v>438</v>
+        <v>506</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3267,10 +3516,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>403</v>
+        <v>479</v>
       </c>
       <c r="D110" t="s">
-        <v>427</v>
+        <v>528</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3281,10 +3530,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>397</v>
+        <v>485</v>
       </c>
       <c r="D111" t="s">
-        <v>424</v>
+        <v>509</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3295,10 +3544,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>405</v>
+        <v>486</v>
       </c>
       <c r="D112" t="s">
-        <v>445</v>
+        <v>529</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3309,10 +3558,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
       <c r="D113" t="s">
-        <v>440</v>
+        <v>504</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3323,10 +3572,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>405</v>
+        <v>480</v>
       </c>
       <c r="D114" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3337,10 +3586,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
       <c r="D115" t="s">
-        <v>446</v>
+        <v>508</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3351,10 +3600,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>398</v>
+        <v>492</v>
       </c>
       <c r="D116" t="s">
-        <v>420</v>
+        <v>526</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3365,10 +3614,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>406</v>
+        <v>488</v>
       </c>
       <c r="D117" t="s">
-        <v>421</v>
+        <v>507</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3379,10 +3628,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>397</v>
+        <v>482</v>
       </c>
       <c r="D118" t="s">
-        <v>419</v>
+        <v>528</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3393,10 +3642,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
       <c r="D119" t="s">
-        <v>448</v>
+        <v>513</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3407,10 +3656,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>397</v>
+        <v>481</v>
       </c>
       <c r="D120" t="s">
-        <v>432</v>
+        <v>506</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3421,10 +3670,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>413</v>
+        <v>481</v>
       </c>
       <c r="D121" t="s">
-        <v>426</v>
+        <v>514</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3435,10 +3684,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>411</v>
+        <v>480</v>
       </c>
       <c r="D122" t="s">
-        <v>443</v>
+        <v>528</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3449,10 +3698,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>405</v>
+        <v>481</v>
       </c>
       <c r="D123" t="s">
-        <v>429</v>
+        <v>502</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3463,10 +3712,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="D124" t="s">
-        <v>433</v>
+        <v>522</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3477,10 +3726,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="D125" t="s">
-        <v>425</v>
+        <v>513</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3491,10 +3740,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>400</v>
+        <v>481</v>
       </c>
       <c r="D126" t="s">
-        <v>446</v>
+        <v>531</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3505,10 +3754,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>397</v>
+        <v>488</v>
       </c>
       <c r="D127" t="s">
-        <v>439</v>
+        <v>522</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3519,10 +3768,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>405</v>
+        <v>486</v>
       </c>
       <c r="D128" t="s">
-        <v>438</v>
+        <v>519</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3533,10 +3782,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>397</v>
+        <v>481</v>
       </c>
       <c r="D129" t="s">
-        <v>447</v>
+        <v>530</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3547,10 +3796,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>398</v>
+        <v>487</v>
       </c>
       <c r="D130" t="s">
-        <v>446</v>
+        <v>511</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3561,10 +3810,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>406</v>
+        <v>495</v>
       </c>
       <c r="D131" t="s">
-        <v>440</v>
+        <v>505</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3575,10 +3824,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="D132" t="s">
-        <v>429</v>
+        <v>517</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3589,10 +3838,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>405</v>
+        <v>482</v>
       </c>
       <c r="D133" t="s">
-        <v>440</v>
+        <v>515</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3603,10 +3852,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>400</v>
+        <v>478</v>
       </c>
       <c r="D134" t="s">
-        <v>430</v>
+        <v>518</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3617,10 +3866,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>398</v>
+        <v>481</v>
       </c>
       <c r="D135" t="s">
-        <v>448</v>
+        <v>509</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3631,10 +3880,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>399</v>
+        <v>489</v>
       </c>
       <c r="D136" t="s">
-        <v>438</v>
+        <v>530</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3645,10 +3894,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>404</v>
+        <v>481</v>
       </c>
       <c r="D137" t="s">
-        <v>428</v>
+        <v>525</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3659,10 +3908,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
       <c r="D138" t="s">
-        <v>426</v>
+        <v>522</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3673,10 +3922,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>396</v>
+        <v>481</v>
       </c>
       <c r="D139" t="s">
-        <v>435</v>
+        <v>505</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3687,10 +3936,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
       <c r="D140" t="s">
-        <v>421</v>
+        <v>528</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3701,10 +3950,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>397</v>
+        <v>480</v>
       </c>
       <c r="D141" t="s">
-        <v>427</v>
+        <v>531</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3715,10 +3964,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>396</v>
+        <v>480</v>
       </c>
       <c r="D142" t="s">
-        <v>431</v>
+        <v>528</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3729,10 +3978,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>398</v>
+        <v>486</v>
       </c>
       <c r="D143" t="s">
-        <v>446</v>
+        <v>518</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3743,10 +3992,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>407</v>
+        <v>486</v>
       </c>
       <c r="D144" t="s">
-        <v>447</v>
+        <v>523</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3757,10 +4006,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>396</v>
+        <v>486</v>
       </c>
       <c r="D145" t="s">
-        <v>428</v>
+        <v>503</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3771,10 +4020,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>405</v>
+        <v>486</v>
       </c>
       <c r="D146" t="s">
-        <v>446</v>
+        <v>520</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3785,10 +4034,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>405</v>
+        <v>479</v>
       </c>
       <c r="D147" t="s">
-        <v>435</v>
+        <v>525</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3799,10 +4048,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>405</v>
+        <v>478</v>
       </c>
       <c r="D148" t="s">
-        <v>441</v>
+        <v>512</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3813,10 +4062,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>396</v>
+        <v>481</v>
       </c>
       <c r="D149" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3827,10 +4076,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>399</v>
+        <v>479</v>
       </c>
       <c r="D150" t="s">
-        <v>439</v>
+        <v>519</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3841,10 +4090,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>398</v>
+        <v>481</v>
       </c>
       <c r="D151" t="s">
-        <v>421</v>
+        <v>528</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3855,10 +4104,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>405</v>
+        <v>478</v>
       </c>
       <c r="D152" t="s">
-        <v>420</v>
+        <v>524</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3869,10 +4118,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>405</v>
+        <v>481</v>
       </c>
       <c r="D153" t="s">
-        <v>437</v>
+        <v>523</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3883,10 +4132,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>407</v>
+        <v>479</v>
       </c>
       <c r="D154" t="s">
-        <v>446</v>
+        <v>515</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3897,10 +4146,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>405</v>
+        <v>478</v>
       </c>
       <c r="D155" t="s">
-        <v>421</v>
+        <v>509</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3911,10 +4160,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>397</v>
+        <v>489</v>
       </c>
       <c r="D156" t="s">
-        <v>446</v>
+        <v>528</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3925,10 +4174,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>399</v>
+        <v>478</v>
       </c>
       <c r="D157" t="s">
-        <v>430</v>
+        <v>531</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3939,10 +4188,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>397</v>
+        <v>478</v>
       </c>
       <c r="D158" t="s">
-        <v>441</v>
+        <v>511</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3953,10 +4202,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="D159" t="s">
-        <v>444</v>
+        <v>507</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3967,10 +4216,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>405</v>
+        <v>481</v>
       </c>
       <c r="D160" t="s">
-        <v>424</v>
+        <v>527</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3981,10 +4230,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>396</v>
+        <v>486</v>
       </c>
       <c r="D161" t="s">
-        <v>427</v>
+        <v>507</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3995,10 +4244,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>396</v>
+        <v>482</v>
       </c>
       <c r="D162" t="s">
-        <v>437</v>
+        <v>527</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4009,10 +4258,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>396</v>
+        <v>492</v>
       </c>
       <c r="D163" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4023,10 +4272,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>400</v>
+        <v>478</v>
       </c>
       <c r="D164" t="s">
-        <v>445</v>
+        <v>520</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4037,10 +4286,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="D165" t="s">
-        <v>433</v>
+        <v>524</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4051,10 +4300,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
       <c r="D166" t="s">
-        <v>445</v>
+        <v>506</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4065,10 +4314,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>397</v>
+        <v>481</v>
       </c>
       <c r="D167" t="s">
-        <v>432</v>
+        <v>523</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4079,10 +4328,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>396</v>
+        <v>480</v>
       </c>
       <c r="D168" t="s">
-        <v>436</v>
+        <v>502</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4093,10 +4342,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>411</v>
+        <v>486</v>
       </c>
       <c r="D169" t="s">
-        <v>431</v>
+        <v>527</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4107,10 +4356,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>397</v>
+        <v>480</v>
       </c>
       <c r="D170" t="s">
-        <v>441</v>
+        <v>524</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4121,10 +4370,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>405</v>
+        <v>478</v>
       </c>
       <c r="D171" t="s">
-        <v>445</v>
+        <v>527</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4135,10 +4384,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>398</v>
+        <v>491</v>
       </c>
       <c r="D172" t="s">
-        <v>419</v>
+        <v>512</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4149,10 +4398,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>397</v>
+        <v>479</v>
       </c>
       <c r="D173" t="s">
-        <v>436</v>
+        <v>510</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4163,10 +4412,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>396</v>
+        <v>482</v>
       </c>
       <c r="D174" t="s">
-        <v>445</v>
+        <v>517</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4177,10 +4426,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>405</v>
+        <v>478</v>
       </c>
       <c r="D175" t="s">
-        <v>434</v>
+        <v>521</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4191,10 +4440,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
       <c r="D176" t="s">
-        <v>439</v>
+        <v>526</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4205,10 +4454,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="D177" t="s">
-        <v>442</v>
+        <v>525</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4219,10 +4468,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>398</v>
+        <v>486</v>
       </c>
       <c r="D178" t="s">
-        <v>442</v>
+        <v>516</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4233,10 +4482,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>399</v>
+        <v>481</v>
       </c>
       <c r="D179" t="s">
-        <v>423</v>
+        <v>521</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4247,10 +4496,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>399</v>
+        <v>481</v>
       </c>
       <c r="D180" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4261,10 +4510,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>398</v>
+        <v>481</v>
       </c>
       <c r="D181" t="s">
-        <v>430</v>
+        <v>510</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4275,10 +4524,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>408</v>
+        <v>480</v>
       </c>
       <c r="D182" t="s">
-        <v>448</v>
+        <v>526</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4289,10 +4538,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>399</v>
+        <v>482</v>
       </c>
       <c r="D183" t="s">
-        <v>424</v>
+        <v>529</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4303,10 +4552,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>410</v>
+        <v>480</v>
       </c>
       <c r="D184" t="s">
-        <v>431</v>
+        <v>510</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4317,10 +4566,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
       <c r="D185" t="s">
-        <v>443</v>
+        <v>524</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4331,10 +4580,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>405</v>
+        <v>480</v>
       </c>
       <c r="D186" t="s">
-        <v>424</v>
+        <v>515</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4345,10 +4594,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="D187" t="s">
-        <v>431</v>
+        <v>515</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4359,10 +4608,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>398</v>
+        <v>486</v>
       </c>
       <c r="D188" t="s">
-        <v>430</v>
+        <v>506</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4373,10 +4622,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>405</v>
+        <v>490</v>
       </c>
       <c r="D189" t="s">
-        <v>421</v>
+        <v>531</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4387,10 +4636,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>399</v>
+        <v>479</v>
       </c>
       <c r="D190" t="s">
-        <v>443</v>
+        <v>531</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4401,10 +4650,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>405</v>
+        <v>489</v>
       </c>
       <c r="D191" t="s">
-        <v>434</v>
+        <v>512</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4415,10 +4664,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="D192" t="s">
-        <v>432</v>
+        <v>512</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4429,10 +4678,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>405</v>
+        <v>478</v>
       </c>
       <c r="D193" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4443,10 +4692,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>398</v>
+        <v>486</v>
       </c>
       <c r="D194" t="s">
-        <v>423</v>
+        <v>529</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4457,10 +4706,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>406</v>
+        <v>486</v>
       </c>
       <c r="D195" t="s">
-        <v>444</v>
+        <v>507</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4471,10 +4720,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>399</v>
+        <v>478</v>
       </c>
       <c r="D196" t="s">
-        <v>442</v>
+        <v>526</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4485,10 +4734,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>397</v>
+        <v>479</v>
       </c>
       <c r="D197" t="s">
-        <v>423</v>
+        <v>506</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4499,10 +4748,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>400</v>
+        <v>488</v>
       </c>
       <c r="D198" t="s">
-        <v>438</v>
+        <v>529</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4513,10 +4762,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>398</v>
+        <v>486</v>
       </c>
       <c r="D199" t="s">
-        <v>440</v>
+        <v>516</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4527,10 +4776,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="D200" t="s">
-        <v>443</v>
+        <v>510</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4541,10 +4790,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>396</v>
+        <v>480</v>
       </c>
       <c r="D201" t="s">
-        <v>420</v>
+        <v>514</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4555,10 +4804,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>412</v>
+        <v>480</v>
       </c>
       <c r="D202" t="s">
-        <v>433</v>
+        <v>525</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4569,10 +4818,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>396</v>
+        <v>486</v>
       </c>
       <c r="D203" t="s">
-        <v>442</v>
+        <v>504</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4583,10 +4832,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>408</v>
+        <v>481</v>
       </c>
       <c r="D204" t="s">
-        <v>419</v>
+        <v>511</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4597,10 +4846,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>396</v>
+        <v>486</v>
       </c>
       <c r="D205" t="s">
-        <v>423</v>
+        <v>520</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4611,10 +4860,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="D206" t="s">
-        <v>424</v>
+        <v>524</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4625,10 +4874,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>407</v>
+        <v>481</v>
       </c>
       <c r="D207" t="s">
-        <v>431</v>
+        <v>522</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4639,10 +4888,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>396</v>
+        <v>486</v>
       </c>
       <c r="D208" t="s">
-        <v>442</v>
+        <v>511</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4653,10 +4902,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>398</v>
+        <v>482</v>
       </c>
       <c r="D209" t="s">
-        <v>429</v>
+        <v>532</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4667,10 +4916,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>405</v>
+        <v>490</v>
       </c>
       <c r="D210" t="s">
-        <v>428</v>
+        <v>502</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4681,10 +4930,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>397</v>
+        <v>478</v>
       </c>
       <c r="D211" t="s">
-        <v>421</v>
+        <v>506</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4695,10 +4944,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>398</v>
+        <v>478</v>
       </c>
       <c r="D212" t="s">
-        <v>445</v>
+        <v>524</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4709,10 +4958,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>405</v>
+        <v>479</v>
       </c>
       <c r="D213" t="s">
-        <v>422</v>
+        <v>511</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4723,10 +4972,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>398</v>
+        <v>481</v>
       </c>
       <c r="D214" t="s">
-        <v>439</v>
+        <v>507</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4737,10 +4986,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
       <c r="D215" t="s">
-        <v>434</v>
+        <v>521</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4751,10 +5000,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>409</v>
+        <v>480</v>
       </c>
       <c r="D216" t="s">
-        <v>436</v>
+        <v>522</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4765,10 +5014,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>397</v>
+        <v>492</v>
       </c>
       <c r="D217" t="s">
-        <v>440</v>
+        <v>513</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4779,10 +5028,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>396</v>
+        <v>496</v>
       </c>
       <c r="D218" t="s">
-        <v>438</v>
+        <v>517</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4793,10 +5042,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>412</v>
+        <v>482</v>
       </c>
       <c r="D219" t="s">
-        <v>420</v>
+        <v>519</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4807,10 +5056,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>405</v>
+        <v>480</v>
       </c>
       <c r="D220" t="s">
-        <v>437</v>
+        <v>527</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4821,10 +5070,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="D221" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4835,10 +5084,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>397</v>
+        <v>487</v>
       </c>
       <c r="D222" t="s">
-        <v>425</v>
+        <v>522</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4849,10 +5098,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="D223" t="s">
-        <v>422</v>
+        <v>517</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4863,10 +5112,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>405</v>
+        <v>486</v>
       </c>
       <c r="D224" t="s">
-        <v>442</v>
+        <v>504</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4877,10 +5126,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>415</v>
+        <v>486</v>
       </c>
       <c r="D225" t="s">
-        <v>433</v>
+        <v>515</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4891,10 +5140,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>411</v>
+        <v>478</v>
       </c>
       <c r="D226" t="s">
-        <v>429</v>
+        <v>519</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4905,10 +5154,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>399</v>
+        <v>492</v>
       </c>
       <c r="D227" t="s">
-        <v>428</v>
+        <v>530</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4919,10 +5168,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>404</v>
+        <v>497</v>
       </c>
       <c r="D228" t="s">
-        <v>422</v>
+        <v>518</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4933,10 +5182,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>405</v>
+        <v>480</v>
       </c>
       <c r="D229" t="s">
-        <v>430</v>
+        <v>525</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4947,10 +5196,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>411</v>
+        <v>494</v>
       </c>
       <c r="D230" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4961,10 +5210,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>404</v>
+        <v>486</v>
       </c>
       <c r="D231" t="s">
-        <v>440</v>
+        <v>517</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4975,10 +5224,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>410</v>
+        <v>486</v>
       </c>
       <c r="D232" t="s">
-        <v>445</v>
+        <v>527</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4989,10 +5238,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>405</v>
+        <v>496</v>
       </c>
       <c r="D233" t="s">
-        <v>433</v>
+        <v>510</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5003,10 +5252,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>397</v>
+        <v>498</v>
       </c>
       <c r="D234" t="s">
-        <v>428</v>
+        <v>516</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5017,10 +5266,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>398</v>
+        <v>483</v>
       </c>
       <c r="D235" t="s">
-        <v>439</v>
+        <v>531</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5031,10 +5280,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
       <c r="D236" t="s">
-        <v>423</v>
+        <v>508</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5045,10 +5294,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>405</v>
+        <v>486</v>
       </c>
       <c r="D237" t="s">
-        <v>427</v>
+        <v>524</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5059,10 +5308,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>400</v>
+        <v>491</v>
       </c>
       <c r="D238" t="s">
-        <v>437</v>
+        <v>527</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5073,10 +5322,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>412</v>
+        <v>480</v>
       </c>
       <c r="D239" t="s">
-        <v>436</v>
+        <v>518</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5087,10 +5336,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>399</v>
+        <v>482</v>
       </c>
       <c r="D240" t="s">
-        <v>430</v>
+        <v>520</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5101,10 +5350,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>416</v>
+        <v>486</v>
       </c>
       <c r="D241" t="s">
-        <v>435</v>
+        <v>531</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5115,10 +5364,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>403</v>
+        <v>487</v>
       </c>
       <c r="D242" t="s">
-        <v>433</v>
+        <v>504</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5129,10 +5378,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>396</v>
+        <v>481</v>
       </c>
       <c r="D243" t="s">
-        <v>428</v>
+        <v>530</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5143,10 +5392,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>397</v>
+        <v>485</v>
       </c>
       <c r="D244" t="s">
-        <v>430</v>
+        <v>517</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5157,10 +5406,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>402</v>
+        <v>478</v>
       </c>
       <c r="D245" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5171,10 +5420,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="D246" t="s">
-        <v>445</v>
+        <v>521</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5185,10 +5434,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
       <c r="D247" t="s">
-        <v>442</v>
+        <v>528</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5199,10 +5448,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>396</v>
+        <v>486</v>
       </c>
       <c r="D248" t="s">
-        <v>424</v>
+        <v>509</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5213,10 +5462,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>399</v>
+        <v>486</v>
       </c>
       <c r="D249" t="s">
-        <v>434</v>
+        <v>516</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5227,10 +5476,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>405</v>
+        <v>486</v>
       </c>
       <c r="D250" t="s">
-        <v>446</v>
+        <v>530</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5241,10 +5490,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>396</v>
+        <v>481</v>
       </c>
       <c r="D251" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5255,10 +5504,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>399</v>
+        <v>479</v>
       </c>
       <c r="D252" t="s">
-        <v>426</v>
+        <v>505</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5269,10 +5518,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>397</v>
+        <v>479</v>
       </c>
       <c r="D253" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5283,10 +5532,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>396</v>
+        <v>481</v>
       </c>
       <c r="D254" t="s">
-        <v>423</v>
+        <v>515</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5297,10 +5546,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>405</v>
+        <v>481</v>
       </c>
       <c r="D255" t="s">
-        <v>447</v>
+        <v>508</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5311,10 +5560,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>397</v>
+        <v>491</v>
       </c>
       <c r="D256" t="s">
-        <v>425</v>
+        <v>523</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5325,10 +5574,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>396</v>
+        <v>486</v>
       </c>
       <c r="D257" t="s">
-        <v>436</v>
+        <v>526</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5339,10 +5588,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="D258" t="s">
-        <v>419</v>
+        <v>526</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5353,10 +5602,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>396</v>
+        <v>481</v>
       </c>
       <c r="D259" t="s">
-        <v>424</v>
+        <v>529</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5367,10 +5616,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>405</v>
+        <v>478</v>
       </c>
       <c r="D260" t="s">
-        <v>448</v>
+        <v>521</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5381,10 +5630,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>405</v>
+        <v>479</v>
       </c>
       <c r="D261" t="s">
-        <v>434</v>
+        <v>516</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5395,10 +5644,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>398</v>
+        <v>478</v>
       </c>
       <c r="D262" t="s">
-        <v>439</v>
+        <v>511</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5409,10 +5658,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>397</v>
+        <v>478</v>
       </c>
       <c r="D263" t="s">
-        <v>444</v>
+        <v>532</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5423,10 +5672,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>397</v>
+        <v>478</v>
       </c>
       <c r="D264" t="s">
-        <v>420</v>
+        <v>506</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5437,10 +5686,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>398</v>
+        <v>489</v>
       </c>
       <c r="D265" t="s">
-        <v>435</v>
+        <v>529</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5451,10 +5700,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>406</v>
+        <v>482</v>
       </c>
       <c r="D266" t="s">
-        <v>441</v>
+        <v>532</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5465,10 +5714,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="D267" t="s">
-        <v>443</v>
+        <v>502</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5479,10 +5728,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>400</v>
+        <v>478</v>
       </c>
       <c r="D268" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5493,10 +5742,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>397</v>
+        <v>491</v>
       </c>
       <c r="D269" t="s">
-        <v>429</v>
+        <v>530</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5507,10 +5756,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>410</v>
+        <v>491</v>
       </c>
       <c r="D270" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5521,10 +5770,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>400</v>
+        <v>478</v>
       </c>
       <c r="D271" t="s">
-        <v>441</v>
+        <v>529</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5535,10 +5784,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>396</v>
+        <v>482</v>
       </c>
       <c r="D272" t="s">
-        <v>432</v>
+        <v>523</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5549,10 +5798,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>399</v>
+        <v>491</v>
       </c>
       <c r="D273" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5563,10 +5812,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>398</v>
+        <v>481</v>
       </c>
       <c r="D274" t="s">
-        <v>449</v>
+        <v>524</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5577,10 +5826,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>396</v>
+        <v>480</v>
       </c>
       <c r="D275" t="s">
-        <v>431</v>
+        <v>525</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5591,10 +5840,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>405</v>
+        <v>497</v>
       </c>
       <c r="D276" t="s">
-        <v>438</v>
+        <v>523</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5605,10 +5854,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>405</v>
+        <v>498</v>
       </c>
       <c r="D277" t="s">
-        <v>443</v>
+        <v>526</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5619,10 +5868,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>396</v>
+        <v>498</v>
       </c>
       <c r="D278" t="s">
-        <v>444</v>
+        <v>531</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5633,10 +5882,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>410</v>
+        <v>480</v>
       </c>
       <c r="D279" t="s">
-        <v>444</v>
+        <v>532</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5647,10 +5896,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>396</v>
+        <v>486</v>
       </c>
       <c r="D280" t="s">
-        <v>422</v>
+        <v>519</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5661,10 +5910,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>400</v>
+        <v>478</v>
       </c>
       <c r="D281" t="s">
-        <v>436</v>
+        <v>510</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5675,10 +5924,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>397</v>
+        <v>482</v>
       </c>
       <c r="D282" t="s">
-        <v>448</v>
+        <v>521</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5689,10 +5938,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>407</v>
+        <v>481</v>
       </c>
       <c r="D283" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5703,10 +5952,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="D284" t="s">
-        <v>430</v>
+        <v>520</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5717,10 +5966,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>410</v>
+        <v>478</v>
       </c>
       <c r="D285" t="s">
-        <v>421</v>
+        <v>514</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5731,10 +5980,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>410</v>
+        <v>488</v>
       </c>
       <c r="D286" t="s">
-        <v>447</v>
+        <v>523</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5745,10 +5994,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>396</v>
+        <v>491</v>
       </c>
       <c r="D287" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5759,10 +6008,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>396</v>
+        <v>491</v>
       </c>
       <c r="D288" t="s">
-        <v>429</v>
+        <v>522</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5773,10 +6022,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="D289" t="s">
-        <v>449</v>
+        <v>532</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5787,10 +6036,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>397</v>
+        <v>478</v>
       </c>
       <c r="D290" t="s">
-        <v>449</v>
+        <v>518</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5801,10 +6050,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>410</v>
+        <v>496</v>
       </c>
       <c r="D291" t="s">
-        <v>426</v>
+        <v>519</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5815,10 +6064,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>399</v>
+        <v>478</v>
       </c>
       <c r="D292" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5829,10 +6078,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>410</v>
+        <v>480</v>
       </c>
       <c r="D293" t="s">
-        <v>444</v>
+        <v>516</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5843,10 +6092,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>398</v>
+        <v>486</v>
       </c>
       <c r="D294" t="s">
-        <v>449</v>
+        <v>522</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5857,10 +6106,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>399</v>
+        <v>478</v>
       </c>
       <c r="D295" t="s">
-        <v>419</v>
+        <v>532</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5871,10 +6120,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
       <c r="D296" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5885,10 +6134,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
       <c r="D297" t="s">
-        <v>434</v>
+        <v>512</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5899,10 +6148,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="D298" t="s">
-        <v>438</v>
+        <v>507</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5913,10 +6162,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>396</v>
+        <v>482</v>
       </c>
       <c r="D299" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5927,10 +6176,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>414</v>
+        <v>481</v>
       </c>
       <c r="D300" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5941,10 +6190,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>416</v>
+        <v>482</v>
       </c>
       <c r="D301" t="s">
-        <v>441</v>
+        <v>530</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5955,10 +6204,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>396</v>
+        <v>492</v>
       </c>
       <c r="D302" t="s">
-        <v>435</v>
+        <v>509</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5969,10 +6218,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>405</v>
+        <v>491</v>
       </c>
       <c r="D303" t="s">
-        <v>440</v>
+        <v>529</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5983,10 +6232,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>405</v>
+        <v>481</v>
       </c>
       <c r="D304" t="s">
-        <v>449</v>
+        <v>531</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5997,10 +6246,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>414</v>
+        <v>481</v>
       </c>
       <c r="D305" t="s">
-        <v>448</v>
+        <v>523</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6011,10 +6260,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>405</v>
+        <v>491</v>
       </c>
       <c r="D306" t="s">
-        <v>436</v>
+        <v>515</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6025,10 +6274,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>396</v>
+        <v>486</v>
       </c>
       <c r="D307" t="s">
-        <v>449</v>
+        <v>532</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6039,10 +6288,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
       <c r="D308" t="s">
-        <v>420</v>
+        <v>502</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6053,10 +6302,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>400</v>
+        <v>491</v>
       </c>
       <c r="D309" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6067,10 +6316,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>398</v>
+        <v>478</v>
       </c>
       <c r="D310" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6081,10 +6330,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>397</v>
+        <v>481</v>
       </c>
       <c r="D311" t="s">
-        <v>441</v>
+        <v>532</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6095,10 +6344,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>396</v>
+        <v>479</v>
       </c>
       <c r="D312" t="s">
-        <v>421</v>
+        <v>532</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6109,10 +6358,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="D313" t="s">
-        <v>429</v>
+        <v>516</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6123,10 +6372,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="D314" t="s">
-        <v>421</v>
+        <v>532</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6137,10 +6386,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>396</v>
+        <v>479</v>
       </c>
       <c r="D315" t="s">
-        <v>419</v>
+        <v>532</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6151,10 +6400,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="D316" t="s">
-        <v>425</v>
+        <v>530</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6165,10 +6414,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>410</v>
+        <v>486</v>
       </c>
       <c r="D317" t="s">
-        <v>440</v>
+        <v>521</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6179,10 +6428,10 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>407</v>
+        <v>478</v>
       </c>
       <c r="D318" t="s">
-        <v>447</v>
+        <v>532</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6193,10 +6442,10 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>407</v>
+        <v>480</v>
       </c>
       <c r="D319" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6207,10 +6456,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="D320" t="s">
-        <v>435</v>
+        <v>518</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6221,10 +6470,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>399</v>
+        <v>479</v>
       </c>
       <c r="D321" t="s">
-        <v>448</v>
+        <v>532</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6235,10 +6484,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>399</v>
+        <v>479</v>
       </c>
       <c r="D322" t="s">
-        <v>434</v>
+        <v>531</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6249,10 +6498,10 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>399</v>
+        <v>482</v>
       </c>
       <c r="D323" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6263,10 +6512,10 @@
         <v>326</v>
       </c>
       <c r="C324" t="s">
-        <v>405</v>
+        <v>499</v>
       </c>
       <c r="D324" t="s">
-        <v>435</v>
+        <v>513</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6277,10 +6526,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
       <c r="D325" t="s">
-        <v>431</v>
+        <v>532</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6291,10 +6540,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>397</v>
+        <v>500</v>
       </c>
       <c r="D326" t="s">
-        <v>431</v>
+        <v>523</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6305,10 +6554,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
       <c r="D327" t="s">
-        <v>426</v>
+        <v>530</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6319,10 +6568,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>398</v>
+        <v>478</v>
       </c>
       <c r="D328" t="s">
-        <v>432</v>
+        <v>502</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6333,10 +6582,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>400</v>
+        <v>478</v>
       </c>
       <c r="D329" t="s">
-        <v>426</v>
+        <v>532</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6347,10 +6596,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>398</v>
+        <v>500</v>
       </c>
       <c r="D330" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6361,10 +6610,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>399</v>
+        <v>486</v>
       </c>
       <c r="D331" t="s">
-        <v>432</v>
+        <v>518</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6375,10 +6624,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>414</v>
+        <v>486</v>
       </c>
       <c r="D332" t="s">
-        <v>424</v>
+        <v>528</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6389,10 +6638,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>397</v>
+        <v>481</v>
       </c>
       <c r="D333" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6403,10 +6652,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>411</v>
+        <v>491</v>
       </c>
       <c r="D334" t="s">
-        <v>445</v>
+        <v>511</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6417,10 +6666,10 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>411</v>
+        <v>498</v>
       </c>
       <c r="D335" t="s">
-        <v>427</v>
+        <v>506</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6431,10 +6680,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>397</v>
+        <v>482</v>
       </c>
       <c r="D336" t="s">
-        <v>420</v>
+        <v>505</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6445,10 +6694,10 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>416</v>
+        <v>489</v>
       </c>
       <c r="D337" t="s">
-        <v>438</v>
+        <v>519</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6459,10 +6708,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>406</v>
+        <v>480</v>
       </c>
       <c r="D338" t="s">
-        <v>445</v>
+        <v>523</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6473,10 +6722,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>411</v>
+        <v>481</v>
       </c>
       <c r="D339" t="s">
-        <v>434</v>
+        <v>502</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6487,10 +6736,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>399</v>
+        <v>491</v>
       </c>
       <c r="D340" t="s">
-        <v>441</v>
+        <v>531</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6501,10 +6750,10 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>405</v>
+        <v>488</v>
       </c>
       <c r="D341" t="s">
-        <v>447</v>
+        <v>527</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6515,10 +6764,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>407</v>
+        <v>482</v>
       </c>
       <c r="D342" t="s">
-        <v>449</v>
+        <v>525</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6529,10 +6778,10 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>405</v>
+        <v>479</v>
       </c>
       <c r="D343" t="s">
-        <v>431</v>
+        <v>514</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6543,10 +6792,10 @@
         <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
       <c r="D344" t="s">
-        <v>448</v>
+        <v>527</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6557,10 +6806,10 @@
         <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>397</v>
+        <v>481</v>
       </c>
       <c r="D345" t="s">
-        <v>441</v>
+        <v>503</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6571,10 +6820,10 @@
         <v>348</v>
       </c>
       <c r="C346" t="s">
-        <v>400</v>
+        <v>486</v>
       </c>
       <c r="D346" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6585,10 +6834,10 @@
         <v>349</v>
       </c>
       <c r="C347" t="s">
-        <v>404</v>
+        <v>500</v>
       </c>
       <c r="D347" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6599,10 +6848,10 @@
         <v>350</v>
       </c>
       <c r="C348" t="s">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="D348" t="s">
-        <v>441</v>
+        <v>524</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6613,10 +6862,10 @@
         <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>405</v>
+        <v>492</v>
       </c>
       <c r="D349" t="s">
-        <v>432</v>
+        <v>516</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6627,10 +6876,10 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>405</v>
+        <v>479</v>
       </c>
       <c r="D350" t="s">
-        <v>424</v>
+        <v>523</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6641,10 +6890,10 @@
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>405</v>
+        <v>497</v>
       </c>
       <c r="D351" t="s">
-        <v>446</v>
+        <v>519</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6655,10 +6904,10 @@
         <v>354</v>
       </c>
       <c r="C352" t="s">
-        <v>410</v>
+        <v>482</v>
       </c>
       <c r="D352" t="s">
-        <v>419</v>
+        <v>514</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6669,10 +6918,10 @@
         <v>355</v>
       </c>
       <c r="C353" t="s">
-        <v>407</v>
+        <v>496</v>
       </c>
       <c r="D353" t="s">
-        <v>438</v>
+        <v>517</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6683,10 +6932,10 @@
         <v>356</v>
       </c>
       <c r="C354" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
       <c r="D354" t="s">
-        <v>422</v>
+        <v>526</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6697,10 +6946,10 @@
         <v>357</v>
       </c>
       <c r="C355" t="s">
-        <v>410</v>
+        <v>486</v>
       </c>
       <c r="D355" t="s">
-        <v>444</v>
+        <v>506</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6711,10 +6960,10 @@
         <v>358</v>
       </c>
       <c r="C356" t="s">
-        <v>417</v>
+        <v>481</v>
       </c>
       <c r="D356" t="s">
-        <v>426</v>
+        <v>520</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6725,10 +6974,10 @@
         <v>359</v>
       </c>
       <c r="C357" t="s">
-        <v>400</v>
+        <v>478</v>
       </c>
       <c r="D357" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6739,10 +6988,10 @@
         <v>360</v>
       </c>
       <c r="C358" t="s">
-        <v>414</v>
+        <v>486</v>
       </c>
       <c r="D358" t="s">
-        <v>423</v>
+        <v>523</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6753,10 +7002,10 @@
         <v>361</v>
       </c>
       <c r="C359" t="s">
-        <v>411</v>
+        <v>489</v>
       </c>
       <c r="D359" t="s">
-        <v>419</v>
+        <v>532</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6767,10 +7016,10 @@
         <v>362</v>
       </c>
       <c r="C360" t="s">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="D360" t="s">
-        <v>431</v>
+        <v>532</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6781,10 +7030,10 @@
         <v>363</v>
       </c>
       <c r="C361" t="s">
-        <v>414</v>
+        <v>501</v>
       </c>
       <c r="D361" t="s">
-        <v>446</v>
+        <v>521</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6795,10 +7044,10 @@
         <v>364</v>
       </c>
       <c r="C362" t="s">
-        <v>407</v>
+        <v>481</v>
       </c>
       <c r="D362" t="s">
-        <v>436</v>
+        <v>523</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6809,10 +7058,10 @@
         <v>365</v>
       </c>
       <c r="C363" t="s">
-        <v>410</v>
+        <v>487</v>
       </c>
       <c r="D363" t="s">
-        <v>430</v>
+        <v>532</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6823,10 +7072,10 @@
         <v>366</v>
       </c>
       <c r="C364" t="s">
-        <v>398</v>
+        <v>482</v>
       </c>
       <c r="D364" t="s">
-        <v>422</v>
+        <v>520</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6837,10 +7086,10 @@
         <v>367</v>
       </c>
       <c r="C365" t="s">
-        <v>410</v>
+        <v>486</v>
       </c>
       <c r="D365" t="s">
-        <v>442</v>
+        <v>514</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6851,10 +7100,10 @@
         <v>368</v>
       </c>
       <c r="C366" t="s">
-        <v>396</v>
+        <v>492</v>
       </c>
       <c r="D366" t="s">
-        <v>446</v>
+        <v>507</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6865,10 +7114,10 @@
         <v>369</v>
       </c>
       <c r="C367" t="s">
-        <v>400</v>
+        <v>486</v>
       </c>
       <c r="D367" t="s">
-        <v>438</v>
+        <v>503</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6879,10 +7128,10 @@
         <v>370</v>
       </c>
       <c r="C368" t="s">
-        <v>399</v>
+        <v>491</v>
       </c>
       <c r="D368" t="s">
-        <v>437</v>
+        <v>502</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6893,10 +7142,10 @@
         <v>371</v>
       </c>
       <c r="C369" t="s">
-        <v>396</v>
+        <v>489</v>
       </c>
       <c r="D369" t="s">
-        <v>441</v>
+        <v>519</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6907,10 +7156,10 @@
         <v>372</v>
       </c>
       <c r="C370" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
       <c r="D370" t="s">
-        <v>428</v>
+        <v>502</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6921,10 +7170,10 @@
         <v>373</v>
       </c>
       <c r="C371" t="s">
-        <v>405</v>
+        <v>480</v>
       </c>
       <c r="D371" t="s">
-        <v>422</v>
+        <v>524</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6935,10 +7184,10 @@
         <v>374</v>
       </c>
       <c r="C372" t="s">
-        <v>407</v>
+        <v>491</v>
       </c>
       <c r="D372" t="s">
-        <v>443</v>
+        <v>529</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -6949,10 +7198,10 @@
         <v>375</v>
       </c>
       <c r="C373" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="D373" t="s">
-        <v>427</v>
+        <v>509</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -6963,10 +7212,10 @@
         <v>376</v>
       </c>
       <c r="C374" t="s">
-        <v>407</v>
+        <v>498</v>
       </c>
       <c r="D374" t="s">
-        <v>433</v>
+        <v>510</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -6977,10 +7226,10 @@
         <v>377</v>
       </c>
       <c r="C375" t="s">
-        <v>399</v>
+        <v>482</v>
       </c>
       <c r="D375" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6991,10 +7240,10 @@
         <v>378</v>
       </c>
       <c r="C376" t="s">
-        <v>410</v>
+        <v>480</v>
       </c>
       <c r="D376" t="s">
-        <v>423</v>
+        <v>528</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7005,10 +7254,10 @@
         <v>379</v>
       </c>
       <c r="C377" t="s">
-        <v>407</v>
+        <v>498</v>
       </c>
       <c r="D377" t="s">
-        <v>426</v>
+        <v>528</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7019,10 +7268,10 @@
         <v>380</v>
       </c>
       <c r="C378" t="s">
-        <v>399</v>
+        <v>489</v>
       </c>
       <c r="D378" t="s">
-        <v>419</v>
+        <v>521</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7033,10 +7282,10 @@
         <v>381</v>
       </c>
       <c r="C379" t="s">
-        <v>417</v>
+        <v>491</v>
       </c>
       <c r="D379" t="s">
-        <v>448</v>
+        <v>515</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7047,10 +7296,10 @@
         <v>382</v>
       </c>
       <c r="C380" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
       <c r="D380" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7061,10 +7310,10 @@
         <v>383</v>
       </c>
       <c r="C381" t="s">
-        <v>411</v>
+        <v>496</v>
       </c>
       <c r="D381" t="s">
-        <v>431</v>
+        <v>505</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7075,10 +7324,10 @@
         <v>384</v>
       </c>
       <c r="C382" t="s">
-        <v>417</v>
+        <v>491</v>
       </c>
       <c r="D382" t="s">
-        <v>437</v>
+        <v>524</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7089,10 +7338,10 @@
         <v>385</v>
       </c>
       <c r="C383" t="s">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="D383" t="s">
-        <v>428</v>
+        <v>522</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7103,10 +7352,10 @@
         <v>386</v>
       </c>
       <c r="C384" t="s">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="D384" t="s">
-        <v>426</v>
+        <v>519</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7117,10 +7366,10 @@
         <v>387</v>
       </c>
       <c r="C385" t="s">
-        <v>418</v>
+        <v>478</v>
       </c>
       <c r="D385" t="s">
-        <v>429</v>
+        <v>528</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7131,10 +7380,10 @@
         <v>388</v>
       </c>
       <c r="C386" t="s">
-        <v>414</v>
+        <v>479</v>
       </c>
       <c r="D386" t="s">
-        <v>427</v>
+        <v>514</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7145,10 +7394,10 @@
         <v>389</v>
       </c>
       <c r="C387" t="s">
-        <v>407</v>
+        <v>479</v>
       </c>
       <c r="D387" t="s">
-        <v>449</v>
+        <v>520</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7159,10 +7408,10 @@
         <v>390</v>
       </c>
       <c r="C388" t="s">
-        <v>400</v>
+        <v>478</v>
       </c>
       <c r="D388" t="s">
-        <v>425</v>
+        <v>523</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7173,10 +7422,10 @@
         <v>391</v>
       </c>
       <c r="C389" t="s">
-        <v>399</v>
+        <v>491</v>
       </c>
       <c r="D389" t="s">
-        <v>440</v>
+        <v>511</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7187,10 +7436,10 @@
         <v>392</v>
       </c>
       <c r="C390" t="s">
-        <v>411</v>
+        <v>486</v>
       </c>
       <c r="D390" t="s">
-        <v>423</v>
+        <v>504</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7201,10 +7450,10 @@
         <v>393</v>
       </c>
       <c r="C391" t="s">
-        <v>410</v>
+        <v>489</v>
       </c>
       <c r="D391" t="s">
-        <v>437</v>
+        <v>526</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7215,10 +7464,10 @@
         <v>394</v>
       </c>
       <c r="C392" t="s">
-        <v>407</v>
+        <v>489</v>
       </c>
       <c r="D392" t="s">
-        <v>429</v>
+        <v>517</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7229,14 +7478,1162 @@
         <v>395</v>
       </c>
       <c r="C393" t="s">
+        <v>479</v>
+      </c>
+      <c r="D393" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>396</v>
+      </c>
+      <c r="C394" t="s">
+        <v>491</v>
+      </c>
+      <c r="D394" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395" t="s">
+        <v>397</v>
+      </c>
+      <c r="C395" t="s">
+        <v>489</v>
+      </c>
+      <c r="D395" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396" t="s">
+        <v>398</v>
+      </c>
+      <c r="C396" t="s">
+        <v>479</v>
+      </c>
+      <c r="D396" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397" t="s">
+        <v>399</v>
+      </c>
+      <c r="C397" t="s">
+        <v>500</v>
+      </c>
+      <c r="D397" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398" t="s">
         <v>400</v>
       </c>
-      <c r="D393" t="s">
+      <c r="C398" t="s">
+        <v>500</v>
+      </c>
+      <c r="D398" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399" t="s">
+        <v>401</v>
+      </c>
+      <c r="C399" t="s">
+        <v>478</v>
+      </c>
+      <c r="D399" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400" t="s">
+        <v>402</v>
+      </c>
+      <c r="C400" t="s">
+        <v>492</v>
+      </c>
+      <c r="D400" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401" t="s">
+        <v>403</v>
+      </c>
+      <c r="C401" t="s">
+        <v>500</v>
+      </c>
+      <c r="D401" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402" t="s">
+        <v>404</v>
+      </c>
+      <c r="C402" t="s">
+        <v>482</v>
+      </c>
+      <c r="D402" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403" t="s">
+        <v>405</v>
+      </c>
+      <c r="C403" t="s">
+        <v>498</v>
+      </c>
+      <c r="D403" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404" t="s">
+        <v>406</v>
+      </c>
+      <c r="C404" t="s">
+        <v>489</v>
+      </c>
+      <c r="D404" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405" t="s">
+        <v>407</v>
+      </c>
+      <c r="C405" t="s">
+        <v>482</v>
+      </c>
+      <c r="D405" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406" t="s">
+        <v>408</v>
+      </c>
+      <c r="C406" t="s">
+        <v>479</v>
+      </c>
+      <c r="D406" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407" t="s">
+        <v>409</v>
+      </c>
+      <c r="C407" t="s">
+        <v>492</v>
+      </c>
+      <c r="D407" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408" t="s">
+        <v>410</v>
+      </c>
+      <c r="C408" t="s">
+        <v>491</v>
+      </c>
+      <c r="D408" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409" t="s">
+        <v>411</v>
+      </c>
+      <c r="C409" t="s">
+        <v>489</v>
+      </c>
+      <c r="D409" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410" t="s">
+        <v>412</v>
+      </c>
+      <c r="C410" t="s">
+        <v>492</v>
+      </c>
+      <c r="D410" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411" t="s">
+        <v>413</v>
+      </c>
+      <c r="C411" t="s">
+        <v>482</v>
+      </c>
+      <c r="D411" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412" t="s">
+        <v>414</v>
+      </c>
+      <c r="C412" t="s">
+        <v>482</v>
+      </c>
+      <c r="D412" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413" t="s">
+        <v>415</v>
+      </c>
+      <c r="C413" t="s">
+        <v>496</v>
+      </c>
+      <c r="D413" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414" t="s">
+        <v>416</v>
+      </c>
+      <c r="C414" t="s">
+        <v>479</v>
+      </c>
+      <c r="D414" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415" t="s">
+        <v>417</v>
+      </c>
+      <c r="C415" t="s">
+        <v>482</v>
+      </c>
+      <c r="D415" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416" t="s">
+        <v>418</v>
+      </c>
+      <c r="C416" t="s">
+        <v>489</v>
+      </c>
+      <c r="D416" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417" t="s">
+        <v>419</v>
+      </c>
+      <c r="C417" t="s">
+        <v>480</v>
+      </c>
+      <c r="D417" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418" t="s">
+        <v>420</v>
+      </c>
+      <c r="C418" t="s">
+        <v>489</v>
+      </c>
+      <c r="D418" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419" t="s">
+        <v>421</v>
+      </c>
+      <c r="C419" t="s">
+        <v>482</v>
+      </c>
+      <c r="D419" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420" t="s">
         <v>422</v>
       </c>
+      <c r="C420" t="s">
+        <v>480</v>
+      </c>
+      <c r="D420" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421" t="s">
+        <v>423</v>
+      </c>
+      <c r="C421" t="s">
+        <v>481</v>
+      </c>
+      <c r="D421" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="B422" t="s">
+        <v>424</v>
+      </c>
+      <c r="C422" t="s">
+        <v>490</v>
+      </c>
+      <c r="D422" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="B423" t="s">
+        <v>425</v>
+      </c>
+      <c r="C423" t="s">
+        <v>480</v>
+      </c>
+      <c r="D423" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="B424" t="s">
+        <v>426</v>
+      </c>
+      <c r="C424" t="s">
+        <v>486</v>
+      </c>
+      <c r="D424" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="B425" t="s">
+        <v>427</v>
+      </c>
+      <c r="C425" t="s">
+        <v>486</v>
+      </c>
+      <c r="D425" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="B426" t="s">
+        <v>428</v>
+      </c>
+      <c r="C426" t="s">
+        <v>481</v>
+      </c>
+      <c r="D426" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="B427" t="s">
+        <v>429</v>
+      </c>
+      <c r="C427" t="s">
+        <v>479</v>
+      </c>
+      <c r="D427" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428" t="s">
+        <v>430</v>
+      </c>
+      <c r="C428" t="s">
+        <v>497</v>
+      </c>
+      <c r="D428" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="B429" t="s">
+        <v>431</v>
+      </c>
+      <c r="C429" t="s">
+        <v>491</v>
+      </c>
+      <c r="D429" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="B430" t="s">
+        <v>432</v>
+      </c>
+      <c r="C430" t="s">
+        <v>486</v>
+      </c>
+      <c r="D430" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="B431" t="s">
+        <v>433</v>
+      </c>
+      <c r="C431" t="s">
+        <v>488</v>
+      </c>
+      <c r="D431" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="B432" t="s">
+        <v>434</v>
+      </c>
+      <c r="C432" t="s">
+        <v>492</v>
+      </c>
+      <c r="D432" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="B433" t="s">
+        <v>435</v>
+      </c>
+      <c r="C433" t="s">
+        <v>482</v>
+      </c>
+      <c r="D433" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="B434" t="s">
+        <v>436</v>
+      </c>
+      <c r="C434" t="s">
+        <v>478</v>
+      </c>
+      <c r="D434" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435">
+        <v>434</v>
+      </c>
+      <c r="B435" t="s">
+        <v>437</v>
+      </c>
+      <c r="C435" t="s">
+        <v>480</v>
+      </c>
+      <c r="D435" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436">
+        <v>435</v>
+      </c>
+      <c r="B436" t="s">
+        <v>438</v>
+      </c>
+      <c r="C436" t="s">
+        <v>494</v>
+      </c>
+      <c r="D436" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437">
+        <v>436</v>
+      </c>
+      <c r="B437" t="s">
+        <v>439</v>
+      </c>
+      <c r="C437" t="s">
+        <v>480</v>
+      </c>
+      <c r="D437" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="B438" t="s">
+        <v>440</v>
+      </c>
+      <c r="C438" t="s">
+        <v>495</v>
+      </c>
+      <c r="D438" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="B439" t="s">
+        <v>441</v>
+      </c>
+      <c r="C439" t="s">
+        <v>481</v>
+      </c>
+      <c r="D439" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="B440" t="s">
+        <v>442</v>
+      </c>
+      <c r="C440" t="s">
+        <v>482</v>
+      </c>
+      <c r="D440" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="B441" t="s">
+        <v>443</v>
+      </c>
+      <c r="C441" t="s">
+        <v>496</v>
+      </c>
+      <c r="D441" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="B442" t="s">
+        <v>444</v>
+      </c>
+      <c r="C442" t="s">
+        <v>486</v>
+      </c>
+      <c r="D442" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="B443" t="s">
+        <v>445</v>
+      </c>
+      <c r="C443" t="s">
+        <v>478</v>
+      </c>
+      <c r="D443" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="B444" t="s">
+        <v>446</v>
+      </c>
+      <c r="C444" t="s">
+        <v>496</v>
+      </c>
+      <c r="D444" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="B445" t="s">
+        <v>447</v>
+      </c>
+      <c r="C445" t="s">
+        <v>480</v>
+      </c>
+      <c r="D445" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="B446" t="s">
+        <v>448</v>
+      </c>
+      <c r="C446" t="s">
+        <v>478</v>
+      </c>
+      <c r="D446" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="B447" t="s">
+        <v>449</v>
+      </c>
+      <c r="C447" t="s">
+        <v>486</v>
+      </c>
+      <c r="D447" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="B448" t="s">
+        <v>450</v>
+      </c>
+      <c r="C448" t="s">
+        <v>478</v>
+      </c>
+      <c r="D448" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="B449" t="s">
+        <v>451</v>
+      </c>
+      <c r="C449" t="s">
+        <v>482</v>
+      </c>
+      <c r="D449" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="B450" t="s">
+        <v>452</v>
+      </c>
+      <c r="C450" t="s">
+        <v>494</v>
+      </c>
+      <c r="D450" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="B451" t="s">
+        <v>453</v>
+      </c>
+      <c r="C451" t="s">
+        <v>479</v>
+      </c>
+      <c r="D451" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="B452" t="s">
+        <v>454</v>
+      </c>
+      <c r="C452" t="s">
+        <v>479</v>
+      </c>
+      <c r="D452" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="B453" t="s">
+        <v>455</v>
+      </c>
+      <c r="C453" t="s">
+        <v>485</v>
+      </c>
+      <c r="D453" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="B454" t="s">
+        <v>456</v>
+      </c>
+      <c r="C454" t="s">
+        <v>492</v>
+      </c>
+      <c r="D454" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="B455" t="s">
+        <v>457</v>
+      </c>
+      <c r="C455" t="s">
+        <v>486</v>
+      </c>
+      <c r="D455" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="B456" t="s">
+        <v>458</v>
+      </c>
+      <c r="C456" t="s">
+        <v>486</v>
+      </c>
+      <c r="D456" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="B457" t="s">
+        <v>459</v>
+      </c>
+      <c r="C457" t="s">
+        <v>491</v>
+      </c>
+      <c r="D457" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="B458" t="s">
+        <v>460</v>
+      </c>
+      <c r="C458" t="s">
+        <v>482</v>
+      </c>
+      <c r="D458" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="B459" t="s">
+        <v>461</v>
+      </c>
+      <c r="C459" t="s">
+        <v>478</v>
+      </c>
+      <c r="D459" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="B460" t="s">
+        <v>462</v>
+      </c>
+      <c r="C460" t="s">
+        <v>480</v>
+      </c>
+      <c r="D460" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="B461" t="s">
+        <v>463</v>
+      </c>
+      <c r="C461" t="s">
+        <v>480</v>
+      </c>
+      <c r="D461" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462">
+        <v>461</v>
+      </c>
+      <c r="B462" t="s">
+        <v>464</v>
+      </c>
+      <c r="C462" t="s">
+        <v>481</v>
+      </c>
+      <c r="D462" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463">
+        <v>462</v>
+      </c>
+      <c r="B463" t="s">
+        <v>465</v>
+      </c>
+      <c r="C463" t="s">
+        <v>486</v>
+      </c>
+      <c r="D463" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464">
+        <v>463</v>
+      </c>
+      <c r="B464" t="s">
+        <v>466</v>
+      </c>
+      <c r="C464" t="s">
+        <v>478</v>
+      </c>
+      <c r="D464" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465">
+        <v>464</v>
+      </c>
+      <c r="B465" t="s">
+        <v>467</v>
+      </c>
+      <c r="C465" t="s">
+        <v>481</v>
+      </c>
+      <c r="D465" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466">
+        <v>465</v>
+      </c>
+      <c r="B466" t="s">
+        <v>468</v>
+      </c>
+      <c r="C466" t="s">
+        <v>478</v>
+      </c>
+      <c r="D466" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467">
+        <v>466</v>
+      </c>
+      <c r="B467" t="s">
+        <v>469</v>
+      </c>
+      <c r="C467" t="s">
+        <v>491</v>
+      </c>
+      <c r="D467" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468">
+        <v>467</v>
+      </c>
+      <c r="B468" t="s">
+        <v>470</v>
+      </c>
+      <c r="C468" t="s">
+        <v>482</v>
+      </c>
+      <c r="D468" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469">
+        <v>468</v>
+      </c>
+      <c r="B469" t="s">
+        <v>471</v>
+      </c>
+      <c r="C469" t="s">
+        <v>478</v>
+      </c>
+      <c r="D469" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470">
+        <v>469</v>
+      </c>
+      <c r="B470" t="s">
+        <v>472</v>
+      </c>
+      <c r="C470" t="s">
+        <v>482</v>
+      </c>
+      <c r="D470" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471">
+        <v>470</v>
+      </c>
+      <c r="B471" t="s">
+        <v>473</v>
+      </c>
+      <c r="C471" t="s">
+        <v>483</v>
+      </c>
+      <c r="D471" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472">
+        <v>471</v>
+      </c>
+      <c r="B472" t="s">
+        <v>474</v>
+      </c>
+      <c r="C472" t="s">
+        <v>480</v>
+      </c>
+      <c r="D472" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473">
+        <v>472</v>
+      </c>
+      <c r="B473" t="s">
+        <v>475</v>
+      </c>
+      <c r="C473" t="s">
+        <v>478</v>
+      </c>
+      <c r="D473" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474">
+        <v>473</v>
+      </c>
+      <c r="B474" t="s">
+        <v>476</v>
+      </c>
+      <c r="C474" t="s">
+        <v>480</v>
+      </c>
+      <c r="D474" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475">
+        <v>474</v>
+      </c>
+      <c r="B475" t="s">
+        <v>477</v>
+      </c>
+      <c r="C475" t="s">
+        <v>479</v>
+      </c>
+      <c r="D475" t="s">
+        <v>532</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D393"/>
+  <autoFilter ref="A1:D475"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -40,30 +40,30 @@
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Luka Doncic</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
     <t>KarlAnthony Towns</t>
   </si>
   <si>
-    <t>Luka Doncic</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Jayson Tatum</t>
-  </si>
-  <si>
     <t>Trae Young</t>
   </si>
   <si>
-    <t>James Harden</t>
+    <t>LaMelo Ball</t>
   </si>
   <si>
     <t>Stephen Curry</t>
   </si>
   <si>
-    <t>LaMelo Ball</t>
-  </si>
-  <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
@@ -91,39 +91,39 @@
     <t>Domantas Sabonis</t>
   </si>
   <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
     <t>Ja Morant</t>
   </si>
   <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
     <t>Anthony Edwards</t>
   </si>
   <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
-    <t>Darius Garland</t>
+    <t>Shai GilgeousAlexander</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
   </si>
   <si>
     <t>Rudy Gobert</t>
   </si>
   <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Shai GilgeousAlexander</t>
-  </si>
-  <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
@@ -139,82 +139,94 @@
     <t>Chris Paul</t>
   </si>
   <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
     <t>Zach LaVine</t>
   </si>
   <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
     <t>Myles Turner</t>
   </si>
   <si>
     <t>Jrue Holiday</t>
   </si>
   <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
     <t>Khris Middleton</t>
   </si>
   <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Evan Mobley</t>
+  </si>
+  <si>
+    <t>Terry Rozier</t>
+  </si>
+  <si>
     <t>Robert Williams III</t>
   </si>
   <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Evan Mobley</t>
-  </si>
-  <si>
-    <t>Terry Rozier</t>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
   </si>
   <si>
     <t>De'Aaron Fox</t>
   </si>
   <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
-    <t>Jonas Valanciunas</t>
+    <t>Scottie Barnes</t>
   </si>
   <si>
     <t>Brandon Ingram</t>
   </si>
   <si>
-    <t>Scottie Barnes</t>
-  </si>
-  <si>
     <t>John Collins</t>
   </si>
   <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
     <t>Mikal Bridges</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
     <t>OG Anunoby</t>
   </si>
   <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
     <t>Michael Porter Jr.</t>
   </si>
   <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Ben Simmons</t>
   </si>
   <si>
     <t>Julius Randle</t>
   </si>
   <si>
-    <t>Jordan Poole</t>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>Christian Wood</t>
   </si>
   <si>
     <t>Jusuf Nurkic</t>
@@ -223,25 +235,19 @@
     <t>D'Angelo Russell</t>
   </si>
   <si>
-    <t>Wendell Carter Jr.</t>
+    <t>Josh Giddey</t>
+  </si>
+  <si>
+    <t>Tyler Herro</t>
+  </si>
+  <si>
+    <t>Keldon Johnson</t>
   </si>
   <si>
     <t>Jerami Grant</t>
   </si>
   <si>
-    <t>Ben Simmons</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Tyler Herro</t>
-  </si>
-  <si>
-    <t>Christian Wood</t>
-  </si>
-  <si>
-    <t>Josh Giddey</t>
+    <t>Clint Capela</t>
   </si>
   <si>
     <t>Jalen Green</t>
@@ -250,103 +256,115 @@
     <t>Draymond Green</t>
   </si>
   <si>
-    <t>Keldon Johnson</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
+    <t>Alperen Sengun</t>
   </si>
   <si>
     <t>Marcus Smart</t>
   </si>
   <si>
-    <t>Alperen Sengun</t>
+    <t>Saddiq Bey</t>
   </si>
   <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
+    <t>Mitchell Robinson</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
     <t>Jamal Murray</t>
   </si>
   <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Brandon Clarke</t>
+  </si>
+  <si>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
     <t>Kyle Lowry</t>
   </si>
   <si>
-    <t>Saddiq Bey</t>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
   </si>
   <si>
     <t>Gordon Hayward</t>
   </si>
   <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Brandon Clarke</t>
-  </si>
-  <si>
-    <t>Buddy Hield</t>
-  </si>
-  <si>
-    <t>Mitchell Robinson</t>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
+    <t>Al Horford</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Harrison Barnes</t>
+  </si>
+  <si>
+    <t>Bobby Portis Jr.</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Kevin Porter Jr.</t>
   </si>
   <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>Gary Trent Jr.</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Collin Sexton</t>
+    <t>Robert Covington</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
   </si>
   <si>
     <t>Jaren Jackson Jr.</t>
   </si>
   <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Harrison Barnes</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Isaiah Stewart</t>
   </si>
   <si>
     <t>Malcolm Brogdon</t>
   </si>
   <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Al Horford</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>Robert Covington</t>
-  </si>
-  <si>
-    <t>Bobby Portis Jr.</t>
-  </si>
-  <si>
-    <t>Kevin Porter Jr.</t>
-  </si>
-  <si>
     <t>RJ Barrett</t>
   </si>
   <si>
-    <t>Isaiah Stewart</t>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Bogdan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Herbert Jones</t>
+  </si>
+  <si>
+    <t>Brook Lopez</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
   </si>
   <si>
     <t>Norman Powell</t>
@@ -355,268 +373,337 @@
     <t>Spencer Dinwiddie</t>
   </si>
   <si>
+    <t>Derrick White</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Nic Claxton</t>
+  </si>
+  <si>
+    <t>Dorian FinneySmith</t>
+  </si>
+  <si>
+    <t>De'Anthony Melton</t>
+  </si>
+  <si>
+    <t>Bojan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
     <t>Mo Bamba</t>
   </si>
   <si>
-    <t>Bogdan Bogdanovic</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Brook Lopez</t>
-  </si>
-  <si>
-    <t>De'Anthony Melton</t>
-  </si>
-  <si>
-    <t>Derrick White</t>
-  </si>
-  <si>
-    <t>Herbert Jones</t>
-  </si>
-  <si>
-    <t>Nic Claxton</t>
+    <t>Monte Morris</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
   </si>
   <si>
     <t>Cole Anthony</t>
   </si>
   <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Dorian FinneySmith</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Monte Morris</t>
+    <t>Jarred Vanderbilt</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Onyeka Okongwu</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
   </si>
   <si>
     <t>Anfernee Simons</t>
   </si>
   <si>
-    <t>Bojan Bogdanovic</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
     <t>Jae'Sean Tate</t>
   </si>
   <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
+    <t>Richaun Holmes</t>
   </si>
   <si>
     <t>Reggie Jackson</t>
   </si>
   <si>
+    <t>Will Barton</t>
+  </si>
+  <si>
+    <t>Jalen Smith</t>
+  </si>
+  <si>
+    <t>Steven Adams</t>
+  </si>
+  <si>
+    <t>Kevin Huerter</t>
+  </si>
+  <si>
+    <t>Patrick Williams</t>
+  </si>
+  <si>
+    <t>Kyle Anderson</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Thomas Bryant</t>
+  </si>
+  <si>
+    <t>Matisse Thybulle</t>
+  </si>
+  <si>
+    <t>Bones Hyland</t>
+  </si>
+  <si>
+    <t>Markelle Fultz</t>
+  </si>
+  <si>
+    <t>Andre Drummond</t>
+  </si>
+  <si>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
+    <t>Luguentz Dort</t>
+  </si>
+  <si>
+    <t>Aleksej Pokusevski</t>
+  </si>
+  <si>
+    <t>Mason Plumlee</t>
+  </si>
+  <si>
+    <t>Marvin Bagley III</t>
+  </si>
+  <si>
+    <t>Seth Curry</t>
+  </si>
+  <si>
+    <t>Caris LeVert</t>
+  </si>
+  <si>
+    <t>Bruce Brown Jr.</t>
+  </si>
+  <si>
+    <t>Isaiah Hartenstein</t>
+  </si>
+  <si>
+    <t>Alex Caruso</t>
+  </si>
+  <si>
+    <t>Chuma Okeke</t>
+  </si>
+  <si>
+    <t>Tre Jones</t>
+  </si>
+  <si>
+    <t>Kevin Love</t>
+  </si>
+  <si>
+    <t>Chris Duarte</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
     <t>Russell Westbrook III</t>
   </si>
   <si>
-    <t>Richaun Holmes</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
-    <t>Patrick Williams</t>
-  </si>
-  <si>
-    <t>Will Barton</t>
-  </si>
-  <si>
-    <t>Kyle Anderson</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
-    <t>Markelle Fultz</t>
-  </si>
-  <si>
-    <t>Kevin Huerter</t>
-  </si>
-  <si>
-    <t>Luguentz Dort</t>
-  </si>
-  <si>
-    <t>Matisse Thybulle</t>
-  </si>
-  <si>
-    <t>Caris LeVert</t>
-  </si>
-  <si>
-    <t>Andre Drummond</t>
-  </si>
-  <si>
-    <t>Jalen Smith</t>
-  </si>
-  <si>
-    <t>Royce O'Neale</t>
-  </si>
-  <si>
-    <t>Steven Adams</t>
+    <t>Isaiah Jackson</t>
+  </si>
+  <si>
+    <t>Obi Toppin</t>
+  </si>
+  <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Bennedict Mathurin</t>
+  </si>
+  <si>
+    <t>Killian Hayes</t>
+  </si>
+  <si>
+    <t>Tim Hardaway Jr.</t>
+  </si>
+  <si>
+    <t>Jae Crowder</t>
+  </si>
+  <si>
+    <t>Darius Bazley</t>
   </si>
   <si>
     <t>Jonathan Isaac</t>
   </si>
   <si>
-    <t>Marvin Bagley III</t>
-  </si>
-  <si>
-    <t>Aleksej Pokusevski</t>
-  </si>
-  <si>
-    <t>Thomas Bryant</t>
-  </si>
-  <si>
-    <t>Onyeka Okongwu</t>
-  </si>
-  <si>
-    <t>Chuma Okeke</t>
-  </si>
-  <si>
-    <t>Jarred Vanderbilt</t>
-  </si>
-  <si>
-    <t>Mason Plumlee</t>
-  </si>
-  <si>
-    <t>Seth Curry</t>
-  </si>
-  <si>
-    <t>Obi Toppin</t>
-  </si>
-  <si>
-    <t>Bruce Brown Jr.</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Bennedict Mathurin</t>
-  </si>
-  <si>
-    <t>Kevin Love</t>
-  </si>
-  <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
-    <t>Tim Hardaway Jr.</t>
-  </si>
-  <si>
-    <t>Darius Bazley</t>
-  </si>
-  <si>
-    <t>Bones Hyland</t>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Chris Boucher</t>
   </si>
   <si>
     <t>Evan Fournier</t>
   </si>
   <si>
-    <t>Killian Hayes</t>
-  </si>
-  <si>
-    <t>Isaiah Hartenstein</t>
-  </si>
-  <si>
-    <t>Chris Duarte</t>
+    <t>Jaxson Hayes</t>
+  </si>
+  <si>
+    <t>Otto Porter Jr.</t>
   </si>
   <si>
     <t>James Wiseman</t>
   </si>
   <si>
+    <t>Patrick Beverley</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Kelly Olynyk</t>
+  </si>
+  <si>
+    <t>Devonte' Graham</t>
+  </si>
+  <si>
+    <t>JaVale McGee</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Reggie Bullock</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Kendrick Nunn</t>
+  </si>
+  <si>
+    <t>Pat Connaughton</t>
+  </si>
+  <si>
+    <t>Larry Nance Jr.</t>
+  </si>
+  <si>
+    <t>Kentavious CaldwellPope</t>
+  </si>
+  <si>
+    <t>Victor Oladipo</t>
+  </si>
+  <si>
+    <t>T.J. McConnell</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Josh Richardson</t>
+  </si>
+  <si>
+    <t>Montrezl Harrell</t>
+  </si>
+  <si>
+    <t>Kevon Looney</t>
+  </si>
+  <si>
+    <t>Cody Martin</t>
+  </si>
+  <si>
+    <t>Joe Harris</t>
+  </si>
+  <si>
+    <t>Cameron Payne</t>
+  </si>
+  <si>
     <t>John Wall</t>
   </si>
   <si>
-    <t>Chris Boucher</t>
-  </si>
-  <si>
-    <t>Jaxson Hayes</t>
-  </si>
-  <si>
-    <t>Alex Caruso</t>
-  </si>
-  <si>
-    <t>Victor Oladipo</t>
-  </si>
-  <si>
-    <t>Otto Porter Jr.</t>
-  </si>
-  <si>
-    <t>Jae Crowder</t>
-  </si>
-  <si>
     <t>Jonathan Kuminga</t>
   </si>
   <si>
-    <t>Devonte' Graham</t>
-  </si>
-  <si>
-    <t>Tre Jones</t>
+    <t>Dennis Schroder</t>
+  </si>
+  <si>
+    <t>Delon Wright</t>
+  </si>
+  <si>
+    <t>Maxi Kleber</t>
+  </si>
+  <si>
+    <t>Nassir Little</t>
+  </si>
+  <si>
+    <t>Nerlens Noel</t>
+  </si>
+  <si>
+    <t>Precious Achiuwa</t>
+  </si>
+  <si>
+    <t>Isaac Okoro</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>T.J. Warren</t>
   </si>
   <si>
     <t>Donte DiVincenzo</t>
   </si>
   <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Patrick Beverley</t>
-  </si>
-  <si>
-    <t>Kendrick Nunn</t>
-  </si>
-  <si>
-    <t>Reggie Bullock</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Isaiah Jackson</t>
-  </si>
-  <si>
-    <t>T.J. McConnell</t>
-  </si>
-  <si>
-    <t>Montrezl Harrell</t>
-  </si>
-  <si>
-    <t>Josh Richardson</t>
-  </si>
-  <si>
-    <t>Joe Harris</t>
-  </si>
-  <si>
-    <t>Larry Nance Jr.</t>
-  </si>
-  <si>
-    <t>JaVale McGee</t>
+    <t>Gary Payton II</t>
+  </si>
+  <si>
+    <t>Derrick Rose</t>
+  </si>
+  <si>
+    <t>Talen HortonTucker</t>
+  </si>
+  <si>
+    <t>Marcus Morris Sr.</t>
+  </si>
+  <si>
+    <t>Davion Mitchell</t>
+  </si>
+  <si>
+    <t>Lonnie Walker IV</t>
+  </si>
+  <si>
+    <t>Caleb Martin</t>
+  </si>
+  <si>
+    <t>Grant Williams</t>
+  </si>
+  <si>
+    <t>P.J. Tucker</t>
+  </si>
+  <si>
+    <t>Xavier Tillman</t>
+  </si>
+  <si>
+    <t>Luke Kennard</t>
   </si>
   <si>
     <t>Isaiah Roby</t>
@@ -625,198 +712,147 @@
     <t>Duncan Robinson</t>
   </si>
   <si>
-    <t>Kevon Looney</t>
-  </si>
-  <si>
-    <t>Cameron Payne</t>
-  </si>
-  <si>
     <t>Coby White</t>
   </si>
   <si>
-    <t>Grayson Allen</t>
+    <t>Alec Burks</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Zach Collins</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Malik Monk</t>
+  </si>
+  <si>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
+    <t>Terance Mann</t>
+  </si>
+  <si>
+    <t>Nicolas Batum</t>
+  </si>
+  <si>
+    <t>Isaiah Livers</t>
+  </si>
+  <si>
+    <t>Damian Jones</t>
+  </si>
+  <si>
+    <t>Max Strus</t>
+  </si>
+  <si>
+    <t>Justin Holiday</t>
+  </si>
+  <si>
+    <t>Dwight Powell</t>
+  </si>
+  <si>
+    <t>Naz Reid</t>
+  </si>
+  <si>
+    <t>Ziaire Williams</t>
+  </si>
+  <si>
+    <t>Jalen McDaniels</t>
+  </si>
+  <si>
+    <t>Eric Gordon</t>
+  </si>
+  <si>
+    <t>Moses Moody</t>
+  </si>
+  <si>
+    <t>Cam Reddish</t>
+  </si>
+  <si>
+    <t>Dewayne Dedmon</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Nickeil AlexanderWalker</t>
   </si>
   <si>
     <t>Miles Bridges</t>
   </si>
   <si>
-    <t>Isaac Okoro</t>
-  </si>
-  <si>
-    <t>Nerlens Noel</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
-    <t>Cody Martin</t>
-  </si>
-  <si>
-    <t>Dennis Schroder</t>
-  </si>
-  <si>
-    <t>Kentavious CaldwellPope</t>
-  </si>
-  <si>
-    <t>Maxi Kleber</t>
-  </si>
-  <si>
-    <t>Kelly Olynyk</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>T.J. Warren</t>
-  </si>
-  <si>
-    <t>Precious Achiuwa</t>
-  </si>
-  <si>
-    <t>Delon Wright</t>
-  </si>
-  <si>
-    <t>Nassir Little</t>
-  </si>
-  <si>
-    <t>Terance Mann</t>
-  </si>
-  <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Derrick Rose</t>
-  </si>
-  <si>
-    <t>Gary Payton II</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Marcus Morris Sr.</t>
-  </si>
-  <si>
-    <t>Pat Connaughton</t>
-  </si>
-  <si>
-    <t>Lonnie Walker IV</t>
-  </si>
-  <si>
-    <t>Xavier Tillman</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Davion Mitchell</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>P.J. Tucker</t>
-  </si>
-  <si>
-    <t>Luke Kennard</t>
-  </si>
-  <si>
-    <t>Cam Reddish</t>
-  </si>
-  <si>
-    <t>Moses Moody</t>
-  </si>
-  <si>
-    <t>Caleb Martin</t>
-  </si>
-  <si>
-    <t>Nickeil AlexanderWalker</t>
-  </si>
-  <si>
-    <t>Grant Williams</t>
-  </si>
-  <si>
-    <t>Alec Burks</t>
-  </si>
-  <si>
-    <t>Quentin Grimes</t>
-  </si>
-  <si>
-    <t>Malik Monk</t>
-  </si>
-  <si>
     <t>Ricky Rubio</t>
   </si>
   <si>
-    <t>Talen HortonTucker</t>
+    <t>Josh Christopher</t>
+  </si>
+  <si>
+    <t>Joshua Primo</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>KJ Martin Jr.</t>
+  </si>
+  <si>
+    <t>Thaddeus Young</t>
+  </si>
+  <si>
+    <t>Terrence Ross</t>
+  </si>
+  <si>
+    <t>Trendon Watford</t>
   </si>
   <si>
     <t>Joe Ingles</t>
   </si>
   <si>
-    <t>KJ Martin Jr.</t>
-  </si>
-  <si>
-    <t>Nicolas Batum</t>
-  </si>
-  <si>
-    <t>Dwight Powell</t>
-  </si>
-  <si>
-    <t>Thaddeus Young</t>
-  </si>
-  <si>
-    <t>Terrence Ross</t>
-  </si>
-  <si>
-    <t>Justin Holiday</t>
-  </si>
-  <si>
-    <t>Max Strus</t>
-  </si>
-  <si>
-    <t>Eric Gordon</t>
-  </si>
-  <si>
-    <t>Trendon Watford</t>
-  </si>
-  <si>
-    <t>Naz Reid</t>
-  </si>
-  <si>
-    <t>Damian Jones</t>
+    <t>JaMychal Green</t>
+  </si>
+  <si>
+    <t>Day'Ron Sharpe</t>
   </si>
   <si>
     <t>Juan ToscanoAnderson</t>
   </si>
   <si>
+    <t>Doug McDermott</t>
+  </si>
+  <si>
+    <t>Corey Kispert</t>
+  </si>
+  <si>
+    <t>Gabe Vincent</t>
+  </si>
+  <si>
     <t>Danilo Gallinari</t>
   </si>
   <si>
     <t>Jalen Williams</t>
   </si>
   <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Jose Alvarado</t>
-  </si>
-  <si>
-    <t>Doug McDermott</t>
-  </si>
-  <si>
     <t>Khem Birch</t>
   </si>
   <si>
-    <t>Dewayne Dedmon</t>
-  </si>
-  <si>
-    <t>Jalen McDaniels</t>
-  </si>
-  <si>
     <t>Hassan Whiteside</t>
   </si>
   <si>
+    <t>Jeremiah RobinsonEarl</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
     <t>Davis Bertans</t>
   </si>
   <si>
@@ -826,34 +862,25 @@
     <t>Kemba Walker</t>
   </si>
   <si>
+    <t>Tre Mann</t>
+  </si>
+  <si>
     <t>Facundo Campazzo</t>
   </si>
   <si>
+    <t>Oshae Brissett</t>
+  </si>
+  <si>
     <t>Daniel Theis</t>
   </si>
   <si>
-    <t>Josh Christopher</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Zach Collins</t>
-  </si>
-  <si>
     <t>Theo Maledon</t>
   </si>
   <si>
-    <t>Joshua Primo</t>
-  </si>
-  <si>
-    <t>Isaiah Livers</t>
-  </si>
-  <si>
     <t>Goran Dragic</t>
   </si>
   <si>
-    <t>Tre Mann</t>
+    <t>Chimezie Metu</t>
   </si>
   <si>
     <t>Dyson Daniels</t>
@@ -862,52 +889,55 @@
     <t>Ochai Agbaji</t>
   </si>
   <si>
+    <t>Drew Eubanks</t>
+  </si>
+  <si>
+    <t>Dario Saric</t>
+  </si>
+  <si>
+    <t>Paul Reed</t>
+  </si>
+  <si>
+    <t>Danny Green</t>
+  </si>
+  <si>
+    <t>Malachi Flynn</t>
+  </si>
+  <si>
     <t>Eric Bledsoe</t>
   </si>
   <si>
-    <t>Danny Green</t>
-  </si>
-  <si>
-    <t>JaMychal Green</t>
-  </si>
-  <si>
-    <t>Malachi Flynn</t>
-  </si>
-  <si>
-    <t>Paul Reed</t>
-  </si>
-  <si>
     <t>Moses Brown</t>
   </si>
   <si>
-    <t>Dario Saric</t>
-  </si>
-  <si>
     <t>Derrick Favors</t>
   </si>
   <si>
+    <t>Trey Lyles</t>
+  </si>
+  <si>
+    <t>LaMarcus Aldridge</t>
+  </si>
+  <si>
+    <t>Serge Ibaka</t>
+  </si>
+  <si>
     <t>Shaedon Sharpe</t>
   </si>
   <si>
+    <t>Patty Mills</t>
+  </si>
+  <si>
     <t>Johnny Davis</t>
   </si>
   <si>
-    <t>LaMarcus Aldridge</t>
-  </si>
-  <si>
-    <t>Chimezie Metu</t>
-  </si>
-  <si>
-    <t>Ziaire Williams</t>
-  </si>
-  <si>
-    <t>Serge Ibaka</t>
-  </si>
-  <si>
-    <t>Gabe Vincent</t>
-  </si>
-  <si>
-    <t>Corey Kispert</t>
+    <t>Udoka Azubuike</t>
+  </si>
+  <si>
+    <t>Malaki Branham</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
   </si>
   <si>
     <t>Blake Griffin</t>
@@ -916,100 +946,97 @@
     <t>Shake Milton</t>
   </si>
   <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
-    <t>Day'Ron Sharpe</t>
-  </si>
-  <si>
-    <t>Patty Mills</t>
-  </si>
-  <si>
-    <t>Oshae Brissett</t>
+    <t>Taurean Prince</t>
   </si>
   <si>
     <t>TyTy Washington Jr.</t>
   </si>
   <si>
+    <t>Gary Harris</t>
+  </si>
+  <si>
+    <t>Rudy Gay</t>
+  </si>
+  <si>
     <t>AJ Griffin</t>
   </si>
   <si>
-    <t>Malaki Branham</t>
-  </si>
-  <si>
-    <t>Rudy Gay</t>
-  </si>
-  <si>
-    <t>Jeremiah RobinsonEarl</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
+    <t>Usman Garuba</t>
+  </si>
+  <si>
+    <t>Jaylen Nowell</t>
+  </si>
+  <si>
+    <t>Jeff Green</t>
+  </si>
+  <si>
+    <t>DeAndre Jordan</t>
+  </si>
+  <si>
+    <t>Omer Yurtseven</t>
+  </si>
+  <si>
+    <t>Carmelo Anthony</t>
+  </si>
+  <si>
+    <t>Cody Zeller</t>
+  </si>
+  <si>
+    <t>Tomas Satoransky</t>
   </si>
   <si>
     <t>Jeremy Lamb</t>
   </si>
   <si>
-    <t>DeAndre Jordan</t>
-  </si>
-  <si>
-    <t>Jaylen Nowell</t>
-  </si>
-  <si>
-    <t>Drew Eubanks</t>
-  </si>
-  <si>
-    <t>Carmelo Anthony</t>
-  </si>
-  <si>
-    <t>Cody Zeller</t>
-  </si>
-  <si>
-    <t>Omer Yurtseven</t>
-  </si>
-  <si>
-    <t>Tomas Satoransky</t>
+    <t>Landry Shamet</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Josh Jackson</t>
+  </si>
+  <si>
+    <t>Zeke Nnaji</t>
+  </si>
+  <si>
+    <t>Georges Niang</t>
+  </si>
+  <si>
+    <t>Enes Freedom</t>
   </si>
   <si>
     <t>Dwight Howard</t>
   </si>
   <si>
-    <t>Usman Garuba</t>
-  </si>
-  <si>
-    <t>Josh Jackson</t>
-  </si>
-  <si>
     <t>Paul Millsap</t>
   </si>
   <si>
-    <t>Landry Shamet</t>
-  </si>
-  <si>
-    <t>Trey Lyles</t>
-  </si>
-  <si>
-    <t>Enes Freedom</t>
-  </si>
-  <si>
-    <t>Udoka Azubuike</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
+    <t>Garrison Mathews</t>
+  </si>
+  <si>
+    <t>Terence Davis II</t>
+  </si>
+  <si>
+    <t>Lou Williams</t>
   </si>
   <si>
     <t>Justise Winslow</t>
   </si>
   <si>
-    <t>Lou Williams</t>
+    <t>Jordan McLaughlin</t>
   </si>
   <si>
     <t>Ousmane Dieng</t>
   </si>
   <si>
-    <t>Garrison Mathews</t>
-  </si>
-  <si>
-    <t>Zeke Nnaji</t>
+    <t>Jaden Hardy</t>
+  </si>
+  <si>
+    <t>James Bouknight</t>
+  </si>
+  <si>
+    <t>Jared Butler</t>
   </si>
   <si>
     <t>Tristan Thompson</t>
@@ -1018,115 +1045,127 @@
     <t>MarJon Beauchamp</t>
   </si>
   <si>
-    <t>Terence Davis II</t>
-  </si>
-  <si>
-    <t>Gary Harris</t>
-  </si>
-  <si>
-    <t>Taurean Prince</t>
-  </si>
-  <si>
-    <t>James Bouknight</t>
-  </si>
-  <si>
-    <t>Jaden Hardy</t>
-  </si>
-  <si>
-    <t>Jordan McLaughlin</t>
+    <t>Ty Jerome</t>
+  </si>
+  <si>
+    <t>Jericho Sims</t>
+  </si>
+  <si>
+    <t>Bismack Biyombo</t>
+  </si>
+  <si>
+    <t>Aaron Nesmith</t>
   </si>
   <si>
     <t>Jake LaRavia</t>
   </si>
   <si>
-    <t>Ty Jerome</t>
-  </si>
-  <si>
-    <t>Jeff Green</t>
-  </si>
-  <si>
-    <t>Jared Butler</t>
-  </si>
-  <si>
-    <t>Jericho Sims</t>
-  </si>
-  <si>
     <t>Dalen Terry</t>
   </si>
   <si>
-    <t>Bismack Biyombo</t>
+    <t>Josh Green</t>
   </si>
   <si>
     <t>Trevor Keels</t>
   </si>
   <si>
-    <t>Georges Niang</t>
-  </si>
-  <si>
-    <t>Aaron Nesmith</t>
+    <t>John Konchar</t>
   </si>
   <si>
     <t>Wendell Moore Jr.</t>
   </si>
   <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Jaylin Williams</t>
+  </si>
+  <si>
     <t>Hamidou Diallo</t>
   </si>
   <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>Jaylin Williams</t>
-  </si>
-  <si>
-    <t>John Konchar</t>
-  </si>
-  <si>
     <t>Duane Washington Jr.</t>
   </si>
   <si>
+    <t>Torrey Craig</t>
+  </si>
+  <si>
     <t>Amir Coffey</t>
   </si>
   <si>
+    <t>Kenrich Williams</t>
+  </si>
+  <si>
     <t>Kira Lewis Jr.</t>
   </si>
   <si>
-    <t>Josh Green</t>
-  </si>
-  <si>
     <t>Cedi Osman</t>
   </si>
   <si>
+    <t>Elfrid Payton</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
     <t>Eric Paschall</t>
   </si>
   <si>
     <t>Aaron Wiggins</t>
   </si>
   <si>
+    <t>Dalano Banton</t>
+  </si>
+  <si>
+    <t>Danuel House Jr.</t>
+  </si>
+  <si>
+    <t>Moritz Wagner</t>
+  </si>
+  <si>
+    <t>Willy Hernangomez</t>
+  </si>
+  <si>
+    <t>Brandon Goodwin</t>
+  </si>
+  <si>
+    <t>Peyton Watson</t>
+  </si>
+  <si>
+    <t>Kessler Edwards</t>
+  </si>
+  <si>
     <t>Nemanja Bjelica</t>
   </si>
   <si>
-    <t>Elfrid Payton</t>
-  </si>
-  <si>
-    <t>Dalano Banton</t>
-  </si>
-  <si>
-    <t>Kenrich Williams</t>
+    <t>Furkan Korkmaz</t>
+  </si>
+  <si>
+    <t>George Hill</t>
+  </si>
+  <si>
+    <t>Frank Jackson</t>
   </si>
   <si>
     <t>Trevor Ariza</t>
   </si>
   <si>
-    <t>Brandon Goodwin</t>
-  </si>
-  <si>
-    <t>Torrey Craig</t>
-  </si>
-  <si>
-    <t>Kessler Edwards</t>
-  </si>
-  <si>
-    <t>Furkan Korkmaz</t>
+    <t>R.J. Hampton Jr.</t>
+  </si>
+  <si>
+    <t>Mike Muscala</t>
+  </si>
+  <si>
+    <t>Wesley Matthews</t>
+  </si>
+  <si>
+    <t>CJ Elleby</t>
+  </si>
+  <si>
+    <t>Vernon Carey Jr.</t>
+  </si>
+  <si>
+    <t>Jock Landale</t>
   </si>
   <si>
     <t>Christian Braun</t>
@@ -1135,16 +1174,13 @@
     <t>David Roddy</t>
   </si>
   <si>
-    <t>Peyton Watson</t>
-  </si>
-  <si>
-    <t>Frank Jackson</t>
+    <t>Simone Fontecchio</t>
   </si>
   <si>
     <t>Blake Wesley</t>
   </si>
   <si>
-    <t>Jalen Johnson</t>
+    <t>Bol Bol</t>
   </si>
   <si>
     <t>Patrick Baldwin Jr.</t>
@@ -1153,49 +1189,34 @@
     <t>Andrew Nembhard</t>
   </si>
   <si>
-    <t>R.J. Hampton Jr.</t>
-  </si>
-  <si>
     <t>Caleb Houstan</t>
   </si>
   <si>
     <t>Christian Koloko</t>
   </si>
   <si>
+    <t>Naji Marshall</t>
+  </si>
+  <si>
     <t>Max Christie</t>
   </si>
   <si>
-    <t>George Hill</t>
-  </si>
-  <si>
-    <t>CJ Elleby</t>
-  </si>
-  <si>
     <t>Gabriele Procida</t>
   </si>
   <si>
-    <t>Vernon Carey Jr.</t>
-  </si>
-  <si>
     <t>Kennedy Chandler</t>
   </si>
   <si>
-    <t>Moritz Wagner</t>
-  </si>
-  <si>
-    <t>Jock Landale</t>
+    <t>Saben Lee</t>
   </si>
   <si>
     <t>Khalifa Diop</t>
   </si>
   <si>
-    <t>Mike Muscala</t>
-  </si>
-  <si>
     <t>Bryce McGowens</t>
   </si>
   <si>
-    <t>Wesley Matthews</t>
+    <t>Keon Johnson</t>
   </si>
   <si>
     <t>E.J. Liddell</t>
@@ -1204,25 +1225,22 @@
     <t>Moussa Diabate</t>
   </si>
   <si>
-    <t>Willy Hernangomez</t>
-  </si>
-  <si>
     <t>Ryan Rollins</t>
   </si>
   <si>
+    <t>Luka Garza</t>
+  </si>
+  <si>
     <t>Josh Minott</t>
   </si>
   <si>
     <t>Ismael Kamagate</t>
   </si>
   <si>
-    <t>Simone Fontecchio</t>
-  </si>
-  <si>
     <t>Vince Williams Jr.</t>
   </si>
   <si>
-    <t>Bol Bol</t>
+    <t>Miles McBride</t>
   </si>
   <si>
     <t>Kendall Brown</t>
@@ -1231,6 +1249,9 @@
     <t>Isaiah Mobley</t>
   </si>
   <si>
+    <t>JT Thor</t>
+  </si>
+  <si>
     <t>Matteo Spagnolo</t>
   </si>
   <si>
@@ -1246,6 +1267,9 @@
     <t>Yannick Nzosa</t>
   </si>
   <si>
+    <t>Frank Ntilikina</t>
+  </si>
+  <si>
     <t>Gui Santos</t>
   </si>
   <si>
@@ -1255,33 +1279,12 @@
     <t>Jabari Walker</t>
   </si>
   <si>
-    <t>Naji Marshall</t>
+    <t>Isaiah Todd</t>
   </si>
   <si>
     <t>Hugo Besson</t>
   </si>
   <si>
-    <t>Saben Lee</t>
-  </si>
-  <si>
-    <t>Keon Johnson</t>
-  </si>
-  <si>
-    <t>Luka Garza</t>
-  </si>
-  <si>
-    <t>Miles McBride</t>
-  </si>
-  <si>
-    <t>JT Thor</t>
-  </si>
-  <si>
-    <t>Frank Ntilikina</t>
-  </si>
-  <si>
-    <t>Isaiah Todd</t>
-  </si>
-  <si>
     <t>Sharife Cooper</t>
   </si>
   <si>
@@ -1384,9 +1387,6 @@
     <t>Bruno Fernando</t>
   </si>
   <si>
-    <t>Danuel House Jr.</t>
-  </si>
-  <si>
     <t>Leandro Bolmaro</t>
   </si>
   <si>
@@ -1456,15 +1456,15 @@
     <t>PF,C</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -1507,15 +1507,15 @@
     <t>PF,SF</t>
   </si>
   <si>
+    <t>SG,PG</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>SF,SG</t>
   </si>
   <si>
-    <t>SG,PG</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>PF,PG,SF</t>
   </si>
   <si>
@@ -1534,27 +1534,27 @@
     <t>MIL</t>
   </si>
   <si>
+    <t>BKN</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
     <t>MIN</t>
   </si>
   <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>BKN</t>
-  </si>
-  <si>
-    <t>BOS</t>
-  </si>
-  <si>
     <t>ATL</t>
   </si>
   <si>
+    <t>CHA</t>
+  </si>
+  <si>
     <t>GSW</t>
   </si>
   <si>
-    <t>CHA</t>
-  </si>
-  <si>
     <t>IND</t>
   </si>
   <si>
@@ -1585,12 +1585,12 @@
     <t>TOR</t>
   </si>
   <si>
+    <t>OKC</t>
+  </si>
+  <si>
     <t>WAS</t>
   </si>
   <si>
-    <t>OKC</t>
-  </si>
-  <si>
     <t>DET</t>
   </si>
   <si>
@@ -1600,13 +1600,13 @@
     <t>NOR</t>
   </si>
   <si>
+    <t>SAS</t>
+  </si>
+  <si>
     <t>NYK</t>
   </si>
   <si>
     <t>ORL</t>
-  </si>
-  <si>
-    <t>SAS</t>
   </si>
   <si>
     <t>HOU</t>
@@ -2074,7 +2074,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D7" t="s">
         <v>507</v>
@@ -2088,10 +2088,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D8" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2102,10 +2102,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2116,10 +2116,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D10" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2259,7 +2259,7 @@
         <v>480</v>
       </c>
       <c r="D20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2284,10 +2284,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D22" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2298,10 +2298,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2315,7 +2315,7 @@
         <v>480</v>
       </c>
       <c r="D24" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2329,7 +2329,7 @@
         <v>486</v>
       </c>
       <c r="D25" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2354,10 +2354,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D27" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2368,10 +2368,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D28" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2382,10 +2382,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D29" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2396,10 +2396,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D30" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2410,7 +2410,7 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D31" t="s">
         <v>523</v>
@@ -2424,10 +2424,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D32" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2480,7 +2480,7 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D36" t="s">
         <v>525</v>
@@ -2508,10 +2508,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D38" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2522,7 +2522,7 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D39" t="s">
         <v>520</v>
@@ -2550,10 +2550,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D41" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2564,10 +2564,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D42" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2578,10 +2578,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D43" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2606,10 +2606,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D45" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2620,10 +2620,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D46" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2634,10 +2634,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D47" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2648,10 +2648,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D48" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2662,10 +2662,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="D49" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2676,7 +2676,7 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D50" t="s">
         <v>526</v>
@@ -2690,10 +2690,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D51" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2704,10 +2704,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D52" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2718,10 +2718,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D53" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2746,10 +2746,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D55" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2760,10 +2760,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D56" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2774,10 +2774,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D57" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2788,7 +2788,7 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D58" t="s">
         <v>521</v>
@@ -2802,10 +2802,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D59" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2816,7 +2816,7 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D60" t="s">
         <v>503</v>
@@ -2830,10 +2830,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D61" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2844,10 +2844,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D62" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2858,10 +2858,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D63" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2872,10 +2872,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D64" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2886,10 +2886,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D65" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2900,10 +2900,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D66" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2914,10 +2914,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D67" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2928,10 +2928,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D68" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2942,10 +2942,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D69" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2959,7 +2959,7 @@
         <v>480</v>
       </c>
       <c r="D70" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2970,10 +2970,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D71" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2984,10 +2984,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D72" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2998,10 +2998,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D73" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3012,10 +3012,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D74" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3026,10 +3026,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="D75" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3040,10 +3040,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D76" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3054,10 +3054,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D77" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3068,10 +3068,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D78" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3082,10 +3082,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D79" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3099,7 +3099,7 @@
         <v>480</v>
       </c>
       <c r="D80" t="s">
-        <v>502</v>
+        <v>528</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3110,10 +3110,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D81" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3124,10 +3124,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="D82" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3138,10 +3138,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D83" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3152,10 +3152,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D84" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3183,7 +3183,7 @@
         <v>486</v>
       </c>
       <c r="D86" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3194,10 +3194,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D87" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3208,10 +3208,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D88" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3222,10 +3222,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D89" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3236,10 +3236,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D90" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3250,10 +3250,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D91" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3264,10 +3264,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D92" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3281,7 +3281,7 @@
         <v>486</v>
       </c>
       <c r="D93" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3309,7 +3309,7 @@
         <v>478</v>
       </c>
       <c r="D95" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3320,10 +3320,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D96" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3334,7 +3334,7 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D97" t="s">
         <v>518</v>
@@ -3351,7 +3351,7 @@
         <v>478</v>
       </c>
       <c r="D98" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3362,10 +3362,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D99" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3376,10 +3376,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D100" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3390,10 +3390,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D101" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3404,10 +3404,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D102" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3418,10 +3418,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="D103" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3435,7 +3435,7 @@
         <v>478</v>
       </c>
       <c r="D104" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3446,10 +3446,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D105" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3460,10 +3460,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D106" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3474,10 +3474,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D107" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3491,7 +3491,7 @@
         <v>486</v>
       </c>
       <c r="D108" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3502,10 +3502,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D109" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3516,10 +3516,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D110" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3530,10 +3530,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D111" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3544,10 +3544,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D112" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3558,10 +3558,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="D113" t="s">
-        <v>504</v>
+        <v>530</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3572,10 +3572,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D114" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3589,7 +3589,7 @@
         <v>480</v>
       </c>
       <c r="D115" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3600,10 +3600,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D116" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3614,10 +3614,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D117" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3628,10 +3628,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D118" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3642,10 +3642,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D119" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3656,10 +3656,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D120" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3670,10 +3670,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D121" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3684,10 +3684,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D122" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3701,7 +3701,7 @@
         <v>481</v>
       </c>
       <c r="D123" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3715,7 +3715,7 @@
         <v>480</v>
       </c>
       <c r="D124" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3726,7 +3726,7 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D125" t="s">
         <v>513</v>
@@ -3740,10 +3740,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D126" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3754,10 +3754,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D127" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3768,10 +3768,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D128" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3782,10 +3782,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="D129" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3796,10 +3796,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D130" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3810,10 +3810,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="D131" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3824,10 +3824,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D132" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3838,10 +3838,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D133" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3852,10 +3852,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D134" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3866,10 +3866,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D135" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3880,10 +3880,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D136" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3894,10 +3894,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D137" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3908,10 +3908,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D138" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3922,10 +3922,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D139" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3936,10 +3936,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D140" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3950,10 +3950,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D141" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3964,10 +3964,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D142" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3978,10 +3978,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D143" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3992,10 +3992,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D144" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4006,10 +4006,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D145" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4020,10 +4020,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D146" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4034,10 +4034,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D147" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4048,10 +4048,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D148" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4062,10 +4062,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D149" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4076,10 +4076,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D150" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4090,10 +4090,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D151" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4104,10 +4104,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D152" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4118,10 +4118,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D153" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4132,10 +4132,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D154" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4149,7 +4149,7 @@
         <v>478</v>
       </c>
       <c r="D155" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4160,10 +4160,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D156" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4174,10 +4174,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D157" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4188,10 +4188,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D158" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4202,10 +4202,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D159" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4216,10 +4216,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D160" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4230,10 +4230,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D161" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4258,10 +4258,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="D163" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4272,10 +4272,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="D164" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4289,7 +4289,7 @@
         <v>482</v>
       </c>
       <c r="D165" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4300,10 +4300,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D166" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4314,10 +4314,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D167" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4328,10 +4328,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D168" t="s">
-        <v>502</v>
+        <v>528</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4342,10 +4342,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D169" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4356,10 +4356,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D170" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4370,10 +4370,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D171" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4384,10 +4384,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D172" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4401,7 +4401,7 @@
         <v>479</v>
       </c>
       <c r="D173" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4412,10 +4412,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D174" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4426,10 +4426,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D175" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4440,10 +4440,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D176" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4454,10 +4454,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D177" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4471,7 +4471,7 @@
         <v>486</v>
       </c>
       <c r="D178" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4485,7 +4485,7 @@
         <v>481</v>
       </c>
       <c r="D179" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4496,10 +4496,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D180" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4513,7 +4513,7 @@
         <v>481</v>
       </c>
       <c r="D181" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4527,7 +4527,7 @@
         <v>480</v>
       </c>
       <c r="D182" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4541,7 +4541,7 @@
         <v>482</v>
       </c>
       <c r="D183" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4552,10 +4552,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D184" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4566,10 +4566,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D185" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4580,10 +4580,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D186" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4594,10 +4594,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D187" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4622,10 +4622,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D189" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4636,10 +4636,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D190" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4650,10 +4650,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D191" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4664,10 +4664,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D192" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4678,10 +4678,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="D193" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4695,7 +4695,7 @@
         <v>486</v>
       </c>
       <c r="D194" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4706,10 +4706,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D195" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4720,10 +4720,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D196" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4734,10 +4734,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D197" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4748,10 +4748,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D198" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4762,10 +4762,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D199" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4776,7 +4776,7 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D200" t="s">
         <v>510</v>
@@ -4790,10 +4790,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D201" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4807,7 +4807,7 @@
         <v>480</v>
       </c>
       <c r="D202" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4818,10 +4818,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D203" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4832,7 +4832,7 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D204" t="s">
         <v>511</v>
@@ -4846,10 +4846,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D205" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4860,10 +4860,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D206" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4874,10 +4874,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D207" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4888,10 +4888,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D208" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4902,10 +4902,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D209" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4916,10 +4916,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D210" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4930,10 +4930,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D211" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4944,10 +4944,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D212" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4958,10 +4958,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D213" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4972,10 +4972,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D214" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4986,10 +4986,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D215" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5003,7 +5003,7 @@
         <v>480</v>
       </c>
       <c r="D216" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5014,10 +5014,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D217" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5028,10 +5028,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D218" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5042,10 +5042,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D219" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5056,10 +5056,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="D220" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5070,10 +5070,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D221" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5084,10 +5084,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="D222" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5098,10 +5098,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="D223" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5112,10 +5112,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D224" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5126,10 +5126,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D225" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5140,10 +5140,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D226" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5154,10 +5154,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D227" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5168,10 +5168,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="D228" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5196,10 +5196,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="D230" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5210,10 +5210,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D231" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5224,10 +5224,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D232" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5238,10 +5238,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="D233" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5252,10 +5252,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="D234" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5266,10 +5266,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D235" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5280,10 +5280,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D236" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5294,10 +5294,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="D237" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5308,10 +5308,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D238" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5322,10 +5322,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D239" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5336,10 +5336,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D240" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5353,7 +5353,7 @@
         <v>486</v>
       </c>
       <c r="D241" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5364,10 +5364,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D242" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5378,10 +5378,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D243" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5392,10 +5392,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D244" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5406,10 +5406,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="D245" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5420,10 +5420,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="D246" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5437,7 +5437,7 @@
         <v>486</v>
       </c>
       <c r="D247" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5448,10 +5448,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="D248" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5465,7 +5465,7 @@
         <v>486</v>
       </c>
       <c r="D249" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5476,10 +5476,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D250" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5490,10 +5490,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D251" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5504,10 +5504,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="D252" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5518,10 +5518,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D253" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5532,10 +5532,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D254" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5546,10 +5546,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D255" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5563,7 +5563,7 @@
         <v>491</v>
       </c>
       <c r="D256" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5574,10 +5574,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D257" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5588,10 +5588,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D258" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5602,10 +5602,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D259" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5616,7 +5616,7 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="D260" t="s">
         <v>521</v>
@@ -5630,10 +5630,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D261" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5644,10 +5644,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D262" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5658,10 +5658,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D263" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5675,7 +5675,7 @@
         <v>478</v>
       </c>
       <c r="D264" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5686,10 +5686,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="D265" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5700,10 +5700,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D266" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5714,10 +5714,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D267" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5728,10 +5728,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D268" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5742,10 +5742,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D269" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5756,7 +5756,7 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D270" t="s">
         <v>507</v>
@@ -5770,10 +5770,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="D271" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5784,10 +5784,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D272" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5798,10 +5798,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D273" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5812,10 +5812,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D274" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5826,10 +5826,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="D275" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5840,10 +5840,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="D276" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5854,10 +5854,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D277" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5868,10 +5868,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="D278" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5882,10 +5882,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="D279" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5896,10 +5896,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D280" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5910,10 +5910,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D281" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5924,10 +5924,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D282" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5938,10 +5938,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D283" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5952,10 +5952,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D284" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5969,7 +5969,7 @@
         <v>478</v>
       </c>
       <c r="D285" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5980,10 +5980,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="D286" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5994,10 +5994,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D287" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6008,10 +6008,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D288" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -6025,7 +6025,7 @@
         <v>478</v>
       </c>
       <c r="D289" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -6036,10 +6036,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D290" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -6050,7 +6050,7 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D291" t="s">
         <v>519</v>
@@ -6064,10 +6064,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D292" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6081,7 +6081,7 @@
         <v>480</v>
       </c>
       <c r="D293" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6092,10 +6092,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D294" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6106,10 +6106,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="D295" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6120,10 +6120,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D296" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6134,10 +6134,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D297" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6151,7 +6151,7 @@
         <v>478</v>
       </c>
       <c r="D298" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6162,10 +6162,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D299" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6176,10 +6176,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D300" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6190,10 +6190,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D301" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6204,10 +6204,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D302" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6221,7 +6221,7 @@
         <v>491</v>
       </c>
       <c r="D303" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6235,7 +6235,7 @@
         <v>481</v>
       </c>
       <c r="D304" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6246,10 +6246,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D305" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6260,10 +6260,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D306" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6274,10 +6274,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D307" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6288,10 +6288,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D308" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6302,10 +6302,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D309" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6316,10 +6316,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D310" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6330,10 +6330,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="D311" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6344,10 +6344,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="D312" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6358,10 +6358,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="D313" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6372,10 +6372,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D314" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6386,10 +6386,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D315" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6400,10 +6400,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D316" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6414,10 +6414,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D317" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6428,7 +6428,7 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D318" t="s">
         <v>532</v>
@@ -6445,7 +6445,7 @@
         <v>480</v>
       </c>
       <c r="D319" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6456,10 +6456,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D320" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6470,10 +6470,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D321" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6484,10 +6484,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D322" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6498,10 +6498,10 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D323" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6512,10 +6512,10 @@
         <v>326</v>
       </c>
       <c r="C324" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="D324" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6526,10 +6526,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D325" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6540,10 +6540,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="D326" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6554,10 +6554,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D327" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6571,7 +6571,7 @@
         <v>478</v>
       </c>
       <c r="D328" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6582,10 +6582,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D329" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6596,10 +6596,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="D330" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6610,10 +6610,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D331" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6624,10 +6624,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="D332" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6638,10 +6638,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D333" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6652,10 +6652,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="D334" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6666,7 +6666,7 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D335" t="s">
         <v>506</v>
@@ -6680,10 +6680,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D336" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6694,10 +6694,10 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D337" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6708,10 +6708,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D338" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6722,10 +6722,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="D339" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6736,10 +6736,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D340" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6753,7 +6753,7 @@
         <v>488</v>
       </c>
       <c r="D341" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6764,10 +6764,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D342" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6778,10 +6778,10 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D343" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6792,10 +6792,10 @@
         <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D344" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6806,10 +6806,10 @@
         <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D345" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6823,7 +6823,7 @@
         <v>486</v>
       </c>
       <c r="D346" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6834,10 +6834,10 @@
         <v>349</v>
       </c>
       <c r="C347" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D347" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6848,10 +6848,10 @@
         <v>350</v>
       </c>
       <c r="C348" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="D348" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6862,10 +6862,10 @@
         <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D349" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6876,10 +6876,10 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D350" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6890,10 +6890,10 @@
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="D351" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6904,10 +6904,10 @@
         <v>354</v>
       </c>
       <c r="C352" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D352" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6918,10 +6918,10 @@
         <v>355</v>
       </c>
       <c r="C353" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="D353" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6932,10 +6932,10 @@
         <v>356</v>
       </c>
       <c r="C354" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D354" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6946,10 +6946,10 @@
         <v>357</v>
       </c>
       <c r="C355" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="D355" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6960,10 +6960,10 @@
         <v>358</v>
       </c>
       <c r="C356" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D356" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6974,10 +6974,10 @@
         <v>359</v>
       </c>
       <c r="C357" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D357" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6988,10 +6988,10 @@
         <v>360</v>
       </c>
       <c r="C358" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D358" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -7002,7 +7002,7 @@
         <v>361</v>
       </c>
       <c r="C359" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D359" t="s">
         <v>532</v>
@@ -7016,10 +7016,10 @@
         <v>362</v>
       </c>
       <c r="C360" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D360" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -7030,10 +7030,10 @@
         <v>363</v>
       </c>
       <c r="C361" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="D361" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -7044,10 +7044,10 @@
         <v>364</v>
       </c>
       <c r="C362" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D362" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -7058,10 +7058,10 @@
         <v>365</v>
       </c>
       <c r="C363" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="D363" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -7072,10 +7072,10 @@
         <v>366</v>
       </c>
       <c r="C364" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D364" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7086,10 +7086,10 @@
         <v>367</v>
       </c>
       <c r="C365" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D365" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7100,10 +7100,10 @@
         <v>368</v>
       </c>
       <c r="C366" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D366" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7114,10 +7114,10 @@
         <v>369</v>
       </c>
       <c r="C367" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D367" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7128,7 +7128,7 @@
         <v>370</v>
       </c>
       <c r="C368" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D368" t="s">
         <v>502</v>
@@ -7142,10 +7142,10 @@
         <v>371</v>
       </c>
       <c r="C369" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D369" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7156,10 +7156,10 @@
         <v>372</v>
       </c>
       <c r="C370" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D370" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7170,10 +7170,10 @@
         <v>373</v>
       </c>
       <c r="C371" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D371" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7184,10 +7184,10 @@
         <v>374</v>
       </c>
       <c r="C372" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D372" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7198,10 +7198,10 @@
         <v>375</v>
       </c>
       <c r="C373" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D373" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7212,10 +7212,10 @@
         <v>376</v>
       </c>
       <c r="C374" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="D374" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7226,10 +7226,10 @@
         <v>377</v>
       </c>
       <c r="C375" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D375" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7240,10 +7240,10 @@
         <v>378</v>
       </c>
       <c r="C376" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D376" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7254,10 +7254,10 @@
         <v>379</v>
       </c>
       <c r="C377" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D377" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7268,10 +7268,10 @@
         <v>380</v>
       </c>
       <c r="C378" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="D378" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7282,10 +7282,10 @@
         <v>381</v>
       </c>
       <c r="C379" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D379" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7296,10 +7296,10 @@
         <v>382</v>
       </c>
       <c r="C380" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D380" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7310,10 +7310,10 @@
         <v>383</v>
       </c>
       <c r="C381" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D381" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7324,10 +7324,10 @@
         <v>384</v>
       </c>
       <c r="C382" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D382" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7338,10 +7338,10 @@
         <v>385</v>
       </c>
       <c r="C383" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="D383" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7352,10 +7352,10 @@
         <v>386</v>
       </c>
       <c r="C384" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D384" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7369,7 +7369,7 @@
         <v>478</v>
       </c>
       <c r="D385" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7380,10 +7380,10 @@
         <v>388</v>
       </c>
       <c r="C386" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="D386" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7394,10 +7394,10 @@
         <v>389</v>
       </c>
       <c r="C387" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D387" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7408,10 +7408,10 @@
         <v>390</v>
       </c>
       <c r="C388" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="D388" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7422,10 +7422,10 @@
         <v>391</v>
       </c>
       <c r="C389" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D389" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7436,10 +7436,10 @@
         <v>392</v>
       </c>
       <c r="C390" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D390" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7450,10 +7450,10 @@
         <v>393</v>
       </c>
       <c r="C391" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D391" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7464,10 +7464,10 @@
         <v>394</v>
       </c>
       <c r="C392" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D392" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7478,10 +7478,10 @@
         <v>395</v>
       </c>
       <c r="C393" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D393" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7492,10 +7492,10 @@
         <v>396</v>
       </c>
       <c r="C394" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D394" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7506,10 +7506,10 @@
         <v>397</v>
       </c>
       <c r="C395" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D395" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7520,10 +7520,10 @@
         <v>398</v>
       </c>
       <c r="C396" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="D396" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7534,10 +7534,10 @@
         <v>399</v>
       </c>
       <c r="C397" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D397" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7548,10 +7548,10 @@
         <v>400</v>
       </c>
       <c r="C398" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="D398" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7562,10 +7562,10 @@
         <v>401</v>
       </c>
       <c r="C399" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="D399" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7576,10 +7576,10 @@
         <v>402</v>
       </c>
       <c r="C400" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D400" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7590,10 +7590,10 @@
         <v>403</v>
       </c>
       <c r="C401" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="D401" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7604,10 +7604,10 @@
         <v>404</v>
       </c>
       <c r="C402" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="D402" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7618,10 +7618,10 @@
         <v>405</v>
       </c>
       <c r="C403" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="D403" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7632,10 +7632,10 @@
         <v>406</v>
       </c>
       <c r="C404" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="D404" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7649,7 +7649,7 @@
         <v>482</v>
       </c>
       <c r="D405" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7660,10 +7660,10 @@
         <v>408</v>
       </c>
       <c r="C406" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D406" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7674,10 +7674,10 @@
         <v>409</v>
       </c>
       <c r="C407" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D407" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7688,10 +7688,10 @@
         <v>410</v>
       </c>
       <c r="C408" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D408" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7702,10 +7702,10 @@
         <v>411</v>
       </c>
       <c r="C409" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D409" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7716,10 +7716,10 @@
         <v>412</v>
       </c>
       <c r="C410" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D410" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7730,10 +7730,10 @@
         <v>413</v>
       </c>
       <c r="C411" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="D411" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7747,7 +7747,7 @@
         <v>482</v>
       </c>
       <c r="D412" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7758,10 +7758,10 @@
         <v>415</v>
       </c>
       <c r="C413" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D413" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7772,10 +7772,10 @@
         <v>416</v>
       </c>
       <c r="C414" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D414" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7786,10 +7786,10 @@
         <v>417</v>
       </c>
       <c r="C415" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D415" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7800,10 +7800,10 @@
         <v>418</v>
       </c>
       <c r="C416" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D416" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7814,10 +7814,10 @@
         <v>419</v>
       </c>
       <c r="C417" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D417" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7831,7 +7831,7 @@
         <v>489</v>
       </c>
       <c r="D418" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7845,7 +7845,7 @@
         <v>482</v>
       </c>
       <c r="D419" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7856,10 +7856,10 @@
         <v>422</v>
       </c>
       <c r="C420" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D420" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7870,10 +7870,10 @@
         <v>423</v>
       </c>
       <c r="C421" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D421" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7884,10 +7884,10 @@
         <v>424</v>
       </c>
       <c r="C422" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D422" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7898,10 +7898,10 @@
         <v>425</v>
       </c>
       <c r="C423" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D423" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7912,10 +7912,10 @@
         <v>426</v>
       </c>
       <c r="C424" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D424" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7929,7 +7929,7 @@
         <v>486</v>
       </c>
       <c r="D425" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7940,10 +7940,10 @@
         <v>428</v>
       </c>
       <c r="C426" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D426" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7957,7 +7957,7 @@
         <v>479</v>
       </c>
       <c r="D427" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7968,10 +7968,10 @@
         <v>430</v>
       </c>
       <c r="C428" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="D428" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7982,10 +7982,10 @@
         <v>431</v>
       </c>
       <c r="C429" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D429" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7996,10 +7996,10 @@
         <v>432</v>
       </c>
       <c r="C430" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D430" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -8010,10 +8010,10 @@
         <v>433</v>
       </c>
       <c r="C431" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D431" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -8024,10 +8024,10 @@
         <v>434</v>
       </c>
       <c r="C432" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D432" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -8038,10 +8038,10 @@
         <v>435</v>
       </c>
       <c r="C433" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D433" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -8052,7 +8052,7 @@
         <v>436</v>
       </c>
       <c r="C434" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D434" t="s">
         <v>532</v>
@@ -8066,10 +8066,10 @@
         <v>437</v>
       </c>
       <c r="C435" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D435" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8080,10 +8080,10 @@
         <v>438</v>
       </c>
       <c r="C436" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="D436" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8094,10 +8094,10 @@
         <v>439</v>
       </c>
       <c r="C437" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="D437" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8108,10 +8108,10 @@
         <v>440</v>
       </c>
       <c r="C438" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="D438" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8122,10 +8122,10 @@
         <v>441</v>
       </c>
       <c r="C439" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="D439" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8136,7 +8136,7 @@
         <v>442</v>
       </c>
       <c r="C440" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D440" t="s">
         <v>524</v>
@@ -8150,10 +8150,10 @@
         <v>443</v>
       </c>
       <c r="C441" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="D441" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8164,10 +8164,10 @@
         <v>444</v>
       </c>
       <c r="C442" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="D442" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8178,10 +8178,10 @@
         <v>445</v>
       </c>
       <c r="C443" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D443" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8192,7 +8192,7 @@
         <v>446</v>
       </c>
       <c r="C444" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="D444" t="s">
         <v>520</v>
@@ -8206,10 +8206,10 @@
         <v>447</v>
       </c>
       <c r="C445" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="D445" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8220,10 +8220,10 @@
         <v>448</v>
       </c>
       <c r="C446" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D446" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8234,10 +8234,10 @@
         <v>449</v>
       </c>
       <c r="C447" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D447" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8248,10 +8248,10 @@
         <v>450</v>
       </c>
       <c r="C448" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D448" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8262,10 +8262,10 @@
         <v>451</v>
       </c>
       <c r="C449" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D449" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8276,7 +8276,7 @@
         <v>452</v>
       </c>
       <c r="C450" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="D450" t="s">
         <v>532</v>
@@ -8290,10 +8290,10 @@
         <v>453</v>
       </c>
       <c r="C451" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="D451" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8304,10 +8304,10 @@
         <v>454</v>
       </c>
       <c r="C452" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D452" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8318,10 +8318,10 @@
         <v>455</v>
       </c>
       <c r="C453" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D453" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8405,7 +8405,7 @@
         <v>478</v>
       </c>
       <c r="D459" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8444,7 +8444,7 @@
         <v>464</v>
       </c>
       <c r="C462" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D462" t="s">
         <v>532</v>
@@ -8461,7 +8461,7 @@
         <v>486</v>
       </c>
       <c r="D463" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8486,7 +8486,7 @@
         <v>467</v>
       </c>
       <c r="C465" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D465" t="s">
         <v>532</v>
@@ -8626,7 +8626,7 @@
         <v>477</v>
       </c>
       <c r="C475" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D475" t="s">
         <v>532</v>

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -169,12 +169,12 @@
     <t>Terry Rozier</t>
   </si>
   <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
     <t>Robert Williams III</t>
   </si>
   <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
     <t>Jonas Valanciunas</t>
   </si>
   <si>
@@ -274,21 +274,21 @@
     <t>P.J. Washington</t>
   </si>
   <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
     <t>Jamal Murray</t>
   </si>
   <si>
-    <t>Buddy Hield</t>
-  </si>
-  <si>
     <t>Brandon Clarke</t>
   </si>
   <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
     <t>Gary Trent Jr.</t>
   </si>
   <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
     <t>Kyle Lowry</t>
   </si>
   <si>
@@ -298,36 +298,36 @@
     <t>Kyle Kuzma</t>
   </si>
   <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
     <t>Gordon Hayward</t>
   </si>
   <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
+    <t>Al Horford</t>
+  </si>
+  <si>
     <t>Ivica Zubac</t>
   </si>
   <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
-    <t>Al Horford</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
     <t>Harrison Barnes</t>
   </si>
   <si>
+    <t>Kevin Porter Jr.</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
     <t>Bobby Portis Jr.</t>
   </si>
   <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Kevin Porter Jr.</t>
-  </si>
-  <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
@@ -337,12 +337,12 @@
     <t>Mike Conley</t>
   </si>
   <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
     <t>Jaren Jackson Jr.</t>
   </si>
   <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
     <t>Isaiah Stewart</t>
   </si>
   <si>
@@ -358,12 +358,12 @@
     <t>Bogdan Bogdanovic</t>
   </si>
   <si>
+    <t>Brook Lopez</t>
+  </si>
+  <si>
     <t>Herbert Jones</t>
   </si>
   <si>
-    <t>Brook Lopez</t>
-  </si>
-  <si>
     <t>Jabari Smith Jr.</t>
   </si>
   <si>
@@ -373,15 +373,15 @@
     <t>Spencer Dinwiddie</t>
   </si>
   <si>
+    <t>Nic Claxton</t>
+  </si>
+  <si>
     <t>Derrick White</t>
   </si>
   <si>
     <t>Jalen Suggs</t>
   </si>
   <si>
-    <t>Nic Claxton</t>
-  </si>
-  <si>
     <t>Dorian FinneySmith</t>
   </si>
   <si>
@@ -469,16 +469,16 @@
     <t>Matisse Thybulle</t>
   </si>
   <si>
+    <t>Markelle Fultz</t>
+  </si>
+  <si>
+    <t>Andre Drummond</t>
+  </si>
+  <si>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
     <t>Bones Hyland</t>
-  </si>
-  <si>
-    <t>Markelle Fultz</t>
-  </si>
-  <si>
-    <t>Andre Drummond</t>
-  </si>
-  <si>
-    <t>Royce O'Neale</t>
   </si>
   <si>
     <t>Luguentz Dort</t>
@@ -2648,10 +2648,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D48" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2662,10 +2662,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D49" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3138,10 +3138,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D83" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3152,10 +3152,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D84" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3183,7 +3183,7 @@
         <v>486</v>
       </c>
       <c r="D86" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3197,7 +3197,7 @@
         <v>486</v>
       </c>
       <c r="D87" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3250,10 +3250,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D91" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3264,10 +3264,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D92" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3320,10 +3320,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D96" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3348,10 +3348,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D98" t="s">
-        <v>504</v>
+        <v>530</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3376,10 +3376,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D100" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3432,10 +3432,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D104" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3446,10 +3446,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D105" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3530,10 +3530,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D111" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3544,10 +3544,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="D112" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3600,10 +3600,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D116" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3617,7 +3617,7 @@
         <v>480</v>
       </c>
       <c r="D117" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3628,10 +3628,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D118" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4051,7 +4051,7 @@
         <v>480</v>
       </c>
       <c r="D148" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4062,10 +4062,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D149" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4076,10 +4076,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D150" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4090,10 +4090,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D151" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="152" spans="1:4">

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -34,12 +34,12 @@
     <t>Nikola Jokic</t>
   </si>
   <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
     <t>Joel Embiid</t>
   </si>
   <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
     <t>Kevin Durant</t>
   </si>
   <si>
@@ -58,12 +58,12 @@
     <t>Trae Young</t>
   </si>
   <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
     <t>LaMelo Ball</t>
   </si>
   <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
@@ -91,18 +91,18 @@
     <t>Domantas Sabonis</t>
   </si>
   <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Ja Morant</t>
+  </si>
+  <si>
     <t>Dejounte Murray</t>
   </si>
   <si>
-    <t>Ja Morant</t>
-  </si>
-  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
@@ -112,42 +112,42 @@
     <t>Jimmy Butler</t>
   </si>
   <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Deandre Ayton</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
     <t>Shai GilgeousAlexander</t>
   </si>
   <si>
-    <t>Deandre Ayton</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>DeMar DeRozan</t>
   </si>
   <si>
     <t>Cade Cunningham</t>
   </si>
   <si>
-    <t>DeMar DeRozan</t>
+    <t>Pascal Siakam</t>
   </si>
   <si>
     <t>Nikola Vucevic</t>
   </si>
   <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
     <t>Jarrett Allen</t>
   </si>
   <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
     <t>Zach LaVine</t>
   </si>
   <si>
@@ -163,36 +163,36 @@
     <t>Jaylen Brown</t>
   </si>
   <si>
+    <t>Terry Rozier</t>
+  </si>
+  <si>
     <t>Evan Mobley</t>
   </si>
   <si>
-    <t>Terry Rozier</t>
-  </si>
-  <si>
     <t>Zion Williamson</t>
   </si>
   <si>
+    <t>Jonas Valanciunas</t>
+  </si>
+  <si>
+    <t>De'Aaron Fox</t>
+  </si>
+  <si>
+    <t>Scottie Barnes</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
     <t>Robert Williams III</t>
   </si>
   <si>
-    <t>Jonas Valanciunas</t>
-  </si>
-  <si>
-    <t>De'Aaron Fox</t>
-  </si>
-  <si>
-    <t>Scottie Barnes</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
     <t>Desmond Bane</t>
   </si>
   <si>
@@ -208,6 +208,9 @@
     <t>Tobias Harris</t>
   </si>
   <si>
+    <t>Ben Simmons</t>
+  </si>
+  <si>
     <t>Michael Porter Jr.</t>
   </si>
   <si>
@@ -217,48 +220,48 @@
     <t>Jakob Poeltl</t>
   </si>
   <si>
-    <t>Ben Simmons</t>
-  </si>
-  <si>
     <t>Julius Randle</t>
   </si>
   <si>
+    <t>Jusuf Nurkic</t>
+  </si>
+  <si>
     <t>Wendell Carter Jr.</t>
   </si>
   <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
     <t>Christian Wood</t>
   </si>
   <si>
-    <t>Jusuf Nurkic</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
     <t>Josh Giddey</t>
   </si>
   <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Keldon Johnson</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
     <t>Tyler Herro</t>
   </si>
   <si>
-    <t>Keldon Johnson</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Alperen Sengun</t>
   </si>
   <si>
     <t>Draymond Green</t>
   </si>
   <si>
-    <t>Alperen Sengun</t>
-  </si>
-  <si>
     <t>Marcus Smart</t>
   </si>
   <si>
@@ -268,6 +271,9 @@
     <t>Jalen Brunson</t>
   </si>
   <si>
+    <t>Brandon Clarke</t>
+  </si>
+  <si>
     <t>Mitchell Robinson</t>
   </si>
   <si>
@@ -277,156 +283,150 @@
     <t>Buddy Hield</t>
   </si>
   <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Brandon Clarke</t>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
   </si>
   <si>
     <t>Klay Thompson</t>
   </si>
   <si>
-    <t>Gary Trent Jr.</t>
-  </si>
-  <si>
     <t>Kyle Lowry</t>
   </si>
   <si>
-    <t>Paolo Banchero</t>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Gordon Hayward</t>
   </si>
   <si>
     <t>Kyle Kuzma</t>
   </si>
   <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Gordon Hayward</t>
+    <t>Collin Sexton</t>
   </si>
   <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
     <t>Al Horford</t>
   </si>
   <si>
     <t>Ivica Zubac</t>
   </si>
   <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
     <t>Harrison Barnes</t>
   </si>
   <si>
     <t>Kevin Porter Jr.</t>
   </si>
   <si>
-    <t>Keegan Murray</t>
+    <t>Devin Vassell</t>
   </si>
   <si>
     <t>Bobby Portis Jr.</t>
   </si>
   <si>
+    <t>Robert Covington</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
-    <t>Robert Covington</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
+    <t>RJ Barrett</t>
   </si>
   <si>
     <t>Isaiah Stewart</t>
   </si>
   <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
     <t>Malcolm Brogdon</t>
   </si>
   <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
     <t>Bogdan Bogdanovic</t>
   </si>
   <si>
+    <t>Herbert Jones</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
     <t>Brook Lopez</t>
   </si>
   <si>
-    <t>Herbert Jones</t>
-  </si>
-  <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
     <t>Norman Powell</t>
   </si>
   <si>
+    <t>Nic Claxton</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
     <t>Spencer Dinwiddie</t>
   </si>
   <si>
-    <t>Nic Claxton</t>
+    <t>Monte Morris</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
   </si>
   <si>
     <t>Derrick White</t>
   </si>
   <si>
-    <t>Jalen Suggs</t>
+    <t>Bojan Bogdanovic</t>
   </si>
   <si>
     <t>Dorian FinneySmith</t>
   </si>
   <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Mo Bamba</t>
+  </si>
+  <si>
     <t>De'Anthony Melton</t>
   </si>
   <si>
-    <t>Bojan Bogdanovic</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>Mo Bamba</t>
-  </si>
-  <si>
-    <t>Monte Morris</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
     <t>Aaron Gordon</t>
   </si>
   <si>
-    <t>Cole Anthony</t>
-  </si>
-  <si>
     <t>Jarred Vanderbilt</t>
   </si>
   <si>
     <t>Jaden McDaniels</t>
   </si>
   <si>
+    <t>Onyeka Okongwu</t>
+  </si>
+  <si>
     <t>Daniel Gafford</t>
   </si>
   <si>
-    <t>Onyeka Okongwu</t>
+    <t>Kelly Oubre Jr.</t>
   </si>
   <si>
     <t>Dillon Brooks</t>
   </si>
   <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
     <t>Anfernee Simons</t>
   </si>
   <si>
@@ -436,132 +436,138 @@
     <t>Jordan Clarkson</t>
   </si>
   <si>
+    <t>Jalen Smith</t>
+  </si>
+  <si>
+    <t>Will Barton</t>
+  </si>
+  <si>
     <t>Richaun Holmes</t>
   </si>
   <si>
     <t>Reggie Jackson</t>
   </si>
   <si>
-    <t>Will Barton</t>
-  </si>
-  <si>
-    <t>Jalen Smith</t>
-  </si>
-  <si>
     <t>Steven Adams</t>
   </si>
   <si>
     <t>Kevin Huerter</t>
   </si>
   <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
     <t>Patrick Williams</t>
   </si>
   <si>
+    <t>Bones Hyland</t>
+  </si>
+  <si>
     <t>Kyle Anderson</t>
   </si>
   <si>
-    <t>De'Andre Hunter</t>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
+    <t>Matisse Thybulle</t>
+  </si>
+  <si>
+    <t>Luguentz Dort</t>
   </si>
   <si>
     <t>Thomas Bryant</t>
   </si>
   <si>
-    <t>Matisse Thybulle</t>
+    <t>Andre Drummond</t>
   </si>
   <si>
     <t>Markelle Fultz</t>
   </si>
   <si>
-    <t>Andre Drummond</t>
-  </si>
-  <si>
-    <t>Royce O'Neale</t>
-  </si>
-  <si>
-    <t>Bones Hyland</t>
-  </si>
-  <si>
-    <t>Luguentz Dort</t>
-  </si>
-  <si>
     <t>Aleksej Pokusevski</t>
   </si>
   <si>
+    <t>Seth Curry</t>
+  </si>
+  <si>
     <t>Mason Plumlee</t>
   </si>
   <si>
     <t>Marvin Bagley III</t>
   </si>
   <si>
-    <t>Seth Curry</t>
-  </si>
-  <si>
     <t>Caris LeVert</t>
   </si>
   <si>
+    <t>Isaiah Hartenstein</t>
+  </si>
+  <si>
+    <t>Chris Duarte</t>
+  </si>
+  <si>
     <t>Bruce Brown Jr.</t>
   </si>
   <si>
-    <t>Isaiah Hartenstein</t>
+    <t>Tre Jones</t>
+  </si>
+  <si>
+    <t>Russell Westbrook III</t>
+  </si>
+  <si>
+    <t>Chuma Okeke</t>
+  </si>
+  <si>
+    <t>Kevin Love</t>
+  </si>
+  <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Isaiah Jackson</t>
   </si>
   <si>
     <t>Alex Caruso</t>
   </si>
   <si>
-    <t>Chuma Okeke</t>
-  </si>
-  <si>
-    <t>Tre Jones</t>
-  </si>
-  <si>
-    <t>Kevin Love</t>
-  </si>
-  <si>
-    <t>Chris Duarte</t>
+    <t>Jonathan Isaac</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
   </si>
   <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
-    <t>Russell Westbrook III</t>
-  </si>
-  <si>
-    <t>Isaiah Jackson</t>
-  </si>
-  <si>
     <t>Obi Toppin</t>
   </si>
   <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
     <t>Bennedict Mathurin</t>
   </si>
   <si>
+    <t>Reggie Bullock</t>
+  </si>
+  <si>
+    <t>Tim Hardaway Jr.</t>
+  </si>
+  <si>
+    <t>Jae Crowder</t>
+  </si>
+  <si>
     <t>Killian Hayes</t>
   </si>
   <si>
-    <t>Tim Hardaway Jr.</t>
-  </si>
-  <si>
-    <t>Jae Crowder</t>
-  </si>
-  <si>
     <t>Darius Bazley</t>
   </si>
   <si>
-    <t>Jonathan Isaac</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
     <t>Chris Boucher</t>
   </si>
   <si>
     <t>Evan Fournier</t>
   </si>
   <si>
+    <t>Kevon Looney</t>
+  </si>
+  <si>
     <t>Jaxson Hayes</t>
   </si>
   <si>
@@ -574,177 +580,183 @@
     <t>Patrick Beverley</t>
   </si>
   <si>
+    <t>Dennis Schroder</t>
+  </si>
+  <si>
+    <t>Kelly Olynyk</t>
+  </si>
+  <si>
     <t>Tyus Jones</t>
   </si>
   <si>
-    <t>Kelly Olynyk</t>
+    <t>JaVale McGee</t>
+  </si>
+  <si>
+    <t>Kentavious CaldwellPope</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Pat Connaughton</t>
   </si>
   <si>
     <t>Devonte' Graham</t>
   </si>
   <si>
-    <t>JaVale McGee</t>
+    <t>Larry Nance Jr.</t>
+  </si>
+  <si>
+    <t>Victor Oladipo</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Kendrick Nunn</t>
+  </si>
+  <si>
+    <t>Josh Richardson</t>
+  </si>
+  <si>
+    <t>Montrezl Harrell</t>
+  </si>
+  <si>
+    <t>Cody Martin</t>
+  </si>
+  <si>
+    <t>John Wall</t>
+  </si>
+  <si>
+    <t>Joe Harris</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>T.J. McConnell</t>
+  </si>
+  <si>
+    <t>Maxi Kleber</t>
+  </si>
+  <si>
+    <t>Cameron Payne</t>
+  </si>
+  <si>
+    <t>Nassir Little</t>
+  </si>
+  <si>
+    <t>Nerlens Noel</t>
+  </si>
+  <si>
+    <t>Precious Achiuwa</t>
+  </si>
+  <si>
+    <t>Delon Wright</t>
+  </si>
+  <si>
+    <t>Isaac Okoro</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>T.J. Warren</t>
   </si>
   <si>
     <t>Malik Beasley</t>
   </si>
   <si>
-    <t>Reggie Bullock</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Kendrick Nunn</t>
-  </si>
-  <si>
-    <t>Pat Connaughton</t>
-  </si>
-  <si>
-    <t>Larry Nance Jr.</t>
-  </si>
-  <si>
-    <t>Kentavious CaldwellPope</t>
-  </si>
-  <si>
-    <t>Victor Oladipo</t>
-  </si>
-  <si>
-    <t>T.J. McConnell</t>
-  </si>
-  <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>Josh Richardson</t>
-  </si>
-  <si>
-    <t>Montrezl Harrell</t>
-  </si>
-  <si>
-    <t>Kevon Looney</t>
-  </si>
-  <si>
-    <t>Cody Martin</t>
-  </si>
-  <si>
-    <t>Joe Harris</t>
-  </si>
-  <si>
-    <t>Cameron Payne</t>
-  </si>
-  <si>
-    <t>John Wall</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>Dennis Schroder</t>
-  </si>
-  <si>
-    <t>Delon Wright</t>
-  </si>
-  <si>
-    <t>Maxi Kleber</t>
-  </si>
-  <si>
-    <t>Nassir Little</t>
-  </si>
-  <si>
-    <t>Nerlens Noel</t>
-  </si>
-  <si>
-    <t>Precious Achiuwa</t>
-  </si>
-  <si>
-    <t>Isaac Okoro</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
     <t>Ayo Dosunmu</t>
   </si>
   <si>
-    <t>T.J. Warren</t>
+    <t>Talen HortonTucker</t>
+  </si>
+  <si>
+    <t>Derrick Rose</t>
+  </si>
+  <si>
+    <t>Davion Mitchell</t>
+  </si>
+  <si>
+    <t>Gary Payton II</t>
+  </si>
+  <si>
+    <t>Ziaire Williams</t>
+  </si>
+  <si>
+    <t>Marcus Morris Sr.</t>
+  </si>
+  <si>
+    <t>Lonnie Walker IV</t>
+  </si>
+  <si>
+    <t>Caleb Martin</t>
+  </si>
+  <si>
+    <t>Grant Williams</t>
+  </si>
+  <si>
+    <t>Moses Moody</t>
+  </si>
+  <si>
+    <t>P.J. Tucker</t>
+  </si>
+  <si>
+    <t>Xavier Tillman</t>
   </si>
   <si>
     <t>Donte DiVincenzo</t>
   </si>
   <si>
-    <t>Gary Payton II</t>
-  </si>
-  <si>
-    <t>Derrick Rose</t>
-  </si>
-  <si>
-    <t>Talen HortonTucker</t>
-  </si>
-  <si>
-    <t>Marcus Morris Sr.</t>
-  </si>
-  <si>
-    <t>Davion Mitchell</t>
-  </si>
-  <si>
-    <t>Lonnie Walker IV</t>
-  </si>
-  <si>
-    <t>Caleb Martin</t>
-  </si>
-  <si>
-    <t>Grant Williams</t>
-  </si>
-  <si>
-    <t>P.J. Tucker</t>
-  </si>
-  <si>
-    <t>Xavier Tillman</t>
-  </si>
-  <si>
     <t>Luke Kennard</t>
   </si>
   <si>
     <t>Isaiah Roby</t>
   </si>
   <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
     <t>Duncan Robinson</t>
   </si>
   <si>
+    <t>Malik Monk</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Alec Burks</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Josh Christopher</t>
+  </si>
+  <si>
+    <t>Zach Collins</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Terance Mann</t>
+  </si>
+  <si>
     <t>Coby White</t>
   </si>
   <si>
-    <t>Alec Burks</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
-    <t>Zach Collins</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Malik Monk</t>
+    <t>Nicolas Batum</t>
+  </si>
+  <si>
+    <t>Isaiah Livers</t>
   </si>
   <si>
     <t>Jose Alvarado</t>
   </si>
   <si>
-    <t>Terance Mann</t>
-  </si>
-  <si>
-    <t>Nicolas Batum</t>
-  </si>
-  <si>
-    <t>Isaiah Livers</t>
-  </si>
-  <si>
     <t>Damian Jones</t>
   </si>
   <si>
@@ -760,18 +772,12 @@
     <t>Naz Reid</t>
   </si>
   <si>
-    <t>Ziaire Williams</t>
-  </si>
-  <si>
     <t>Jalen McDaniels</t>
   </si>
   <si>
     <t>Eric Gordon</t>
   </si>
   <si>
-    <t>Moses Moody</t>
-  </si>
-  <si>
     <t>Cam Reddish</t>
   </si>
   <si>
@@ -781,24 +787,18 @@
     <t>Trey Murphy III</t>
   </si>
   <si>
-    <t>Quentin Grimes</t>
-  </si>
-  <si>
     <t>Nickeil AlexanderWalker</t>
   </si>
   <si>
     <t>Miles Bridges</t>
   </si>
   <si>
+    <t>Joshua Primo</t>
+  </si>
+  <si>
     <t>Ricky Rubio</t>
   </si>
   <si>
-    <t>Josh Christopher</t>
-  </si>
-  <si>
-    <t>Joshua Primo</t>
-  </si>
-  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
@@ -814,6 +814,9 @@
     <t>Trendon Watford</t>
   </si>
   <si>
+    <t>Gabe Vincent</t>
+  </si>
+  <si>
     <t>Joe Ingles</t>
   </si>
   <si>
@@ -832,9 +835,6 @@
     <t>Corey Kispert</t>
   </si>
   <si>
-    <t>Gabe Vincent</t>
-  </si>
-  <si>
     <t>Danilo Gallinari</t>
   </si>
   <si>
@@ -853,85 +853,88 @@
     <t>Austin Reaves</t>
   </si>
   <si>
+    <t>Tre Mann</t>
+  </si>
+  <si>
     <t>Davis Bertans</t>
   </si>
   <si>
+    <t>Goran Dragic</t>
+  </si>
+  <si>
     <t>Jeremy Sochan</t>
   </si>
   <si>
+    <t>Theo Maledon</t>
+  </si>
+  <si>
+    <t>Oshae Brissett</t>
+  </si>
+  <si>
+    <t>Daniel Theis</t>
+  </si>
+  <si>
+    <t>Chimezie Metu</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Malachi Flynn</t>
+  </si>
+  <si>
+    <t>Ochai Agbaji</t>
+  </si>
+  <si>
+    <t>Facundo Campazzo</t>
+  </si>
+  <si>
+    <t>Drew Eubanks</t>
+  </si>
+  <si>
+    <t>Dario Saric</t>
+  </si>
+  <si>
+    <t>Paul Reed</t>
+  </si>
+  <si>
+    <t>Danny Green</t>
+  </si>
+  <si>
+    <t>Moses Brown</t>
+  </si>
+  <si>
+    <t>Derrick Favors</t>
+  </si>
+  <si>
+    <t>Patty Mills</t>
+  </si>
+  <si>
     <t>Kemba Walker</t>
   </si>
   <si>
-    <t>Tre Mann</t>
-  </si>
-  <si>
-    <t>Facundo Campazzo</t>
-  </si>
-  <si>
-    <t>Oshae Brissett</t>
-  </si>
-  <si>
-    <t>Daniel Theis</t>
-  </si>
-  <si>
-    <t>Theo Maledon</t>
-  </si>
-  <si>
-    <t>Goran Dragic</t>
-  </si>
-  <si>
-    <t>Chimezie Metu</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Ochai Agbaji</t>
-  </si>
-  <si>
-    <t>Drew Eubanks</t>
-  </si>
-  <si>
-    <t>Dario Saric</t>
-  </si>
-  <si>
-    <t>Paul Reed</t>
-  </si>
-  <si>
-    <t>Danny Green</t>
-  </si>
-  <si>
-    <t>Malachi Flynn</t>
+    <t>Trey Lyles</t>
+  </si>
+  <si>
+    <t>LaMarcus Aldridge</t>
+  </si>
+  <si>
+    <t>Serge Ibaka</t>
+  </si>
+  <si>
+    <t>Shaedon Sharpe</t>
+  </si>
+  <si>
+    <t>Udoka Azubuike</t>
+  </si>
+  <si>
+    <t>Johnny Davis</t>
   </si>
   <si>
     <t>Eric Bledsoe</t>
   </si>
   <si>
-    <t>Moses Brown</t>
-  </si>
-  <si>
-    <t>Derrick Favors</t>
-  </si>
-  <si>
-    <t>Trey Lyles</t>
-  </si>
-  <si>
-    <t>LaMarcus Aldridge</t>
-  </si>
-  <si>
-    <t>Serge Ibaka</t>
-  </si>
-  <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
-    <t>Patty Mills</t>
-  </si>
-  <si>
-    <t>Johnny Davis</t>
-  </si>
-  <si>
-    <t>Udoka Azubuike</t>
+    <t>TyTy Washington Jr.</t>
   </si>
   <si>
     <t>Malaki Branham</t>
@@ -943,27 +946,30 @@
     <t>Blake Griffin</t>
   </si>
   <si>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
     <t>Shake Milton</t>
   </si>
   <si>
-    <t>Taurean Prince</t>
-  </si>
-  <si>
-    <t>TyTy Washington Jr.</t>
-  </si>
-  <si>
     <t>Gary Harris</t>
   </si>
   <si>
     <t>Rudy Gay</t>
   </si>
   <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
     <t>AJ Griffin</t>
   </si>
   <si>
     <t>Usman Garuba</t>
   </si>
   <si>
+    <t>Tomas Satoransky</t>
+  </si>
+  <si>
     <t>Jaylen Nowell</t>
   </si>
   <si>
@@ -982,24 +988,24 @@
     <t>Cody Zeller</t>
   </si>
   <si>
-    <t>Tomas Satoransky</t>
-  </si>
-  <si>
     <t>Jeremy Lamb</t>
   </si>
   <si>
     <t>Landry Shamet</t>
   </si>
   <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
     <t>Josh Jackson</t>
   </si>
   <si>
     <t>Zeke Nnaji</t>
   </si>
   <si>
+    <t>Jordan McLaughlin</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
     <t>Georges Niang</t>
   </si>
   <si>
@@ -1018,15 +1024,12 @@
     <t>Terence Davis II</t>
   </si>
   <si>
+    <t>Justise Winslow</t>
+  </si>
+  <si>
     <t>Lou Williams</t>
   </si>
   <si>
-    <t>Justise Winslow</t>
-  </si>
-  <si>
-    <t>Jordan McLaughlin</t>
-  </si>
-  <si>
     <t>Ousmane Dieng</t>
   </si>
   <si>
@@ -1045,12 +1048,12 @@
     <t>MarJon Beauchamp</t>
   </si>
   <si>
+    <t>Jericho Sims</t>
+  </si>
+  <si>
     <t>Ty Jerome</t>
   </si>
   <si>
-    <t>Jericho Sims</t>
-  </si>
-  <si>
     <t>Bismack Biyombo</t>
   </si>
   <si>
@@ -1060,6 +1063,9 @@
     <t>Jake LaRavia</t>
   </si>
   <si>
+    <t>Kira Lewis Jr.</t>
+  </si>
+  <si>
     <t>Dalen Terry</t>
   </si>
   <si>
@@ -1096,18 +1102,12 @@
     <t>Kenrich Williams</t>
   </si>
   <si>
-    <t>Kira Lewis Jr.</t>
-  </si>
-  <si>
     <t>Cedi Osman</t>
   </si>
   <si>
     <t>Elfrid Payton</t>
   </si>
   <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
     <t>Eric Paschall</t>
   </si>
   <si>
@@ -1510,12 +1510,12 @@
     <t>SG,PG</t>
   </si>
   <si>
+    <t>SF,SG</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
-    <t>SF,SG</t>
-  </si>
-  <si>
     <t>PF,PG,SF</t>
   </si>
   <si>
@@ -1528,12 +1528,12 @@
     <t>DEN</t>
   </si>
   <si>
+    <t>MIL</t>
+  </si>
+  <si>
     <t>PHI</t>
   </si>
   <si>
-    <t>MIL</t>
-  </si>
-  <si>
     <t>BKN</t>
   </si>
   <si>
@@ -1549,12 +1549,12 @@
     <t>ATL</t>
   </si>
   <si>
+    <t>GSW</t>
+  </si>
+  <si>
     <t>CHA</t>
   </si>
   <si>
-    <t>GSW</t>
-  </si>
-  <si>
     <t>IND</t>
   </si>
   <si>
@@ -1585,16 +1585,16 @@
     <t>TOR</t>
   </si>
   <si>
+    <t>WAS</t>
+  </si>
+  <si>
     <t>OKC</t>
   </si>
   <si>
-    <t>WAS</t>
+    <t>CHI</t>
   </si>
   <si>
     <t>DET</t>
-  </si>
-  <si>
-    <t>CHI</t>
   </si>
   <si>
     <t>NOR</t>
@@ -2091,7 +2091,7 @@
         <v>480</v>
       </c>
       <c r="D8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2284,10 +2284,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D22" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2315,7 +2315,7 @@
         <v>480</v>
       </c>
       <c r="D24" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2326,10 +2326,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D25" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2382,10 +2382,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D29" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2396,10 +2396,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D30" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2410,10 +2410,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D31" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2424,10 +2424,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D32" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2438,10 +2438,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D33" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2452,10 +2452,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D34" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2469,7 +2469,7 @@
         <v>485</v>
       </c>
       <c r="D35" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2480,7 +2480,7 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D36" t="s">
         <v>525</v>
@@ -2494,10 +2494,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D37" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2508,10 +2508,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D38" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2522,10 +2522,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D39" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2536,10 +2536,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D40" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2553,7 +2553,7 @@
         <v>486</v>
       </c>
       <c r="D41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2581,7 +2581,7 @@
         <v>480</v>
       </c>
       <c r="D43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2595,7 +2595,7 @@
         <v>485</v>
       </c>
       <c r="D44" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2620,10 +2620,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D46" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2634,10 +2634,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D47" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2662,10 +2662,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D49" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2676,10 +2676,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D50" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2690,10 +2690,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D51" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2707,7 +2707,7 @@
         <v>479</v>
       </c>
       <c r="D52" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2718,10 +2718,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D53" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2732,10 +2732,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D54" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2746,10 +2746,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D55" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2805,7 +2805,7 @@
         <v>480</v>
       </c>
       <c r="D59" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2819,7 +2819,7 @@
         <v>479</v>
       </c>
       <c r="D60" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2830,10 +2830,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D61" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2844,10 +2844,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D62" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2858,10 +2858,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D63" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2872,10 +2872,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D64" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2903,7 +2903,7 @@
         <v>481</v>
       </c>
       <c r="D66" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2914,10 +2914,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D67" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2928,10 +2928,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D68" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2942,10 +2942,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D69" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2959,7 +2959,7 @@
         <v>480</v>
       </c>
       <c r="D70" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2970,10 +2970,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D71" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2998,10 +2998,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="D73" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3012,10 +3012,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D74" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3026,10 +3026,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D75" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3040,10 +3040,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D76" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3068,10 +3068,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D78" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3082,10 +3082,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D79" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3096,10 +3096,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D80" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3110,7 +3110,7 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D81" t="s">
         <v>528</v>
@@ -3124,10 +3124,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="D82" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3138,10 +3138,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D83" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3152,10 +3152,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D84" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3166,10 +3166,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D85" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3183,7 +3183,7 @@
         <v>486</v>
       </c>
       <c r="D86" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3194,10 +3194,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D87" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3208,10 +3208,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D88" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3222,10 +3222,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D89" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3236,10 +3236,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D90" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3250,10 +3250,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D91" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3264,10 +3264,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D92" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3278,10 +3278,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D93" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3292,10 +3292,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D94" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3334,7 +3334,7 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="D97" t="s">
         <v>518</v>
@@ -3348,10 +3348,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D98" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3362,10 +3362,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D99" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3376,10 +3376,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D100" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3390,10 +3390,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D101" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3418,10 +3418,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D103" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3432,10 +3432,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D104" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3446,10 +3446,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D105" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3460,10 +3460,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D106" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3474,10 +3474,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D107" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3491,7 +3491,7 @@
         <v>486</v>
       </c>
       <c r="D108" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3502,10 +3502,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D109" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3530,10 +3530,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="D111" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3544,10 +3544,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D112" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3558,10 +3558,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D113" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3586,10 +3586,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D115" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3600,10 +3600,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D116" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3617,7 +3617,7 @@
         <v>480</v>
       </c>
       <c r="D117" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3631,7 +3631,7 @@
         <v>480</v>
       </c>
       <c r="D118" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3645,7 +3645,7 @@
         <v>479</v>
       </c>
       <c r="D119" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3659,7 +3659,7 @@
         <v>480</v>
       </c>
       <c r="D120" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3687,7 +3687,7 @@
         <v>479</v>
       </c>
       <c r="D122" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3698,7 +3698,7 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D123" t="s">
         <v>529</v>
@@ -3712,10 +3712,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D124" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3726,10 +3726,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D125" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3740,10 +3740,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D126" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3754,10 +3754,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D127" t="s">
-        <v>529</v>
+        <v>502</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3796,10 +3796,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D130" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3810,10 +3810,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="D131" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3824,10 +3824,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D132" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3838,10 +3838,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D133" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3897,7 +3897,7 @@
         <v>478</v>
       </c>
       <c r="D137" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3908,10 +3908,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D138" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3922,10 +3922,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D139" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3936,10 +3936,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D140" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3981,7 +3981,7 @@
         <v>479</v>
       </c>
       <c r="D143" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3995,7 +3995,7 @@
         <v>479</v>
       </c>
       <c r="D144" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4006,10 +4006,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D145" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4020,10 +4020,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D146" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4034,10 +4034,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D147" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4048,10 +4048,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D148" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4062,10 +4062,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D149" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4076,10 +4076,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D150" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4090,10 +4090,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D151" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4104,10 +4104,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D152" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4121,7 +4121,7 @@
         <v>479</v>
       </c>
       <c r="D153" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4132,10 +4132,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D154" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4149,7 +4149,7 @@
         <v>478</v>
       </c>
       <c r="D155" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4160,10 +4160,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D156" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4188,10 +4188,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D158" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4202,10 +4202,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="D159" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4216,10 +4216,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D160" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4230,10 +4230,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D161" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4247,7 +4247,7 @@
         <v>482</v>
       </c>
       <c r="D162" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4258,10 +4258,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="D163" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4272,10 +4272,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D164" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4289,7 +4289,7 @@
         <v>482</v>
       </c>
       <c r="D165" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4300,10 +4300,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="D166" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4314,10 +4314,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D167" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4331,7 +4331,7 @@
         <v>479</v>
       </c>
       <c r="D168" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4342,10 +4342,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D169" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4356,10 +4356,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D170" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4370,10 +4370,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D171" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4384,10 +4384,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D172" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4398,10 +4398,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D173" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4412,10 +4412,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D174" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4429,7 +4429,7 @@
         <v>479</v>
       </c>
       <c r="D175" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4440,10 +4440,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D176" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4454,10 +4454,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D177" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4468,10 +4468,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D178" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4482,10 +4482,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D179" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4496,10 +4496,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D180" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4513,7 +4513,7 @@
         <v>481</v>
       </c>
       <c r="D181" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4524,10 +4524,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D182" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4538,10 +4538,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D183" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4552,10 +4552,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D184" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4566,10 +4566,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D185" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4580,10 +4580,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D186" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4594,10 +4594,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D187" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4608,7 +4608,7 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D188" t="s">
         <v>506</v>
@@ -4622,10 +4622,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D189" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4636,10 +4636,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D190" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4653,7 +4653,7 @@
         <v>486</v>
       </c>
       <c r="D191" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4664,7 +4664,7 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D192" t="s">
         <v>526</v>
@@ -4678,10 +4678,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="D193" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4706,10 +4706,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D195" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4720,10 +4720,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D196" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4751,7 +4751,7 @@
         <v>478</v>
       </c>
       <c r="D198" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4762,7 +4762,7 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D199" t="s">
         <v>511</v>
@@ -4776,10 +4776,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D200" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4804,10 +4804,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D202" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4818,10 +4818,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D203" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4832,10 +4832,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D204" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4846,10 +4846,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D205" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4860,10 +4860,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D206" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4877,7 +4877,7 @@
         <v>478</v>
       </c>
       <c r="D207" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4888,10 +4888,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D208" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4902,10 +4902,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D209" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4916,10 +4916,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D210" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4930,10 +4930,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D211" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4944,10 +4944,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D212" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4958,10 +4958,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D213" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4972,10 +4972,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D214" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4986,10 +4986,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D215" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5003,7 +5003,7 @@
         <v>480</v>
       </c>
       <c r="D216" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5014,10 +5014,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="D217" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5028,10 +5028,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D218" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5042,10 +5042,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D219" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5056,10 +5056,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D220" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5084,7 +5084,7 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D222" t="s">
         <v>516</v>
@@ -5112,10 +5112,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D224" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5126,10 +5126,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="D225" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5140,10 +5140,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D226" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5154,10 +5154,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D227" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5171,7 +5171,7 @@
         <v>486</v>
       </c>
       <c r="D228" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5182,10 +5182,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D229" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5196,10 +5196,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D230" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5210,10 +5210,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D231" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5224,10 +5224,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D232" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5238,10 +5238,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="D233" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5252,10 +5252,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D234" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5266,10 +5266,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D235" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5280,10 +5280,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D236" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5294,10 +5294,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="D237" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5308,10 +5308,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D238" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5322,10 +5322,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="D239" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5336,10 +5336,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D240" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5350,10 +5350,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D241" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5364,10 +5364,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D242" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5378,10 +5378,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D243" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5395,7 +5395,7 @@
         <v>481</v>
       </c>
       <c r="D244" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5406,10 +5406,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D245" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5420,10 +5420,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D246" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5434,10 +5434,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D247" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5448,10 +5448,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="D248" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5462,10 +5462,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D249" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5476,10 +5476,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D250" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5493,7 +5493,7 @@
         <v>486</v>
       </c>
       <c r="D251" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5504,10 +5504,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D252" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5518,10 +5518,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D253" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5532,10 +5532,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D254" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5546,10 +5546,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D255" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5563,7 +5563,7 @@
         <v>491</v>
       </c>
       <c r="D256" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5574,10 +5574,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D257" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5658,10 +5658,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D263" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5672,10 +5672,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D264" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5689,7 +5689,7 @@
         <v>478</v>
       </c>
       <c r="D265" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5700,10 +5700,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D266" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5717,7 +5717,7 @@
         <v>479</v>
       </c>
       <c r="D267" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5728,10 +5728,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D268" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5742,10 +5742,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D269" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5773,7 +5773,7 @@
         <v>491</v>
       </c>
       <c r="D271" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5815,7 +5815,7 @@
         <v>479</v>
       </c>
       <c r="D274" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5840,10 +5840,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="D276" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5854,10 +5854,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="D277" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5868,10 +5868,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D278" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5882,10 +5882,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D279" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5899,7 +5899,7 @@
         <v>482</v>
       </c>
       <c r="D280" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5938,10 +5938,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D283" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5952,10 +5952,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="D284" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5966,10 +5966,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D285" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5980,10 +5980,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D286" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5994,10 +5994,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="D287" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6039,7 +6039,7 @@
         <v>479</v>
       </c>
       <c r="D290" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -6064,10 +6064,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D292" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6078,10 +6078,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D293" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6092,10 +6092,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D294" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6106,10 +6106,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D295" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6151,7 +6151,7 @@
         <v>478</v>
       </c>
       <c r="D298" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6176,10 +6176,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D300" t="s">
-        <v>505</v>
+        <v>531</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6193,7 +6193,7 @@
         <v>491</v>
       </c>
       <c r="D301" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6204,10 +6204,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D302" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6218,10 +6218,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D303" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6232,10 +6232,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="D304" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6246,10 +6246,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D305" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6260,10 +6260,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D306" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6288,10 +6288,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D308" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6330,10 +6330,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D311" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6344,10 +6344,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D312" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6358,10 +6358,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D313" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6372,10 +6372,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D314" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6386,10 +6386,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="D315" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6400,10 +6400,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D316" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6414,10 +6414,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D317" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6431,7 +6431,7 @@
         <v>481</v>
       </c>
       <c r="D318" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6442,7 +6442,7 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D319" t="s">
         <v>532</v>
@@ -6456,7 +6456,7 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D320" t="s">
         <v>532</v>
@@ -6470,10 +6470,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D321" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6484,10 +6484,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D322" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6526,10 +6526,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D325" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6540,10 +6540,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="D326" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6554,10 +6554,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D327" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6568,7 +6568,7 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D328" t="s">
         <v>532</v>
@@ -6582,10 +6582,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D329" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6596,10 +6596,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D330" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6610,10 +6610,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D331" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6624,10 +6624,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="D332" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6638,10 +6638,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="D333" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6652,10 +6652,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="D334" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6666,10 +6666,10 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D335" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6680,10 +6680,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D336" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6697,7 +6697,7 @@
         <v>491</v>
       </c>
       <c r="D337" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6708,10 +6708,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="D338" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6722,10 +6722,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="D339" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6736,10 +6736,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="D340" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6764,10 +6764,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D342" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6778,10 +6778,10 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D343" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6792,10 +6792,10 @@
         <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D344" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6806,10 +6806,10 @@
         <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="D345" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6820,10 +6820,10 @@
         <v>348</v>
       </c>
       <c r="C346" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D346" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6834,10 +6834,10 @@
         <v>349</v>
       </c>
       <c r="C347" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D347" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6848,10 +6848,10 @@
         <v>350</v>
       </c>
       <c r="C348" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D348" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6862,10 +6862,10 @@
         <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D349" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6876,10 +6876,10 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D350" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6890,10 +6890,10 @@
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="D351" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6904,10 +6904,10 @@
         <v>354</v>
       </c>
       <c r="C352" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D352" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6918,10 +6918,10 @@
         <v>355</v>
       </c>
       <c r="C353" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D353" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6935,7 +6935,7 @@
         <v>486</v>
       </c>
       <c r="D354" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6946,10 +6946,10 @@
         <v>357</v>
       </c>
       <c r="C355" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="D355" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6960,10 +6960,10 @@
         <v>358</v>
       </c>
       <c r="C356" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D356" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6974,10 +6974,10 @@
         <v>359</v>
       </c>
       <c r="C357" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="D357" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6991,7 +6991,7 @@
         <v>479</v>
       </c>
       <c r="D358" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -7002,10 +7002,10 @@
         <v>361</v>
       </c>
       <c r="C359" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D359" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -7016,10 +7016,10 @@
         <v>362</v>
       </c>
       <c r="C360" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D360" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -7047,7 +7047,7 @@
         <v>486</v>
       </c>
       <c r="D362" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -7075,7 +7075,7 @@
         <v>485</v>
       </c>
       <c r="D364" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7173,7 +7173,7 @@
         <v>486</v>
       </c>
       <c r="D371" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7187,7 +7187,7 @@
         <v>480</v>
       </c>
       <c r="D372" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7201,7 +7201,7 @@
         <v>480</v>
       </c>
       <c r="D373" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7243,7 +7243,7 @@
         <v>478</v>
       </c>
       <c r="D376" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7257,7 +7257,7 @@
         <v>486</v>
       </c>
       <c r="D377" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7268,7 +7268,7 @@
         <v>380</v>
       </c>
       <c r="C378" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D378" t="s">
         <v>508</v>
@@ -7285,7 +7285,7 @@
         <v>481</v>
       </c>
       <c r="D379" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7380,10 +7380,10 @@
         <v>388</v>
       </c>
       <c r="C386" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D386" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7408,7 +7408,7 @@
         <v>390</v>
       </c>
       <c r="C388" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D388" t="s">
         <v>529</v>
@@ -7467,7 +7467,7 @@
         <v>491</v>
       </c>
       <c r="D392" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7495,7 +7495,7 @@
         <v>482</v>
       </c>
       <c r="D394" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7523,7 +7523,7 @@
         <v>491</v>
       </c>
       <c r="D396" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7534,7 +7534,7 @@
         <v>399</v>
       </c>
       <c r="C397" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D397" t="s">
         <v>513</v>
@@ -7579,7 +7579,7 @@
         <v>491</v>
       </c>
       <c r="D400" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7691,7 +7691,7 @@
         <v>489</v>
       </c>
       <c r="D408" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7716,7 +7716,7 @@
         <v>412</v>
       </c>
       <c r="C410" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D410" t="s">
         <v>509</v>
@@ -7761,7 +7761,7 @@
         <v>481</v>
       </c>
       <c r="D413" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7789,7 +7789,7 @@
         <v>492</v>
       </c>
       <c r="D415" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7831,7 +7831,7 @@
         <v>489</v>
       </c>
       <c r="D418" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7845,7 +7845,7 @@
         <v>482</v>
       </c>
       <c r="D419" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7873,7 +7873,7 @@
         <v>480</v>
       </c>
       <c r="D421" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7971,7 +7971,7 @@
         <v>481</v>
       </c>
       <c r="D428" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7985,7 +7985,7 @@
         <v>496</v>
       </c>
       <c r="D429" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -8027,7 +8027,7 @@
         <v>488</v>
       </c>
       <c r="D432" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -8139,7 +8139,7 @@
         <v>479</v>
       </c>
       <c r="D440" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8153,7 +8153,7 @@
         <v>482</v>
       </c>
       <c r="D441" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8164,7 +8164,7 @@
         <v>444</v>
       </c>
       <c r="C442" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D442" t="s">
         <v>532</v>
@@ -8181,7 +8181,7 @@
         <v>486</v>
       </c>
       <c r="D443" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8206,7 +8206,7 @@
         <v>447</v>
       </c>
       <c r="C445" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D445" t="s">
         <v>520</v>

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -10,14 +10,14 @@
     <sheet name="draft" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$475</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$476</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="534">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -94,18 +94,18 @@
     <t>Anthony Edwards</t>
   </si>
   <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
     <t>Ja Morant</t>
   </si>
   <si>
-    <t>Dejounte Murray</t>
+    <t>Fred VanVleet</t>
   </si>
   <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
     <t>Darius Garland</t>
   </si>
   <si>
@@ -115,33 +115,33 @@
     <t>Rudy Gobert</t>
   </si>
   <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
     <t>Deandre Ayton</t>
   </si>
   <si>
-    <t>Bradley Beal</t>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>DeMar DeRozan</t>
+  </si>
+  <si>
+    <t>Cade Cunningham</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Nikola Vucevic</t>
   </si>
   <si>
     <t>Shai GilgeousAlexander</t>
   </si>
   <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>DeMar DeRozan</t>
-  </si>
-  <si>
-    <t>Cade Cunningham</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Nikola Vucevic</t>
-  </si>
-  <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
@@ -163,12 +163,12 @@
     <t>Jaylen Brown</t>
   </si>
   <si>
+    <t>Evan Mobley</t>
+  </si>
+  <si>
     <t>Terry Rozier</t>
   </si>
   <si>
-    <t>Evan Mobley</t>
-  </si>
-  <si>
     <t>Zion Williamson</t>
   </si>
   <si>
@@ -190,45 +190,45 @@
     <t>CJ McCollum</t>
   </si>
   <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Mikal Bridges</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
     <t>Robert Williams III</t>
   </si>
   <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Mikal Bridges</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
     <t>Tyrese Maxey</t>
   </si>
   <si>
     <t>Tobias Harris</t>
   </si>
   <si>
+    <t>Julius Randle</t>
+  </si>
+  <si>
     <t>Ben Simmons</t>
   </si>
   <si>
     <t>Michael Porter Jr.</t>
   </si>
   <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
     <t>Jordan Poole</t>
   </si>
   <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Julius Randle</t>
+    <t>Wendell Carter Jr.</t>
   </si>
   <si>
     <t>Jusuf Nurkic</t>
   </si>
   <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
     <t>D'Angelo Russell</t>
   </si>
   <si>
@@ -241,6 +241,9 @@
     <t>Clint Capela</t>
   </si>
   <si>
+    <t>Tyler Herro</t>
+  </si>
+  <si>
     <t>Keldon Johnson</t>
   </si>
   <si>
@@ -250,9 +253,6 @@
     <t>Jerami Grant</t>
   </si>
   <si>
-    <t>Tyler Herro</t>
-  </si>
-  <si>
     <t>Jamal Murray</t>
   </si>
   <si>
@@ -304,15 +304,15 @@
     <t>Kyle Kuzma</t>
   </si>
   <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Al Horford</t>
+  </si>
+  <si>
     <t>Collin Sexton</t>
   </si>
   <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Al Horford</t>
-  </si>
-  <si>
     <t>Ivica Zubac</t>
   </si>
   <si>
@@ -322,12 +322,12 @@
     <t>Harrison Barnes</t>
   </si>
   <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
     <t>Kevin Porter Jr.</t>
   </si>
   <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
     <t>Bobby Portis Jr.</t>
   </si>
   <si>
@@ -340,78 +340,81 @@
     <t>Mike Conley</t>
   </si>
   <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Isaiah Stewart</t>
+  </si>
+  <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Isaiah Stewart</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
     <t>Malcolm Brogdon</t>
   </si>
   <si>
+    <t>Herbert Jones</t>
+  </si>
+  <si>
     <t>Bogdan Bogdanovic</t>
   </si>
   <si>
-    <t>Herbert Jones</t>
-  </si>
-  <si>
     <t>Jabari Smith Jr.</t>
   </si>
   <si>
     <t>Brook Lopez</t>
   </si>
   <si>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Nic Claxton</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Monte Morris</t>
+  </si>
+  <si>
+    <t>Bojan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Dorian FinneySmith</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Mo Bamba</t>
+  </si>
+  <si>
     <t>Norman Powell</t>
   </si>
   <si>
-    <t>Nic Claxton</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Spencer Dinwiddie</t>
-  </si>
-  <si>
-    <t>Monte Morris</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>De'Anthony Melton</t>
   </si>
   <si>
     <t>Derrick White</t>
   </si>
   <si>
-    <t>Bojan Bogdanovic</t>
-  </si>
-  <si>
-    <t>Dorian FinneySmith</t>
-  </si>
-  <si>
-    <t>Cole Anthony</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Mo Bamba</t>
-  </si>
-  <si>
-    <t>De'Anthony Melton</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
     <t>Jarred Vanderbilt</t>
   </si>
   <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
     <t>Jaden McDaniels</t>
   </si>
   <si>
@@ -427,37 +430,37 @@
     <t>Dillon Brooks</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
     <t>Jae'Sean Tate</t>
   </si>
   <si>
+    <t>Jalen Smith</t>
+  </si>
+  <si>
+    <t>Kevin Huerter</t>
+  </si>
+  <si>
+    <t>Richaun Holmes</t>
+  </si>
+  <si>
+    <t>Will Barton</t>
+  </si>
+  <si>
+    <t>Reggie Jackson</t>
+  </si>
+  <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
-    <t>Jalen Smith</t>
-  </si>
-  <si>
-    <t>Will Barton</t>
-  </si>
-  <si>
-    <t>Richaun Holmes</t>
-  </si>
-  <si>
-    <t>Reggie Jackson</t>
-  </si>
-  <si>
     <t>Steven Adams</t>
   </si>
   <si>
-    <t>Kevin Huerter</t>
+    <t>Patrick Williams</t>
   </si>
   <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
-    <t>Patrick Williams</t>
+    <t>Matisse Thybulle</t>
   </si>
   <si>
     <t>Bones Hyland</t>
@@ -469,63 +472,60 @@
     <t>Royce O'Neale</t>
   </si>
   <si>
-    <t>Matisse Thybulle</t>
+    <t>Thomas Bryant</t>
+  </si>
+  <si>
+    <t>Andre Drummond</t>
   </si>
   <si>
     <t>Luguentz Dort</t>
   </si>
   <si>
-    <t>Thomas Bryant</t>
-  </si>
-  <si>
-    <t>Andre Drummond</t>
+    <t>Aleksej Pokusevski</t>
   </si>
   <si>
     <t>Markelle Fultz</t>
   </si>
   <si>
-    <t>Aleksej Pokusevski</t>
+    <t>Mason Plumlee</t>
   </si>
   <si>
     <t>Seth Curry</t>
   </si>
   <si>
-    <t>Mason Plumlee</t>
+    <t>Isaiah Hartenstein</t>
   </si>
   <si>
     <t>Marvin Bagley III</t>
   </si>
   <si>
+    <t>Bruce Brown Jr.</t>
+  </si>
+  <si>
+    <t>Tre Jones</t>
+  </si>
+  <si>
+    <t>Russell Westbrook III</t>
+  </si>
+  <si>
+    <t>Chuma Okeke</t>
+  </si>
+  <si>
+    <t>Kevin Love</t>
+  </si>
+  <si>
     <t>Caris LeVert</t>
   </si>
   <si>
-    <t>Isaiah Hartenstein</t>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Isaiah Jackson</t>
   </si>
   <si>
     <t>Chris Duarte</t>
   </si>
   <si>
-    <t>Bruce Brown Jr.</t>
-  </si>
-  <si>
-    <t>Tre Jones</t>
-  </si>
-  <si>
-    <t>Russell Westbrook III</t>
-  </si>
-  <si>
-    <t>Chuma Okeke</t>
-  </si>
-  <si>
-    <t>Kevin Love</t>
-  </si>
-  <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
-    <t>Isaiah Jackson</t>
-  </si>
-  <si>
     <t>Alex Caruso</t>
   </si>
   <si>
@@ -550,24 +550,27 @@
     <t>Tim Hardaway Jr.</t>
   </si>
   <si>
+    <t>Killian Hayes</t>
+  </si>
+  <si>
+    <t>Darius Bazley</t>
+  </si>
+  <si>
     <t>Jae Crowder</t>
   </si>
   <si>
-    <t>Killian Hayes</t>
-  </si>
-  <si>
-    <t>Darius Bazley</t>
+    <t>Kelly Olynyk</t>
   </si>
   <si>
     <t>Chris Boucher</t>
   </si>
   <si>
+    <t>Kevon Looney</t>
+  </si>
+  <si>
     <t>Evan Fournier</t>
   </si>
   <si>
-    <t>Kevon Looney</t>
-  </si>
-  <si>
     <t>Jaxson Hayes</t>
   </si>
   <si>
@@ -577,115 +580,148 @@
     <t>James Wiseman</t>
   </si>
   <si>
+    <t>Kentavious CaldwellPope</t>
+  </si>
+  <si>
+    <t>Dennis Schroder</t>
+  </si>
+  <si>
     <t>Patrick Beverley</t>
   </si>
   <si>
-    <t>Dennis Schroder</t>
-  </si>
-  <si>
-    <t>Kelly Olynyk</t>
-  </si>
-  <si>
     <t>Tyus Jones</t>
   </si>
   <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
     <t>JaVale McGee</t>
   </si>
   <si>
-    <t>Kentavious CaldwellPope</t>
+    <t>Victor Oladipo</t>
+  </si>
+  <si>
+    <t>Pat Connaughton</t>
+  </si>
+  <si>
+    <t>Joe Harris</t>
+  </si>
+  <si>
+    <t>Devonte' Graham</t>
+  </si>
+  <si>
+    <t>Larry Nance Jr.</t>
   </si>
   <si>
     <t>Jalen Duren</t>
   </si>
   <si>
-    <t>Pat Connaughton</t>
-  </si>
-  <si>
-    <t>Devonte' Graham</t>
-  </si>
-  <si>
-    <t>Larry Nance Jr.</t>
-  </si>
-  <si>
-    <t>Victor Oladipo</t>
-  </si>
-  <si>
-    <t>Grayson Allen</t>
+    <t>Montrezl Harrell</t>
   </si>
   <si>
     <t>Kendrick Nunn</t>
   </si>
   <si>
+    <t>John Wall</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>T.J. McConnell</t>
+  </si>
+  <si>
+    <t>Cody Martin</t>
+  </si>
+  <si>
+    <t>Maxi Kleber</t>
+  </si>
+  <si>
+    <t>Nassir Little</t>
+  </si>
+  <si>
+    <t>Cameron Payne</t>
+  </si>
+  <si>
+    <t>Nerlens Noel</t>
+  </si>
+  <si>
+    <t>Precious Achiuwa</t>
+  </si>
+  <si>
     <t>Josh Richardson</t>
   </si>
   <si>
-    <t>Montrezl Harrell</t>
-  </si>
-  <si>
-    <t>Cody Martin</t>
-  </si>
-  <si>
-    <t>John Wall</t>
-  </si>
-  <si>
-    <t>Joe Harris</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>T.J. McConnell</t>
-  </si>
-  <si>
-    <t>Maxi Kleber</t>
-  </si>
-  <si>
-    <t>Cameron Payne</t>
-  </si>
-  <si>
-    <t>Nassir Little</t>
-  </si>
-  <si>
-    <t>Nerlens Noel</t>
-  </si>
-  <si>
-    <t>Precious Achiuwa</t>
+    <t>Isaac Okoro</t>
+  </si>
+  <si>
+    <t>Gary Payton II</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Talen HortonTucker</t>
   </si>
   <si>
     <t>Delon Wright</t>
   </si>
   <si>
-    <t>Isaac Okoro</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
     <t>T.J. Warren</t>
   </si>
   <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
     <t>Malik Beasley</t>
   </si>
   <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Talen HortonTucker</t>
+    <t>Davion Mitchell</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
+    <t>Ziaire Williams</t>
+  </si>
+  <si>
+    <t>Marcus Morris Sr.</t>
+  </si>
+  <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Grant Williams</t>
   </si>
   <si>
     <t>Derrick Rose</t>
   </si>
   <si>
-    <t>Davion Mitchell</t>
-  </si>
-  <si>
-    <t>Gary Payton II</t>
-  </si>
-  <si>
-    <t>Ziaire Williams</t>
-  </si>
-  <si>
-    <t>Marcus Morris Sr.</t>
+    <t>P.J. Tucker</t>
+  </si>
+  <si>
+    <t>Moses Moody</t>
+  </si>
+  <si>
+    <t>Xavier Tillman</t>
+  </si>
+  <si>
+    <t>Luke Kennard</t>
+  </si>
+  <si>
+    <t>Josh Christopher</t>
+  </si>
+  <si>
+    <t>Isaiah Roby</t>
+  </si>
+  <si>
+    <t>Duncan Robinson</t>
+  </si>
+  <si>
+    <t>Malik Monk</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
   </si>
   <si>
     <t>Lonnie Walker IV</t>
@@ -694,75 +730,42 @@
     <t>Caleb Martin</t>
   </si>
   <si>
-    <t>Grant Williams</t>
-  </si>
-  <si>
-    <t>Moses Moody</t>
-  </si>
-  <si>
-    <t>P.J. Tucker</t>
-  </si>
-  <si>
-    <t>Xavier Tillman</t>
-  </si>
-  <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
-    <t>Luke Kennard</t>
-  </si>
-  <si>
-    <t>Isaiah Roby</t>
-  </si>
-  <si>
-    <t>Quentin Grimes</t>
-  </si>
-  <si>
-    <t>Duncan Robinson</t>
-  </si>
-  <si>
-    <t>Malik Monk</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Zach Collins</t>
+  </si>
+  <si>
+    <t>Eric Gordon</t>
   </si>
   <si>
     <t>Alec Burks</t>
   </si>
   <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
-    <t>Josh Christopher</t>
-  </si>
-  <si>
-    <t>Zach Collins</t>
+    <t>Terance Mann</t>
+  </si>
+  <si>
+    <t>Max Strus</t>
+  </si>
+  <si>
+    <t>Coby White</t>
   </si>
   <si>
     <t>Mark Williams</t>
   </si>
   <si>
-    <t>Terance Mann</t>
-  </si>
-  <si>
-    <t>Coby White</t>
-  </si>
-  <si>
     <t>Nicolas Batum</t>
   </si>
   <si>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
+    <t>Damian Jones</t>
+  </si>
+  <si>
     <t>Isaiah Livers</t>
   </si>
   <si>
-    <t>Jose Alvarado</t>
-  </si>
-  <si>
-    <t>Damian Jones</t>
-  </si>
-  <si>
-    <t>Max Strus</t>
-  </si>
-  <si>
     <t>Justin Holiday</t>
   </si>
   <si>
@@ -775,60 +778,57 @@
     <t>Jalen McDaniels</t>
   </si>
   <si>
-    <t>Eric Gordon</t>
+    <t>Dewayne Dedmon</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Joshua Primo</t>
+  </si>
+  <si>
+    <t>Miles Bridges</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>Ricky Rubio</t>
   </si>
   <si>
     <t>Cam Reddish</t>
   </si>
   <si>
-    <t>Dewayne Dedmon</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
+    <t>Terrence Ross</t>
+  </si>
+  <si>
+    <t>KJ Martin Jr.</t>
+  </si>
+  <si>
+    <t>Thaddeus Young</t>
+  </si>
+  <si>
+    <t>Gabe Vincent</t>
+  </si>
+  <si>
+    <t>Trendon Watford</t>
+  </si>
+  <si>
+    <t>Joe Ingles</t>
   </si>
   <si>
     <t>Nickeil AlexanderWalker</t>
   </si>
   <si>
-    <t>Miles Bridges</t>
-  </si>
-  <si>
-    <t>Joshua Primo</t>
-  </si>
-  <si>
-    <t>Ricky Rubio</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>KJ Martin Jr.</t>
-  </si>
-  <si>
-    <t>Thaddeus Young</t>
-  </si>
-  <si>
-    <t>Terrence Ross</t>
-  </si>
-  <si>
-    <t>Trendon Watford</t>
-  </si>
-  <si>
-    <t>Gabe Vincent</t>
-  </si>
-  <si>
-    <t>Joe Ingles</t>
-  </si>
-  <si>
     <t>JaMychal Green</t>
   </si>
   <si>
+    <t>Juan ToscanoAnderson</t>
+  </si>
+  <si>
     <t>Day'Ron Sharpe</t>
   </si>
   <si>
-    <t>Juan ToscanoAnderson</t>
-  </si>
-  <si>
     <t>Doug McDermott</t>
   </si>
   <si>
@@ -838,27 +838,27 @@
     <t>Danilo Gallinari</t>
   </si>
   <si>
+    <t>Khem Birch</t>
+  </si>
+  <si>
+    <t>Hassan Whiteside</t>
+  </si>
+  <si>
+    <t>Jeremiah RobinsonEarl</t>
+  </si>
+  <si>
     <t>Jalen Williams</t>
   </si>
   <si>
-    <t>Khem Birch</t>
-  </si>
-  <si>
-    <t>Hassan Whiteside</t>
-  </si>
-  <si>
-    <t>Jeremiah RobinsonEarl</t>
+    <t>Tre Mann</t>
+  </si>
+  <si>
+    <t>Davis Bertans</t>
   </si>
   <si>
     <t>Austin Reaves</t>
   </si>
   <si>
-    <t>Tre Mann</t>
-  </si>
-  <si>
-    <t>Davis Bertans</t>
-  </si>
-  <si>
     <t>Goran Dragic</t>
   </si>
   <si>
@@ -877,168 +877,174 @@
     <t>Chimezie Metu</t>
   </si>
   <si>
+    <t>Malachi Flynn</t>
+  </si>
+  <si>
+    <t>Drew Eubanks</t>
+  </si>
+  <si>
+    <t>Facundo Campazzo</t>
+  </si>
+  <si>
+    <t>Dario Saric</t>
+  </si>
+  <si>
+    <t>Paul Reed</t>
+  </si>
+  <si>
     <t>Dyson Daniels</t>
   </si>
   <si>
-    <t>Malachi Flynn</t>
+    <t>Moses Brown</t>
+  </si>
+  <si>
+    <t>Eric Bledsoe</t>
+  </si>
+  <si>
+    <t>Derrick Favors</t>
+  </si>
+  <si>
+    <t>Patty Mills</t>
+  </si>
+  <si>
+    <t>Kemba Walker</t>
+  </si>
+  <si>
+    <t>Trey Lyles</t>
+  </si>
+  <si>
+    <t>LaMarcus Aldridge</t>
+  </si>
+  <si>
+    <t>Serge Ibaka</t>
   </si>
   <si>
     <t>Ochai Agbaji</t>
   </si>
   <si>
-    <t>Facundo Campazzo</t>
-  </si>
-  <si>
-    <t>Drew Eubanks</t>
-  </si>
-  <si>
-    <t>Dario Saric</t>
-  </si>
-  <si>
-    <t>Paul Reed</t>
+    <t>Shaedon Sharpe</t>
+  </si>
+  <si>
+    <t>Gary Harris</t>
+  </si>
+  <si>
+    <t>TyTy Washington Jr.</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
+    <t>Blake Griffin</t>
+  </si>
+  <si>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
+    <t>Malaki Branham</t>
+  </si>
+  <si>
+    <t>Rudy Gay</t>
+  </si>
+  <si>
+    <t>Jaylen Nowell</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Usman Garuba</t>
+  </si>
+  <si>
+    <t>AJ Griffin</t>
   </si>
   <si>
     <t>Danny Green</t>
   </si>
   <si>
-    <t>Moses Brown</t>
-  </si>
-  <si>
-    <t>Derrick Favors</t>
-  </si>
-  <si>
-    <t>Patty Mills</t>
-  </si>
-  <si>
-    <t>Kemba Walker</t>
-  </si>
-  <si>
-    <t>Trey Lyles</t>
-  </si>
-  <si>
-    <t>LaMarcus Aldridge</t>
-  </si>
-  <si>
-    <t>Serge Ibaka</t>
-  </si>
-  <si>
-    <t>Shaedon Sharpe</t>
+    <t>Tomas Satoransky</t>
+  </si>
+  <si>
+    <t>Jeff Green</t>
+  </si>
+  <si>
+    <t>Johnny Davis</t>
+  </si>
+  <si>
+    <t>DeAndre Jordan</t>
+  </si>
+  <si>
+    <t>Omer Yurtseven</t>
+  </si>
+  <si>
+    <t>Carmelo Anthony</t>
   </si>
   <si>
     <t>Udoka Azubuike</t>
   </si>
   <si>
-    <t>Johnny Davis</t>
-  </si>
-  <si>
-    <t>Eric Bledsoe</t>
-  </si>
-  <si>
-    <t>TyTy Washington Jr.</t>
-  </si>
-  <si>
-    <t>Malaki Branham</t>
-  </si>
-  <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
-    <t>Blake Griffin</t>
-  </si>
-  <si>
-    <t>Taurean Prince</t>
+    <t>Cody Zeller</t>
   </si>
   <si>
     <t>Shake Milton</t>
   </si>
   <si>
-    <t>Gary Harris</t>
-  </si>
-  <si>
-    <t>Rudy Gay</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>AJ Griffin</t>
-  </si>
-  <si>
-    <t>Usman Garuba</t>
-  </si>
-  <si>
-    <t>Tomas Satoransky</t>
-  </si>
-  <si>
-    <t>Jaylen Nowell</t>
-  </si>
-  <si>
-    <t>Jeff Green</t>
-  </si>
-  <si>
-    <t>DeAndre Jordan</t>
-  </si>
-  <si>
-    <t>Omer Yurtseven</t>
-  </si>
-  <si>
-    <t>Carmelo Anthony</t>
-  </si>
-  <si>
-    <t>Cody Zeller</t>
-  </si>
-  <si>
     <t>Jeremy Lamb</t>
   </si>
   <si>
+    <t>Zeke Nnaji</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
     <t>Landry Shamet</t>
   </si>
   <si>
+    <t>Jordan McLaughlin</t>
+  </si>
+  <si>
+    <t>Georges Niang</t>
+  </si>
+  <si>
+    <t>Enes Freedom</t>
+  </si>
+  <si>
+    <t>Dwight Howard</t>
+  </si>
+  <si>
+    <t>Paul Millsap</t>
+  </si>
+  <si>
+    <t>Garrison Mathews</t>
+  </si>
+  <si>
+    <t>Justise Winslow</t>
+  </si>
+  <si>
+    <t>Lou Williams</t>
+  </si>
+  <si>
+    <t>James Bouknight</t>
+  </si>
+  <si>
+    <t>Josh Green</t>
+  </si>
+  <si>
     <t>Josh Jackson</t>
   </si>
   <si>
-    <t>Zeke Nnaji</t>
-  </si>
-  <si>
-    <t>Jordan McLaughlin</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
-    <t>Georges Niang</t>
-  </si>
-  <si>
-    <t>Enes Freedom</t>
-  </si>
-  <si>
-    <t>Dwight Howard</t>
-  </si>
-  <si>
-    <t>Paul Millsap</t>
-  </si>
-  <si>
-    <t>Garrison Mathews</t>
-  </si>
-  <si>
     <t>Terence Davis II</t>
   </si>
   <si>
-    <t>Justise Winslow</t>
-  </si>
-  <si>
-    <t>Lou Williams</t>
-  </si>
-  <si>
     <t>Ousmane Dieng</t>
   </si>
   <si>
+    <t>Hamidou Diallo</t>
+  </si>
+  <si>
     <t>Jaden Hardy</t>
   </si>
   <si>
-    <t>James Bouknight</t>
-  </si>
-  <si>
     <t>Jared Butler</t>
   </si>
   <si>
@@ -1069,7 +1075,10 @@
     <t>Dalen Terry</t>
   </si>
   <si>
-    <t>Josh Green</t>
+    <t>Wesley Matthews</t>
+  </si>
+  <si>
+    <t>Furkan Korkmaz</t>
   </si>
   <si>
     <t>Trevor Keels</t>
@@ -1087,15 +1096,12 @@
     <t>Jaylin Williams</t>
   </si>
   <si>
-    <t>Hamidou Diallo</t>
+    <t>Torrey Craig</t>
   </si>
   <si>
     <t>Duane Washington Jr.</t>
   </si>
   <si>
-    <t>Torrey Craig</t>
-  </si>
-  <si>
     <t>Amir Coffey</t>
   </si>
   <si>
@@ -1135,30 +1141,33 @@
     <t>Kessler Edwards</t>
   </si>
   <si>
+    <t>Austin Rivers</t>
+  </si>
+  <si>
     <t>Nemanja Bjelica</t>
   </si>
   <si>
-    <t>Furkan Korkmaz</t>
+    <t>Aaron Holiday</t>
+  </si>
+  <si>
+    <t>Frank Jackson</t>
+  </si>
+  <si>
+    <t>Trevor Ariza</t>
+  </si>
+  <si>
+    <t>Simone Fontecchio</t>
   </si>
   <si>
     <t>George Hill</t>
   </si>
   <si>
-    <t>Frank Jackson</t>
-  </si>
-  <si>
-    <t>Trevor Ariza</t>
-  </si>
-  <si>
     <t>R.J. Hampton Jr.</t>
   </si>
   <si>
     <t>Mike Muscala</t>
   </si>
   <si>
-    <t>Wesley Matthews</t>
-  </si>
-  <si>
     <t>CJ Elleby</t>
   </si>
   <si>
@@ -1174,15 +1183,15 @@
     <t>David Roddy</t>
   </si>
   <si>
-    <t>Simone Fontecchio</t>
-  </si>
-  <si>
     <t>Blake Wesley</t>
   </si>
   <si>
     <t>Bol Bol</t>
   </si>
   <si>
+    <t>Jevon Carter</t>
+  </si>
+  <si>
     <t>Patrick Baldwin Jr.</t>
   </si>
   <si>
@@ -1333,9 +1342,6 @@
     <t>DeMarcus Cousins</t>
   </si>
   <si>
-    <t>Aaron Holiday</t>
-  </si>
-  <si>
     <t>Juancho Hernangomez</t>
   </si>
   <si>
@@ -1363,9 +1369,6 @@
     <t>Dylan Windler</t>
   </si>
   <si>
-    <t>Austin Rivers</t>
-  </si>
-  <si>
     <t>Marquese Chriss</t>
   </si>
   <si>
@@ -1579,31 +1582,31 @@
     <t>MEM</t>
   </si>
   <si>
+    <t>TOR</t>
+  </si>
+  <si>
     <t>CLE</t>
   </si>
   <si>
-    <t>TOR</t>
-  </si>
-  <si>
     <t>WAS</t>
   </si>
   <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
     <t>OKC</t>
   </si>
   <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>DET</t>
-  </si>
-  <si>
     <t>NOR</t>
   </si>
   <si>
+    <t>NYK</t>
+  </si>
+  <si>
     <t>SAS</t>
-  </si>
-  <si>
-    <t>NYK</t>
   </si>
   <si>
     <t>ORL</t>
@@ -1973,7 +1976,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D475"/>
+  <dimension ref="A1:D476"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2004,10 +2007,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2018,10 +2021,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2032,10 +2035,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2046,10 +2049,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2060,10 +2063,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2074,10 +2077,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2088,10 +2091,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D8" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2102,10 +2105,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2116,10 +2119,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2130,10 +2133,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D11" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2144,10 +2147,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2158,10 +2161,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D13" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2172,10 +2175,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D14" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2186,10 +2189,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D15" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2200,10 +2203,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D16" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2214,10 +2217,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D17" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2228,10 +2231,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2242,10 +2245,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D19" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2256,10 +2259,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D20" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2270,10 +2273,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D21" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2284,10 +2287,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D22" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2298,10 +2301,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D23" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2312,10 +2315,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D24" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2326,10 +2329,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D25" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2340,10 +2343,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D26" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2354,10 +2357,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D27" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2368,10 +2371,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D28" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2382,10 +2385,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D29" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2399,7 +2402,7 @@
         <v>487</v>
       </c>
       <c r="D30" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2410,10 +2413,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D31" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2424,10 +2427,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D32" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2438,10 +2441,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D33" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2452,10 +2455,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D34" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2466,10 +2469,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D35" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2480,10 +2483,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D36" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2494,10 +2497,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D37" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2511,7 +2514,7 @@
         <v>481</v>
       </c>
       <c r="D38" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2522,10 +2525,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D39" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2536,10 +2539,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D40" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2550,7 +2553,7 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D41" t="s">
         <v>524</v>
@@ -2564,10 +2567,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D42" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2578,10 +2581,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D43" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2592,10 +2595,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D44" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2606,10 +2609,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D45" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2620,10 +2623,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D46" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2634,10 +2637,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D47" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2648,10 +2651,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D48" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2662,10 +2665,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D49" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2676,10 +2679,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D50" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2690,7 +2693,7 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D51" t="s">
         <v>521</v>
@@ -2704,10 +2707,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D52" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2718,10 +2721,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D53" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2732,10 +2735,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D54" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2746,10 +2749,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D55" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2760,10 +2763,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D56" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2774,10 +2777,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D57" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2788,10 +2791,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="D58" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2802,10 +2805,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D59" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2816,10 +2819,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D60" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2830,10 +2833,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D61" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2844,10 +2847,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D62" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2861,7 +2864,7 @@
         <v>480</v>
       </c>
       <c r="D63" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2872,10 +2875,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D64" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2886,10 +2889,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D65" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2900,10 +2903,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D66" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2914,10 +2917,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D67" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2928,10 +2931,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D68" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2942,10 +2945,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D69" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2956,10 +2959,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D70" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2970,10 +2973,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D71" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2984,10 +2987,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D72" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2998,10 +3001,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D73" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3012,10 +3015,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D74" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3029,7 +3032,7 @@
         <v>480</v>
       </c>
       <c r="D75" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3040,10 +3043,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D76" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3054,10 +3057,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D77" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3068,10 +3071,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D78" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3082,10 +3085,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D79" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3096,7 +3099,7 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D80" t="s">
         <v>525</v>
@@ -3110,7 +3113,7 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D81" t="s">
         <v>528</v>
@@ -3124,10 +3127,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D82" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3138,7 +3141,7 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D83" t="s">
         <v>528</v>
@@ -3152,10 +3155,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D84" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3166,10 +3169,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D85" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3180,7 +3183,7 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D86" t="s">
         <v>521</v>
@@ -3194,10 +3197,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D87" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3208,10 +3211,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D88" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3222,10 +3225,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D89" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3236,10 +3239,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D90" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3250,10 +3253,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D91" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3264,10 +3267,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D92" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3278,10 +3281,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D93" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3292,10 +3295,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D94" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3306,10 +3309,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D95" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3320,10 +3323,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D96" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3334,10 +3337,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D97" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3348,10 +3351,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D98" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3362,10 +3365,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D99" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3376,10 +3379,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D100" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3390,10 +3393,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D101" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3404,10 +3407,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D102" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3418,10 +3421,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D103" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3432,10 +3435,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D104" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3446,10 +3449,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D105" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3460,7 +3463,7 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D106" t="s">
         <v>528</v>
@@ -3474,7 +3477,7 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D107" t="s">
         <v>525</v>
@@ -3488,10 +3491,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D108" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3502,10 +3505,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D109" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3516,10 +3519,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="D110" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3530,10 +3533,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D111" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3544,10 +3547,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D112" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3558,10 +3561,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D113" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3572,10 +3575,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D114" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3586,10 +3589,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D115" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3600,10 +3603,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D116" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3617,7 +3620,7 @@
         <v>480</v>
       </c>
       <c r="D117" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3628,10 +3631,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D118" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3642,10 +3645,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D119" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3670,10 +3673,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D121" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3684,10 +3687,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D122" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3698,10 +3701,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D123" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3712,10 +3715,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D124" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3726,10 +3729,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D125" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3740,10 +3743,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D126" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3754,10 +3757,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D127" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3768,10 +3771,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D128" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3782,10 +3785,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="D129" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3796,7 +3799,7 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="D130" t="s">
         <v>509</v>
@@ -3810,10 +3813,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D131" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3824,10 +3827,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D132" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3838,10 +3841,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D133" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3852,10 +3855,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D134" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3866,10 +3869,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D135" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3880,10 +3883,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D136" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3894,10 +3897,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D137" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3908,10 +3911,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D138" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3922,10 +3925,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D139" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3936,10 +3939,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D140" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3953,7 +3956,7 @@
         <v>481</v>
       </c>
       <c r="D141" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3964,10 +3967,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D142" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3978,10 +3981,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D143" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3992,10 +3995,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D144" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4006,10 +4009,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D145" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4020,10 +4023,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D146" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4034,10 +4037,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D147" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4048,10 +4051,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D148" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4062,10 +4065,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D149" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4076,10 +4079,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D150" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4090,10 +4093,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D151" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4107,7 +4110,7 @@
         <v>480</v>
       </c>
       <c r="D152" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4118,10 +4121,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D153" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4132,10 +4135,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D154" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4146,10 +4149,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D155" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4160,10 +4163,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D156" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4174,10 +4177,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D157" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4188,10 +4191,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D158" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4202,10 +4205,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D159" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4216,10 +4219,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D160" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4230,10 +4233,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D161" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4244,10 +4247,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D162" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4258,10 +4261,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D163" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4272,10 +4275,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D164" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4286,10 +4289,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D165" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4300,10 +4303,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D166" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4314,7 +4317,7 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D167" t="s">
         <v>524</v>
@@ -4328,10 +4331,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D168" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4342,10 +4345,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D169" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4356,7 +4359,7 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D170" t="s">
         <v>528</v>
@@ -4370,7 +4373,7 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D171" t="s">
         <v>528</v>
@@ -4384,10 +4387,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D172" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4398,10 +4401,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D173" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4412,10 +4415,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D174" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4426,10 +4429,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D175" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4443,7 +4446,7 @@
         <v>480</v>
       </c>
       <c r="D176" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4454,10 +4457,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D177" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4468,10 +4471,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D178" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4482,10 +4485,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D179" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4496,10 +4499,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D180" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4510,10 +4513,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D181" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4524,10 +4527,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D182" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4538,10 +4541,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D183" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4552,10 +4555,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D184" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4566,10 +4569,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D185" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4580,10 +4583,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D186" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4594,10 +4597,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D187" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4608,10 +4611,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D188" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4622,10 +4625,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D189" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4636,10 +4639,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D190" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4650,10 +4653,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D191" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4664,10 +4667,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D192" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4678,10 +4681,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D193" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4692,10 +4695,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D194" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4706,10 +4709,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D195" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4720,10 +4723,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D196" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4734,10 +4737,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D197" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4748,10 +4751,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D198" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4762,10 +4765,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D199" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4776,10 +4779,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D200" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4790,10 +4793,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D201" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4804,10 +4807,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D202" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4818,10 +4821,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D203" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4832,10 +4835,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="D204" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4846,10 +4849,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D205" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4860,10 +4863,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="D206" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4874,10 +4877,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="D207" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4888,10 +4891,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D208" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4902,7 +4905,7 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D209" t="s">
         <v>522</v>
@@ -4916,10 +4919,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D210" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4930,10 +4933,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D211" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4944,10 +4947,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D212" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4958,10 +4961,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D213" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4975,7 +4978,7 @@
         <v>480</v>
       </c>
       <c r="D214" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4986,10 +4989,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D215" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5000,10 +5003,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="D216" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5014,10 +5017,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D217" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5028,10 +5031,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D218" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5042,10 +5045,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D219" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5056,10 +5059,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D220" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5070,10 +5073,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D221" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5084,10 +5087,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="D222" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5098,10 +5101,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D223" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5112,10 +5115,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D224" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5126,10 +5129,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D225" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5140,10 +5143,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D226" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5154,10 +5157,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D227" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5168,10 +5171,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D228" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5182,10 +5185,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D229" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5196,10 +5199,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D230" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5210,10 +5213,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D231" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5224,10 +5227,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D232" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5238,10 +5241,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D233" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5252,10 +5255,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="D234" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5266,10 +5269,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D235" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5280,10 +5283,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D236" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5294,10 +5297,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D237" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5308,10 +5311,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D238" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5322,10 +5325,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D239" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5336,10 +5339,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D240" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5350,10 +5353,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D241" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5364,10 +5367,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D242" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5378,10 +5381,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D243" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5392,10 +5395,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D244" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5406,7 +5409,7 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D245" t="s">
         <v>516</v>
@@ -5420,10 +5423,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D246" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5434,10 +5437,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D247" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5448,10 +5451,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D248" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5462,10 +5465,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D249" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5476,10 +5479,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D250" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5490,10 +5493,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D251" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5504,10 +5507,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D252" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5518,10 +5521,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D253" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5532,10 +5535,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D254" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5546,10 +5549,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D255" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5560,10 +5563,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D256" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5574,10 +5577,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D257" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5588,10 +5591,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D258" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5602,10 +5605,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D259" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5616,7 +5619,7 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D260" t="s">
         <v>521</v>
@@ -5630,10 +5633,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D261" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5644,10 +5647,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D262" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5658,10 +5661,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D263" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5672,10 +5675,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D264" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5686,10 +5689,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D265" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5700,10 +5703,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D266" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5717,7 +5720,7 @@
         <v>479</v>
       </c>
       <c r="D267" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5728,10 +5731,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D268" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5742,10 +5745,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D269" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5756,10 +5759,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D270" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5770,10 +5773,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D271" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5784,10 +5787,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D272" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5798,10 +5801,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D273" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5812,10 +5815,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D274" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5826,10 +5829,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D275" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5840,10 +5843,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="D276" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5854,10 +5857,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="D277" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5868,7 +5871,7 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D278" t="s">
         <v>524</v>
@@ -5882,10 +5885,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D279" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5896,10 +5899,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D280" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5910,10 +5913,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D281" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5924,10 +5927,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D282" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5938,10 +5941,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D283" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5952,10 +5955,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="D284" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5966,10 +5969,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D285" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5980,10 +5983,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="D286" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5994,10 +5997,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D287" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6008,10 +6011,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D288" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -6022,10 +6025,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="D289" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -6036,10 +6039,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D290" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -6050,10 +6053,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D291" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6064,10 +6067,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D292" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6078,10 +6081,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D293" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6092,10 +6095,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D294" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6106,10 +6109,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D295" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6120,10 +6123,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D296" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6134,10 +6137,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D297" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6148,10 +6151,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="D298" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6162,10 +6165,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D299" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6176,10 +6179,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D300" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6190,10 +6193,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D301" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6204,10 +6207,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D302" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6218,10 +6221,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D303" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6232,10 +6235,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D304" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6246,10 +6249,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="D305" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6260,7 +6263,7 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D306" t="s">
         <v>532</v>
@@ -6274,10 +6277,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D307" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6288,10 +6291,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D308" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6302,10 +6305,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D309" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6316,10 +6319,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="D310" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6330,10 +6333,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D311" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6344,10 +6347,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D312" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6358,10 +6361,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D313" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6372,10 +6375,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D314" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6386,10 +6389,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D315" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6400,10 +6403,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D316" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6414,10 +6417,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D317" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6428,10 +6431,10 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D318" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6442,10 +6445,10 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D319" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6459,7 +6462,7 @@
         <v>481</v>
       </c>
       <c r="D320" t="s">
-        <v>532</v>
+        <v>505</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6470,10 +6473,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D321" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6484,10 +6487,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D322" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6498,10 +6501,10 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="D323" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6512,10 +6515,10 @@
         <v>326</v>
       </c>
       <c r="C324" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D324" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6526,10 +6529,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D325" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6540,10 +6543,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D326" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6554,10 +6557,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D327" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6568,10 +6571,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D328" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6582,10 +6585,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D329" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6596,10 +6599,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D330" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6610,10 +6613,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="D331" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6624,10 +6627,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D332" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6638,10 +6641,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D333" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6652,10 +6655,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D334" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6666,10 +6669,10 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="D335" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6680,10 +6683,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="D336" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6694,10 +6697,10 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="D337" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6708,10 +6711,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D338" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6722,10 +6725,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="D339" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6736,10 +6739,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D340" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6750,10 +6753,10 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D341" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6764,10 +6767,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="D342" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6778,10 +6781,10 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D343" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6792,10 +6795,10 @@
         <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D344" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6806,10 +6809,10 @@
         <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D345" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6820,10 +6823,10 @@
         <v>348</v>
       </c>
       <c r="C346" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D346" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6834,10 +6837,10 @@
         <v>349</v>
       </c>
       <c r="C347" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D347" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6848,10 +6851,10 @@
         <v>350</v>
       </c>
       <c r="C348" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D348" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6862,10 +6865,10 @@
         <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D349" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6876,10 +6879,10 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D350" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6890,10 +6893,10 @@
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="D351" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6904,10 +6907,10 @@
         <v>354</v>
       </c>
       <c r="C352" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D352" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6918,10 +6921,10 @@
         <v>355</v>
       </c>
       <c r="C353" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="D353" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6932,10 +6935,10 @@
         <v>356</v>
       </c>
       <c r="C354" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="D354" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6946,10 +6949,10 @@
         <v>357</v>
       </c>
       <c r="C355" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="D355" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6960,10 +6963,10 @@
         <v>358</v>
       </c>
       <c r="C356" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D356" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6974,10 +6977,10 @@
         <v>359</v>
       </c>
       <c r="C357" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D357" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6988,10 +6991,10 @@
         <v>360</v>
       </c>
       <c r="C358" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D358" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -7002,10 +7005,10 @@
         <v>361</v>
       </c>
       <c r="C359" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="D359" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -7016,10 +7019,10 @@
         <v>362</v>
       </c>
       <c r="C360" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D360" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -7030,10 +7033,10 @@
         <v>363</v>
       </c>
       <c r="C361" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D361" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -7044,10 +7047,10 @@
         <v>364</v>
       </c>
       <c r="C362" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D362" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -7058,10 +7061,10 @@
         <v>365</v>
       </c>
       <c r="C363" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="D363" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -7072,10 +7075,10 @@
         <v>366</v>
       </c>
       <c r="C364" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D364" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7086,10 +7089,10 @@
         <v>367</v>
       </c>
       <c r="C365" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="D365" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7100,10 +7103,10 @@
         <v>368</v>
       </c>
       <c r="C366" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D366" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7114,10 +7117,10 @@
         <v>369</v>
       </c>
       <c r="C367" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D367" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7128,10 +7131,10 @@
         <v>370</v>
       </c>
       <c r="C368" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D368" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7142,10 +7145,10 @@
         <v>371</v>
       </c>
       <c r="C369" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D369" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7156,10 +7159,10 @@
         <v>372</v>
       </c>
       <c r="C370" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D370" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7170,10 +7173,10 @@
         <v>373</v>
       </c>
       <c r="C371" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="D371" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7184,10 +7187,10 @@
         <v>374</v>
       </c>
       <c r="C372" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D372" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7198,10 +7201,10 @@
         <v>375</v>
       </c>
       <c r="C373" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D373" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7212,10 +7215,10 @@
         <v>376</v>
       </c>
       <c r="C374" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D374" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7226,10 +7229,10 @@
         <v>377</v>
       </c>
       <c r="C375" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D375" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7240,10 +7243,10 @@
         <v>378</v>
       </c>
       <c r="C376" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="D376" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7254,10 +7257,10 @@
         <v>379</v>
       </c>
       <c r="C377" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="D377" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7268,10 +7271,10 @@
         <v>380</v>
       </c>
       <c r="C378" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="D378" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7285,7 +7288,7 @@
         <v>481</v>
       </c>
       <c r="D379" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7296,10 +7299,10 @@
         <v>382</v>
       </c>
       <c r="C380" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D380" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7310,10 +7313,10 @@
         <v>383</v>
       </c>
       <c r="C381" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D381" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7324,10 +7327,10 @@
         <v>384</v>
       </c>
       <c r="C382" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D382" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7338,10 +7341,10 @@
         <v>385</v>
       </c>
       <c r="C383" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="D383" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7352,10 +7355,10 @@
         <v>386</v>
       </c>
       <c r="C384" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D384" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7366,10 +7369,10 @@
         <v>387</v>
       </c>
       <c r="C385" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="D385" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7380,10 +7383,10 @@
         <v>388</v>
       </c>
       <c r="C386" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D386" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7394,10 +7397,10 @@
         <v>389</v>
       </c>
       <c r="C387" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D387" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7408,10 +7411,10 @@
         <v>390</v>
       </c>
       <c r="C388" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="D388" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7422,10 +7425,10 @@
         <v>391</v>
       </c>
       <c r="C389" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="D389" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7436,10 +7439,10 @@
         <v>392</v>
       </c>
       <c r="C390" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D390" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7450,10 +7453,10 @@
         <v>393</v>
       </c>
       <c r="C391" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="D391" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7464,10 +7467,10 @@
         <v>394</v>
       </c>
       <c r="C392" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D392" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7478,10 +7481,10 @@
         <v>395</v>
       </c>
       <c r="C393" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="D393" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7492,10 +7495,10 @@
         <v>396</v>
       </c>
       <c r="C394" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D394" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7506,10 +7509,10 @@
         <v>397</v>
       </c>
       <c r="C395" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="D395" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7520,10 +7523,10 @@
         <v>398</v>
       </c>
       <c r="C396" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D396" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7534,10 +7537,10 @@
         <v>399</v>
       </c>
       <c r="C397" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="D397" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7548,10 +7551,10 @@
         <v>400</v>
       </c>
       <c r="C398" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D398" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7562,10 +7565,10 @@
         <v>401</v>
       </c>
       <c r="C399" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D399" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7576,10 +7579,10 @@
         <v>402</v>
       </c>
       <c r="C400" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D400" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7590,10 +7593,10 @@
         <v>403</v>
       </c>
       <c r="C401" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D401" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7604,10 +7607,10 @@
         <v>404</v>
       </c>
       <c r="C402" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D402" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7618,10 +7621,10 @@
         <v>405</v>
       </c>
       <c r="C403" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="D403" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7632,10 +7635,10 @@
         <v>406</v>
       </c>
       <c r="C404" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="D404" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7646,10 +7649,10 @@
         <v>407</v>
       </c>
       <c r="C405" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D405" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7660,10 +7663,10 @@
         <v>408</v>
       </c>
       <c r="C406" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D406" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7674,7 +7677,7 @@
         <v>409</v>
       </c>
       <c r="C407" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D407" t="s">
         <v>520</v>
@@ -7688,10 +7691,10 @@
         <v>410</v>
       </c>
       <c r="C408" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D408" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7702,10 +7705,10 @@
         <v>411</v>
       </c>
       <c r="C409" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="D409" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7716,10 +7719,10 @@
         <v>412</v>
       </c>
       <c r="C410" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D410" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7730,10 +7733,10 @@
         <v>413</v>
       </c>
       <c r="C411" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D411" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7744,10 +7747,10 @@
         <v>414</v>
       </c>
       <c r="C412" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D412" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7758,10 +7761,10 @@
         <v>415</v>
       </c>
       <c r="C413" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="D413" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7772,10 +7775,10 @@
         <v>416</v>
       </c>
       <c r="C414" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D414" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7786,10 +7789,10 @@
         <v>417</v>
       </c>
       <c r="C415" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D415" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7800,10 +7803,10 @@
         <v>418</v>
       </c>
       <c r="C416" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D416" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7814,10 +7817,10 @@
         <v>419</v>
       </c>
       <c r="C417" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D417" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7828,10 +7831,10 @@
         <v>420</v>
       </c>
       <c r="C418" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D418" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7842,10 +7845,10 @@
         <v>421</v>
       </c>
       <c r="C419" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D419" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7856,10 +7859,10 @@
         <v>422</v>
       </c>
       <c r="C420" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D420" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7870,10 +7873,10 @@
         <v>423</v>
       </c>
       <c r="C421" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D421" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7884,10 +7887,10 @@
         <v>424</v>
       </c>
       <c r="C422" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D422" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7898,10 +7901,10 @@
         <v>425</v>
       </c>
       <c r="C423" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D423" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7912,10 +7915,10 @@
         <v>426</v>
       </c>
       <c r="C424" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D424" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7926,10 +7929,10 @@
         <v>427</v>
       </c>
       <c r="C425" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D425" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7940,10 +7943,10 @@
         <v>428</v>
       </c>
       <c r="C426" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D426" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7954,10 +7957,10 @@
         <v>429</v>
       </c>
       <c r="C427" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D427" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7968,10 +7971,10 @@
         <v>430</v>
       </c>
       <c r="C428" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D428" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7982,10 +7985,10 @@
         <v>431</v>
       </c>
       <c r="C429" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D429" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7996,10 +7999,10 @@
         <v>432</v>
       </c>
       <c r="C430" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D430" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -8010,10 +8013,10 @@
         <v>433</v>
       </c>
       <c r="C431" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D431" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -8024,10 +8027,10 @@
         <v>434</v>
       </c>
       <c r="C432" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="D432" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -8041,7 +8044,7 @@
         <v>492</v>
       </c>
       <c r="D433" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -8052,10 +8055,10 @@
         <v>436</v>
       </c>
       <c r="C434" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D434" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -8066,10 +8069,10 @@
         <v>437</v>
       </c>
       <c r="C435" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="D435" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8080,10 +8083,10 @@
         <v>438</v>
       </c>
       <c r="C436" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D436" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8094,10 +8097,10 @@
         <v>439</v>
       </c>
       <c r="C437" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="D437" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8108,10 +8111,10 @@
         <v>440</v>
       </c>
       <c r="C438" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D438" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8125,7 +8128,7 @@
         <v>495</v>
       </c>
       <c r="D439" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8136,10 +8139,10 @@
         <v>442</v>
       </c>
       <c r="C440" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D440" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8150,10 +8153,10 @@
         <v>443</v>
       </c>
       <c r="C441" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="D441" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8164,10 +8167,10 @@
         <v>444</v>
       </c>
       <c r="C442" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="D442" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8178,10 +8181,10 @@
         <v>445</v>
       </c>
       <c r="C443" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D443" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8192,10 +8195,10 @@
         <v>446</v>
       </c>
       <c r="C444" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="D444" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8206,10 +8209,10 @@
         <v>447</v>
       </c>
       <c r="C445" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D445" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8220,10 +8223,10 @@
         <v>448</v>
       </c>
       <c r="C446" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D446" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8234,10 +8237,10 @@
         <v>449</v>
       </c>
       <c r="C447" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="D447" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8248,10 +8251,10 @@
         <v>450</v>
       </c>
       <c r="C448" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D448" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8262,10 +8265,10 @@
         <v>451</v>
       </c>
       <c r="C449" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D449" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8276,10 +8279,10 @@
         <v>452</v>
       </c>
       <c r="C450" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D450" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8290,10 +8293,10 @@
         <v>453</v>
       </c>
       <c r="C451" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="D451" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8304,10 +8307,10 @@
         <v>454</v>
       </c>
       <c r="C452" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="D452" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8318,10 +8321,10 @@
         <v>455</v>
       </c>
       <c r="C453" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D453" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8332,7 +8335,7 @@
         <v>456</v>
       </c>
       <c r="C454" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D454" t="s">
         <v>531</v>
@@ -8346,7 +8349,7 @@
         <v>457</v>
       </c>
       <c r="C455" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="D455" t="s">
         <v>532</v>
@@ -8360,10 +8363,10 @@
         <v>458</v>
       </c>
       <c r="C456" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D456" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8374,10 +8377,10 @@
         <v>459</v>
       </c>
       <c r="C457" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D457" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8388,10 +8391,10 @@
         <v>460</v>
       </c>
       <c r="C458" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D458" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8402,10 +8405,10 @@
         <v>461</v>
       </c>
       <c r="C459" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D459" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8416,10 +8419,10 @@
         <v>462</v>
       </c>
       <c r="C460" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D460" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8430,10 +8433,10 @@
         <v>463</v>
       </c>
       <c r="C461" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D461" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8444,10 +8447,10 @@
         <v>464</v>
       </c>
       <c r="C462" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D462" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8458,10 +8461,10 @@
         <v>465</v>
       </c>
       <c r="C463" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D463" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8472,10 +8475,10 @@
         <v>466</v>
       </c>
       <c r="C464" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D464" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8489,7 +8492,7 @@
         <v>479</v>
       </c>
       <c r="D465" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8500,10 +8503,10 @@
         <v>468</v>
       </c>
       <c r="C466" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D466" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8514,10 +8517,10 @@
         <v>469</v>
       </c>
       <c r="C467" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D467" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8528,10 +8531,10 @@
         <v>470</v>
       </c>
       <c r="C468" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D468" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8542,10 +8545,10 @@
         <v>471</v>
       </c>
       <c r="C469" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D469" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8556,10 +8559,10 @@
         <v>472</v>
       </c>
       <c r="C470" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D470" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8573,7 +8576,7 @@
         <v>483</v>
       </c>
       <c r="D471" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8584,10 +8587,10 @@
         <v>474</v>
       </c>
       <c r="C472" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D472" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8598,10 +8601,10 @@
         <v>475</v>
       </c>
       <c r="C473" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D473" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8612,10 +8615,10 @@
         <v>476</v>
       </c>
       <c r="C474" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D474" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8629,11 +8632,25 @@
         <v>481</v>
       </c>
       <c r="D475" t="s">
-        <v>532</v>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476">
+        <v>475</v>
+      </c>
+      <c r="B476" t="s">
+        <v>478</v>
+      </c>
+      <c r="C476" t="s">
+        <v>482</v>
+      </c>
+      <c r="D476" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D475"/>
+  <autoFilter ref="A1:D476"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -241,21 +241,21 @@
     <t>Clint Capela</t>
   </si>
   <si>
+    <t>Keldon Johnson</t>
+  </si>
+  <si>
     <t>Tyler Herro</t>
   </si>
   <si>
-    <t>Keldon Johnson</t>
-  </si>
-  <si>
     <t>Jalen Green</t>
   </si>
   <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
     <t>Jerami Grant</t>
   </si>
   <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
     <t>Alperen Sengun</t>
   </si>
   <si>
@@ -280,37 +280,40 @@
     <t>P.J. Washington</t>
   </si>
   <si>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Gordon Hayward</t>
+  </si>
+  <si>
     <t>Buddy Hield</t>
   </si>
   <si>
-    <t>Gary Trent Jr.</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
     <t>Kyle Lowry</t>
   </si>
   <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
-    <t>Gordon Hayward</t>
-  </si>
-  <si>
     <t>Kyle Kuzma</t>
   </si>
   <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
+    <t>Al Horford</t>
+  </si>
+  <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
-    <t>Al Horford</t>
-  </si>
-  <si>
-    <t>Collin Sexton</t>
+    <t>Harrison Barnes</t>
   </si>
   <si>
     <t>Ivica Zubac</t>
@@ -319,19 +322,19 @@
     <t>Keegan Murray</t>
   </si>
   <si>
-    <t>Harrison Barnes</t>
-  </si>
-  <si>
     <t>Devin Vassell</t>
   </si>
   <si>
     <t>Kevin Porter Jr.</t>
   </si>
   <si>
+    <t>Robert Covington</t>
+  </si>
+  <si>
     <t>Bobby Portis Jr.</t>
   </si>
   <si>
-    <t>Robert Covington</t>
+    <t>RJ Barrett</t>
   </si>
   <si>
     <t>Jaren Jackson Jr.</t>
@@ -343,93 +346,90 @@
     <t>Franz Wagner</t>
   </si>
   <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
     <t>Isaiah Stewart</t>
   </si>
   <si>
+    <t>Malcolm Brogdon</t>
+  </si>
+  <si>
+    <t>Herbert Jones</t>
+  </si>
+  <si>
+    <t>Bogdan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
+    <t>Brook Lopez</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Nic Claxton</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Monte Morris</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Mo Bamba</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Derrick White</t>
+  </si>
+  <si>
+    <t>Dorian FinneySmith</t>
+  </si>
+  <si>
+    <t>Bojan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>De'Anthony Melton</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Jarred Vanderbilt</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Onyeka Okongwu</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
-    <t>Malcolm Brogdon</t>
-  </si>
-  <si>
-    <t>Herbert Jones</t>
-  </si>
-  <si>
-    <t>Bogdan Bogdanovic</t>
-  </si>
-  <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
-    <t>Brook Lopez</t>
-  </si>
-  <si>
-    <t>Spencer Dinwiddie</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Nic Claxton</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>Monte Morris</t>
-  </si>
-  <si>
-    <t>Bojan Bogdanovic</t>
-  </si>
-  <si>
-    <t>Dorian FinneySmith</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Mo Bamba</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Cole Anthony</t>
-  </si>
-  <si>
-    <t>De'Anthony Melton</t>
-  </si>
-  <si>
-    <t>Derrick White</t>
-  </si>
-  <si>
-    <t>Jarred Vanderbilt</t>
-  </si>
-  <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Onyeka Okongwu</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
     <t>Jae'Sean Tate</t>
   </si>
   <si>
@@ -439,12 +439,12 @@
     <t>Kevin Huerter</t>
   </si>
   <si>
+    <t>Will Barton</t>
+  </si>
+  <si>
     <t>Richaun Holmes</t>
   </si>
   <si>
-    <t>Will Barton</t>
-  </si>
-  <si>
     <t>Reggie Jackson</t>
   </si>
   <si>
@@ -454,66 +454,69 @@
     <t>Steven Adams</t>
   </si>
   <si>
+    <t>Luguentz Dort</t>
+  </si>
+  <si>
     <t>Patrick Williams</t>
   </si>
   <si>
+    <t>Bones Hyland</t>
+  </si>
+  <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
     <t>Matisse Thybulle</t>
   </si>
   <si>
-    <t>Bones Hyland</t>
+    <t>Thomas Bryant</t>
+  </si>
+  <si>
+    <t>Andre Drummond</t>
+  </si>
+  <si>
+    <t>Markelle Fultz</t>
   </si>
   <si>
     <t>Kyle Anderson</t>
   </si>
   <si>
+    <t>Aleksej Pokusevski</t>
+  </si>
+  <si>
+    <t>Mason Plumlee</t>
+  </si>
+  <si>
     <t>Royce O'Neale</t>
   </si>
   <si>
-    <t>Thomas Bryant</t>
-  </si>
-  <si>
-    <t>Andre Drummond</t>
-  </si>
-  <si>
-    <t>Luguentz Dort</t>
-  </si>
-  <si>
-    <t>Aleksej Pokusevski</t>
-  </si>
-  <si>
-    <t>Markelle Fultz</t>
-  </si>
-  <si>
-    <t>Mason Plumlee</t>
+    <t>Isaiah Hartenstein</t>
   </si>
   <si>
     <t>Seth Curry</t>
   </si>
   <si>
-    <t>Isaiah Hartenstein</t>
-  </si>
-  <si>
     <t>Marvin Bagley III</t>
   </si>
   <si>
+    <t>Tre Jones</t>
+  </si>
+  <si>
+    <t>Russell Westbrook III</t>
+  </si>
+  <si>
+    <t>Chuma Okeke</t>
+  </si>
+  <si>
     <t>Bruce Brown Jr.</t>
   </si>
   <si>
-    <t>Tre Jones</t>
-  </si>
-  <si>
-    <t>Russell Westbrook III</t>
-  </si>
-  <si>
-    <t>Chuma Okeke</t>
-  </si>
-  <si>
     <t>Kevin Love</t>
   </si>
   <si>
+    <t>Chris Duarte</t>
+  </si>
+  <si>
     <t>Caris LeVert</t>
   </si>
   <si>
@@ -523,72 +526,69 @@
     <t>Isaiah Jackson</t>
   </si>
   <si>
-    <t>Chris Duarte</t>
-  </si>
-  <si>
     <t>Alex Caruso</t>
   </si>
   <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Obi Toppin</t>
+  </si>
+  <si>
+    <t>Reggie Bullock</t>
+  </si>
+  <si>
+    <t>Bennedict Mathurin</t>
+  </si>
+  <si>
+    <t>Killian Hayes</t>
+  </si>
+  <si>
+    <t>Darius Bazley</t>
+  </si>
+  <si>
+    <t>Tim Hardaway Jr.</t>
+  </si>
+  <si>
+    <t>Jae Crowder</t>
+  </si>
+  <si>
+    <t>Kelly Olynyk</t>
+  </si>
+  <si>
+    <t>Chris Boucher</t>
+  </si>
+  <si>
     <t>Jonathan Isaac</t>
   </si>
   <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
-    <t>Obi Toppin</t>
-  </si>
-  <si>
-    <t>Bennedict Mathurin</t>
-  </si>
-  <si>
-    <t>Reggie Bullock</t>
-  </si>
-  <si>
-    <t>Tim Hardaway Jr.</t>
-  </si>
-  <si>
-    <t>Killian Hayes</t>
-  </si>
-  <si>
-    <t>Darius Bazley</t>
-  </si>
-  <si>
-    <t>Jae Crowder</t>
-  </si>
-  <si>
-    <t>Kelly Olynyk</t>
-  </si>
-  <si>
-    <t>Chris Boucher</t>
-  </si>
-  <si>
     <t>Kevon Looney</t>
   </si>
   <si>
+    <t>Jaxson Hayes</t>
+  </si>
+  <si>
     <t>Evan Fournier</t>
   </si>
   <si>
-    <t>Jaxson Hayes</t>
+    <t>James Wiseman</t>
+  </si>
+  <si>
+    <t>Kentavious CaldwellPope</t>
+  </si>
+  <si>
+    <t>Dennis Schroder</t>
+  </si>
+  <si>
+    <t>Patrick Beverley</t>
   </si>
   <si>
     <t>Otto Porter Jr.</t>
   </si>
   <si>
-    <t>James Wiseman</t>
-  </si>
-  <si>
-    <t>Kentavious CaldwellPope</t>
-  </si>
-  <si>
-    <t>Dennis Schroder</t>
-  </si>
-  <si>
-    <t>Patrick Beverley</t>
-  </si>
-  <si>
     <t>Tyus Jones</t>
   </si>
   <si>
@@ -601,6 +601,9 @@
     <t>Victor Oladipo</t>
   </si>
   <si>
+    <t>Ziaire Williams</t>
+  </si>
+  <si>
     <t>Pat Connaughton</t>
   </si>
   <si>
@@ -610,6 +613,9 @@
     <t>Devonte' Graham</t>
   </si>
   <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
     <t>Larry Nance Jr.</t>
   </si>
   <si>
@@ -619,153 +625,147 @@
     <t>Montrezl Harrell</t>
   </si>
   <si>
+    <t>Josh Richardson</t>
+  </si>
+  <si>
     <t>Kendrick Nunn</t>
   </si>
   <si>
     <t>John Wall</t>
   </si>
   <si>
+    <t>Isaac Okoro</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>T.J. McConnell</t>
+  </si>
+  <si>
+    <t>Maxi Kleber</t>
+  </si>
+  <si>
+    <t>Cameron Payne</t>
+  </si>
+  <si>
+    <t>Cody Martin</t>
+  </si>
+  <si>
+    <t>Nerlens Noel</t>
+  </si>
+  <si>
+    <t>Precious Achiuwa</t>
+  </si>
+  <si>
+    <t>Gary Payton II</t>
+  </si>
+  <si>
+    <t>Nassir Little</t>
+  </si>
+  <si>
     <t>Jonathan Kuminga</t>
   </si>
   <si>
-    <t>T.J. McConnell</t>
-  </si>
-  <si>
-    <t>Cody Martin</t>
-  </si>
-  <si>
-    <t>Maxi Kleber</t>
-  </si>
-  <si>
-    <t>Nassir Little</t>
-  </si>
-  <si>
-    <t>Cameron Payne</t>
-  </si>
-  <si>
-    <t>Nerlens Noel</t>
-  </si>
-  <si>
-    <t>Precious Achiuwa</t>
-  </si>
-  <si>
-    <t>Josh Richardson</t>
-  </si>
-  <si>
-    <t>Isaac Okoro</t>
-  </si>
-  <si>
-    <t>Gary Payton II</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
     <t>Talen HortonTucker</t>
   </si>
   <si>
     <t>Delon Wright</t>
   </si>
   <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Davion Mitchell</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
+    <t>Marcus Morris Sr.</t>
+  </si>
+  <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Luke Kennard</t>
+  </si>
+  <si>
+    <t>Derrick Rose</t>
+  </si>
+  <si>
+    <t>P.J. Tucker</t>
+  </si>
+  <si>
     <t>T.J. Warren</t>
   </si>
   <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Davion Mitchell</t>
-  </si>
-  <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
-    <t>Ziaire Williams</t>
-  </si>
-  <si>
-    <t>Marcus Morris Sr.</t>
-  </si>
-  <si>
-    <t>Quentin Grimes</t>
+    <t>Isaiah Livers</t>
   </si>
   <si>
     <t>Grant Williams</t>
   </si>
   <si>
-    <t>Derrick Rose</t>
-  </si>
-  <si>
-    <t>P.J. Tucker</t>
+    <t>Xavier Tillman</t>
+  </si>
+  <si>
+    <t>Josh Christopher</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Isaiah Roby</t>
+  </si>
+  <si>
+    <t>Nicolas Batum</t>
+  </si>
+  <si>
+    <t>Malik Monk</t>
+  </si>
+  <si>
+    <t>Lonnie Walker IV</t>
+  </si>
+  <si>
+    <t>Caleb Martin</t>
   </si>
   <si>
     <t>Moses Moody</t>
   </si>
   <si>
-    <t>Xavier Tillman</t>
-  </si>
-  <si>
-    <t>Luke Kennard</t>
-  </si>
-  <si>
-    <t>Josh Christopher</t>
-  </si>
-  <si>
-    <t>Isaiah Roby</t>
+    <t>Zach Collins</t>
+  </si>
+  <si>
+    <t>Terance Mann</t>
   </si>
   <si>
     <t>Duncan Robinson</t>
   </si>
   <si>
-    <t>Malik Monk</t>
+    <t>Alec Burks</t>
+  </si>
+  <si>
+    <t>Max Strus</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Jose Alvarado</t>
   </si>
   <si>
     <t>Tari Eason</t>
   </si>
   <si>
-    <t>Lonnie Walker IV</t>
-  </si>
-  <si>
-    <t>Caleb Martin</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
-    <t>Zach Collins</t>
-  </si>
-  <si>
     <t>Eric Gordon</t>
   </si>
   <si>
-    <t>Alec Burks</t>
-  </si>
-  <si>
-    <t>Terance Mann</t>
-  </si>
-  <si>
-    <t>Max Strus</t>
-  </si>
-  <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Nicolas Batum</t>
-  </si>
-  <si>
-    <t>Jose Alvarado</t>
-  </si>
-  <si>
     <t>Damian Jones</t>
   </si>
   <si>
-    <t>Isaiah Livers</t>
-  </si>
-  <si>
     <t>Justin Holiday</t>
   </si>
   <si>
@@ -778,102 +778,102 @@
     <t>Jalen McDaniels</t>
   </si>
   <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
     <t>Dewayne Dedmon</t>
   </si>
   <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
     <t>Joshua Primo</t>
   </si>
   <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>Doug McDermott</t>
+  </si>
+  <si>
+    <t>Ricky Rubio</t>
+  </si>
+  <si>
+    <t>Cam Reddish</t>
+  </si>
+  <si>
+    <t>Terrence Ross</t>
+  </si>
+  <si>
+    <t>Joe Ingles</t>
+  </si>
+  <si>
+    <t>Thaddeus Young</t>
+  </si>
+  <si>
+    <t>Gabe Vincent</t>
+  </si>
+  <si>
+    <t>Trendon Watford</t>
+  </si>
+  <si>
     <t>Miles Bridges</t>
   </si>
   <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Ricky Rubio</t>
-  </si>
-  <si>
-    <t>Cam Reddish</t>
-  </si>
-  <si>
-    <t>Terrence Ross</t>
+    <t>Nickeil AlexanderWalker</t>
+  </si>
+  <si>
+    <t>JaMychal Green</t>
+  </si>
+  <si>
+    <t>Day'Ron Sharpe</t>
   </si>
   <si>
     <t>KJ Martin Jr.</t>
   </si>
   <si>
-    <t>Thaddeus Young</t>
-  </si>
-  <si>
-    <t>Gabe Vincent</t>
-  </si>
-  <si>
-    <t>Trendon Watford</t>
-  </si>
-  <si>
-    <t>Joe Ingles</t>
-  </si>
-  <si>
-    <t>Nickeil AlexanderWalker</t>
-  </si>
-  <si>
-    <t>JaMychal Green</t>
+    <t>Corey Kispert</t>
+  </si>
+  <si>
+    <t>Khem Birch</t>
+  </si>
+  <si>
+    <t>Hassan Whiteside</t>
+  </si>
+  <si>
+    <t>Jeremiah RobinsonEarl</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Tre Mann</t>
+  </si>
+  <si>
+    <t>Davis Bertans</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Goran Dragic</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Theo Maledon</t>
   </si>
   <si>
     <t>Juan ToscanoAnderson</t>
   </si>
   <si>
-    <t>Day'Ron Sharpe</t>
-  </si>
-  <si>
-    <t>Doug McDermott</t>
-  </si>
-  <si>
-    <t>Corey Kispert</t>
+    <t>Oshae Brissett</t>
+  </si>
+  <si>
+    <t>Daniel Theis</t>
   </si>
   <si>
     <t>Danilo Gallinari</t>
   </si>
   <si>
-    <t>Khem Birch</t>
-  </si>
-  <si>
-    <t>Hassan Whiteside</t>
-  </si>
-  <si>
-    <t>Jeremiah RobinsonEarl</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Tre Mann</t>
-  </si>
-  <si>
-    <t>Davis Bertans</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Goran Dragic</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
-    <t>Theo Maledon</t>
-  </si>
-  <si>
-    <t>Oshae Brissett</t>
-  </si>
-  <si>
-    <t>Daniel Theis</t>
-  </si>
-  <si>
     <t>Chimezie Metu</t>
   </si>
   <si>
@@ -898,12 +898,12 @@
     <t>Moses Brown</t>
   </si>
   <si>
+    <t>Derrick Favors</t>
+  </si>
+  <si>
     <t>Eric Bledsoe</t>
   </si>
   <si>
-    <t>Derrick Favors</t>
-  </si>
-  <si>
     <t>Patty Mills</t>
   </si>
   <si>
@@ -934,10 +934,13 @@
     <t>Goga Bitadze</t>
   </si>
   <si>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
     <t>Blake Griffin</t>
   </si>
   <si>
-    <t>Taurean Prince</t>
+    <t>Garrison Mathews</t>
   </si>
   <si>
     <t>Malaki Branham</t>
@@ -955,18 +958,21 @@
     <t>Usman Garuba</t>
   </si>
   <si>
+    <t>Danny Green</t>
+  </si>
+  <si>
+    <t>Tomas Satoransky</t>
+  </si>
+  <si>
     <t>AJ Griffin</t>
   </si>
   <si>
-    <t>Danny Green</t>
-  </si>
-  <si>
-    <t>Tomas Satoransky</t>
-  </si>
-  <si>
     <t>Jeff Green</t>
   </si>
   <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
     <t>Johnny Davis</t>
   </si>
   <si>
@@ -976,48 +982,42 @@
     <t>Omer Yurtseven</t>
   </si>
   <si>
+    <t>Udoka Azubuike</t>
+  </si>
+  <si>
+    <t>Cody Zeller</t>
+  </si>
+  <si>
+    <t>Shake Milton</t>
+  </si>
+  <si>
+    <t>Jeremy Lamb</t>
+  </si>
+  <si>
+    <t>Zeke Nnaji</t>
+  </si>
+  <si>
+    <t>Landry Shamet</t>
+  </si>
+  <si>
+    <t>Jordan McLaughlin</t>
+  </si>
+  <si>
+    <t>Enes Freedom</t>
+  </si>
+  <si>
+    <t>Dwight Howard</t>
+  </si>
+  <si>
+    <t>Paul Millsap</t>
+  </si>
+  <si>
     <t>Carmelo Anthony</t>
   </si>
   <si>
-    <t>Udoka Azubuike</t>
-  </si>
-  <si>
-    <t>Cody Zeller</t>
-  </si>
-  <si>
-    <t>Shake Milton</t>
-  </si>
-  <si>
-    <t>Jeremy Lamb</t>
-  </si>
-  <si>
-    <t>Zeke Nnaji</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
-    <t>Landry Shamet</t>
-  </si>
-  <si>
-    <t>Jordan McLaughlin</t>
-  </si>
-  <si>
     <t>Georges Niang</t>
   </si>
   <si>
-    <t>Enes Freedom</t>
-  </si>
-  <si>
-    <t>Dwight Howard</t>
-  </si>
-  <si>
-    <t>Paul Millsap</t>
-  </si>
-  <si>
-    <t>Garrison Mathews</t>
-  </si>
-  <si>
     <t>Justise Winslow</t>
   </si>
   <si>
@@ -1033,18 +1033,21 @@
     <t>Josh Jackson</t>
   </si>
   <si>
+    <t>Cedi Osman</t>
+  </si>
+  <si>
+    <t>Ousmane Dieng</t>
+  </si>
+  <si>
+    <t>Hamidou Diallo</t>
+  </si>
+  <si>
+    <t>Jaden Hardy</t>
+  </si>
+  <si>
     <t>Terence Davis II</t>
   </si>
   <si>
-    <t>Ousmane Dieng</t>
-  </si>
-  <si>
-    <t>Hamidou Diallo</t>
-  </si>
-  <si>
-    <t>Jaden Hardy</t>
-  </si>
-  <si>
     <t>Jared Butler</t>
   </si>
   <si>
@@ -1081,114 +1084,111 @@
     <t>Furkan Korkmaz</t>
   </si>
   <si>
+    <t>Danuel House Jr.</t>
+  </si>
+  <si>
+    <t>John Konchar</t>
+  </si>
+  <si>
+    <t>Wendell Moore Jr.</t>
+  </si>
+  <si>
+    <t>Jaylin Williams</t>
+  </si>
+  <si>
+    <t>Torrey Craig</t>
+  </si>
+  <si>
+    <t>Duane Washington Jr.</t>
+  </si>
+  <si>
+    <t>Amir Coffey</t>
+  </si>
+  <si>
+    <t>Kenrich Williams</t>
+  </si>
+  <si>
+    <t>Elfrid Payton</t>
+  </si>
+  <si>
+    <t>Eric Paschall</t>
+  </si>
+  <si>
+    <t>Aaron Wiggins</t>
+  </si>
+  <si>
+    <t>Dalano Banton</t>
+  </si>
+  <si>
+    <t>Moritz Wagner</t>
+  </si>
+  <si>
+    <t>Willy Hernangomez</t>
+  </si>
+  <si>
+    <t>Brandon Goodwin</t>
+  </si>
+  <si>
+    <t>Peyton Watson</t>
+  </si>
+  <si>
+    <t>Kessler Edwards</t>
+  </si>
+  <si>
+    <t>Austin Rivers</t>
+  </si>
+  <si>
+    <t>Nemanja Bjelica</t>
+  </si>
+  <si>
+    <t>Aaron Holiday</t>
+  </si>
+  <si>
+    <t>Frank Jackson</t>
+  </si>
+  <si>
+    <t>Trevor Ariza</t>
+  </si>
+  <si>
+    <t>Simone Fontecchio</t>
+  </si>
+  <si>
     <t>Trevor Keels</t>
   </si>
   <si>
-    <t>John Konchar</t>
-  </si>
-  <si>
-    <t>Wendell Moore Jr.</t>
+    <t>George Hill</t>
+  </si>
+  <si>
+    <t>Mike Muscala</t>
+  </si>
+  <si>
+    <t>R.J. Hampton Jr.</t>
+  </si>
+  <si>
+    <t>CJ Elleby</t>
+  </si>
+  <si>
+    <t>Vernon Carey Jr.</t>
+  </si>
+  <si>
+    <t>Jock Landale</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>David Roddy</t>
+  </si>
+  <si>
+    <t>Blake Wesley</t>
+  </si>
+  <si>
+    <t>Bol Bol</t>
   </si>
   <si>
     <t>Nikola Jovic</t>
   </si>
   <si>
-    <t>Jaylin Williams</t>
-  </si>
-  <si>
-    <t>Torrey Craig</t>
-  </si>
-  <si>
-    <t>Duane Washington Jr.</t>
-  </si>
-  <si>
-    <t>Amir Coffey</t>
-  </si>
-  <si>
-    <t>Kenrich Williams</t>
-  </si>
-  <si>
-    <t>Cedi Osman</t>
-  </si>
-  <si>
-    <t>Elfrid Payton</t>
-  </si>
-  <si>
-    <t>Eric Paschall</t>
-  </si>
-  <si>
-    <t>Aaron Wiggins</t>
-  </si>
-  <si>
-    <t>Dalano Banton</t>
-  </si>
-  <si>
-    <t>Danuel House Jr.</t>
-  </si>
-  <si>
-    <t>Moritz Wagner</t>
-  </si>
-  <si>
-    <t>Willy Hernangomez</t>
-  </si>
-  <si>
-    <t>Brandon Goodwin</t>
-  </si>
-  <si>
-    <t>Peyton Watson</t>
-  </si>
-  <si>
-    <t>Kessler Edwards</t>
-  </si>
-  <si>
-    <t>Austin Rivers</t>
-  </si>
-  <si>
-    <t>Nemanja Bjelica</t>
-  </si>
-  <si>
-    <t>Aaron Holiday</t>
-  </si>
-  <si>
-    <t>Frank Jackson</t>
-  </si>
-  <si>
-    <t>Trevor Ariza</t>
-  </si>
-  <si>
-    <t>Simone Fontecchio</t>
-  </si>
-  <si>
-    <t>George Hill</t>
-  </si>
-  <si>
-    <t>R.J. Hampton Jr.</t>
-  </si>
-  <si>
-    <t>Mike Muscala</t>
-  </si>
-  <si>
-    <t>CJ Elleby</t>
-  </si>
-  <si>
-    <t>Vernon Carey Jr.</t>
-  </si>
-  <si>
-    <t>Jock Landale</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>David Roddy</t>
-  </si>
-  <si>
-    <t>Blake Wesley</t>
-  </si>
-  <si>
-    <t>Bol Bol</t>
-  </si>
-  <si>
     <t>Jevon Carter</t>
   </si>
   <si>
@@ -1510,10 +1510,10 @@
     <t>PF,SF</t>
   </si>
   <si>
+    <t>SF,SG</t>
+  </si>
+  <si>
     <t>SG,PG</t>
-  </si>
-  <si>
-    <t>SF,SG</t>
   </si>
   <si>
     <t>G</t>
@@ -2987,10 +2987,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D72" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3001,10 +3001,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D73" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3029,10 +3029,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D75" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3043,10 +3043,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D76" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3172,7 +3172,7 @@
         <v>487</v>
       </c>
       <c r="D85" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3183,10 +3183,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D86" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3197,10 +3197,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D87" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3214,7 +3214,7 @@
         <v>487</v>
       </c>
       <c r="D88" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3225,10 +3225,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D89" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3239,10 +3239,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D90" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3253,10 +3253,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D91" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3281,10 +3281,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D93" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3309,10 +3309,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D95" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3323,10 +3323,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D96" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3337,10 +3337,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D97" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3351,7 +3351,7 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D98" t="s">
         <v>519</v>
@@ -3393,10 +3393,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="D101" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3407,10 +3407,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="D102" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3421,10 +3421,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D103" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3435,10 +3435,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D104" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3449,10 +3449,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D105" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3466,7 +3466,7 @@
         <v>487</v>
       </c>
       <c r="D106" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3494,7 +3494,7 @@
         <v>481</v>
       </c>
       <c r="D108" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3505,10 +3505,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="D109" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3519,10 +3519,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D110" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3533,10 +3533,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D111" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3547,10 +3547,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D112" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3561,10 +3561,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D113" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3578,7 +3578,7 @@
         <v>481</v>
       </c>
       <c r="D114" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3589,10 +3589,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D115" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3603,10 +3603,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D116" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3617,10 +3617,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D117" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3631,10 +3631,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D118" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3645,10 +3645,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D119" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3659,10 +3659,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D120" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3673,10 +3673,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D121" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3687,10 +3687,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D122" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3701,10 +3701,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D123" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3757,10 +3757,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D127" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3785,10 +3785,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D129" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3841,10 +3841,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D133" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3855,10 +3855,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D134" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3911,10 +3911,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D138" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3925,10 +3925,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D139" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3981,10 +3981,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D143" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3998,7 +3998,7 @@
         <v>480</v>
       </c>
       <c r="D144" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4009,10 +4009,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D145" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4023,10 +4023,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D146" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4037,10 +4037,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D147" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4051,10 +4051,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D148" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4068,7 +4068,7 @@
         <v>482</v>
       </c>
       <c r="D149" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4079,10 +4079,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D150" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4093,10 +4093,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D151" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4121,10 +4121,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D153" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4135,10 +4135,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D154" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4149,10 +4149,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D155" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4163,10 +4163,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D156" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4191,10 +4191,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D158" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4208,7 +4208,7 @@
         <v>483</v>
       </c>
       <c r="D159" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4219,10 +4219,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D160" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4233,10 +4233,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D161" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4261,10 +4261,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="D163" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4275,10 +4275,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D164" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4289,10 +4289,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D165" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4303,7 +4303,7 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D166" t="s">
         <v>513</v>
@@ -4331,10 +4331,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D168" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4345,10 +4345,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D169" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4359,7 +4359,7 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D170" t="s">
         <v>528</v>
@@ -4373,10 +4373,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D171" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4401,10 +4401,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D173" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4415,10 +4415,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D174" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4429,10 +4429,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D175" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4446,7 +4446,7 @@
         <v>480</v>
       </c>
       <c r="D176" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4457,10 +4457,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D177" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4474,7 +4474,7 @@
         <v>479</v>
       </c>
       <c r="D178" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4485,10 +4485,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D179" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4513,10 +4513,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D181" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4527,10 +4527,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D182" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4541,10 +4541,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D183" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4555,10 +4555,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D184" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4569,10 +4569,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D185" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4583,10 +4583,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D186" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4597,10 +4597,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D187" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4667,10 +4667,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="D192" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4684,7 +4684,7 @@
         <v>487</v>
       </c>
       <c r="D193" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4695,10 +4695,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D194" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4709,7 +4709,7 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D195" t="s">
         <v>527</v>
@@ -4723,10 +4723,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D196" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4740,7 +4740,7 @@
         <v>479</v>
       </c>
       <c r="D197" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4751,10 +4751,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D198" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4765,10 +4765,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D199" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4779,10 +4779,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D200" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4796,7 +4796,7 @@
         <v>481</v>
       </c>
       <c r="D201" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4807,10 +4807,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D202" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4821,10 +4821,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D203" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4835,10 +4835,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D204" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4852,7 +4852,7 @@
         <v>481</v>
       </c>
       <c r="D205" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4866,7 +4866,7 @@
         <v>479</v>
       </c>
       <c r="D206" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4877,10 +4877,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="D207" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4894,7 +4894,7 @@
         <v>487</v>
       </c>
       <c r="D208" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4905,10 +4905,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D209" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4919,10 +4919,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="D210" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4933,10 +4933,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D211" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4947,10 +4947,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D212" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4961,10 +4961,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D213" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4975,10 +4975,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D214" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4992,7 +4992,7 @@
         <v>481</v>
       </c>
       <c r="D215" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5003,10 +5003,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D216" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5017,7 +5017,7 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D217" t="s">
         <v>519</v>
@@ -5045,10 +5045,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D219" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5059,10 +5059,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D220" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5073,10 +5073,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D221" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5087,10 +5087,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D222" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5101,10 +5101,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="D223" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5115,10 +5115,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="D224" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5129,10 +5129,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="D225" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5143,10 +5143,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D226" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5157,10 +5157,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D227" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5185,10 +5185,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D229" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5199,10 +5199,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D230" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5213,10 +5213,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D231" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5227,10 +5227,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D232" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5269,10 +5269,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="D235" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5297,10 +5297,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="D237" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5314,7 +5314,7 @@
         <v>487</v>
       </c>
       <c r="D238" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5325,10 +5325,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="D239" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5381,10 +5381,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D243" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5395,10 +5395,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="D244" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5409,10 +5409,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D245" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5423,10 +5423,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D246" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5493,10 +5493,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D251" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5507,10 +5507,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D252" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5535,10 +5535,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D254" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5549,10 +5549,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D255" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5605,10 +5605,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D259" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5661,10 +5661,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D263" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5703,10 +5703,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D266" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5717,10 +5717,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D267" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5731,10 +5731,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D268" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5745,10 +5745,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D269" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5759,10 +5759,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D270" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5773,10 +5773,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D271" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5787,10 +5787,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D272" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5801,7 +5801,7 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="D273" t="s">
         <v>526</v>
@@ -5815,10 +5815,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="D274" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5829,10 +5829,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D275" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5843,10 +5843,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D276" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5857,10 +5857,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D277" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5871,10 +5871,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D278" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5885,10 +5885,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="D279" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5899,10 +5899,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D280" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5913,7 +5913,7 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D281" t="s">
         <v>513</v>
@@ -5927,10 +5927,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D282" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -6053,10 +6053,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D291" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6067,10 +6067,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D292" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6221,10 +6221,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D303" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6235,10 +6235,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D304" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6249,10 +6249,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D305" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6263,10 +6263,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D306" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6277,10 +6277,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D307" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6291,10 +6291,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D308" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6305,10 +6305,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D309" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6319,10 +6319,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D310" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6361,10 +6361,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D313" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6375,10 +6375,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D314" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6389,10 +6389,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="D315" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6403,10 +6403,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D316" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6417,10 +6417,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D317" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6434,7 +6434,7 @@
         <v>482</v>
       </c>
       <c r="D318" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6448,7 +6448,7 @@
         <v>482</v>
       </c>
       <c r="D319" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6459,10 +6459,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D320" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6473,10 +6473,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D321" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6487,10 +6487,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D322" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6501,10 +6501,10 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="D323" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6543,10 +6543,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D326" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6571,7 +6571,7 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D328" t="s">
         <v>533</v>
@@ -6585,7 +6585,7 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D329" t="s">
         <v>533</v>
@@ -6599,10 +6599,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D330" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6683,10 +6683,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D336" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6739,10 +6739,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D340" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6753,10 +6753,10 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D341" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6767,10 +6767,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="D342" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6781,10 +6781,10 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="D343" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6795,10 +6795,10 @@
         <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D344" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6809,10 +6809,10 @@
         <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D345" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6823,10 +6823,10 @@
         <v>348</v>
       </c>
       <c r="C346" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D346" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6837,10 +6837,10 @@
         <v>349</v>
       </c>
       <c r="C347" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D347" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6851,10 +6851,10 @@
         <v>350</v>
       </c>
       <c r="C348" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D348" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6865,10 +6865,10 @@
         <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D349" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6879,10 +6879,10 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D350" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6896,7 +6896,7 @@
         <v>487</v>
       </c>
       <c r="D351" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6907,10 +6907,10 @@
         <v>354</v>
       </c>
       <c r="C352" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D352" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6921,10 +6921,10 @@
         <v>355</v>
       </c>
       <c r="C353" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="D353" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6935,10 +6935,10 @@
         <v>356</v>
       </c>
       <c r="C354" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D354" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6949,10 +6949,10 @@
         <v>357</v>
       </c>
       <c r="C355" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="D355" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -7005,7 +7005,7 @@
         <v>361</v>
       </c>
       <c r="C359" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D359" t="s">
         <v>518</v>
@@ -7033,10 +7033,10 @@
         <v>363</v>
       </c>
       <c r="C361" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D361" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -7047,10 +7047,10 @@
         <v>364</v>
       </c>
       <c r="C362" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D362" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -7061,10 +7061,10 @@
         <v>365</v>
       </c>
       <c r="C363" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D363" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -7075,10 +7075,10 @@
         <v>366</v>
       </c>
       <c r="C364" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="D364" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7089,10 +7089,10 @@
         <v>367</v>
       </c>
       <c r="C365" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="D365" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7103,10 +7103,10 @@
         <v>368</v>
       </c>
       <c r="C366" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D366" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7117,10 +7117,10 @@
         <v>369</v>
       </c>
       <c r="C367" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D367" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7131,10 +7131,10 @@
         <v>370</v>
       </c>
       <c r="C368" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="D368" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7145,10 +7145,10 @@
         <v>371</v>
       </c>
       <c r="C369" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="D369" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7159,10 +7159,10 @@
         <v>372</v>
       </c>
       <c r="C370" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D370" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7173,10 +7173,10 @@
         <v>373</v>
       </c>
       <c r="C371" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D371" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7190,7 +7190,7 @@
         <v>481</v>
       </c>
       <c r="D372" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7201,10 +7201,10 @@
         <v>375</v>
       </c>
       <c r="C373" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D373" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7215,10 +7215,10 @@
         <v>376</v>
       </c>
       <c r="C374" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D374" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7229,10 +7229,10 @@
         <v>377</v>
       </c>
       <c r="C375" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="D375" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7243,10 +7243,10 @@
         <v>378</v>
       </c>
       <c r="C376" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="D376" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7257,10 +7257,10 @@
         <v>379</v>
       </c>
       <c r="C377" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="D377" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7271,10 +7271,10 @@
         <v>380</v>
       </c>
       <c r="C378" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D378" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7299,10 +7299,10 @@
         <v>382</v>
       </c>
       <c r="C380" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="D380" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7313,10 +7313,10 @@
         <v>383</v>
       </c>
       <c r="C381" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="D381" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7330,7 +7330,7 @@
         <v>482</v>
       </c>
       <c r="D382" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7341,10 +7341,10 @@
         <v>385</v>
       </c>
       <c r="C383" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D383" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7355,10 +7355,10 @@
         <v>386</v>
       </c>
       <c r="C384" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D384" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7369,10 +7369,10 @@
         <v>387</v>
       </c>
       <c r="C385" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D385" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7383,10 +7383,10 @@
         <v>388</v>
       </c>
       <c r="C386" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="D386" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7397,10 +7397,10 @@
         <v>389</v>
       </c>
       <c r="C387" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="D387" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7579,7 +7579,7 @@
         <v>402</v>
       </c>
       <c r="C400" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D400" t="s">
         <v>514</v>
@@ -8027,7 +8027,7 @@
         <v>434</v>
       </c>
       <c r="C432" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D432" t="s">
         <v>505</v>
@@ -8195,7 +8195,7 @@
         <v>446</v>
       </c>
       <c r="C444" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D444" t="s">
         <v>533</v>
@@ -8237,7 +8237,7 @@
         <v>449</v>
       </c>
       <c r="C447" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D447" t="s">
         <v>522</v>

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -40,12 +40,12 @@
     <t>Joel Embiid</t>
   </si>
   <si>
+    <t>Luka Doncic</t>
+  </si>
+  <si>
     <t>Kevin Durant</t>
   </si>
   <si>
-    <t>Luka Doncic</t>
-  </si>
-  <si>
     <t>Jayson Tatum</t>
   </si>
   <si>
@@ -55,12 +55,12 @@
     <t>KarlAnthony Towns</t>
   </si>
   <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
     <t>Trae Young</t>
   </si>
   <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
     <t>LaMelo Ball</t>
   </si>
   <si>
@@ -79,12 +79,12 @@
     <t>Anthony Davis</t>
   </si>
   <si>
+    <t>Paul George</t>
+  </si>
+  <si>
     <t>Bam Adebayo</t>
   </si>
   <si>
-    <t>Paul George</t>
-  </si>
-  <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
@@ -94,48 +94,48 @@
     <t>Anthony Edwards</t>
   </si>
   <si>
+    <t>Ja Morant</t>
+  </si>
+  <si>
     <t>Dejounte Murray</t>
   </si>
   <si>
-    <t>Ja Morant</t>
-  </si>
-  <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Darius Garland</t>
+    <t>Rudy Gobert</t>
   </si>
   <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
-    <t>Rudy Gobert</t>
+    <t>Kawhi Leonard</t>
   </si>
   <si>
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>Kawhi Leonard</t>
+    <t>Cade Cunningham</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
   </si>
   <si>
     <t>Deandre Ayton</t>
   </si>
   <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
     <t>DeMar DeRozan</t>
   </si>
   <si>
-    <t>Cade Cunningham</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
     <t>Nikola Vucevic</t>
   </si>
   <si>
@@ -145,207 +145,207 @@
     <t>Kristaps Porzingis</t>
   </si>
   <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
     <t>Jarrett Allen</t>
   </si>
   <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
     <t>Jrue Holiday</t>
   </si>
   <si>
     <t>Khris Middleton</t>
   </si>
   <si>
+    <t>Evan Mobley</t>
+  </si>
+  <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
-    <t>Evan Mobley</t>
-  </si>
-  <si>
     <t>Terry Rozier</t>
   </si>
   <si>
     <t>Zion Williamson</t>
   </si>
   <si>
+    <t>Scottie Barnes</t>
+  </si>
+  <si>
     <t>Jonas Valanciunas</t>
   </si>
   <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Robert Williams III</t>
+  </si>
+  <si>
+    <t>Mikal Bridges</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Julius Randle</t>
+  </si>
+  <si>
+    <t>Ben Simmons</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Jusuf Nurkic</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>Christian Wood</t>
+  </si>
+  <si>
+    <t>Josh Giddey</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Keldon Johnson</t>
+  </si>
+  <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Tyler Herro</t>
+  </si>
+  <si>
+    <t>Alperen Sengun</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Marcus Smart</t>
+  </si>
+  <si>
     <t>De'Aaron Fox</t>
   </si>
   <si>
-    <t>Scottie Barnes</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Mikal Bridges</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Robert Williams III</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Julius Randle</t>
-  </si>
-  <si>
-    <t>Ben Simmons</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
-    <t>Jusuf Nurkic</t>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Saddiq Bey</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Mitchell Robinson</t>
+  </si>
+  <si>
+    <t>Brandon Clarke</t>
+  </si>
+  <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Kyle Lowry</t>
+  </si>
+  <si>
+    <t>Gordon Hayward</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>Al Horford</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Devin Vassell</t>
+  </si>
+  <si>
+    <t>Harrison Barnes</t>
+  </si>
+  <si>
+    <t>Kevin Porter Jr.</t>
   </si>
   <si>
     <t>D'Angelo Russell</t>
   </si>
   <si>
-    <t>Christian Wood</t>
-  </si>
-  <si>
-    <t>Josh Giddey</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>Keldon Johnson</t>
-  </si>
-  <si>
-    <t>Tyler Herro</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Alperen Sengun</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Marcus Smart</t>
-  </si>
-  <si>
-    <t>Saddiq Bey</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>Brandon Clarke</t>
-  </si>
-  <si>
-    <t>Mitchell Robinson</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Gary Trent Jr.</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>Gordon Hayward</t>
-  </si>
-  <si>
-    <t>Buddy Hield</t>
-  </si>
-  <si>
-    <t>Kyle Lowry</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
-    <t>Al Horford</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Harrison Barnes</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
-    <t>Kevin Porter Jr.</t>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
   </si>
   <si>
     <t>Robert Covington</t>
   </si>
   <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
     <t>Bobby Portis Jr.</t>
   </si>
   <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
     <t>Isaiah Stewart</t>
   </si>
   <si>
@@ -355,37 +355,76 @@
     <t>Herbert Jones</t>
   </si>
   <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
     <t>Bogdan Bogdanovic</t>
   </si>
   <si>
-    <t>Jabari Smith Jr.</t>
+    <t>Nic Claxton</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Monte Morris</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Mo Bamba</t>
+  </si>
+  <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Lonzo Ball</t>
+  </si>
+  <si>
+    <t>Jarred Vanderbilt</t>
+  </si>
+  <si>
+    <t>Onyeka Okongwu</t>
+  </si>
+  <si>
+    <t>Jalen Smith</t>
+  </si>
+  <si>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Will Barton</t>
   </si>
   <si>
     <t>Brook Lopez</t>
   </si>
   <si>
-    <t>Spencer Dinwiddie</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Nic Claxton</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>Monte Morris</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Mo Bamba</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
+    <t>Patrick Williams</t>
+  </si>
+  <si>
+    <t>Luguentz Dort</t>
   </si>
   <si>
     <t>Derrick White</t>
@@ -397,54 +436,48 @@
     <t>Bojan Bogdanovic</t>
   </si>
   <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Cole Anthony</t>
+    <t>Markelle Fultz</t>
   </si>
   <si>
     <t>De'Anthony Melton</t>
   </si>
   <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Jarred Vanderbilt</t>
-  </si>
-  <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Onyeka Okongwu</t>
+    <t>Isaiah Jackson</t>
   </si>
   <si>
     <t>Daniel Gafford</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Lonzo Ball</t>
+    <t>Tre Jones</t>
+  </si>
+  <si>
+    <t>Seth Curry</t>
   </si>
   <si>
     <t>Jae'Sean Tate</t>
   </si>
   <si>
-    <t>Jalen Smith</t>
+    <t>Russell Westbrook III</t>
+  </si>
+  <si>
+    <t>Caris LeVert</t>
   </si>
   <si>
     <t>Kevin Huerter</t>
   </si>
   <si>
-    <t>Will Barton</t>
+    <t>Alex Caruso</t>
+  </si>
+  <si>
+    <t>Jaden Ivey</t>
   </si>
   <si>
     <t>Richaun Holmes</t>
   </si>
   <si>
+    <t>Marvin Bagley III</t>
+  </si>
+  <si>
     <t>Reggie Jackson</t>
   </si>
   <si>
@@ -454,18 +487,15 @@
     <t>Steven Adams</t>
   </si>
   <si>
-    <t>Luguentz Dort</t>
-  </si>
-  <si>
-    <t>Patrick Williams</t>
-  </si>
-  <si>
     <t>Bones Hyland</t>
   </si>
   <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
+    <t>Kyle Anderson</t>
+  </si>
+  <si>
     <t>Matisse Thybulle</t>
   </si>
   <si>
@@ -475,61 +505,43 @@
     <t>Andre Drummond</t>
   </si>
   <si>
-    <t>Markelle Fultz</t>
-  </si>
-  <si>
-    <t>Kyle Anderson</t>
+    <t>Mason Plumlee</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
+    <t>Royce O'Neale</t>
   </si>
   <si>
     <t>Aleksej Pokusevski</t>
   </si>
   <si>
-    <t>Mason Plumlee</t>
-  </si>
-  <si>
-    <t>Royce O'Neale</t>
-  </si>
-  <si>
     <t>Isaiah Hartenstein</t>
   </si>
   <si>
-    <t>Seth Curry</t>
-  </si>
-  <si>
-    <t>Marvin Bagley III</t>
-  </si>
-  <si>
-    <t>Tre Jones</t>
-  </si>
-  <si>
-    <t>Russell Westbrook III</t>
+    <t>Kevin Love</t>
+  </si>
+  <si>
+    <t>Bruce Brown Jr.</t>
   </si>
   <si>
     <t>Chuma Okeke</t>
   </si>
   <si>
-    <t>Bruce Brown Jr.</t>
-  </si>
-  <si>
-    <t>Kevin Love</t>
-  </si>
-  <si>
     <t>Chris Duarte</t>
   </si>
   <si>
-    <t>Caris LeVert</t>
-  </si>
-  <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
-    <t>Isaiah Jackson</t>
-  </si>
-  <si>
-    <t>Alex Caruso</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
+    <t>Bennedict Mathurin</t>
+  </si>
+  <si>
+    <t>Jonathan Isaac</t>
+  </si>
+  <si>
+    <t>Chris Boucher</t>
+  </si>
+  <si>
+    <t>Evan Fournier</t>
   </si>
   <si>
     <t>Immanuel Quickley</t>
@@ -541,54 +553,48 @@
     <t>Reggie Bullock</t>
   </si>
   <si>
-    <t>Bennedict Mathurin</t>
-  </si>
-  <si>
     <t>Killian Hayes</t>
   </si>
   <si>
+    <t>Montrezl Harrell</t>
+  </si>
+  <si>
+    <t>Tim Hardaway Jr.</t>
+  </si>
+  <si>
+    <t>Kelly Olynyk</t>
+  </si>
+  <si>
+    <t>John Wall</t>
+  </si>
+  <si>
+    <t>Kevon Looney</t>
+  </si>
+  <si>
+    <t>Jaxson Hayes</t>
+  </si>
+  <si>
+    <t>Otto Porter Jr.</t>
+  </si>
+  <si>
     <t>Darius Bazley</t>
   </si>
   <si>
-    <t>Tim Hardaway Jr.</t>
+    <t>James Wiseman</t>
+  </si>
+  <si>
+    <t>Kentavious CaldwellPope</t>
+  </si>
+  <si>
+    <t>Dennis Schroder</t>
   </si>
   <si>
     <t>Jae Crowder</t>
   </si>
   <si>
-    <t>Kelly Olynyk</t>
-  </si>
-  <si>
-    <t>Chris Boucher</t>
-  </si>
-  <si>
-    <t>Jonathan Isaac</t>
-  </si>
-  <si>
-    <t>Kevon Looney</t>
-  </si>
-  <si>
-    <t>Jaxson Hayes</t>
-  </si>
-  <si>
-    <t>Evan Fournier</t>
-  </si>
-  <si>
-    <t>James Wiseman</t>
-  </si>
-  <si>
-    <t>Kentavious CaldwellPope</t>
-  </si>
-  <si>
-    <t>Dennis Schroder</t>
-  </si>
-  <si>
     <t>Patrick Beverley</t>
   </si>
   <si>
-    <t>Otto Porter Jr.</t>
-  </si>
-  <si>
     <t>Tyus Jones</t>
   </si>
   <si>
@@ -616,13 +622,13 @@
     <t>Malik Beasley</t>
   </si>
   <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
     <t>Larry Nance Jr.</t>
   </si>
   <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Montrezl Harrell</t>
+    <t>Precious Achiuwa</t>
   </si>
   <si>
     <t>Josh Richardson</t>
@@ -631,9 +637,6 @@
     <t>Kendrick Nunn</t>
   </si>
   <si>
-    <t>John Wall</t>
-  </si>
-  <si>
     <t>Isaac Okoro</t>
   </si>
   <si>
@@ -643,36 +646,36 @@
     <t>T.J. McConnell</t>
   </si>
   <si>
+    <t>Cameron Payne</t>
+  </si>
+  <si>
+    <t>Cody Martin</t>
+  </si>
+  <si>
+    <t>Nerlens Noel</t>
+  </si>
+  <si>
+    <t>Gary Payton II</t>
+  </si>
+  <si>
+    <t>Nassir Little</t>
+  </si>
+  <si>
+    <t>Marcus Morris Sr.</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Talen HortonTucker</t>
+  </si>
+  <si>
+    <t>Delon Wright</t>
+  </si>
+  <si>
     <t>Maxi Kleber</t>
   </si>
   <si>
-    <t>Cameron Payne</t>
-  </si>
-  <si>
-    <t>Cody Martin</t>
-  </si>
-  <si>
-    <t>Nerlens Noel</t>
-  </si>
-  <si>
-    <t>Precious Achiuwa</t>
-  </si>
-  <si>
-    <t>Gary Payton II</t>
-  </si>
-  <si>
-    <t>Nassir Little</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>Talen HortonTucker</t>
-  </si>
-  <si>
-    <t>Delon Wright</t>
-  </si>
-  <si>
     <t>Ayo Dosunmu</t>
   </si>
   <si>
@@ -682,21 +685,18 @@
     <t>Donte DiVincenzo</t>
   </si>
   <si>
-    <t>Marcus Morris Sr.</t>
-  </si>
-  <si>
     <t>Quentin Grimes</t>
   </si>
   <si>
+    <t>P.J. Tucker</t>
+  </si>
+  <si>
     <t>Luke Kennard</t>
   </si>
   <si>
     <t>Derrick Rose</t>
   </si>
   <si>
-    <t>P.J. Tucker</t>
-  </si>
-  <si>
     <t>T.J. Warren</t>
   </si>
   <si>
@@ -706,39 +706,42 @@
     <t>Grant Williams</t>
   </si>
   <si>
+    <t>Josh Christopher</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Isaiah Roby</t>
+  </si>
+  <si>
+    <t>Nicolas Batum</t>
+  </si>
+  <si>
+    <t>Malik Monk</t>
+  </si>
+  <si>
+    <t>Lonnie Walker IV</t>
+  </si>
+  <si>
+    <t>Caleb Martin</t>
+  </si>
+  <si>
+    <t>Moses Moody</t>
+  </si>
+  <si>
+    <t>Zach Collins</t>
+  </si>
+  <si>
     <t>Xavier Tillman</t>
   </si>
   <si>
-    <t>Josh Christopher</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
-    <t>Isaiah Roby</t>
-  </si>
-  <si>
-    <t>Nicolas Batum</t>
-  </si>
-  <si>
-    <t>Malik Monk</t>
-  </si>
-  <si>
-    <t>Lonnie Walker IV</t>
-  </si>
-  <si>
-    <t>Caleb Martin</t>
-  </si>
-  <si>
-    <t>Moses Moody</t>
-  </si>
-  <si>
-    <t>Zach Collins</t>
-  </si>
-  <si>
     <t>Terance Mann</t>
   </si>
   <si>
+    <t>Miles Bridges</t>
+  </si>
+  <si>
     <t>Duncan Robinson</t>
   </si>
   <si>
@@ -775,15 +778,18 @@
     <t>Naz Reid</t>
   </si>
   <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Dewayne Dedmon</t>
+  </si>
+  <si>
+    <t>Trendon Watford</t>
+  </si>
+  <si>
     <t>Jalen McDaniels</t>
   </si>
   <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Dewayne Dedmon</t>
-  </si>
-  <si>
     <t>Joshua Primo</t>
   </si>
   <si>
@@ -811,82 +817,79 @@
     <t>Gabe Vincent</t>
   </si>
   <si>
-    <t>Trendon Watford</t>
-  </si>
-  <si>
-    <t>Miles Bridges</t>
-  </si>
-  <si>
     <t>Nickeil AlexanderWalker</t>
   </si>
   <si>
+    <t>KJ Martin Jr.</t>
+  </si>
+  <si>
+    <t>Dario Saric</t>
+  </si>
+  <si>
+    <t>Day'Ron Sharpe</t>
+  </si>
+  <si>
+    <t>Corey Kispert</t>
+  </si>
+  <si>
+    <t>Khem Birch</t>
+  </si>
+  <si>
+    <t>Hassan Whiteside</t>
+  </si>
+  <si>
+    <t>Jeremiah RobinsonEarl</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Tre Mann</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Goran Dragic</t>
+  </si>
+  <si>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Oshae Brissett</t>
+  </si>
+  <si>
+    <t>Theo Maledon</t>
+  </si>
+  <si>
+    <t>Juan ToscanoAnderson</t>
+  </si>
+  <si>
+    <t>Daniel Theis</t>
+  </si>
+  <si>
+    <t>Danilo Gallinari</t>
+  </si>
+  <si>
+    <t>Chimezie Metu</t>
+  </si>
+  <si>
+    <t>Malachi Flynn</t>
+  </si>
+  <si>
+    <t>Davis Bertans</t>
+  </si>
+  <si>
+    <t>Drew Eubanks</t>
+  </si>
+  <si>
+    <t>Facundo Campazzo</t>
+  </si>
+  <si>
     <t>JaMychal Green</t>
   </si>
   <si>
-    <t>Day'Ron Sharpe</t>
-  </si>
-  <si>
-    <t>KJ Martin Jr.</t>
-  </si>
-  <si>
-    <t>Corey Kispert</t>
-  </si>
-  <si>
-    <t>Khem Birch</t>
-  </si>
-  <si>
-    <t>Hassan Whiteside</t>
-  </si>
-  <si>
-    <t>Jeremiah RobinsonEarl</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Tre Mann</t>
-  </si>
-  <si>
-    <t>Davis Bertans</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Goran Dragic</t>
-  </si>
-  <si>
-    <t>Jeremy Sochan</t>
-  </si>
-  <si>
-    <t>Theo Maledon</t>
-  </si>
-  <si>
-    <t>Juan ToscanoAnderson</t>
-  </si>
-  <si>
-    <t>Oshae Brissett</t>
-  </si>
-  <si>
-    <t>Daniel Theis</t>
-  </si>
-  <si>
-    <t>Danilo Gallinari</t>
-  </si>
-  <si>
-    <t>Chimezie Metu</t>
-  </si>
-  <si>
-    <t>Malachi Flynn</t>
-  </si>
-  <si>
-    <t>Drew Eubanks</t>
-  </si>
-  <si>
-    <t>Facundo Campazzo</t>
-  </si>
-  <si>
-    <t>Dario Saric</t>
+    <t>Trey Lyles</t>
   </si>
   <si>
     <t>Paul Reed</t>
@@ -910,15 +913,15 @@
     <t>Kemba Walker</t>
   </si>
   <si>
-    <t>Trey Lyles</t>
-  </si>
-  <si>
     <t>LaMarcus Aldridge</t>
   </si>
   <si>
     <t>Serge Ibaka</t>
   </si>
   <si>
+    <t>Rudy Gay</t>
+  </si>
+  <si>
     <t>Ochai Agbaji</t>
   </si>
   <si>
@@ -946,45 +949,42 @@
     <t>Malaki Branham</t>
   </si>
   <si>
-    <t>Rudy Gay</t>
-  </si>
-  <si>
     <t>Jaylen Nowell</t>
   </si>
   <si>
     <t>Payton Pritchard</t>
   </si>
   <si>
+    <t>Danny Green</t>
+  </si>
+  <si>
+    <t>Tomas Satoransky</t>
+  </si>
+  <si>
+    <t>AJ Griffin</t>
+  </si>
+  <si>
+    <t>Jeff Green</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>Johnny Davis</t>
+  </si>
+  <si>
+    <t>DeAndre Jordan</t>
+  </si>
+  <si>
+    <t>Omer Yurtseven</t>
+  </si>
+  <si>
+    <t>Udoka Azubuike</t>
+  </si>
+  <si>
     <t>Usman Garuba</t>
   </si>
   <si>
-    <t>Danny Green</t>
-  </si>
-  <si>
-    <t>Tomas Satoransky</t>
-  </si>
-  <si>
-    <t>AJ Griffin</t>
-  </si>
-  <si>
-    <t>Jeff Green</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
-    <t>Johnny Davis</t>
-  </si>
-  <si>
-    <t>DeAndre Jordan</t>
-  </si>
-  <si>
-    <t>Omer Yurtseven</t>
-  </si>
-  <si>
-    <t>Udoka Azubuike</t>
-  </si>
-  <si>
     <t>Cody Zeller</t>
   </si>
   <si>
@@ -994,21 +994,21 @@
     <t>Jeremy Lamb</t>
   </si>
   <si>
+    <t>Landry Shamet</t>
+  </si>
+  <si>
+    <t>Jordan McLaughlin</t>
+  </si>
+  <si>
+    <t>Enes Freedom</t>
+  </si>
+  <si>
+    <t>Dwight Howard</t>
+  </si>
+  <si>
     <t>Zeke Nnaji</t>
   </si>
   <si>
-    <t>Landry Shamet</t>
-  </si>
-  <si>
-    <t>Jordan McLaughlin</t>
-  </si>
-  <si>
-    <t>Enes Freedom</t>
-  </si>
-  <si>
-    <t>Dwight Howard</t>
-  </si>
-  <si>
     <t>Paul Millsap</t>
   </si>
   <si>
@@ -1459,12 +1459,12 @@
     <t>PF,C</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -1537,24 +1537,24 @@
     <t>PHI</t>
   </si>
   <si>
+    <t>DAL</t>
+  </si>
+  <si>
     <t>BKN</t>
   </si>
   <si>
-    <t>DAL</t>
-  </si>
-  <si>
     <t>BOS</t>
   </si>
   <si>
     <t>MIN</t>
   </si>
   <si>
+    <t>GSW</t>
+  </si>
+  <si>
     <t>ATL</t>
   </si>
   <si>
-    <t>GSW</t>
-  </si>
-  <si>
     <t>CHA</t>
   </si>
   <si>
@@ -1570,12 +1570,12 @@
     <t>LAL</t>
   </si>
   <si>
+    <t>LAC</t>
+  </si>
+  <si>
     <t>MIA</t>
   </si>
   <si>
-    <t>LAC</t>
-  </si>
-  <si>
     <t>SAC</t>
   </si>
   <si>
@@ -1591,10 +1591,10 @@
     <t>WAS</t>
   </si>
   <si>
+    <t>DET</t>
+  </si>
+  <si>
     <t>CHI</t>
-  </si>
-  <si>
-    <t>DET</t>
   </si>
   <si>
     <t>OKC</t>
@@ -2077,7 +2077,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D7" t="s">
         <v>508</v>
@@ -2091,7 +2091,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D8" t="s">
         <v>505</v>
@@ -2119,7 +2119,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D10" t="s">
         <v>510</v>
@@ -2133,7 +2133,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D11" t="s">
         <v>511</v>
@@ -2147,7 +2147,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D12" t="s">
         <v>512</v>
@@ -2161,7 +2161,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D13" t="s">
         <v>513</v>
@@ -2231,7 +2231,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D18" t="s">
         <v>517</v>
@@ -2245,7 +2245,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D19" t="s">
         <v>518</v>
@@ -2259,10 +2259,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D20" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2301,10 +2301,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D23" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2315,10 +2315,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D24" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2329,7 +2329,7 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D25" t="s">
         <v>521</v>
@@ -2343,7 +2343,7 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D26" t="s">
         <v>522</v>
@@ -2357,7 +2357,7 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D27" t="s">
         <v>522</v>
@@ -2371,10 +2371,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D28" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2385,10 +2385,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D29" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2399,10 +2399,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D30" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2413,10 +2413,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D31" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2427,10 +2427,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D32" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2441,10 +2441,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D33" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2455,10 +2455,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D34" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2469,10 +2469,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D35" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2483,10 +2483,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D36" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2500,7 +2500,7 @@
         <v>482</v>
       </c>
       <c r="D37" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2511,7 +2511,7 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D38" t="s">
         <v>526</v>
@@ -2539,10 +2539,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D40" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2553,10 +2553,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D41" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2567,10 +2567,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D42" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2581,7 +2581,7 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D43" t="s">
         <v>504</v>
@@ -2609,10 +2609,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D45" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2623,10 +2623,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D46" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2637,7 +2637,7 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D47" t="s">
         <v>512</v>
@@ -2665,10 +2665,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D49" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2679,10 +2679,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D50" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2693,10 +2693,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D51" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2707,10 +2707,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D52" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2721,10 +2721,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D53" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2735,10 +2735,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="D54" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2749,10 +2749,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D55" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2763,10 +2763,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D56" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2777,10 +2777,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D57" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2791,10 +2791,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D58" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2805,10 +2805,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D59" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2819,10 +2819,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D60" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2833,10 +2833,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D61" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2847,10 +2847,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D62" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2864,7 +2864,7 @@
         <v>480</v>
       </c>
       <c r="D63" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2889,10 +2889,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D65" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2917,10 +2917,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D67" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2931,10 +2931,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D68" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2945,10 +2945,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D69" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2962,7 +2962,7 @@
         <v>481</v>
       </c>
       <c r="D70" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2976,7 +2976,7 @@
         <v>482</v>
       </c>
       <c r="D71" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2990,7 +2990,7 @@
         <v>480</v>
       </c>
       <c r="D72" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3001,10 +3001,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D73" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3015,10 +3015,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D74" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3032,7 +3032,7 @@
         <v>481</v>
       </c>
       <c r="D75" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3043,10 +3043,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D76" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3057,10 +3057,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D77" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3071,10 +3071,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D78" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3085,10 +3085,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D79" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3099,10 +3099,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D80" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3113,10 +3113,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="D81" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3127,10 +3127,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D82" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3155,10 +3155,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="D84" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3169,10 +3169,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D85" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3183,10 +3183,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D86" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3200,7 +3200,7 @@
         <v>487</v>
       </c>
       <c r="D87" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3211,10 +3211,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D88" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3228,7 +3228,7 @@
         <v>487</v>
       </c>
       <c r="D89" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3239,10 +3239,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D90" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3253,7 +3253,7 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D91" t="s">
         <v>532</v>
@@ -3267,7 +3267,7 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D92" t="s">
         <v>523</v>
@@ -3281,10 +3281,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D93" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3295,10 +3295,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D94" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3309,10 +3309,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D95" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3323,10 +3323,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D96" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3337,10 +3337,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D97" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3351,7 +3351,7 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D98" t="s">
         <v>519</v>
@@ -3365,10 +3365,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D99" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3379,10 +3379,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D100" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3393,10 +3393,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D101" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3407,10 +3407,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D102" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3421,10 +3421,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="D103" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3463,10 +3463,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D106" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3480,7 +3480,7 @@
         <v>479</v>
       </c>
       <c r="D107" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3491,7 +3491,7 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D108" t="s">
         <v>508</v>
@@ -3519,10 +3519,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D110" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3533,10 +3533,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="D111" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3547,10 +3547,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D112" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3561,7 +3561,7 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D113" t="s">
         <v>507</v>
@@ -3575,7 +3575,7 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D114" t="s">
         <v>530</v>
@@ -3589,10 +3589,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D115" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3606,7 +3606,7 @@
         <v>480</v>
       </c>
       <c r="D116" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3617,10 +3617,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D117" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3631,10 +3631,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D118" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3645,7 +3645,7 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D119" t="s">
         <v>530</v>
@@ -3662,7 +3662,7 @@
         <v>487</v>
       </c>
       <c r="D120" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3673,10 +3673,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D121" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3687,10 +3687,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D122" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3701,10 +3701,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D123" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3715,10 +3715,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D124" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3729,10 +3729,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D125" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3743,10 +3743,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D126" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3757,10 +3757,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D127" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3774,7 +3774,7 @@
         <v>479</v>
       </c>
       <c r="D128" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3785,10 +3785,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="D129" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3799,10 +3799,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D130" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3813,10 +3813,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D131" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3827,10 +3827,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D132" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3841,10 +3841,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D133" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3855,10 +3855,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D134" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3869,10 +3869,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D135" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3883,10 +3883,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D136" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3897,10 +3897,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D137" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3911,10 +3911,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D138" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3925,10 +3925,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="D139" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3939,10 +3939,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D140" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3953,10 +3953,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D141" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3967,10 +3967,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D142" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3981,10 +3981,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D143" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3995,10 +3995,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D144" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4009,10 +4009,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D145" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4023,10 +4023,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D146" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4037,10 +4037,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D147" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4051,10 +4051,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D148" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4065,10 +4065,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D149" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4079,10 +4079,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D150" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4096,7 +4096,7 @@
         <v>480</v>
       </c>
       <c r="D151" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4110,7 +4110,7 @@
         <v>480</v>
       </c>
       <c r="D152" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4121,10 +4121,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D153" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4138,7 +4138,7 @@
         <v>480</v>
       </c>
       <c r="D154" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4149,10 +4149,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D155" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4166,7 +4166,7 @@
         <v>481</v>
       </c>
       <c r="D156" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4177,10 +4177,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D157" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4191,10 +4191,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D158" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4205,10 +4205,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D159" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4219,10 +4219,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D160" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4233,10 +4233,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D161" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4247,10 +4247,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D162" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4261,10 +4261,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D163" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4275,10 +4275,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D164" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4289,10 +4289,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D165" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4303,10 +4303,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D166" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4317,10 +4317,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D167" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4331,10 +4331,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D168" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4345,10 +4345,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="D169" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4359,10 +4359,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D170" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4373,10 +4373,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D171" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4387,10 +4387,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D172" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4401,10 +4401,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D173" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4415,10 +4415,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D174" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4432,7 +4432,7 @@
         <v>487</v>
       </c>
       <c r="D175" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4446,7 +4446,7 @@
         <v>480</v>
       </c>
       <c r="D176" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4460,7 +4460,7 @@
         <v>479</v>
       </c>
       <c r="D177" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4471,10 +4471,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D178" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4485,10 +4485,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D179" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4499,10 +4499,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D180" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4513,10 +4513,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D181" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4527,10 +4527,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D182" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4541,10 +4541,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D183" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4555,10 +4555,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D184" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4569,10 +4569,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D185" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4583,10 +4583,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="D186" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4597,10 +4597,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D187" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4611,10 +4611,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D188" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4625,10 +4625,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D189" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4639,10 +4639,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D190" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4656,7 +4656,7 @@
         <v>487</v>
       </c>
       <c r="D191" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4667,10 +4667,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="D192" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4684,7 +4684,7 @@
         <v>487</v>
       </c>
       <c r="D193" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4695,10 +4695,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="D194" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4709,10 +4709,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D195" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4723,10 +4723,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D196" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4737,7 +4737,7 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D197" t="s">
         <v>527</v>
@@ -4751,10 +4751,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D198" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4765,10 +4765,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D199" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4779,10 +4779,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D200" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4793,10 +4793,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="D201" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4807,10 +4807,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D202" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4821,10 +4821,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D203" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4835,10 +4835,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D204" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4849,10 +4849,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D205" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4863,10 +4863,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D206" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4877,7 +4877,7 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D207" t="s">
         <v>515</v>
@@ -4908,7 +4908,7 @@
         <v>479</v>
       </c>
       <c r="D209" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4919,10 +4919,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="D210" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4933,7 +4933,7 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="D211" t="s">
         <v>514</v>
@@ -4947,10 +4947,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D212" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4961,10 +4961,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D213" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4989,7 +4989,7 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D215" t="s">
         <v>523</v>
@@ -5003,10 +5003,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D216" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5017,10 +5017,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="D217" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5031,10 +5031,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="D218" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5045,10 +5045,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="D219" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5073,10 +5073,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="D221" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5087,10 +5087,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D222" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5101,10 +5101,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="D223" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5115,10 +5115,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D224" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5129,10 +5129,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D225" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5143,7 +5143,7 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D226" t="s">
         <v>508</v>
@@ -5157,10 +5157,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D227" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5171,10 +5171,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D228" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5185,10 +5185,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D229" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5199,10 +5199,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D230" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5213,10 +5213,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D231" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5227,10 +5227,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D232" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5241,10 +5241,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="D233" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5255,10 +5255,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D234" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5269,10 +5269,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="D235" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5286,7 +5286,7 @@
         <v>479</v>
       </c>
       <c r="D236" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5300,7 +5300,7 @@
         <v>497</v>
       </c>
       <c r="D237" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5311,10 +5311,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D238" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5328,7 +5328,7 @@
         <v>487</v>
       </c>
       <c r="D239" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5342,7 +5342,7 @@
         <v>487</v>
       </c>
       <c r="D240" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5353,10 +5353,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D241" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5367,10 +5367,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D242" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5381,10 +5381,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D243" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5395,10 +5395,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D244" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5409,7 +5409,7 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D245" t="s">
         <v>531</v>
@@ -5423,10 +5423,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D246" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5437,10 +5437,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D247" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5451,10 +5451,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D248" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5465,10 +5465,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D249" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5479,10 +5479,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D250" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5510,7 +5510,7 @@
         <v>482</v>
       </c>
       <c r="D252" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5521,10 +5521,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D253" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5535,10 +5535,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="D254" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5549,7 +5549,7 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D255" t="s">
         <v>529</v>
@@ -5563,10 +5563,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D256" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5577,10 +5577,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D257" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5591,10 +5591,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D258" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5605,10 +5605,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D259" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5619,10 +5619,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D260" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5633,10 +5633,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D261" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5647,10 +5647,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="D262" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5664,7 +5664,7 @@
         <v>480</v>
       </c>
       <c r="D263" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5689,10 +5689,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D265" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5706,7 +5706,7 @@
         <v>479</v>
       </c>
       <c r="D266" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5717,10 +5717,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D267" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5773,7 +5773,7 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D271" t="s">
         <v>526</v>
@@ -5815,10 +5815,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D274" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5829,10 +5829,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D275" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5843,10 +5843,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D276" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5857,10 +5857,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D277" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5885,7 +5885,7 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D279" t="s">
         <v>516</v>
@@ -5899,7 +5899,7 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D280" t="s">
         <v>513</v>
@@ -5913,10 +5913,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D281" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5927,10 +5927,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D282" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5941,10 +5941,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D283" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5955,10 +5955,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D284" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -6000,7 +6000,7 @@
         <v>479</v>
       </c>
       <c r="D287" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6011,10 +6011,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D288" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -6025,10 +6025,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="D289" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -6039,10 +6039,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="D290" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -6053,10 +6053,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D291" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6067,10 +6067,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D292" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6081,10 +6081,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D293" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6098,7 +6098,7 @@
         <v>483</v>
       </c>
       <c r="D294" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6109,10 +6109,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D295" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6151,7 +6151,7 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="D298" t="s">
         <v>532</v>
@@ -6165,10 +6165,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="D299" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6179,10 +6179,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="D300" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6193,10 +6193,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D301" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6207,10 +6207,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D302" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6221,10 +6221,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D303" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6235,10 +6235,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D304" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6249,10 +6249,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D305" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6263,10 +6263,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D306" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6277,10 +6277,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D307" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6319,10 +6319,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D310" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6333,10 +6333,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D311" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6347,10 +6347,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="D312" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6361,10 +6361,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D313" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6375,10 +6375,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D314" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6389,10 +6389,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D315" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6403,10 +6403,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D316" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6420,7 +6420,7 @@
         <v>482</v>
       </c>
       <c r="D317" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6434,7 +6434,7 @@
         <v>482</v>
       </c>
       <c r="D318" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6445,10 +6445,10 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D319" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6473,7 +6473,7 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D321" t="s">
         <v>505</v>
@@ -6501,10 +6501,10 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D323" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6515,10 +6515,10 @@
         <v>326</v>
       </c>
       <c r="C324" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D324" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6529,10 +6529,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D325" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6557,10 +6557,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D327" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6585,7 +6585,7 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D329" t="s">
         <v>533</v>
@@ -6599,7 +6599,7 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D330" t="s">
         <v>505</v>
@@ -6627,7 +6627,7 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D332" t="s">
         <v>533</v>
@@ -6658,7 +6658,7 @@
         <v>487</v>
       </c>
       <c r="D334" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6683,7 +6683,7 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D336" t="s">
         <v>522</v>
@@ -6714,7 +6714,7 @@
         <v>487</v>
       </c>
       <c r="D338" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6728,7 +6728,7 @@
         <v>499</v>
       </c>
       <c r="D339" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6809,7 +6809,7 @@
         <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D345" t="s">
         <v>526</v>
@@ -6865,7 +6865,7 @@
         <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D349" t="s">
         <v>527</v>
@@ -6882,7 +6882,7 @@
         <v>483</v>
       </c>
       <c r="D350" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -7008,7 +7008,7 @@
         <v>497</v>
       </c>
       <c r="D359" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -7019,7 +7019,7 @@
         <v>362</v>
       </c>
       <c r="C360" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D360" t="s">
         <v>526</v>
@@ -7148,7 +7148,7 @@
         <v>493</v>
       </c>
       <c r="D369" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7159,7 +7159,7 @@
         <v>372</v>
       </c>
       <c r="C370" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D370" t="s">
         <v>509</v>
@@ -7187,10 +7187,10 @@
         <v>374</v>
       </c>
       <c r="C372" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D372" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7201,10 +7201,10 @@
         <v>375</v>
       </c>
       <c r="C373" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D373" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7257,7 +7257,7 @@
         <v>379</v>
       </c>
       <c r="C377" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D377" t="s">
         <v>504</v>
@@ -7285,7 +7285,7 @@
         <v>381</v>
       </c>
       <c r="C379" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D379" t="s">
         <v>530</v>
@@ -7400,7 +7400,7 @@
         <v>493</v>
       </c>
       <c r="D387" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7411,7 +7411,7 @@
         <v>390</v>
       </c>
       <c r="C388" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D388" t="s">
         <v>504</v>
@@ -7428,7 +7428,7 @@
         <v>499</v>
       </c>
       <c r="D389" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7512,7 +7512,7 @@
         <v>492</v>
       </c>
       <c r="D395" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7540,7 +7540,7 @@
         <v>483</v>
       </c>
       <c r="D397" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7610,7 +7610,7 @@
         <v>490</v>
       </c>
       <c r="D402" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7624,7 +7624,7 @@
         <v>492</v>
       </c>
       <c r="D403" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7764,7 +7764,7 @@
         <v>499</v>
       </c>
       <c r="D413" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7817,10 +7817,10 @@
         <v>419</v>
       </c>
       <c r="C417" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D417" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7834,7 +7834,7 @@
         <v>493</v>
       </c>
       <c r="D418" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7915,10 +7915,10 @@
         <v>426</v>
       </c>
       <c r="C424" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D424" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7929,7 +7929,7 @@
         <v>427</v>
       </c>
       <c r="C425" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D425" t="s">
         <v>533</v>
@@ -7946,7 +7946,7 @@
         <v>491</v>
       </c>
       <c r="D426" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7957,7 +7957,7 @@
         <v>429</v>
       </c>
       <c r="C427" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D427" t="s">
         <v>522</v>
@@ -7999,7 +7999,7 @@
         <v>432</v>
       </c>
       <c r="C430" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D430" t="s">
         <v>529</v>
@@ -8016,7 +8016,7 @@
         <v>482</v>
       </c>
       <c r="D431" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -8139,7 +8139,7 @@
         <v>442</v>
       </c>
       <c r="C440" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D440" t="s">
         <v>533</v>
@@ -8167,10 +8167,10 @@
         <v>444</v>
       </c>
       <c r="C442" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D442" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8184,7 +8184,7 @@
         <v>483</v>
       </c>
       <c r="D443" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8212,7 +8212,7 @@
         <v>487</v>
       </c>
       <c r="D445" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8433,7 +8433,7 @@
         <v>463</v>
       </c>
       <c r="C461" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D461" t="s">
         <v>533</v>
@@ -8447,7 +8447,7 @@
         <v>464</v>
       </c>
       <c r="C462" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D462" t="s">
         <v>533</v>
@@ -8461,7 +8461,7 @@
         <v>465</v>
       </c>
       <c r="C463" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D463" t="s">
         <v>533</v>
@@ -8503,7 +8503,7 @@
         <v>468</v>
       </c>
       <c r="C466" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D466" t="s">
         <v>533</v>
@@ -8601,7 +8601,7 @@
         <v>475</v>
       </c>
       <c r="C473" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D473" t="s">
         <v>533</v>
@@ -8629,7 +8629,7 @@
         <v>477</v>
       </c>
       <c r="C475" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D475" t="s">
         <v>533</v>

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -40,42 +40,42 @@
     <t>Joel Embiid</t>
   </si>
   <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
     <t>Luka Doncic</t>
   </si>
   <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
     <t>Jayson Tatum</t>
   </si>
   <si>
+    <t>KarlAnthony Towns</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
     <t>James Harden</t>
   </si>
   <si>
-    <t>KarlAnthony Towns</t>
-  </si>
-  <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
     <t>Trae Young</t>
   </si>
   <si>
     <t>LaMelo Ball</t>
   </si>
   <si>
+    <t>Damian Lillard</t>
+  </si>
+  <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
-    <t>Damian Lillard</t>
+    <t>LeBron James</t>
   </si>
   <si>
     <t>Devin Booker</t>
   </si>
   <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
     <t>Anthony Davis</t>
   </si>
   <si>
@@ -91,81 +91,81 @@
     <t>Domantas Sabonis</t>
   </si>
   <si>
+    <t>Ja Morant</t>
+  </si>
+  <si>
     <t>Anthony Edwards</t>
   </si>
   <si>
-    <t>Ja Morant</t>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
   </si>
   <si>
     <t>Dejounte Murray</t>
   </si>
   <si>
-    <t>Fred VanVleet</t>
+    <t>Donovan Mitchell</t>
   </si>
   <si>
     <t>Darius Garland</t>
   </si>
   <si>
-    <t>Donovan Mitchell</t>
+    <t>Kawhi Leonard</t>
   </si>
   <si>
     <t>Rudy Gobert</t>
   </si>
   <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Shai GilgeousAlexander</t>
+  </si>
+  <si>
+    <t>DeMar DeRozan</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
     <t>Cade Cunningham</t>
   </si>
   <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
     <t>Deandre Ayton</t>
   </si>
   <si>
-    <t>DeMar DeRozan</t>
-  </si>
-  <si>
     <t>Nikola Vucevic</t>
   </si>
   <si>
-    <t>Shai GilgeousAlexander</t>
-  </si>
-  <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
     <t>Zach LaVine</t>
   </si>
   <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
     <t>Myles Turner</t>
   </si>
   <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
     <t>Jrue Holiday</t>
   </si>
   <si>
     <t>Khris Middleton</t>
   </si>
   <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
     <t>Evan Mobley</t>
   </si>
   <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
     <t>Terry Rozier</t>
   </si>
   <si>
@@ -175,897 +175,897 @@
     <t>Scottie Barnes</t>
   </si>
   <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
     <t>Jonas Valanciunas</t>
   </si>
   <si>
-    <t>Brandon Ingram</t>
+    <t>CJ McCollum</t>
   </si>
   <si>
     <t>John Collins</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
+    <t>Robert Williams III</t>
   </si>
   <si>
     <t>Desmond Bane</t>
   </si>
   <si>
+    <t>Mikal Bridges</t>
+  </si>
+  <si>
     <t>OG Anunoby</t>
   </si>
   <si>
-    <t>Robert Williams III</t>
-  </si>
-  <si>
-    <t>Mikal Bridges</t>
-  </si>
-  <si>
     <t>Tyrese Maxey</t>
   </si>
   <si>
     <t>Julius Randle</t>
   </si>
   <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
     <t>Ben Simmons</t>
   </si>
   <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
     <t>Jordan Poole</t>
   </si>
   <si>
     <t>Jakob Poeltl</t>
   </si>
   <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Christian Wood</t>
+  </si>
+  <si>
+    <t>Josh Giddey</t>
+  </si>
+  <si>
     <t>Jusuf Nurkic</t>
   </si>
   <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
-    <t>Christian Wood</t>
-  </si>
-  <si>
-    <t>Josh Giddey</t>
+    <t>Tyler Herro</t>
+  </si>
+  <si>
+    <t>Keldon Johnson</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
   </si>
   <si>
     <t>Jalen Green</t>
   </si>
   <si>
-    <t>Keldon Johnson</t>
+    <t>De'Aaron Fox</t>
   </si>
   <si>
     <t>Clint Capela</t>
   </si>
   <si>
-    <t>Tyler Herro</t>
+    <t>Jerami Grant</t>
   </si>
   <si>
     <t>Alperen Sengun</t>
   </si>
   <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
     <t>Marcus Smart</t>
   </si>
   <si>
-    <t>De'Aaron Fox</t>
+    <t>Saddiq Bey</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Kyle Lowry</t>
   </si>
   <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
+    <t>Gordon Hayward</t>
+  </si>
+  <si>
+    <t>Brandon Clarke</t>
+  </si>
+  <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
+    <t>Mitchell Robinson</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
-    <t>Saddiq Bey</t>
-  </si>
-  <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>Mitchell Robinson</t>
-  </si>
-  <si>
-    <t>Brandon Clarke</t>
-  </si>
-  <si>
-    <t>P.J. Washington</t>
-  </si>
-  <si>
-    <t>Gary Trent Jr.</t>
-  </si>
-  <si>
-    <t>Buddy Hield</t>
-  </si>
-  <si>
-    <t>Kyle Lowry</t>
-  </si>
-  <si>
-    <t>Gordon Hayward</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
     <t>Kyle Kuzma</t>
   </si>
   <si>
     <t>Al Horford</t>
   </si>
   <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Kevin Porter Jr.</t>
+  </si>
+  <si>
+    <t>Harrison Barnes</t>
+  </si>
+  <si>
+    <t>Robert Covington</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
     <t>Keegan Murray</t>
   </si>
   <si>
-    <t>Ivica Zubac</t>
+    <t>Malcolm Brogdon</t>
+  </si>
+  <si>
+    <t>Bobby Portis Jr.</t>
+  </si>
+  <si>
+    <t>Isaiah Stewart</t>
+  </si>
+  <si>
+    <t>Bogdan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
   </si>
   <si>
     <t>Devin Vassell</t>
   </si>
   <si>
-    <t>Harrison Barnes</t>
-  </si>
-  <si>
-    <t>Kevin Porter Jr.</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
+    <t>Nic Claxton</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
+    <t>Mo Bamba</t>
+  </si>
+  <si>
+    <t>Monte Morris</t>
   </si>
   <si>
     <t>Franz Wagner</t>
   </si>
   <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Robert Covington</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>Bobby Portis Jr.</t>
-  </si>
-  <si>
-    <t>Isaiah Stewart</t>
-  </si>
-  <si>
-    <t>Malcolm Brogdon</t>
+    <t>Lonzo Ball</t>
+  </si>
+  <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Aaron Gordon</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Brook Lopez</t>
   </si>
   <si>
     <t>Herbert Jones</t>
   </si>
   <si>
-    <t>Jabari Smith Jr.</t>
-  </si>
-  <si>
-    <t>Spencer Dinwiddie</t>
-  </si>
-  <si>
-    <t>Bogdan Bogdanovic</t>
-  </si>
-  <si>
-    <t>Nic Claxton</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>Monte Morris</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Mo Bamba</t>
-  </si>
-  <si>
-    <t>Cole Anthony</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
+    <t>Will Barton</t>
+  </si>
+  <si>
+    <t>Patrick Williams</t>
+  </si>
+  <si>
+    <t>Dorian FinneySmith</t>
+  </si>
+  <si>
+    <t>Luguentz Dort</t>
+  </si>
+  <si>
+    <t>Derrick White</t>
+  </si>
+  <si>
+    <t>Jalen Smith</t>
+  </si>
+  <si>
+    <t>Onyeka Okongwu</t>
   </si>
   <si>
     <t>Anfernee Simons</t>
   </si>
   <si>
-    <t>Aaron Gordon</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
-    <t>Lonzo Ball</t>
-  </si>
-  <si>
     <t>Jarred Vanderbilt</t>
   </si>
   <si>
-    <t>Onyeka Okongwu</t>
-  </si>
-  <si>
-    <t>Jalen Smith</t>
+    <t>Bojan Bogdanovic</t>
+  </si>
+  <si>
+    <t>De'Anthony Melton</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
   </si>
   <si>
     <t>Jaden McDaniels</t>
   </si>
   <si>
-    <t>Will Barton</t>
-  </si>
-  <si>
-    <t>Brook Lopez</t>
-  </si>
-  <si>
-    <t>Patrick Williams</t>
-  </si>
-  <si>
-    <t>Luguentz Dort</t>
-  </si>
-  <si>
-    <t>Derrick White</t>
-  </si>
-  <si>
-    <t>Dorian FinneySmith</t>
-  </si>
-  <si>
-    <t>Bojan Bogdanovic</t>
-  </si>
-  <si>
     <t>Markelle Fultz</t>
   </si>
   <si>
-    <t>De'Anthony Melton</t>
+    <t>Jae'Sean Tate</t>
+  </si>
+  <si>
+    <t>Seth Curry</t>
+  </si>
+  <si>
+    <t>Richaun Holmes</t>
+  </si>
+  <si>
+    <t>Reggie Jackson</t>
+  </si>
+  <si>
+    <t>Kevin Huerter</t>
+  </si>
+  <si>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
+    <t>Steven Adams</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Matisse Thybulle</t>
+  </si>
+  <si>
+    <t>Tre Jones</t>
+  </si>
+  <si>
+    <t>Kyle Anderson</t>
+  </si>
+  <si>
+    <t>Russell Westbrook III</t>
+  </si>
+  <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
+    <t>Andre Drummond</t>
+  </si>
+  <si>
+    <t>Thomas Bryant</t>
+  </si>
+  <si>
+    <t>Mason Plumlee</t>
+  </si>
+  <si>
+    <t>Caris LeVert</t>
+  </si>
+  <si>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
+    <t>Alex Caruso</t>
   </si>
   <si>
     <t>Isaiah Jackson</t>
   </si>
   <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Tre Jones</t>
-  </si>
-  <si>
-    <t>Seth Curry</t>
-  </si>
-  <si>
-    <t>Jae'Sean Tate</t>
-  </si>
-  <si>
-    <t>Russell Westbrook III</t>
-  </si>
-  <si>
-    <t>Caris LeVert</t>
-  </si>
-  <si>
-    <t>Kevin Huerter</t>
-  </si>
-  <si>
-    <t>Alex Caruso</t>
-  </si>
-  <si>
-    <t>Jaden Ivey</t>
-  </si>
-  <si>
-    <t>Richaun Holmes</t>
+    <t>Kevin Love</t>
+  </si>
+  <si>
+    <t>Bones Hyland</t>
+  </si>
+  <si>
+    <t>Bruce Brown Jr.</t>
+  </si>
+  <si>
+    <t>Jonathan Isaac</t>
+  </si>
+  <si>
+    <t>Aleksej Pokusevski</t>
+  </si>
+  <si>
+    <t>Isaiah Hartenstein</t>
   </si>
   <si>
     <t>Marvin Bagley III</t>
   </si>
   <si>
-    <t>Reggie Jackson</t>
-  </si>
-  <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
-    <t>Steven Adams</t>
-  </si>
-  <si>
-    <t>Bones Hyland</t>
-  </si>
-  <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Kyle Anderson</t>
-  </si>
-  <si>
-    <t>Matisse Thybulle</t>
-  </si>
-  <si>
-    <t>Thomas Bryant</t>
-  </si>
-  <si>
-    <t>Andre Drummond</t>
-  </si>
-  <si>
-    <t>Mason Plumlee</t>
+    <t>Chuma Okeke</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
+    <t>Chris Duarte</t>
+  </si>
+  <si>
+    <t>Kelly Olynyk</t>
+  </si>
+  <si>
+    <t>Bennedict Mathurin</t>
+  </si>
+  <si>
+    <t>Chris Boucher</t>
+  </si>
+  <si>
+    <t>Darius Bazley</t>
+  </si>
+  <si>
+    <t>Evan Fournier</t>
+  </si>
+  <si>
+    <t>Killian Hayes</t>
+  </si>
+  <si>
+    <t>Tim Hardaway Jr.</t>
   </si>
   <si>
     <t>Walker Kessler</t>
   </si>
   <si>
-    <t>Royce O'Neale</t>
-  </si>
-  <si>
-    <t>Aleksej Pokusevski</t>
-  </si>
-  <si>
-    <t>Isaiah Hartenstein</t>
-  </si>
-  <si>
-    <t>Kevin Love</t>
-  </si>
-  <si>
-    <t>Bruce Brown Jr.</t>
-  </si>
-  <si>
-    <t>Chuma Okeke</t>
-  </si>
-  <si>
-    <t>Chris Duarte</t>
-  </si>
-  <si>
-    <t>Bennedict Mathurin</t>
-  </si>
-  <si>
-    <t>Jonathan Isaac</t>
-  </si>
-  <si>
-    <t>Chris Boucher</t>
-  </si>
-  <si>
-    <t>Evan Fournier</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
+    <t>Montrezl Harrell</t>
+  </si>
+  <si>
+    <t>Reggie Bullock</t>
+  </si>
+  <si>
+    <t>Patrick Beverley</t>
   </si>
   <si>
     <t>Obi Toppin</t>
   </si>
   <si>
-    <t>Reggie Bullock</t>
-  </si>
-  <si>
-    <t>Killian Hayes</t>
-  </si>
-  <si>
-    <t>Montrezl Harrell</t>
-  </si>
-  <si>
-    <t>Tim Hardaway Jr.</t>
-  </si>
-  <si>
-    <t>Kelly Olynyk</t>
+    <t>Jaxson Hayes</t>
+  </si>
+  <si>
+    <t>Victor Oladipo</t>
+  </si>
+  <si>
+    <t>Jae Crowder</t>
+  </si>
+  <si>
+    <t>Kendrick Nunn</t>
   </si>
   <si>
     <t>John Wall</t>
   </si>
   <si>
+    <t>Otto Porter Jr.</t>
+  </si>
+  <si>
+    <t>Josh Richardson</t>
+  </si>
+  <si>
+    <t>Kentavious CaldwellPope</t>
+  </si>
+  <si>
+    <t>James Wiseman</t>
+  </si>
+  <si>
     <t>Kevon Looney</t>
   </si>
   <si>
-    <t>Jaxson Hayes</t>
-  </si>
-  <si>
-    <t>Otto Porter Jr.</t>
-  </si>
-  <si>
-    <t>Darius Bazley</t>
-  </si>
-  <si>
-    <t>James Wiseman</t>
-  </si>
-  <si>
-    <t>Kentavious CaldwellPope</t>
-  </si>
-  <si>
     <t>Dennis Schroder</t>
   </si>
   <si>
-    <t>Jae Crowder</t>
-  </si>
-  <si>
-    <t>Patrick Beverley</t>
+    <t>JaVale McGee</t>
+  </si>
+  <si>
+    <t>Cameron Payne</t>
+  </si>
+  <si>
+    <t>Devonte' Graham</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Delon Wright</t>
+  </si>
+  <si>
+    <t>Joe Harris</t>
+  </si>
+  <si>
+    <t>Pat Connaughton</t>
   </si>
   <si>
     <t>Tyus Jones</t>
   </si>
   <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>JaVale McGee</t>
-  </si>
-  <si>
-    <t>Victor Oladipo</t>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Derrick Rose</t>
+  </si>
+  <si>
+    <t>T.J. McConnell</t>
+  </si>
+  <si>
+    <t>Cody Martin</t>
+  </si>
+  <si>
+    <t>Gary Payton II</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Nassir Little</t>
+  </si>
+  <si>
+    <t>Nerlens Noel</t>
+  </si>
+  <si>
+    <t>Isaac Okoro</t>
+  </si>
+  <si>
+    <t>Precious Achiuwa</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Grant Williams</t>
+  </si>
+  <si>
+    <t>Caleb Martin</t>
+  </si>
+  <si>
+    <t>Talen HortonTucker</t>
+  </si>
+  <si>
+    <t>Marcus Morris Sr.</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
+    <t>Larry Nance Jr.</t>
+  </si>
+  <si>
+    <t>T.J. Warren</t>
   </si>
   <si>
     <t>Ziaire Williams</t>
   </si>
   <si>
-    <t>Pat Connaughton</t>
-  </si>
-  <si>
-    <t>Joe Harris</t>
-  </si>
-  <si>
-    <t>Devonte' Graham</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Larry Nance Jr.</t>
-  </si>
-  <si>
-    <t>Precious Achiuwa</t>
-  </si>
-  <si>
-    <t>Josh Richardson</t>
-  </si>
-  <si>
-    <t>Kendrick Nunn</t>
-  </si>
-  <si>
-    <t>Isaac Okoro</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>T.J. McConnell</t>
-  </si>
-  <si>
-    <t>Cameron Payne</t>
-  </si>
-  <si>
-    <t>Cody Martin</t>
-  </si>
-  <si>
-    <t>Nerlens Noel</t>
-  </si>
-  <si>
-    <t>Gary Payton II</t>
-  </si>
-  <si>
-    <t>Nassir Little</t>
-  </si>
-  <si>
-    <t>Marcus Morris Sr.</t>
-  </si>
-  <si>
-    <t>Jonathan Kuminga</t>
-  </si>
-  <si>
-    <t>Talen HortonTucker</t>
-  </si>
-  <si>
-    <t>Delon Wright</t>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Isaiah Roby</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
   </si>
   <si>
     <t>Maxi Kleber</t>
   </si>
   <si>
+    <t>Luke Kennard</t>
+  </si>
+  <si>
+    <t>Lonnie Walker IV</t>
+  </si>
+  <si>
+    <t>Nicolas Batum</t>
+  </si>
+  <si>
+    <t>Duncan Robinson</t>
+  </si>
+  <si>
+    <t>Alec Burks</t>
+  </si>
+  <si>
+    <t>Damian Jones</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Terance Mann</t>
+  </si>
+  <si>
+    <t>P.J. Tucker</t>
+  </si>
+  <si>
     <t>Ayo Dosunmu</t>
   </si>
   <si>
     <t>Davion Mitchell</t>
   </si>
   <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
-    <t>Quentin Grimes</t>
-  </si>
-  <si>
-    <t>P.J. Tucker</t>
-  </si>
-  <si>
-    <t>Luke Kennard</t>
-  </si>
-  <si>
-    <t>Derrick Rose</t>
-  </si>
-  <si>
-    <t>T.J. Warren</t>
+    <t>Eric Gordon</t>
+  </si>
+  <si>
+    <t>Justin Holiday</t>
+  </si>
+  <si>
+    <t>Josh Christopher</t>
   </si>
   <si>
     <t>Isaiah Livers</t>
   </si>
   <si>
-    <t>Grant Williams</t>
-  </si>
-  <si>
-    <t>Josh Christopher</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
-    <t>Isaiah Roby</t>
-  </si>
-  <si>
-    <t>Nicolas Batum</t>
-  </si>
-  <si>
     <t>Malik Monk</t>
   </si>
   <si>
-    <t>Lonnie Walker IV</t>
-  </si>
-  <si>
-    <t>Caleb Martin</t>
+    <t>Naz Reid</t>
+  </si>
+  <si>
+    <t>Dwight Powell</t>
+  </si>
+  <si>
+    <t>Xavier Tillman</t>
+  </si>
+  <si>
+    <t>Zach Collins</t>
   </si>
   <si>
     <t>Moses Moody</t>
   </si>
   <si>
-    <t>Zach Collins</t>
-  </si>
-  <si>
-    <t>Xavier Tillman</t>
-  </si>
-  <si>
-    <t>Terance Mann</t>
+    <t>Dewayne Dedmon</t>
+  </si>
+  <si>
+    <t>Joe Ingles</t>
   </si>
   <si>
     <t>Miles Bridges</t>
   </si>
   <si>
-    <t>Duncan Robinson</t>
-  </si>
-  <si>
-    <t>Alec Burks</t>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Ricky Rubio</t>
+  </si>
+  <si>
+    <t>Terrence Ross</t>
+  </si>
+  <si>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
+    <t>Cam Reddish</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
   </si>
   <si>
     <t>Max Strus</t>
   </si>
   <si>
-    <t>Coby White</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Jose Alvarado</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Eric Gordon</t>
-  </si>
-  <si>
-    <t>Damian Jones</t>
-  </si>
-  <si>
-    <t>Justin Holiday</t>
-  </si>
-  <si>
-    <t>Dwight Powell</t>
-  </si>
-  <si>
-    <t>Naz Reid</t>
+    <t>Nickeil AlexanderWalker</t>
+  </si>
+  <si>
+    <t>Doug McDermott</t>
+  </si>
+  <si>
+    <t>Thaddeus Young</t>
+  </si>
+  <si>
+    <t>Hassan Whiteside</t>
+  </si>
+  <si>
+    <t>KJ Martin Jr.</t>
+  </si>
+  <si>
+    <t>Khem Birch</t>
   </si>
   <si>
     <t>Trey Murphy III</t>
   </si>
   <si>
-    <t>Dewayne Dedmon</t>
+    <t>Daniel Theis</t>
+  </si>
+  <si>
+    <t>Goran Dragic</t>
+  </si>
+  <si>
+    <t>Kemba Walker</t>
+  </si>
+  <si>
+    <t>Joshua Primo</t>
+  </si>
+  <si>
+    <t>Theo Maledon</t>
+  </si>
+  <si>
+    <t>Paul Reed</t>
+  </si>
+  <si>
+    <t>Danilo Gallinari</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
   </si>
   <si>
     <t>Trendon Watford</t>
   </si>
   <si>
+    <t>Eric Bledsoe</t>
+  </si>
+  <si>
+    <t>Derrick Favors</t>
+  </si>
+  <si>
+    <t>Facundo Campazzo</t>
+  </si>
+  <si>
+    <t>Malachi Flynn</t>
+  </si>
+  <si>
+    <t>Gabe Vincent</t>
+  </si>
+  <si>
+    <t>Moses Brown</t>
+  </si>
+  <si>
     <t>Jalen McDaniels</t>
   </si>
   <si>
-    <t>Joshua Primo</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Doug McDermott</t>
-  </si>
-  <si>
-    <t>Ricky Rubio</t>
-  </si>
-  <si>
-    <t>Cam Reddish</t>
-  </si>
-  <si>
-    <t>Terrence Ross</t>
-  </si>
-  <si>
-    <t>Joe Ingles</t>
-  </si>
-  <si>
-    <t>Thaddeus Young</t>
-  </si>
-  <si>
-    <t>Gabe Vincent</t>
-  </si>
-  <si>
-    <t>Nickeil AlexanderWalker</t>
-  </si>
-  <si>
-    <t>KJ Martin Jr.</t>
+    <t>LaMarcus Aldridge</t>
+  </si>
+  <si>
+    <t>Corey Kispert</t>
+  </si>
+  <si>
+    <t>Juan ToscanoAnderson</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Tre Mann</t>
+  </si>
+  <si>
+    <t>Davis Bertans</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Jeremiah RobinsonEarl</t>
+  </si>
+  <si>
+    <t>Blake Griffin</t>
   </si>
   <si>
     <t>Dario Saric</t>
   </si>
   <si>
+    <t>Danny Green</t>
+  </si>
+  <si>
+    <t>Drew Eubanks</t>
+  </si>
+  <si>
+    <t>Serge Ibaka</t>
+  </si>
+  <si>
+    <t>Chimezie Metu</t>
+  </si>
+  <si>
     <t>Day'Ron Sharpe</t>
   </si>
   <si>
-    <t>Corey Kispert</t>
-  </si>
-  <si>
-    <t>Khem Birch</t>
-  </si>
-  <si>
-    <t>Hassan Whiteside</t>
-  </si>
-  <si>
-    <t>Jeremiah RobinsonEarl</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Tre Mann</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Goran Dragic</t>
+    <t>Tomas Satoransky</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>DeAndre Jordan</t>
+  </si>
+  <si>
+    <t>Cody Zeller</t>
+  </si>
+  <si>
+    <t>Patty Mills</t>
+  </si>
+  <si>
+    <t>Enes Freedom</t>
   </si>
   <si>
     <t>Jeremy Sochan</t>
   </si>
   <si>
+    <t>Dwight Howard</t>
+  </si>
+  <si>
+    <t>Shake Milton</t>
+  </si>
+  <si>
+    <t>Jeremy Lamb</t>
+  </si>
+  <si>
+    <t>Rudy Gay</t>
+  </si>
+  <si>
+    <t>Shaedon Sharpe</t>
+  </si>
+  <si>
+    <t>Gary Harris</t>
+  </si>
+  <si>
+    <t>TyTy Washington Jr.</t>
+  </si>
+  <si>
     <t>Oshae Brissett</t>
   </si>
   <si>
-    <t>Theo Maledon</t>
-  </si>
-  <si>
-    <t>Juan ToscanoAnderson</t>
-  </si>
-  <si>
-    <t>Daniel Theis</t>
-  </si>
-  <si>
-    <t>Danilo Gallinari</t>
-  </si>
-  <si>
-    <t>Chimezie Metu</t>
-  </si>
-  <si>
-    <t>Malachi Flynn</t>
-  </si>
-  <si>
-    <t>Davis Bertans</t>
-  </si>
-  <si>
-    <t>Drew Eubanks</t>
-  </si>
-  <si>
-    <t>Facundo Campazzo</t>
+    <t>Ochai Agbaji</t>
+  </si>
+  <si>
+    <t>Goga Bitadze</t>
+  </si>
+  <si>
+    <t>Carmelo Anthony</t>
+  </si>
+  <si>
+    <t>Paul Millsap</t>
+  </si>
+  <si>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
+    <t>Malaki Branham</t>
+  </si>
+  <si>
+    <t>Garrison Mathews</t>
   </si>
   <si>
     <t>JaMychal Green</t>
   </si>
   <si>
+    <t>Jaylen Nowell</t>
+  </si>
+  <si>
+    <t>Lou Williams</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>AJ Griffin</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>Josh Jackson</t>
+  </si>
+  <si>
+    <t>Omer Yurtseven</t>
+  </si>
+  <si>
+    <t>Jeff Green</t>
+  </si>
+  <si>
+    <t>Johnny Davis</t>
+  </si>
+  <si>
+    <t>Usman Garuba</t>
+  </si>
+  <si>
     <t>Trey Lyles</t>
   </si>
   <si>
-    <t>Paul Reed</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
-  </si>
-  <si>
-    <t>Moses Brown</t>
-  </si>
-  <si>
-    <t>Derrick Favors</t>
-  </si>
-  <si>
-    <t>Eric Bledsoe</t>
-  </si>
-  <si>
-    <t>Patty Mills</t>
-  </si>
-  <si>
-    <t>Kemba Walker</t>
-  </si>
-  <si>
-    <t>LaMarcus Aldridge</t>
-  </si>
-  <si>
-    <t>Serge Ibaka</t>
-  </si>
-  <si>
-    <t>Rudy Gay</t>
-  </si>
-  <si>
-    <t>Ochai Agbaji</t>
-  </si>
-  <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
-    <t>Gary Harris</t>
-  </si>
-  <si>
-    <t>TyTy Washington Jr.</t>
-  </si>
-  <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
-    <t>Taurean Prince</t>
-  </si>
-  <si>
-    <t>Blake Griffin</t>
-  </si>
-  <si>
-    <t>Garrison Mathews</t>
-  </si>
-  <si>
-    <t>Malaki Branham</t>
-  </si>
-  <si>
-    <t>Jaylen Nowell</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Danny Green</t>
-  </si>
-  <si>
-    <t>Tomas Satoransky</t>
-  </si>
-  <si>
-    <t>AJ Griffin</t>
-  </si>
-  <si>
-    <t>Jeff Green</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
-    <t>Johnny Davis</t>
-  </si>
-  <si>
-    <t>DeAndre Jordan</t>
-  </si>
-  <si>
-    <t>Omer Yurtseven</t>
+    <t>Tristan Thompson</t>
   </si>
   <si>
     <t>Udoka Azubuike</t>
   </si>
   <si>
-    <t>Usman Garuba</t>
-  </si>
-  <si>
-    <t>Cody Zeller</t>
-  </si>
-  <si>
-    <t>Shake Milton</t>
-  </si>
-  <si>
-    <t>Jeremy Lamb</t>
-  </si>
-  <si>
     <t>Landry Shamet</t>
   </si>
   <si>
     <t>Jordan McLaughlin</t>
   </si>
   <si>
-    <t>Enes Freedom</t>
-  </si>
-  <si>
-    <t>Dwight Howard</t>
+    <t>Georges Niang</t>
+  </si>
+  <si>
+    <t>James Bouknight</t>
+  </si>
+  <si>
+    <t>Josh Green</t>
+  </si>
+  <si>
+    <t>Justise Winslow</t>
+  </si>
+  <si>
+    <t>Hamidou Diallo</t>
+  </si>
+  <si>
+    <t>Jaden Hardy</t>
+  </si>
+  <si>
+    <t>Terence Davis II</t>
+  </si>
+  <si>
+    <t>Jared Butler</t>
+  </si>
+  <si>
+    <t>Ousmane Dieng</t>
+  </si>
+  <si>
+    <t>Cedi Osman</t>
+  </si>
+  <si>
+    <t>Jericho Sims</t>
+  </si>
+  <si>
+    <t>Ty Jerome</t>
+  </si>
+  <si>
+    <t>Bismack Biyombo</t>
   </si>
   <si>
     <t>Zeke Nnaji</t>
   </si>
   <si>
-    <t>Paul Millsap</t>
-  </si>
-  <si>
-    <t>Carmelo Anthony</t>
-  </si>
-  <si>
-    <t>Georges Niang</t>
-  </si>
-  <si>
-    <t>Justise Winslow</t>
-  </si>
-  <si>
-    <t>Lou Williams</t>
-  </si>
-  <si>
-    <t>James Bouknight</t>
-  </si>
-  <si>
-    <t>Josh Green</t>
-  </si>
-  <si>
-    <t>Josh Jackson</t>
-  </si>
-  <si>
-    <t>Cedi Osman</t>
-  </si>
-  <si>
-    <t>Ousmane Dieng</t>
-  </si>
-  <si>
-    <t>Hamidou Diallo</t>
-  </si>
-  <si>
-    <t>Jaden Hardy</t>
-  </si>
-  <si>
-    <t>Terence Davis II</t>
-  </si>
-  <si>
-    <t>Jared Butler</t>
-  </si>
-  <si>
-    <t>Tristan Thompson</t>
-  </si>
-  <si>
     <t>MarJon Beauchamp</t>
   </si>
   <si>
-    <t>Jericho Sims</t>
-  </si>
-  <si>
-    <t>Ty Jerome</t>
-  </si>
-  <si>
-    <t>Bismack Biyombo</t>
-  </si>
-  <si>
     <t>Aaron Nesmith</t>
   </si>
   <si>
@@ -1075,16 +1075,19 @@
     <t>Kira Lewis Jr.</t>
   </si>
   <si>
+    <t>Wesley Matthews</t>
+  </si>
+  <si>
+    <t>Furkan Korkmaz</t>
+  </si>
+  <si>
+    <t>Danuel House Jr.</t>
+  </si>
+  <si>
     <t>Dalen Terry</t>
   </si>
   <si>
-    <t>Wesley Matthews</t>
-  </si>
-  <si>
-    <t>Furkan Korkmaz</t>
-  </si>
-  <si>
-    <t>Danuel House Jr.</t>
+    <t>Jaylin Williams</t>
   </si>
   <si>
     <t>John Konchar</t>
@@ -1093,9 +1096,6 @@
     <t>Wendell Moore Jr.</t>
   </si>
   <si>
-    <t>Jaylin Williams</t>
-  </si>
-  <si>
     <t>Torrey Craig</t>
   </si>
   <si>
@@ -1117,6 +1117,9 @@
     <t>Aaron Wiggins</t>
   </si>
   <si>
+    <t>Austin Rivers</t>
+  </si>
+  <si>
     <t>Dalano Banton</t>
   </si>
   <si>
@@ -1135,9 +1138,6 @@
     <t>Kessler Edwards</t>
   </si>
   <si>
-    <t>Austin Rivers</t>
-  </si>
-  <si>
     <t>Nemanja Bjelica</t>
   </si>
   <si>
@@ -1459,24 +1459,24 @@
     <t>PF,C</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
+    <t>PG,SG,SF,PF</t>
+  </si>
+  <si>
     <t>SG,SF,PG</t>
   </si>
   <si>
-    <t>PG,SG,SF,PF</t>
-  </si>
-  <si>
     <t>SF,PF,SG</t>
   </si>
   <si>
@@ -1510,15 +1510,15 @@
     <t>PF,SF</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>SF,SG</t>
   </si>
   <si>
     <t>SG,PG</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>PF,PG,SF</t>
   </si>
   <si>
@@ -1537,12 +1537,12 @@
     <t>PHI</t>
   </si>
   <si>
+    <t>BKN</t>
+  </si>
+  <si>
     <t>DAL</t>
   </si>
   <si>
-    <t>BKN</t>
-  </si>
-  <si>
     <t>BOS</t>
   </si>
   <si>
@@ -1558,18 +1558,18 @@
     <t>CHA</t>
   </si>
   <si>
+    <t>POR</t>
+  </si>
+  <si>
     <t>IND</t>
   </si>
   <si>
-    <t>POR</t>
+    <t>LAL</t>
   </si>
   <si>
     <t>PHO</t>
   </si>
   <si>
-    <t>LAL</t>
-  </si>
-  <si>
     <t>LAC</t>
   </si>
   <si>
@@ -1591,13 +1591,13 @@
     <t>WAS</t>
   </si>
   <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
     <t>DET</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>OKC</t>
   </si>
   <si>
     <t>NOR</t>
@@ -2077,7 +2077,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D7" t="s">
         <v>508</v>
@@ -2091,10 +2091,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D8" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2105,10 +2105,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2119,10 +2119,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D10" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2147,7 +2147,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D12" t="s">
         <v>512</v>
@@ -2161,7 +2161,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D13" t="s">
         <v>513</v>
@@ -2175,7 +2175,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D14" t="s">
         <v>514</v>
@@ -2220,7 +2220,7 @@
         <v>479</v>
       </c>
       <c r="D17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2259,10 +2259,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2287,10 +2287,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D22" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2301,10 +2301,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D23" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2315,10 +2315,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D24" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2329,10 +2329,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D25" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2343,10 +2343,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D26" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2357,7 +2357,7 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D27" t="s">
         <v>522</v>
@@ -2371,10 +2371,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D28" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2385,10 +2385,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D29" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2399,10 +2399,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D30" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2427,10 +2427,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D32" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2441,10 +2441,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D33" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2455,10 +2455,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D34" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2469,10 +2469,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D35" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2483,10 +2483,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D36" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2500,7 +2500,7 @@
         <v>482</v>
       </c>
       <c r="D37" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2511,10 +2511,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D38" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2553,10 +2553,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D41" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2567,10 +2567,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D42" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2581,7 +2581,7 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D43" t="s">
         <v>504</v>
@@ -2609,10 +2609,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D45" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2623,10 +2623,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D46" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2637,7 +2637,7 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D47" t="s">
         <v>512</v>
@@ -2665,7 +2665,7 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D49" t="s">
         <v>521</v>
@@ -2679,7 +2679,7 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D50" t="s">
         <v>527</v>
@@ -2693,7 +2693,7 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D51" t="s">
         <v>527</v>
@@ -2707,10 +2707,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D52" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2721,10 +2721,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D53" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2735,10 +2735,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D54" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2749,10 +2749,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="D55" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2763,10 +2763,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D56" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2777,10 +2777,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D57" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2791,7 +2791,7 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D58" t="s">
         <v>505</v>
@@ -2819,10 +2819,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D60" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2833,7 +2833,7 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D61" t="s">
         <v>505</v>
@@ -2847,10 +2847,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D62" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2861,7 +2861,7 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D63" t="s">
         <v>510</v>
@@ -2892,7 +2892,7 @@
         <v>482</v>
       </c>
       <c r="D65" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2903,10 +2903,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D66" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2920,7 +2920,7 @@
         <v>479</v>
       </c>
       <c r="D67" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2931,10 +2931,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D68" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2945,10 +2945,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D69" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2962,7 +2962,7 @@
         <v>481</v>
       </c>
       <c r="D70" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2973,10 +2973,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D71" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2987,10 +2987,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D72" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3001,7 +3001,7 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D73" t="s">
         <v>531</v>
@@ -3015,10 +3015,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D74" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3029,10 +3029,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D75" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3043,10 +3043,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D76" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3057,10 +3057,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D77" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3071,10 +3071,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D78" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3085,10 +3085,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D79" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3099,10 +3099,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D80" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3113,10 +3113,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D81" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3127,10 +3127,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D82" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3141,10 +3141,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D83" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3155,10 +3155,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D84" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3169,10 +3169,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="D85" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3186,7 +3186,7 @@
         <v>487</v>
       </c>
       <c r="D86" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3200,7 +3200,7 @@
         <v>487</v>
       </c>
       <c r="D87" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3211,10 +3211,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D88" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3225,10 +3225,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D89" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3239,7 +3239,7 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D90" t="s">
         <v>532</v>
@@ -3253,10 +3253,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D91" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3267,7 +3267,7 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D92" t="s">
         <v>523</v>
@@ -3295,10 +3295,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D94" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3309,10 +3309,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D95" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3323,10 +3323,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D96" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3337,10 +3337,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D97" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3351,10 +3351,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D98" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3365,10 +3365,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D99" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3379,10 +3379,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="D100" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3393,10 +3393,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D101" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3421,10 +3421,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D103" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3435,10 +3435,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D104" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3449,10 +3449,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D105" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3466,7 +3466,7 @@
         <v>479</v>
       </c>
       <c r="D106" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3477,10 +3477,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D107" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3491,10 +3491,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D108" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3505,10 +3505,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D109" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3533,10 +3533,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D111" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3547,10 +3547,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D112" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3561,10 +3561,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D113" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3575,10 +3575,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D114" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3589,10 +3589,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D115" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3603,7 +3603,7 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D116" t="s">
         <v>523</v>
@@ -3620,7 +3620,7 @@
         <v>487</v>
       </c>
       <c r="D117" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3631,10 +3631,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D118" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3662,7 +3662,7 @@
         <v>487</v>
       </c>
       <c r="D120" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3673,10 +3673,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D121" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3687,7 +3687,7 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D122" t="s">
         <v>503</v>
@@ -3715,10 +3715,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D124" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3729,10 +3729,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D125" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3743,10 +3743,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D126" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3757,10 +3757,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D127" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3771,10 +3771,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D128" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3785,10 +3785,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D129" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3799,10 +3799,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D130" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3813,10 +3813,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D131" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3827,10 +3827,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D132" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3841,10 +3841,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D133" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3855,10 +3855,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D134" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3869,10 +3869,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D135" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3886,7 +3886,7 @@
         <v>481</v>
       </c>
       <c r="D136" t="s">
-        <v>532</v>
+        <v>505</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3897,10 +3897,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D137" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3911,10 +3911,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="D138" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3925,10 +3925,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D139" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3939,10 +3939,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D140" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3953,10 +3953,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D141" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3967,10 +3967,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D142" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3984,7 +3984,7 @@
         <v>481</v>
       </c>
       <c r="D143" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3995,10 +3995,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D144" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4009,10 +4009,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D145" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4023,10 +4023,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D146" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4040,7 +4040,7 @@
         <v>480</v>
       </c>
       <c r="D147" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4051,10 +4051,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D148" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4065,10 +4065,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D149" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4079,10 +4079,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D150" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4093,10 +4093,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D151" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4107,10 +4107,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D152" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4124,7 +4124,7 @@
         <v>482</v>
       </c>
       <c r="D153" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4135,10 +4135,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D154" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4149,10 +4149,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D155" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4163,10 +4163,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D156" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4177,10 +4177,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D157" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4191,10 +4191,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D158" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4205,10 +4205,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D159" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4222,7 +4222,7 @@
         <v>479</v>
       </c>
       <c r="D160" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4233,10 +4233,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D161" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4247,10 +4247,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D162" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4261,10 +4261,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D163" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4275,10 +4275,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D164" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4292,7 +4292,7 @@
         <v>479</v>
       </c>
       <c r="D165" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4303,10 +4303,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D166" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4331,10 +4331,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D168" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4345,10 +4345,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D169" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4359,10 +4359,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D170" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4373,10 +4373,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="D171" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4387,10 +4387,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D172" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4401,10 +4401,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D173" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4415,7 +4415,7 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D174" t="s">
         <v>528</v>
@@ -4429,10 +4429,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D175" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4443,10 +4443,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D176" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4457,10 +4457,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D177" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4471,10 +4471,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D178" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4485,10 +4485,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D179" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4499,10 +4499,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D180" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4513,10 +4513,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D181" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4541,10 +4541,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D183" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4555,10 +4555,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D184" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4569,10 +4569,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D185" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4583,10 +4583,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D186" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4597,10 +4597,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D187" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4611,10 +4611,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D188" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4625,10 +4625,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="D189" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4639,10 +4639,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D190" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4653,10 +4653,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D191" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4667,10 +4667,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D192" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4681,10 +4681,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D193" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4695,10 +4695,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="D194" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4709,10 +4709,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D195" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4726,7 +4726,7 @@
         <v>487</v>
       </c>
       <c r="D196" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4737,10 +4737,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="D197" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4751,10 +4751,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D198" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4765,10 +4765,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D199" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4779,10 +4779,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D200" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4793,10 +4793,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="D201" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4807,10 +4807,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D202" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4821,10 +4821,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D203" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4835,10 +4835,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D204" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4849,10 +4849,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D205" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4863,7 +4863,7 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D206" t="s">
         <v>513</v>
@@ -4877,10 +4877,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D207" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4891,10 +4891,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D208" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4908,7 +4908,7 @@
         <v>479</v>
       </c>
       <c r="D209" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4919,10 +4919,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D210" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4933,10 +4933,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D211" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4947,10 +4947,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D212" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4961,10 +4961,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D213" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4975,10 +4975,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="D214" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4989,10 +4989,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D215" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5003,10 +5003,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="D216" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5017,10 +5017,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D217" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5031,10 +5031,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="D218" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5048,7 +5048,7 @@
         <v>480</v>
       </c>
       <c r="D219" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5059,10 +5059,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D220" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5073,10 +5073,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D221" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5087,10 +5087,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D222" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5104,7 +5104,7 @@
         <v>480</v>
       </c>
       <c r="D223" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5115,7 +5115,7 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D224" t="s">
         <v>507</v>
@@ -5129,10 +5129,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D225" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5143,10 +5143,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D226" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5157,10 +5157,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D227" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5171,10 +5171,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D228" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5185,10 +5185,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D229" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5199,10 +5199,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D230" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5213,10 +5213,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D231" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5227,10 +5227,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="D232" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5241,10 +5241,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D233" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5255,10 +5255,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="D234" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5269,10 +5269,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="D235" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5283,10 +5283,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D236" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5297,10 +5297,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D237" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5311,10 +5311,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="D238" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5325,10 +5325,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D239" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5339,10 +5339,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D240" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5353,10 +5353,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D241" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5367,10 +5367,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D242" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5381,10 +5381,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D243" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5395,10 +5395,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D244" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5409,10 +5409,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="D245" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5423,10 +5423,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D246" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5437,10 +5437,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D247" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5451,10 +5451,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D248" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5465,10 +5465,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D249" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5479,10 +5479,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D250" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5496,7 +5496,7 @@
         <v>487</v>
       </c>
       <c r="D251" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5507,10 +5507,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D252" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5521,10 +5521,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D253" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5535,10 +5535,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="D254" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5549,10 +5549,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D255" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5563,10 +5563,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D256" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5577,7 +5577,7 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D257" t="s">
         <v>529</v>
@@ -5591,10 +5591,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="D258" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5605,10 +5605,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D259" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5619,10 +5619,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D260" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5633,10 +5633,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D261" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5647,10 +5647,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D262" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5661,10 +5661,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D263" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5675,10 +5675,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D264" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5689,10 +5689,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D265" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5703,10 +5703,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D266" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5717,10 +5717,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D267" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5731,10 +5731,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D268" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5745,10 +5745,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D269" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5759,10 +5759,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D270" t="s">
-        <v>533</v>
+        <v>506</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5773,10 +5773,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D271" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5787,10 +5787,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D272" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5801,10 +5801,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D273" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5815,10 +5815,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D274" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5829,10 +5829,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D275" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5843,10 +5843,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D276" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5857,10 +5857,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D277" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5871,10 +5871,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D278" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5885,10 +5885,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D279" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5899,10 +5899,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D280" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5913,10 +5913,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D281" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5927,10 +5927,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D282" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5941,10 +5941,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="D283" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5958,7 +5958,7 @@
         <v>479</v>
       </c>
       <c r="D284" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5969,10 +5969,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D285" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5983,10 +5983,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D286" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -6000,7 +6000,7 @@
         <v>479</v>
       </c>
       <c r="D287" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6014,7 +6014,7 @@
         <v>479</v>
       </c>
       <c r="D288" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -6025,10 +6025,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D289" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -6039,10 +6039,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="D290" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -6053,10 +6053,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D291" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6067,10 +6067,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D292" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6081,10 +6081,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D293" t="s">
-        <v>533</v>
+        <v>506</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6095,10 +6095,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D294" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6109,10 +6109,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="D295" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6123,10 +6123,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D296" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6137,10 +6137,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D297" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6151,10 +6151,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D298" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6165,10 +6165,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="D299" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6179,10 +6179,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D300" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6193,10 +6193,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D301" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6207,10 +6207,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D302" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6221,10 +6221,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D303" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6235,10 +6235,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D304" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6249,10 +6249,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D305" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6266,7 +6266,7 @@
         <v>487</v>
       </c>
       <c r="D306" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6277,10 +6277,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D307" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6291,10 +6291,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D308" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6305,10 +6305,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="D309" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6319,10 +6319,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D310" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6347,10 +6347,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="D312" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6361,10 +6361,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D313" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6375,10 +6375,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D314" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6389,10 +6389,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D315" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6403,10 +6403,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D316" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6417,10 +6417,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D317" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6431,10 +6431,10 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D318" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6445,10 +6445,10 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D319" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6459,10 +6459,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="D320" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6473,10 +6473,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D321" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6490,7 +6490,7 @@
         <v>487</v>
       </c>
       <c r="D322" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6501,10 +6501,10 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D323" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6515,10 +6515,10 @@
         <v>326</v>
       </c>
       <c r="C324" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D324" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6529,10 +6529,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D325" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6543,10 +6543,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D326" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6560,7 +6560,7 @@
         <v>479</v>
       </c>
       <c r="D327" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6585,10 +6585,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D329" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6602,7 +6602,7 @@
         <v>481</v>
       </c>
       <c r="D330" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6613,10 +6613,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="D331" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6630,7 +6630,7 @@
         <v>480</v>
       </c>
       <c r="D332" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6658,7 +6658,7 @@
         <v>487</v>
       </c>
       <c r="D334" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6669,10 +6669,10 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="D335" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6683,10 +6683,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D336" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6697,10 +6697,10 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D337" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6714,7 +6714,7 @@
         <v>487</v>
       </c>
       <c r="D338" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6725,10 +6725,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D339" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6739,10 +6739,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="D340" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6753,10 +6753,10 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D341" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6767,10 +6767,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="D342" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6781,10 +6781,10 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="D343" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6795,10 +6795,10 @@
         <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D344" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6809,10 +6809,10 @@
         <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D345" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6823,10 +6823,10 @@
         <v>348</v>
       </c>
       <c r="C346" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="D346" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6840,7 +6840,7 @@
         <v>487</v>
       </c>
       <c r="D347" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6865,7 +6865,7 @@
         <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D349" t="s">
         <v>527</v>
@@ -6879,10 +6879,10 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D350" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6896,7 +6896,7 @@
         <v>487</v>
       </c>
       <c r="D351" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6907,7 +6907,7 @@
         <v>354</v>
       </c>
       <c r="C352" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D352" t="s">
         <v>505</v>
@@ -6921,10 +6921,10 @@
         <v>355</v>
       </c>
       <c r="C353" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D353" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6935,10 +6935,10 @@
         <v>356</v>
       </c>
       <c r="C354" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="D354" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6949,10 +6949,10 @@
         <v>357</v>
       </c>
       <c r="C355" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D355" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6963,10 +6963,10 @@
         <v>358</v>
       </c>
       <c r="C356" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="D356" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6980,7 +6980,7 @@
         <v>487</v>
       </c>
       <c r="D357" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6994,7 +6994,7 @@
         <v>483</v>
       </c>
       <c r="D358" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -7005,7 +7005,7 @@
         <v>361</v>
       </c>
       <c r="C359" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D359" t="s">
         <v>517</v>
@@ -7019,10 +7019,10 @@
         <v>362</v>
       </c>
       <c r="C360" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D360" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -7064,7 +7064,7 @@
         <v>487</v>
       </c>
       <c r="D363" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -7075,10 +7075,10 @@
         <v>366</v>
       </c>
       <c r="C364" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="D364" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7089,10 +7089,10 @@
         <v>367</v>
       </c>
       <c r="C365" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="D365" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7103,10 +7103,10 @@
         <v>368</v>
       </c>
       <c r="C366" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D366" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7117,10 +7117,10 @@
         <v>369</v>
       </c>
       <c r="C367" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D367" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7131,10 +7131,10 @@
         <v>370</v>
       </c>
       <c r="C368" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D368" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7148,7 +7148,7 @@
         <v>493</v>
       </c>
       <c r="D369" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7159,10 +7159,10 @@
         <v>372</v>
       </c>
       <c r="C370" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D370" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7187,7 +7187,7 @@
         <v>374</v>
       </c>
       <c r="C372" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D372" t="s">
         <v>511</v>
@@ -7201,10 +7201,10 @@
         <v>375</v>
       </c>
       <c r="C373" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D373" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7257,7 +7257,7 @@
         <v>379</v>
       </c>
       <c r="C377" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D377" t="s">
         <v>504</v>
@@ -7274,7 +7274,7 @@
         <v>479</v>
       </c>
       <c r="D378" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7285,7 +7285,7 @@
         <v>381</v>
       </c>
       <c r="C379" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D379" t="s">
         <v>530</v>
@@ -7299,7 +7299,7 @@
         <v>382</v>
       </c>
       <c r="C380" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D380" t="s">
         <v>509</v>
@@ -7330,7 +7330,7 @@
         <v>482</v>
       </c>
       <c r="D382" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7411,7 +7411,7 @@
         <v>390</v>
       </c>
       <c r="C388" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D388" t="s">
         <v>504</v>
@@ -7425,7 +7425,7 @@
         <v>391</v>
       </c>
       <c r="C389" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D389" t="s">
         <v>510</v>
@@ -7442,7 +7442,7 @@
         <v>483</v>
       </c>
       <c r="D390" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7453,7 +7453,7 @@
         <v>393</v>
       </c>
       <c r="C391" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D391" t="s">
         <v>530</v>
@@ -7498,7 +7498,7 @@
         <v>492</v>
       </c>
       <c r="D394" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7512,7 +7512,7 @@
         <v>492</v>
       </c>
       <c r="D395" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7540,7 +7540,7 @@
         <v>483</v>
       </c>
       <c r="D397" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7579,10 +7579,10 @@
         <v>402</v>
       </c>
       <c r="C400" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D400" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7708,7 +7708,7 @@
         <v>493</v>
       </c>
       <c r="D409" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7761,7 +7761,7 @@
         <v>415</v>
       </c>
       <c r="C413" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D413" t="s">
         <v>511</v>
@@ -7817,10 +7817,10 @@
         <v>419</v>
       </c>
       <c r="C417" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D417" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7862,7 +7862,7 @@
         <v>490</v>
       </c>
       <c r="D420" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7915,7 +7915,7 @@
         <v>426</v>
       </c>
       <c r="C424" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D424" t="s">
         <v>525</v>
@@ -7929,7 +7929,7 @@
         <v>427</v>
       </c>
       <c r="C425" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D425" t="s">
         <v>533</v>
@@ -7957,7 +7957,7 @@
         <v>429</v>
       </c>
       <c r="C427" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D427" t="s">
         <v>522</v>
@@ -7974,7 +7974,7 @@
         <v>487</v>
       </c>
       <c r="D428" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7988,7 +7988,7 @@
         <v>487</v>
       </c>
       <c r="D429" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7999,7 +7999,7 @@
         <v>432</v>
       </c>
       <c r="C430" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D430" t="s">
         <v>529</v>
@@ -8027,7 +8027,7 @@
         <v>434</v>
       </c>
       <c r="C432" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D432" t="s">
         <v>505</v>
@@ -8139,7 +8139,7 @@
         <v>442</v>
       </c>
       <c r="C440" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D440" t="s">
         <v>533</v>
@@ -8156,7 +8156,7 @@
         <v>496</v>
       </c>
       <c r="D441" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8167,10 +8167,10 @@
         <v>444</v>
       </c>
       <c r="C442" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D442" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8184,7 +8184,7 @@
         <v>483</v>
       </c>
       <c r="D443" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8195,7 +8195,7 @@
         <v>446</v>
       </c>
       <c r="C444" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D444" t="s">
         <v>533</v>
@@ -8237,7 +8237,7 @@
         <v>449</v>
       </c>
       <c r="C447" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D447" t="s">
         <v>522</v>
@@ -8268,7 +8268,7 @@
         <v>487</v>
       </c>
       <c r="D449" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8433,7 +8433,7 @@
         <v>463</v>
       </c>
       <c r="C461" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D461" t="s">
         <v>533</v>
@@ -8447,7 +8447,7 @@
         <v>464</v>
       </c>
       <c r="C462" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D462" t="s">
         <v>533</v>
@@ -8461,7 +8461,7 @@
         <v>465</v>
       </c>
       <c r="C463" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D463" t="s">
         <v>533</v>
@@ -8503,7 +8503,7 @@
         <v>468</v>
       </c>
       <c r="C466" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D466" t="s">
         <v>533</v>
@@ -8587,7 +8587,7 @@
         <v>474</v>
       </c>
       <c r="C472" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D472" t="s">
         <v>533</v>
@@ -8601,7 +8601,7 @@
         <v>475</v>
       </c>
       <c r="C473" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D473" t="s">
         <v>533</v>
@@ -8629,7 +8629,7 @@
         <v>477</v>
       </c>
       <c r="C475" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D475" t="s">
         <v>533</v>

--- a/docs/FantasyProsBasketballDraft.xlsx
+++ b/docs/FantasyProsBasketballDraft.xlsx
@@ -49,15 +49,15 @@
     <t>Jayson Tatum</t>
   </si>
   <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
     <t>KarlAnthony Towns</t>
   </si>
   <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
     <t>Trae Young</t>
   </si>
   <si>
@@ -97,30 +97,30 @@
     <t>Anthony Edwards</t>
   </si>
   <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
     <t>Rudy Gobert</t>
   </si>
   <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
     <t>Chris Paul</t>
   </si>
   <si>
@@ -136,33 +136,33 @@
     <t>Cade Cunningham</t>
   </si>
   <si>
+    <t>Nikola Vucevic</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
     <t>Deandre Ayton</t>
   </si>
   <si>
-    <t>Nikola Vucevic</t>
-  </si>
-  <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
     <t>Zach LaVine</t>
   </si>
   <si>
+    <t>Jrue Holiday</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
     <t>Jarrett Allen</t>
   </si>
   <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
-    <t>Jrue Holiday</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
     <t>Evan Mobley</t>
   </si>
   <si>
@@ -178,33 +178,33 @@
     <t>Brandon Ingram</t>
   </si>
   <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
     <t>Jonas Valanciunas</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
     <t>John Collins</t>
   </si>
   <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Mikal Bridges</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Julius Randle</t>
+  </si>
+  <si>
     <t>Robert Williams III</t>
   </si>
   <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>Mikal Bridges</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Julius Randle</t>
-  </si>
-  <si>
     <t>Michael Porter Jr.</t>
   </si>
   <si>
@@ -220,48 +220,48 @@
     <t>Jakob Poeltl</t>
   </si>
   <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
     <t>Wendell Carter Jr.</t>
   </si>
   <si>
-    <t>Jamal Murray</t>
+    <t>Josh Giddey</t>
+  </si>
+  <si>
+    <t>Tyler Herro</t>
+  </si>
+  <si>
+    <t>Keldon Johnson</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Jusuf Nurkic</t>
+  </si>
+  <si>
+    <t>De'Aaron Fox</t>
   </si>
   <si>
     <t>Christian Wood</t>
   </si>
   <si>
-    <t>Josh Giddey</t>
-  </si>
-  <si>
-    <t>Jusuf Nurkic</t>
-  </si>
-  <si>
-    <t>Tyler Herro</t>
-  </si>
-  <si>
-    <t>Keldon Johnson</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>De'Aaron Fox</t>
+    <t>Jerami Grant</t>
   </si>
   <si>
     <t>Clint Capela</t>
   </si>
   <si>
-    <t>Jerami Grant</t>
+    <t>Marcus Smart</t>
   </si>
   <si>
     <t>Alperen Sengun</t>
   </si>
   <si>
-    <t>Marcus Smart</t>
-  </si>
-  <si>
     <t>Saddiq Bey</t>
   </si>
   <si>
@@ -289,39 +289,39 @@
     <t>Gary Trent Jr.</t>
   </si>
   <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
     <t>Mitchell Robinson</t>
   </si>
   <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
     <t>Collin Sexton</t>
   </si>
   <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
     <t>Al Horford</t>
   </si>
   <si>
     <t>D'Angelo Russell</t>
   </si>
   <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Kevin Porter Jr.</t>
+  </si>
+  <si>
     <t>Ivica Zubac</t>
   </si>
   <si>
-    <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
-    <t>Kevin Porter Jr.</t>
-  </si>
-  <si>
     <t>Harrison Barnes</t>
   </si>
   <si>
@@ -343,15 +343,15 @@
     <t>Bobby Portis Jr.</t>
   </si>
   <si>
+    <t>Bogdan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
     <t>Isaiah Stewart</t>
   </si>
   <si>
-    <t>Bogdan Bogdanovic</t>
-  </si>
-  <si>
-    <t>Spencer Dinwiddie</t>
-  </si>
-  <si>
     <t>Jalen Suggs</t>
   </si>
   <si>
@@ -361,33 +361,33 @@
     <t>Devin Vassell</t>
   </si>
   <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
     <t>Nic Claxton</t>
   </si>
   <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
     <t>Norman Powell</t>
   </si>
   <si>
+    <t>Monte Morris</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Lonzo Ball</t>
+  </si>
+  <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
     <t>Mo Bamba</t>
   </si>
   <si>
-    <t>Monte Morris</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Lonzo Ball</t>
-  </si>
-  <si>
-    <t>Cole Anthony</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
     <t>Dillon Brooks</t>
   </si>
   <si>
@@ -397,18 +397,18 @@
     <t>Kelly Oubre Jr.</t>
   </si>
   <si>
+    <t>Herbert Jones</t>
+  </si>
+  <si>
     <t>Brook Lopez</t>
   </si>
   <si>
-    <t>Herbert Jones</t>
+    <t>Patrick Williams</t>
   </si>
   <si>
     <t>Will Barton</t>
   </si>
   <si>
-    <t>Patrick Williams</t>
-  </si>
-  <si>
     <t>Dorian FinneySmith</t>
   </si>
   <si>
@@ -421,57 +421,57 @@
     <t>Jalen Smith</t>
   </si>
   <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>Bojan Bogdanovic</t>
+  </si>
+  <si>
+    <t>De'Anthony Melton</t>
+  </si>
+  <si>
     <t>Onyeka Okongwu</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
+    <t>Jaden McDaniels</t>
+  </si>
+  <si>
+    <t>Markelle Fultz</t>
   </si>
   <si>
     <t>Jarred Vanderbilt</t>
   </si>
   <si>
-    <t>Bojan Bogdanovic</t>
-  </si>
-  <si>
-    <t>De'Anthony Melton</t>
+    <t>Seth Curry</t>
+  </si>
+  <si>
+    <t>Jae'Sean Tate</t>
   </si>
   <si>
     <t>Daniel Gafford</t>
   </si>
   <si>
-    <t>Jaden McDaniels</t>
-  </si>
-  <si>
-    <t>Markelle Fultz</t>
-  </si>
-  <si>
-    <t>Jae'Sean Tate</t>
-  </si>
-  <si>
-    <t>Seth Curry</t>
+    <t>Reggie Jackson</t>
   </si>
   <si>
     <t>Richaun Holmes</t>
   </si>
   <si>
-    <t>Reggie Jackson</t>
+    <t>Jordan Clarkson</t>
   </si>
   <si>
     <t>Kevin Huerter</t>
   </si>
   <si>
-    <t>Jordan Clarkson</t>
+    <t>Matisse Thybulle</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
   </si>
   <si>
     <t>Steven Adams</t>
   </si>
   <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
-    <t>Matisse Thybulle</t>
-  </si>
-  <si>
     <t>Tre Jones</t>
   </si>
   <si>
@@ -484,21 +484,21 @@
     <t>Jaden Ivey</t>
   </si>
   <si>
+    <t>Thomas Bryant</t>
+  </si>
+  <si>
+    <t>Caris LeVert</t>
+  </si>
+  <si>
+    <t>Mason Plumlee</t>
+  </si>
+  <si>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
     <t>Andre Drummond</t>
   </si>
   <si>
-    <t>Thomas Bryant</t>
-  </si>
-  <si>
-    <t>Mason Plumlee</t>
-  </si>
-  <si>
-    <t>Caris LeVert</t>
-  </si>
-  <si>
-    <t>Royce O'Neale</t>
-  </si>
-  <si>
     <t>Alex Caruso</t>
   </si>
   <si>
@@ -508,78 +508,78 @@
     <t>Kevin Love</t>
   </si>
   <si>
+    <t>Bruce Brown Jr.</t>
+  </si>
+  <si>
     <t>Bones Hyland</t>
   </si>
   <si>
-    <t>Bruce Brown Jr.</t>
-  </si>
-  <si>
     <t>Jonathan Isaac</t>
   </si>
   <si>
     <t>Aleksej Pokusevski</t>
   </si>
   <si>
+    <t>Marvin Bagley III</t>
+  </si>
+  <si>
+    <t>Chuma Okeke</t>
+  </si>
+  <si>
     <t>Isaiah Hartenstein</t>
   </si>
   <si>
-    <t>Marvin Bagley III</t>
-  </si>
-  <si>
-    <t>Chuma Okeke</t>
-  </si>
-  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
+    <t>Kelly Olynyk</t>
+  </si>
+  <si>
     <t>Chris Duarte</t>
   </si>
   <si>
-    <t>Kelly Olynyk</t>
-  </si>
-  <si>
     <t>Bennedict Mathurin</t>
   </si>
   <si>
+    <t>Darius Bazley</t>
+  </si>
+  <si>
+    <t>Evan Fournier</t>
+  </si>
+  <si>
+    <t>Killian Hayes</t>
+  </si>
+  <si>
+    <t>Tim Hardaway Jr.</t>
+  </si>
+  <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
     <t>Chris Boucher</t>
   </si>
   <si>
-    <t>Darius Bazley</t>
-  </si>
-  <si>
-    <t>Evan Fournier</t>
-  </si>
-  <si>
-    <t>Killian Hayes</t>
-  </si>
-  <si>
-    <t>Tim Hardaway Jr.</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
+    <t>Reggie Bullock</t>
+  </si>
+  <si>
+    <t>Patrick Beverley</t>
+  </si>
+  <si>
+    <t>Obi Toppin</t>
   </si>
   <si>
     <t>Montrezl Harrell</t>
   </si>
   <si>
-    <t>Reggie Bullock</t>
-  </si>
-  <si>
-    <t>Patrick Beverley</t>
-  </si>
-  <si>
-    <t>Obi Toppin</t>
+    <t>Victor Oladipo</t>
+  </si>
+  <si>
+    <t>Jae Crowder</t>
   </si>
   <si>
     <t>Jaxson Hayes</t>
   </si>
   <si>
-    <t>Victor Oladipo</t>
-  </si>
-  <si>
-    <t>Jae Crowder</t>
-  </si>
-  <si>
     <t>Kendrick Nunn</t>
   </si>
   <si>
@@ -595,39 +595,39 @@
     <t>Kentavious CaldwellPope</t>
   </si>
   <si>
+    <t>Kevon Looney</t>
+  </si>
+  <si>
+    <t>Dennis Schroder</t>
+  </si>
+  <si>
+    <t>JaVale McGee</t>
+  </si>
+  <si>
+    <t>Cameron Payne</t>
+  </si>
+  <si>
     <t>James Wiseman</t>
   </si>
   <si>
-    <t>Kevon Looney</t>
-  </si>
-  <si>
-    <t>Dennis Schroder</t>
-  </si>
-  <si>
-    <t>JaVale McGee</t>
-  </si>
-  <si>
-    <t>Cameron Payne</t>
-  </si>
-  <si>
     <t>Devonte' Graham</t>
   </si>
   <si>
     <t>Grayson Allen</t>
   </si>
   <si>
+    <t>Delon Wright</t>
+  </si>
+  <si>
     <t>Malik Beasley</t>
   </si>
   <si>
-    <t>Delon Wright</t>
+    <t>Pat Connaughton</t>
   </si>
   <si>
     <t>Joe Harris</t>
   </si>
   <si>
-    <t>Pat Connaughton</t>
-  </si>
-  <si>
     <t>Tyus Jones</t>
   </si>
   <si>
@@ -646,72 +646,72 @@
     <t>Gary Payton II</t>
   </si>
   <si>
+    <t>Nassir Little</t>
+  </si>
+  <si>
+    <t>Isaac Okoro</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Grant Williams</t>
+  </si>
+  <si>
+    <t>Caleb Martin</t>
+  </si>
+  <si>
+    <t>Talen HortonTucker</t>
+  </si>
+  <si>
+    <t>Marcus Morris Sr.</t>
+  </si>
+  <si>
     <t>Jalen Duren</t>
   </si>
   <si>
-    <t>Nassir Little</t>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
+    <t>Precious Achiuwa</t>
+  </si>
+  <si>
+    <t>Larry Nance Jr.</t>
+  </si>
+  <si>
+    <t>T.J. Warren</t>
+  </si>
+  <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Ziaire Williams</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
   </si>
   <si>
     <t>Nerlens Noel</t>
   </si>
   <si>
-    <t>Isaac Okoro</t>
-  </si>
-  <si>
-    <t>Precious Achiuwa</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Grant Williams</t>
-  </si>
-  <si>
-    <t>Caleb Martin</t>
-  </si>
-  <si>
-    <t>Talen HortonTucker</t>
-  </si>
-  <si>
-    <t>Marcus Morris Sr.</t>
-  </si>
-  <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
-    <t>Larry Nance Jr.</t>
-  </si>
-  <si>
-    <t>T.J. Warren</t>
-  </si>
-  <si>
-    <t>Ziaire Williams</t>
-  </si>
-  <si>
-    <t>Quentin Grimes</t>
+    <t>Luke Kennard</t>
+  </si>
+  <si>
+    <t>Lonnie Walker IV</t>
+  </si>
+  <si>
+    <t>Maxi Kleber</t>
+  </si>
+  <si>
+    <t>Nicolas Batum</t>
+  </si>
+  <si>
+    <t>Duncan Robinson</t>
   </si>
   <si>
     <t>Isaiah Roby</t>
   </si>
   <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
-    <t>Maxi Kleber</t>
-  </si>
-  <si>
-    <t>Luke Kennard</t>
-  </si>
-  <si>
-    <t>Lonnie Walker IV</t>
-  </si>
-  <si>
-    <t>Nicolas Batum</t>
-  </si>
-  <si>
-    <t>Duncan Robinson</t>
-  </si>
-  <si>
     <t>Alec Burks</t>
   </si>
   <si>
@@ -730,12 +730,12 @@
     <t>Ayo Dosunmu</t>
   </si>
   <si>
+    <t>Eric Gordon</t>
+  </si>
+  <si>
     <t>Davion Mitchell</t>
   </si>
   <si>
-    <t>Eric Gordon</t>
-  </si>
-  <si>
     <t>Justin Holiday</t>
   </si>
   <si>
@@ -748,279 +748,279 @@
     <t>Malik Monk</t>
   </si>
   <si>
+    <t>Xavier Tillman</t>
+  </si>
+  <si>
+    <t>Moses Moody</t>
+  </si>
+  <si>
+    <t>Zach Collins</t>
+  </si>
+  <si>
+    <t>Joe Ingles</t>
+  </si>
+  <si>
+    <t>Dwight Powell</t>
+  </si>
+  <si>
     <t>Naz Reid</t>
   </si>
   <si>
-    <t>Dwight Powell</t>
-  </si>
-  <si>
-    <t>Xavier Tillman</t>
-  </si>
-  <si>
-    <t>Zach Collins</t>
-  </si>
-  <si>
-    <t>Moses Moody</t>
+    <t>Ricky Rubio</t>
+  </si>
+  <si>
+    <t>Miles Bridges</t>
+  </si>
+  <si>
+    <t>Terrence Ross</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Cam Reddish</t>
+  </si>
+  <si>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Max Strus</t>
+  </si>
+  <si>
+    <t>Nickeil AlexanderWalker</t>
+  </si>
+  <si>
+    <t>Doug McDermott</t>
+  </si>
+  <si>
+    <t>Thaddeus Young</t>
+  </si>
+  <si>
+    <t>KJ Martin Jr.</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Goran Dragic</t>
   </si>
   <si>
     <t>Dewayne Dedmon</t>
   </si>
   <si>
-    <t>Joe Ingles</t>
-  </si>
-  <si>
-    <t>Miles Bridges</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Ricky Rubio</t>
-  </si>
-  <si>
-    <t>Terrence Ross</t>
-  </si>
-  <si>
-    <t>Jose Alvarado</t>
-  </si>
-  <si>
-    <t>Cam Reddish</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Max Strus</t>
-  </si>
-  <si>
-    <t>Nickeil AlexanderWalker</t>
-  </si>
-  <si>
-    <t>Doug McDermott</t>
-  </si>
-  <si>
-    <t>Thaddeus Young</t>
+    <t>Kemba Walker</t>
+  </si>
+  <si>
+    <t>Joshua Primo</t>
+  </si>
+  <si>
+    <t>Theo Maledon</t>
+  </si>
+  <si>
+    <t>Paul Reed</t>
+  </si>
+  <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>Danilo Gallinari</t>
+  </si>
+  <si>
+    <t>Trendon Watford</t>
+  </si>
+  <si>
+    <t>Eric Bledsoe</t>
+  </si>
+  <si>
+    <t>Facundo Campazzo</t>
+  </si>
+  <si>
+    <t>Malachi Flynn</t>
   </si>
   <si>
     <t>Hassan Whiteside</t>
   </si>
   <si>
-    <t>KJ Martin Jr.</t>
+    <t>Gabe Vincent</t>
+  </si>
+  <si>
+    <t>Daniel Theis</t>
+  </si>
+  <si>
+    <t>Jalen McDaniels</t>
+  </si>
+  <si>
+    <t>LaMarcus Aldridge</t>
+  </si>
+  <si>
+    <t>Corey Kispert</t>
   </si>
   <si>
     <t>Khem Birch</t>
   </si>
   <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Daniel Theis</t>
-  </si>
-  <si>
-    <t>Goran Dragic</t>
-  </si>
-  <si>
-    <t>Kemba Walker</t>
-  </si>
-  <si>
-    <t>Joshua Primo</t>
-  </si>
-  <si>
-    <t>Theo Maledon</t>
-  </si>
-  <si>
-    <t>Paul Reed</t>
-  </si>
-  <si>
-    <t>Danilo Gallinari</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Trendon Watford</t>
-  </si>
-  <si>
-    <t>Eric Bledsoe</t>
-  </si>
-  <si>
     <t>Derrick Favors</t>
   </si>
   <si>
-    <t>Facundo Campazzo</t>
-  </si>
-  <si>
-    <t>Malachi Flynn</t>
-  </si>
-  <si>
-    <t>Gabe Vincent</t>
+    <t>Juan ToscanoAnderson</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Tre Mann</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Blake Griffin</t>
+  </si>
+  <si>
+    <t>Davis Bertans</t>
+  </si>
+  <si>
+    <t>Jeremiah RobinsonEarl</t>
+  </si>
+  <si>
+    <t>Dario Saric</t>
+  </si>
+  <si>
+    <t>Danny Green</t>
+  </si>
+  <si>
+    <t>Tomas Satoransky</t>
+  </si>
+  <si>
+    <t>Serge Ibaka</t>
+  </si>
+  <si>
+    <t>Dyson Daniels</t>
+  </si>
+  <si>
+    <t>Day'Ron Sharpe</t>
+  </si>
+  <si>
+    <t>Patty Mills</t>
   </si>
   <si>
     <t>Moses Brown</t>
   </si>
   <si>
-    <t>Jalen McDaniels</t>
-  </si>
-  <si>
-    <t>LaMarcus Aldridge</t>
-  </si>
-  <si>
-    <t>Corey Kispert</t>
-  </si>
-  <si>
-    <t>Juan ToscanoAnderson</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Tre Mann</t>
-  </si>
-  <si>
-    <t>Davis Bertans</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Jeremiah RobinsonEarl</t>
-  </si>
-  <si>
-    <t>Blake Griffin</t>
-  </si>
-  <si>
-    <t>Dario Saric</t>
-  </si>
-  <si>
-    <t>Danny Green</t>
+    <t>Jeremy Sochan</t>
+  </si>
+  <si>
+    <t>Shake Milton</t>
+  </si>
+  <si>
+    <t>Shaedon Sharpe</t>
+  </si>
+  <si>
+    <t>Jeremy Lamb</t>
+  </si>
+  <si>
+    <t>Rudy Gay</t>
+  </si>
+  <si>
+    <t>Gary Harris</t>
+  </si>
+  <si>
+    <t>TyTy Washington Jr.</t>
   </si>
   <si>
     <t>Drew Eubanks</t>
   </si>
   <si>
-    <t>Serge Ibaka</t>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
+    <t>Oshae Brissett</t>
+  </si>
+  <si>
+    <t>Ochai Agbaji</t>
   </si>
   <si>
     <t>Chimezie Metu</t>
   </si>
   <si>
-    <t>Day'Ron Sharpe</t>
-  </si>
-  <si>
-    <t>Tomas Satoransky</t>
-  </si>
-  <si>
-    <t>Dyson Daniels</t>
+    <t>Malaki Branham</t>
+  </si>
+  <si>
+    <t>Carmelo Anthony</t>
   </si>
   <si>
     <t>DeAndre Jordan</t>
   </si>
   <si>
+    <t>Paul Millsap</t>
+  </si>
+  <si>
     <t>Cody Zeller</t>
   </si>
   <si>
-    <t>Patty Mills</t>
+    <t>Garrison Mathews</t>
+  </si>
+  <si>
+    <t>Jaylen Nowell</t>
+  </si>
+  <si>
+    <t>Lou Williams</t>
+  </si>
+  <si>
+    <t>JaMychal Green</t>
   </si>
   <si>
     <t>Enes Freedom</t>
   </si>
   <si>
-    <t>Jeremy Sochan</t>
+    <t>AJ Griffin</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
   </si>
   <si>
     <t>Dwight Howard</t>
   </si>
   <si>
-    <t>Shake Milton</t>
-  </si>
-  <si>
-    <t>Jeremy Lamb</t>
-  </si>
-  <si>
-    <t>Rudy Gay</t>
-  </si>
-  <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
-    <t>Gary Harris</t>
-  </si>
-  <si>
-    <t>TyTy Washington Jr.</t>
-  </si>
-  <si>
-    <t>Oshae Brissett</t>
-  </si>
-  <si>
-    <t>Ochai Agbaji</t>
+    <t>Omer Yurtseven</t>
+  </si>
+  <si>
+    <t>Usman Garuba</t>
+  </si>
+  <si>
+    <t>Josh Jackson</t>
+  </si>
+  <si>
+    <t>Jeff Green</t>
+  </si>
+  <si>
+    <t>Johnny Davis</t>
+  </si>
+  <si>
+    <t>Trey Lyles</t>
+  </si>
+  <si>
+    <t>Tristan Thompson</t>
+  </si>
+  <si>
+    <t>Udoka Azubuike</t>
+  </si>
+  <si>
+    <t>Landry Shamet</t>
+  </si>
+  <si>
+    <t>Jordan McLaughlin</t>
   </si>
   <si>
     <t>Goga Bitadze</t>
   </si>
   <si>
-    <t>Carmelo Anthony</t>
-  </si>
-  <si>
-    <t>Paul Millsap</t>
-  </si>
-  <si>
-    <t>Taurean Prince</t>
-  </si>
-  <si>
-    <t>Malaki Branham</t>
-  </si>
-  <si>
-    <t>Garrison Mathews</t>
-  </si>
-  <si>
-    <t>JaMychal Green</t>
-  </si>
-  <si>
-    <t>Jaylen Nowell</t>
-  </si>
-  <si>
-    <t>Lou Williams</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>AJ Griffin</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
-    <t>Josh Jackson</t>
-  </si>
-  <si>
-    <t>Omer Yurtseven</t>
-  </si>
-  <si>
-    <t>Jeff Green</t>
-  </si>
-  <si>
-    <t>Johnny Davis</t>
-  </si>
-  <si>
-    <t>Usman Garuba</t>
-  </si>
-  <si>
-    <t>Trey Lyles</t>
-  </si>
-  <si>
-    <t>Tristan Thompson</t>
-  </si>
-  <si>
-    <t>Udoka Azubuike</t>
-  </si>
-  <si>
-    <t>Landry Shamet</t>
-  </si>
-  <si>
-    <t>Jordan McLaughlin</t>
-  </si>
-  <si>
     <t>Georges Niang</t>
   </si>
   <si>
@@ -1045,165 +1045,165 @@
     <t>Jared Butler</t>
   </si>
   <si>
+    <t>Cedi Osman</t>
+  </si>
+  <si>
     <t>Ousmane Dieng</t>
   </si>
   <si>
-    <t>Cedi Osman</t>
+    <t>Ty Jerome</t>
+  </si>
+  <si>
+    <t>Zeke Nnaji</t>
+  </si>
+  <si>
+    <t>MarJon Beauchamp</t>
+  </si>
+  <si>
+    <t>Kira Lewis Jr.</t>
+  </si>
+  <si>
+    <t>Aaron Nesmith</t>
+  </si>
+  <si>
+    <t>Jake LaRavia</t>
+  </si>
+  <si>
+    <t>Wesley Matthews</t>
+  </si>
+  <si>
+    <t>Furkan Korkmaz</t>
+  </si>
+  <si>
+    <t>Bismack Biyombo</t>
+  </si>
+  <si>
+    <t>Danuel House Jr.</t>
+  </si>
+  <si>
+    <t>Dalen Terry</t>
+  </si>
+  <si>
+    <t>John Konchar</t>
+  </si>
+  <si>
+    <t>Wendell Moore Jr.</t>
+  </si>
+  <si>
+    <t>Torrey Craig</t>
+  </si>
+  <si>
+    <t>Duane Washington Jr.</t>
+  </si>
+  <si>
+    <t>Amir Coffey</t>
+  </si>
+  <si>
+    <t>Kenrich Williams</t>
+  </si>
+  <si>
+    <t>Austin Rivers</t>
   </si>
   <si>
     <t>Jericho Sims</t>
   </si>
   <si>
-    <t>Ty Jerome</t>
-  </si>
-  <si>
-    <t>Bismack Biyombo</t>
-  </si>
-  <si>
-    <t>Zeke Nnaji</t>
-  </si>
-  <si>
-    <t>MarJon Beauchamp</t>
-  </si>
-  <si>
-    <t>Aaron Nesmith</t>
-  </si>
-  <si>
-    <t>Jake LaRavia</t>
-  </si>
-  <si>
-    <t>Kira Lewis Jr.</t>
-  </si>
-  <si>
-    <t>Wesley Matthews</t>
-  </si>
-  <si>
-    <t>Furkan Korkmaz</t>
-  </si>
-  <si>
-    <t>Danuel House Jr.</t>
-  </si>
-  <si>
-    <t>Dalen Terry</t>
+    <t>Elfrid Payton</t>
+  </si>
+  <si>
+    <t>Eric Paschall</t>
+  </si>
+  <si>
+    <t>Aaron Wiggins</t>
+  </si>
+  <si>
+    <t>Dalano Banton</t>
+  </si>
+  <si>
+    <t>Moritz Wagner</t>
+  </si>
+  <si>
+    <t>Willy Hernangomez</t>
+  </si>
+  <si>
+    <t>Brandon Goodwin</t>
+  </si>
+  <si>
+    <t>Peyton Watson</t>
+  </si>
+  <si>
+    <t>Kessler Edwards</t>
+  </si>
+  <si>
+    <t>Nemanja Bjelica</t>
+  </si>
+  <si>
+    <t>Aaron Holiday</t>
+  </si>
+  <si>
+    <t>Frank Jackson</t>
+  </si>
+  <si>
+    <t>Trevor Ariza</t>
+  </si>
+  <si>
+    <t>Simone Fontecchio</t>
+  </si>
+  <si>
+    <t>Trevor Keels</t>
+  </si>
+  <si>
+    <t>George Hill</t>
+  </si>
+  <si>
+    <t>Mike Muscala</t>
+  </si>
+  <si>
+    <t>R.J. Hampton Jr.</t>
+  </si>
+  <si>
+    <t>CJ Elleby</t>
+  </si>
+  <si>
+    <t>Vernon Carey Jr.</t>
+  </si>
+  <si>
+    <t>Jock Landale</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>David Roddy</t>
+  </si>
+  <si>
+    <t>Blake Wesley</t>
+  </si>
+  <si>
+    <t>Bol Bol</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Jevon Carter</t>
+  </si>
+  <si>
+    <t>Patrick Baldwin Jr.</t>
+  </si>
+  <si>
+    <t>Andrew Nembhard</t>
+  </si>
+  <si>
+    <t>Caleb Houstan</t>
+  </si>
+  <si>
+    <t>Christian Koloko</t>
   </si>
   <si>
     <t>Jaylin Williams</t>
   </si>
   <si>
-    <t>John Konchar</t>
-  </si>
-  <si>
-    <t>Wendell Moore Jr.</t>
-  </si>
-  <si>
-    <t>Torrey Craig</t>
-  </si>
-  <si>
-    <t>Duane Washington Jr.</t>
-  </si>
-  <si>
-    <t>Amir Coffey</t>
-  </si>
-  <si>
-    <t>Kenrich Williams</t>
-  </si>
-  <si>
-    <t>Elfrid Payton</t>
-  </si>
-  <si>
-    <t>Eric Paschall</t>
-  </si>
-  <si>
-    <t>Aaron Wiggins</t>
-  </si>
-  <si>
-    <t>Austin Rivers</t>
-  </si>
-  <si>
-    <t>Dalano Banton</t>
-  </si>
-  <si>
-    <t>Moritz Wagner</t>
-  </si>
-  <si>
-    <t>Willy Hernangomez</t>
-  </si>
-  <si>
-    <t>Brandon Goodwin</t>
-  </si>
-  <si>
-    <t>Peyton Watson</t>
-  </si>
-  <si>
-    <t>Kessler Edwards</t>
-  </si>
-  <si>
-    <t>Nemanja Bjelica</t>
-  </si>
-  <si>
-    <t>Aaron Holiday</t>
-  </si>
-  <si>
-    <t>Frank Jackson</t>
-  </si>
-  <si>
-    <t>Trevor Ariza</t>
-  </si>
-  <si>
-    <t>Simone Fontecchio</t>
-  </si>
-  <si>
-    <t>Trevor Keels</t>
-  </si>
-  <si>
-    <t>George Hill</t>
-  </si>
-  <si>
-    <t>Mike Muscala</t>
-  </si>
-  <si>
-    <t>R.J. Hampton Jr.</t>
-  </si>
-  <si>
-    <t>CJ Elleby</t>
-  </si>
-  <si>
-    <t>Vernon Carey Jr.</t>
-  </si>
-  <si>
-    <t>Jock Landale</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>David Roddy</t>
-  </si>
-  <si>
-    <t>Blake Wesley</t>
-  </si>
-  <si>
-    <t>Bol Bol</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>Jevon Carter</t>
-  </si>
-  <si>
-    <t>Patrick Baldwin Jr.</t>
-  </si>
-  <si>
-    <t>Andrew Nembhard</t>
-  </si>
-  <si>
-    <t>Caleb Houstan</t>
-  </si>
-  <si>
-    <t>Christian Koloko</t>
-  </si>
-  <si>
     <t>Naji Marshall</t>
   </si>
   <si>
@@ -1546,12 +1546,12 @@
     <t>BOS</t>
   </si>
   <si>
+    <t>GSW</t>
+  </si>
+  <si>
     <t>MIN</t>
   </si>
   <si>
-    <t>GSW</t>
-  </si>
-  <si>
     <t>ATL</t>
   </si>
   <si>
@@ -1582,10 +1582,10 @@
     <t>MEM</t>
   </si>
   <si>
+    <t>CLE</t>
+  </si>
+  <si>
     <t>TOR</t>
-  </si>
-  <si>
-    <t>CLE</t>
   </si>
   <si>
     <t>WAS</t>
@@ -2091,7 +2091,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D8" t="s">
         <v>509</v>
@@ -2108,7 +2108,7 @@
         <v>481</v>
       </c>
       <c r="D9" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2119,10 +2119,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D10" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2304,7 +2304,7 @@
         <v>487</v>
       </c>
       <c r="D23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2329,10 +2329,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D25" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2357,10 +2357,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D27" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2374,7 +2374,7 @@
         <v>481</v>
       </c>
       <c r="D28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2399,10 +2399,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D30" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2413,10 +2413,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D31" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2472,7 +2472,7 @@
         <v>479</v>
       </c>
       <c r="D35" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2500,7 +2500,7 @@
         <v>482</v>
       </c>
       <c r="D37" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2511,10 +2511,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D38" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2525,10 +2525,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D39" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2553,10 +2553,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D41" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2581,7 +2581,7 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D43" t="s">
         <v>504</v>
@@ -2595,10 +2595,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D44" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2609,10 +2609,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D45" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2626,7 +2626,7 @@
         <v>489</v>
       </c>
       <c r="D46" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2668,7 +2668,7 @@
         <v>480</v>
       </c>
       <c r="D49" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2693,7 +2693,7 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D51" t="s">
         <v>527</v>
@@ -2707,7 +2707,7 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D52" t="s">
         <v>527</v>
@@ -2735,10 +2735,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D54" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2749,10 +2749,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D55" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2763,10 +2763,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D56" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2777,10 +2777,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D57" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2791,10 +2791,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D58" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2805,10 +2805,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="D59" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2864,7 +2864,7 @@
         <v>481</v>
       </c>
       <c r="D63" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2889,10 +2889,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D65" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2903,10 +2903,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D66" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2917,10 +2917,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D67" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2934,7 +2934,7 @@
         <v>481</v>
       </c>
       <c r="D68" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2945,10 +2945,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D69" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2959,10 +2959,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D70" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2973,10 +2973,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D71" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2987,10 +2987,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D72" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3001,10 +3001,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D73" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3015,10 +3015,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D74" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3029,10 +3029,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D75" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3043,10 +3043,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D76" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3057,10 +3057,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D77" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3071,10 +3071,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D78" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3102,7 +3102,7 @@
         <v>487</v>
       </c>
       <c r="D80" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3200,7 +3200,7 @@
         <v>487</v>
       </c>
       <c r="D87" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3211,10 +3211,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D88" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3225,10 +3225,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D89" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3253,10 +3253,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="D91" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3267,10 +3267,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D92" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3298,7 +3298,7 @@
         <v>481</v>
       </c>
       <c r="D94" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3309,10 +3309,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D95" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3326,7 +3326,7 @@
         <v>487</v>
       </c>
       <c r="D96" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3337,10 +3337,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D97" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3351,10 +3351,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D98" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3463,10 +3463,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D106" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3477,10 +3477,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D107" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3491,10 +3491,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D108" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3547,10 +3547,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D112" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3561,10 +3561,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D113" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3589,10 +3589,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D115" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3603,10 +3603,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D116" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3617,10 +3617,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D117" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3631,10 +3631,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D118" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3645,10 +3645,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D119" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3659,10 +3659,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D120" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3715,10 +3715,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="D124" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3729,10 +3729,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="D125" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3743,10 +3743,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D126" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3757,10 +3757,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D127" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3827,10 +3827,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D132" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3841,10 +3841,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D133" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3855,10 +3855,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D134" t="s">
-        <v>532</v>
+        <v>505</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3869,10 +3869,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D135" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3883,10 +3883,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="D136" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3897,10 +3897,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D137" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3911,10 +3911,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="D138" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3928,7 +3928,7 @@
         <v>481</v>
       </c>
       <c r="D139" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3953,10 +3953,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D141" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3967,10 +3967,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D142" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3981,10 +3981,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D143" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3995,10 +3995,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D144" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4009,10 +4009,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D145" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4023,10 +4023,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D146" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4051,10 +4051,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D148" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4082,7 +4082,7 @@
         <v>480</v>
       </c>
       <c r="D150" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4124,7 +4124,7 @@
         <v>482</v>
       </c>
       <c r="D153" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4135,10 +4135,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D154" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4163,10 +4163,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D156" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4177,10 +4177,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D157" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4222,7 +4222,7 @@
         <v>479</v>
       </c>
       <c r="D160" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4233,10 +4233,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D161" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4247,10 +4247,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D162" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4292,7 +4292,7 @@
         <v>479</v>
       </c>
       <c r="D165" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4303,10 +4303,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="D166" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4317,10 +4317,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D167" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4345,10 +4345,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="D169" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4359,10 +4359,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D170" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4387,10 +4387,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D172" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4401,10 +4401,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D173" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4415,10 +4415,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D174" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4429,10 +4429,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D175" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4443,10 +4443,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D176" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4457,10 +4457,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D177" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4471,10 +4471,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D178" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4485,10 +4485,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D179" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4499,10 +4499,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D180" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4513,10 +4513,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D181" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4527,10 +4527,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D182" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4541,10 +4541,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D183" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4555,10 +4555,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D184" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4600,7 +4600,7 @@
         <v>480</v>
       </c>
       <c r="D187" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4639,10 +4639,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D190" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4653,10 +4653,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D191" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4667,10 +4667,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D192" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4681,10 +4681,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D193" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4695,10 +4695,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D194" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4737,10 +4737,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D197" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4751,10 +4751,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="D198" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4768,7 +4768,7 @@
         <v>487</v>
       </c>
       <c r="D199" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4782,7 +4782,7 @@
         <v>487</v>
       </c>
       <c r="D200" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4810,7 +4810,7 @@
         <v>480</v>
       </c>
       <c r="D202" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4877,10 +4877,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="D207" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4891,10 +4891,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D208" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4905,10 +4905,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="D209" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4919,10 +4919,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D210" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4933,10 +4933,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D211" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4947,10 +4947,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D212" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4961,10 +4961,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="D213" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4975,10 +4975,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="D214" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4989,10 +4989,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D215" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5003,10 +5003,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D216" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5017,10 +5017,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D217" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5031,10 +5031,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D218" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5045,10 +5045,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D219" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5073,10 +5073,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D221" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5087,10 +5087,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D222" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5101,10 +5101,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D223" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5115,10 +5115,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D224" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5129,10 +5129,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D225" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5143,10 +5143,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D226" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5157,10 +5157,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D227" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5171,10 +5171,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D228" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5269,10 +5269,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D235" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5283,10 +5283,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="D236" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5353,10 +5353,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D241" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5367,10 +5367,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="D242" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5384,7 +5384,7 @@
         <v>479</v>
       </c>
       <c r="D243" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5395,10 +5395,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="D244" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5409,10 +5409,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="D245" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5426,7 +5426,7 @@
         <v>482</v>
       </c>
       <c r="D246" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5437,10 +5437,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D247" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5465,10 +5465,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D249" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5479,10 +5479,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D250" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5496,7 +5496,7 @@
         <v>487</v>
       </c>
       <c r="D251" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5521,10 +5521,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D253" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5535,10 +5535,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D254" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5549,10 +5549,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D255" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5563,10 +5563,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D256" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5577,10 +5577,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="D257" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5591,10 +5591,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="D258" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5605,10 +5605,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D259" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5619,10 +5619,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D260" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5633,10 +5633,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D261" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5647,10 +5647,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D262" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5661,10 +5661,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D263" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5675,10 +5675,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D264" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5689,10 +5689,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D265" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5706,7 +5706,7 @@
         <v>492</v>
       </c>
       <c r="D266" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5717,10 +5717,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D267" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5734,7 +5734,7 @@
         <v>480</v>
       </c>
       <c r="D268" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5745,10 +5745,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D269" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5759,10 +5759,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D270" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5773,10 +5773,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D271" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5787,7 +5787,7 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D272" t="s">
         <v>533</v>
@@ -5801,10 +5801,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D273" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5815,10 +5815,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D274" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5829,10 +5829,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D275" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5843,10 +5843,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D276" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5857,10 +5857,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D277" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5874,7 +5874,7 @@
         <v>479</v>
       </c>
       <c r="D278" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5885,10 +5885,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="D279" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5899,10 +5899,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D280" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5913,10 +5913,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D281" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5927,7 +5927,7 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="D282" t="s">
         <v>524</v>
@@ -5941,10 +5941,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D283" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5958,7 +5958,7 @@
         <v>479</v>
       </c>
       <c r="D284" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5969,10 +5969,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="D285" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -6000,7 +6000,7 @@
         <v>479</v>
       </c>
       <c r="D287" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6011,10 +6011,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D288" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -6025,10 +6025,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D289" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -6042,7 +6042,7 @@
         <v>479</v>
       </c>
       <c r="D290" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -6053,10 +6053,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="D291" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6070,7 +6070,7 @@
         <v>479</v>
       </c>
       <c r="D292" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6081,7 +6081,7 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D293" t="s">
         <v>506</v>
@@ -6095,10 +6095,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D294" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6109,10 +6109,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D295" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6123,10 +6123,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D296" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6137,10 +6137,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D297" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6151,10 +6151,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D298" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6165,10 +6165,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D299" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6179,10 +6179,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D300" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6193,10 +6193,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D301" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6207,10 +6207,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D302" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6221,10 +6221,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D303" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6238,7 +6238,7 @@
         <v>480</v>
       </c>
       <c r="D304" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6249,10 +6249,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D305" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6263,10 +6263,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D306" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6277,10 +6277,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D307" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6294,7 +6294,7 @@
         <v>480</v>
       </c>
       <c r="D308" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6305,10 +6305,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="D309" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6319,10 +6319,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D310" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6333,7 +6333,7 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D311" t="s">
         <v>533</v>
@@ -6347,10 +6347,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D312" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6361,10 +6361,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D313" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6375,10 +6375,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D314" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6389,10 +6389,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D315" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6403,10 +6403,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D316" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6417,10 +6417,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D317" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6431,10 +6431,10 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="D318" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6459,10 +6459,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="D320" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6473,10 +6473,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="D321" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6487,10 +6487,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D322" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6501,10 +6501,10 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D323" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6543,10 +6543,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D326" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6560,7 +6560,7 @@
         <v>479</v>
       </c>
       <c r="D327" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6571,10 +6571,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D328" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6585,10 +6585,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D329" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6599,10 +6599,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D330" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6613,10 +6613,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D331" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6739,10 +6739,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="D340" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6753,10 +6753,10 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="D341" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6767,10 +6767,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D342" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6781,10 +6781,10 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D343" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6795,10 +6795,10 @@
         <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="D344" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6809,10 +6809,10 @@
         <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D345" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6823,10 +6823,10 @@
         <v>348</v>
       </c>
       <c r="C346" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="D346" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6837,10 +6837,10 @@
         <v>349</v>
       </c>
       <c r="C347" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D347" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6851,10 +6851,10 @@
         <v>350</v>
       </c>
       <c r="C348" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D348" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6865,10 +6865,10 @@
         <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D349" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6879,10 +6879,10 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D350" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6893,7 +6893,7 @@
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D351" t="s">
         <v>505</v>
@@ -6907,10 +6907,10 @@
         <v>354</v>
       </c>
       <c r="C352" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D352" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6921,10 +6921,10 @@
         <v>355</v>
       </c>
       <c r="C353" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="D353" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6935,10 +6935,10 @@
         <v>356</v>
       </c>
       <c r="C354" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="D354" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6949,10 +6949,10 @@
         <v>357</v>
       </c>
       <c r="C355" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D355" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6963,10 +6963,10 @@
         <v>358</v>
       </c>
       <c r="C356" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="D356" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6977,10 +6977,10 @@
         <v>359</v>
       </c>
       <c r="C357" t="s">
-        <v>487</v>
+        <v>498</v>
  